--- a/Game simulations/Week 16/Colts at Cardinals.xlsx
+++ b/Game simulations/Week 16/Colts at Cardinals.xlsx
@@ -57,16 +57,16 @@
     <t>CardinalsAvg. FPTS</t>
   </si>
   <si>
-    <t>NIG(9.106062015827131, -0.304824275916882, 0.5992955348943826, 35.32305687783297)</t>
-  </si>
-  <si>
-    <t>1 1 17 -23 -1 2 -3 -6 -6 -6 7 -5 4 -24 -3 10 -3 -6 -12 -4 -3 -6 -3 -4 9 18 -8 -8 -25 -6 -4 3 -6 -2 -3 1 3 7 -5 -7 -25 10 3 10 3 3 -10 -6 -11 10 2 5 -19 -3 -15 2 1 -6 6 -1 -14 -10 -14 -10 5 -2 6 -20 -10 -3 -19 13 -12 14 14 0 -4 -23 -7 5 -6 2 6 8 3 -5 -3 24 -16 -2 16 14 6 10 13 -12 -7 14 4 -3 2 -28 -3 -1 -3 7 2 -5 38 -16 6 -4 3 -1 5 7 8 11 -4 -4 1 15 -4 -11 8 -16 -3 8 -11 -3 -15 3 -3 -1 10 16 -6 -14 16 5 4 29 -6 0 13 13 -8 -3 11 -7 14 -28 13 -39 3 -17 -10 7 21 -4 10 10 -4 18 -6 -25 -6 8 -14 4 14 16 -11 -3 2 -11 3 -8 1 8 10 16 6 2 14 4 0 17 -21 3 18 2 -3 -7 13 3 -3 3 2 14 3 3 10 -3 -16 -27 -3 -19 29 3 -13 17 14 -5 -14 19 -6 6 3 -3 17 -21 -23 7 -13 19 6 1 33 -9 -3 10 0 -9 6 -3 -19 6 -2 -28 -12 34 0 -24 -12 11 1 -4 -5 -3 -20 -7 -3 14 1 14 -11 -30 25 -7 0 8 9 -4 7 -6 2 -7 -3 5 20 -6 9 -5 14 -24 -24 -4 4 21 8 5 -3 24 -20 -1 3 -4 -17 -10 -8 -17 4 8 25 4 3 10 27 11 3 -3 7 -2 16 -4 -12 -4 23 3 -12 -6 -15 -3 6 -14 -14 7 -9 0 18 -8 -14 5 -9 -6 -31 8 -13 -1 -7 -19 -35 10 6 -6 8 14 -6 -14 11 19 4 5 3 -3 -4 -11 -5 -7 -17 -16 27 -17 1 7 11 -32 -6 17 0 -4 -17 -9 -2 -7 -20 -21 -3 -3 -7 14 -3 1 10 -6 -3 -4 7 -3 -6 9 -26 9 -3 -3 -4 14 -7 -4 -11 -13 -7 -3 1 14 24 -3 -8 17 0 1 -18 -6 3 -21 3 -2 -3 -1 6 -13 2 -3 -12 21 31 -10 1 -5 -8 3 3 7 -11 -16 4 -3 -3 3 2 -6 3 7 8 8 13 7 -3 13 -7 -3 -17 -7 -3 -6 10 7 2 14 -9 -9 -11 0 15 7 28 -9 20 -9 -15 -3 -4 10 -5 27 -3 17 8 3 17 17 -3 10 -5 -22 -4 4 -10 7 10 6 -5 -7 -13 1 -10 -14 8 5 4 11 10 19 14 -3 -5 35 -11 2 7 -28 -7 -10 17 -13 21 4 7 -14 -2 3 4 1 -5 2 -10 -13 -8 6 -1 8 -3 -8 3 8 9 27 -7 -3 -15 8 6 -12 18 -11 -4 11 5 -7 -4 -3 -30 -5 -3 -7 -3 -5 -9 -14 -12 -7 7 2 -29 1 -5 10 -18 6 4 13 -9 3 -13 -7 -7 10 -7 31 -6 5 -8 -6 -14 -15 2 -15 28 1 7 3 3 -1 4 -7 10 -6 3 -14 7 27 13 13 6 -33 -4 -8 -3 20 21 -1 -4 -14 -8 20 -4 -14 17 18 10 -15 -4 3 -6 6 -10 -12 3 4 -18 19 -6 28 6 -7 -7 7 4 10 -7 -11 -11 -3 -8 -3 14 4 21 -16 -3 20 -11 1 3 -12 -21 -17 -14 14 -3 2 19 7 -4 10 -3 -3 -20 10 -6 -1 -8 -6 -20 -3 -14 6 11 -20 6 -21 18 -10 -10 9 -17 14 -9 3 -16 9 -14 7 7 7 14 6 -20 8 10 11 -11 4 -7 9 6 -6 -17 -7 10 -13 11 3 23 -7 -3 -16 9 -3 -17 3 -6 3 -10 -13 6 4 3 3 -10 -27 15 10 -33 -4 4 22 11 4 0 3 3 1 14 -14 -18 5 23 -3 -14 10 -3 -7 -34 -3 4 -21 -10 14 3 3 7 7 17 4 -9 1 -3 -7 -20 -3 14 3 19 -14 -7 2 -13 -3 3 -3 -10 -18 11 5 -28 3 3 3 6 -7 -3 11 -17 -2 10 14 7 8 -14 -10 -10 -2 -8 17 6 -2 4 7 16 21 -20 9 -3 -24 -8 -6 1 -17 3 -20 28 7 -13 1 21 -3 -3 -14 7 -3 -10 -5 18 11 -10 -16 8 6 5 2 0 3 -8 3 -4 -14 39 7 2 -6 -7 -17 -14 3 7 3 -6 2 18 1 17 13 12 8 15 16 14 20 -4 14 -7 -21 3 -5 17 7 -7 4 -8 -3 11 -3 20 8 2 -4 3 6 2 -2 -3 3 14 -20 -4 1 -5 26 -10 5 -5 6 -4 11 10 -16 17 3 12 -4 -10 1 -8 -3 6 11 20 -13 -9 21 -9 24 -1 -14 7 -10 10 -10 -3 8 7 2 -24 8 -7 -13 -3 -7 7 -32 3 -14 4 3 -12 -5 -19 4 3 6 -15 -2 -14 -1 17 5 -18 -24 14 7 -7 13 -5 -5 5 3 -14 -12 3 14 -8 -4 9 10 21 -5 7 2 10 19 7 -14 3 -11 -6 -8 2 -7 5 5 -13 -8 -3 4 -17 -11 3 -6 12 21 9 -10 9 6 -9 -1 -3 14 -1 -7 -18 -17 5 -8 20 7 -30 -5 -13 4 -13 5 7 -10 9 -8 -4 -2 -16 31 21 2 -6 -10 -6 14 -2 -3 -23 3 -1 -3 -3 3 -20 3 7 -3 -4 -10 12 -2 -25 24 5 -5 -6 -21 -18 -3 -3 -4 -24 1 -3 -13 0 19 -6 -1 9 -1 -14 17 -14 -4 3 -14 3 14 19 -13 -11 2 27 5 -11 -4 -11 6 4 -29 3 3 3 3 -3 -3 -11 4 -17 -1 3 -7 11 -11 -10 -10 -6 -14 2 14 13 -4 -8 -2 5 17 7 -20 2 3 -10 10 -10 -5 -12 1 14 4 -3 7 3 -21 -8 -3 3 1 6 23 9 17 -19 7 -13 5 3 5 5 7 19 -4 -7 5 -18 6 -4 -3 -5 0 -17 -9 -6 3 10 -17 8 3 9 5 8 -3 17 -6 -15 9 -36 -12 -6 -3 -3 3 12 10 -4 15 30 -3 -3 -4 8 -1 8 6 -17 -3 -6 -10 6 3 -3 -5 -3 6 1 -3 20 8 1 -3 -14 3 10 2 17 -14 -21 -20 -3 -13 -1 -11 -13 3 6 7 19 -4 16 14 -18 2 -15 -10 -5 3 10 -6 10 1 -17 -11 3 -6 16 -8 15 5 -27 -3 3 -13 18 3 16 7 3 -1 1 1 2 -14 -10 11 -11 -10 13 -28 31 -16 -7 -7 2 7 -14 -5 0 24 -1 -3 17 3 8 -2 11 -11 4 -1 -4 22 -18 10 -5 -18 -7 14 -7 5 -13 3 17 -10 5 -5 4 2 21 3 -7 19 3 -15 11 -6 11 5 -6 12 -1 -6 -14 -14 4 -15 -8 14 14 -3 -11 -4 3 24 -3 -4 -12 -7 8 9 -7 -33 4 -1 -11 -20 -9 -12 -20 9 -7 -7 10 6 7 4 -15 -8 -14 -8 -20 6 6 12 6 -10 3 38 6 35 7 -23 -5 -5 -7 -5 3 7 -11 -7 -8 -9 3 6 -3 -8 3 4 -8 4 3 -6 16 6 -7 10 -3 -7 6 -6 3 -3 -7 11 -11 -8 -18 -3 -8 -17 -5 1 7 0 5 6 -6 6 -25 1 -7 -18 11 -10 4 -10 2 -6 -7 2 4 20 -14 -7 11 13 -9 -15 7 -17 -7 -18 11 11 11 5 3 -9 16 9 -31 16 8 11 -14 -20 1 -6 16 7 -9 -17 -3 -14 10 4 7 2 -11 -4 3 11 16 4 -7 -7 11 -21 -7 -7 22 -5 -8 33 -2 -7 1 -8 5 7 5 14 -14 14 4 -3 -10 30 1 5 -6 -1 7 -21 12 10 3 5 -23 3 5 -10 5 9 14 -12 -3 8 -5 5 -6 7 -3 -10 -14 -2 -16 -4 12 20 -5 -18 -3 6 -34 1 1 17 5 -10 10 -4 -3 19 13 -7 18 -3 -4 -20 21 -7 14 17 3 -3 3 3 -11 -3 -4 -3 3 4 -4 23 17 -29 3 -1 11 5 15 -6 7 18 9 3 -4 -3 -11 -15 1 -6 21 -3 6 -14 -9 -20 -9 -6 14 -7 27 -4 -7 6 20 18 -11 21 2 14 10 -10 1 -11 -6 -3 17 17 3 -5 7 6 -27 10 -25 25 32 -13 6 3 -6 4 -1 11 10 12 8 -3 -3 -10 -1 6 -9 7 -7 7 10 8 -14 -5 8 -3 -13 -3 10 -4 12 4 7 -6 -10 -23 -6 8 -6 -2 -20 -6 -6 15 -3 -5 -15 17 3 -11 -10 -3 -10 2 -4 3 8 -6 -11 -17 30 3 -10 -10 -9 10 10 -10 -8 27 -9 -16 -3 16 5 -1 -3 -7 30 6 -20 -3 -14 -5 17 7 -35 15 12 -1 -14 2 -3 7 -12 1 3 8 -11 12 -34 -7 -34 -3 -6 -7 4 12 -21 4 3 6 14 7 3 -3 3 -3 7 0 5 7 -10 9 -12 -3 -15 -3 9 -4 -10 -21 4 25 -31 -23 20 -16 -6 6 -3 31 -5 -12 5 12 -8 7 -15 -9 -11 9 10 4 3 7 25 -3 -7 -9 -9 4 -15 0 30 -3 24 7 -7 3 3 -26 10 -14 32 7 -31 -3 10 -8 -3 9 -2 -4 2 -19 10 -8 -10 -36 -11 3 18 -3 1 4 3 14 6 1 11 -6 -28 -9 -4 3 10 -1 -6 3 -11 -17 31 7 5 -5 -6 5 1 17 -3 -7 15 8 6 16 7 -21 -6 -3 -6 -7 3 6 0 10 -4 -6 -18 2 -4 -6 4 -14 -7 24 13 2 -8 14 20 0 17 -11 6 -5 21 8 6 9 -9 -6 -27 10 20 7 33 13 3 -8 6 11 6 -12 11 4 10 -7 -2 -13 11 3 3 17 22 -6 -24 -7 7 -4 9 -28 -13 10 -12 20 7 -25 4 -13 10 -8 3 -2 3 -4 23 -13 11 -3 -2 13 24 14 12 5 5 -6 -17 4 2 6 3 4 -23 14 8 25 -10 13 -8 -6 -8 -27 -20 2 3 -11 -3 9 7 1 -3 7 10 2 -2 -4 3 -7 -21 16 9 -12 -10 10 -2 -11 17 -6 10 -2 -11 -19 -9 -8 4 5 9 -13 -4 -5 -14 -1 1 -15 -5 6 7 -4 17 17 -4 13 -6 20 -3 -2 -8 -3 9 -13 6 -3 -13 -17 -14 -3 -6 -16 -20 5 1 6 -23 -1 -1 -6 -7 2 -4 11 -3 11 6 -6 -12 -32 -26 3 18 2 -6 -14 -3 6 -7 -3 18 5 -3 21 -2 -14 -28 -24 -2 6 8 -11 11 4 0 -13 -11 -28 9 -14 -7 -10 -20 -13 3 1 3 -28 6 -25 -21 24 15 -19 5 10 3 -3 -14 -10 -3 16 -10 19 -5 -6 6 -14 2 -17 9 12 -25 -6 17 35 11 -17 3 7 3 3 -22 3 -3 -3 -14 -3 2 -6 -8 -6 7 -12 3 -23 -7 -11 20 0 7 -3 -4 -6 3 -3 -17 -25 7 -7 -7 2 -15 11 5 -3 -5 -11 -14 -3 -8 9 -16 17 5 29 3 3 -20 -7 1 -4 -15 -3 14 -12 -7 -3 13 -23 25 -3 6 -6 -3 7 -21 3 4 9 -23 -22 10 11 -3 3 -14 0 4 5 -17 8 1 16 6 -2 15 -3 -6 -20 6 -5 26 7 6 -7 -3 -13 1 -14 -11 -3 -10 -1 3 -4 9 -3 -7 -19 6 11 -17 7 7 14 7 -19 -3 -3 7 -11 17 5 21 37 -7 7 24 3 -3 -2 -11 -14 -3 10 20 -1 -3 5 5 -23 -34 -3 -15 -31 -11 9 -10 8 1 16 -10 -31 2 -13 12 7 -17 -11 -11 30 0 -1 -3 19 -29 -10 3 -11 3 14 11 -10 4 -14 -8 14 4 -11 24 -3 -11 4 23 5 -25 14 -8 -3 5 9 4 8 -5 3 6 12 6 3 -8 -19 -9 4 -25 3 -10 8 -19 6 9 2 -6 -10 23 7 13 -22 -5 6 -4 -3 -3 -4 0 11 -3 11 2 -15 -7 3 30 -8 -17 -10 6 -1 -15 -6 -15 26 9 -14 -2 6 -5 -3 -3 3 -10 -7 -4 -18 3 -2 -3 -3 -14 -11 -11 -4 4 43 3 -19 11 -20 8 -13 -17 11 -3 10 1 14 6 -8 7 -11 3 3 -7 -7 -11 1 5 8 -4 8 2 -5 5 -7 -20 -3 -19 -6 -3 25 6 -18 -3 -6 3 16 14 -5 -7 5 -5 1 1 11 -7 -11 14 7 -6 7 5 -4 3 10 -5 3 2 -13 4 3 -10 27 -2 3 6 25 -20 37 6 3 -14 7 26 -2 3 3 3 -7 7 9 -6 8 -13 16 -12 -7 2 -8 8 -10 -10 5 -2 3 6 6 -14 13 -3 -5 11 10 2 -3 15 -10 14 34 -3 -4 -15 20 -21 -6 3 -6 13 -2 -10 3 -3 -15 2 31 -7 6 0 10 -11 3 -14 12 24 -10 -7 -18 7 -2 10 -13 -7 -10 -4 8 10 13 -7 35 1 -6 -3 -14 -8 -28 -17 14 -9 10 17 -13 -17 -3 14 -6 3 6 4 4 6 0 14 12 3 -27 -3 10 -6 17 7 28 -3 -18 -8 -11 3 -10 -16 2 10 -31 -3 -11 -19 -14 -21 17 19 -3 -13 -6 -5 -21 18 -7 -16 -1 7 -4 -2 4 6 -31 -4 8 -20 -17 17 13 3 1 3 -17 -1 20 3 -7 -13 14 3 14 -11 8 5 -17 -3 -11 -2 -17 -5 6 3 10 10 3 -38 8 -4 0 3 10 17 -12 6 -3 -3 7 7 3 -2 12 7 -10 -10 -3 -2 -8 -12 13 -3 3 -6 -7 7 3 -15 10 11 10 -6 -3 -7 3 -7 3 15 3 13 -19 -3 3 -17 3 -11 3 9 -6 8 10 7 1 -31 -21 -1 17 -5 -4 -18 1 -8 -20 -6 2 3 17 -18 -5 -22 -12 3 27 8 7 -13 3 -10 3 -3 -24 16 16 -6 7 7 17 7 -3 18 -4 3 -7 1 6 11 6 -13 -12 15 0 9 -3 29 3 -11 -6 9 4 -14 12 6 4 -7 -10 -11 -19 -5 7 15 12 -3 -4 2 3 -12 3 9 3 -3 -4 -3 18 -3 -3 9 5 -1 14 8 -17 -11 -5 11 -13 3 -4 14 -8 13 -7 9 -4 -4 6 -24 -9 -10 -14 11 -3 -3 -14 -14 18 -7 20 10 -4 -3 -11 1 -1 -5 -1 -31 -24 10 7 -28 -10 -15 -8 3 -7 -12 7 24 9 -7 -1 10 3 3 5 -3 14 -14 -18 -17 -3 -3 -1 14 -2 14 1 16 -10 10 -15 7 -10 -8 -11 -2 21 -11 -14 -10 -21 -3 -17 1 -10 4 -7 7 -7 -4 15 32 -8 3 -3 -3 -6 -6 -21 -11 6 27 -10 -14 5 5 -10 3 -16 -24 13 3 -7 -15 -10 -13 3 -3 -18 -4 -9 -6 -18 10 -7 -1 -7 4 -9 -15 12 3 -2 -18 12 4 3 4 -12 -6 -6 -8 -4 -4 -2 11 16 3 -11 -4 3 10 9 11 3 -6 -4 -3 -4 8 -7 -10 3 -2 -3 6 18 10 -9 -7 -10 -9 3 10 -9 0 -15 -3 -5 -1 3 -41 -18 -11 4 -2 11 -14 -14 -3 8 8 -18 11 4 -10 -9 -4 16 6 -19 -18 18 17 -32 12 -11 4 4 7 7 -11 -10 -18 20 1 -4 -11 0 24 12 2 32 3 9 3 2 1 -15 -3 -14 4 21 20 -15 -6 3 -4 -15 7 -6 -7 -10 7 14 8 -13 3 -10 -14 -4 -15 -7 -5 6 13 17 7 0 8 -4 4 -6 9 -3 -4 -4 -5 -9 7 12 -8 -1 14 -3 3 -12 -10 3 -22 7 -8 -10 6 19 -4 8 1 -6 19 -7 17 -3 23 -4 -3 -4 15 3 -3 23 11 21 0 -10 -5 -6 -15 3 -12 -6 -19 10 4 -20 -6 -18 -10 3 -1 9 3 1 14 6 3 -15 4 13 13 3 10 -13 -1 -17 -10 -20 13 6 8 10 14 -5 3 11 -2 5 -3 11 3 -5 -6 2 -14 -17 -8 -15 4 -2 18 -4 -6 17 -4 -9 -8 12 -5 2 8 10 -3 -11 6 3 16 -10 -15 -16 14 -24 -5 -21 8 6 -12 4 -21 17 -14 -11 -2 -8 3 -6 20 -28 -4 3 -3 -10 -3 22 5 4 6 8 -7 -2 6 -3 3 -3 8 -17 -34 -6 -11 -3 3 12 4 7 13 -13 -14 17 10 -3 12 5 -8 10 -11 -3 -10 7 10 22 -2 17 -5 -15 -24 14 -13 -2 11 6 4 -9 3 11 -41 1 -4 -14 -1 4 -3 -1 21 14 -7 10 -6 -15 3 11 2 -7 14 -6 -7 -14 10 -17 -4 -3 8 -13 9 18 1 5 -5 -3 6 6 -4 -8 -4 -9 -4 13 10 14 -11 -7 -8 16 4 -11 -13 -13 -24 -7 -10 -4 -10 0 3 9 -7 4 5 2 -7 4 12 -6 -39 -11 -2 -17 16 -7 -14 3 18 -32 -30 -15 6 14 3 24 30 -3 -7 10 7 3 -21 -5 -7 1 -17 -3 20 -24 7 17 13 7 6 -19 0 4 20 4 -15 -8 -3 3 -5 -3 3 7 -16 -12 -3 -6 -14 -2 -3 10 8 8 -6 -12 13 7 3 -3 14 -9 7 -11 -3 -13 17 5 -21 24 -5 -2 -2 -14 20 6 -1 3 10 5 -11 -6 11 -6 1 3 5 -6 12 -21 2 8 -3 -8 -4 -9 -4 16 7 -4 11 -10 -10 3 6 -17 4 -10 3 -2 -2 6 -17 6 -14 -4 -7 -5 3 -4 3 -12 -15 -7 -3 3 -10 3 5 7 14 -7 25 -7 14 -9 -25 -9 -1 3 8 2 -3 -21 3 10 7 3 -31 -8 8 10 -3 -1 11 -7 4 -3 5 19 -7 12 -7 -9 -3 4 14 3 17 -17 9 -26 -18 10 7 -1 28 13 14 -10 37 -7 -7 -7 -22 -3 5 -3 7 4 6 3 -3 -4 14 -10 5 17 3 3 -11 -7 -3 -23 -5 6 7 -25 -5 -18 10 -1 -4 15 -5 26 -15 -4 7 2 16 -21 12 13 -7 6 -7 -3 7 28 -3 -8 13 -3 8 -1 -3 -24 2 -18 -10 -3 -9 6 -20 -24 -3 6 -4 -9 3 8 -17 1 4 -17 -5 30 -10 -7 -20 0 -3 -15 -12 4 -3 -10 -14 -3 -10 20 -19 18 -2 -6 1 -23 -16 18 7 -19 5 9 13 -4 -7 3 3 -3 5 -3 -18 15 33 23 -24 0 7 -6 -28 3 19 12 9 -14 -7 14 2 -4 18 3 -5 -16 3 -3 -14 11 -10 -3 -7 3 -29 -13 -17 -5 -13 -3 -1 18 15 13 11 -3 8 17 -3 10 3 -9 11 -11 16 -12 12 -6 16 -3 15 -8 -3 -3 -14 10 -6 3 -5 -14 -9 8 -5 -8 -5 5 11 -13 -10 24 14 -7 -9 10 -1 -3 -11 -12 10 3 -14 -6 -9 34 -3 -14 -29 -5 -23 7 -13 -8 -11 -14 -2 6 4 7 12 11 26 -14 3 -18 4 -7 -3 -44 -14 -3 -4 5 6 -2 -13 -34 -27 -12 3 3 -3 -3 19 17 -10 -6 -20 7 -3 3 5 3 -8 16 -13 11 7 -15 0 -5 5 -6 -3 8 -21 -6 21 -19 -17 2 -32 -3 -28 -21 -4 23 -17 3 -3 -28 -1 -24 18 -6 3 11 -7 -7 9 23 6 -7 22 14 3 -11 -10 3 -8 3 -27 3 7 -6 -14 25 -9 13 -9 -6 5 -12 7 -9 17 12 3 13 -7 5 2 8 10 9 -18 -2 -5 -20 17 15 4 10 11 -6 8 -18 10 -4 -18 6 6 -7 4 -13 -5 3 -26 -1 6 14 29 2 -9 11 2 -12 -5 -1 3 -6 -8 3 -18 -17 3 -7 3 -8 -19 -13 9 20 4 4 11 -13 -1 9 -11 10 -17 -17 13 -7 -6 -7 5 -4 -3 6 -17 -10 7 -4 6 6 3 9 5 9 -1 -11 -1 13 -18 14 -2 4 12 6 7 -3 -14 -6 6 -3 -7 17 -3 -9 -4 17 -15 -8 -10 21 20 -21 -7 -4 -11 20 6 -6 -6 -3 -9 -13 -3 3 -8 -3 8 -7 -14 -14 -2 10 -3 8 -11 6 -2 -4 3 -4 -3 3 -5 4 7 10 -9 3 0 3 -3 -16 -3 -7 12 14 25 1 -6 -3 3 -2 1 -3 3 17 13 -8 6 -4 -20 10 14 -24 -7 -7 1 5 -14 -3 13 -5 -5 7 10 6 7 8 12 4 14 20 3 -3 -14 7 -6 -17 9 -6 -7 -6 20 5 -7 2 -3 -12 -3 -4 1 -3 12 -3 -28 -5 -3 -3 -5 -11 3 -12 15 14 3 12 12 -5 5 -8 -10 -3 -11 6 13 8 19 7 -6 -7 -10 -12 14 5 5 -3 16 6 10 4 -20 3 2 3 -14 0 -8 14 5 11 2 6 -6 -15 9 -3 -13 -3 -3 3 21 -24 -2 0 17 -27 22 -10 4 20 4 6 -3 6 -3 5 -3 3 -8 10 2 7 -9 4 11 -6 -17 -6 -19 -17 -21 13 -10 13 26 17 7 -7 23 -9 -8 -5 -21 3 -28 3 -10 -7 -20 21 10 19 -13 23 7 -5 -13 -5 -7 4 14 3 -14 5 0 -6 18 3 7 3 -21 6 20 3 14 6 4 6 24 3 5 -5 8 3 -17 -20 -17 10 17 -8 9 -19 -3 -14 3 -17 -17 -3 -8 7 5 -8 14 -13 -9 3 -24 3 18 -2 -13 -3 7 -14 3 21 -12 -8 -3 0 -12 -3 -14 -3 16 -5 2 -4 -6 3 11 -1 -21 -7 -1 -13 17 -9 -6 -12 3 4 14 3 2 -7 1 -3 4 3 13 -17 -5 -13 3 -8 7 17 15 -4 -6 -24 -2 4 -1 3 -3 -5 -6 10 3 -10 17 11 -9 6 -10 -3 -14 0 5 -18 21 1 2 2 20 7 -11 3 -4 -5 -2 -2 18 6 5 3 27 5 12 5 -11 28 -10 6 -17 12 17 7 4 24 -3 2 -3 20 6 24 7 -11 17 -15 -10 -22 5 3 -42 2 -5 7 -7 -10 6 14 17 -19 -7 -12 -10 -8 -17 6 25 3 -2 17 16 -11 -16 6 -10 17 -10 9 -10 11 22 -7 -10 33 -11 3 6 3 13 7 -7 7 -6 -7 11 4 -3 -6 -10 3 8 13 -4 7 10 30 3 3 18 14 -24 -2 -10 -7 -3 -3 17 -13 5 -4 -8 13 8 -3 13 3 4 5 -6 15 -3 -18 -9 -1 6 -3 5 -13 4 12 3 -3 -3 3 3 6 -2 -14 -12 4 1 14 -9 9 3 -3 -15 20 4 13 5 -4 -6 -5 -9 -25 -3 3 7 -3 -14 17 -20 -14 -7 -9 3 -3 -17 18 -6 -6 -14 -19 -14 -3 11 2 10 9 7 -3 14 18 -6 -31 -3 -13 21 -8 3 7 10 -2 3 8 -18 -8 -5 3 -14 17 4 -24 -10 21 -2 -17 -7 -6 -9 -6 35 -8 -3 -22 21 14 -10 -13 -14 6 -7 10 16 5 17 6 -7 1 4 3 0 -17 3 17 -16 -3 -13 11 -14 -3 -25 -2 21 -21 6 -20 -31 -6 -2 -14 -11 -2 4 -9 8 -23 7 -3 13 -4 12 7 3 -18 0 8 -3 -7 -11 7 20 6 -8 -17 24 27 -8 -16 4 7 8 -4 -4 11 9 3 15 -23 -6 -12 5 3 3 3 -1 14 -11 7 4 -13 -11 3 -35 19 9 -25 -8 -3 -1 4 -9 4 14 19 -6 -7 -11 -3 -4 4 -3 7 -3 12 3 -17 24 -11 -6 8 24 -3 3 -24 -11 -6 27 17 -31 6 -3 -4 0 9 -7 2 5 -19 3 5 10 -17 16 -5 -7 -2 -5 3 7 -2 3 9 3 -6 -1 -5 -10 3 -3 5 -32 -15 -21 -11 25 -21 -1 -28 2 21 -10 -5 -17 2 -7 6 18 3 -3 1 -13 13 -24 -18 15 -19 -18 20 -3 24 -7 -24 -1 3 -10 -16 6 -7 -27 3 -8 -9 -16 14 3 14 3 -6 -21 -42 0 -9 -14 30 3 10 -3 -18 -9 -3 3 -18 26 1 3 -3 -3 11 -11 13 -8 17 6 -17 3 -6 3 21 1 -10 13 -3 6 2 -4 20 -2 -8 -6 -6 11 -6 4 13 3 -21 -3 -14 -6 -3 -8 7 10 -7 -4 -2 -7 -8 0 -7 -17 -24 4 6 38 -24 23 -15 -21 14 -7 3 -24 -6 -15 3 -4 -20 -6 11 -5 -1 -7 7 -15 8 -9 -13 -3 -6 15 -6 11 6 -8 14 -7 -3 -22 -9 17 4 -22 1 -20 15 1 4 -14 -8 23 3 -17 -14 39 -1 7 19 6 4 6 -3 8 11 -4 10 -13 9 7 -2 -11 -7 -9 -13 3 -6 16 10 -10 31 6 -7 -18 3 -5 3 -3 -22 -9 6 -10 6 -6 3 1 -24 -6 3 -10 -1 -20 -1 9 -17 -18 -38 -7 -1 2 -10 -4 3 3 20 3 -1 6 -3 17 -3 12 -17 2 6 -14 -3 6 13 13 -3 -14 -1 -6 -18 7 -15 2 10 2 -14 -8 10 -1 -23 -24 4 7 0 -7 6 -5 -18 -4 -6 -1 13 -7 3 -4 20 -13 -2 12 6 3 -14 -12 -7 17 -8 -8 3 3 4 17 4 -6 -2 4 14 28 -3 12 -6 -13 -7 13 8 19 5 8 27 -11 -3 3 18 -3 -9 13 3 -3 -17 -11 17 -3 -7 -15 -3 -6 4 -15 -6 -13 -5 -6 8 27 5 -4 3 5 4 -3 -31 0 -10 -9 27 1 14 -1 4 -9 -7 -3 1 2 4 -22 -3 -10 12 -20 21 -2 -13 -17 25 -7 7 5 -5 6 4 10 7 -2 -14 10 -9 6 3 -6 17 6 9 11 -7 3 -8 1 6 -6 24 7 9 -3 14 -5 -8 6 11 -3 11 19 5 17 7 -4 -28 4 -14 9 -2 3 3 -5 -3 0 -24 7 -3 -36 1 22 3 6 -7 -13 -3 20 -14 23 -17 -12 -11 13 6 4 -13 8 -2 -11 -5 5 -3 -14 -3 6 -16 21 -5 -13 11 -6 -27 -11 -10 3 -4 3 3 -1 -4 -4 8 -4 -25 3 3 1 -5 6 6 -6 16 3 -15 1 -6 -3 -2 10 18 -5 -5 -17 5 7 -3 4 -2 1 -10 4 17 -14 -3 -11 2 -22 -3 5 6 3 3 -4 6 -19 -5 4 7 14 6 -15 -20 15 5 7 -24 4 -1 -17 3 -4 -3 4 -6 12 18 1 -2 -3 7 16 15 -6 -7 -14 5 -4 -4 28 -4 -11 6 18 -6 6 -13 4 11 3 11 8 2 -6 -3 -3 14 -7 -12 3 7 7 -3 25 -12 6 -10 -3 14 4 17 -3 21 -2 17 -6 -34 -14 -5 6 1 19 -6 -20 3 13 -17 -13 -18 24 2 -6 -7 -3 -9 -4 15 -9 -9 5 -1 -14 -3 4 6 7 -7 4 -18 -15 18 8 -1 10 -19 -16 -13 -10 -14 -6 -15 -13 0 6 14 -18 -10 -18 7 -4 -11 8 -13 -3 -5 19 17 -14 -11 -27 10 -7 12 -7 -1 11 -4 0 14 9 4 -17 -14 10 13 -21 -1 4 -6 -3 -7 -6 -10 -20 -8 27 -7 16 6 17 17 -24 19 -13 4 -6 -7 11 -6 -20 11 5 -3 -2 0 -8 5 14 12 -18 -4 -7 -17 7 -10 21 -1 3 3 -18 -5 -28 11 18 2 11 -6 2 -7 -6 -4 -3 6 13 3 3 -14 -24 3 -7 -8 -14 -14 6 6 -19 -6 -19 24 6 9 -25 -3 -28 -8 16 5 -3 -14 19 -6 8 -8 4 -6 1 -3 3 -36 -3 3 -6 -10 3 -9 1 -6 -1 -20 -3 24 1 -7 -7 -8 2 12 -14 12 -11 -7 -3 5 -14 -14 5 4 -23 -15 19 3 3 2 11 4 -1 3 7 -7 11 -11 -3 -11 -4 -7 10 -25 -3 3 6 -6 -3 -3 3 -5 10 1 -25 -27 0 -4 3 7 6 -10 3 -11 5 17 16 -12 -10 4 -3 -10 -17 -11 -1 9 -12 7 -7 14 7 -1 -17 3 -14 -11 3 -11 10 -3 -4 -26 -12 -3 6 -1 13 -8 11 -6 7 25 -3 6 9 -7 -10 10 1 -11 17 -1 4 17 -3 -13 2 -4 6 -13 3 -14 -10 -3 -3 -4 -5 -17 6 -7 -21 -20 -3 -12 -7 34 -18 -4 -8 7 6 28 -6 2 10 -1 10 10 -17 3 -3 21 -11 4 11 -6 7 -7 3 3 8 7 10 -21 3 -17 12 14 -3 5 -6 3 -7 12 7 7 -23 -8 12 8 7 -5 -2 -6 9 25 8 15 10 19 15 -18 4 15 -1 -15 -10 17 -20 12 -3 6 5 -8 5 -7 20 -5 -21 -4 -7 -9 -8 2 5 -4 -8 4 18 -3 10 7 -7 -3 -3 -21 -1 -6 -7 0 -7 11 -1 -4 -3 3 -8 -3 -13 17 -4 17 -3 -3 -3 23 3 6 -18 10 -5 3 7 -13 -7 5 1 10 2 -6 3 21 21 -11 3 3 -12 -21 -8 -17 18 9 -20 -1 -3 -6 12 21 10 1 -3 -14 -1 27 -14 -9 -6 19 -3 6 -29 16 7 -3 7 -16 14 -14 -4 15 28 -11 -19 -17 -8 -14 25 23 12 -3 16 -31 20 1 4 15 14 -3 19 -24 -11 -13 8 -7 6 -17 15 -1 -3 -3 -11 -10 -14 -17 -7 -18 -12 2 18 -3 -3 -36 14 -6 -5 -20 13 -15 1 3 1 -3 2 4 9 14 -14 -5 10 17 5 6 3 3 1 5 14 8 0 -2 -11 10 -6 11 -6 3 -17 3 -18 -8 10 25 7 20 -7 -5 -3 4 17 2 -16 -3 -7 4 -14 -9 1 6 3 -4 -7 -2 1 7 4 -8 -4 8 18 4 12 3 19 -18 -3 15 6 -9 1 -2 17 -7 -5 3 -13 20 3 -1 -13 8 -7 10 -6 -25 -3 15 4 8 3 6 20 -9 24 -16 2 6 -7 7 3 2 -24 -7 -4 -15 -17 22 17 -10 -19 6 -18 -15 13 25 10 -7 11 -2 -7 3 7 0 -24 9 -7 14 14 -3 -3 -1 17 3 -7 3 13 13 -3 -6 -3 1 -2 6 -12 17 -3 7 -15 1 5 -10 3 8 10 13 -11 -21 4 11 20 7 6 -6 -5 -4 10 -3 -12 4 8 20 3 3 -4 -7 -8 3 3 -16 4 3 -5 -19 -6 -3 -1 -17 -18 -2 -9 -18 13 10 8 1 7 16 -5 6 8 2 -7 -5 -17 10 18 -2 3 -2 10 -7 -5 6 3 -20 -4 -7 13 7 1 1 -4 -7 34 3 -11 -3 -1 -7 -3 7 12 -4 -9 5 14 -3 6 18 1 2 8 18 -3 -12 -4 3 7 3 4 26 10 -3 -18 -3 3 -17 -19 -13 3 3 3 -3 -11 -31 -5 9 -2 3 12 13 17 -4 20 -24 -4 -14 3 7 2 -13 -3 10 -7 6 3 7 -7 -3 -22 -2 -8 -14 -21 7 14 -3 -11 3 7 11 -14 14 -16 -10 -12 -10 -9 10 3 -17 12 -11 -15 -20 -25 8 2 -3 8 18 3 -5 1 3 -17 -7 -18 9 0 -8 -7 7 -3 3 7 -4 -3 11 14 8 5 7 3 -4 -1 -20 -7 -3 -7 5 -3 11 7 -14 -3 -3 -14 -1 -29 3 -7 -3 -15 10 -11 14 -7 31 18 4 -23 3 27 -27 17 3 -2 -17 3 -10 -11 9 -8 -1 -5 -31 -12 -13 -16 4 -3 18 -3 -7 -1 10 -3 3 3 -14 14 6 14 -6 -6 -7 -10 5 9 18 -9 3 -1 18 -9 -3 19 7 3 -8 -4 -11 -3 -20 -24 -11 -6 29 33 -33 -1 -4 -1 -3 3 3 -1 3 6 -11 -10 10 2 -15 -10 -3 -11 -8 3 -10 14 -20 7 -8 3 -3 -7 -15 -8 9 11 -7 4 31 14 7 -3 -5 10 -4 -3 -13 21 -7 16 -11 10 -3 7 5 -3 1 3 -7 -7 -6 -3 0 -14 4 10 6 -24 -14 -11 6 17 -5 -10 8 -28 3 5 -3 13 1 -7 -6 17 -30 3 7 5 20 -3 -4 4 -5 -7 13 -3 -7 3 -2 -11 -3 -14 7 -2 -12 -15 -10 -15 3 1 2 -10 -7 3 -11 -7 2 14 -3 14 -13 -13 -6 6 -1 10 -5 -4 11 -18 3 10 -3 20 3 -11 3 -12 -3 -35 -3 -7 -15 5 -2 17 -10 -7 -7 -26 9 -3 -1 -14 1 -7 10 -20 -11 4 -3 4 -11 3 -7 -4 3 9 2 -26 -25 12 -10 3 2 8 -9 4 -14 -1 -7 8 1 -5 -12 -3 17 -6 -7 16 -20 -4 31 -16 -11 -25 -10 7 -7 1 -1 18 -13 -3 3 -8 14 -10 2 -8 -18 -13 17 10 -12 7 6 6 13 -11 7 -18 -3 7 3 2 14 6 6 9 10 -14 7 -7 -5 -3 -7 7 -4 4 -3 -11 8 4 3 -6 -8 -21 4 -4 14 12 25 7 0 7 6 6 -12 -2 5 -25 1 7 -7 3 -3 -2 -2 8 -23 -14 -3 -1 7 -3 7 -17 5 -37 3 11 -22 -8 9 -2 -10 1 -6 6 -1 2 -18 22 3 -6 11 -3 4 -4 -4 -32 12 3 6 -3 -4 17 -24 -6 -1 -11 9 -17 3 -27 3 -3 -15 -2 8 11 11 -6 -3 -11 -4 4 6 8 -21 -3 3 -2 -8 -3 -24 0 14 3 2 15 -31 -9 14 -6 6 -5 -7 1 -7 -21 5 14 -3 -3 -10 -7 7 7 2 8 -4 24 3 10 10 -3 -4 -17 -4 -31 -3 7 -1 21 -7 -13 -3 -6 -3 13 6 10 10 3 5 12 -7 29 -6 18 20 -1 7 -14 -3 -5 16 -11 -2 -3 9 6 -14 -3 17 -1 23 -10 4 -7 -7 -3 -32 6 -11 2 11 -5 -24 -7 -1 17 -11 16 -6 -4 6 -4 -2 18 10 3 3 -21 -26 5 17 -5 -10 -10 13 6 3 -6 3 -14 6 -10 11 -14 6 -5 3 14 -22 -4 14 25 20 13 -33 7 17 6 3 -13 2 6 -7 -3 -15 -12 6 -10 -3 -6 4 11 3 17 10 -14 -6 -7 -8 -3 -16 -1 -6 1 14 -7 17 10 -23 -6 -13 -10 28 -14 -6 6 -21 20 -15 7 -2 7 -10 -17 -4 -5 18 -10 -6 -3 6 -10 3 3 -5 11 3 15 -6 -18 11 -36 -24 6 11 3 6 7 13 8 6 -13 2 6 11 -3 3 -7 -4 28 15 -7 10 -10 -5 9 27 9 5 23 11 -2 -4 -16 17 11 -6 8 -7 3 -3 22 13 4 7 -14 3 10 18 14 3 3 -22 20 12 3 14 -4 -13 -11 -9 -17 -6 7 -10 -14 10 -10 18 2 10 -13 -1 -14 -11 9 -8 11 18 10 -14 16 -17 3 4 -8 -15 -10 15 -3 24 -17 8 6 -10 3 -4 -3 12 7 6 3 9 -2 -35 3 -17 -18 6 21 -6 7 3 5 -5 -8 -27 -10 -3 4 9 3 6 9 14 7 6 10 3 -10 -3 2 7 -3 14 14 7 24 -4 -2 -26 -5 -9 -3 14 -2 15 7 -2 -6 -3 -1 -6 -7 14 10 2 3 2 -15 -6 3 3 7 -10 7 3 10 9 -10 -14 2 -4 14 6 -24 -10 3 2 -18 9 -5 10 -14 -3 3 -8 -6 7 7 21 -14 -14 -14 3 -7 5 -2 -5 -7 10 3 -22 -9 -8 32 8 -17 14 21 -1 18 8 16 8 8 3 6 -1 -3 3 -4 -14 -17 4 7 -14 -22 8 9 5 -13 -7 -5 -19 -4 -17 -5 6 -19 4 8 -27 26 -10 -4 -15 -2 -13 -28 -17 14 -17 7 3 -3 -9 21 -5 -20 7 -3 -8 3 3 -11 -17 8 23 3 -2 -8 -8 -14 1 -10 20 -14 -14 -3 1 3 10 9 -7 -43 -10 -6 3 -7 4 3 7 -24 17 7 -17 -8 -15 5 -12 7 7 -20 -8 3 -6 -6 14 6 11 6 -7 6 -24 5 -3 -33 31 -3 7 -3 -6 -4 20 -29 -14 -7 -28 6 -21 -19 24 -12 6 11 -11 10 -27 1 -13 3 8 6 17 17 -7 11 1 -10 17 14 -13 12 11 2 -3 5 4 -5 7 -3 14 -1 -22 -6 3 5 4 -14 -24 -3 -3 -13 11 -3 3 33 -3 6 -6 3 -7 -14 -11 -13 7 9 -6 1 -11 -22 -12 -10 3 -10 21 -5 3 -20 21 19 2 -23 -7 8 8 -4 -11 4 2 7 -17 -10 10 -4 -17 -3 -4 4 -25 11 -5 -10 3 6 24 12 -1 -20 -9 -10 0 -1 10 8 18 -12 6 3 2 11 -12 17 1 -10 -3 6 6 8 -13 3 -13 -6 -17 -26 16 -10 10 -4 -27 13 0 -3 -23 -10 -6 13 3 9 10 6 11 10 -7 -10 -5 -10 -24 -12 -3 -10 2 -1 11 -3 -3 6 -7 -5 17 -8 13 -5 6 -8 -3 15 -16 15 4 -8 6 3 7 -11 3 3 -11 -3 -2 3 -25 3 -8 10 -3 -3 4 7 11 -4 -7 16 6 -5 -12 3 -20 4 -3 1 -13 15 -7 7 -3 -11 4 3 -3 -4 21 13 -3 6 -6 -7 -17 -4 -15 3 14 -6 -5 -5 -14 32 26 7 24 -3 3 27 -5 14 -1 -9 -7 20 -6 4 -5 17 -4 15 13 14 0 16 12 -7 3 -1 4 4 -16 -18 8 -3 -1 1 -12 -8 -13 3 -2 -3 -6 -11 -10 -10 6 3 -5 -6 -6 3 -20 -4 8 1 7 4 -7 -14 3 3 1 4 -2 -8 21 -3 -10 -4 21 -14 -2 14 13 17 13 -20 -4 -3 -14 7 -32 8 2 -8 -3 7 -15 4 18 -4 17 10 14 12 6 -8 -6 -1 18 1 6 -7 -3 -10 -3 3 13 7 6 -11 13 10 23 3 -15 -14 15 10 4 15 -3 3 -4 -5 -14 3 7 9 -21 5 8 3 14 3 6 -23 14 4 7 -14 -12 2 -3 -38 -11 -34 7 27 -15 15 3 -1 22 -27 7 -6 -10 9 -1 0 11 -6 15 -6 -4 6 -3 5 -4 -3 13 7 15 12 -6 2 13 4 18 -5 -5 10 -17 -8 6 -3 -24 16 3 -17 -8 -17 28 3 -2 8 -6 -6 -4 5 -7 -18 -5 5 16 3 -10 1 7 -11 6 -28 -19 -1 -6 -13 3 6 3 3 6 -4 -3 4 0 4 4 3 10 -19 -6 -12 15 8 -14 7 -2 17 -7 -6 -4 -31 -2 -11 3 3 18 1 -17 -7 9 19 7 -7 3 -3 -3 10 -7 23 26 -17 4 -1 -9 3 19 -14 -7 1 -15 24 -2 3 -4 -19 7 -8 -5 -11 -5 3 -3 -2 -1 -8 -23 -12 20 7 14 14 7 -10 13 6 -17 -8 -12 7 10 -7 -6 -3 1 8 8 -18 -8 12 12 -6 5 -20 -10 -7 -7 3 35 -8 7 -18 18 -8 -23 10 -6 6 5 18 -15 18 3 37 5 -3 -3 -4 -7 3 -6 13 -1 0 -3 1 -10 21 -22 3 4 -3 3 4 7 -5 -3 -28 -3 18 22 -10 -14 -26 9 10 10 10 -7 9 -19 14 -4 6 -16 13 5 1 8 -2 33 9 3 6 23 -10 5 11 8 -11 23 -8 1 26 -7 9 11 11 12 13 17 -30 -22 3 -4 -10 1 14 -7 2 3 -4 10 1 -21 -27 -3 12 5 -11 -3 -10 -5 3 -15 8 6 5 21 1 3 4 20 17 14 7 14 30 -28 20 21 3 -8 8 -7 -6 -1 -20 -14 -3 11 3 -10 -11 -4 -21 7 -2 -14 5 -4 -8 17 4 -14 10 -3 -3 -15 7 -7 2 -12 -20 -7 -8 0 -6 -11 4 3 -21 9 10 14 6 12 14 3 -3 -18 7 -39 7 -21 -18 -1 -18 -3 -20 -37 3 7 15 -14 3 17 -7 -12 11 -2 3 -11 3 -25 -6 11 -6 -1 -7 25 -13 8 -6 -30 -5 -1 13 4 -10 22 5 3 3 -22 -6 -16 2 7 -17 13 3 -7 3 -9 2 -11 3 5 3 -6 -4 -4 -7 -7 -3 -6 -8 -10 10 -4 21 -5 -3 27 -4 -4 -14 0 17 11 3 17 5 4 8 -7 -16 -4 4 -6 -2 6 6 -11 3 4 6 -1 10 7 7 -3 -3 20 6 6 25 -13 4 18 -10 -2 -3 6 -3 0 4 -4 11 13 -10 8 7 -15 -3 -3 -10 -2 2 15 3 5 -3 -17 -3 2 9 16 11 4 2 0 -2 -5 -5 3 -25 -1 3 -7 -2 1 -10 -3 -3 -3 8 -3 -2 5 -13 9 6 17 -5 14 3 -28 2 -3 -8 -2 -7 -3 -27 -7 8 16 11 -5 -11 11 4 6 -18 -11 6 -4 3 0 3 2 -2 9 -14 18 1 -14 26 -11 -8 -6 -14 -14 3 3 19 -13 -3 9 -3 4 3 -6 13 25 6 -13 -15 21 4 -4 -13 3 22 -21 -5 -3 9 13 -3 -9 -21 -7 1 17 -3 3 -10 -13 2 -7 -7 3 7 8 -5 -8 1 2 -4 16 -7 -4 2 3 -13 9 -3 -3 -13 -13 14 -2 -20 -27 -15 7 -12 -10 -1 -16 11 6 7 8 7 8 1 -24 -5 -27 -25 16 -3 -12 -3 4 5 11 0 19 8 3 8 -3 3 -10 -11 3 -3 8 13 13 6 22 -5 4 3 6 10 6 -32 11 10 27 21 4 8 9 -3 -4 -7 -7 -7 -3 34 -5 -3 -21 14 -14 15 4 4 -3 7 -17 -10 -15 32 -5 -7 -3 -10 -2 10 -5 4 22 4 -13 2 -4 -12 9 13 5 -7 -3 -11 -24 -7 -13 9 5 -5 4 -7 -7 -6 -4 4 -7 -3 -4 -6 -12 12 14 -13 3 3 -11 -7 -3 -5 4 25 0 -11 3 -3 2 24 -14 6 3 3 -7 2 3 -3 -21 15 -7 21 -7 -18 -21 2 5 7 20 1 3 -3 10 -15 13 6 -11 14 -11 -20 -2 14 -10 7 -18 0 7 21 -8 3 -10 -3 14 -6 7 -4 -5 -5 7 -19 -3 -3 -11 9 -6 -2 -10 -8 -3 7 -3 -16 21 3 4 -3 3 4 2 13 -6 12 -11 10 -8 9 -12 20 -3 6 1 -14 -6 -10 5 -3 23 -14 10 -25 4 18 3 21 -4 12 5 14 -7 -3 4 -6 -1 7 -27 14 -8 -8 -17 3 -14 -13 -5 -6 3 -4 -3 20 -17 -6 9 1 4 -1 -20 3 0 -12 -8 -6 20 4 -3 3 4 3 -2 3 5 -3 -11 9 -5 20 -11 -10 7 4 -13 -24 6 -13 7 7 10 -2 3 3 -14 -10 11 5 17 4 -31 -24 -20 30 15 9 -7 3 -6 17 -4 7 10 14 3 7 -14 13 1 -3 -7 -23 -36 -6 11 4 4 -3 -8 22 17 9 4 13 22 -16 6 -7 10 -2 2 -5 -7 -4 11 -3 28 15 6 2 14 -7 -11 -4 -18 -5 16 3 -10 -8 -3 5 7 -5 -14 3 9 4 10 13 -2 -14 3 -7 -9 -4 11 -1 3 -8 17 2 -7 -10 -6 1 -21 1 -21 14 -7 -19 27 -10 -21 2 9 21 5 -8 3 -3 -11 3 1 -3 12 6 16 4 -5 -3 -25 7 -9 -21 6 -10 14 3 -15 19 -15 -3 8 -3 17 3 18 3 -16 8 5 5 -21 11 8 -11 7 -19 8 3 4 -9 -4 -3 1 18 -14 -9 -17 -1 4 8 -7 -21 -5 12 3 -9 -10 -2 15 -13 -5 -19 -9 -14 -3 10 1 -7 13 -10 6 -4 12 -3 4 -6 -15 -5 -14 -6 -2 8 -9 -7 -3 21 4 -18 -5 -3 22 -8 -2 18 -19 11 6 -24 -9 10 5 3 9 -6 -6 1 -19 -3 3 -1 -5 13 8 3 11 -4 7 2 32 15 3 -14 -18 10 3 -20 -11 13 -27 19 -4 6 -5 4 3 -4 -7 21 7 -14 10 24 3 1 15 5 -3 22 -21 6 21 -3 -6 12 -14 12 -8 -9 2 7 -25 1 6 -21 -15 0 12 3 12 -18 1 -11 9 2 -4 -27 -3 8 3 4 0 2 10 3 3 -24 -5 13 -3 -16 3 -8 3 -14 6 -9 2 -6 4 -7 -15 -11 17 -16 -3 14 -3 -11 -6 -8 -20 -9 -9 25 -11 -13 8 14 6 17 16 8 3 8 14 -1 1 7 21 -3 11 10 2 -2 12 -3 17 -3 3 8 -3 17 -11 6 28 -6 12 -8 -15 -23 -26 -3 -6 -38 3 -7 -6 7 10 4 -1 -28 -5 -8 -4 -14 7 -15 -14 7 -4 -17 -5 1 5 -13 -17 11 -24 -13 14 -40 3 -4 -1 -17 -11 21 4 -2 -3 4 -6 -7 -13 -9 3 -7 0 -8 -8 3 0 11 6 -11 8 -3 -10 8 14 3 13 -5 -4 -13 -12 -30 7 -7 4 8 -6 14 15 14 -1 9 -3 4 3 -3 1 -3 28 14 -20 -3 3 18 3 11 5 21 -7 3 -1 4 -10 -8 6 16 14 -5 -9 -9 -1 17 -24 4 -3 6 -8 1 18 -3 10 -7 -12 -6 -7 11 -5 -18 -10 -15 -3 3 -11 -18 1 3 3 -2 3 -8 -6 -3 20 -2 -10 -10 6 3 11 8 -13 16 -7 25 -11 25 -22 -3 -7 7 2 -2 -3 -7 3 -2 9 -1 10 -11 13 7 7 -4 -1 7 17 2 -13 -10 -15 -17 7 8 24 16 8 2 -11 -15 -3 13 2 -20 -6 -7 -14 -8 -8 1 -10 -3 3 -2 8 3 -2 2 -8 -4 10 13 9 12 -11 -14 -8 -2 -7 -16 4 6 -12 -7 5 2 -1 5 -4 -28 5 12 -9 -1 3 16 -3 4 -17 -25 -23 8 -25 7 29 -10 2 -28 3 -5 0 -6 -5 -9 -3 -25 -6 -4 -3 4 10 -13 -3 21 -6 4 5 -3 6 -7 -15 2 -5 -21 14 -20 -8 3 3 -3 -12 -14 -25 -14 8 7 -3 -3 10 21 3 -3 1 -3 14 2 -3 -2 1 -4 -13 3 -3 7 1 -1 3 7 -11 17 -3 -15 -7 17 -6 -4 3 9 6 6 17 11 6 0 8 -8 -3 -3 -3 9 10 -11 10 15 7 -20 4 8 -4 -28 -3 12 7 -6 -20 4 -3 3 -23 -7 7 2 -6 23 25 -9 -7 -27 22 10 -3 7 6 -8 24 -8 -5 3 1 1 8 -14 11 14 17 -3 6 -1 3 -23 7 9 -3 11 11 9 2 -3 -9 8 -27 -11 -4 -12 7 5 -23 -6 1 -5 13 2 16 20 21 9 -4 3 17 -6 7 -3 4 -20 -5 -17 -8 -19 -5 3 11 -15 1 -15 -6 -13 -1 4 -3 -7 -2 -3 11 19 13 -14 11 7 9 -24 4 6 14 -4 19 7 3 19 -3 -2 13 -7 -5 -11 -19 -12 -8 10 7 -25 2 1 -8 2 -6 -8 -12 -1 3 -9 17 -13 4 21 16 8 1 2 -13 14 -8 4 6 6 6 17 -10 -21 -5 3 8 -15 -13 14 -11 3 3 -4 -3 7 11 11 -3 3 -6 24 6 -15 -20 -1 32 10 3 -24 17 17 -4 -6 -33 -22 7 3 0 0 20 6 1 -3 -8 -14 3 14 11 -8 -10 -10 -11 6 10 7 9 6 3 21 -1 -8 -14 -17 -4 -11 1 14 -3 6 4 3 -2 -2 4 15 -12 -1 -1 -3 14 -9 -2 3 5 2 -2 21 -27 10 -9 0 8 1 11 -2 -17 -1 2 -4 10 -3 18 3 7 -7 -3 -7 -11 3 3 -8 7 19 -6 -9 10 19 11 -3 -15 9 -3 3 -21 -17 -4 -3 -5 -4 7 -13 -8 -4 -13 -24 -4 4 -6 -4 3 -9 -3 2 -20 -10 -4 1 10 -10 -19 -8 6 17 5 8 -3 -13 8 -3 -2 -13 -8 -16 9 -2 -13 1 -6 0 12 10 41 3 18 -6 3 -6 -19 -7 10 5 27 -8 13 -27 -7 7 20 -3 -3 -5 -3 3 -26 -13 14 -6 -17 -7 7 2 3 -18 8 3 -29 6 -1 7 -7 6 -4 -20 -2 -5 -15 -17 -2 -3 4 4 -3 12 10 -3 -6 -3 -14 11 18 -3 11 20 -11 -18 20 -1 -6 -14 6 10 -10 11 3 5 3 -6 13 -17 -29 -9 -18 19 -8 21 7 -31 -15 -7 -3 7 -6 -5 0 -24 -8 6 13 -12 -11 19 -11 -11 14 -6 7 -20 -2 -15 -4 6 -18 -7 -8 -7 4 -3 -9 8 3 -11 20 -14 -6 -17 32 8 16 -17 5 -3 3 -7 -9 -3 -11 24 9 -4 11 11 17 -7 5 5 -6 14 -3 14 -3 23 8 -4 -14 -22 10 13 17 3 8 -3 1 -11 -3 -2 -18 10 -3 5 11 -15 3 -33 -2 12 -21 14 -3 20 -17 -6 -24 6 -3 -3 -1 4 4 -4 -15 3 -11 -8 5 -10 7 14 -18 7 -5 -2 4 7 2 -5 -1 3 8 4 6 6 0 6 16 8 -20 -10 1 -5 -40 -10 4 -18 27 -1 -2 -8 23 -17 7 10 18 4 -11 17 -14 -18 -10 -32 -15 21 3 -24 6 20 -5 -15 -4 24 0 -13 13 3 23 18 -11 -6 -1 -3 -4 3 3 7 3 -2 24 -27 -3 10 5 -24 -3 18 -14 2 2 27 6 -4 -6 11 -4 -8 4 -20 -2 1 8 23 -4 -7 -8 3 5 -1 -17 4 11 -18 3 -3 2 -8 -3 -14 28 -6 -4 8 8 -3 0 -3 3 3 -9 -3 4 -14 -10 -3 -48 6 3 2 5 3 -5 3 -11 -3 24 -3 -3 -10 14 1 -8 -6 8 -21 8 16 -5 17 -17 7 3 -7 -8 8 -7 -1 -7 4 -3 3 -3 -14 21 -15 0 3 -10 14 7 15 -13 -10 14 23 3 4 16 -15 10 6 7 -7 2 -5 11 -4 -13 -7 -6 3 -3 -15 -13 5 -3 3 4 3 -4 3 -5 7 3 1 -2 -5 -3 -25 -22 31 -6 -27 -1 3 6 14 -26 -13 -10 11 4 -18 3 -5 2 21 3 -12 -7 10 -3 15 5 2 -18 -14 15 -6 5 -6 6 -4 -13 12 19 -7 0 12 6 -2 -18 25 17 20 4 8 12 3 -15 -9 -7 13 -20 6 11 7 -14 -10 13 -19 0 12 15 -4 -18 -5 -17 -3 -2 1 3 -12 4 5 17 -13 -4 -10 19 1 11 -29 -6 11 -2 -13 12 -12 -10 -14 3 -15 3 -3 3 7 6 -18 -15 11 -12 8 13 2 2 -2 6 -3 -9 -6 4 14 8 17 6 -19 -17 16 -3 -36 -6 -1 6 -12 8 4 -31 3 9 19 -7 9 3 -3 23 -6 -17 18 -4 9 -4 -8 14 6 0 -7 4 19 3 -21 -2 -4 -1 22 -8 7 7 7 3 22 3 -2 20 6 18 -8 10 -5 1 3 34 -19 11 14 -10 -6 -3 28 -6 -10 -14 5 -20 -14 0 5 6 8 -7 6 -3 11 9 3 3 10 -5 -29 18 17 -1 8 -10 -6 5 26 -9 3 1 -2 -9 16 17 7 -3 -31 2 -28 -10 -7 -19 -6 3 -8 11 -15 7 22 -7 -4 12 -3 -22 7 7 -14 -7 13 -21 -12 -4 -20 14 -6 -2 4 -8 -4 9 -1 6 4 -4 14 -6 1 -3 -3 -30 -17 -13 -1 2 7 23 -7 4 -15 24 14 -5 -2 -1 -16 -3 -10 -8 -9 -13 -15 -13 15 6 14 -6 -3 -3 -7 -10 -3 -19 -3 3 3 6 -51 10 -4 -3 6 -14 -28 10 22 5 3 -6 3 -13 -3 -4 -6 9 9 -4 -2 7 25 3 3 -20 10 0 3 -14 -11 12 1 -10</t>
-  </si>
-  <si>
-    <t>JSB(1.3550579006291013, 3.8125970415402204, -30.66988088587115, 165.83504844835338)</t>
-  </si>
-  <si>
-    <t>27 33 31 39 41 58 31 26 26 32 39 35 22 30 21 72 43 48 36 16 51 34 45 44 23 64 26 54 43 46 16 37 46 44 35 33 37 55 23 41 37 44 23 34 37 23 38 40 37 36 36 53 39 31 33 36 19 40 34 31 34 60 20 52 43 30 42 46 24 23 29 41 38 42 32 34 36 51 39 49 54 50 46 26 37 45 31 44 48 40 36 34 34 58 47 36 55 48 24 23 36 42 43 41 37 33 22 39 38 44 50 36 43 39 31 41 36 37 30 28 33 41 36 31 44 38 37 46 57 33 33 43 43 47 40 60 26 62 30 53 44 45 34 40 27 41 40 37 29 61 34 34 27 51 29 37 38 55 41 22 38 30 30 36 34 51 34 34 42 58 48 52 45 37 36 23 45 40 33 32 16 22 34 30 48 22 48 31 47 37 40 22 43 27 41 29 31 51 44 40 45 37 30 39 44 41 29 51 43 37 27 23 40 35 26 43 28 54 35 45 51 33 37 41 33 41 34 39 33 45 31 28 32 51 28 51 41 34 54 48 64 62 28 36 48 49 39 36 41 29 48 27 45 34 27 34 43 52 37 27 26 46 47 50 21 26 30 33 31 25 34 28 33 37 32 36 38 64 36 35 32 43 37 38 20 39 43 36 51 52 34 37 38 42 31 22 43 36 27 45 45 59 33 44 42 16 44 38 23 51 46 32 45 43 56 26 48 33 43 58 44 28 40 39 9 54 59 40 41 45 19 57 47 50 34 42 32 48 68 28 23 41 30 37 31 23 44 43 33 47 37 46 53 29 33 27 37 44 32 39 26 52 31 37 28 35 32 47 23 43 31 34 55 35 38 42 29 38 21 29 20 41 58 45 43 37 42 34 41 34 37 49 33 23 49 40 30 43 46 31 48 41 30 40 43 33 43 56 43 27 26 45 36 37 36 41 45 44 45 29 46 59 43 13 37 48 28 45 63 37 30 12 51 41 40 36 33 55 23 47 47 31 37 33 37 34 24 41 30 48 37 23 35 42 47 51 46 37 26 29 47 43 24 30 25 61 37 43 52 29 51 57 51 30 43 34 22 36 44 47 16 32 37 25 39 41 38 34 56 23 36 31 42 49 34 43 39 41 45 44 33 62 39 30 51 47 39 44 63 34 16 37 52 25 47 44 44 27 36 40 19 40 53 40 59 26 39 49 41 37 49 30 34 44 52 23 38 29 49 27 36 37 50 37 23 33 29 37 45 20 26 41 31 32 47 29 43 24 24 32 30 41 23 45 13 51 27 16 41 45 20 29 32 40 34 43 50 27 46 29 41 37 23 41 24 27 16 32 31 42 33 77 27 27 54 51 38 42 31 38 37 33 50 42 40 40 38 46 43 52 30 33 30 31 22 40 42 26 45 10 30 41 54 48 44 37 27 35 38 44 41 51 37 31 48 17 46 16 47 34 29 32 45 33 31 42 41 45 54 26 23 36 53 19 36 36 29 51 26 30 34 33 26 26 40 51 20 20 59 34 50 41 52 44 38 31 37 48 37 51 46 29 28 41 21 33 28 46 32 34 30 35 37 44 35 43 34 40 37 27 36 49 29 43 51 13 43 38 51 37 23 29 48 31 38 47 48 22 63 45 36 41 41 16 51 52 36 26 23 16 34 35 37 53 34 28 30 61 45 51 26 36 51 35 56 37 24 41 56 34 9 37 49 41 23 16 29 13 29 41 34 45 48 37 47 48 33 44 33 29 43 43 38 36 23 35 42 29 39 37 34 21 31 17 59 22 36 42 21 26 26 60 30 32 46 59 26 36 30 27 46 45 48 35 51 44 26 38 33 37 37 20 48 41 47 33 33 29 39 48 51 65 50 29 30 37 50 42 46 26 37 36 40 37 48 37 30 40 45 33 30 46 47 43 34 37 19 31 54 40 50 39 37 47 26 40 39 30 54 34 36 40 33 41 17 29 23 39 49 36 32 65 37 43 34 60 32 36 51 38 36 30 29 29 42 54 24 41 43 56 38 39 43 40 16 45 24 36 57 23 26 44 38 25 40 51 48 43 44 27 39 47 29 38 41 40 25 24 30 30 31 48 33 44 44 40 41 39 45 27 63 36 43 40 22 37 36 43 49 38 37 34 41 44 48 43 51 57 44 40 40 35 41 39 57 35 29 51 34 18 37 56 46 22 31 56 41 37 49 50 16 49 27 38 51 31 32 32 44 33 37 19 53 46 43 28 29 31 17 36 36 47 39 30 23 48 67 33 31 40 41 41 30 37 37 34 40 33 58 43 43 24 47 47 35 38 29 52 24 52 28 45 41 46 34 30 26 34 44 29 45 29 27 45 23 37 50 37 41 43 16 36 40 40 43 44 33 39 64 47 24 29 37 24 52 27 45 33 32 37 20 27 37 25 46 29 28 52 37 56 29 34 37 27 37 30 33 39 23 56 23 26 36 47 41 37 45 45 45 31 49 24 31 27 35 47 49 33 36 44 40 38 28 28 55 38 34 50 35 17 55 40 42 43 50 24 44 39 42 19 42 16 53 55 59 39 36 43 31 47 20 29 51 37 37 39 19 31 37 39 29 35 33 50 41 51 30 40 16 37 51 24 35 29 48 51 44 31 56 37 51 61 50 23 57 28 55 39 60 32 54 31 45 57 50 38 16 21 42 49 31 44 52 33 40 26 43 51 48 22 48 45 51 43 45 32 25 45 60 52 27 43 26 43 36 54 29 34 41 60 35 55 47 45 25 31 40 27 43 22 42 40 66 22 47 22 37 43 36 24 48 53 37 51 45 38 42 40 51 57 33 43 37 43 42 37 44 19 23 47 43 33 58 46 30 37 59 24 33 62 43 42 33 19 30 33 48 47 34 38 29 43 37 31 46 54 29 37 30 39 24 40 50 36 43 38 33 42 25 39 47 39 37 38 37 23 52 30 33 27 27 55 49 33 55 54 29 33 42 44 19 54 48 28 30 55 26 20 34 37 23 38 43 56 51 40 44 47 32 31 27 47 36 33 29 40 23 12 34 45 41 41 46 44 27 30 33 46 48 32 34 34 20 32 52 42 37 38 32 41 39 29 37 29 47 29 51 55 43 33 34 37 41 46 49 26 31 36 32 38 21 26 36 26 33 38 43 27 48 76 37 31 41 45 23 40 30 23 34 37 37 33 47 40 33 62 40 12 51 43 47 38 31 30 30 22 36 50 25 44 22 70 46 35 45 41 61 51 41 49 41 42 31 45 37 39 37 35 32 45 37 30 40 37 40 56 41 26 32 33 51 37 37 56 36 44 33 36 37 44 37 45 50 30 41 47 37 33 49 41 34 55 20 33 44 33 33 32 53 27 35 40 40 56 30 23 44 36 45 47 46 47 75 35 34 38 37 35 43 51 37 36 33 15 26 42 23 22 35 39 32 47 31 22 20 48 50 36 40 62 51 44 45 40 40 39 41 29 39 30 16 44 57 33 19 33 44 29 30 20 39 47 20 37 51 45 49 29 23 35 44 35 43 22 58 37 29 37 43 41 23 51 45 46 55 38 33 29 36 37 45 41 29 32 61 29 20 54 23 26 37 38 28 41 33 36 47 54 20 36 37 27 12 34 52 50 13 37 48 45 29 23 35 29 33 54 33 36 31 31 50 39 40 57 34 30 27 33 38 48 40 31 29 28 19 30 31 27 49 39 38 52 28 43 40 29 27 49 38 38 56 44 27 20 36 29 40 34 46 32 48 34 40 47 37 47 47 37 45 29 38 37 44 30 38 31 46 48 51 23 36 17 36 30 23 50 30 30 46 33 33 44 51 22 39 43 23 49 58 38 50 31 46 29 31 19 41 27 32 33 60 30 37 27 44 61 35 40 31 64 48 41 34 29 54 41 52 58 41 30 45 32 34 19 45 35 45 57 41 46 25 27 30 41 44 59 27 45 45 30 30 39 30 51 51 39 34 44 40 34 37 37 29 50 33 40 20 47 45 57 37 37 44 44 23 41 43 23 41 21 37 38 45 34 46 37 42 13 19 35 59 26 38 48 38 27 31 29 50 40 37 37 30 24 30 25 30 32 24 36 51 31 30 29 27 30 23 20 48 19 59 26 34 29 44 51 30 49 12 35 45 23 37 41 31 35 34 37 39 29 37 19 33 20 40 44 55 41 34 55 52 41 25 46 40 42 44 40 58 64 36 34 38 32 47 44 27 50 48 54 40 62 45 23 42 25 39 52 34 9 23 34 33 38 48 27 47 43 49 40 40 29 28 42 23 36 30 33 30 61 37 29 43 31 46 40 36 27 47 38 43 48 47 38 50 32 27 51 36 33 50 40 21 44 37 36 51 53 17 31 36 27 52 28 36 47 39 40 23 34 22 30 29 24 65 28 36 43 24 47 34 42 52 55 40 46 37 37 29 29 33 39 37 41 52 30 50 36 35 13 35 36 59 30 30 24 30 29 49 60 36 36 45 57 23 20 36 25 23 25 52 43 48 25 55 57 37 42 27 30 43 65 58 41 34 46 31 46 40 23 29 33 48 59 39 31 26 41 28 30 64 31 33 50 37 33 33 34 47 44 36 31 37 23 38 48 26 54 48 23 30 52 58 40 31 38 33 45 36 39 45 49 34 46 40 30 50 48 48 23 51 44 48 63 23 56 23 48 47 24 42 55 45 41 37 48 50 49 33 30 33 25 37 36 57 37 28 38 37 32 36 49 49 32 60 42 28 37 29 32 51 54 37 53 37 47 17 45 37 37 50 29 37 37 26 23 30 50 50 36 41 46 29 23 25 51 56 48 25 37 22 40 29 37 31 37 35 43 41 30 47 55 49 21 47 31 26 31 42 33 50 37 55 41 45 23 46 27 39 36 29 23 28 44 19 31 13 37 47 51 26 48 23 39 49 29 46 51 33 40 38 37 23 45 28 48 36 53 23 40 39 42 48 44 43 77 42 40 56 25 40 25 32 39 33 39 33 26 37 37 36 25 37 38 31 43 41 43 26 45 45 41 61 40 39 37 37 37 33 27 39 33 53 43 27 37 56 23 23 46 45 34 37 36 56 39 31 43 53 57 40 23 47 37 17 39 36 60 41 16 58 45 28 41 40 41 31 43 59 60 40 33 45 65 35 38 37 31 51 34 31 42 32 40 34 48 36 41 52 43 51 30 37 39 43 42 40 43 37 43 30 40 33 45 34 30 68 31 54 23 39 18 45 37 38 38 51 46 43 36 42 16 37 19 27 46 33 56 36 23 23 44 32 31 51 23 42 55 49 37 44 38 53 42 20 39 27 32 47 56 51 26 22 34 29 43 29 29 50 55 44 28 29 44 31 37 62 23 37 44 36 61 45 33 51 40 48 41 45 37 57 32 25 40 32 22 41 45 37 57 41 41 31 47 39 46 44 36 46 51 25 35 40 43 45 26 37 37 46 38 37 34 23 30 34 35 13 43 33 27 41 49 55 37 34 19 34 41 43 48 17 44 37 37 30 39 22 37 30 55 32 15 54 31 48 43 38 51 32 31 40 44 37 37 43 41 33 43 36 36 27 28 42 33 26 52 40 36 16 35 44 37 54 40 48 35 43 33 45 30 30 43 47 38 34 48 53 44 47 40 35 40 37 38 47 44 44 17 29 45 22 45 47 54 54 52 45 29 52 26 30 10 47 48 35 52 30 25 63 24 30 48 46 47 31 55 19 50 37 40 40 48 31 26 33 48 17 55 65 29 26 42 37 34 22 30 32 32 28 50 33 47 43 30 48 45 41 34 23 30 48 23 45 38 44 44 30 31 23 37 45 56 39 43 43 23 33 42 55 53 44 35 58 33 47 38 58 44 48 37 36 28 20 23 29 19 43 29 51 43 41 34 47 35 33 42 43 54 37 20 25 53 51 51 48 27 43 40 37 50 30 57 52 26 58 48 35 24 51 40 34 45 43 25 47 37 40 32 49 36 28 71 46 48 44 49 23 51 48 27 27 45 27 38 37 30 12 43 27 23 33 49 41 23 27 47 73 45 45 23 37 45 35 32 40 30 27 41 37 33 27 53 39 44 50 47 26 34 54 40 37 17 36 43 58 32 37 39 68 25 49 51 36 57 37 38 44 56 20 19 39 29 41 41 52 36 37 33 31 20 43 40 39 44 35 48 45 45 41 57 51 56 43 30 48 42 40 38 41 36 43 31 37 33 47 32 51 36 46 45 44 37 37 23 39 16 43 44 43 29 39 25 19 28 32 51 35 29 23 39 31 30 40 26 47 41 37 30 30 26 30 39 38 14 31 31 23 40 42 36 39 46 44 36 51 37 47 41 33 43 51 30 38 41 34 24 33 48 29 49 48 49 50 53 19 47 36 31 59 37 29 26 34 56 37 57 45 27 26 44 34 33 28 32 28 55 19 44 38 65 30 33 29 26 44 47 37 31 27 64 36 35 27 35 30 37 44 54 31 37 23 40 26 47 43 26 33 24 42 37 37 58 37 22 44 33 45 45 39 28 39 59 45 38 50 31 26 30 24 41 19 33 22 35 27 44 15 50 42 36 38 31 22 18 12 32 20 66 16 50 15 46 41 57 38 45 36 29 31 37 46 38 29 38 44 25 52 43 40 59 42 30 30 29 41 58 23 45 36 37 32 61 37 43 39 49 55 36 43 30 44 37 28 42 29 38 44 30 41 30 16 23 44 30 34 39 48 44 29 38 18 37 48 38 25 13 45 36 38 60 27 44 23 26 60 34 22 50 37 33 25 30 27 41 37 56 36 41 42 59 34 37 36 41 19 32 41 16 27 28 32 33 31 38 26 42 27 33 41 52 41 31 41 32 46 24 38 42 43 37 36 32 35 45 21 40 40 35 48 37 59 36 44 63 36 33 40 30 48 25 30 40 53 18 63 27 51 31 35 22 45 30 55 31 45 53 37 49 20 36 51 40 33 29 30 50 35 50 46 48 20 36 44 23 41 59 57 33 40 28 33 33 38 39 33 49 38 41 25 37 36 38 27 22 40 50 34 45 43 51 76 35 23 55 23 49 54 50 40 37 20 47 16 46 30 36 40 51 30 51 38 36 43 44 40 36 51 29 32 65 60 30 27 32 46 30 23 47 36 40 54 16 41 37 40 37 42 26 51 34 32 34 16 29 37 52 29 60 37 44 34 40 33 36 34 29 49 37 60 37 46 26 23 37 23 26 36 49 41 27 20 29 30 37 44 29 32 36 45 31 28 35 36 40 40 31 39 47 36 34 47 30 53 34 44 37 37 31 47 43 36 34 19 30 29 19 39 34 47 30 26 33 43 51 50 27 46 54 47 40 52 31 24 39 26 43 35 38 33 43 37 43 40 54 44 34 30 31 28 33 30 48 29 39 46 30 30 37 33 57 30 55 44 30 52 52 45 39 63 30 49 22 33 44 38 52 51 17 42 59 30 21 34 37 42 32 58 47 26 34 37 42 50 41 41 30 39 29 35 33 41 47 17 51 34 44 21 31 41 25 20 41 20 30 42 44 27 46 43 43 25 35 37 41 44 36 41 48 34 22 35 30 34 34 34 42 27 27 51 37 26 45 21 47 31 47 45 31 41 36 53 40 22 46 40 26 41 51 24 59 37 36 43 54 41 35 43 34 32 39 30 44 59 46 34 31 36 30 49 58 17 30 44 45 22 29 30 16 37 46 22 32 73 36 20 32 41 47 37 30 37 40 45 27 37 31 30 45 43 47 34 33 37 19 42 33 57 41 33 31 26 46 29 47 43 24 27 29 37 38 40 16 23 61 37 19 42 45 35 41 33 34 27 49 45 36 40 29 29 45 37 32 34 36 43 33 48 33 42 10 51 41 35 33 46 9 57 23 27 50 26 37 29 10 34 30 23 45 17 15 51 19 23 43 29 34 47 31 49 30 50 33 36 41 53 32 41 30 33 42 32 41 30 27 41 44 47 37 33 42 39 54 33 31 46 27 29 30 44 30 38 43 65 52 40 38 43 26 36 37 37 36 31 43 30 29 47 44 28 27 34 40 37 41 30 44 37 30 40 45 36 20 25 50 30 40 27 37 44 52 41 37 35 37 33 30 41 31 31 37 47 43 44 59 53 43 30 40 51 26 48 45 41 32 51 32 47 28 42 56 44 51 51 32 37 37 34 29 38 29 21 29 47 27 45 29 69 23 39 38 47 55 45 53 28 35 23 38 37 43 17 23 74 32 44 54 42 31 41 26 31 37 40 44 34 29 25 54 33 26 25 26 35 29 31 33 42 24 56 25 37 30 47 59 49 40 44 37 48 20 39 34 29 26 43 33 51 67 27 26 23 20 30 32 36 47 26 17 58 54 23 36 36 35 23 44 32 37 16 39 26 22 39 48 55 30 51 23 37 31 35 37 24 34 40 55 51 29 39 51 40 46 55 43 39 47 42 29 33 40 37 54 41 48 33 37 43 22 38 29 42 27 44 43 29 37 45 46 47 44 58 46 31 43 39 47 21 57 40 25 40 34 31 41 42 23 48 37 47 37 47 32 46 45 35 61 29 42 29 32 19 37 29 28 23 27 47 29 50 40 44 27 30 40 43 40 45 45 38 50 45 48 34 36 42 22 36 40 48 39 38 33 43 33 58 41 26 34 47 22 33 37 36 54 33 33 23 36 34 37 36 51 43 47 45 40 43 55 43 26 32 36 23 55 39 39 31 38 57 37 47 33 40 27 39 38 29 46 45 44 49 36 46 26 45 47 29 37 47 43 33 33 30 48 26 44 24 50 31 45 26 12 32 37 41 65 45 43 38 31 29 34 30 53 48 35 47 52 23 62 36 34 32 35 37 33 41 43 46 37 32 35 40 40 22 38 23 54 21 62 32 16 37 52 43 43 47 22 41 36 23 43 26 37 45 50 31 35 50 48 49 41 34 23 45 30 39 37 31 29 47 32 40 38 60 36 48 44 39 47 35 29 26 29 13 57 49 33 32 34 49 40 32 36 48 34 43 45 48 35 46 29 33 34 41 46 20 55 21 38 45 32 43 38 33 23 30 57 34 55 37 39 29 31 37 42 41 34 37 44 40 47 39 44 30 45 29 26 33 36 63 45 26 19 36 32 40 61 19 45 28 44 28 22 48 37 36 51 40 20 26 40 35 29 30 40 54 61 39 43 41 43 37 45 33 46 16 40 43 27 48 38 30 26 16 46 31 50 43 51 45 31 30 46 30 47 51 22 37 40 29 54 25 37 33 41 30 27 50 23 25 35 29 37 54 43 33 29 40 37 38 55 26 41 52 37 39 39 49 25 33 25 49 20 28 39 32 29 12 34 30 43 19 37 47 26 48 35 62 40 44 32 44 37 35 25 48 51 29 38 31 36 37 50 29 19 43 34 31 17 59 49 26 35 25 28 48 25 47 45 44 31 24 16 27 29 13 34 49 49 42 54 37 48 44 29 26 37 36 51 32 32 28 37 37 27 47 35 39 39 63 25 20 44 37 36 42 45 42 35 25 23 30 23 39 17 25 41 45 48 27 29 41 30 40 44 46 30 19 25 23 37 40 38 45 30 31 43 39 34 44 23 28 56 19 56 41 41 30 36 54 33 49 29 44 33 22 44 44 34 57 45 33 25 44 49 29 34 30 44 23 40 59 49 44 36 59 50 43 40 34 30 25 23 31 33 38 34 43 65 48 38 23 33 41 66 34 28 17 57 27 42 38 62 53 46 43 45 38 23 36 37 30 20 36 23 44 53 36 37 34 33 30 33 23 35 26 43 33 27 33 61 54 33 37 58 43 48 30 31 32 27 16 41 22 30 65 37 50 28 36 28 30 33 37 43 47 33 31 30 18 55 48 43 33 37 38 37 40 35 51 38 29 33 40 37 43 47 44 44 45 37 45 17 51 48 46 34 40 44 33 46 65 29 31 29 43 34 58 41 57 58 62 23 39 31 35 31 27 45 32 23 32 48 33 23 31 37 51 40 40 46 28 43 48 37 23 36 30 51 35 31 34 38 40 45 51 41 49 32 23 27 44 44 37 46 32 40 25 45 34 51 30 62 44 41 30 37 41 20 21 20 41 26 45 28 41 34 30 41 26 26 13 30 34 47 17 40 27 33 36 23 38 37 37 31 38 23 69 29 26 43 43 48 33 33 40 34 37 52 44 40 47 36 30 39 36 37 41 65 27 44 32 35 37 50 24 40 37 41 37 41 40 18 40 29 44 41 32 44 30 35 44 38 30 43 29 43 55 43 64 36 45 43 43 37 47 26 35 41 36 39 45 57 53 51 35 37 46 43 43 42 37 22 40 39 56 41 39 49 10 24 37 33 57 36 37 17 30 45 42 52 36 37 49 42 65 34 27 37 45 34 23 44 34 43 33 50 47 25 23 23 36 29 44 43 13 30 39 51 25 22 23 25 31 50 33 37 24 51 51 33 44 47 27 51 45 33 41 42 48 27 30 47 43 44 33 54 24 37 29 41 41 47 30 48 35 37 50 34 53 36 33 36 45 15 36 36 32 33 27 43 26 41 44 46 29 34 21 40 33 60 48 23 32 30 45 16 29 36 41 45 45 38 46 33 37 23 31 39 45 41 40 45 46 29 37 28 59 49 19 24 33 37 48 54 52 32 26 26 60 20 45 26 38 41 37 27 43 34 40 37 26 47 36 39 38 44 19 38 58 41 23 30 38 26 52 38 47 27 45 32 41 39 36 50 47 45 24 34 34 51 51 29 55 33 47 40 33 47 17 40 33 40 53 12 26 42 27 37 22 23 37 36 48 19 34 33 31 52 34 26 23 45 43 34 57 41 49 33 40 44 38 41 40 23 44 44 41 33 49 54 23 49 29 55 51 20 36 44 50 51 56 35 44 43 25 31 37 40 37 42 36 20 26 29 33 38 40 31 38 29 42 27 35 45 30 44 27 47 52 44 44 31 43 48 43 27 44 35 37 37 42 43 46 46 34 37 32 55 25 37 40 25 34 36 33 43 38 36 30 34 46 48 33 37 30 46 49 46 33 26 33 50 36 32 39 41 47 29 16 62 19 44 34 54 51 26 28 41 35 32 54 23 59 58 43 38 44 26 54 32 44 57 40 34 33 27 33 20 41 49 40 53 45 51 31 58 37 53 39 51 35 37 37 23 23 21 45 43 26 52 31 42 33 51 34 38 41 29 50 67 37 44 51 37 48 36 9 33 29 48 47 24 37 47 29 33 36 30 40 37 36 40 26 39 30 13 35 51 47 47 35 29 52 30 58 41 40 40 36 47 20 57 26 17 48 35 23 49 23 32 27 32 52 50 47 23 15 34 29 34 26 51 31 43 37 43 37 33 42 48 50 48 27 38 31 43 35 31 28 38 33 9 48 57 48 45 54 33 41 43 48 48 51 45 34 37 33 34 36 13 34 46 51 51 37 37 34 51 34 30 55 35 33 45 32 41 43 46 39 30 23 45 47 50 60 44 30 43 31 35 27 57 40 40 48 30 37 45 25 26 43 40 30 44 23 39 23 47 55 43 38 36 33 52 36 45 48 57 23 56 48 23 37 32 15 45 38 20 69 25 28 13 34 36 41 34 33 43 41 24 22 33 23 43 24 23 22 52 36 30 27 48 43 35 50 33 62 13 48 37 38 16 34 30 45 40 36 48 34 41 36 31 37 37 26 36 48 35 37 40 41 56 9 33 27 51 31 36 26 30 37 54 16 35 43 27 68 51 20 54 34 47 12 39 43 44 40 45 47 29 41 48 50 36 48 41 51 29 36 35 37 27 37 31 34 23 38 42 33 33 52 44 41 24 20 33 30 55 22 19 52 34 42 47 33 40 48 20 30 36 52 35 24 31 26 33 43 25 43 41 40 37 39 30 47 40 33 53 43 38 40 48 29 44 45 34 52 39 55 33 42 40 29 49 40 38 68 60 27 61 28 62 59 51 58 25 27 42 48 37 37 12 40 31 37 43 28 48 36 39 26 46 38 30 35 51 33 38 41 29 37 51 64 45 48 27 54 44 31 40 22 41 24 38 29 26 27 51 43 54 52 37 39 40 34 48 34 26 49 24 37 44 40 51 43 43 54 32 30 33 17 20 31 20 54 20 22 30 43 45 37 54 51 31 50 30 37 43 13 28 33 40 71 38 25 41 47 50 22 40 26 26 23 33 49 53 34 40 39 50 37 47 51 31 23 32 51 24 27 51 49 41 35 49 45 51 52 35 64 51 25 59 52 42 55 51 37 35 46 45 43 47 26 30 45 27 48 22 37 39 47 29 30 36 30 30 29 30 23 29 27 23 36 33 19 48 55 27 59 59 56 17 17 43 52 43 36 40 26 51 20 47 47 26 43 54 35 43 45 52 9 27 36 46 41 37 37 39 24 37 37 33 44 24 40 41 51 28 38 45 35 36 39 37 54 27 41 32 27 42 47 54 44 36 50 25 34 34 26 40 38 33 36 44 37 37 23 47 45 30 35 48 47 33 51 29 32 33 50 55 29 29 26 42 31 45 34 59 33 42 27 33 47 26 58 40 27 23 22 32 37 49 40 31 22 49 27 30 36 55 25 41 38 43 40 18 45 54 25 40 29 27 26 39 47 16 41 51 34 30 37 44 54 28 50 45 24 33 35 35 39 27 19 48 35 34 41 43 39 30 31 51 32 17 51 29 22 37 45 51 37 29 35 34 42 30 33 23 47 53 47 51 35 30 30 34 37 41 41 45 43 51 36 35 38 45 36 37 46 39 51 40 48 41 24 27 43 26 33 41 48 39 26 51 51 48 45 46 27 51 33 30 48 34 38 31 42 43 25 45 54 42 71 53 54 43 50 49 26 49 44 29 40 41 33 38 29 33 40 19 54 17 43 43 23 37 45 38 56 51 33 38 50 32 30 37 57 54 34 50 43 48 39 33 25 51 19 37 30 28 23 34 56 41 30 43 29 20 41 37 47 47 28 26 42 30 31 36 34 45 42 43 29 23 52 48 16 51 33 42 49 37 45 44 23 34 36 37 41 36 42 23 41 40 45 30 41 30 31 47 28 38 30 22 30 50 54 45 33 24 37 39 34 23 25 44 45 27 35 29 41 54 25 13 53 24 41 24 46 37 23 47 22 46 31 34 54 29 42 30 50 26 33 25 31 64 24 39 36 47 39 52 31 50 41 46 30 41 33 37 24 33 31 52 41 31 33 62 30 29 35 20 34 37 29 27 29 45 41 57 13 55 41 48 17 25 30 40 42 37 31 33 39 45 31 44 31 42 44 47 23 27 16 37 54 19 40 54 43 24 36 23 44 30 36 62 31 45 34 41 44 39 37 54 30 29 43 51 26 55 31 23 58 30 23 36 25 38 34 29 47 44 33 26 32 28 35 39 31 16 36 40 37 22 10 49 29 34 57 32 24 41 33 41 33 33 36 69 46 29 37 23 33 27 37 33 58 16 33 23 48 23 34 30 41 28 46 38 43 50 22 43 39 59 44 32 30 31 30 23 31 45 33 41 45 43 49 35 17 37 21 31 36 23 30 19 57 30 48 44 36 48 43 27 30 33 31 36 35 62 51 55 47 37 38 28 38 34 47 41 32 29 51 37 49 23 40 20 32 38 38 30 29 44 57 37 30 17 33 50 37 56 46 37 40 50 49 47 61 23 37 33 36 35 40 38 19 49 43 23 27 38 43 23 40 46 37 41 23 32 29 34 21 15 25 51 37 29 41 40 43 59 34 33 41 31 47 51 61 30 31 54 33 37 44 28 39 37 47 41 45 51 54 31 37 36 23 37 28 55 49 59 48 33 44 22 43 24 23 39 41 30 25 51 37 34 34 26 40 68 32 33 30 51 39 50 25 51 41 44 63 55 43 35 43 40 30 43 37 42 50 45 34 41 33 33 37 30 27 37 43 29 33 29 32 37 36 22 30 33 24 23 43 32 23 36 26 38 41 34 37 47 41 41 34 31 29 33 16 63 48 49 17 39 38 44 37 41 35 31 44 37 56 49 25 33 45 25 27 47 13 50 15 48 40 24 44 40 58 62 43 40 45 29 38 40 48 51 29 37 33 33 49 24 49 30 37 33 51 40 43 30 16 31 41 33 45 33 51 58 43 51 28 55 40 50 57 52 37 31 55 22 42 13 37 37 41 40 60 51 34 19 39 40 40 33 24 39 22 43 30 37 36 41 26 51 35 29 48 29 41 21 35 27 37 28 29 52 33 39 40 39 31 27 40 35 47 50 68 31 16 31 32 17 55 13 52 29 29 30 40 37 40 16 41 22 40 23 62 26 55 33 28 43 43 34 49 45 26 41 34 26 44 37 52 23 37 38 41 47 41 27 44 45 37 29 34 34 52 44 54 52 33 31 24 32 55 40 40 41 37 27 30 31 27 45 48 28 54 44 23 44 34 19 39 25 37 35 19 16 34 51 37 40 30 45 42 34 49 46 52 34 62 45 27 34 39 32 40 56 36 19 45 41 33 21 57 31 62 48 40 23 32 37 55 27 45 33 37 33 53 29 29 46 48 29 36 30 43 48 38 27 30 52 48 37 26 37 37 36 48 30 44 56 43 26 45 22 29 24 48 33 37 29 35 51 33 45 51 33 64 26 53 37 46 45 37 30 38 56 54 41 31 57 60 50 45 50 48 34 43 42 41 45 45 62 34 20 39 41 41 39 47 47 34 17 23 30 33 41 35 16 46 16 36 45 36 30 43 16 23 30 31 45 41 53 35 13 41 37 40 23 41 40 38 30 43 51 40 21 47 34 44 34 27 33 48 51 37 58 37 38 29 39 26 56 61 29 27 39 36 36 41 37 29 52 48 37 44 23 25 30 41 33 43 37 60 40 30 46 36 30 38 30 43 53 55 32 31 51 49 38 10 41 32 23 40 51 42 20 58 37 34 34 39 59 34 44 30 32 43 48 47 43 55 43 28 53 19 36 26 19 45 61 40 48 38 43 38 36 23 55 31 38 34 40 55 44 15 58 49 34 39 42 47 37 38 23 54 35 58 34 26 54 34 35 54 55 19 44 33 30 39 38 37 46 44 56 43 40 60 29 45 33 51 51 43 20 32 43 54 30 40 43 23 40 41 47 26 46 27 28 48 23 37 23 33 16 40 29 39 44 52 51 57 55 35 43 57 37 38 30 46 43 31 40 22 39 31 37 28 47 38 21 42 59 44 38 26 37 37 28 34 40 33 26 16 33 37 39 31 40 27 30 54 68 16 38 36 24 33 33 34 37 37 28 55 30 38 34 30 23 31 58 48 37 30 53 29 64 31 34 26 38 51 16 31 44 49 54 43 35 34 35 37 29 44 26 41 48 33 23 37 41 36 27 30 23 30 23 43 24 29 28 13 34 22 35 52 65 36 47 37 20 34 41 44 50 52 64 57 37 37 34 16 33 27 44 40 45 39 38 21 28 30 26 29 16 45 46 37 31 57 24 47 31 36 43 16 48 32 16 48 32 38 16 45 28 36 45 51 24 48 49 45 54 52 33 39 41 34 26 40 27 41 33 30 61 27 44 43 40 35 40 38 52 65 40 33 27 24 40 22 46 36 57 38 39 51 45 30 28 41 38 35 34 60 22 9 37 47 33 31 47 44 43 39 20 47 16 34 33 38 22 58 29 28 27 54 51 48 37 27 31 23 29 45 25 26 33 43 40 37 37 31 43 46 43 37 50 38 40 46 35 30 40 54 34 37 33 29 38 45 19 55 30 26 31 55 30 51 27 36 37 39 45 48 47 53 44 63 41 50 28 43 34 40 32 34 33 42 47 26 30 33 23 51 31 23 27 43 46 30 34 59 48 41 48 62 27 43 30 26 26 35 31 38 47 19 27 51 38 62 37 37 45 59 41 38 31 28 39 32 59 36 45 51 22 35 47 35 68 25 40 32 37 47 44 34 44 17 51 41 23 23 45 45 53 40 46 45 55 48 37 39 49 47 20 39 37 54 38 50 23 30 47 51 43 20 49 39 32 37 27 54 28 22 29 34 30 41 37 50 36 30 29 43 30 44 51 55 37 36 43 20 44 56 33 48 47 36 46 27 38 44 44 32 34 37 52 37 30 23 33 42 39 42 12 26 41 45 27 46 37 44 44 10 16 44 55 19 40 51 43 36 38 55 51 49 30 40 45 50 13 44 51 10 30 30 51 30 50 39 45 45 57 40 27 39 31 46 33 35 40 46 31 39 46 45 24 26 46 49 33 45 59 29 45 23 36 37 59 37 40 44 51 31 50 41 23 22 33 36 50 29 56 31 54 16 9 41 33 51 25 33 37 31 22 37 51 38 33 27 31 34 52 61 23 52 47 45 56 26 51 43 42 56 44 55 64 43 51 39 23 62 61 33 33 46 38 24 29 31 36 43 41 32 54 50 26 27 49 19 36 50 46 36 54 51 19 41 34 48 33 43 44 29 54 37 50 28 40 37 29 36 42 37 50 44 38 43 33 52 13 46 31 37 33 30 36 40 63 45 30 30 33 46 46 34 27 35 39 32 58 23 34 41 44 26 40 40 37 41 29 38 36 16 45 30 34 26 54 48 34 27 44 33 32 41 37 30 43 43 27 53 48 35 27 38 29 37 15 40 47 44 38 41 43 37 24 43 46 37 49 37 33 33 32 23 40 29 34 59 48 36 33 48 32 40 43 44 37 40 33 33 61 41 31 33 48 41 45 26 36 53 53 40 31 20 43 34 22 34 29 25 44 53 47 33 41 40 54 38 33 38 50 23 29 50 37 26 54 43 44 28 37 45 58 37 54 23 52 40 40 40 22 53 47 36 47 29 30 31 52 33 33 29 26 40 37 45 48 47 43 38 37 31 20 24 51 36 20 44 24 43 44 49 34 48 33 58 28 41 36 37 33 26 24 45 62 37 37 35 44 33 51 39 45 55 35 41 37 23 37 28 33 43 40 31 36 25 29 15 69 26 55 35 31 58 28 45 24 39 25 34 37 51 49 45 43 54 41 54 39 18 40 33 40 42 41 36 39 46 59 34 44 13 38 41 20 15 27 40 36 44 32 12 44 52 47 26 30 25 47 31 55 34 33 40 44 38 47 44 34 40 33 58 41 30 43 43 33 23 37 24 19 35 34 41 33 46 39 39 22 33 40 43 52 45 37 38 39 25 31 34 29 46 54 28 34 52 41 38 38 28 49 45 39 34 36 28 52 39 29 33 30 40 33 37 29 60 37 24 53 35 36 37 43 48 41 54 35 29 17 31 32 27 51 44 50 37 44 36 43 42 35 30 29 50 36 41 27 47 23 40 33 35 17 30 57 37 33 36 42 43 41 33 29 44 26 31 34 33 54 44 60 40 21 43 32 48 19 18 33 34 48 37 43 29 16 41 22 41 41 38 32 41 38 40 29 24 14 30 29 29 39 41 33 36 26 20 27 32 26 48 43 28 37 45 45 46 48 34 50 40 31 23 46 27 53 33 27 30 69 24 37 40 51 45 19 45 48 31 37 19 42 23 30 37 43 33 45 20 51 40 27 41 37 47 40 26 44 31 25 45 30 44 48 37 37 51 34 34 36 36 19 31 35 45 47 35 9 16 45 37 47 37 48 24 38 35 27 17 50 32 46 38 16 33 43 51 33 36 30 34 34 37 29 37 35 49 24 32 41 46 30 30 28 28 40 34 31 51 38 40 33 44 39 19 43 45 34 40 40 59 35 24 44 44 50 35 32 45 54 44 22 37 41 44 22 19 33 39 37 30 22 26 27 21 25 37 37 29 42 29 44 37 24 42 40 36 29 29 51 45 51 43 49 16 61 46 27 37 29 40 31 32 47 63 37 48 37 23 42 23 54 36 43 54 54 41 51 53 33 54 38 51 47 37 31 24 40 38 43 52 50 37 34 43 30 36 43 26 58 41 46 54 23 40 46 42 54 37 49 37 41 23 35 43 36 23 40 55 51 26 41 41 39 16 30 33 45 44 33 39 45 37 27 33 33 41 21 47 59 35 29 44 13 36 41 27 37 21 32 39 30 45 46 30 32 33 42 44 55 41 43 37 33 41 27 34 44 48 49 47 47 38 30 33 44 23 42 47 26 19 32 33 30 19 27 45 30 45 44 45 24 29 37 62 43 46 45 46 45 43 24 43 51 35 40 19 27 34 54 29 30 37 34 32 20 46 17 58 53 35 38 46 47 37 22 33 33 33 57 46 51 37 27 26 42 33 42 44 49 41 23 10 39 56 43 53 51 22 30 24 43 58 36 24 33 44 16 26 51 41 25 55 29 35 44 41 33 9 47 69 36 39 47 46 50 16 13 45 22 48 42 30 34 47 43 45 29 41 37 39 30 49 20 31 37 37 30 44 20 42 29 31 55 44 29 35 33 41 25 41 55 44 35 44 47 41 40 65 51 37 30 47 41 40 47 42 29 26 16 40 44 55 30 40 47 47 40 57 38 43 40 26 41 44 49 39 33 41 65 31 31 37 48 24 16 40 51 41 37 64 41 57 16 37 37 52 28 33 50 30 43 44 50 37 36 34 49 48 33 32 34 52 29 57 39 40 22 37 22 34 29 39 24 40 39 48 33 23 58 48 39 41 47 42 40 60 23 59 42 27 51 46 59 30 31 46 37 34 37 33 22 33 48 37 20 58 40 26 48 38 53 31 30 35 22 35 43 29 37 47 29 48 51 52 27 42 19 50 46 39 47 33 30 32 45 37 14 30 29 35 43 30 43 36 64 30 41 29 41 49 18 35 30 41 38 54 37 33 40 27 25 37 55 43 48 20 29 36 36 37 20 48 41 39 44 39 48 54 48 33 36 40 44 47 41 50 29 45 40 41 46 30 48 25 23 50 36 43 30 51 30 40 65 29 41 37 28 17 23 38 24 39 30 34 43 41 39 44 37 19 35 48 45 28 35 50 62 19 39 33 27 60 41 51 41 30 21 28 37 41 25 48 29 23 29 51 27 31 50 40 40 36 43 31 37 41 21 53 26 30 48 43 39 33 41 17 26 37 43 57 44 29 16 26 39 35 39 23 40 43 39 57 26 39 22 21 36 51 41 44 34 33 45 33 36 48 33 41 49 32 23 59 32 36 27 27 53 25 27 26 49 42 27 33 41 22 38 58 32 45 30 34 59 25 54 28 40 32 39 41 43 33 36 38 45 37 60 38 52 30 35 37 32 38 15 30 29 39 47 40 34 41 35 59 29 47 49 47 34 51 37 36 27 44 38 37 43 34 36 52 43 40 23 53 61 33 50 40 29 16 37 52 19 41 27 34 28 44 35 37 45 39 23 48 27 32 33 31 40 44 40 44 32 65 44 41 45 41 26 33 49 48 42 29 40 36 39 43 51 44 22 33 57 44 23 30 32 26 30 35 37 48 35 47 43 22 49 60 45 20 56 31 44 52 46 55 33 37 31 22 43 28 31 43 42 34 34 59 23 37 31 55 38 26 48 29 30 54 39 48 34 27 27 27 41 45 57 52 18 36 44 37 45 45 37 48 49 57 23 40 28 34 44 26 39 47 26 45 54 44 45 55 38 27 30 42 47 48 43 46 30 48 41 47 42 27 24 37 41 33 29 41 31 43 36 27 26 40 51 30 33 31 37 33 36 36 51 22 18 27 33 53 49 33 54 36 34 57 28 23 32 29 28 51 22 40 46 45 33 39 16 37 42 46 39 27 50 22 62 34 53 34 45 53 49 36 17 37 19 45 56 32 34 51 35 56 45 43 19 55 47 31 41 38 44 26 26 22 42 33 37 37 41 35 52 36 57 22 34 41 36 37 32 27 26 40 55 31 39 56 36 33 37 29 17 38 41 29 55 50 41 40 40 37 40 44 38 30 28 23 31 58 27 22 47 51 43 43 54 23 21 41 30 32 43 33 51 52 29 29 22 51 27 21 27 30 39 33 39 46 33 36 61 57 27 28 38 16 40 50 43 29 43 33 42 48 34 41 34 20 34 27 16 37 35 44 26 23 36 44 40 44 60 39 29 32 37 40 22 52 35 40 46 34 24 33 43 36 47 35 36 46 47 36 31 33 23 36 43 28 23 31 23 34 51 27 29 52 32 42 23 43 40 48 33 45 51 47 26 30 23 44 50 41 37 41 44 36 57 37 42 25 43 64 37 27 40 26 40 37 59 37 42 28 49 20 38 39 37 37 44 21 35 57 39 51 60 30 37 22 19 36 55 65 37 27 33 61 49 41 37 39 57 69 41 31 62 36 31 37 34 20 37 31 32 40 34 26 35 45 37 29 38 37 36 43 55 34 36 40 24 40 43 42 41 32 32 38 37 51 37 35 33 42 48 37 45 9 21 33 48 24 43 49 40 46 38 32 37 17 33 47 20 56 37 48 43 43 42 33 29 53 49 41 17 29 45 43 42 51 21 32 49 43 30 40 25 25 43 40 25 37 41 46 36 40 27 51 22 51 45 26 13 45 30 20 29 57 40 39 35 31 37 55 41 31 26 41 33 16 29 47 44 47 51 37 27 48 31 39 29 30 16 26 34 22 43 27 17 33 23 44 41 41 19 51 33 36 30 50 41 39 44 33 60 50 46 34 28 33 23 23 53 33 44 33 30 32 35 30 53 48 34 28 40 56 34 65 38 33 43 21 40 47 33 34 43 51 45 44 37 27 37 51 37 37 28 52 60 37 26 39 44 24 37 42 23 23 36 34 67 50 35 45 46 46 34 48 33 37 44 48 29 48 39 40 42 28 43 28 52 33 57 26 37 33 47 36 34 43 30 43 55 26 37 42 58 49 44 52 30 39 42 19 63 59 42 33 30 23 35 30 26 39 33 38 33 40 40 47 31 44 37 27 40 14 44 49 44 37 33 33 29 47 51 35 51 40 53 37 48 27 24 49 37 23 43 39 23 37 39 43 36 35 37 38 27 33 20 16 41 30 64 38 32 38 63 21 37 22 20 36 28 41 44 38 31 40 48 37 29 40 37 33 48 37 36 25 34 52 45 36 41 31 42 40 26 24 47 45 44 34 43 54 51 19 44 37 47 34 27 47 63 27 62 37 49 29 31 45 40 47 42 48 31 55 27 46 51 42 40 37 35 32 25 27 27 54 24 42 46 51 53 43 46 29 36 30 25 50 24 29 40 43 54 37 44 43 31 26 23 30 42 31 20 34 20 44 42 35 45 61 35 42 47 23 47 57 58 19 34 47 33 43 43 53 17 25 40 23 26 44 40 40 55 34 37 53 45 31 48 46 33 34 26 27 38 12 52 7 38 35 36 29 33 40 31 51 46 54 38 49 52 46 30 63 29 31 45 47 37 35 31 44 53 50 43 31 45 35 39 49 34 26 45 40 37 37 34 38 40 60 36 27 23 43 48 43 41 37 45 26 58 38 43 47 29 47 45 47 30 32 47 42 15 48 65 52 44 46 31 31 41 36 40 16 29 29 17 40 37 28 47 34 30 41 47 60 38 19 42 25 41 35 36 52 48 26 40 26 60 30 26 46 39 37 54 52 22 44 27 33 38 26 23 51 27 42 30 52 23 43 34 40 52 56 43 47 45 30 36 34 37 43 28 44 40 27 25 23 51 30 37 26 33 43 44 45 31 33 35 46 44 33 51 30 43 30 37 52 34 32 36 55 26 52 48 25 38 48 24 50 28 39 26 37 50 25 48 31 43 19 57 16 31 44 37 23 46 26 51 34 56 40 36 34 30 49 40 49 37 43 47 49 38 48 38 29 64 42 29 36 39 31 37 43 45 45 60 29 45 30 48 41 54 62 40 41 50 44 51 37 49 35 45 19 32 52 35 47 27 52 29 31 29 54 41 61 54 17 42 44 27 29 61 24 32 37 29 50 44 51 30 32 19 27 32 43 43 44 33 41 18 45 37 41 41 43 29 31 30 45 36 45 31 33 29 27 50 35 37 37 48 51 44 43 39 15 40 62 42 19 30 51 36 50 43 47 48 33 45 30 47 16 17 33 31 22 72 20 31 34 37 56 48 44 39 42 39 13 40 32 40 30 38 57 31 40 30 34 44 31 41 43 35 39 34 54 43 33 32 44 27 37 18 30 41 52 44 37 37 23 30 33 59 44 24 29 45 33 30 30 35 39 37 47 40 57 44 33 54 56 36 42 43 55 45 29 15 61 34 38 45 29 40 34 47 44 44 38 34 37 35 26 50 34 36 53 42 43 53 30 37 36 50 25 20 50 40 24 51 29 37 37 27 43 35 51 51 24 57 46 44 15 10 52 54 34 54 33 30 29 31 49 36 44 47 40 40 33 27 27 35 48 51 40 40 46 44 40 30 43 43 37 48 37 43 42 44 62 37 40 54 24 40 63 42 48 20 37 48 38 13 26 37 45 35 37 35 38 43 47 30 43 45 58 16 42 33 56 37 31 41 48 31 30 35 41 51 45 34 48 30 41 39 26 45 20 37 49 35 34 41 38 50 37 46 27 33 34 47 25 47 50 50 40 40 20 36 30 34 30 21 49 34 38 44 48 32 27 29 31 58 37 27 53 32 19 43 35 38 47 50 34 33 30 39 44 31 36 60 31 39 27 33 41 20 48 40 45 43 27 24 37 19 29 29 29 50 51 16 36 31 18 48 40 36 42 29 43 48 17 55 43 16 20 43 37 50 34 27 59 37 21 62 36 20 37 34 45 58 43 36</t>
+    <t>EXN(0.2546447441353239, -3.4275078751405847, 11.443049940976556)</t>
+  </si>
+  <si>
+    <t>5 11 -16 -11 22 9 15 -6 3 2 -4 -1 -22 -14 -14 3 -3 6 -11 6 -35 -11 7 -8 -23 11 7 -17 2 -17 1 -8 5 -5 4 7 -20 5 9 -3 20 6 -6 13 -4 3 -17 -3 24 13 2 -18 3 -6 3 -20 31 -2 -2 -9 -9 16 -17 -11 -23 -1 15 17 -6 -24 -14 3 13 6 7 15 10 -2 -5 7 1 10 -7 -3 -14 3 -3 -14 -4 -13 -15 -10 6 -3 13 -11 10 -7 -6 -4 6 5 -7 -21 -3 -6 -3 3 -13 10 9 -3 -3 -2 -5 7 -12 15 -7 -4 -24 -6 -12 -5 -14 -5 7 -12 -6 16 10 -4 -1 -9 6 -5 4 -8 -6 -6 -2 34 -7 18 -25 -4 7 -10 -6 3 17 -10 4 9 -32 -13 -3 -11 3 -6 -3 5 2 -2 -3 -3 7 -17 -7 -4 -11 -16 -6 -3 4 7 7 6 -18 7 4 3 -2 2 2 19 6 2 -5 -5 11 13 -5 6 -17 4 -7 23 -5 18 -7 -16 11 3 0 17 -19 8 13 1 7 -6 8 -2 -9 6 3 3 14 24 3 -10 5 -14 -13 6 5 -4 16 4 -3 -9 -12 13 8 -4 5 13 -25 4 -1 -3 21 -21 11 -10 -23 -3 13 -10 -8 -17 -4 1 -3 14 21 -11 22 7 31 -9 -4 11 -8 11 8 -3 -32 3 -3 13 5 -16 -4 7 -10 -4 -10 -4 14 10 -5 -6 3 -20 -6 1 6 4 21 -22 6 -19 1 -10 3 -1 8 -11 -2 14 5 -4 12 -21 3 -18 -12 4 18 4 7 -18 -16 -25 28 -11 -8 7 -13 -21 -5 20 -3 -11 -2 -10 7 -5 -3 -5 3 -25 10 -28 15 -15 11 13 12 3 10 7 6 24 6 10 8 -4 5 -10 -5 20 -4 -3 -10 7 4 -16 -4 -7 5 -10 -3 -6 -20 -4 6 15 -27 -8 -1 7 18 16 -6 -4 -8 20 -12 27 4 -4 6 10 -30 -4 -2 -1 -4 -7 -3 6 -18 3 0 -17 -8 -12 -14 14 6 -6 11 -4 8 4 -10 -6 11 -12 -8 -4 -12 -7 -31 3 14 -14 14 -37 2 7 -1 0 -16 7 -5 -2 3 24 -13 7 11 -3 -3 -7 -6 -13 -3 11 24 3 -23 11 -3 -9 -19 -11 0 -9 8 -3 17 -8 -10 13 15 -17 -3 -4 29 -24 12 -3 -6 8 -9 -23 18 19 17 -10 2 11 -4 -3 6 -3 3 -7 15 -25 -10 26 -10 1 23 -6 -12 3 -7 -5 -10 22 -6 -1 -11 -9 -4 3 -18 9 4 -14 14 -30 -2 -3 0 3 -4 -8 -8 4 12 24 6 2 -14 -18 4 -7 -21 -21 -14 -10 -4 -2 8 14 -10 11 -14 6 10 -21 26 -11 -11 -9 10 -17 -5 3 -12 27 -8 23 -3 10 4 -4 -18 2 7 19 -4 10 14 5 14 -26 5 20 -10 -3 14 19 -8 -10 6 7 1 -15 7 -7 16 9 4 -3 -22 -24 20 10 1 19 -10 4 2 -5 10 6 -6 13 -3 24 -7 5 -6 -8 -5 -16 -8 -3 3 3 7 -4 -3 8 -30 13 -8 21 4 5 -4 -7 -9 3 14 7 -10 6 18 -6 -14 -2 -4 3 -14 -5 -9 -5 4 1 -2 -7 -3 16 -6 -26 -10 -21 -33 3 4 7 -11 -10 3 -6 -4 10 -3 -16 3 8 24 -28 -1 -3 20 8 -2 3 10 -11 7 -10 3 18 3 -10 -14 -14 33 -14 23 1 -16 3 9 -7 20 7 -3 -10 3 15 -20 2 3 13 -13 -20 -5 -2 3 1 3 3 16 23 -9 6 -22 8 -7 -3 -21 0 3 -2 16 3 -3 -1 -9 -5 -10 -7 -4 2 -6 -25 11 1 -3 14 -18 -4 3 15 -14 -16 20 12 3 -3 11 -3 -3 -24 -6 4 -13 14 14 -16 4 3 10 4 4 3 28 7 3 22 3 10 6 7 -4 -3 3 -6 6 -14 4 14 4 15 -11 -22 3 -21 3 -4 3 -6 -24 10 -8 -20 -14 11 -17 4 14 9 -4 11 -6 24 6 10 -29 11 -1 -17 15 -9 7 6 -6 -3 11 -3 1 -1 -15 -8 -9 20 6 14 3 -6 -11 6 11 -3 10 -9 -13 6 4 14 7 28 -4 -13 9 3 13 18 6 -26 6 14 3 14 7 11 -2 7 -3 13 3 16 -13 9 10 8 -20 13 -13 8 -14 5 12 -6 -4 -13 -11 -2 2 -13 -8 -17 3 -5 11 2 -17 -10 -4 11 11 -11 -5 -7 6 -26 6 3 -9 14 3 7 10 -11 -3 2 3 11 -4 13 3 -8 -13 -15 18 28 -4 -9 3 3 -2 3 -24 -14 -4 -3 21 -3 2 8 -3 -6 12 10 7 -6 4 -3 13 12 -10 7 0 -4 3 -13 -2 3 -21 -3 7 -2 -9 7 -10 -3 -13 -3 8 -21 6 8 2 4 15 3 4 7 12 -10 -10 -11 -3 9 -5 6 -3 7 -1 17 -14 -3 -25 -13 -7 -34 3 3 7 13 -6 -1 3 -6 -9 -11 -7 5 7 -18 4 1 -13 -12 -20 -3 6 -1 13 -3 11 -4 -14 0 18 4 3 7 -19 2 14 19 20 -17 -4 15 -4 -13 -3 6 14 -4 -3 -4 21 6 3 0 -3 -5 -10 12 3 -17 -3 3 -15 -13 -7 2 2 14 -36 3 26 -4 -8 -10 -14 -13 -14 -1 5 -6 -3 -6 -5 13 7 -15 -3 -6 10 -10 25 6 -3 -10 17 -4 5 14 -6 7 8 2 -10 9 -14 4 17 -3 -12 8 10 -13 -2 -1 -18 3 -24 2 -6 -4 20 -8 -31 1 10 -17 7 -18 -6 14 7 -18 3 -21 -12 4 -14 -3 -11 21 -1 -3 34 -15 5 9 10 12 -9 -17 -5 13 14 -17 5 12 -2 5 -4 -3 2 -1 12 1 -20 -7 3 -31 -14 10 -7 8 10 1 10 -11 -21 -3 9 11 6 10 -4 6 -9 3 3 -10 -4 7 3 10 -3 -8 -21 18 12 2 -31 31 -12 -24 8 3 -18 -10 9 7 8 17 3 -5 -1 -4 -15 8 3 14 3 3 14 -2 4 -2 1 8 1 5 11 -28 -14 -3 -4 10 -10 11 3 -6 -14 -1 -5 -7 23 3 4 -25 3 7 -4 6 -7 -18 20 8 3 16 7 7 3 3 15 -12 -14 22 -4 7 3 -17 -23 -18 6 7 -7 -20 -14 3 -12 3 -8 2 3 -4 -7 3 10 -3 3 -6 -3 25 10 13 8 -7 4 14 20 18 18 7 28 13 7 -11 -6 10 -3 -4 -8 -25 5 -31 -4 11 28 -12 -12 8 -24 -4 -6 -11 7 20 17 -5 -20 34 -18 -6 -13 -20 -12 11 15 -14 -4 -21 38 -18 -18 -7 -21 21 -6 11 -3 5 -3 13 6 -14 11 6 -8 -11 3 -17 -17 -14 -8 -14 -7 -3 17 6 7 -3 9 -14 13 -26 7 -9 -8 18 20 14 18 -25 3 -3 -14 7 14 3 9 3 11 1 -10 -18 -20 5 3 -20 3 -4 6 -7 7 4 -1 -14 15 -18 -3 -8 10 5 -3 -3 20 5 7 -6 14 8 9 -5 -19 -5 -10 5 -20 3 -2 -2 -7 -3 -6 22 3 -27 31 -5 -10 -8 6 28 5 -5 -4 -35 1 -1 11 3 2 8 -5 -7 -20 -3 -2 -20 17 -4 -15 -3 2 20 7 7 3 4 -12 30 6 -11 -24 3 -12 -7 -11 -7 -12 10 -7 11 -3 6 -3 -4 -7 -19 0 6 19 -5 -6 -6 30 3 4 -8 -22 -6 -7 11 3 -4 -13 -11 4 -11 14 24 21 13 -25 -7 22 6 -17 -3 -10 -11 -24 -10 -8 -4 7 -3 13 13 3 -2 0 -27 5 -14 8 -26 -13 -10 -3 3 14 -17 -9 16 1 4 7 -6 -7 -4 4 -8 -6 -3 7 9 -7 3 -7 5 5 -10 -10 -10 6 6 6 -11 -17 -5 6 3 3 10 6 -3 5 -17 -11 7 6 13 -17 3 3 19 -24 -3 7 -7 -3 6 11 -6 -18 7 5 3 -18 2 17 -19 -16 14 -2 14 -2 8 21 -27 -16 -1 -6 5 -25 9 -6 -19 0 -1 -10 -16 10 3 -3 -6 -17 10 -19 10 -4 -1 7 8 16 -10 11 -3 -3 -3 7 -5 -5 9 6 15 0 -3 3 13 10 -3 -3 -27 4 13 -6 -3 2 3 -8 -3 -3 -7 4 11 -7 6 21 -10 -6 -5 -4 4 -3 20 -6 3 -17 -4 -7 6 -15 14 0 -3 -14 -3 -3 4 7 -3 -3 -6 2 0 -6 7 -11 -11 7 -3 -7 15 8 -25 -20 -3 -2 -14 -2 5 6 3 25 -8 6 -10 -10 4 -3 -3 16 -5 -3 11 16 -14 7 -9 -17 9 10 13 10 -4 11 2 -3 10 -17 3 -27 -3 -7 -8 9 -15 -22 6 -1 -7 7 10 -18 14 -7 3 3 -17 -9 -6 -6 8 12 -20 6 -32 -16 -3 -9 -28 8 -3 -10 7 -13 -3 3 -3 3 16 -14 -3 8 -15 14 -7 -8 -6 18 -29 -17 -1 6 15 -5 -14 3 8 3 19 7 -8 4 -12 -8 -24 -10 -3 -13 17 -6 -5 -7 -5 16 17 -18 -12 -6 10 -17 -4 7 7 17 -9 13 -29 -3 -6 3 14 3 3 -17 -3 4 -3 -27 -5 -2 -14 -3 -10 -11 8 -41 -1 11 13 21 3 -7 10 13 9 2 6 -8 3 5 -3 -4 -3 7 6 -11 -10 -10 -6 -11 -7 6 14 -11 -3 -6 -4 -8 -7 -7 26 -13 -10 -1 -10 -16 17 11 12 -12 1 -7 -11 5 -6 27 3 -7 -13 -3 7 -19 7 14 -13 8 13 3 -3 6 -11 11 -8 -18 21 -3 -17 -4 -17 -7 2 -20 3 2 14 2 6 7 4 7 -13 3 18 -9 -11 -15 -7 5 -1 16 25 -3 -3 5 3 -7 7 6 -4 3 -6 13 6 -3 -3 3 -25 -7 -2 4 17 11 4 10 18 -1 3 3 -17 -8 -18 -5 3 18 4 -13 -3 7 -7 -9 5 26 3 6 -3 6 -3 -3 -1 -3 -10 -7 -11 16 8 8 -5 -2 12 5 0 -14 2 -3 -6 -13 6 -2 -8 29 -17 -3 -4 -3 -3 -7 -16 -13 -13 18 11 -1 0 -8 3 2 -6 -4 -8 13 -3 18 -8 -5 38 21 11 3 -3 0 -33 18 -13 -17 -7 6 -12 3 -10 2 -6 -3 -4 -3 -3 -7 7 4 11 -3 -14 8 -1 2 -16 -6 -8 5 7 -7 -6 8 -1 -3 -26 -7 -6 -15 -6 22 3 -3 20 -14 -3 -11 -4 6 -3 -35 -3 1 7 -14 -3 -38 -7 -6 -19 18 -15 -13 1 -10 0 7 11 1 6 1 2 -18 14 11 -4 -13 -9 -20 -10 14 -14 -20 7 8 3 1 3 14 -17 20 -14 3 15 -16 -11 -3 -13 3 4 -1 -7 -4 -7 -3 7 -5 -3 -11 -20 -13 -16 14 -14 -4 -7 10 -10 3 -14 -6 17 -8 -16 -4 -4 -10 21 8 2 -6 -6 14 4 14 11 -6 8 3 8 -6 3 -21 -13 7 7 3 -10 -2 6 24 -5 12 10 -20 6 -17 3 -19 6 2 -13 2 -14 -3 14 -11 12 -14 3 -8 -3 -24 -3 22 -11 15 -3 -2 1 4 -3 15 4 -32 32 2 -7 7 -18 -10 10 1 -8 10 7 -11 -25 3 -17 18 7 -6 5 -11 -15 -6 13 -18 3 14 19 4 -8 12 7 40 -4 -3 -2 -10 -1 1 -14 -14 12 8 7 -10 -10 -8 -11 -18 -8 5 -3 -3 3 4 10 10 14 3 -6 14 6 28 28 7 10 -10 -3 -7 7 -1 -2 -1 -7 -12 3 -22 -20 -23 8 -14 -7 -12 -5 -2 7 -4 7 -11 3 -3 31 8 3 13 20 4 -2 -1 17 4 -19 1 3 4 3 -12 7 -24 -5 6 -6 -40 2 3 -4 -14 6 -6 -7 12 10 -4 21 -3 -14 3 -6 10 -16 1 6 10 -17 7 2 9 15 21 5 -15 -3 -8 -3 -13 -10 17 -3 -3 3 14 -17 37 -13 7 -24 3 -18 -13 0 3 -22 -6 4 3 7 -10 14 1 3 3 7 18 5 18 -4 -1 20 -1 3 6 9 -6 -4 21 -3 7 6 -4 15 1 21 -2 -9 10 4 7 14 -25 0 8 -3 -3 -20 7 -5 27 -17 -14 14 -7 3 -1 5 6 -3 8 6 -5 3 1 -1 10 4 8 -7 1 -9 10 -3 -7 21 -15 -3 0 17 -6 4 7 -11 12 -2 -4 11 -18 3 11 -10 -14 -19 24 2 -13 -3 3 -3 13 3 6 -31 0 11 -21 -3 10 -8 5 14 6 -3 10 13 -28 5 9 13 10 -12 -19 9 8 3 6 -3 -4 -14 -17 6 -10 3 -21 17 -8 -10 -7 4 -19 2 4 -27 -7 1 1 -12 -5 0 -4 7 3 2 7 -7 4 20 4 -4 19 -25 -10 -3 -7 8 -4 -9 -11 7 20 -7 9 3 15 9 -8 -17 3 -6 28 10 8 -9 6 -3 6 -17 4 3 -24 -3 -9 7 -22 16 2 -6 28 13 -2 -3 -3 -8 14 6 -2 10 24 18 14 7 -6 -9 -26 3 -31 -1 -11 -4 -7 17 5 10 11 10 -15 -3 1 -6 6 -5 -10 -14 7 7 3 -14 -4 17 -5 -10 2 4 3 -10 8 6 6 11 3 3 14 -4 1 12 4 10 6 3 -8 1 1 -3 -11 -10 3 -23 11 5 10 23 -5 -11 -17 -1 -3 6 5 28 3 22 -17 4 0 -3 3 -8 -27 14 3 -7 -10 27 -6 13 -3 -3 17 -21 6 -9 8 14 -6 -7 2 14 -10 -3 -20 16 5 18 14 -11 1 -9 -7 11 2 -14 18 4 -21 22 13 -3 2 15 -24 -28 3 9 22 -3 -13 -6 -10 10 -15 -10 23 -4 26 -13 1 17 -4 -17 21 7 -8 13 -8 -25 0 -18 7 13 17 -6 -4 -1 2 -25 7 14 26 -6 -26 -7 -3 3 10 -10 7 14 4 -4 6 3 3 10 -10 3 -15 -1 6 -3 -11 7 3 -6 6 -3 22 10 7 -22 -19 3 -6 -7 -17 -1 -6 10 2 -11 -9 2 -8 10 -4 -3 21 3 -31 3 7 3 -6 -21 -3 -3 6 7 18 -11 -3 -5 33 -14 4 -13 -6 7 -15 6 -3 16 1 20 -7 -22 14 17 3 3 -7 -6 -10 12 7 15 6 3 -1 8 6 -4 4 -3 2 -16 3 -17 -8 11 -11 4 -15 -8 32 -7 -15 15 0 -6 -10 8 -3 -3 7 3 -5 3 -3 -3 -21 -13 5 3 -11 3 10 10 3 -14 3 24 -15 13 14 1 -18 -34 10 -24 7 20 -13 -7 7 -3 17 3 -5 7 24 -1 21 4 4 6 -28 -8 -4 6 13 14 -3 0 17 -10 4 -14 14 6 -5 4 -21 6 6 -15 10 -24 -11 -3 4 -5 -17 6 18 -3 29 -7 6 3 -9 14 3 3 7 -5 10 -3 -7 5 -7 -11 24 -1 5 19 -5 3 6 -3 -28 -2 -3 -3 7 4 11 7 -23 5 -9 25 -32 -18 -4 -14 -1 19 11 18 10 8 -18 7 7 -2 -5 -4 1 3 2 11 -6 -19 -22 -9 5 -5 12 -17 -7 3 17 -2 11 14 -4 3 -44 -3 -14 7 -5 -9 -7 -3 -3 -18 5 1 28 -7 -1 19 -19 -6 -17 -1 -14 7 -11 -8 3 -25 6 10 -3 30 3 3 27 52 14 -2 -9 -7 -6 19 -1 17 6 -1 10 4 -3 3 5 3 -3 8 28 -4 -6 -3 -11 25 22 7 -11 -3 -10 6 -7 27 -1 19 -11 28 13 14 1 -1 18 -7 -12 5 -27 -4 -11 4 6 18 14 -5 -6 3 14 3 12 -14 -4 -39 6 -16 9 -14 -31 1 -20 12 5 3 -14 -13 10 15 6 -17 6 -2 -10 -3 3 9 5 -1 -1 -24 -14 -14 8 -1 3 -24 -14 -3 34 -13 -1 -3 8 3 -3 -11 6 -3 -18 -7 -4 -1 -14 0 -4 -9 13 0 -25 15 -3 3 21 -6 -8 -3 6 -3 -7 -6 -5 19 7 -16 22 -18 -17 2 12 14 5 -3 -3 -9 -21 -3 -6 1 4 14 19 16 3 -14 -1 3 -8 2 -2 -13 18 -9 -10 -2 1 10 10 6 18 -15 25 -10 -3 -4 -14 -12 -17 7 5 -8 1 12 3 24 -3 -3 1 -28 3 13 -1 3 -9 14 4 19 15 7 -11 -3 -18 3 -5 -18 -9 -17 -6 9 14 10 -5 27 -3 8 -12 -9 -14 -3 2 -14 21 14 19 -4 3 21 -11 -7 19 4 9 14 5 -7 7 -31 -3 4 2 -12 -4 -14 8 4 -19 -3 -3 -3 7 -6 2 4 -11 -24 -12 5 19 7 9 -8 12 -14 -11 -28 5 8 14 -22 4 -13 6 -6 10 11 -8 -18 -6 6 7 2 28 -22 0 3 -1 -7 -4 -11 30 11 11 -5 4 -15 -19 42 -4 -36 4 6 10 25 -18 -4 7 4 3 6 -23 -3 -38 -21 -6 -24 -5 8 9 -4 1 -7 -3 -11 10 -21 5 -18 18 -1 3 -18 -3 -6 18 9 -3 -21 -3 9 -10 -7 -15 1 14 7 -10 7 6 3 -13 -8 7 -15 14 -12 -14 -2 -19 -6 -11 12 4 7 -14 5 3 -12 -2 -4 8 -11 -28 -10 -8 -6 -7 5 -6 7 10 -7 3 3 7 -12 3 -10 -13 2 0 -16 -9 4 14 7 3 -12 -9 6 3 -7 -7 6 7 -26 -6 -3 15 10 -27 -17 28 -3 12 -7 4 -21 -6 -1 -1 6 3 -6 3 -36 8 2 12 -6 17 -8 15 -20 1 -9 2 -7 -11 -6 -4 -3 -6 -31 23 7 -10 -5 0 -12 9 2 -18 -5 -11 3 -3 -8 17 5 -4 3 -28 -14 18 3 -14 3 13 6 -2 9 8 -6 7 -7 -7 -6 -6 0 22 16 3 13 -3 -9 -4 -17 11 -27 -6 7 -2 16 -17 23 -3 -6 -2 -19 20 14 -7 6 -27 17 7 5 4 8 -11 -24 16 28 1 10 -2 -24 2 -4 3 -21 3 -4 -13 3 -14 21 12 -6 -5 -1 2 -2 -24 -17 -10 -4 -6 -11 1 -9 -7 35 10 -15 -20 -8 3 31 -20 13 -6 -1 6 -17 -5 4 5 -9 -6 6 -8 -6 -4 11 -17 -5 14 -3 -24 7 -13 -7 21 -14 -1 3 -7 7 -3 6 13 -6 -7 -19 -10 17 -8 -13 18 -4 -3 5 -9 3 13 -7 4 27 33 -11 10 5 -6 -14 18 -14 -4 -7 7 -17 11 -6 -3 8 -19 -3 7 -6 16 5 -8 14 -3 -8 3 10 3 -12 -11 -8 1 25 3 -6 -10 27 5 18 21 3 -14 -5 7 23 -9 7 -3 3 -19 -24 -18 4 -1 -3 21 -7 13 28 6 8 4 1 -14 -14 10 -6 12 -4 -7 15 11 21 3 13 -6 13 17 -7 6 1 6 -7 2 -11 14 5 -24 -3 -4 -14 -14 4 16 3 -7 -3 -1 -4 -17 -13 -21 3 7 -7 10 -5 21 -4 -3 -4 3 0 -1 7 -17 -3 3 1 17 -4 -12 -21 -4 12 -4 -2 -11 6 -3 3 7 -6 -17 3 7 5 15 13 -6 3 19 -8 -3 -3 6 -4 -6 -2 5 17 3 1 4 26 -8 -21 -10 -3 -15 0 -3 -12 -4 -3 -3 -2 -5 6 -10 -10 -3 -4 4 -10 -2 -33 7 -21 -8 4 10 4 3 -3 -15 -27 -3 -1 6 -7 -4 -4 14 -14 13 -2 14 13 3 -11 18 15 -5 16 -29 29 8 -22 -16 32 -14 3 -3 -3 -3 -3 16 -1 11 -11 -17 -3 -20 17 -6 11 -15 -3 10 5 -4 -6 -10 -7 -8 3 -17 11 -6 10 12 4 13 -25 -8 -7 7 -2 -21 12 3 -17 3 12 -1 10 -25 -17 19 -1 -21 -21 -3 17 -14 6 12 21 -10 -2 -2 11 -11 9 -6 -2 -15 3 7 -6 -33 3 18 -2 -2 -3 -22 3 28 2 -2 -7 3 -4 -22 -7 -27 -1 -3 18 21 -8 12 7 25 7 -8 6 -1 -17 -15 -10 4 1 -6 -10 -6 -4 9 2 14 6 -20 1 -8 -7 -2 7 3 4 -1 -5 -18 17 19 -5 -3 -10 6 -8 7 5 -5 20 -6 -3 10 -10 25 17 4 -8 -18 3 -6 -3 -25 -3 -2 -3 20 3 -7 13 -3 4 -4 2 17 -6 -6 -4 10 21 -5 -3 14 8 -9 -16 -24 6 -7 23 3 -7 -1 -15 -7 17 -3 4 7 -5 3 10 -6 -24 14 3 14 -7 -3 4 -11 3 -14 17 -5 -7 -3 -3 -15 1 5 3 -3 -11 -10 -18 -23 -6 2 -4 -10 -3 10 -15 -34 6 12 -7 -11 11 -1 -3 -24 -3 -3 -3 7 -14 -3 -14 8 -18 14 -7 4 -10 21 -5 4 -3 13 -4 -22 8 -3 -7 14 -10 -13 11 13 23 17 -16 -4 13 11 -19 15 5 11 -5 -1 -14 -14 6 15 -15 -29 -7 -2 6 -13 16 7 6 3 -6 6 -3 -10 -17 -7 10 1 -9 -5 -7 10 -1 11 -3 -8 3 20 4 -8 2 -9 6 -6 -3 3 5 -7 -28 -24 -4 -13 3 19 7 -18 4 -10 -3 -26 -19 4 2 7 -4 -10 3 -3 -15 -7 -9 3 -12 6 -14 -4 -6 11 4 -19 10 -11 17 -11 -7 -17 -14 -17 19 10 16 -6 17 -17 -3 7 -3 14 6 15 -3 3 7 6 3 -19 6 -7 25 6 8 3 25 22 -3 4 -7 -20 7 6 -3 -3 6 15 -3 21 -7 3 16 -4 7 3 -27 -5 0 -29 3 21 -11 -5 -14 3 -6 -10 -4 -15 13 5 -5 3 -3 -4 2 -1 -11 7 -8 -32 -7 -4 5 9 -10 19 7 14 -8 -2 2 14 15 8 -22 -3 11 -11 -4 7 4 4 9 -3 -4 -12 11 3 5 -24 -1 -4 18 6 7 -3 0 -11 14 5 6 2 -15 11 18 18 7 6 11 -6 3 -3 -7 -21 10 -13 -4 -4 -4 8 -35 -28 -18 17 1 -2 4 -2 -6 6 3 -13 -7 4 21 -3 15 18 10 -13 -5 -4 -13 -3 -17 6 -3 23 -4 3 6 14 -14 27 3 -12 4 6 -5 1 16 -8 3 -5 -6 -21 -24 6 -9 7 3 -3 28 -11 -6 5 7 -4 -9 -6 9 3 17 3 16 -7 -10 -2 -6 -4 -3 8 -5 -3 -3 -9 20 -7 3 -9 7 -10 -15 7 3 7 -20 -13 -4 12 -4 3 17 -3 -11 -6 3 -2 18 -10 14 3 3 -13 4 19 -6 14 -10 -23 10 2 25 3 -19 -14 11 7 -8 14 -6 8 -9 3 13 -3 -9 3 -4 10 -3 10 -31 -11 8 3 -26 -1 8 7 10 -2 5 -9 -3 -15 7 3 -5 -25 -11 4 -6 20 3 -7 7 -3 22 -5 3 -4 4 5 4 -19 -13 -2 -5 4 -4 1 -3 3 17 -14 -7 6 3 9 6 -3 15 -18 10 3 10 16 22 34 -18 -5 17 -3 -24 -17 -4 3 9 -15 2 4 18 -5 23 -10 -2 10 14 -3 7 14 -3 -20 3 14 -18 16 -6 -5 3 7 8 14 4 11 3 -1 -18 2 -4 17 -5 -9 5 -19 -12 3 2 -2 5 7 -12 -3 9 17 4 3 2 -1 17 -9 -7 15 -23 -11 5 -21 -9 -4 6 9 -14 -4 -13 24 27 3 -4 -1 7 18 -26 2 -17 -10 -7 -31 -10 -10 -1 2 -16 3 7 7 6 -11 -7 2 -9 6 -5 -4 6 -10 5 -4 3 4 5 -14 6 3 -7 -23 -7 17 11 -3 -16 -15 -14 -7 3 -3 -3 14 14 -8 -11 -6 -2 -21 -3 5 18 14 -12 7 3 -4 -20 9 -20 3 -22 4 -3 9 8 -7 -3 6 6 6 6 3 12 6 3 4 3 -6 4 -15 -6 5 -7 -19 4 -6 -12 15 -32 3 -17 -25 6 -3 34 -7 -14 31 -3 11 -28 -2 7 -3 -4 3 0 6 31 -5 13 4 -17 -30 12 3 -7 -3 37 -11 -10 18 -8 21 4 -13 11 -21 -13 -24 17 11 3 -7 10 -6 14 7 3 -3 -10 -2 15 10 -8 7 -4 -11 1 15 -15 15 -10 -2 12 6 17 11 6 -6 -7 -4 -6 3 2 -3 6 6 12 -14 -3 20 4 9 -16 -3 -2 -6 -8 6 -3 13 3 3 7 8 3 -1 -13 -17 6 -3 -3 -15 -9 7 -8 14 3 21 4 3 2 1 3 14 1 7 -7 -3 10 -11 -20 -7 -5 1 17 3 6 7 -3 6 -4 -7 -2 -14 4 0 24 13 15 -5 14 -3 4 6 -11 3 -6 -3 -5 -7 6 8 15 7 3 1 5 3 2 -10 -26 -2 -6 4 -4 7 -7 -4 -20 -14 14 -12 -14 -3 4 3 -11 -4 -4 2 -3 5 12 -8 7 -5 -14 -1 11 -10 -10 -7 -9 11 3 -10 13 24 -3 -24 -25 14 21 -15 -17 7 14 6 -6 -14 17 -14 7 13 11 -1 24 14 -10 3 -26 -26 10 8 -28 -7 20 -16 16 4 15 1 -13 -8 -7 7 15 17 -17 -4 -22 -6 4 -4 -1 -5 -4 -11 18 -9 -6 -1 38 -5 7 6 -3 -18 -8 6 -12 -5 9 -25 -3 3 -4 1 17 23 34 34 -8 28 2 -13 -15 -3 22 -13 -7 6 3 -7 -2 17 7 4 -3 -7 -19 6 0 11 -7 7 3 -3 10 14 11 -7 -20 6 4 19 -17 18 -5 6 10 7 -17 5 14 3 -3 6 -20 -7 5 1 14 -4 -5 3 27 8 6 9 -15 13 -15 -3 -15 18 -31 8 -6 -17 7 4 29 -17 -10 -7 14 -14 18 10 -6 -15 -5 6 -9 -3 10 6 -3 14 -2 -11 17 3 -3 -6 -5 -16 -7 -31 -3 -8 -6 -4 -7 -3 10 -13 1 -7 -11 -16 1 6 4 -3 1 -3 -16 -26 10 -6 -3 3 -9 -3 -7 -7 -3 -17 8 8 -4 -3 14 -14 -4 21 -28 12 -6 -6 -7 -7 8 -40 27 24 2 8 3 2 6 3 15 8 18 2 -13 6 8 -18 14 -7 4 7 -14 -21 7 -3 17 4 7 -3 -1 -11 -7 -6 -4 15 -34 -13 -3 4 3 5 5 -21 -16 -9 -7 22 -7 14 -4 -18 8 -27 24 3 3 31 2 -3 14 2 11 -5 -8 10 -6 4 -11 8 6 -3 7 -21 -5 3 -13 -6 -25 -3 12 4 -11 -7 4 -21 1 21 -7 -1 -15 3 22 5 14 13 -7 -7 3 -6 -8 4 -6 -4 -1 12 -2 3 -3 8 -12 14 -6 1 -3 7 11 -12 7 3 1 -3 1 -13 -18 -3 -9 -5 -30 -9 5 9 7 -19 -11 -8 -11 4 -8 -4 -13 13 -6 11 -7 -4 -2 0 7 -6 -2 -8 -3 6 6 -2 4 -7 -23 10 2 4 16 10 -3 3 14 14 -3 8 -14 10 3 -3 13 -4 20 5 -4 1 8 21 8 15 4 -4 -11 -9 5 -11 -5 16 4 9 -3 -4 -10 -20 -7 3 11 -24 6 7 14 -2 -7 13 3 -22 3 4 -15 -8 -13 -3 -3 19 4 19 -6 -8 4 3 12 2 10 19 -1 -12 7 -21 3 7 14 -8 -7 20 -8 4 8 -22 16 -3 -18 -5 -3 0 -25 -8 -3 13 10 5 -6 4 -10 -1 17 6 3 23 9 -3 -11 -20 6 7 -9 -3 -14 -10 6 17 -6 3 3 5 -4 -20 -12 -12 22 1 -11 -3 -9 26 -3 3 12 13 20 -31 -24 -16 14 6 1 3 -20 0 10 -6 -3 11 -9 8 -10 -7 7 3 -3 -10 7 -5 15 8 -8 -5 -14 3 6 8 -3 -1 12 -3 3 6 -10 20 -3 6 8 -3 -38 12 3 -14 -22 -7 10 4 5 -3 11 14 -8 13 -6 -38 -1 -6 2 -3 26 3 11 -21 7 -13 13 6 3 -4 3 7 13 -1 -24 -7 -3 6 -10 -3 13 -6 8 -21 6 -11 6 -3 -4 -6 8 6 17 -6 -1 3 -6 -8 2 -28 -9 -1 -19 7 -3 12 -3 -10 33 3 4 -4 -8 -11 7 5 -10 34 3 -12 -4 2 1 -21 -3 -5 3 -7 -7 14 15 -22 6 5 7 11 -3 -13 -3 -6 6 13 4 -15 34 2 3 6 17 11 -5 13 -2 7 2 0 -3 -1 10 4 -24 12 -10 -10 -10 -7 4 19 -6 14 20 -5 -3 17 -3 8 -17 3 -6 41 2 1 13 -15 -5 -3 -7 -17 7 15 -3 -12 -3 -11 6 3 3 3 6 3 -32 -3 -11 3 3 -14 22 -15 17 -3 -18 -3 -24 17 -18 -14 -31 6 -3 6 -24 -7 -21 -14 10 14 21 -22 -16 -6 4 -4 3 -22 14 -1 9 4 2 -3 -7 -1 -4 -3 5 -11 17 27 -9 7 24 17 -3 -3 -6 -4 -4 -21 -4 -21 10 -6 9 4 7 -10 -14 -12 7 -20 -5 -12 -20 19 -1 10 3 7 -21 -9 -11 28 26 -12 13 -10 -4 6 3 -13 -2 7 3 -24 -2 -3 14 3 -19 -3 -14 -10 17 -7 14 3 -1 1 2 10 3 -4 -9 -7 3 -3 3 -13 3 -9 -11 8 12 4 4 -6 -51 24 10 12 1 4 -3 -12 -7 -19 27 7 -1 21 4 -14 -16 -1 7 -15 -23 21 20 -3 0 10 -8 -14 17 -15 10 10 3 6 -9 -11 3 -3 -3 -9 -2 -5 -21 15 -14 -11 -11 21 15 4 6 3 -1 -20 15 5 -11 6 8 -13 -5 -7 10 20 -7 -31 8 1 13 -15 -10 -6 22 -1 10 25 7 -19 -3 -25 -3 -12 -3 -5 11 2 -3 -16 5 -1 15 2 0 3 -10 -5 -11 -7 3 -8 12 -10 -7 -23 6 10 16 2 -3 14 -6 -11 -7 -3 -7 -3 -11 1 8 -17 -6 28 -6 -6 6 1 21 3 3 -2 3 -4 14 6 0 -8 -19 10 -9 11 4 -1 25 -3 -10 3 7 6 -3 8 -4 11 2 -7 6 -6 -8 3 4 -10 -20 -29 5 -6 6 1 -8 -8 4 7 -2 3 17 -3 21 -3 11 23 17 -18 8 0 -3 12 -15 -2 14 -3 -13 7 -3 -7 24 6 3 3 -1 6 12 1 0 -2 6 -4 34 17 -17 -4 -15 -7 22 6 -2 -14 -4 -6 -7 -5 -23 6 9 6 -7 -14 -3 -14 -16 2 0 -7 -12 -6 3 8 -5 -21 8 -16 14 6 -2 -3 7 -3 25 18 -4 -8 -12 3 -13 9 22 -4 -32 20 16 1 2 3 -3 -14 -1 -6 14 -3 -13 3 14 -24 -4 3 11 3 -15 0 -12 -3 10 3 6 -8 -3 -13 7 -3 23 -10 -4 5 7 2 -15 -7 -14 -11 -5 -13 -15 15 -3 -3 -3 -8 -10 -5 -3 -3 -14 -6 13 -9 18 -13 28 -11 11 -7 10 -6 0 -4 -3 -28 9 -9 -6 -24 -7 4 6 7 11 7 -7 8 -10 -34 -2 2 1 13 -7 -11 -6 24 12 20 -3 12 -1 10 17 -3 -11 -6 1 -21 6 -6 -2 -4 6 -3 6 12 3 -14 6 -17 -11 0 4 -3 -21 -14 -7 14 4 -3 0 -12 -13 -2 8 25 -14 -12 7 14 -6 -3 -5 -9 7 -7 1 6 -5 -14 -11 -4 -7 -8 28 -27 2 -10 -24 12 17 3 -9 2 -17 10 -6 7 -20 7 8 4 -4 6 -6 17 -16 -19 15 -15 7 -3 9 -23 -13 5 -10 14 -15 11 7 6 -4 11 10 -21 12 7 3 10 -4 5 9 -23 -3 -22 11 -7 -6 -14 -5 1 9 -2 18 -4 12 17 5 16 -14 3 -27 14 -9 -3 -7 6 -6 2 6 -21 -5 -10 13 -7 -14 -5 -14 3 -13 -15 -3 -1 -3 12 3 -6 3 -11 9 2 -7 -8 14 1 7 -3 -3 -19 -3 -6 -22 10 9 -10 3 14 6 -7 -11 -19 -3 -10 6 -10 -8 24 3 9 -5 -19 -7 5 -4 -3 -18 15 -4 3 7 6 -3 -15 -4 18 -16 7 -11 -3 -15 -3 5 10 1 -14 -2 7 -11 16 3 10 24 -7 10 -10 -13 6 -11 2 -13 14 13 -8 -38 8 -9 -3 3 8 5 -24 8 1 -4 -16 -11 14 18 -3 9 -23 -5 5 6 4 7 -3 5 -10 -2 3 13 -2 -19 5 -25 16 -5 6 -17 -8 -10 12 14 6 6 -14 -10 -3 -7 -6 -18 11 -10 3 -3 -1 3 -7 -10 21 -3 17 8 5 -12 -4 14 -8 18 25 -10 8 19 -21 -8 -25 5 12 -3 -3 11 4 17 -15 -13 -19 -6 18 -6 3 8 -27 8 -10 17 -8 18 -3 10 -3 -8 -7 -17 -8 7 -18 13 -17 -12 -4 3 -2 -6 5 4 -5 -7 3 -29 -3 -7 -4 12 -1 14 -12 -2 -4 -7 -1 35 13 8 -14 3 -1 -4 5 -17 6 -8 -5 -18 9 12 -7 -16 -4 -3 10 3 -18 -9 -2 -3 -8 -9 -8 -8 -9 -4 -3 24 9 6 5 3 -3 -18 7 -22 -3 12 -8 -11 -2 1 -7 -12 14 -3 2 -9 5 -24 -3 21 -3 -27 -5 3 -11 -6 -3 -3 -7 8 -12 8 -3 17 14 21 10 2 -3 17 -6 -1 -6 -25 5 -6 7 3 -3 -5 -9 6 -4 -18 3 16 -10 -24 -11 -10 -4 11 7 0 4 4 13 -11 31 -7 -6 -11 0 2 -8 3 -1 -7 -7 -5 -15 20 34 -18 14 34 3 1 -3 6 3 -12 -6 -26 15 3 -14 3 -3 -8 26 -10 -7 -3 -6 -10 -17 6 -3 -2 14 -4 -3 -3 -14 7 -11 -17 -2 5 2 -3 -3 -25 -15 -3 -3 7 -7 11 -7 3 -14 2 7 -16 3 42 5 -9 3 -3 5 9 -3 -20 2 -11 24 3 2 7 14 7 3 7 -26 -1 10 -17 -3 -17 15 -3 -6 -10 -2 31 5 6 11 0 -5 4 -6 -3 -9 -4 3 16 -14 17 -3 3 11 -4 3 6 6 1 -3 -12 1 11 2 -1 10 2 -7 -5 -6 13 -18 4 2 3 -4 -3 3 3 -10 -13 11 9 13 -8 4 11 4 3 -22 -24 -3 -5 -7 3 -10 3 6 6 -3 4 -6 -4 -14 -6 -3 -11 1 -4 -11 -12 -21 -14 -6 3 7 -13 -18 -10 3 -15 -10 7 -30 10 -1 -21 -3 14 1 6 -4 -15 44 -3 1 -14 3 -2 7 6 12 17 -11 3 -8 6 -18 10 -3 8 -23 21 4 -7 7 -3 3 -6 3 8 -4 2 6 -3 18 -1 3 3 -10 1 -18 8 -5 3 -11 -15 -11 -21 -15 -5 -7 16 -7 20 -3 -4 11 -11 3 2 5 7 8 3 -9 3 -3 27 10 12 -11 6 3 -14 3 19 10 17 -6 7 3 9 -6 -3 5 -3 -3 -5 -6 -31 -13 0 13 -7 21 -4 7 21 2 -6 -24 -19 7 -14 6 -10 -11 -10 17 17 -11 10 8 3 11 -3 9 11 29 20 21 15 -16 -19 3 -2 3 7 -4 -2 -4 3 7 3 -3 14 -5 -11 6 -6 -13 -13 -14 -10 -13 -8 7 4 -7 16 -24 -19 -6 -2 -6 11 -22 3 -12 21 -16 15 -21 -4 -3 13 -6 -7 5 6 -2 -12 11 -14 -23 -6 -28 13 -4 -2 3 11 -1 -1 -3 -6 -26 -14 -16 -6 -3 -3 -7 -14 11 8 -20 3 17 -14 3 -12 9 -6 -13 -7 7 -7 4 16 -7 8 7 -35 3 14 -9 -10 10 -10 -4 -20 3 -2 -18 3 4 2 3 7 9 7 30 -4 6 -13 -17 -7 10 -10 -7 3 5 -10 1 6 -18 3 -21 -20 16 -9 -24 3 19 3 4 -5 9 14 -6 -8 3 -3 9 -3 -3 -3 -9 11 -8 -7 -3 -14 -15 -15 8 14 -28 6 -2 -3 -7 24 13 -31 3 -17 24 14 -13 -5 22 -11 5 0 -4 -7 11 13 -24 -5 3 6 -3 -7 4 11 35 0 -7 -3 3 -9 8 -14 -3 1 -3 8 -3 -10 17 -7 -25 7 -24 -11 -17 4 -3 -7 -3 7 -7 -11 -19 16 13 10 4 3 7 19 -7 7 21 -14 0 4 -15 -6 10 -6 17 20 -1 -21 25 8 -7 7 5 6 10 27 -7 20 -2 12 -4 4 3 -31 -7 0 12 5 2 -3 -5 -4 -3 -7 15 1 14 -4 -3 -3 3 11 -14 3 -2 -6 3 11 5 14 3 -21 6 2 -14 -10 6 -5 11 4 7 1 -5 0 -24 -4 3 7 -18 -17 -4 14 -16 -18 -6 3 -12 -17 -9 5 7 9 13 14 -6 20 13 -11 -17 -13 11 2 -13 3 20 19 3 7 -11 0 4 2 -7 -7 -10 2 6 6 3 7 5 23 -4 1 3 10 -31 7 3 -13 9 3 13 -21 1 -3 11 -3 -6 -3 11 -13 3 -6 6 -13 -6 -19 17 3 -20 -11 3 -5 3 5 4 19 6 13 7 -5 -3 -27 11 3 -2 7 -10 -10 13 5 8 15 -3 -2 -6 5 11 10 -3 -20 -6 7 11 6 -3 4 9 -15 19 -20 -14 15 -6 4 7 -17 17 13 -3 -11 7 7 -5 13 -5 -7 3 -1 9 2 3 -7 2 -8 -2 -7 -3 6 -7 6 -11 19 14 -24 5 -18 -31 -5 -3 8 -3 14 5 -15 -18 7 13 7 -2 -6 24 -6 -5 -17 -6 3 3 -4 9 -4 6 -10 -5 20 -12 -14 -21 2 4 4 -2 6 -2 -17 -10 -4 4 -24 -48 26 8 1 13 -6 -2 -2 -14 4 6 -3 -14 29 -6 -3 -7 -18 -9 -12 3 -3 3 3 -18 5 2 3 3 3 -4 -4 -8 26 27 3 1 -1 5 17 16 -9 -28 -4 6 -7 -3 -3 -5 14 -3 -7 0 -7 -7 12 -10 6 5 2 -4 13 -1 6 -6 -3 13 -4 -2 1 6 -3 2 -3 -8 12 7 -10 3 -18 -10 -7 -11 -5 -7 24 -21 7 1 11 -10 8 4 2 20 -21 -6 9 14 1 -6 6 17 -8 -7 -3 16 2 -24 -8 -4 6 -14 10 17 -17 -14 -14 12 -3 -3 4 10 14 -1 4 5 -8 -11 6 -3 -7 -7 17 1 1 3 6 -18 6 4 2 4 -6 -20 3 -7 5 10 -3 2 -13 3 -2 1 -20 -3 29 -8 -3 28 6 -5 14 10 -6 -31 -7 4 -16 -21 -14 -2 7 -17 -3 -11 13 9 -13 -40 -8 1 32 0 -1 -5 -6 -11 15 -4 6 -7 -9 -14 17 -38 -7 9 1 7 -7 14 -3 6 6 3 -21 -15 -3 -9 7 13 4 7 -9 3 -2 9 10 -4 -16 0 3 3 4 -11 7 24 15 27 11 10 -5 -11 18 -5 4 -15 0 3 4 14 -5 -9 13 -11 -11 3 -16 -26 9 -1 3 -18 -7 -22 -4 -1 -3 5 19 1 -18 -3 -13 2 3 -3 -12 -3 2 11 -21 -31 6 -10 -14 -3 -21 6 -11 3 3 -5 -13 -9 23 -5 11 -3 -8 -3 -11 13 -3 8 14 -7 7 3 14 -1 3 -4 -6 3 -16 7 18 14 7 17 21 -22 3 -15 -14 14 1 -6 16 3 -20 9 5 -1 -17 7 3 6 -16 4 0 6 -6 -3 5 15 -4 16 18 -1 -17 17 3 11 -4 13 10 -5 -3 15 -3 17 10 -5 -13 -6 6 20 -11 -20 -6 -3 -6 -3 8 11 -4 -16 -5 25 -7 -18 7 22 -13 -3 14 -4 14 -1 -19 -3 -2 -1 2 -3 13 6 -3 4 8 -33 -26 2 3 -7 6 -3 10 9 3 -1 3 -31 -17 3 3 31 5 3 -7 -17 -37 11 3 7 6 3 7 3 2 -4 -6 -7 6 -5 6 -8 3 3 3 3 10 -7 -3 -6 10 3 3 -6 3 14 17 4 -3 -3 14 16 4 10 -13 -12 -4 -15 6 -3 -7 -4 -1 -8 1 8 9 -14 8 -19 -13 -10 14 -3 3 -4 3 4 -5 -4 1 -8 19 14 17 -1 3 9 -19 11 -21 -16 -3 -11 -4 -9 13 -1 27 -14 7 -3 2 3 3 -2 -8 13 -21 2 -5 16 -7 -2 17 20 -3 -10 15 -5 2 18 14 -1 10 -17 -7 -15 -14 13 23 -15 -4 -3 -12 10 -6 14 -2 21 -8 3 -6 -14 6 -5 3 -4 -4 13 1 -3 -17 -3 2 8 34 -3 27 5 -8 5 10 -6 -3 -7 5 -7 -21 -6 6 8 3 -3 13 -5 6 -3 -11 11 -5 25 -12 3 -6 -2 -18 8 -11 -8 -2 3 1 10 -11 3 -3 -24 -15 14 3 -18 -5 4 -4 -17 31 10 -13 3 -6 18 3 6 5 -5 -8 -7 -3 -4 -3 -18 18 -11 3 -14 14 0 3 7 2 -6 6 -15 -7 -6 10 16 9 -6 6 3 -7 4 3 -6 15 17 11 24 28 -17 9 -19 -2 -3 4 -10 3 6 -9 2 -3 -1 -20 6 -3 21 5 -11 11 -8 -18 14 6 -5 10 2 -3 -3 10 -8 -7 -25 14 13 -21 9 3 3 11 6 -3 2 15 -15 6 9 -7 10 28 -4 -5 -6 6 -1 6 -7 9 7 13 3 3 18 -3 -14 -3 14 -21 -4 -13 14 13 20 -3 8 -14 7 2 -4 -3 3 -4 3 -18 -5 10 13 3 -7 5 14 15 12 7 3 -3 2 -17 13 -19 -14 -20 -3 -28 8 3 -7 17 -8 -3 -3 -12 14 -5 -8 -8 -6 -4 -4 27 2 -21 3 8 19 1 -8 -15 7 -6 -22 3 -3 -8 1 13 7 -12 -23 8 7 7 -9 -3 14 -10 -11 -11 -3 -3 -7 4 -23 -7 3 6 10 -7 3 0 1 -14 -3 -3 6 -3 7 -10 3 -2 20 -7 -10 -7 -7 -2 3 12 12 -5 -21 -7 21 -7 18 14 -11 -7 1 -6 -3 -6 -24 10 -39 9 -5 -3 3 -17 -20 -3 -13 12 2 -12 -41 2 -14 -5 -5 -6 6 17 4 7 7 14 2 7 -14 3 4 -8 -5 -3 17 14 -3 -9 3 -8 -11 7 17 -2 3 -24 -28 -8 13 10 -8 16 -20 -2 -5 -10 -1 -7 7 13 -14 -49 24 -11 -11 9 6 4 -3 -3 12 -18 -3 -2 13 -2 3 1 20 6 -13 -5 11 17 17 -15 -21 -6 13 6 -4 -3 3 -5 3 -2 -29 0 4 3 -26 -18 -17 -31 32 7 -3 3 6 6 -20 -9 -5 -19 6 -16 -4 -14 -9 17 -14 3 -14 14 -4 5 -7 -3 22 22 -11 -3 8 13 -4 -2 1 9 -14 14 -5 -3 -13 -25 -6 -3 10 -14 19 10 -3 -1 7 7 11 11 11 25 -1 -7 -1 17 -7 -8 -23 -14 7 -13 10 -15 -7 -12 10 -30 6 -5 18 5 -4 -5 1 0 -10 -6 29 11 -3 7 -24 7 -12 10 6 13 -15 4 -6 0 21 -21 4 -7 -3 -11 -14 -11 -14 7 14 -15 -3 -4 -5 -10 12 -11 -13 3 -3 -14 -1 20 5 21 -1 -7 8 -3 3 6 -4 -16 3 3 -28 7 -3 23 -21 -2 2 32 -27 11 13 11 -17 -3 8 6 3 -2 7 11 -9 21 -5 -22 29 -4 14 -8 -5 17 -8 6 -13 12 3 -4 -3 7 9 -6 17 -3 -1 -4 -1 3 10 -25 7 -7 -2 14 -7 -6 -19 -5 16 -16 -7 15 -35 5 1 -3 -18 -22 9 -10 -8 -11 3 9 4 -4 16 -3 -8 -10 6 -7 6 16 -2 1 -10 -10 26 3 -5 12 -12 -3 -3 6 7 -6 10 3 2 3 3 -3 -16 -6 -3 25 3 -9 -10 -9 -14 10 -1 -6 4 -7 -4 -2 -13 3 12 6 -7 22 -3 13 7 -2 -18 7 -3 11 -3 12 14 -29 -8 7 3 -3 19 21 19 10 20 8 14 -20 -2 2 20 11 -3 8 -3 3 3 -6 -28 28 -2 24 11 -7 -25 2 3 -7 3 20 15 18 -3 -5 -24 -11 41 7 1 -6 -7 6 -10 8 -10 -34 7 2 -3 -4 -11 17 25 4 -8 3 5 -8 -20 -10 2 -7 1 1 -1 17 30 -8 -3 -3 -7 -7 -9 7 8 -6 -1 -12 -3 3 -3 -10 -11 2 14 -3 4 -1 14 12 -14 -17 29 -11 3 16 -16 3 -14 10 38 21 -10 7 0 3 8 -3 -21 -13 18 18 6 3 7 -5 4 10 -3 -8 10 3 15 8 25 3 -10 10 17 -11 10 6 -1 5 9 6 7 -3 2 7 -6 0 6 -2 -18 7 -8 -17 0 -10 13 20 -3 -21 15 25 9 -10 -20 9 -8 -10 16 -6 3 -2 -23 -3 -9 0 12 13 -23 30 12 4 -12 3 13 6 3 -8 -13 -6 7 -17 16 -25 3 13 3 5 -9 -1 6 -3 -4 -8 10 -8 -7 7 -5 11 10 -23 13 10 -1 5 -18 1 7 -11 4 -17 -18 -6 0 -6 -7 24 -9 -7 -13 -1 14 15 -7 -14 -3 -1 7 14 -17 22 -6 -28 -11 -14 3 14 -20 -5 6 16 -5 3 4 -13 16 -5 15 -3 6 -7 7 -4 12 23 7 -22 0 7 -17 0 -3 8 6 0 -20 -14 17 -28 7 -7 -7 -9 3 13 4 -20 -21 4 8 3 12 25 -3 9 -31 -10 1 -12 6 16 3 -10 1 -8 -18 0 -6 -13 -11 0 7 -1 21 11 4 -6 -14 3 -6 -5 5 18 7 14 10 -7 6 3 5 15 10 -2 3 18 19 13 1 15 -5 9 -7 7 10 -10 -3 -6 -2 -14 -10 13 -1 -18 -3 7 28 3 2 -14 3 -5 -3 -4 -3 -6 6 6 -7 -4 -11 4 3 3 -13 -7 34 10 1 -4 -5 -12 -29 1 -6 4 -3 -6 10 -10 19 -5 -29 4 -3 -5 -6 5 4 -7 11 17 -14 12 -20 -8 14 -10 -4 -18 -8 6 -25 -14 -5 -7 1 1 -18 9 4 21 -17 3 24 -7 7 6 -7 -13 14 6 11 -15 34 8 3 17 -10 3 -7 -7 4 2 19 -3 9 3 1 3 -24 16 -7 7 -13 -10 -3 -2 -4 -11 25 -6 -4 6 -11 3 -12 7 -2 -17 -11 3 -7 20 -14 6 -5 -10 9 -3 -10 -4 39 8 -3 19 -12 5 -12 4 -10 16 -5 28 4 -14 1 -6 15 -3 -30 -14 -20 -8 0 18 6 -2 -8 -24 -1 -4 6 -14 -16 7 -6 22 -1 -6 3 3 -11 7 13 -10 21 18 12 1 -8 -13 11 14 -1 -10 8 27 10 -6 -6 1 -7 -10 17 9 -5 -15 2 -2 -10 3 18 -1 15 -3 -3 17 3 -14 4 -6 -23 -3 -9 -4 -11 17 7 27 -21 -1 0 -3 31 3 -2 -3 6 20 11 6 11 3 -10 3 -8 -3 -14 -7 13 11 4 -8 -3 4 6 3 -6 -17 11 -16 6 7 -13 33 -6 -7 -20 -16 -7 -2 -8 13 29 -10 4 -3 10 4 -15 -10 13 -15 -7 -3 -7 11 0 4 3 -3 -7 3 17 6 8 7 24 3 3 17 2 10 3 3 -3 2 17 -18 15 -6 17 3 -3 -3 -11 -11 -3 18 -9 -7 -3 5 -14 13 -8 -1 -15 14 -1 23 15 6 3 30 12 1 -11 -6 -13 -6 6 12 -4 -16 14 -10 9 -3 16 -12 11 11 -11 -5 -6 1 -18 -1 9 5 -8 -3 9 7 11 -7 3 -1 -17 28 -14 -7 6 2 -15 -7 4 15 -3 -3 -14 -10 -7 -29 -21 1 3 -31 -4 10 -4 10 -10 3 -4 -3 3 -10 -1 13 4 -21 -4 -3 18 7 7 2 10 -9 2 17 6 -11 -25 -21 3 18 -3 10 2 -6 -14 -8 -3 -12 6 11 6 10 -3 26 -18 -13 10 4 4 -3 24 -14 -22 -11 -5 17 6 18 -10 -6 7 -11 26 15 -14 -13 7 28 -6 -3 7 -24 0 -3 -39 -13 2 14 -24 3 16 -27 7 3 3 -9 -7 -2 2 -11 18 4 -5 -6 -10 -4 19 6 4 4 -10 -15 -7 -3 -17 1 0 -7 -6 10 1 -8 -6 -2 -25 -11 3 3 6 13 -13 1 -14 -13 10 -3 -24 0 -3 2 6 -11 -17 -2 -7 -35 -3 -13 -8 8 7 12 -14 -6 -32 5 13 11 6 -13 -6 7 -10 -10 -6 -14 -10 -8 26 15 -1 -20 24 -3 6 -2 -27 13 -6 -38 -8 -28 -11 4 -9 -10 5 -8 13 0 -10 6 -17 -6 -14 -1 -3 3 3 -9 -3 -2 3 -4 -8 1 0 -3 -4 -13 -6 3 -9 -10 -13 -5 -9 3 -12 14 2 -4 -7 -5 -19 -30 28 8 -14 -17 -18 1 6 -4 3 12 11 -15 6 -3 -6 17 12 3 7 -4 -22 6 16 2 -23 -4 -25 -4 -11 -6 23 -17 -18 6 6 9 5 -17 -2 14 -7 3 0 3 15 18 3 -7 -19 -19 -7 -9 6 4 6 6 6 23 5 12 -35 -37 20 3 3 8 -20 -5 -14 -7 22 11 -6 10 -7 3 3 -8 3 -14 4 3 6 -21 0 4 10 5 3 3 -2 -7 -10 6 20 -8 13 3 3 -4 4 -3 -14 11 -23 -5 10 -9 -14 10 -6 3 1 18 7 -6 -4 -11 3 10 5 -13 3 -4 0 -12 12 17 -8 -14 -6 17 -10 17 7 3 -10 -14 -9 -5 6 22 20 15 -7 -3 -6 6 7 -3 12 11 -13 -2 4 7 8 -3 -8 -7 2 5 -4 5 -20 18 -8 -3 3 0 -19 -11 -11 20 -3 10 3 10 -8 3 7 15 -14 -8 14 -4 3 -3 -13 5 -6 -13 -1 -4 11 -14 -4 -3 -17 -3 -17 3 4 3 29 -18 10 14 23 20 7 24 -3 -20 9 0 6 -8 2 -16 -10 -11 -1 16 8 17 13 -2 9 -3 -7 -28 -25 -5 -6 3 -11 -7 -4 -8 -3 -6 -1 7 -20 6 -8 -14 1 -8 3 -3 -1 -4 2 3 1 35 13 -7 -23 -3 3 -2 -18 3 15 -12 -7 10 -22 16 4 -12 3 7 8 13 -4 0 -13 13 -6 -3 6 10 -5 -7 -1 12 12 -6 6 -7 -3 6 3 -5 11 21 -3 3 6 -29 -4 -9 -4 3 13 0 -3 2 22 11 4 22 -3 -7 23 23 14 3 15 -16 -10 4 15 14 7 3 19 17 13 3 -23 5 -8 2 7 12 -4 -4 13 -5 12 -2 30 -11 -13 5 -14 20 2 -18 -2 -6 -15 -4 6 10 11 3 3 -6 -12 6 6 -3 -21 -6 -4 -5 8 7 13 4 -17 -3 17 17 10 2 -6 -6 -13 6 11 14 16 0 14 3 -7 5 -9 -10 -15 -7 -6 -14 3 -6 3 9 -3 7 -13 2 -10 25 8 21 4 -7 7 1 -8 -1 -2 19 10 -14 6 3 -7 -25 -6 13 10 -15 -7 13 -20 -3 -20 -16 7 -11 7 3 6 -14 -3 3 16 -3 15 21 -13 -11 -3 9 -3 2 15 3 15 13 4 32 7 7 -11 14 10 -5 -13 11 8 30 4 -6 10 0 -19 17 8 -21 -1 24 13 -3 11 11 -7 -5 7 -11 9 -22 -12 3 14 0 -3 3 13 -3 3 2 12 3 3 -10 3 17 -44 13 -10 7 -13 -30 -3 -35 -20 -3 9 2 3 -1 4 -14 -31 -19 -20 -4</t>
+  </si>
+  <si>
+    <t>JSB(2.0513814085761926, 4.2418702319993455, -34.654804738028645, 189.59918664465388)</t>
+  </si>
+  <si>
+    <t>51 31 58 31 54 39 57 34 29 22 50 33 50 40 28 29 45 50 37 52 41 51 41 22 23 31 47 49 50 37 19 34 23 29 44 33 26 51 33 49 48 40 42 41 30 43 37 29 44 27 36 64 23 54 51 56 43 16 30 35 43 28 31 49 35 19 27 37 42 38 76 31 27 26 35 29 32 38 35 47 47 30 13 53 48 37 35 26 36 25 45 38 24 21 33 31 30 41 40 22 26 47 49 41 51 40 43 45 47 30 37 37 29 30 43 21 50 51 47 22 44 52 32 29 42 33 37 32 32 50 24 44 47 47 34 51 30 34 54 34 26 48 55 44 39 38 27 30 32 49 59 44 24 23 50 53 17 23 23 34 49 39 18 42 41 23 33 35 39 42 31 58 54 37 36 41 27 20 52 19 30 65 52 52 16 51 42 40 23 43 45 47 47 48 45 30 33 43 39 52 33 30 37 37 34 31 33 20 55 39 43 40 48 40 45 40 45 45 54 24 45 30 29 34 61 42 31 16 44 44 37 37 36 41 40 36 25 47 65 44 13 29 33 41 45 30 23 39 41 52 26 39 28 39 23 62 41 37 36 41 59 35 36 37 34 43 22 29 52 37 35 27 35 52 44 41 36 36 66 44 32 36 43 40 57 46 42 35 36 24 33 40 40 43 29 16 31 43 34 45 42 40 35 24 48 27 29 38 36 36 50 24 27 36 44 59 40 45 32 49 47 41 43 56 43 23 44 36 47 37 23 43 37 37 50 54 29 49 31 55 40 37 42 25 32 44 48 30 30 36 29 24 35 38 48 37 38 33 16 36 28 33 29 38 61 40 34 44 58 33 39 32 27 55 38 36 54 44 48 34 26 53 30 38 28 44 42 30 42 41 22 33 43 34 38 45 46 43 34 44 60 26 20 28 51 36 34 22 28 34 45 36 54 22 42 35 31 51 40 40 32 37 30 27 29 38 32 53 55 22 51 58 49 35 53 37 37 33 42 47 43 31 44 59 39 49 45 39 53 29 42 39 26 37 43 26 50 19 47 29 29 16 63 36 30 39 34 34 25 37 36 33 37 58 36 37 38 57 40 31 29 55 27 57 24 36 36 47 29 48 32 51 41 37 30 46 60 39 23 43 22 37 62 41 36 20 34 44 32 45 26 23 30 26 44 36 42 30 40 36 28 36 16 33 45 47 28 16 44 40 48 34 50 43 48 34 44 53 54 23 37 45 22 35 25 43 26 61 46 45 57 44 30 50 30 54 41 33 50 50 26 43 40 56 29 34 38 23 34 39 48 10 34 27 25 41 21 47 36 55 22 45 26 36 40 58 25 43 52 58 32 35 44 34 42 39 31 24 47 47 48 48 53 52 36 37 31 39 39 42 23 38 44 27 54 55 16 29 30 33 21 37 54 25 52 52 36 52 26 36 30 29 54 39 33 37 36 33 32 33 37 38 42 40 36 35 33 37 36 45 23 30 47 34 50 38 45 16 45 40 30 56 33 49 48 38 36 45 30 37 47 36 25 36 37 34 32 40 51 46 43 25 40 37 51 21 34 39 43 32 17 47 26 44 37 39 41 20 31 42 43 19 29 51 36 23 53 24 28 26 47 43 41 54 45 32 36 37 49 31 49 61 44 25 66 52 46 59 37 45 49 48 42 38 37 53 32 22 62 36 23 51 17 35 27 30 46 36 27 40 42 22 58 31 36 36 16 37 42 27 63 54 45 44 48 27 38 43 29 48 46 46 28 28 48 55 31 44 39 33 43 38 37 20 56 38 54 34 40 43 45 26 28 31 30 23 26 52 48 30 47 31 47 49 49 39 35 34 20 37 27 29 55 55 47 26 35 48 40 32 37 32 37 38 29 37 50 31 19 62 30 48 31 40 16 33 41 43 43 30 60 54 36 40 49 40 33 29 28 41 43 41 29 42 25 43 30 40 48 47 33 46 40 35 40 48 30 27 43 44 30 47 36 43 31 33 37 40 17 52 30 31 23 17 29 43 54 36 38 59 23 46 45 33 52 45 37 36 37 29 36 33 31 48 47 47 50 48 30 27 59 43 36 29 30 56 22 23 35 31 54 48 37 54 42 52 35 54 38 37 27 40 30 63 38 30 51 69 52 43 41 45 31 36 53 33 38 31 41 31 40 39 48 34 46 30 53 23 50 27 26 44 38 37 35 51 37 54 29 33 25 29 32 39 31 33 41 48 37 35 47 41 34 33 51 48 43 45 35 39 39 48 30 33 31 30 48 37 34 27 57 37 31 36 46 34 30 44 57 41 41 36 46 43 34 37 38 41 36 41 31 48 42 52 23 42 27 48 29 30 23 47 44 30 23 43 37 51 41 33 41 44 48 26 56 37 44 36 46 30 48 33 28 33 33 32 45 48 43 33 33 29 37 42 28 38 45 34 51 36 45 36 25 34 56 27 32 28 44 31 34 42 43 29 40 54 50 41 56 33 44 45 30 48 42 44 32 34 49 33 24 37 63 30 28 34 13 30 37 39 44 44 40 43 43 49 41 43 34 73 61 31 36 38 35 45 57 33 42 45 39 18 44 37 42 37 16 33 38 45 32 53 37 31 26 30 33 48 32 31 46 51 47 49 51 29 26 38 30 40 29 29 51 44 44 41 49 24 29 24 55 30 22 30 45 53 42 50 32 73 44 58 53 41 66 37 45 25 41 30 41 46 55 14 37 31 34 30 30 30 29 40 41 39 43 34 48 43 50 30 50 45 49 40 58 33 73 55 23 37 16 43 37 21 30 52 55 38 42 48 37 36 33 19 37 21 15 30 46 44 50 39 37 17 57 30 26 27 27 54 32 43 50 37 34 50 37 24 27 21 22 37 31 38 45 43 50 41 34 41 42 26 40 38 44 55 42 47 27 17 40 30 23 44 34 45 33 49 22 43 48 50 26 34 44 30 30 55 27 48 31 35 34 40 38 40 19 32 46 35 41 48 36 21 38 30 58 33 33 27 58 45 37 29 39 41 28 54 43 42 34 31 45 43 43 40 48 32 41 23 31 50 55 51 15 20 33 26 41 33 26 38 40 20 44 43 37 37 20 39 34 37 37 37 45 31 38 36 40 37 43 40 31 24 40 33 49 22 51 48 29 50 29 26 30 43 37 45 20 35 41 46 42 38 35 33 39 37 16 39 48 31 28 36 49 37 32 46 29 55 37 33 58 46 28 34 41 51 30 69 29 29 45 37 44 42 37 27 34 45 30 34 29 30 43 23 50 32 27 39 31 38 26 30 54 23 36 23 36 21 23 41 40 30 25 29 31 28 49 36 27 63 34 26 19 33 34 38 50 45 28 34 40 34 47 23 43 30 33 37 44 45 24 38 41 33 37 47 44 48 45 51 52 45 52 44 36 38 47 37 27 41 45 50 32 33 29 34 40 46 27 36 45 43 40 43 51 44 33 24 27 50 41 52 28 26 30 43 47 27 69 37 49 39 19 30 44 30 40 56 62 31 43 33 24 45 37 36 54 23 33 31 37 49 50 33 43 49 37 49 24 51 63 33 31 36 37 48 50 41 65 57 36 42 31 35 46 20 32 40 26 54 33 39 36 27 20 33 43 45 40 39 60 47 28 48 28 39 23 36 31 44 35 38 16 33 23 42 46 58 31 49 37 49 41 61 29 33 42 47 26 51 43 25 30 41 29 27 24 47 32 37 26 43 40 29 45 41 36 45 33 34 55 30 32 37 36 30 51 26 48 31 57 38 35 48 45 26 40 51 34 31 51 50 27 29 23 32 44 40 44 33 43 45 41 31 27 33 26 43 26 23 34 34 36 23 60 29 51 48 40 50 30 58 43 31 22 49 53 65 36 48 13 55 37 51 36 33 36 44 51 58 23 30 37 31 45 31 41 32 61 43 44 20 39 27 39 22 50 20 47 45 51 45 37 28 56 48 32 20 20 44 44 33 31 56 34 23 38 19 27 43 51 23 37 44 48 45 52 53 34 33 54 62 38 35 37 27 48 29 41 34 37 46 37 49 27 48 42 46 34 30 52 23 27 23 40 51 33 37 38 43 38 32 46 44 37 30 35 21 51 37 53 55 29 34 33 40 23 37 37 29 44 37 39 51 54 34 43 58 37 46 41 37 37 39 33 23 39 42 19 35 50 46 40 51 31 29 36 37 33 34 51 30 44 40 23 19 44 32 45 49 62 44 46 25 39 56 61 30 47 22 52 29 37 68 28 43 31 49 23 20 41 23 35 53 29 61 41 33 34 33 38 33 35 45 26 37 51 54 58 33 23 43 20 45 41 44 50 3 22 34 36 20 49 30 33 47 37 36 23 51 39 27 51 43 44 51 53 37 33 45 49 41 42 30 37 46 41 54 59 31 43 51 55 50 30 29 37 44 38 62 43 23 53 37 36 44 37 51 38 36 45 45 27 47 37 25 26 23 34 53 24 31 37 53 51 16 33 65 30 46 32 43 36 28 45 26 34 22 23 34 41 26 56 52 43 45 59 38 43 23 25 30 19 27 36 29 35 32 50 37 22 32 36 32 41 35 24 26 57 50 61 53 29 37 46 33 42 33 23 41 46 54 45 30 44 38 23 24 35 43 31 35 30 43 31 28 40 27 44 30 42 26 31 41 33 34 22 33 29 26 49 42 41 48 50 57 35 36 42 37 43 44 34 43 53 37 49 41 26 45 38 35 34 55 32 27 47 31 38 62 27 43 33 26 27 58 30 56 23 30 47 43 48 16 40 32 48 25 20 23 47 29 28 51 40 34 47 61 44 37 35 33 43 34 27 27 30 27 37 39 37 59 29 48 47 38 34 48 36 41 30 52 43 48 48 29 26 56 38 36 42 41 54 42 34 42 48 54 32 43 28 40 65 34 34 37 51 47 41 19 35 44 36 26 44 31 58 38 34 46 43 37 19 40 44 41 58 40 35 42 29 46 26 45 40 29 38 45 34 37 43 37 36 31 44 29 41 38 66 44 44 55 19 36 28 16 33 40 58 35 51 31 59 29 24 49 40 25 45 67 40 43 56 59 62 63 30 46 18 27 64 38 23 28 44 27 39 54 28 30 48 47 56 30 26 43 24 34 19 43 29 31 30 44 42 40 43 34 28 40 34 40 39 26 22 37 41 27 59 54 41 41 40 29 58 32 31 62 26 27 12 51 44 49 30 31 49 43 37 55 34 23 47 48 36 46 33 29 22 43 39 37 10 23 46 41 38 19 32 26 40 44 35 44 32 42 76 47 46 16 52 33 23 54 31 42 24 34 41 12 36 37 19 30 45 31 33 33 33 59 40 51 27 44 23 37 45 23 34 37 37 45 27 30 59 36 27 34 29 60 12 36 31 47 36 54 43 37 35 33 44 25 24 44 39 32 47 49 40 51 60 30 47 51 27 26 38 39 41 47 30 29 58 24 25 40 45 42 14 51 43 34 45 25 27 31 62 20 13 31 33 47 40 29 30 20 45 29 33 53 30 36 48 27 33 43 36 31 35 33 41 45 32 31 34 30 27 43 58 30 44 37 44 29 29 28 40 43 66 44 27 49 45 51 47 31 40 51 32 43 33 37 30 32 43 40 48 23 58 27 62 43 21 33 30 30 35 27 48 23 54 45 30 34 43 48 30 51 47 37 38 44 27 30 41 30 44 47 39 19 55 26 39 40 38 39 51 26 49 27 38 40 16 30 41 43 30 23 35 40 36 31 37 55 34 25 35 51 31 53 28 59 39 32 34 44 34 49 20 43 26 31 30 29 60 23 19 25 44 30 40 46 48 39 32 29 29 32 34 46 52 24 30 36 34 27 40 21 42 57 37 47 43 38 27 37 39 30 43 44 41 31 39 48 12 33 24 40 49 35 43 34 56 29 37 30 44 36 23 24 40 20 32 51 35 59 48 58 35 18 44 38 40 65 34 29 41 45 45 38 45 37 43 29 36 23 25 43 29 29 39 30 51 34 43 34 31 44 48 43 45 40 47 54 43 19 52 55 54 41 37 31 23 33 38 21 34 48 32 41 36 52 50 31 26 30 25 40 42 23 39 39 21 37 36 20 30 22 27 50 33 35 36 31 30 36 45 37 46 57 33 48 32 42 55 36 51 30 44 27 39 45 64 45 33 33 48 41 48 45 40 56 49 33 29 32 44 33 46 31 27 54 42 12 70 41 37 23 36 30 19 26 22 22 54 37 27 52 38 41 25 19 32 51 37 55 45 48 40 53 50 30 33 62 43 53 30 39 37 39 40 36 50 37 35 46 40 16 30 29 39 37 51 31 35 51 24 33 31 35 28 33 44 43 37 25 49 46 44 33 52 41 37 32 29 60 27 40 41 52 54 43 43 45 41 28 30 42 33 21 28 37 25 32 42 30 44 37 30 22 29 31 48 23 37 38 41 38 44 49 41 27 42 54 16 52 51 37 41 43 43 43 23 37 41 33 29 45 31 23 24 36 35 34 37 52 47 27 48 33 34 34 44 30 27 46 49 41 47 65 23 47 43 25 58 25 61 16 44 38 40 34 52 26 27 40 37 34 43 30 30 38 40 40 51 24 41 28 34 41 36 30 51 37 36 33 23 24 52 43 47 41 26 45 49 34 31 23 27 25 24 37 27 43 55 37 50 45 29 33 33 45 20 37 40 28 27 43 47 38 29 41 43 33 41 43 44 52 30 34 31 49 41 48 42 34 30 33 55 44 47 46 25 43 44 43 34 41 54 29 39 65 46 59 33 43 59 56 43 26 30 21 56 37 34 41 23 45 27 37 29 38 35 33 40 37 25 33 57 32 29 39 40 33 43 40 43 31 28 38 43 36 29 51 33 58 48 32 33 53 40 41 33 43 32 25 24 50 39 37 33 29 39 54 46 36 48 31 23 37 48 13 29 37 30 40 39 53 33 33 23 40 43 20 27 55 32 63 30 29 53 30 37 22 34 48 34 43 34 37 48 45 56 26 44 45 46 50 23 34 43 47 40 40 57 37 26 27 22 39 34 51 20 40 34 35 59 29 25 25 47 24 48 42 48 27 37 24 42 23 34 25 33 37 48 35 45 37 40 29 50 47 36 39 40 40 36 39 47 26 43 41 43 37 39 48 32 47 34 37 33 32 37 51 39 30 34 30 45 30 54 48 43 51 15 53 47 37 34 27 42 32 39 22 67 26 27 17 24 32 32 47 44 49 36 44 33 36 44 32 50 33 45 38 43 30 62 58 57 25 33 52 41 26 57 24 45 29 19 40 31 33 19 37 39 34 44 47 35 47 37 37 30 49 29 30 41 37 32 31 20 36 25 61 45 32 42 45 34 35 46 40 37 40 55 44 29 27 17 55 33 30 9 42 37 33 35 43 31 30 42 32 30 32 40 30 51 37 23 43 55 26 16 30 45 52 58 39 43 47 29 34 62 48 43 48 37 44 48 46 50 31 56 26 30 59 34 44 40 40 49 36 52 34 28 23 27 55 38 29 36 31 29 47 36 27 33 54 38 48 24 34 50 37 38 56 55 30 43 40 53 37 38 47 28 52 25 20 29 24 59 53 29 45 24 41 47 44 38 33 49 30 43 34 44 47 43 27 51 23 24 61 33 41 48 27 44 41 56 29 33 38 55 31 48 42 40 28 47 48 43 46 16 13 34 29 23 26 44 30 20 17 34 36 28 40 41 25 60 41 44 33 31 23 41 12 45 36 55 38 48 46 29 44 56 33 37 40 47 22 37 41 41 20 33 42 48 51 31 30 39 51 34 33 32 41 38 41 46 35 41 54 51 44 47 42 48 32 58 26 31 26 35 42 35 21 48 41 29 36 28 37 36 31 43 41 44 25 40 26 37 36 50 37 45 29 31 48 23 35 44 37 48 40 30 23 48 51 41 40 54 9 48 28 51 41 19 40 32 46 40 44 43 41 37 15 30 45 37 41 32 27 28 36 31 37 43 48 36 19 34 36 27 40 45 31 55 25 22 26 59 30 44 60 27 42 44 30 38 44 35 35 31 24 19 45 40 27 30 36 37 27 30 44 44 41 36 30 52 23 33 51 41 47 38 25 34 34 43 37 64 31 48 27 44 37 51 52 49 29 50 62 54 34 44 37 55 57 26 45 24 33 27 55 27 40 27 43 33 41 47 40 41 34 27 57 24 37 66 27 36 52 43 51 51 37 49 41 38 53 33 43 42 51 20 34 30 34 20 19 19 51 37 44 37 26 49 31 47 36 38 43 20 42 15 48 37 50 39 40 23 48 41 43 37 34 30 53 57 44 27 29 26 35 23 67 39 27 57 45 57 50 52 22 31 37 27 39 25 34 40 48 38 27 48 34 36 54 36 28 33 55 21 47 23 33 50 33 51 41 54 25 58 33 30 23 40 25 46 45 38 26 28 52 36 37 27 51 17 42 31 27 57 37 27 21 30 23 53 28 57 30 37 26 33 27 53 39 23 39 51 52 24 27 36 46 44 40 51 32 57 37 35 6 45 37 25 45 29 37 34 43 49 30 37 37 40 52 42 30 37 37 35 41 24 40 50 33 38 31 27 48 37 28 44 31 31 40 51 48 30 24 29 22 30 36 50 49 41 33 40 36 38 36 51 39 41 47 43 35 38 19 44 30 42 40 39 42 34 25 31 31 38 39 51 16 41 67 46 40 36 38 20 37 37 59 43 59 36 33 23 29 37 43 38 39 26 31 33 51 38 33 30 18 30 33 20 43 29 31 32 16 26 52 47 49 40 33 49 46 33 48 29 37 23 26 27 36 43 49 19 39 53 55 43 45 48 54 40 41 24 30 48 51 31 39 38 60 41 23 27 32 47 3 38 42 22 29 34 37 34 40 16 39 57 44 34 27 41 39 29 58 47 52 50 19 25 25 34 20 33 45 33 30 36 51 26 38 20 36 29 44 62 34 26 19 36 33 50 55 51 36 41 43 44 43 39 25 21 38 22 54 61 35 37 34 50 43 38 38 59 31 24 40 32 29 32 37 37 37 44 43 42 23 63 33 45 38 50 44 37 38 32 38 50 51 43 43 34 54 23 36 38 20 25 29 23 41 27 29 33 23 39 42 13 25 23 24 54 38 34 63 34 53 23 36 51 45 26 51 39 39 51 43 45 39 47 53 37 43 52 30 43 12 22 10 38 29 10 55 40 40 40 21 51 29 33 39 38 45 29 37 41 34 31 46 34 48 26 33 38 24 39 43 38 43 41 30 34 48 37 27 36 44 41 29 27 37 59 30 50 47 43 55 55 37 65 33 47 38 46 48 47 39 55 39 36 34 25 30 27 26 49 48 54 43 38 41 33 16 27 39 39 25 36 31 23 29 44 43 48 38 34 44 29 46 24 31 37 33 27 34 38 30 57 37 25 27 62 58 30 29 44 57 38 40 13 44 44 43 23 33 33 39 49 26 46 48 24 36 51 38 41 38 51 31 17 35 23 34 51 43 30 16 34 37 45 37 33 31 34 48 57 43 23 33 42 57 41 34 19 37 40 26 51 25 44 23 24 41 34 47 42 43 31 26 41 45 49 19 45 44 24 39 51 33 25 48 61 31 49 41 37 20 37 32 28 36 27 13 33 35 29 57 30 42 45 51 49 48 44 25 30 47 21 30 25 41 34 26 60 44 48 35 28 58 45 43 37 38 41 36 24 37 15 36 44 29 37 35 38 19 28 42 42 47 51 32 43 40 33 26 46 47 45 44 44 33 34 17 32 29 59 47 33 36 25 52 30 24 26 53 42 36 31 41 50 24 30 34 48 27 27 33 22 33 37 47 44 38 43 37 36 13 45 41 38 43 29 38 37 34 34 40 41 37 46 36 20 19 47 22 40 43 43 34 27 44 46 43 41 23 23 48 29 28 19 33 38 37 54 51 21 57 51 44 47 16 44 40 38 31 36 29 37 53 53 64 7 51 37 19 44 55 41 37 41 54 33 38 26 24 51 43 43 49 6 17 36 36 30 42 57 31 33 44 25 42 26 16 23 30 30 43 37 49 20 17 27 26 48 38 40 45 29 19 45 29 37 30 42 29 30 51 37 40 9 40 33 28 33 36 36 49 39 37 27 53 51 37 45 37 24 34 48 45 41 27 15 48 37 45 36 30 33 36 37 33 44 33 44 36 19 43 23 65 40 27 46 3 43 34 43 43 44 38 29 38 44 46 54 44 39 23 37 36 17 38 31 29 47 36 46 38 39 37 24 52 16 20 37 19 26 31 40 43 42 36 40 54 49 47 27 26 54 22 45 45 33 46 30 52 37 25 37 35 37 32 35 58 36 39 35 50 45 43 37 10 59 44 19 45 43 47 33 43 45 45 33 15 38 22 49 40 44 53 52 47 35 52 33 33 42 40 40 37 38 49 37 28 30 27 44 30 59 33 27 26 37 19 28 37 18 19 32 38 28 39 36 31 38 35 34 32 31 33 49 41 23 31 45 40 27 14 41 49 45 29 20 26 34 51 24 36 47 51 51 30 26 50 49 31 36 32 37 50 43 36 62 45 21 46 41 31 26 28 26 36 31 30 34 23 44 37 26 44 27 34 39 35 43 38 54 18 47 58 43 51 45 26 37 40 21 62 45 29 51 40 50 33 51 44 37 34 48 43 29 47 36 29 44 42 29 39 67 51 45 30 28 40 33 44 25 35 27 57 38 29 45 51 61 30 52 34 33 37 31 38 28 51 44 40 49 48 37 19 41 47 33 36 32 46 40 23 43 18 42 33 22 46 29 30 29 26 38 44 48 37 20 24 15 46 23 28 52 40 30 37 33 31 23 33 40 45 39 41 45 44 37 37 53 53 41 26 40 51 41 24 37 44 41 45 48 61 33 41 17 36 31 40 47 47 47 43 29 26 41 37 20 44 47 28 26 50 34 30 53 47 35 32 59 44 28 31 51 34 23 29 19 54 40 51 27 37 25 37 29 30 30 56 18 34 22 36 33 39 30 32 48 32 40 34 47 58 59 35 44 38 22 31 43 40 34 49 43 32 19 41 40 30 41 33 51 39 30 41 46 43 44 43 42 47 33 35 33 42 42 40 14 17 32 35 47 29 47 50 26 38 29 32 42 22 46 48 49 40 36 22 36 35 39 31 22 41 31 55 37 37 36 46 34 30 36 41 47 16 49 48 39 34 39 44 37 47 48 29 52 62 32 28 39 31 59 31 43 44 37 23 29 40 40 40 40 42 33 49 45 36 27 55 54 51 31 44 23 41 50 45 39 51 48 48 51 35 35 29 59 50 32 29 41 48 40 44 37 59 30 37 46 30 27 53 39 26 15 23 40 26 47 35 33 52 50 47 37 27 32 56 29 61 41 35 37 41 30 37 54 34 29 39 24 41 29 30 55 40 34 38 30 34 41 41 32 39 39 44 42 51 48 50 23 31 35 41 36 47 50 33 57 35 32 42 16 19 31 30 47 47 35 29 16 41 36 22 39 43 45 36 56 30 66 47 31 25 37 33 47 23 43 40 36 44 57 34 42 30 39 34 26 34 20 33 49 54 40 53 44 48 40 45 40 26 37 33 40 40 40 39 34 32 30 34 19 30 41 62 43 39 45 43 44 21 37 33 43 19 36 30 27 56 41 37 36 37 43 31 27 38 43 49 42 27 34 24 44 32 47 30 23 31 45 32 43 40 30 51 25 32 62 20 22 37 34 66 43 19 33 37 37 47 54 41 37 38 36 29 27 30 47 41 49 33 41 55 51 48 47 34 55 35 33 43 62 44 24 32 38 39 54 30 37 51 26 34 26 40 43 49 55 45 24 27 49 47 37 41 19 36 29 43 39 44 41 33 43 41 33 37 46 33 30 68 22 27 41 26 59 33 22 58 28 33 40 36 28 29 48 40 30 30 33 35 30 44 30 32 38 37 43 40 20 45 40 62 52 45 23 25 44 34 43 16 29 34 27 42 53 36 38 37 47 43 43 43 38 38 15 29 50 38 40 25 37 29 42 48 35 26 26 35 39 43 50 31 44 27 34 33 39 37 49 30 33 52 26 52 37 36 30 44 27 41 48 39 41 35 41 40 34 35 48 54 52 54 36 44 49 38 29 29 18 43 22 49 47 36 25 32 30 16 19 45 32 37 59 29 37 29 50 38 25 51 41 42 58 48 45 40 37 39 39 50 48 18 26 36 27 37 49 39 26 29 37 28 41 32 37 24 30 48 48 45 23 54 32 30 60 59 43 29 38 22 19 47 23 37 44 41 25 33 32 26 51 40 37 62 28 39 55 30 43 37 30 30 46 23 34 52 45 52 32 45 28 66 25 38 22 65 31 51 34 26 27 40 44 53 20 36 49 40 37 45 41 41 55 41 28 37 30 29 35 25 61 24 47 45 48 36 57 55 40 22 53 40 43 20 33 58 40 36 46 29 34 47 43 42 34 36 40 33 33 37 21 23 40 29 36 59 37 36 38 40 29 47 37 30 48 29 30 44 44 45 33 37 57 63 27 39 38 51 34 40 39 41 23 29 43 57 56 34 39 24 45 56 32 37 30 37 17 35 39 40 47 34 40 57 33 44 30 44 32 24 30 28 41 30 37 26 46 40 47 37 37 43 66 59 43 44 55 16 27 69 55 23 37 41 59 25 41 23 30 45 45 40 43 59 45 40 45 62 29 37 29 53 40 36 27 45 43 44 37 36 37 36 40 45 34 23 26 56 21 27 34 38 54 27 38 34 38 44 24 43 34 44 33 35 38 52 37 49 29 50 43 23 59 37 33 33 41 36 45 29 37 22 30 30 47 30 27 44 34 51 22 55 38 40 32 19 26 29 40 60 49 41 50 37 45 53 51 37 48 32 18 33 30 44 46 17 41 30 47 37 30 50 53 26 37 25 57 32 24 31 13 34 43 41 25 36 16 37 22 43 33 23 43 51 13 51 41 37 34 46 36 22 46 57 36 52 22 41 44 29 40 47 25 33 31 41 41 30 42 38 69 33 47 51 43 32 43 26 50 54 48 37 39 38 16 31 48 61 43 37 51 51 23 44 37 35 27 34 43 31 33 45 38 40 37 19 40 55 43 29 26 20 41 37 33 44 26 55 37 32 13 47 55 30 42 52 47 38 57 53 39 43 45 43 30 45 39 45 22 51 42 33 31 61 36 40 33 30 29 29 39 43 32 32 38 33 65 50 50 50 46 37 28 26 29 41 57 27 23 35 31 20 29 48 34 46 56 50 39 41 43 37 18 29 24 40 26 54 34 63 38 37 41 24 33 45 65 36 33 33 26 37 28 50 37 44 53 24 38 26 37 38 36 32 53 39 40 54 61 48 34 44 41 36 23 23 45 55 17 29 43 35 52 32 40 51 26 47 32 52 31 33 27 35 41 38 32 29 49 39 46 36 39 26 34 30 44 64 37 29 32 29 63 34 46 36 20 44 40 33 43 43 40 43 12 33 28 23 62 36 28 20 41 56 20 45 46 43 53 40 32 48 68 30 29 35 23 45 30 38 36 50 51 39 31 48 30 52 34 36 39 38 31 47 34 25 20 28 23 33 37 40 36 36 15 37 57 41 40 44 37 16 23 42 34 53 41 41 37 37 44 38 39 49 36 31 45 40 31 57 41 33 51 23 31 53 48 30 57 39 45 20 34 33 23 24 41 34 43 43 41 44 64 26 24 15 46 29 49 54 38 33 52 40 27 49 33 21 38 28 40 22 22 27 33 41 37 50 30 32 40 29 38 39 16 37 51 69 34 31 41 38 40 38 24 64 43 26 58 29 48 40 45 31 32 30 37 27 48 39 54 22 43 20 46 41 32 50 43 40 40 21 62 54 43 31 15 33 35 41 46 43 48 29 36 35 40 34 59 26 30 38 18 23 37 45 30 23 38 54 41 40 63 48 38 16 40 26 29 44 49 31 41 31 45 37 35 55 39 22 48 43 37 19 20 52 27 36 27 40 41 29 30 28 25 33 65 29 34 57 47 62 34 25 19 39 26 52 30 36 31 49 44 20 25 55 66 35 49 25 40 40 30 22 49 35 50 39 61 26 21 54 35 27 55 37 33 65 46 31 40 43 29 45 32 41 50 28 61 53 37 43 65 23 34 52 30 45 52 45 42 34 35 47 33 43 30 48 10 32 36 23 51 41 33 41 39 36 31 48 41 22 37 29 34 45 45 30 50 46 27 17 29 29 17 37 36 39 40 30 33 35 44 45 38 38 49 24 36 41 40 37 50 41 40 55 34 38 40 37 71 37 34 25 36 26 27 48 16 43 46 30 23 51 23 43 33 54 52 41 59 19 38 44 37 19 30 33 35 51 58 39 34 41 20 30 32 40 42 38 32 24 51 31 40 38 23 44 45 37 53 51 41 30 47 49 39 40 37 46 24 34 34 44 59 58 32 19 33 40 43 33 18 37 31 51 58 37 53 19 33 12 36 34 37 40 39 60 24 37 46 42 37 30 31 40 25 37 42 27 58 33 23 36 24 29 40 48 47 38 41 49 29 47 37 47 44 44 33 40 42 58 30 41 41 47 57 32 48 23 27 50 29 23 32 44 31 44 37 28 49 44 40 23 28 29 30 47 56 29 20 53 32 38 37 66 45 36 47 50 23 31 51 30 27 54 31 54 50 37 50 35 27 32 26 43 46 39 19 30 65 27 29 47 53 53 17 42 45 57 27 48 18 52 43 29 48 41 44 30 53 43 46 47 44 37 29 26 33 29 23 33 39 26 16 44 43 30 16 50 35 30 30 37 39 40 24 44 41 31 59 55 26 45 34 34 48 37 41 51 39 29 43 40 40 58 28 48 43 27 59 26 37 36 40 50 57 37 62 51 45 54 26 30 33 23 34 42 67 48 29 26 46 38 29 31 34 33 39 29 30 33 30 49 37 39 47 9 31 41 19 37 41 23 48 28 53 46 37 48 33 49 29 45 43 61 51 38 24 37 36 29 30 33 34 41 39 27 50 19 50 49 39 41 33 31 26 44 40 57 47 40 41 20 35 38 26 23 45 36 23 46 34 45 45 43 43 36 43 50 26 51 59 26 13 43 32 47 42 42 25 29 26 41 38 36 58 43 16 23 51 29 16 43 37 23 25 40 22 37 38 41 46 38 53 33 35 35 30 25 48 40 43 24 40 30 40 26 45 45 19 38 35 42 33 34 48 43 35 27 30 24 23 37 44 47 44 30 47 27 23 54 33 48 44 31 58 43 33 48 51 58 33 20 50 23 29 29 42 18 30 44 37 34 29 41 24 35 35 37 37 54 43 60 30 34 20 45 38 27 23 23 50 41 24 52 29 51 43 45 29 33 47 51 39 42 27 58 59 44 23 59 51 40 25 33 22 29 49 45 23 55 52 30 37 42 31 32 31 71 24 45 26 27 25 31 38 43 49 23 45 37 34 37 49 48 47 35 55 58 33 27 46 30 30 37 41 28 20 30 31 24 17 55 51 44 48 45 23 17 37 29 43 48 41 45 50 47 65 32 31 33 38 22 44 29 27 45 39 62 39 37 48 46 53 33 14 50 53 38 27 44 61 36 38 57 34 40 40 29 48 45 12 55 30 35 33 30 45 47 48 27 33 34 30 42 31 34 41 34 34 27 38 32 37 43 43 47 43 42 46 28 60 28 51 37 27 42 31 60 34 51 43 28 21 26 37 40 27 45 47 21 36 16 49 46 35 35 31 54 39 30 30 36 30 48 39 42 24 37 58 30 35 41 37 41 42 48 40 39 29 35 38 36 41 51 61 44 27 34 38 31 53 48 36 73 36 21 39 45 24 29 37 48 34 34 45 23 37 35 37 29 47 49 40 27 39 70 27 33 32 34 40 46 40 23 21 52 41 51 29 37 36 34 47 29 40 45 41 52 44 35 23 33 30 43 45 60 37 49 44 23 49 28 61 37 59 43 36 40 49 55 59 26 29 24 51 41 49 27 38 29 37 30 35 27 31 33 19 17 29 30 41 46 38 37 49 25 33 49 49 48 20 38 29 48 44 40 31 56 47 39 37 38 19 25 49 26 24 49 31 34 44 46 30 16 37 59 33 48 36 19 30 45 33 30 45 27 33 39 26 22 37 51 45 37 28 31 44 26 37 37 19 48 35 41 40 48 56 50 56 43 31 30 25 33 19 48 30 58 51 35 36 29 38 28 58 30 24 43 46 51 29 39 27 29 27 28 26 26 41 45 51 33 55 30 27 45 20 55 25 41 17 40 50 30 27 27 30 36 28 48 29 53 43 37 30 19 43 36 43 63 57 33 43 51 33 41 21 41 41 37 34 39 23 41 37 48 24 33 34 61 43 57 32 51 51 25 23 57 44 39 48 33 21 33 23 49 35 37 50 33 36 36 41 47 40 35 37 28 32 23 49 38 37 40 32 19 31 26 43 30 41 33 51 54 32 57 46 44 47 29 39 41 37 23 33 27 51 33 25 33 29 27 49 44 57 41 36 40 42 41 43 42 21 40 37 55 34 38 39 44 45 53 51 32 43 20 43 29 58 41 33 41 22 36 60 42 47 23 32 35 29 44 37 30 26 30 51 50 30 26 61 42 30 36 36 46 40 37 22 10 38 44 48 46 26 41 33 42 36 36 42 24 20 37 32 29 34 51 35 36 53 30 39 49 31 35 50 33 46 37 51 41 38 30 26 40 27 51 19 37 33 23 36 31 52 44 38 41 45 59 39 46 37 33 46 47 27 32 52 12 23 46 30 47 45 40 56 51 19 10 26 39 36 29 48 37 44 30 21 22 43 38 16 47 51 37 19 44 47 35 41 43 40 56 38 36 20 45 26 29 34 39 48 32 31 32 47 37 30 42 44 46 44 34 48 30 23 51 26 46 26 37 37 36 44 34 33 44 47 58 37 32 37 47 41 45 43 33 31 36 50 54 24 54 50 54 40 23 35 29 44 37 38 43 37 54 45 20 37 51 26 45 40 26 49 56 10 38 43 33 44 22 39 26 60 55 51 51 37 33 41 47 56 34 33 48 26 27 27 48 45 31 30 50 63 37 34 43 38 31 23 45 33 47 48 37 34 34 23 41 47 31 37 41 25 36 47 43 43 26 29 36 36 30 26 43 43 58 29 21 42 55 39 37 44 27 23 24 37 50 55 20 29 30 48 37 29 33 23 31 43 44 48 37 47 37 38 49 38 44 29 45 33 33 39 50 37 27 32 29 49 36 43 30 43 41 31 54 38 34 45 53 40 59 37 43 25 13 29 51 29 31 23 20 51 43 27 59 40 34 27 27 29 48 41 37 36 26 27 44 27 30 62 55 45 47 60 37 25 34 34 63 36 46 51 38 37 33 47 37 27 23 52 66 30 40 12 20 43 39 35 24 30 30 19 37 51 37 23 42 45 30 39 17 27 37 37 28 43 41 48 26 26 23 42 68 35 54 29 38 43 52 22 25 31 33 48 27 40 47 59 48 24 20 27 35 45 36 47 50 49 41 34 37 16 34 53 50 28 23 55 28 37 32 35 51 57 37 71 45 39 15 59 43 43 47 37 59 43 51 33 42 29 41 23 32 30 46 21 26 65 34 46 31 29 31 23 28 47 43 34 38 31 37 40 31 20 31 30 29 51 34 44 44 38 53 26 58 83 40 23 41 30 63 40 27 40 31 40 40 25 57 16 34 15 65 38 45 36 51 16 41 52 47 54 31 39 29 37 41 31 33 22 51 45 44 21 27 41 45 34 49 57 30 29 43 32 32 33 47 30 49 36 27 34 43 42 29 16 43 47 42 50 34 33 36 37 39 33 32 41 43 55 44 45 26 22 34 46 52 53 36 35 40 48 46 33 59 36 24 13 41 25 45 35 22 54 34 37 39 43 26 27 16 40 17 47 35 35 55 20 26 32 45 23 47 39 40 45 23 17 43 55 32 29 48 30 42 34 29 26 50 43 53 30 45 45 41 58 43 28 37 36 29 36 44 23 37 30 41 37 18 44 51 70 37 33 62 33 25 50 37 30 36 37 23 34 20 32 43 33 32 40 54 45 41 34 22 34 37 28 56 51 41 44 65 12 47 37 31 36 54 31 43 55 50 23 44 16 31 46 35 16 49 47 32 34 29 55 47 43 29 26 44 34 34 15 52 16 31 23 38 60 35 59 34 41 33 67 45 29 23 32 37 46 65 41 52 37 39 60 34 38 33 48 48 27 54 41 43 27 41 23 41 24 23 32 31 34 41 28 33 56 41 34 23 28 26 27 46 38 31 45 36 45 62 39 30 33 37 33 29 34 33 38 33 39 29 60 29 39 33 62 32 43 56 26 57 49 37 54 45 37 40 26 29 48 46 40 22 38 39 22 41 29 36 47 25 40 45 41 12 34 37 43 22 63 53 33 36 53 60 41 47 9 37 48 44 51 29 31 29 27 44 57 41 51 40 30 41 57 34 41 48 51 29 40 35 41 30 51 42 34 39 16 35 27 42 37 48 48 49 33 27 49 41 50 62 41 21 33 38 37 48 36 30 57 27 51 41 35 31 32 45 47 44 32 42 41 30 20 43 29 32 60 59 24 27 19 26 28 33 28 57 36 44 23 43 37 28 23 45 37 40 43 41 43 44 37 44 48 40 33 30 40 50 46 40 51 30 33 41 27 25 32 55 56 29 23 41 34 36 29 45 32 38 37 22 33 16 45 33 40 56 33 29 37 59 31 33 47 52 41 26 24 45 31 35 29 36 47 20 42 23 40 44 39 37 44 63 45 37 52 48 20 37 23 51 34 22 44 34 29 37 48 31 48 34 30 33 13 45 34 34 29 31 40 27 38 18 57 21 42 34 19 57 55 51 26 63 44 26 41 36 21 47 41 31 43 37 29 45 39 39 45 45 19 40 37 48 41 33 44 41 35 36 30 46 48 43 44 65 38 39 25 54 24 32 43 23 29 41 72 41 40 44 26 31 39 22 24 42 41 39 30 27 35 43 40 37 34 27 40 55 45 30 39 36 56 51 33 31 37 20 33 48 33 47 33 33 26 31 37 64 30 60 23 39 34 39 45 37 39 28 44 52 41 37 33 29 37 23 26 38 37 36 21 43 51 53 37 38 49 22 40 34 47 51 26 38 41 50 65 30 23 47 37 40 37 43 47 30 27 29 30 43 27 13 40 56 47 34 43 29 32 44 19 47 35 33 13 65 30 46 27 34 40 59 49 37 44 36 46 29 32 38 34 35 38 64 26 19 30 30 40 35 49 36 18 31 23 40 41 34 22 31 16 31 51 39 50 20 45 57 37 45 44 45 34 22 41 20 34 41 56 28 33 43 26 32 49 40 37 47 41 36 36 41 43 51 51 56 34 41 40 33 57 31 35 27 47 36 34 68 40 42 42 22 40 45 21 46 23 29 43 34 40 46 22 38 31 35 31 30 29 13 41 46 27 38 51 43 30 57 53 55 33 40 35 46 30 46 44 34 41 30 17 44 35 37 51 22 48 15 33 30 48 10 34 27 55 43 41 37 44 46 29 37 41 27 41 33 32 34 41 36 53 29 45 36 51 30 26 23 46 33 40 40 20 37 41 45 51 44 30 37 26 38 44 47 50 35 40 65 48 43 21 33 70 30 48 17 27 45 38 30 37 46 24 39 53 34 37 37 38 30 51 37 46 46 19 33 37 12 25 31 22 33 38 34 40 54 18 33 26 37 40 28 39 40 41 27 29 49 41 44 40 45 46 22 22 38 43 34 37 31 37 46 34 33 39 36 44 24 26 37 27 32 45 40 41 32 33 29 30 45 37 43 51 33 53 41 48 49 42 20 36 38 33 39 23 43 36 23 41 38 33 47 38 31 47 29 24 45 66 12 60 36 41 44 51 35 33 39 40 35 41 46 45 33 19 48 41 56 48 62 59 40 37 40 40 51 48 32 19 37 16 33 36 51 41 31 36 41 27 44 36 43 19 46 32 39 37 32 45 34 42 40 56 38 43 34 21 27 41 37 17 39 52 60 47 44 46 31 26 31 31 47 45 44 39 44 34 36 51 36 35 62 38 62 40 41 51 48 35 41 41 37 44 34 48 39 34 37 43 48 25 40 38 35 40 43 31 31 40 50 51 44 37 55 59 29 33 35 25 39 30 44 31 12 44 40 44 19 47 36 43 55 34 37 36 42 31 25 51 38 37 34 36 38 39 44 21 30 51 31 25 19 40 36 27 30 39 36 41 61 40 22 37 28 10 44 33 35 59 36 15 47 34 21 24 41 37 31 54 30 54 44 44 44 28 32 40 48 43 54 29 27 19 39 48 29 44 41 45 31 30 35 33 26 41 55 48 26 31 47 34 26 31 37 58 23 41 53 38 36 37 37 39 31 39 37 38 22 27 47 47 30 29 34 38 45 37 32 30 42 43 37 44 41 44 31 29 37 47 48 20 34 37 28 35 45 36 38 59 40 59 33 26 43 26 38 24 46 37 34 36 54 27 48 39 37 30 34 34 40 46 24 20 28 48 30 33 44 34 42 44 19 32 48 25 46 51 29 47 41 55 30 35 38 44 33 34 43 31 40 25 52 32 41 44 54 26 29 19 30 43 45 35 35 44 26 44 47 38 27 41 43 21 45 37 32 30 36 43 31 37 30 31 43 41 33 41 33 54 45 31 37 30 45 30 40 29 26 31 45 52 29 34 37 34 33 41 39 16 24 51 44 50 37 36 37 37 30 20 33 47 39 26 39 34 30 35 34 46 47 53 42 22 31 44 22 43 36 41 55 35 43 49 45 48 30 59 23 33 43 43 40 44 49 38 43 37 51 50 30 43 43 43 54 31 36 47 42 43 43 59 51 43 37 45 30 23 25 45 35 48 27 26 27 29 32 39 35 47 46 37 60 38 19 51 48 33 30 62 34 30 36 20 28 37 23 30 36 43 37 65 29 34 33 44 33 33 35 26 37 39 35 31 33 37 29 49 42 46 33 26 38 49 41 30 41 51 31 34 36 39 29 35 39 37 49 44 38 44 30 44 51 30 37 39 44 19 27 44 39 50 37 24 41 49 30 22 43 36 29 12 37 45 41 37 36 51 36 36 26 40 46 37 40 40 23 50 48 59 40 56 47 24 44 38 29 44 56 44 45 51 37 48 30 46 40 55 51 40 33 46 27 41 28 32 47 61 38 26 29 51 27 42 42 38 43 28 49 21 43 37 53 41 50 38 23 24 58 29 34 30 30 19 34 22 52 58 27 35 31 49 41 38 19 56 52 47 54 56 44 31 29 37 29 20 41 33 13 46 19 28 43 36 56 29 32 42 31 37 44 33 41 29 49 46 34 55 26 40 32 38 43 47 51 40 47 48 41 22 24 36 20 36 26 46 41 47 26 42 45 60 40 49 45 30 44 20 48 45 30 45 50 39 34 41 38 24 12 37 46 26 39 43 29 31 45 35 34 37 44 32 41 42 37 38 19 40 37 21 36 33 33 59 15 44 54 36 52 21 33 41 30 62 40 32 31 30 27 32 30 23 32 45 51 32 35 46 39 50 37 49 24 36 64 44 40 51 38 57 24 37 40 57 43 30 34 34 15 37 43 36 34 13 29 40 37 35 44 43 55 39 47 47 39 26 44 60 26 38 37 33 44 41 65 48 51 29 28 34 51 42 55 50 23 40 30 27 37 37 26 51 42 10 59 40 41 40 38 36 43 49 45 30 21 36 34 40 62 33 43 37 30 30 51 34 31 29 29 38 45 42 30 36 15 39 38 49 26 36 45 23 52 33 47 23 22 46 12 18 37 46 20 46 31 52 29 19 51 28 32 39 51 56 40 36 27 55 51 50 62 35 43 40 35 33 40 36 27 46 65 46 53 42 47 36 43 56 40 48 43 51 48 41 37 17 32 37 38 45 30 32 37 33 55 34 44 20 22 29 37 33 51 54 27 33 38 29 48 30 17 43 31 43 31 38 31 45 36 16 32 59 20 41 44 37 48 29 48 46 40 38 30 44 43 39 36 34 51 53 30 29 45 47 34 45 35 42 37 37 13 42 26 51 54 37 53 48 60 34 28 27 36 29 45 13 30 36 31 31 47 55 27 59 45 31 40 52 31 55 30 33 36 50 16 36 30 37 33 22 41 36 42 33 27 34 37 46 30 47 41 53 34 46 12 20 33 33 34 37 57 29 41 59 31 32 47 30 45 28 45 41 42 31 46 66 37 30 36 23 35 35 43 34 45 43 28 50 38 41 56 27 23 37 37 43 37 51 39 38 22 47 36 24 42 33 23 42 30 36 49 47 33 48 32 50 54 22 54 47 30 32 30 17 31 45 26 70 40 34 29 33 28 36 31 54 19 55 10 35 23 35 37 38 36 52 36 55 26 43 40 44 46 34 31 41 57 31 22 55 55 32 34 37 42 45 33 37 41 33 44 44 63 48 27 38 41 47 33 24 55 32 39 50 34 40 37 35 45 34 33 40 27 33 33 26 15 62 42 41 23 49 35 34 48 45 51 52 29 33 41 33 51 29 33 43 44 53 43 41 47 30 38 55 55 37 40 16 33 43 43 54 44 28 52 36 34 35 31 26 63 39 46 61 29 31 17 55 53 21 37 45 40 40 37 26 32 23 43 33 45 37 30 38 17 31 36 37 37 58 19 44 27 13 52 39 47 48 43 45 44 31 33 36 26 37 49 40 28</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>JSU(-18.318131835190528, 9.910844900349144, -54.72014885069086, 23.581898129296533)</t>
-  </si>
-  <si>
-    <t>14 17 24 8 20 30 14 10 10 13 23 15 13 3 9 41 20 21 12 6 24 14 21 20 16 41 9 23 9 20 6 20 20 21 16 17 20 31 9 17 6 27 13 22 20 13 14 17 13 23 19 29 10 14 9 19 10 17 20 15 10 25 3 21 24 14 24 13 7 10 5 27 13 28 23 17 16 14 16 27 24 26 26 17 20 20 14 34 16 19 26 24 20 34 30 12 24 31 14 10 19 7 20 20 17 20 12 17 38 14 28 16 23 19 18 24 22 24 13 12 17 28 16 10 26 11 17 27 23 15 9 23 20 23 25 38 10 24 23 29 24 37 14 20 20 27 16 17 20 27 24 3 20 6 16 10 14 31 31 9 24 20 13 27 14 13 14 21 14 31 31 34 17 17 19 6 24 16 17 20 13 19 20 16 31 13 24 24 13 20 29 12 20 10 27 16 14 27 23 27 24 20 20 18 14 7 13 16 36 20 7 20 27 15 6 31 11 30 19 21 34 6 7 24 10 30 20 20 33 18 14 19 16 21 17 24 11 20 26 10 26 48 14 6 18 30 20 16 18 13 14 10 21 24 14 24 16 11 31 10 13 27 28 23 14 10 16 13 14 15 27 11 21 16 23 6 7 30 20 28 20 24 17 31 0 19 23 16 17 21 13 10 21 25 28 13 23 23 27 28 24 28 20 21 29 6 16 17 23 27 17 13 15 20 31 6 17 20 17 29 31 10 13 22 0 24 14 24 14 22 6 19 6 30 20 18 20 31 31 7 17 30 17 21 17 10 20 16 14 20 10 15 40 6 17 17 24 6 13 28 13 24 7 14 13 14 6 13 10 20 12 24 26 18 24 18 13 17 14 13 7 25 16 27 20 17 19 24 17 15 13 18 13 10 25 27 27 20 19 24 24 21 6 17 23 6 23 27 20 13 16 16 19 17 12 31 38 17 23 12 19 31 23 10 13 16 16 21 30 20 16 3 27 24 24 22 23 31 10 30 20 14 10 13 17 14 17 24 16 31 14 7 12 21 31 29 37 14 23 10 16 20 10 20 10 44 17 30 30 16 34 37 24 20 19 6 9 20 17 27 13 19 16 9 13 21 14 10 32 14 20 21 26 34 24 20 17 38 17 23 20 17 16 10 34 17 30 24 35 10 7 20 28 13 21 23 17 7 14 23 9 24 25 16 31 17 24 38 17 17 17 19 20 16 35 6 17 20 27 10 16 17 10 16 10 13 13 16 18 3 7 17 19 17 9 15 19 17 3 19 17 27 7 24 0 22 10 13 17 38 7 17 12 17 10 14 26 6 37 15 24 20 13 20 14 10 13 13 17 14 20 52 20 20 30 9 17 17 14 29 29 16 23 14 16 30 17 16 30 35 20 9 13 17 8 23 16 7 24 7 6 30 24 38 25 15 10 21 21 27 17 20 13 14 20 7 30 10 34 9 13 26 17 17 17 15 10 14 20 20 10 19 36 13 16 23 13 24 3 20 14 16 9 10 10 24 3 13 35 7 28 10 35 17 14 20 10 31 14 27 15 19 7 24 14 20 21 26 6 21 20 23 13 24 14 26 20 17 10 10 23 18 20 23 37 3 20 11 30 17 3 16 21 17 14 17 27 13 33 24 13 7 28 13 9 24 20 24 17 10 17 19 20 27 24 7 6 33 34 24 6 23 24 14 11 17 14 10 23 24 6 20 28 24 20 10 10 7 13 17 7 21 31 20 33 17 13 23 10 13 23 20 14 9 17 20 7 16 21 20 20 7 14 14 21 10 23 28 14 17 6 25 10 15 19 38 16 17 17 17 31 33 14 22 24 10 9 16 17 10 20 0 38 24 17 17 27 13 18 17 29 31 20 12 24 24 20 13 27 16 21 19 20 20 20 20 13 13 42 20 16 20 20 13 10 20 13 17 24 21 34 20 27 30 19 24 27 23 34 27 16 27 13 10 10 12 20 23 21 20 12 31 24 20 27 34 17 16 27 22 19 14 13 16 28 17 10 21 19 41 14 22 19 23 6 28 17 10 37 13 19 20 14 13 16 24 27 27 32 7 15 34 10 31 20 13 16 7 20 10 14 28 20 23 10 24 17 13 21 10 35 2 23 13 13 20 12 19 15 21 20 20 13 21 17 21 34 31 13 8 27 21 17 26 26 15 17 27 10 3 20 35 19 9 20 33 31 16 28 26 13 34 17 12 27 10 13 12 23 13 21 12 20 19 20 16 6 10 10 15 24 34 24 10 16 27 29 16 14 27 20 17 6 10 21 13 30 20 14 19 15 14 17 26 21 14 19 22 10 25 6 38 31 24 14 10 10 24 21 13 11 16 13 21 10 20 15 20 24 20 6 13 26 19 9 34 19 17 29 13 3 13 17 10 14 14 21 10 16 28 7 13 23 12 16 23 7 24 20 21 16 24 28 7 13 16 30 22 6 26 6 16 20 9 22 20 24 24 21 14 19 14 7 13 19 20 30 11 13 17 17 12 15 21 34 17 13 24 20 17 31 10 22 23 20 17 17 17 15 10 28 10 25 31 31 9 14 20 17 24 13 26 30 27 9 23 3 18 20 22 17 21 26 23 17 28 6 23 6 17 23 12 9 10 21 27 27 7 32 20 30 33 29 10 37 11 20 24 12 10 24 14 21 30 31 24 6 18 36 23 14 20 30 16 24 16 13 24 21 6 27 24 24 19 21 19 13 21 40 30 14 20 6 23 23 28 23 10 10 20 16 21 23 17 6 17 23 17 31 9 29 27 24 12 16 6 16 23 23 9 29 27 10 20 24 16 29 16 33 31 3 20 20 15 30 20 30 13 13 23 22 17 30 16 10 24 24 7 23 17 37 13 13 6 16 20 17 21 17 31 14 20 27 17 27 26 20 13 17 19 10 31 16 23 19 10 13 28 9 22 17 21 27 14 21 9 28 16 27 15 10 37 26 9 33 24 20 19 18 28 9 24 17 7 17 20 9 17 24 17 6 17 23 40 24 18 16 20 20 20 10 7 20 16 9 10 7 0 7 27 17 17 28 25 17 17 9 19 17 12 7 20 13 22 29 16 20 38 19 38 23 3 16 12 20 12 27 31 16 13 13 14 22 26 23 9 17 20 12 21 12 10 26 16 13 24 20 10 27 35 20 14 17 28 6 16 6 10 13 10 16 17 27 20 19 34 17 9 13 22 20 10 21 10 17 6 19 22 9 23 13 45 16 14 28 27 26 18 24 16 17 12 21 28 24 22 20 13 24 27 3 23 24 24 13 18 21 10 24 20 21 10 17 21 23 24 20 19 13 20 20 28 33 17 17 20 24 6 21 17 28 25 6 33 21 13 17 12 29 17 20 27 13 35 17 10 17 33 23 26 20 23 41 7 23 24 20 20 10 27 21 13 19 12 20 15 10 15 15 22 13 27 14 6 3 23 17 16 26 41 23 13 21 23 3 20 21 23 22 10 13 20 27 26 16 13 31 13 13 0 30 20 17 27 27 21 26 16 6 16 20 16 23 13 27 30 23 4 23 20 17 28 30 20 31 28 21 16 16 17 17 13 15 13 41 13 13 20 7 3 14 16 21 17 30 16 20 30 20 27 13 24 7 24 31 20 7 13 21 21 23 20 19 12 20 30 3 23 3 28 41 13 23 30 14 17 13 22 24 30 24 14 13 9 9 18 11 17 21 23 24 30 7 19 24 13 7 23 24 17 34 24 17 7 13 3 17 21 20 15 14 14 17 31 17 21 16 27 24 9 14 17 17 16 17 17 27 21 20 3 33 10 13 10 7 30 20 10 19 30 12 14 24 19 22 21 10 21 44 22 15 14 16 12 24 13 3 21 22 16 23 16 17 17 16 31 19 24 10 38 7 17 0 13 24 17 28 35 10 17 24 19 24 13 24 16 24 27 24 23 15 17 10 25 16 28 6 21 27 13 10 9 17 38 10 8 27 14 17 20 17 34 12 19 19 26 6 27 15 24 13 23 27 24 13 24 34 10 17 6 14 21 15 17 38 17 33 10 6 19 31 0 24 17 35 17 0 13 30 16 17 23 14 10 16 3 20 12 7 0 20 17 24 13 14 17 13 17 27 10 35 10 3 10 20 27 20 24 3 19 17 3 34 24 18 15 14 21 20 23 17 6 24 14 23 30 31 10 14 26 23 17 14 26 20 26 20 17 20 33 16 14 21 9 20 34 20 26 20 34 30 31 31 6 24 10 30 30 20 9 7 14 3 24 34 17 40 28 26 16 23 20 17 15 17 20 20 13 14 24 24 16 23 24 34 17 6 10 27 17 26 10 17 24 19 26 17 13 20 10 30 16 12 21 20 16 37 20 14 14 17 20 38 21 24 26 22 17 3 19 12 18 16 14 21 21 22 34 7 30 13 18 22 14 10 24 20 13 13 19 20 20 17 24 31 16 24 16 19 3 7 26 34 9 10 17 14 9 33 27 23 17 17 19 7 6 20 15 16 6 24 19 17 12 28 21 16 24 17 13 30 41 27 27 14 33 14 22 16 10 19 10 27 28 13 7 6 19 11 7 22 18 17 28 7 16 16 14 20 23 16 21 17 17 22 21 7 11 11 13 24 27 26 13 14 22 13 21 27 22 21 35 16 16 6 3 24 27 28 6 31 24 24 25 6 14 16 17 20 7 11 21 24 21 20 10 28 12 6 27 24 3 21 23 30 17 7 14 17 24 13 34 22 13 33 14 15 10 19 22 13 24 27 44 24 15 10 26 20 20 14 16 17 17 6 10 16 22 21 15 24 17 16 0 9 20 38 24 16 17 9 17 16 17 7 6 21 18 17 16 16 33 27 9 21 10 6 14 17 21 17 27 30 35 24 13 13 10 20 16 7 10 21 16 6 14 13 7 36 24 16 21 10 23 14 16 25 30 5 9 24 24 10 24 7 24 20 29 3 24 20 29 27 21 29 37 18 10 31 10 33 16 19 16 15 13 17 6 13 17 13 12 20 17 20 20 17 12 16 28 14 24 34 27 23 9 17 17 20 8 28 19 37 40 10 22 40 13 10 22 17 10 17 23 38 19 14 24 29 17 3 10 16 3 3 24 13 34 21 16 24 7 15 14 26 24 7 16 24 45 20 16 21 42 3 14 20 10 27 24 21 16 18 13 13 31 20 15 38 20 20 17 30 22 9 28 16 20 21 26 17 24 14 24 20 21 37 17 23 2 15 11 10 20 14 23 16 26 26 19 18 3 30 13 20 12 14 31 16 10 10 20 16 21 24 17 22 20 21 20 37 15 18 16 13 19 6 13 16 41 30 6 10 20 12 20 13 16 20 24 20 5 16 21 14 17 24 6 13 20 20 52 24 7 31 10 28 14 14 24 27 21 13 27 19 7 24 17 20 30 17 17 10 24 22 27 20 22 24 23 15 14 10 20 13 10 17 31 26 10 17 14 13 23 24 15 3 24 14 14 21 30 24 13 24 13 14 24 24 22 10 27 16 20 16 13 13 20 10 41 15 9 30 28 14 40 22 27 9 19 33 21 20 20 23 17 20 26 15 22 7 22 15 13 14 22 24 13 3 20 21 20 30 23 17 24 20 14 28 20 16 20 31 14 24 41 25 20 16 30 7 17 20 16 30 21 17 10 13 15 12 38 20 30 27 31 17 16 19 19 27 0 20 15 21 25 20 6 28 7 13 28 28 30 12 45 10 22 17 13 16 10 7 20 12 29 17 21 24 13 20 18 20 20 13 17 19 16 21 31 18 10 20 20 21 31 24 31 10 6 20 6 24 14 14 23 20 0 10 13 13 21 9 30 31 10 10 18 25 16 31 14 21 16 27 17 28 24 27 3 16 18 0 3 23 16 23 15 27 13 20 27 25 14 10 28 23 34 13 14 15 18 24 20 23 5 19 23 20 30 20 30 7 17 27 24 19 17 34 14 20 21 20 16 27 20 19 22 28 13 9 34 22 20 16 31 10 27 21 10 17 24 6 24 24 20 3 20 10 13 13 26 28 13 20 14 35 24 14 13 13 24 22 13 24 20 17 21 3 6 13 35 17 20 16 24 9 7 24 21 20 17 9 19 18 10 20 33 38 16 18 27 13 30 17 7 30 36 7 13 23 23 24 19 35 16 20 13 16 13 27 23 13 16 25 24 27 21 35 30 20 25 26 17 17 27 23 21 17 13 16 6 16 20 31 22 24 16 24 24 16 20 23 13 18 6 20 31 20 13 24 15 9 21 20 17 12 12 17 13 17 13 27 9 30 17 23 13 13 16 3 15 14 0 21 14 10 13 14 27 16 33 27 16 24 13 24 20 14 21 10 3 24 24 3 7 9 20 16 21 18 28 37 31 6 23 23 17 31 21 13 20 10 19 10 27 21 13 20 21 24 17 22 11 19 20 13 17 15 27 14 27 9 6 17 13 17 7 14 27 20 14 17 14 13 26 38 23 17 17 10 17 10 13 16 16 30 7 14 21 21 24 20 3 10 23 24 19 12 9 13 31 21 10 23 11 10 6 17 17 9 13 13 13 6 28 9 24 12 24 21 17 13 3 3 13 6 31 6 24 13 31 22 23 17 24 23 19 21 20 20 17 13 17 26 9 21 23 19 28 24 24 20 10 17 24 7 24 23 14 16 23 17 19 19 26 7 9 16 17 21 24 7 14 13 23 26 6 26 17 3 7 20 23 20 10 15 31 23 3 15 13 26 21 16 10 17 13 10 40 14 20 6 13 42 23 12 41 20 21 14 16 14 13 17 21 20 31 31 22 14 20 16 13 13 13 17 3 17 21 20 10 17 14 6 19 6 13 18 29 27 24 24 16 27 10 21 18 26 17 16 14 15 18 14 26 16 17 31 17 31 12 17 33 7 20 16 10 27 22 13 24 27 6 41 10 34 14 29 9 21 13 35 17 21 38 24 35 10 13 23 17 9 16 9 22 8 30 25 14 7 9 17 13 20 34 30 17 27 17 18 9 21 26 23 26 24 14 12 10 13 9 20 14 24 30 24 20 23 31 37 20 10 33 13 22 24 26 13 10 6 16 10 22 24 16 17 34 13 21 15 24 19 23 24 23 24 9 19 34 38 10 6 8 30 3 9 13 22 23 21 10 10 27 13 13 20 9 27 14 26 3 6 16 17 21 13 41 21 24 20 24 13 17 20 13 26 17 34 10 6 10 6 17 13 19 20 28 27 7 3 23 20 17 28 17 12 23 17 14 9 21 23 31 19 24 17 16 6 24 17 14 32 20 24 14 20 21 3 22 16 10 9 17 13 9 30 24 20 20 10 9 23 31 26 10 30 24 20 13 31 7 10 18 17 15 22 28 17 24 16 20 23 30 20 13 13 11 12 23 20 31 9 16 19 23 17 13 10 22 3 24 17 13 21 26 24 24 28 17 27 12 13 24 25 23 6 3 20 21 23 7 10 20 30 0 14 16 16 24 20 33 40 19 17 20 23 16 7 14 17 24 0 24 27 10 14 24 27 16 13 11 10 17 31 24 6 19 20 23 10 16 20 24 14 12 19 21 10 10 16 20 21 21 14 15 20 17 27 17 20 18 14 18 14 17 31 18 10 30 24 19 10 16 30 16 20 27 17 32 13 15 27 24 21 19 24 14 22 9 16 26 28 19 15 11 16 23 28 27 14 10 17 24 14 6 17 3 20 22 10 19 28 21 3 14 17 21 20 13 20 14 15 10 17 17 10 24 24 27 24 13 31 6 28 12 16 16 16 17 17 24 13 13 23 17 17 16 3 15 24 13 10 30 24 6 23 21 20 30 13 23 10 20 21 20 27 16 23 14 23 3 8 23 25 16 38 23 28 0 44 17 14 13 12 3 31 10 17 27 16 20 13 3 24 10 14 31 10 9 20 6 10 10 12 20 27 3 22 6 30 16 16 28 24 29 13 13 20 22 24 10 21 20 17 25 20 17 20 35 18 23 23 14 27 13 13 3 23 6 14 20 28 29 10 7 20 16 16 14 20 22 7 22 17 6 21 37 9 10 7 20 17 13 9 24 17 10 13 21 13 20 3 34 14 17 14 7 14 35 24 9 20 23 23 13 17 17 17 17 26 20 13 37 43 33 3 20 29 10 10 24 30 22 30 9 20 21 22 26 31 27 23 8 20 17 10 20 14 13 7 16 9 7 14 12 28 10 19 28 31 34 28 25 18 26 10 24 20 17 14 6 45 10 28 24 29 14 28 9 14 17 13 27 14 16 10 20 12 17 10 9 15 17 21 10 16 24 35 9 14 20 23 28 19 14 27 20 17 7 15 34 13 6 7 14 14 37 7 9 6 3 14 19 20 27 19 14 42 20 13 9 20 14 10 0 9 17 6 22 16 10 13 7 14 9 27 13 17 14 27 27 7 14 10 31 24 16 22 27 16 31 21 27 23 16 21 12 19 17 17 31 10 21 27 9 13 12 3 13 7 3 20 33 6 20 21 9 23 10 38 20 17 27 16 20 15 40 23 9 31 24 17 15 16 13 20 20 10 20 27 13 16 35 13 37 10 18 17 10 13 14 23 20 13 20 20 17 26 24 27 18 6 19 19 10 31 30 21 30 28 21 21 9 26 9 9 23 27 16 21 10 19 18 16 20 16 24 38 12 12 24 19 21 14 16 13 15 13 20 9 17 23 20 24 16 12 21 26 23 18 20 17 21 19 24 10 24 20 10 30 13 17 10 22 17 13 26 14 17 28 16 26 16 24 28 17 23 23 16 16 23 6 31 12 24 18 28 19 21 6 3 19 17 17 41 21 17 17 24 7 13 10 37 34 7 20 24 6 41 21 14 13 16 14 10 19 23 19 17 20 14 13 13 10 24 10 31 5 34 15 6 20 24 20 23 21 13 24 23 7 23 13 20 21 17 14 14 31 31 37 21 14 10 24 14 20 17 17 23 30 12 23 17 20 23 31 10 16 20 18 17 6 13 13 26 22 20 21 20 28 24 22 20 31 27 23 21 17 21 20 6 21 14 17 20 20 30 7 20 21 10 20 17 17 10 21 27 3 25 17 18 12 10 20 15 28 24 20 28 26 21 22 18 10 21 9 16 23 22 41 26 10 6 13 10 27 33 12 21 22 25 19 13 14 20 19 27 13 10 9 27 20 20 16 23 24 23 24 20 14 20 17 24 27 11 7 20 30 0 35 14 17 23 10 26 14 28 20 28 21 17 11 28 16 27 21 13 24 17 6 24 3 10 6 27 10 20 38 20 16 14 26 14 23 19 6 16 6 20 14 24 3 31 31 28 13 31 28 10 10 10 21 12 21 21 9 17 6 14 24 23 13 20 13 16 34 19 38 23 24 19 34 20 20 10 28 27 6 9 7 23 27 21 19 0 20 10 17 0 21 23 9 21 15 10 31 6 19 24 10 17 21 7 7 13 10 10 26 35 15 23 17 24 16 13 6 17 26 23 17 14 11 20 24 13 13 14 19 13 40 8 7 16 20 20 28 24 22 14 13 10 17 13 26 0 10 14 24 20 17 23 28 13 17 10 22 17 9 14 10 16 17 24 24 10 24 27 15 20 17 10 7 28 12 19 31 21 16 19 37 20 19 16 20 14 10 21 31 20 31 24 30 15 28 27 9 31 10 25 3 26 38 28 24 30 28 26 20 30 20 27 16 6 24 9 14 6 24 34 3 20 9 20 17 28 20 21 17 19 10 15 14 27 18 26 34 24 18 20 26 13 7 13 13 20 17 31 13 24 28 13 10 33 6 19 16 23 23 17 13 34 24 13 24 31 20 21 10 17 20 20 6 24 16 30 34 20 34 21 6 13 10 13 17 20 32 10 18 13 5 34 28 20 23 20 21 21 17 25 24 10 10 16 23 17 24 17 24 28 24 17 21 10 27 27 22 10 14 24 17 30 28 19 17 13 14 27 31 27 31 27 28 9 15 3 16 17 17 21 9 20 6 17 13 7 17 17 17 29 17 20 7 12 17 17 17 19 20 30 21 14 24 28 17 7 24 14 35 12 13 17 27 21 20 27 7 16 10 24 10 34 17 19 17 31 14 10 17 7 6 7 38 9 21 3 31 24 10 14 6 16 3 20 25 26 17 23 10 17 20 13 19 10 20 24 11 10 28 20 6 20 9 23 27 6 23 7 3 23 21 13 18 17 17 15 22 7 24 31 20 20 22 21 20 16 12 24 17 17 13 24 30 12 16 6 34 34 12 14 17 21 26 17 13 27 19 23 35 10 29 12 25 23 23 20 23 20 12 24 20 13 17 30 9 35 22 6 19 20 21 23 14 13 27 29 25 17 14 23 3 14 17 20 27 24 20 0 27 17 18 30 30 17 26 9 27 14 27 27 7 20 10 20 17 26 13 26 26 3 13 14 23 6 30 19 3 14 17 27 16 10 13 17 17 22 16 16 7 27 24 19 6 16 3 20 35 6 20 7 25 24 10 21 13 23 13 30 21 20 13 21 14 30 3 15 25 9 16 27 25 30 13 6 22 9 13 10 19 13 0 23 9 16 14 30 16 24 12 17 6 9 24 7 9 30 24 13 13 9 16 21 24 10 36 17 20 10 14 25 17 27 16 31 26 6 20 11 31 35 10 7 23 17 27 28 24 26 12 9 27 7 28 10 21 27 20 3 20 10 17 17 9 27 23 16 17 21 6 15 29 17 3 3 21 16 45 7 35 6 12 23 17 21 6 22 16 24 10 7 14 31 23 14 24 20 16 24 12 17 7 17 24 17 32 9 9 28 10 17 0 7 27 20 13 10 7 24 16 28 10 9 23 24 13 10 48 20 28 26 23 24 22 19 24 17 20 27 14 21 28 26 6 21 10 21 27 7 26 27 20 41 31 14 13 23 10 17 17 9 14 24 13 13 10 16 17 7 17 17 14 14 11 13 22 14 6 3 10 23 27 17 20 17 23 34 23 13 25 16 27 17 27 13 24 26 10 17 19 34 19 17 13 12 14 9 20 14 20 23 16 10 19 29 16 7 3 25 28 23 13 16 14 16 16 13 19 27 20 16 6 41 3 21 23 30 27 6 8 17 26 12 23 13 31 31 30 21 19 12 29 23 36 27 26 14 10 10 23 14 30 27 24 40 17 24 17 38 17 22 26 27 16 10 13 20 10 7 15 20 10 28 8 18 10 23 14 23 34 17 23 35 21 24 24 3 24 13 0 30 15 31 23 14 14 20 13 17 19 17 9 17 13 26 3 30 14 0 9 38 20 27 20 12 29 17 34 24 19 13 23 19 13 30 10 17 27 22 17 21 13 12 14 19 23 37 27 16 6 24 12 13 16 31 14 27 28 24 27 20 19 10 27 17 18 18 17 23 15 14 14 7 20 3 6 29 35 24 30 13 14 20 34 17 37 14 11 13 23 20 20 0 21 22 20 23 21 17 10 24 20 7 38 15 10 28 13 7 16 18 21 13 13 24 23 23 28 26 13 9 17 19 14 26 23 23 21 23 20 15 13 10 20 19 20 31 9 17 3 26 31 20 21 17 17 21 20 31 17 27 6 29 13 10 21 19 9 24 17 13 25 10 16 10 24 21 13 7 24 24 24 0 13 16 3 23 10 10 13 23 24 24 14 23 20 21 33 24 28 3 17 21 17 6 31 13 17 23 27 21 20 14 20 21 20 24 17 19 21 16 17 27 17 22 6 20 17 24 28 12 16 10 17 34 10 26 20 24 33 34 7 10 10 21 9 20 31 19 10 24 30 6 14 15 37 19 21 17 24 10 16 25 14 9 21 15 10 10 21 24 20 13 28 13 13 21 14 16 20 18 3 3 21 10 18 16 10 20 27 17 6 13 17 21 10 10 17 10 20 10 31 29 13 13 6 20 20 26 13 26 27 17 20 31 19 24 14 10 31 26 17 16 23 17 13 21 17 14 24 26 27 27 22 34 38 34 17 22 7 23 21 15 24 3 10 21 21 20 13 24 14 22 20 29 10 13 14 17 20 14 31 14 20 27 23 20 10 19 36 23 21 17 12 17 9 17 13 16 20 27 23 20 14 20 16 16 10 17 20 16 15 9 9 34 23 30 9 20 13 12 23 19 7 3 25 7 31 6 13 12 22 21 20 9 24 17 22 10 20 17 7 11 16 10 34 31 13 17 20 21 12 26 6 19 6 13 23 29 10 13 22 27 7 16 35 17 13 17 31 14 13 27 28 17 23 19 21 20 24 14 37 13 11 31 29 18 26 24 20 15 28 23 9 10 13 13 24 17 27 6 20 14 26 23 23 12 10 17 13 10 3 9 13 16 12 20 6 31 31 13 21 31 21 3 10 16 31 20 16 7 7 24 13 23 30 9 27 24 21 34 21 29 9 10 13 28 21 13 27 19 14 27 17 10 23 10 23 14 27 7 14 21 16 16 17 10 30 10 10 6 12 15 20 44 13 16 21 16 20 31 10 21 24 16 23 27 10 20 10 34 17 17 23 21 27 13 27 16 20 20 30 17 16 6 19 28 14 25 14 31 13 27 17 20 12 9 35 24 17 9 10 13 23 37 24 23 16 34 21 6 20 35 12 13 14 30 10 15 21 30 15 16 17 10 23 17 13 6 17 21 13 16 21 20 23 16 34 21 17 20 14 16 18 3 9 21 14 17 17 27 19 13 14 27 12 7 19 23 9 27 21 24 17 26 19 20 12 20 14 13 27 20 20 28 18 20 16 14 20 31 31 17 23 27 12 7 15 14 27 23 13 19 24 17 30 31 17 14 20 6 16 34 17 15 10 35 24 27 8 31 17 24 20 7 31 10 17 23 35 16 3 14 23 14 48 38 33 20 33 9 23 25 24 22 27 19 26 7 9 10 24 6 30 0 29 21 10 17 17 14 21 17 13 10 19 17 24 17 27 9 24 22 19 14 26 9 13 27 10 17 16 16 16 24 21 18 20 30 17 13 22 20 24 26 21 17 21 14 10 23 14 28 18 23 6 13 17 20 13 38 20 31 21 16 21 24 20 18 10 17 17 20 14 7 21 23 24 13 17 14 16 27 16 15 13 15 24 27 33 24 26 3 17 27 20 7 13 21 31 10 15 16 14 37 14 6 20 16 17 17 20 6 10 31 13 27 17 20 37 10 33 7 26 16 13 16 17 33 0 16 16 16 11 37 24 20 11 26 6 13 23 31 17 13 21 25 17 17 20 31 3 19 14 17 24 17 13 13 23 24 17 30 13 34 19 21 7 13 14 23 15 27 14 20 12 23 18 17 17 25 27 30 6 3 10 24 37 13 23 24 19 10 23 10 16 17 22 41 17 24 15 17 18 21 20 19 17 16 19 16 10 26 15 3 20 14 7 9 19 24 21 15 27 30 14 16 20 15 14 17 7 13 27 19 20 10 10 21 12 20 30 6 10 17 23 24 17 17 16 31 40 16 13 10 16 10 17 20 35 6 12 14 31 10 20 24 21 15 27 28 20 19 9 23 23 31 24 29 20 14 6 10 17 14 7 14 24 23 26 16 3 3 8 20 17 13 21 16 37 13 34 10 16 17 23 17 16 10 14 23 14 34 27 31 20 17 8 13 15 10 13 24 23 13 20 20 28 17 13 17 8 14 13 10 10 27 30 10 21 3 9 15 6 32 24 17 24 34 26 21 31 13 10 13 9 22 20 15 6 28 20 13 17 17 20 17 27 27 21 24 13 14 14 7 7 6 9 28 17 20 24 13 20 28 10 16 6 17 20 24 23 20 10 34 13 34 31 16 8 20 37 7 31 27 26 7 20 13 6 23 10 27 22 14 18 10 14 13 20 21 10 16 20 20 11 27 20 10 24 16 27 31 13 13 10 28 24 34 8 27 20 31 27 26 31 21 23 16 13 16 17 11 13 17 14 35 33 0 18 13 13 17 23 16 16 16 19 13 13 16 16 9 7 10 16 12 13 13 20 9 24 13 20 22 17 13 13 20 20 13 10 47 31 28 7 17 24 20 17 14 28 12 30 13 33 23 16 19 21 13 15 20 3 22 6 24 13 14 27 23 17 24 16 23 31 12 14 24 10 27 17 17 23 17 21 9 33 0 20 20 28 30 20 13 10 13 17 23 21 13 27 28 16 24 7 31 19 19 21 21 11 17 28 12 16 3 20 13 17 21 37 24 24 3 13 17 23 16 17 17 9 27 6 20 23 19 23 27 12 16 18 13 3 9 14 6 21 13 23 21 13 16 7 24 14 13 13 18 20 30 24 10 10 14 18 3 29 3 24 16 19 16 7 6 26 3 22 12 24 7 33 6 27 13 18 22 19 11 23 31 10 17 25 3 20 34 18 6 6 14 24 20 21 13 31 16 17 16 13 24 21 23 23 17 10 24 17 10 31 23 23 27 13 17 6 14 17 24 25 21 30 25 16 27 10 13 16 10 17 14 13 6 19 24 13 24 17 24 18 13 14 25 24 24 37 35 17 17 23 19 23 22 17 12 10 21 20 7 30 14 30 23 24 0 9 17 27 17 21 20 10 19 8 16 20 12 20 19 17 10 22 21 22 13 16 17 35 20 10 24 17 20 22 13 6 34 23 16 21 9 23 0 21 16 13 19 9 27 3 24 24 9 31 17 32 24 20 21 13 13 21 31 31 10 14 30 29 21 21 13 24 24 23 22 28 7 18 38 14 13 17 17 21 16 13 26 24 7 10 10 13 24 21 9 27 6 30 24 23 20 20 6 3 13 0 21 24 26 28 3 14 17 17 10 27 23 24 20 23 28 26 7 38 14 31 27 13 20 17 24 16 37 13 18 13 24 16 21 29 23 13 31 13 20 17 15 13 10 27 13 23 17 10 3 17 16 30 13 38 17 13 26 16 14 28 20 23 28 17 3 18 34 22 14 0 27 19 13 17 27 14 13 24 24 10 20 17 31 24 11 13 23 34 34 30 5 31 30 17 28 3 19 16 6 21 23 14 27 14 20 16 20 17 29 24 24 10 17 24 18 6 21 24 14 20 28 20 27 24 0 24 11 24 31 6 24 20 7 37 20 13 21 20 10 11 17 16 32 17 25 20 23 25 16 24 14 31 27 29 7 7 27 9 3 23 27 13 23 24 30 17 26 7 15 27 17 17 13 13 6 34 22 16 27 21 23 33 41 22 24 40 24 18 13 15 30 21 17 15 16 17 17 25 30 21 14 14 31 27 28 20 20 20 3 27 26 18 20 6 10 13 15 7 17 17 10 20 39 3 28 19 17 10 16 10 13 23 10 33 24 24 10 23 3 17 31 20 11 10 34 13 44 7 21 16 14 27 6 14 28 28 30 23 22 16 0 20 6 13 16 31 21 20 13 21 18 14 0 10 10 17 16 23 15 19 21 10 20 16 19 21 31 19 27 17 17 24 24 34 23 25 19 26 14 17 24 7 24 17 21 17 21 19 16 7 21 20 14 16 9 15 20 20 17 32 7 27 17 23 26 3 17 17 6 31 19 7 3 24 15 9 27 23 17 17 23 24 23 23 20 23 31 10 6 13 15 17 19 14 28 10 27 23 9 13 16 35 30 24 27 27 13 21 24 19 27 22 30 22 19 24 24 13 7 12 21 21 10 19 15 9 21 17 13 13 14 20 13 17 13 14 10 21 3 32 6 27 7 13 7 13 17 31 10 17 17 10 10 33 10 3 20 20 16 20 20 10 13 27 33 20 24 15 16 16 18 10 30 20 10 17 17 16 24 27 6 6 10 10 17 24 17 27 17 6 27 23 14 20 16 29 16 35 24 15 10 23 14 17 23 20 22 24 20 16 3 19 10 9 31 10 17 20 20 13 27 15 17 17 10 34 3 12 27 7 16 23 10 24 10 10 7 27 23 34 27 27 19 35 21 14 24 21 13 22 35 19 21 28 13 15 27 16 41 12 9 13 20 26 24 10 10 7 24 14 17 10 24 39 25 23 20 24 24 17 13 13 28 28 7 20 13 16 13 20 13 10 34 23 23 0 35 29 17 7 10 31 18 9 9 19 16 24 10 20 23 13 6 20 13 24 13 33 16 13 23 13 34 34 16 14 19 13 23 13 24 26 31 10 20 20 27 24 9 20 17 16 18 24 9 17 14 24 7 20 10 9 30 0 13 20 14 16 20 24 10 13 16 34 27 29 20 23 28 30 3 17 23 0 3 9 24 10 26 19 28 21 27 23 10 17 24 19 23 15 23 19 14 27 15 30 14 9 26 26 20 17 31 16 17 10 17 20 17 20 16 27 24 14 27 24 17 9 13 26 28 12 22 17 17 10 3 21 10 33 9 20 17 10 13 20 24 17 27 20 14 20 23 27 3 24 16 24 35 10 23 19 14 44 35 31 44 20 27 33 9 38 30 12 13 33 16 14 12 24 16 29 27 23 27 33 19 10 26 9 20 27 15 9 31 24 9 21 11 20 10 23 21 13 24 13 20 9 23 20 12 15 18 20 15 20 23 22 20 28 3 16 17 20 17 17 17 16 42 21 10 13 27 16 22 24 20 26 26 6 27 10 10 24 6 17 21 16 17 24 7 21 27 6 31 20 24 19 30 20 14 13 31 17 19 17 17 10 20 23 20 30 27 12 20 24 26 20 0 13 31 27 21 28 20 20 10 19 16 20 28 23 6 19 20 13 27 16 20 18 31 20 20 17 10 21 20 3 13 3 20 30 23 28 17 16 35 7 26 10 13 31 26 20 21 7 29 14 9 20 13 15 20 25 30 20 28 26 24 20 23 21 34 9 12 30 10 9 30 20 10 22 20 14 25 10 41 13 25 24 17 17 9 29 20 9 21 17 23 17 21 17 20 9 16 6 9 22 21 17 23 22 20 17 13 10 24 20 10 24 14 23 27 15 14 18 24 33 7 24 17 27 13 10 10 7 30 13 20 19 31 17 17 16 27 37 21 17 20 10 17 19 13 33 33 7 20 12 10 9 44 6 24 18 8 41 13 24 10 10 16 13 16 20 22 24 20 26 20 23 8 3 30 20 27 28 24 13 26 26 21 13 16 10 24 17 7 6 14 24 22 13 12 12 28 23 26 3 10 9 20 17 45 13 20 11 31 15 12 27 14 23 19 38 13 24 23 40 19 10 17 10 6 19 14 27 16 23 18 20 6 27 9 23 28 21 20 21 23 10 14 3 13 32 38 9 10 13 25 24 24 19 21 27 10 24 16 17 18 26 17 17 19 19 33 23 16 33 30 7 29 23 22 13 33 20 21 40 14 19 14 21 22 20 34 7 14 20 20 13 22 28 14 16 16 23 23 21 3 10 10 26 19 12 7 10 26 20 9 22 24 24 31 17 16 24 23 24 24 20 34 37 16 30 21 23 12 28 6 6 16 7 17 17 27 16 3 15 9 10 24 18 9 23 17 16 23 14 0 20 13 13 12 24 13 19 7 0 10 12 13 21 16 16 20 12 27 28 31 20 31 27 17 10 14 17 7 20 3 6 34 3 17 10 7 24 13 30 17 17 27 6 15 17 14 20 16 18 10 7 31 17 13 17 31 17 24 10 7 13 12 29 17 17 35 21 20 27 6 14 10 19 13 7 24 24 20 19 0 9 17 20 26 20 21 10 17 14 10 7 22 12 18 24 6 27 19 24 30 16 13 10 17 27 20 20 26 27 14 20 17 15 13 17 11 13 23 20 10 27 21 23 16 27 23 13 20 21 27 23 23 42 11 14 31 17 24 16 19 21 27 24 9 24 27 17 15 13 9 18 17 10 10 14 21 12 15 17 10 13 22 19 30 24 14 22 20 17 12 12 27 10 25 23 21 7 31 18 12 17 13 24 14 15 26 25 23 27 27 9 28 13 13 19 20 23 26 17 24 13 13 31 27 31 21 13 21 14 23 10 16 29 23 20 17 23 16 17 26 6 38 21 16 40 6 16 20 14 20 20 26 28 14 10 22 20 20 13 17 34 38 16 14 13 30 10 13 10 24 33 6 17 21 23 20 15 12 10 7 24 38 16 16 17 0 19 17 10 20 14 20 17 11 23 24 13 24 13 19 23 29 14 26 17 15 14 7 24 21 14 11 16 27 13 10 16 14 17 24 27 17 13 20 17 3 7 0 10 23 21 16 21 14 17 24 31 31 27 24 27 21 23 7 16 27 16 24 16 20 20 38 12 17 20 20 21 13 7 14 34 40 28 21 27 28 17 9 13 13 13 27 40 23 17 3 20 14 24 23 24 23 24 3 0 12 44 19 23 24 6 14 17 19 31 29 14 10 23 6 7 30 27 15 24 13 12 10 17 10 9 26 32 20 16 20 20 23 10 3 21 9 21 15 21 24 17 23 24 9 17 17 17 17 37 10 10 20 17 16 34 3 24 16 17 24 23 16 16 6 28 9 31 24 13 7 23 26 24 30 33 27 17 20 16 27 23 18 28 9 3 7 27 17 31 6 20 27 34 16 30 14 20 27 10 24 20 22 17 20 11 31 14 10 23 21 11 3 16 24 24 17 24 31 30 10 17 20 28 15 23 22 21 16 27 21 23 12 27 23 27 17 9 14 21 17 27 31 13 16 6 13 26 16 30 10 26 22 31 13 10 31 21 19 24 10 28 16 26 3 31 14 7 23 20 31 13 14 33 10 14 23 17 13 16 14 20 10 23 16 10 34 21 25 17 17 19 10 19 24 13 13 28 12 34 20 21 17 23 3 13 26 13 27 20 20 15 24 20 0 10 20 20 30 17 6 6 22 30 28 19 17 26 6 26 13 24 24 34 20 20 13 20 13 17 24 10 6 7 20 20 20 17 6 35 29 24 24 26 35 19 27 13 23 19 23 21 17 23 20 21 34 28 26 16 31 9 6 23 9 19 23 27 10 16 31 17 24 16 7 10 16 21 17 26 14 10 23 17 15 20 24 9 19 20 31 15 14 20 28 10 9 17 3 37 17 16 34 10 0 15 23 31 15 20 16 10 9 27 14 14 31 23 28 20 19 14 6 24 6 16 16 10 31 23 12 26 13 7 17 17 30 30 31 16 0 17 22 20 9 17 24 16 23 19 17 21 13 6 16 24 21 31 10 12 14 16 20 28 13 10 22 22 13 25 11 17 21 7 24 3 9 6 23 26 14 13 27 6 22 27 22 21 17 14 22 10 20 11 19 20 15 17 20 27 20 10 20 17 41 15 25 24 8 24 19 7 3 20 17 21 28 17 14 21 8 28 16 23 22 30 21 27 24 16 17 23 35 26 23 10 9 31 23 10 6 33 17 26 23 23 12 10 20 24 6 31 17 10 19 34 19 19 30 22 10 35 3 19 27 14 17 28 13 28 12 28 23 24 10 21 16 6 17 24 27 16 26 9 20 16 30 23 9 3 27 26 13 17 16 14 20 19 20 12 15 30 20 3 26 26 24 3 31 11 23 23 25 24 9 13 24 3 20 21 14 16 18 13 7 25 7 31 10 21 23 20 27 23 23 31 21 28 24 13 14 17 31 21 34 31 10 17 28 17 31 21 20 28 23 37 6 23 28 14 28 9 12 12 0 21 24 3 24 24 16 17 20 23 23 10 19 19 13 17 24 16 14 17 10 10 18 17 17 14 7 27 6 7 20 0 27 13 16 7 13 27 20 17 24 13 6 10 10 22 26 13 27 14 13 30 14 17 19 9 18 24 6 24 30 24 23 17 6 12 15 8 23 10 27 15 28 24 34 24 22 31 23 20 10 17 10 21 42 23 7 24 19 37 24 27 12 38 20 17 20 21 17 9 16 19 28 14 14 14 20 26 14 20 27 14 13 21 27 17 21 10 7 17 24 21 17 19 13 9 17 16 3 10 21 16 29 24 22 16 17 17 30 21 14 10 17 13 21 33 7 19 20 38 16 34 16 10 7 24 16 15 20 13 27 25 19 14 16 20 20 14 17 13 19 20 28 24 10 13 23 20 17 18 31 16 24 26 16 7 20 23 22 14 14 17 10 6 13 14 3 17 19 21 17 13 17 23 16 20 35 26 19 22 13 13 7 25 14 12 25 20 6 13 24 19 23 20 16 9 26 24 11 16 13 26 20 16 3 3 0 21 13 17 29 21 17 7 13 19 20 21 14 18 24 11 10 13 10 24 30 14 17 31 19 20 31 17 24 9 14 33 16 3 27 3 16 20 31 17 15 7 12 3 23 23 17 17 27 21 19 27 20 24 37 16 17 10 10 16 21 34 17 17 17 30 26 24 13 28 27 27 17 24 28 16 17 23 20 13 27 21 19 20 21 9 16 21 17 19 24 13 23 29 31 7 20 24 10 6 20 27 24 13 6 21 17 27 7 14 20 22 21 30 35 0 7 3 35 17 20 28 23 19 31 12 16 10 17 24 14 21 24 31 30 20 24 16 16 15 28 25 7 20 28 26 22 24 6 20 11 16 13 14 16 15 10 17 13 16 27 24 26 30 24 30 9 27 31 10 10 21 17 0 12 20 16 10 15 17 24 20 21 8 10 14 16 10 13 20 21 22 31 28 20 17 21 23 19 3 10 16 24 9 31 17 10 26 10 21 27 17 7 20 7 12 11 30 24 7 23 17 26 26 20 13 8 16 13 7 35 10 24 27 23 20 18 16 20 31 13 16 23 31 20 41 14 6 19 12 24 16 10 24 16 27 24 20 17 17 24 31 17 20 11 38 33 11 3 19 38 17 20 9 20 20 16 14 17 14 21 24 23 23 27 27 17 17 18 17 16 31 25 16 16 9 16 17 31 20 33 16 20 27 23 14 10 13 13 16 28 20 17 24 31 26 21 25 17 27 15 9 31 28 28 12 14 13 20 16 12 30 3 24 12 20 24 24 21 21 10 13 21 5 27 23 31 20 20 13 13 20 20 19 27 16 30 28 21 9 17 34 24 10 14 24 10 20 9 13 16 16 16 17 17 10 6 6 14 3 30 21 13 17 33 6 17 12 0 13 12 21 27 14 6 16 27 27 17 24 17 10 28 17 17 6 13 18 27 17 14 16 18 20 19 17 44 24 31 14 23 24 16 6 27 21 37 13 20 10 28 17 41 17 23 12 14 24 7 17 28 21 7 24 17 24 27 12 24 20 3 19 12 17 10 30 10 11 22 23 19 13 22 13 20 17 11 31 17 13 17 20 20 24 31 20 21 23 6 6 31 15 7 10 13 27 16 23 24 33 19 18 30 3 9 24 20 19 13 34 20 6 14 23 7 16 17 9 13 10 16 23 34 11 13 36 17 10 31 20 20 7 12 6 17 9 17 0 15 14 20 13 12 24 17 20 33 20 16 16 42 27 23 23 17 14 24 20 14 16 10 34 31 23 27 21 31 14 22 27 14 20 21 27 17 30 21 17 13 19 23 20 20 23 28 20 21 13 21 12 20 24 20 26 20 16 24 7 14 22 13 28 6 34 24 23 10 26 14 14 20 20 22 6 7 16 3 16 21 9 27 24 6 24 21 29 21 13 22 10 20 19 22 28 27 16 20 16 38 19 3 18 20 16 7 21 13 13 27 16 18 9 23 17 17 26 24 28 6 30 10 11 21 12 14 34 24 3 21 27 16 14 12 34 20 7 19 13 37 24 13 10 16 20 20 24 17 20 19 22 34 3 24 20 24 3 17 35 10 17 19 41 16 24 21 18 17 20 14 15 13 20 17 30 23 9 20 17 24 9 20 10 21 13 20 10 24 9 24 10 42 17 16 21 19 23 20 23 20 23 19 23 21 17 14 13 8 24 16 19 22 17 16 23 17 21 42 13 21 10 31 21 23 28 24 10 29 30 23 27 16 21 24 6 12 30 14 23 10 28 13 17 13 20 31 23 27 10 16 29 17 22 24 7 23 30 16 27 30 18 20 19 13 10 17 19 27 20 10 17 6 24 17 13 14 24 13 17 17 24 16 24 13 20 16 14 24 15 17 6 13 41 19 8 19 9 23 38 8 3 10 31 20 16 23 21 25 27 24 9 20 13 7 24 18 12 27 3 23 14 21 25 27 20 13 27 29 3 20 22 23 14 10 41 24 30 17 21 28 17 13 17 14 26 7 30 27 20 9 17 20 9 9 21 28 24 13 16 10 10 14 17 31 16 14 17 31 10 13 10 27 20 24 9 17 34 21 10 33 22 13 14 23 20 24 13 9 34 20 10 15 20 14 21 30 23 23 18 20 17 13 10 27 24 22 35 24 12 18 23 17 0 22 12 13 19 24 14 10 16 23 28 10 26 19 24 37 9 20 32 20 12 3 22 34 20 27 13 17 24 17 14 17 20 23 31 16 20 17 17 19 35 27 19 30 26 31 16 20 19 22 20 41 9 27 28 17 28 17 34 24 7 13 34 11 17 10 21 27 23 3 16 17 28 22 20 19 24 19 9 24 30 22 33 3 18 19 41 14 17 21 23 11 23 26 24 24 7 18 10 10 17 10 10 24 6 24 17 21 28 17 17 31 17 12 17 20 10 20 19 13 19 23 10 27 7 17 17 13 13 15 24 20 21 20 31 13 14 13 14 14 10 7 26 17 13 33 14 21 16 37 24 14 14 19 14 14 13 26 11 13 6 10 28 13 31 17 21 20 10 7 17 0 13 16 16 28 0 13 16 14 12 17 6 23 32 17 23 21 10 21 20 6 7 26 23 23 16 17 42 20 12 21 23 10 20 10 17 35 22 13</t>
-  </si>
-  <si>
-    <t>N(21.808, 4.292451048061002)</t>
-  </si>
-  <si>
-    <t>27 19 24 29 22 23 22 14 21 16 20 25 21 19 19 24 26 18 22 27 21 21 22 17 26 24 14 12 21 26 17 20 24 19 22 21 19 25 19 24 16 23 20 16 21 23 14 12 21 21 18 19 26 24 16 25 21 23 21 18 23 29 20 19 28 18 19 20 19 18 22 23 23 29 19 27 26 20 20 23 29 21 31 17 25 22 19 30 27 15 31 24 19 24 14 13 22 25 13 17 26 18 18 24 15 19 20 20 20 30 14 15 24 21 21 30 26 15 19 21 21 24 23 17 19 20 25 26 29 22 13 22 21 21 15 26 13 25 26 21 12 29 20 22 17 21 25 25 24 26 22 17 24 28 21 20 28 20 17 18 27 23 15 23 20 23 18 21 15 21 28 31 17 19 17 19 25 28 25 18 22 31 20 22 27 28 25 20 24 20 27 20 19 17 24 19 20 25 21 26 20 17 19 22 16 28 24 28 31 24 23 19 23 19 12 24 22 28 30 24 23 20 30 19 28 22 13 21 27 26 20 18 21 18 20 25 26 25 26 19 27 33 26 19 26 18 21 19 28 16 24 19 18 23 18 22 27 15 20 15 33 25 17 17 12 15 19 17 21 15 21 21 17 18 23 18 15 23 22 18 22 21 20 24 14 21 19 25 15 29 28 26 24 22 27 18 22 23 21 27 20 23 20 18 24 14 32 20 28 16 22 21 21 21 22 25 26 22 20 27 24 13 30 28 17 22 30 24 20 14 17 29 18 23 21 21 12 19 17 29 20 29 19 22 25 13 14 23 21 20 20 20 35 22 22 23 21 15 19 21 26 27 17 17 20 15 18 24 17 15 23 22 20 22 15 15 15 27 25 23 23 24 29 27 20 19 15 15 21 23 24 27 15 20 21 18 27 15 20 21 28 22 23 19 22 24 24 21 24 26 17 25 20 16 22 26 30 26 21 27 25 26 18 17 22 27 19 23 23 20 24 19 25 20 18 23 25 25 17 25 11 22 20 17 21 18 19 19 24 21 20 16 23 29 25 23 24 19 25 28 30 19 20 24 20 30 19 21 22 19 31 26 26 17 26 28 14 25 24 31 27 25 22 20 22 17 24 18 26 25 20 20 21 24 16 19 29 31 24 20 21 22 25 21 29 30 21 18 29 20 18 19 29 17 24 14 29 23 17 24 27 18 25 23 21 18 21 26 13 24 24 15 21 27 21 27 17 23 26 23 23 18 22 17 25 23 13 28 19 18 20 18 20 23 30 20 31 27 21 16 17 22 15 17 24 19 19 20 30 22 24 13 17 20 19 30 21 27 23 29 14 20 23 25 21 23 15 16 22 22 14 28 23 22 28 28 22 22 24 27 14 20 26 18 24 24 24 21 23 24 21 26 20 25 23 23 17 30 21 22 14 23 27 26 25 23 15 20 21 30 24 24 19 28 16 11 23 22 28 22 28 20 24 27 31 22 29 23 25 17 18 23 24 20 24 22 21 20 15 24 21 19 18 19 31 23 19 19 22 20 22 20 26 19 30 24 18 20 21 24 30 20 15 24 19 24 16 19 12 27 21 19 22 25 24 23 19 18 20 20 18 24 20 25 27 24 20 24 26 21 22 17 23 14 24 24 23 22 25 25 12 25 28 22 22 28 21 27 23 19 22 22 19 23 24 25 23 22 33 21 24 21 26 20 22 15 12 18 31 32 20 13 26 22 25 28 23 20 23 18 23 19 29 23 23 20 23 25 23 23 26 17 21 21 23 16 25 20 19 26 25 21 20 27 34 18 19 23 21 25 22 29 10 24 19 21 11 18 17 20 25 33 21 18 14 14 31 24 13 15 26 20 28 24 22 21 20 23 33 27 28 20 28 18 26 20 19 24 25 20 17 23 26 26 24 23 21 25 32 23 21 22 23 19 18 27 13 29 27 16 16 20 22 24 27 22 21 27 19 28 16 21 26 28 18 26 17 21 28 16 14 34 17 20 20 30 16 26 20 16 26 19 24 21 24 18 19 22 16 20 16 23 15 23 19 23 21 17 30 26 21 18 37 19 33 23 20 25 30 15 19 24 21 35 27 19 16 16 22 17 23 24 27 21 17 18 18 22 26 24 20 19 32 24 22 22 19 22 23 22 17 18 16 12 37 21 21 23 24 21 26 19 22 24 27 21 21 20 23 22 15 21 23 26 24 23 22 22 23 22 19 28 19 19 20 16 18 17 20 21 21 20 24 22 25 22 17 23 15 14 21 31 21 14 23 25 24 26 18 26 22 24 23 19 15 16 23 29 24 18 22 18 21 25 18 16 21 24 25 25 20 34 22 17 17 18 20 20 19 23 19 23 22 27 14 25 23 21 21 28 26 20 24 18 22 24 15 16 27 22 14 20 22 21 24 26 18 25 30 18 16 19 20 26 18 20 27 25 22 28 19 26 21 15 18 21 24 20 14 24 21 19 22 24 26 19 22 26 24 21 33 22 16 23 24 17 25 21 29 14 23 12 17 24 28 18 23 18 17 21 22 28 19 27 27 24 23 19 27 21 20 15 27 30 24 24 22 30 16 21 20 27 22 24 31 24 13 20 18 25 20 18 22 26 14 26 24 36 25 24 27 32 23 22 26 27 23 20 24 21 19 20 27 17 28 25 21 25 26 18 22 24 18 24 26 15 21 34 26 20 20 28 19 20 13 17 24 16 27 22 26 22 23 26 21 28 21 22 21 27 27 18 21 22 21 19 24 24 22 20 17 28 22 28 15 18 20 20 24 14 27 23 21 22 19 14 27 24 20 24 15 26 20 26 26 24 20 15 26 23 22 20 17 28 23 22 25 21 24 27 19 21 26 22 21 20 22 24 14 23 27 14 25 20 27 18 26 23 25 26 21 27 23 22 22 26 17 17 19 20 18 19 23 18 24 18 23 19 16 22 26 24 27 20 19 25 20 22 25 15 13 27 22 15 22 22 14 22 24 19 18 18 16 17 21 25 15 16 24 25 18 24 18 26 20 21 26 22 18 20 24 22 18 18 20 16 26 16 17 19 19 18 18 15 21 23 21 17 24 21 24 18 17 22 25 23 19 25 15 27 22 25 16 26 18 23 16 30 25 14 19 24 16 20 18 29 20 23 20 21 18 17 25 32 14 22 21 23 19 28 24 21 27 23 14 25 27 21 16 31 19 15 22 28 21 26 23 26 26 22 27 30 17 21 17 25 19 24 18 27 23 21 16 14 17 25 18 32 27 26 23 20 15 17 22 23 27 18 28 29 16 22 22 14 20 29 17 22 20 20 22 24 21 31 26 21 24 17 21 23 13 24 24 18 25 18 20 17 30 24 23 21 19 27 26 19 17 14 22 18 24 21 28 24 17 19 22 28 24 20 20 24 30 21 28 24 22 24 19 22 19 22 27 27 24 22 18 13 25 20 21 24 14 14 17 26 25 18 25 34 26 21 30 21 19 21 23 24 18 20 24 15 30 27 20 19 25 16 24 22 25 21 21 26 20 17 22 16 18 25 26 19 29 18 24 25 17 14 30 20 20 20 16 17 20 30 19 25 14 23 23 25 21 14 25 25 23 23 23 29 21 19 14 19 18 34 19 26 17 19 18 27 13 16 17 22 20 18 29 22 23 29 17 21 16 25 22 18 20 20 25 18 20 16 26 20 20 25 27 21 23 23 20 20 13 25 27 18 20 27 24 21 19 17 20 20 24 25 28 21 19 21 28 21 26 16 20 24 22 18 22 24 31 28 29 27 25 23 29 20 24 16 15 24 26 21 24 30 24 23 28 21 25 25 25 19 26 27 28 27 23 15 30 21 14 25 21 28 30 31 31 24 27 23 25 24 23 20 22 22 30 24 22 26 31 28 27 26 16 22 25 23 23 22 20 14 28 24 25 22 21 19 32 19 23 23 30 27 23 35 15 20 17 26 14 31 21 18 22 22 24 26 21 27 23 27 29 38 17 21 21 27 14 28 23 23 28 24 24 17 28 18 19 22 20 15 20 16 20 23 22 19 26 24 26 21 25 15 22 22 19 20 25 26 28 28 22 21 16 18 19 24 23 20 24 16 19 19 21 26 22 25 27 17 19 23 22 24 21 16 17 22 22 23 21 19 21 23 25 23 20 16 16 21 14 27 19 24 21 11 21 24 22 15 21 27 27 26 22 22 23 16 18 22 26 26 22 24 22 21 20 24 21 16 20 29 19 18 22 31 23 22 28 20 20 18 28 26 16 15 17 18 16 30 17 18 29 25 21 19 29 19 18 26 19 21 23 13 20 22 28 19 25 23 17 28 23 23 29 18 19 26 21 20 31 26 20 18 21 21 22 20 19 20 23 25 26 26 18 23 21 27 31 20 18 27 26 22 23 22 17 26 19 19 25 31 20 27 21 19 19 26 28 26 23 18 22 18 17 22 21 19 20 25 26 23 23 23 15 16 14 23 16 30 21 25 25 27 23 22 28 19 32 28 25 18 19 21 25 22 23 21 25 20 18 25 22 21 23 16 31 23 26 24 22 25 23 26 25 19 18 25 31 23 24 23 13 23 22 8 19 29 17 20 19 18 19 24 21 23 19 19 16 23 28 23 25 22 31 21 20 20 23 25 22 23 17 24 22 25 14 30 11 28 17 19 22 25 23 23 19 20 24 23 15 25 20 28 20 18 22 20 27 19 30 17 25 25 22 20 20 15 18 23 24 13 27 17 19 23 27 21 25 24 29 28 25 23 17 17 20 18 19 23 21 20 24 17 29 21 16 20 21 19 28 22 18 28 22 23 23 22 21 18 20 24 25 35 21 25 26 25 18 19 26 23 22 21 17 21 29 18 23 16 29 19 19 19 19 24 16 25 22 19 27 21 22 18 18 13 13 19 20 20 29 21 24 24 31 19 26 20 20 30 21 22 18 21 28 25 21 21 17 21 29 31 20 20 22 17 20 26 25 21 16 36 21 19 26 15 33 21 23 17 24 20 17 19 18 25 24 22 28 23 24 18 30 28 19 22 29 23 23 23 20 23 23 26 28 18 26 21 23 28 17 16 20 19 19 19 22 23 20 17 27 24 21 21 23 11 23 23 24 23 11 18 20 24 23 23 25 27 16 22 22 24 21 22 24 26 23 20 20 32 24 27 17 22 23 22 19 20 17 19 22 25 19 11 22 18 23 14 30 20 17 31 22 17 27 21 13 17 23 22 19 19 27 25 25 19 27 13 20 23 27 24 29 29 22 26 18 20 30 18 23 22 24 22 21 20 18 18 26 12 24 18 16 19 25 23 26 20 23 23 23 23 13 19 18 22 17 23 17 22 18 21 25 28 20 21 17 26 13 19 17 27 14 26 18 18 25 21 21 18 23 23 24 27 25 19 23 26 16 21 22 23 24 19 25 32 21 23 28 24 25 26 26 23 18 30 19 27 17 21 28 14 19 31 22 15 21 22 19 26 24 20 21 20 14 15 28 26 25 13 27 18 20 19 21 12 18 20 14 23 21 19 20 27 27 22 20 20 21 20 25 36 24 27 20 29 27 23 20 24 16 26 19 24 22 23 23 22 21 22 15 25 19 16 30 16 24 24 24 21 18 21 20 16 22 18 20 22 23 24 17 30 26 21 31 24 18 19 17 21 25 20 17 18 20 24 15 23 22 23 24 24 28 17 29 23 24 27 22 29 21 18 18 27 33 22 22 22 27 23 24 26 17 23 22 22 20 27 23 21 18 25 19 17 26 21 22 15 17 21 16 27 17 25 14 21 23 18 24 21 16 20 21 25 23 21 19 13 24 26 22 18 17 17 22 21 23 27 23 25 25 19 14 22 20 26 26 16 23 24 25 28 28 24 17 20 12 15 14 28 21 17 20 28 23 25 23 26 26 24 19 25 27 37 22 17 21 26 25 20 29 22 23 20 25 23 27 26 16 15 24 30 22 23 25 23 18 19 21 15 29 16 35 18 18 23 20 17 28 23 28 19 22 29 22 24 13 23 17 32 19 19 18 20 23 20 22 22 23 25 27 23 29 26 26 19 18 22 23 16 20 19 22 24 18 25 29 15 20 28 27 23 18 22 17 26 30 24 18 19 21 22 17 34 26 25 32 21 14 25 18 28 28 28 20 17 27 21 23 25 22 27 23 12 26 22 25 18 24 23 19 26 27 19 21 21 28 26 18 15 29 20 23 27 20 18 27 22 23 24 25 20 28 23 23 25 23 21 12 17 21 16 15 30 18 13 26 16 21 20 19 26 26 29 23 14 18 21 26 18 23 30 16 27 25 21 27 25 28 23 18 15 26 24 24 27 23 30 21 16 25 21 24 25 22 22 17 17 19 18 20 20 15 21 24 25 22 29 19 22 23 22 19 17 26 23 25 20 20 19 20 27 25 24 24 21 11 15 19 21 19 28 22 18 25 17 19 32 21 19 24 24 21 22 17 32 17 17 18 30 16 24 30 25 19 21 16 22 19 31 31 29 21 22 23 22 26 25 26 16 23 25 23 18 24 22 23 28 27 20 17 27 17 20 16 19 10 22 16 24 24 19 16 19 25 31 24 18 19 10 24 20 19 24 15 24 17 23 24 28 16 23 18 20 18 17 22 23 21 20 15 18 32 23 17 23 18 22 18 19 18 23 20 23 25 13 25 19 19 28 17 23 18 29 26 14 23 19 21 25 26 24 18 23 19 21 17 19 18 21 19 17 19 27 21 22 25 17 21 22 26 20 23 19 18 23 24 24 23 23 30 21 18 28 17 22 16 16 18 28 22 23 27 28 29 31 23 20 17 30 19 23 27 20 20 23 26 25 25 23 19 21 24 20 15 26 27 19 20 20 21 14 27 20 24 25 18 21 13 21 18 24 21 21 23 19 22 23 18 23 21 28 26 24 29 21 23 15 24 16 37 25 22 18 32 22 24 26 16 19 28 28 28 25 22 32 18 18 20 19 22 25 21 18 27 24 18 22 35 16 23 27 29 22 20 18 21 24 13 19 26 21 31 24 23 22 26 24 21 18 19 27 27 18 23 24 23 13 16 25 20 30 24 24 31 23 21 26 19 26 25 16 24 28 20 20 17 18 25 25 20 20 19 20 19 18 26 22 18 24 25 18 18 23 17 20 23 13 18 22 20 21 24 19 21 17 26 17 13 26 20 19 17 28 18 23 24 25 28 22 14 21 27 24 21 20 28 17 20 19 24 22 24 20 24 13 14 24 15 16 14 16 27 22 22 17 20 18 20 31 26 21 26 32 19 25 25 14 32 19 17 27 21 21 21 20 23 19 25 18 25 20 24 24 19 17 15 22 28 26 27 16 23 27 25 30 24 22 23 19 22 23 22 20 24 25 16 30 25 17 19 18 26 20 16 20 21 27 19 18 30 25 19 26 17 26 26 19 25 16 29 33 22 18 18 22 24 19 22 24 27 20 25 22 29 23 27 19 13 29 35 15 12 17 14 20 23 32 33 22 14 17 22 25 22 23 16 16 12 22 24 29 23 25 19 23 23 17 23 22 18 16 24 21 17 21 10 24 32 25 21 20 29 25 25 17 22 24 23 18 25 20 27 27 28 34 25 26 16 18 23 23 22 16 28 23 26 18 18 23 20 25 25 24 19 20 23 21 20 18 22 20 22 20 24 23 19 22 24 21 18 18 16 20 27 24 23 27 29 23 13 17 24 24 31 25 21 24 31 18 27 15 27 16 25 24 20 25 22 24 12 20 19 21 18 17 22 23 32 25 26 22 33 25 19 11 21 20 20 26 22 15 27 23 23 25 23 23 21 19 21 20 17 21 19 28 14 25 15 33 21 18 18 26 19 26 19 15 22 24 15 16 26 23 25 19 26 23 21 20 27 12 27 12 28 26 23 26 17 23 27 23 26 32 23 14 27 16 21 25 21 18 17 15 20 21 18 15 22 21 15 17 23 17 20 23 19 21 20 16 26 21 21 22 18 22 26 17 17 25 23 21 23 21 18 20 24 22 32 30 27 23 30 17 16 24 29 20 13 19 19 23 26 22 26 27 13 32 30 22 21 30 18 20 22 22 21 20 23 24 26 22 23 18 26 18 23 19 22 24 20 21 18 23 28 25 23 25 30 28 23 15 24 23 18 25 16 19 27 20 29 21 23 23 24 21 26 29 27 22 17 21 23 26 19 15 21 19 18 17 28 19 25 15 23 17 25 22 25 30 25 27 22 26 13 31 22 22 31 23 20 27 22 29 19 20 24 21 26 23 17 24 22 26 21 19 20 13 19 12 22 20 22 21 24 20 21 23 25 33 34 19 18 28 18 16 24 27 25 28 22 13 26 27 27 22 23 22 27 20 17 22 15 28 32 17 24 18 23 23 19 22 13 19 18 20 21 14 27 22 22 22 24 18 23 28 21 26 15 22 23 17 24 24 23 20 20 21 27 25 18 27 25 18 23 15 18 19 14 22 29 20 29 24 17 15 26 20 24 34 14 20 20 17 24 20 22 24 22 17 23 19 14 23 19 18 29 26 20 24 23 18 22 24 22 24 30 18 28 23 19 20 14 22 20 26 16 26 34 24 13 16 26 19 26 20 23 21 24 17 20 24 20 32 21 20 26 18 17 27 17 18 20 25 27 23 19 22 17 20 29 21 20 19 30 19 21 24 21 26 16 22 14 23 23 19 23 22 27 30 23 20 29 20 27 18 19 22 24 21 21 19 16 22 25 25 25 21 21 24 24 17 24 22 25 23 20 22 18 23 29 24 16 26 12 24 23 26 16 22 24 28 22 14 21 22 15 22 23 19 23 29 21 19 25 16 21 22 19 20 26 29 23 25 19 26 25 24 20 23 19 22 25 18 14 15 23 21 15 17 19 22 24 22 19 31 17 24 17 23 24 23 25 22 21 25 24 22 16 17 25 16 24 14 20 22 23 23 18 25 19 19 22 21 15 23 27 18 26 27 20 14 22 26 25 24 24 13 12 21 17 26 31 19 19 24 17 21 22 22 19 25 25 18 29 21 24 25 16 23 23 26 21 27 23 19 21 18 15 17 18 21 23 18 19 27 24 27 26 25 19 25 21 28 20 19 21 16 27 21 25 31 18 23 23 30 22 17 18 19 23 23 21 23 16 16 19 19 21 23 27 25 25 25 23 22 25 25 29 27 18 21 24 27 25 20 20 14 18 29 23 23 22 29 21 18 27 23 15 18 16 25 19 24 13 24 21 19 20 23 17 22 17 20 24 26 27 22 20 19 23 28 23 23 27 25 19 22 26 13 29 20 31 11 26 27 19 25 19 22 29 19 26 28 28 10 21 18 16 15 20 30 24 19 21 17 26 20 23 19 11 19 20 28 20 25 26 19 27 25 17 16 19 29 25 23 16 21 24 15 26 19 20 21 24 12 27 24 28 18 20 14 27 22 23 26 25 18 27 20 15 21 25 22 25 30 24 23 24 31 24 21 22 20 22 35 19 15 16 21 24 26 26 12 20 26 25 29 20 26 19 22 23 26 19 28 14 27 21 15 22 21 18 19 21 18 19 26 21 21 18 18 23 19 22 26 22 27 21 24 21 17 19 27 24 22 27 18 25 29 19 29 19 17 19 19 23 24 19 21 24 18 22 21 23 20 29 18 22 20 18 21 24 28 24 29 22 23 26 26 18 29 19 26 19 33 25 21 17 24 22 21 24 18 27 18 22 17 19 17 26 25 24 21 28 29 20 18 17 32 27 24 29 22 19 24 19 26 12 29 21 22 21 21 22 26 28 17 20 29 18 16 19 21 19 20 24 22 31 25 28 29 15 32 9 25 21 24 18 25 18 31 25 20 18 17 21 23 26 21 20 21 31 21 25 21 18 27 32 27 22 27 26 25 17 26 25 15 12 11 21 26 20 25 12 22 23 19 23 15 26 15 18 12 23 25 20 27 29 19 17 24 20 24 17 27 20 22 29 16 25 16 19 21 24 24 23 23 21 21 24 23 24 22 21 25 22 20 24 20 22 17 20 23 28 27 25 12 22 29 18 23 19 25 25 22 21 17 23 22 14 29 11 19 19 20 19 31 28 22 25 18 18 17 19 18 17 19 27 28 19 15 27 24 21 21 24 17 15 21 20 24 26 21 27 23 19 24 28 22 13 24 20 17 24 23 20 21 24 22 22 23 19 30 21 21 22 30 17 22 20 28 15 14 27 27 23 24 27 20 22 17 25 20 26 23 18 17 24 14 23 26 25 36 17 23 16 25 24 27 24 24 20 23 20 13 21 21 22 28 25 19 19 25 22 19 23 21 20 26 23 24 15 25 17 24 16 23 22 19 27 17 22 21 19 19 22 17 24 19 17 17 23 15 25 22 33 29 27 16 20 25 33 19 23 23 21 19 24 27 31 23 21 23 20 18 20 23 25 17 23 25 19 18 17 23 13 22 17 23 21 23 25 24 22 22 23 31 22 18 18 32 32 23 21 20 23 24 17 23 17 17 24 18 13 21 23 23 22 22 14 18 20 16 21 17 25 19 18 22 22 21 17 24 18 25 13 24 21 26 24 24 21 19 14 22 19 31 28 23 21 27 27 18 17 26 17 23 21 24 15 21 16 17 22 33 20 27 21 21 18 19 19 11 25 22 19 18 22 20 14 26 28 20 17 21 21 13 20 18 14 25 13 19 24 22 17 17 18 30 21 17 22 20 15 20 32 21 24 21 27 22 29 27 22 16 20 30 16 30 20 19 13 23 19 13 21 29 28 16 19 23 24 19 17 22 21 21 16 16 19 20 20 23 20 20 13 18 23 17 18 22 24 15 13 27 21 17 23 21 24 20 34 25 28 25 14 28 19 23 20 21 17 25 18 23 27 22 10 20 13 34 23 19 24 17 25 29 16 20 19 18 26 21 14 36 17 21 28 16 16 22 20 17 14 21 24 15 22 20 18 27 29 14 12 24 19 20 18 21 26 19 20 22 25 24 29 24 22 20 19 22 16 16 13 23 18 20 27 21 17 18 24 19 17 23 21 21 18 25 24 21 21 26 22 26 17 16 18 34 23 16 21 31 28 26 22 24 24 24 22 23 31 23 28 21 28 19 28 20 20 18 24 20 20 25 28 20 29 23 24 28 25 18 27 21 23 22 20 24 20 19 15 32 18 33 17 19 20 22 24 20 18 12 20 22 20 28 18 26 20 19 18 22 25 15 17 24 20 22 26 19 23 17 19 21 17 19 19 16 22 22 12 17 26 21 24 16 19 27 22 24 21 15 23 28 25 19 18 16 26 20 27 23 18 17 22 19 19 26 20 27 23 17 15 20 22 18 18 19 19 23 26 19 23 23 20 23 16 24 22 19 20 22 20 17 22 19 23 24 23 20 18 17 16 17 25 13 25 19 25 24 31 26 34 24 18 23 26 23 24 24 29 26 24 26 21 15 24 28 26 24 13 27 15 32 20 16 24 19 23 24 28 16 19 23 19 27 19 24 22 25 21 23 20 16 22 21 16 18 25 26 26 25 20 23 24 16 27 30 20 26 16 20 22 24 24 21 21 26 19 20 24 22 20 24 11 27 23 20 18 25 22 31 17 20 28 15 16 15 18 18 25 28 20 20 19 29 21 17 21 20 19 26 22 25 25 30 23 24 20 21 28 25 22 12 18 21 16 25 34 21 21 22 24 19 27 23 20 20 24 25 15 24 25 15 21 28 19 28 21 23 21 23 27 22 16 18 20 19 13 30 20 28 29 29 18 24 21 22 25 21 28 27 27 28 18 20 22 28 23 22 27 20 24 21 17 24 24 25 28 26 25 22 23 20 21 20 25 23 23 26 20 23 17 26 21 16 26 26 26 19 24 24 19 24 23 19 18 22 20 25 24 21 28 19 27 20 23 23 25 24 25 30 26 20 20 17 17 23 23 23 31 14 18 22 32 22 20 14 23 29 20 22 27 29 24 24 23 22 21 24 15 21 21 20 21 16 21 14 20 25 19 29 14 28 19 28 19 25 18 22 20 26 21 17 23 15 22 20 21 28 14 19 30 21 18 22 23 25 21 22 16 24 24 28 19 17 16 27 25 14 10 32 18 17 28 20 22 27 25 19 12 16 22 20 20 23 18 21 25 18 27 18 18 27 27 27 20 25 24 19 19 18 23 23 14 25 15 25 22 29 19 24 22 18 17 23 17 34 24 27 21 18 20 25 21 17 25 16 24 25 19 15 25 26 26 28 23 17 27 23 23 22 27 18 25 17 18 27 26 23 25 24 20 20 26 22 19 25 18 26 19 24 18 22 21 19 20 26 23 28 25 22 29 17 20 16 23 22 24 21 23 22 18 21 24 22 24 15 23 25 26 19 24 15 15 22 25 20 23 14 13 25 19 24 22 25 16 30 24 18 23 21 15 17 21 26 27 26 23 23 23 18 23 18 22 12 22 29 18 16 17 23 17 28 22 26 25 29 16 21 19 18 25 18 18 20 31 19 20 24 24 16 18 23 22 21 26 26 19 12 25 26 20 24 18 25 20 20 29 23 17 22 22 23 21 25 22 24 26 18 21 24 19 17 16 16 18 24 20 22 22 20 21 21 23 24 14 20 18 25 16 21 27 24 16 20 26 24 17 20 19 23 21 23 17 20 20 16 22 15 27 30 15 17 20 21 24 19 20 26 17 31 21 26 17 19 16 23 22 20 31 21 15 21 18 20 23 26 27 18 23 24 8 10 27 27 24 21 21 21 28 17 20 24 22 22 23 20 23 24 16 22 19 30 24 22 22 24 25 22 25 13 23 21 25 21 23 33 19 28 25 28 26 26 14 24 26 24 30 18 16 24 27 19 18 17 21 24 27 32 29 19 24 21 26 22 24 29 25 20 21 21 24 22 22 13 26 18 29 24 18 23 25 20 26 26 18 23 20 17 21 25 17 22 24 23 19 24 20 28 22 26 20 20 22 12 21 29 29 18 18 26 19 18 23 24 15 26 22 20 26 23 16 22 26 19 24 18 22 17 23 21 16 26 24 23 22 17 26 20 20 29 12 19 19 17 24 18 27 28 25 20 21 18 14 24 17 22 21 20 25 20 27 18 22 25 23 18 19 15 14 25 23 21 32 18 27 18 21 15 34 17 22 20 23 16 23 15 14 18 21 21 22 22 23 25 24 17 20 19 20 25 17 23 24 29 22 24 25 25 24 17 26 23 24 22 21 16 20 27 24 21 25 16 18 28 17 25 28 21 16 18 20 23 22 23 25 24 26 21 17 19 25 28 25 21 19 24 21 20 19 17 23 18 24 22 23 20 15 17 22 20 24 17 21 19 25 19 24 24 20 26 23 24 18 28 18 22 16 29 17 20 28 22 22 28 22 28 32 15 17 24 18 26 16 22 26 27 23 22 20 17 22 15 18 18 20 26 22 22 28 27 20 28 30 21 20 26 30 23 27 17 16 28 20 27 22 24 23 17 20 25 16 19 25 18 23 19 16 25 19 20 24 28 27 35 17 21 20 23 23 25 28 15 14 19 25 22 17 29 15 18 24 24 24 15 12 20 15 14 22 19 24 16 15 22 21 25 25 20 18 26 24 20 18 24 17 14 22 27 22 21 20 17 28 13 23 23 32 17 24 20 19 26 21 18 26 21 25 23 26 22 20 22 24 35 21 23 22 18 26 23 29 19 25 18 20 18 26 25 29 26 12 25 26 13 14 19 27 23 22 25 21 20 18 19 17 21 21 19 15 23 22 29 23 11 22 19 22 17 26 11 21 22 21 19 29 30 18 21 29 22 19 19 27 27 20 23 21 20 19 25 22 28 11 24 22 20 24 25 25 15 19 22 15 20 14 23 19 21 18 20 29 19 20 27 13 12 19 24 26 25 20 21 18 30 25 20 21 30 19 28 34 17 14 23 27 23 20 33 28 13 20 20 17 17 21 24 25 19 24 23 29 27 22 21 29 14 18 15 24 24 21 26 23 20 18 23 16 27 18 24 17 18 14 25 24 19 17 22 17 24 16 21 28 17 23 30 23 22 13 20 19 15 18 20 18 29 28 25 29 27 23 24 29 31 22 19 24 25 27 16 19 22 15 22 22 12 28 22 21 16 21 28 27 25 22 26 27 20 18 22 23 20 26 25 24 24 20 27 26 23 26 15 19 18 24 11 21 21 20 24 22 19 24 16 24 23 22 21 24 16 20 17 16 27 15 20 26 13 17 25 19 12 30 27 22 18 16 29 18 24 21 22 18 18 18 24 15 22 14 20 23 19 22 15 19 23 25 21 27 16 24 25 25 19 33 13 14 14 18 24 23 18 20 18 22 27 25 23 23 21 29 27 23 24 18 29 20 28 30 27 24 18 22 16 21 19 23 26 23 19 16 28 26 24 22 24 19 18 23 21 20 16 21 28 23 19 16 20 28 24 19 22 28 19 20 26 20 14 22 25 19 18 22 24 23 20 25 25 22 20 19 22 16 21 16 21 26 19 23 18 19 34 20 30 13 16 22 19 15 19 24 23 24 24 26 12 29 21 22 23 15 26 26 19 27 18 18 22 22 17 24 19 25 21 21 18 17 27 26 17 18 20 18 19 27 25 27 26 16 21 21 18 18 22 24 23 22 14 21 26 13 21 19 16 25 22 27 20 22 31 20 29 26 22 25 25 12 21 23 17 14 24 26 22 19 23 22 20 34 29 27 20 17 20 28 25 19 26 22 17 26 20 19 24 23 20 19 14 20 22 31 20 24 21 19 25 31 19 23 27 38 16 23 21 27 23 20 17 18 20 18 21 19 22 29 21 19 26 13 21 18 29 21 30 28 16 18 23 17 22 25 18 26 22 19 15 21 24 16 26 18 17 19 27 18 20 22 22 28 26 23 26 14 27 16 29 24 19 22 21 24 18 28 27 29 24 27 30 19 19 22 25 27 22 27 25 24 28 21 31 23 22 24 26 23 22 23 14 26 24 19 28 19 23 26 16 32 22 22 22 17 20 25 21 21 22 20 27 23 21 21 21 16 24 21 24 17 21 22 21 22 22 19 14 25 26 22 23 19 24 28 33 20 24 18 16 22 20 21 21 16 24 20 21 19 21 25 24 27 24 28 16 21 26 19 17 19 31 27 17 20 27 17 18 18 24 20 19 19 16 22 20 24 29 23 23 23 24 22 20 21 25 26 17 23 26 21 22 17 20 27 23 19 23 30 24 19 21 17 26 20 22 16 24 21 23 24 25 20 27 14 24 17 25 22 23 21 16 28 25 23 23 23 18 19 21 24 20 20 16 18 28 21 8 25 15 15 27 22 15 20 21 28 33 22 25 19 21 22 16 15 24 23 21 24 20 16 15 18 26 21 26 29 26 16 20 24 23 15 16 22 22 18 21 18 18 19 20 19 19 20 23 26 27 21 18 17 22 22 25 29 23 23 29 26 24 16 23 17 22 22 25 22 27 23 20 23 23 23 19 18 23 23 26 19 25 27 29 23 26 25 23 19 21 17 20 22 25 27 15 16 22 25 20 27 25 20 21 20 21 25 19 17 33 18 17 27 22 20 23 21 30 16 13 24 16 22 20 25 25 35 24 31 16 22 26 20 24 22 17 25 18 21 19 17 17 24 15 15 16 35 20 18 26 15 16 19 21 18 19 19 22 21 22 17 17 29 15 26 23 22 20 20 26 23 23 22 18 23 19 23 18 28 25 12 21 23 21 12 24 26 22 19 22 27 17 32 24 23 23 30 17 18 18 24 19 19 18 20 26 17 28 20 20 23 17 17 22 26 22 22 21 21 24 27 22 24 19 28 22 29 14 24 20 19 26 20 18 23 22 20 29 14 20 24 19 19 19 19 37 13 20 29 26 24 14 19 23 26 21 19 22 22 15 17 19 24 24 23 29 26 23 28 23 24 16 21 24 20 23 21 19 18 21 23 26 24 22 26 20 25 19 21 31 20 28 21 11 24 20 23 26 23 26 24 22 21 15 20 23 25 14 18 23 21 16 27 15 15 29 24 19 25 26 24 13 17 21 22 21 18 18 22 18 18 21 28 20 19 16 20 16 25 19 24 18 22 21 21 28 21 22 29 19 21 34 17 22 29 22 18 19 30 24 27 20 23 28 23 22 18 20 10 19 20 16 18 24 23 23 21 18 20 24 21 24 22 15 13 24 27 16 20 22 20 21 24 20 17 24 27 23 33 20 21 22 18 24 25 28 19 24 24 24 29 26 19 23 24 19 20 28 28 20 25 17 18 23 27 21 24 29 25 25 18 24 20 21 19 28 21 19 21 15 24 17 23 25 19 22 23 27 20 17 19 21 24 24 21 19 21 11 22 17 22 24 26 25 21 27 32 13 21 24 29 24 22 22 23 17 22 22 23 29 23 21 23 17 24 29 22 25 24 29 20 21 18 25 30 23 24 27 19 24 12 11 21 20 22 15 25 19 18 20 14 20 24 23 15 20 21 21 23 23 22 23 21 26 20 18 24 24 18 21 21 26 19 10 20 26 22 18 25 18 18 24 21 21 16 20 14 17 30 20 34 22 19 28 20 18 23 17 18 21 24 13 24 22 25 29 11 26 28 21 24 23 18 19 19 22 23 27 20 23 28 17 20 26 28 30 20 18 21 17 23 19 19 26 23 21 21 20 29 19 21 21 26 26 18 23 16 18 24 23 21 16 27 20 22 27 20 16 23 25 14 17 16 24 28 35 23 21 20 19 23 24 20 22 27 23 22 26 24 23 18 27 25 25 15 25 23 26 22 24 24 19 31 16 21 22 19 21 20 27 24 27 20 22 30 14 18 18 30 26 31 33 29 24 19 19 24 30 22 20 13 22 18 22 24 18 36 25 25 24 17 16 24 21 27 18 18 11 20 20 22 13 15 26 21 21 22 15 19 19 26 22 23 20 26 21 17 28 28 24 21 22 20 16 25 25 19 27 25 18 19 28 17 26 12 16 26 29 18 20 16 24 17 26 21 21 21 24 27 21 18 20 19 23 17 22 22 28 28 20 19 24 19 16 18 25 20 28 22 21 21 16 24 23 13 24 24 21 20 18 18 19 18 26 25 16 21 22 28 31 17 17 14 22 25 24 19 25 19 28 20 25 23 18 18 25 26 20 20 26 28 21 23 20 22 22 27 16 28 18 27 26 21 21 25 22 24 24 24 20 23 20 17 20 27 20 26 26 16 21 24 20 15 20 25 19 22 13 17 20 21 23 27 12 20 26 23 29 23 18 27 26 21 25 20 28 24 23 15 15 30 19 13 19 20 16 24 22 22 22 23 25 19 23 20 26 14 13 21 16 22 17 25 17 21 12 22 20 20 22 21 20 17 22 19 30 19 21 17 23 25 26 13 26 25 18 20 20 18 19 27 12 20 18 15 28 19 20 18 23 23 27 15 22 19 16 23 16 20 26 24 10 21 16 15 25 18 18 17 26 18 14 18 23 27 19 24 22 22 25 21 21 25 19 25 16 22 19 17 19 26 19 24 28 14 23 29 18 20 16 27 29 21 16 13 17 24 23 20 20 18 23 18 23 27 16 29 25 30 19 21 20 18 16 20 23 21 24 28 21 23 23 26 20 23 14 14 32 26 22 21 20 19 32 20 19 20 23 18 21 15 12 21 21 26 26 20 20 25 29 16 24 26 19 15 23 18 10 22 24 22 15 21 27 19 18 17 20 13 26 17 18 25 23 26 19 19 15 16 18 25 29 22 26 37 28 21 26 20 25 20 19 23 30 25 23 19 24 15 17 20 26 21 19 28 15 15 20 32 22 26 29 19 19 24 21 22 11 26 22 17 29 20 27 19 21 17 29 18 24 20 17 22 20 24 19 21 25 31 27 16 23 17 21 25 18 24 21 22 29 24 26 15 21 18 25 24 30 27 23 19 19 16 19 24 16 19 22 22 25 16 20 15 17 24 23 23 16 23 28 23 25 18 19 26 35 19 21 20 25 23 24 26 24 21 24 26 22 21 19 26 20 18 18 25 24 25 15 17 28 30 20 22 25 24 22 21 19 18 20 23 21 25 18 21 21 25 23 22 27 20 24 18 26 28 25 21 20 17 18 18 21 25 22 27 15 24 20 22 34 13 24 27 24 17 17 17 17 17 19 20 25 23 26 19 16 17 22 17 20 17 19 26 22 25 17 17 27 23 24 19 16 25 24 23 16 25 25 18 18 23 25 29 23 29 14 15 14 25 15 25 25 21 28 31 21 17 20 19 27 18 14 25 21 21 14 25 20 24 18 21 25 15 26 20 24 29 20 14 22 23 13 23 21 21 19 27 18 22 21 20 20 20 22 20 19 17 27 21 21 18 12 23 28 20 29 19 17 29 18 24 19 26 23 10 20 23 17 26 21 21 22 21 15 24 23 17 29 21 19 22 21 21 14 23 22 17 30 12 20 24 26 19 23 21 22 26 19 22 30 18 25 19 17 16 22 18 22 29 25 28 20 23 27 19 31 19 21 21 23 15 20 20 28 20 20 19 18 19 14 20 25 12 20 27 26 30 17 20 21 23 21 25 25 18 21 26 24 22 17 24 18 24 20 17 13 19 16 18 21 25 26 24 20 27 17 21 24 27 22 16 16 31 20 20 20 13 26 19 21 26 19 25 16 21 15 25 16 21 20 19 14 20 27 24 21 27 18 20 17 25 26 14 27 17 29 16 23 22 20 17 17 25 23 24 26 24 23 28 24 20 17 22 24 18 30 22 18 20 20 19 18 21 25 20 21 23 21 20 32 30 25 22 19 22 14 26 23 23 25 26 20 22 20 27 24 23 20 17 32 17 26 16 19 25 25 24 19 23 18 20 20 22 27 21 20 27 24 20 22 25 20 14 31 23 24 21 27 19 26 17 17 21 23 21 14 24 36 18 19 22 24 16 23 20 23 24 28 27 20 20 23 19 21 21 19 19 26 23 21 18 33 20 27 19 19 26 23 21 26 16 19 20 23 23 20 26 17 17 25 29 18 20 26 24 19 22 13 20 25 24 17 26 19 19 21 19 19 22 15 23 29 20 15 27 26 17 11 19 25 27 20 24 22 22 23 25 17 16 20 20 19 25 24 17 25 29 18 19 21 24 24 20 31 20 20 24 26 23 26 16 18 25 19 19 26 19 18 25 26 23 19 16 26 27 17 25 24 15 22 16 16 18 28 23 19 20 16 20 19 22 25 24 18 24 21 22 23 24 15 22 15 24 18 18 24 21 20 24 16 28 26 25 19 28 32 21 23 29 30 27 18 21 17 24 21 20 22 22 27 24 26 22 15 17 23 22 18 21 18 11 22 27 16 21 24 22 22 24 19 29 18 22 25 13 26 22 24 22 23 20 20 20 27 20 24 35 29 18 27 25 22 23 24 10 24 14 20 21 24 20 22 21 22 19 22 24 18 28 17 17 22 28 27 18 27 25 18 15 21 28 21 27 21 14 28 20 22 21 24 16 18 20 21 19 22 28 25 30 23 29 23 23 23 27 26 26 22 22 30 18 25 22 21 21 18 17 26 28 23 24 24 26 20 19 30 30 23 19 22 22 22 22 20 20 22 29 13 19 24 24 20 32 23 18 30 20 26 25 21 26 17 15 17 17 18 26 17 25 22 21 16 24 22 12 22 20 17 31 20 22 21 20 15 18 27 20 16 13 34 18 21 25 26 26 21 16 27 20 23 17 29 19 21 24 20 16 25 24 24 18 21 13 23 19 20 26 22 27 23 17 25 21 17 17 21 26 26 16 21 31 21 19 14 26 23 21 20 23 20 19 18 24 23 21 22 16 25 24 21 27 21 19 19 32 24 24 20 16 18 23 18 20 21 25 21 17 21 16 23 16 21 24 26 20 23 22 25 29 23 22 28 16 12 17 20 22 24 27 19 25 27 25 27 19 15 29 18 22 19 14 26 30 15 24 20 30 22 21 24 18 23 17 27 19 12 20 26 25 23 23 16 25 24 23 26 21 20 23 17 22 16 19 23 22 28 23 23 28 19 17 29 21 16 22 25 22 33 24 18 17 23 19 16 29 20 22 26 20 21 20 24 24 29 21 21 19 23 23 28 19 18 24 19 27 17 15 15 27 17 23 26 32 16 19 15 22 28 26 21 18 42 22 18 19 18 22 23 17 15 20 23 16 26 18 22 26 20 24 26 22 25 17 16 21 24 21 19 20 18 18 23 22 17 19 21 27 23 24 20 23 23 25 17 17 19 17 22 24 29 14 16 19 21 20 25 18 27 28 24 21 22 20 19 23 24 24 24 27 24 18 21 22 15 20 16 24 25 26 31 21 25 13 16 22 28 23 22 23 20 24 21 23 23 30 17 25 13 28 19 21 28 17 25 23 23 28 14 17 23 19 22 22 27 19 18 16 25 23 22 22 23 27 19 19 16 29 20 24 14 19 22 19 21 22 25 19 16 22 15 16 24 22 19 20 19 19 27 18 23 22 24 25 12 21 24 22 15 25 20 18 15 19 24 18 19 21 28 26 24 20 14 27 21 23 24 23 19 19 19 24 18 17 17 20 19 19 16 27 22 22 20 19 19 32 20 22 22 20 23 24 18 25 15 24 19 20 24 23 23 19 17 18 17 24 25 22 26 20 22 26 27 19 24 27 26 29 22 12 21 23 29 20 22 23 17 22 16 20 22 24 19 21 23 20 17 21 24 19 24 21 20 30 22 15 17 20 18 13 19 30 23 18 14 20 25 24 20 24 31 25 27 21 25 20 20 24 26 18 23 26 20 25 17 23 26 20 22 19 20 24 25 18 16 21 25 19 24 20 21 20 25 31 18 29 23 19 28 16 16 27 20 26 19 18 22 19 22 24 17 25 19 27 18 17 20 25 16 28 19 19 23 21 17 16 27 21 19 25 32 18 31 21 28 23 24 24 22 23 29 23 18 20 23 19 21 19 23 21 25 22 16 29 25 21 27 22 26 23 17 22 21 25 23 18 17 23 17 26 24 23 20 22 24 19 20 24 16 28 20 17 18 16 23 24 23 20 23 25 20 26 24 20 27 19 21 22 24 23 29 18 24 24 25 20 22 17 23 22 27 24 25 23 19 22 19 21 23 19 18 20 17 23 18 25 24 25 14 20 17 28 17 24 16 18 18 27 36 18 20 20 23 23 19 22 22 27 18 16 28 20 23 18 11 26 21 12 29 17 17 18 23 24 25 17 29 23 21 24 23 20 22 36 31 21 24 28 26 21 17 25 20 17 19 20 25 21 25 18 21 17 31 25 24 22 20 20 28 21 17 16 26 19 18 23 27 16 19 19 20 17 18 16 22 22 25 24 24 20 27 30 20 21 23 22 17 20 21 19 20 26 19 21 24 19 17 21 22 17 24 25 24 23 19 28 16 20 14 24 15 26 26 19 22 20 15 23 32 14 20 20 25 16 27 17 16 22 15 28 19 22 27 19 25 18 14 31 25 21 23 23 22 13 15 21 22 18 20 22 18 27 19 30 21 22 22 14 19 24 22 20 30 22 27 14 25 21 24 31 16 18 13 22 13 27 26 18 21 15 29 22 28 20 24 23 24 29 28 29 27 27 21 26 19 25 22 25 22 23 19 20 29 26 17 25 24 17 20 21 19 30 28 18 13 20 29 28 20 11 18 25 22 17 23 18 19 25 22 26 21 21 20 16 15 23 15 28 23 25 22 29 20 15 22 23 19 15 31 22 20 22 16 11 26 21 19 18 24 15 25 18 27 20 24 16 19 16 23 21 29 21 25 21 23 15 22 20 29 25 26 19 34 23 31 23 25 13 21 24 22 18 17 25 31 33 17 21 27 20 23 23 21 22 19 17 26 16 18 27 25 26 25 31 24 17 17 29 30 26 22 23 25 26 17 29 26 21 19 29 14 21 17 18 23 21 26 18 14 27 24 26 19 19 17 20 21 24 26 25 25 18 20 21 20 22 22 22 19 34 23 31 23 24 16 19 29 19 31 20 20 15 13 25 16 25 15 21 20 22 17 22 17 20 27 13 26 24 30 20 22 17 21 30 29 21 19 21 16 19 18 24 24 22 13 18 26 15 28 21 18 22 17 27 27 19 17 19 21 17 22 22 20 20 18 19 24 16 24 18 21 21 20 18 24 21 18 19 24 22 20 27 29 22 25 19 18 26 27 24 24 35 20 17 16 20 14 26 25 22 24 22 22 19 20 28 20 18 23 21 25 21 13 23 25 31 28 26 27 18 26 20 25 23 23 17 19 27 24 24 21 20 23 19 27 23 26 23 22 24 16 18 28 22 22 20 16 21 23 22 30 18 27 24 23 20 19 24 27 28 28 25 23 24 23 20 23 15 22 24 26 22 25 25 15 20 25 26 25 23 26 19 19 28 21 23 17 24 19 22 24 19 23 29 27 28 24 23 21 23 25 23 22 18 21 35 22 19 17 27 15 21 16 32 18 21 22 21 16 29 22 18 17 23 26 26 24 21 23 22 28 23 22 13 26 19 21 28 27 24 23 19 20 18 21 20 22 16 26 19 27 22 18 24 20 15 15 21 26 16 18 18 26 13 21 20 25 20 26 21 21 25 19 24 20 21 28 22 18 17 24 21 23 24 17 23 25 16 21 19 18 15 16 19 30 10 17 14 24 20 25 16 18 26 21 24 18 18 29 22 21 16 22 20 24 26 25 25 22 19 24 21 20 22 30 21 21 20 24</t>
-  </si>
-  <si>
-    <t>JSU(-3.174230979095318, 5.190611000729762, 16.434661916412182, 24.771525716749718)</t>
-  </si>
-  <si>
-    <t>40 30 31 45 28 29 37 25 30 26 32 39 28 29 25 30 37 27 33 36 33 34 34 24 37 28 28 17 36 37 26 36 33 30 36 34 27 35 25 30 26 37 27 30 29 36 20 24 35 34 27 25 36 44 33 34 37 37 36 28 38 42 30 35 41 30 25 31 31 23 34 28 36 38 30 35 33 34 32 33 41 29 48 27 37 30 31 41 46 32 41 35 28 31 22 31 29 34 26 23 36 30 34 36 26 29 32 27 29 47 21 23 36 31 33 36 37 27 28 28 33 38 36 28 30 31 37 38 44 34 23 33 37 29 25 37 24 37 38 32 19 33 36 37 26 29 34 34 38 33 34 32 34 47 28 33 43 31 22 30 34 35 27 31 28 37 33 28 26 31 39 43 32 35 33 33 38 43 38 31 34 47 28 32 37 42 36 35 41 29 35 36 30 31 34 34 29 32 33 36 34 27 24 29 30 44 37 45 45 34 37 28 30 28 28 32 39 38 43 31 35 35 44 23 49 30 23 28 35 35 31 26 33 27 31 37 39 33 44 32 31 43 37 36 39 26 32 29 44 26 40 30 31 32 28 31 40 26 32 34 47 40 21 29 21 27 30 22 29 34 37 28 28 33 32 30 31 27 35 24 31 31 33 36 29 27 28 44 29 38 39 37 28 36 35 23 31 28 37 41 26 34 28 32 37 23 45 34 42 25 32 36 27 38 31 36 41 34 38 37 35 22 43 35 27 36 49 31 33 27 24 43 35 29 32 30 26 30 24 48 31 39 27 32 36 22 29 31 35 26 40 38 47 38 37 35 28 29 31 36 40 39 28 28 29 24 30 38 24 25 32 39 28 34 30 25 31 36 35 31 41 32 43 40 29 33 24 27 28 38 32 43 23 37 36 25 35 29 34 35 39 32 43 29 27 39 31 29 32 46 38 35 28 31 38 35 36 36 32 37 38 34 26 32 39 49 27 33 38 29 36 31 34 32 24 39 33 37 30 31 19 34 35 31 30 26 27 27 34 28 40 28 30 39 32 30 41 33 35 39 41 28 32 34 31 33 28 28 36 26 41 32 31 29 35 49 20 35 41 40 39 37 32 29 39 26 33 31 34 36 31 32 31 34 30 27 39 40 32 29 33 37 36 30 40 46 25 28 34 27 34 27 44 27 31 20 49 39 25 35 38 29 32 31 29 29 27 32 20 37 33 28 30 44 30 51 35 35 33 35 37 29 35 27 32 29 27 41 32 31 33 26 30 34 52 37 47 35 29 26 24 31 28 23 37 28 33 31 39 34 33 22 33 24 31 46 34 39 33 46 22 28 43 34 31 29 26 24 30 38 25 37 40 33 37 46 30 36 35 38 22 31 32 29 34 31 36 36 29 32 30 42 27 34 34 36 30 44 28 26 28 33 39 38 39 38 24 33 26 42 36 36 34 45 28 19 31 32 37 36 37 31 41 36 42 32 41 39 34 21 34 29 38 32 36 32 32 31 25 34 28 27 37 33 40 39 32 31 27 33 34 35 39 36 37 33 41 31 29 34 53 33 24 35 29 33 22 27 34 35 25 26 36 42 38 31 28 32 35 31 27 42 33 40 36 37 33 38 28 31 35 25 34 20 41 37 32 32 38 37 21 42 41 34 36 38 36 35 34 27 36 35 33 37 30 41 39 26 37 26 38 32 37 25 35 25 27 30 47 38 29 22 38 28 33 42 31 33 41 29 32 27 40 30 36 29 39 38 34 36 41 31 34 40 29 23 41 24 20 38 34 35 32 39 50 29 29 34 25 35 34 36 22 32 30 28 24 30 25 27 42 43 32 31 20 22 42 36 19 30 35 35 36 31 45 24 27 36 45 42 35 33 40 28 38 30 28 31 35 24 23 33 39 38 33 29 32 43 43 32 31 32 38 33 25 34 23 43 34 24 20 27 34 37 35 35 26 36 24 37 26 29 35 44 30 37 25 30 43 20 30 49 27 27 29 36 24 37 31 24 38 31 36 34 36 39 29 36 28 26 29 30 27 30 27 31 30 28 38 38 36 26 53 26 46 30 32 28 43 22 35 35 32 42 34 37 26 28 32 33 31 27 34 28 28 26 28 36 37 39 25 38 52 35 34 34 33 37 39 35 23 30 24 18 57 30 26 30 34 28 40 26 33 34 38 33 34 29 44 37 25 32 28 41 34 32 33 35 31 27 35 37 30 34 30 25 29 28 30 28 32 31 44 32 36 32 28 29 24 29 34 41 33 30 41 34 36 37 29 35 34 37 36 31 30 29 32 37 45 31 32 26 36 37 26 25 34 36 35 35 35 44 30 25 27 39 33 29 27 34 33 36 29 38 26 36 36 32 29 46 36 33 32 29 32 33 29 22 33 35 25 33 31 42 34 32 24 41 43 31 25 35 27 40 30 30 34 39 33 46 29 32 28 30 34 27 38 32 26 33 34 28 31 34 36 32 27 35 32 27 47 35 24 34 35 32 32 37 45 24 37 31 23 36 35 22 39 27 25 28 30 36 25 39 33 31 32 26 43 30 29 27 41 41 33 38 31 53 22 34 30 40 42 35 45 36 30 35 24 34 29 34 36 39 24 32 33 47 36 32 42 47 38 32 31 37 35 33 34 31 27 27 38 25 32 39 37 28 41 29 34 30 24 29 27 23 35 44 32 29 37 39 29 30 19 23 39 31 46 31 35 26 35 45 32 35 35 28 32 34 36 27 34 32 30 30 36 37 40 36 26 46 35 49 20 25 32 26 32 22 37 28 31 32 31 19 38 37 26 36 22 33 38 39 37 33 26 26 41 32 37 33 28 44 33 31 36 34 40 40 27 33 33 31 32 25 36 35 25 39 39 25 39 30 39 25 36 34 35 40 31 42 36 38 32 37 28 32 28 33 32 31 33 28 30 25 38 26 27 37 31 30 37 28 28 38 34 33 34 35 23 38 40 27 30 33 28 27 31 23 30 26 23 29 32 36 26 22 42 42 32 32 25 33 32 30 40 26 25 32 33 39 28 24 37 29 40 27 30 26 25 28 22 25 29 34 30 23 38 34 35 29 26 30 35 32 30 32 24 35 27 45 24 33 27 37 21 37 34 26 30 37 26 29 24 42 24 32 31 30 29 25 39 40 22 30 35 34 29 47 31 33 45 32 24 35 41 32 23 43 29 30 37 46 25 43 35 34 42 34 36 41 27 31 29 42 31 34 31 44 35 29 25 25 22 36 32 49 34 44 32 30 29 26 31 31 43 36 37 40 31 31 28 25 37 44 26 37 29 32 34 43 32 44 30 28 33 26 36 36 20 36 33 27 32 28 32 26 44 35 30 37 32 38 32 28 28 20 31 26 36 32 43 29 21 26 39 41 32 27 27 29 39 33 35 37 33 27 30 32 23 37 41 42 38 37 29 28 41 24 34 36 28 29 27 37 39 35 36 45 36 31 41 30 35 29 33 39 23 36 34 23 44 34 26 32 37 26 33 40 36 29 29 32 30 22 32 27 27 39 37 31 37 32 37 35 35 21 41 29 35 28 24 34 25 43 28 34 29 32 33 35 26 22 34 36 31 39 30 46 39 30 23 27 27 44 37 34 31 30 30 31 22 22 27 35 33 31 43 29 33 38 36 36 28 33 35 29 36 27 35 33 36 26 36 30 29 35 39 33 30 38 34 33 29 39 38 31 31 35 31 29 29 30 30 33 40 33 35 30 27 32 39 35 42 33 37 26 34 29 32 35 43 35 36 41 48 26 43 33 39 30 31 37 34 34 33 47 33 37 36 31 35 35 32 24 39 38 42 40 33 20 41 30 27 32 35 39 38 39 44 30 43 34 40 31 43 32 32 34 41 31 30 40 44 32 45 35 29 28 41 32 37 34 31 24 38 28 42 28 30 33 44 25 33 31 39 35 38 48 25 36 30 35 26 47 35 29 35 35 43 40 30 36 39 40 37 58 29 30 31 33 23 46 36 36 46 32 35 25 43 31 31 27 32 24 31 34 27 33 38 21 32 41 37 33 37 24 28 35 23 41 36 33 37 38 39 32 30 26 31 35 28 34 33 24 26 32 33 45 29 34 34 30 28 33 32 33 31 28 24 32 44 38 30 29 30 30 40 36 34 26 30 30 28 42 29 36 32 25 35 37 31 24 31 32 31 38 29 31 37 26 23 29 39 40 30 33 39 28 34 45 33 25 33 37 26 29 32 41 35 34 36 28 33 27 40 35 29 29 33 22 29 45 25 27 47 41 32 33 38 39 28 43 27 32 31 24 29 36 37 29 37 36 24 37 42 34 43 26 22 45 35 29 46 36 28 32 26 36 28 27 31 30 35 31 40 43 23 39 44 34 42 27 26 31 42 39 38 29 30 37 31 28 43 44 28 37 38 29 33 36 37 41 34 28 32 32 32 32 28 28 32 31 30 32 33 34 22 31 27 36 23 49 36 40 36 36 29 32 35 31 41 47 37 42 26 29 33 38 26 33 30 28 24 37 35 25 37 29 39 40 30 31 30 35 36 37 38 26 23 45 43 29 46 35 30 33 36 13 33 39 26 26 35 32 24 40 33 35 27 27 22 39 33 38 32 47 56 29 28 30 34 34 35 32 30 41 26 33 24 34 23 39 32 30 41 34 26 38 33 29 31 39 28 39 30 38 32 30 32 30 42 29 49 34 32 42 37 28 25 28 28 33 34 21 44 28 28 32 40 25 38 32 40 42 35 38 27 28 31 31 27 34 30 45 42 28 41 28 31 27 45 27 42 38 30 43 37 29 36 34 32 33 32 33 28 43 31 36 34 39 32 31 37 34 38 29 28 28 41 22 31 26 36 38 29 27 33 32 27 37 30 26 35 36 40 31 32 32 22 34 30 32 42 26 30 35 42 31 42 35 36 42 30 27 33 31 46 38 29 34 29 28 48 47 24 27 40 26 29 35 33 26 22 47 35 31 35 22 40 32 32 26 37 33 34 28 27 35 36 30 45 30 40 30 40 40 34 28 48 33 27 37 28 42 32 42 49 33 32 34 35 38 25 27 28 38 32 30 40 33 30 27 32 42 31 26 31 22 45 39 32 35 19 28 32 30 41 35 42 41 26 36 32 33 39 39 37 43 39 27 30 36 42 38 31 32 32 35 30 25 29 31 35 42 31 21 26 24 39 23 40 28 29 39 41 30 37 27 20 25 34 31 34 27 36 32 36 34 45 26 36 33 32 30 38 39 36 36 30 37 40 27 28 28 34 29 31 29 27 30 41 23 33 25 25 33 34 38 35 26 39 40 34 33 27 31 31 31 21 39 29 30 27 34 34 43 30 30 30 51 23 27 31 40 25 42 34 33 37 29 27 28 29 35 37 43 43 23 33 32 31 26 32 37 29 32 33 42 27 32 46 31 37 38 35 35 28 39 28 40 25 31 39 24 36 35 38 31 30 34 32 36 36 35 34 29 21 30 39 38 32 19 34 27 30 28 25 24 29 33 27 30 31 22 31 30 40 37 36 36 32 33 35 47 33 39 29 40 40 35 28 37 23 31 26 31 32 31 32 36 31 29 26 38 28 29 50 24 33 33 34 31 28 26 31 21 28 28 26 29 31 36 28 41 37 31 58 30 32 27 29 30 32 30 35 37 33 31 24 30 31 34 38 32 40 29 47 35 36 36 29 45 31 26 28 43 42 39 33 32 32 34 37 34 27 34 33 31 30 42 36 33 26 31 29 26 42 32 30 28 26 35 27 36 26 38 23 29 37 33 40 28 26 23 31 36 41 34 37 32 36 37 36 25 27 34 32 37 34 34 41 45 37 34 28 29 33 39 33 29 33 35 36 40 43 35 24 33 19 27 24 41 28 34 30 42 33 38 34 41 35 38 34 38 44 47 39 30 32 37 38 26 37 32 32 28 34 31 39 39 28 30 32 42 34 35 33 29 26 30 29 24 36 24 46 28 33 31 36 26 34 33 40 28 34 40 34 38 21 33 34 44 26 25 26 24 32 28 30 33 31 30 34 39 38 39 44 36 29 37 31 25 30 30 31 31 37 39 38 20 33 37 49 32 33 34 28 30 37 34 23 27 34 31 21 46 32 36 50 29 32 34 30 50 35 35 26 29 30 33 35 40 36 39 31 26 32 34 34 24 43 43 27 35 37 22 28 28 50 36 28 27 42 27 39 40 33 27 40 36 34 36 39 30 36 33 29 33 36 33 24 21 28 28 26 39 32 22 32 30 39 32 27 40 42 46 32 31 24 32 37 31 34 37 32 38 32 34 47 39 43 34 30 26 45 34 43 41 33 39 28 30 38 39 31 33 36 31 31 31 36 27 38 32 32 29 35 35 31 41 30 34 32 31 30 26 31 32 40 27 35 34 31 34 38 33 35 31 16 23 33 37 27 40 31 27 40 28 33 44 33 35 38 43 34 34 29 44 24 30 27 48 26 32 34 35 24 33 30 32 42 43 44 38 32 42 37 31 32 37 36 24 36 33 32 24 41 35 39 39 35 32 34 39 21 33 31 34 18 33 30 39 43 27 24 30 49 43 34 26 32 18 39 33 33 30 24 33 26 32 34 42 22 29 24 27 29 31 34 34 33 25 29 35 43 34 24 32 31 35 23 29 30 36 36 34 35 28 36 31 33 43 25 37 36 45 44 20 38 37 30 46 32 36 32 38 23 28 25 25 32 31 29 29 38 36 38 45 39 25 31 36 31 28 36 31 31 35 42 32 39 34 37 29 30 37 25 36 22 27 21 50 35 32 35 32 36 43 31 35 32 42 30 35 41 35 33 27 36 40 32 36 33 31 35 31 26 37 36 23 24 34 30 25 36 27 38 37 28 36 22 27 30 30 38 29 32 27 33 33 31 32 35 36 39 37 38 38 34 28 35 29 51 38 27 28 43 34 32 39 22 25 40 33 34 38 31 48 26 32 33 30 26 32 36 27 35 45 32 37 49 29 36 40 40 32 26 29 28 38 19 31 39 34 39 39 32 36 41 36 31 27 29 39 32 28 36 36 33 23 26 38 29 40 31 39 44 37 31 34 27 41 35 28 36 39 30 29 26 26 37 32 25 33 27 38 27 28 38 33 29 35 31 32 27 34 27 35 38 27 27 32 37 35 35 35 30 29 33 33 23 44 26 30 27 43 30 28 35 33 35 30 23 30 36 32 31 33 46 30 37 29 35 37 34 27 33 24 27 33 26 24 21 30 39 28 37 27 30 24 29 48 35 27 44 38 31 37 37 25 43 31 30 41 31 33 33 26 31 30 32 25 34 36 33 31 27 29 27 44 42 35 36 29 30 35 36 41 34 37 36 40 38 37 28 28 33 32 31 42 31 24 27 31 42 35 31 25 31 38 32 26 39 36 29 43 37 45 38 26 38 26 43 48 29 27 24 38 30 26 32 32 37 28 48 38 36 36 39 31 24 38 50 29 26 26 26 28 25 41 45 35 20 28 33 34 35 38 30 24 26 35 38 39 32 37 31 33 39 27 36 29 25 22 31 33 29 34 26 38 40 38 34 35 40 34 47 25 37 30 38 24 37 34 39 45 31 53 38 39 24 31 34 39 28 33 35 29 37 29 26 35 32 36 35 33 25 24 39 30 27 37 33 30 26 28 36 40 33 27 29 30 26 38 29 33 31 33 32 40 40 40 23 31 34 35 46 28 32 32 41 31 40 22 38 26 40 36 30 35 36 33 27 27 41 38 29 24 31 35 41 37 37 31 48 38 28 22 26 29 31 40 34 27 41 29 33 34 32 36 35 28 28 31 35 30 28 44 30 39 25 43 36 22 26 35 27 39 35 28 33 36 26 25 32 36 33 34 32 35 28 26 40 22 36 19 35 41 32 30 34 38 30 41 33 45 32 23 43 35 32 45 38 28 26 29 28 30 27 24 37 32 27 28 36 25 31 37 27 33 36 30 41 30 27 32 33 30 40 25 28 35 38 39 37 33 24 38 35 38 43 51 36 31 41 30 26 41 42 29 19 29 27 33 36 26 39 41 25 39 44 36 38 37 34 35 38 29 39 25 36 33 37 33 36 33 51 34 34 36 34 36 28 35 28 31 36 39 34 37 42 36 36 25 39 29 26 34 29 24 37 39 35 37 30 30 34 28 39 37 42 40 25 32 32 40 30 27 33 30 33 21 43 29 41 32 28 28 32 30 31 38 38 36 36 35 20 43 30 39 38 35 28 42 41 45 29 33 36 35 36 33 27 33 33 45 31 30 32 28 30 21 30 32 36 31 31 30 31 28 37 43 49 41 25 39 31 29 38 32 45 49 38 20 39 31 42 40 39 32 39 29 27 31 26 36 43 26 34 32 34 34 27 37 28 32 31 29 29 25 41 36 37 37 29 29 30 37 31 40 27 36 32 27 35 31 35 30 32 26 45 37 26 41 35 26 30 23 29 27 26 32 39 29 45 38 33 28 39 31 38 43 27 33 30 35 37 37 32 40 28 25 39 30 21 30 33 31 36 36 29 34 38 29 33 35 39 33 37 32 36 28 36 28 25 28 29 39 30 37 39 35 24 28 33 30 41 28 33 26 33 28 30 39 26 44 31 27 30 31 25 45 26 38 35 34 32 32 29 33 27 31 45 30 35 30 36 30 33 34 29 42 28 35 22 31 29 34 38 33 41 41 30 32 50 39 33 29 31 30 35 30 26 33 20 31 43 38 33 30 31 34 38 29 44 33 32 34 25 29 25 32 45 32 26 35 24 40 35 40 32 35 30 38 41 23 36 39 27 37 34 28 35 34 32 34 36 23 32 31 32 31 37 44 38 37 46 37 37 37 33 29 28 37 36 30 28 29 37 27 21 27 33 31 35 27 30 41 28 37 23 29 31 35 39 31 30 34 36 35 27 26 35 25 34 23 33 30 30 30 26 32 28 27 32 31 24 36 39 30 40 37 37 26 25 38 33 37 34 20 25 35 29 43 45 31 28 33 25 33 35 30 35 35 31 26 46 29 33 40 27 36 30 35 34 39 27 32 30 32 27 31 23 32 32 27 26 41 42 39 36 34 27 37 29 40 33 27 31 29 40 32 39 39 34 33 33 43 28 23 30 33 36 39 33 36 28 28 29 32 27 28 46 43 28 33 34 36 33 38 41 35 32 30 37 40 33 36 28 23 30 42 34 40 34 41 35 38 34 38 26 27 24 35 33 35 21 34 33 32 29 30 32 28 24 28 26 34 37 31 33 29 44 40 32 30 35 34 28 38 32 19 39 25 51 24 32 39 30 36 34 26 39 26 34 40 42 21 34 29 28 25 30 45 44 22 34 34 35 31 32 31 23 27 26 38 28 39 40 32 34 41 27 31 29 39 37 42 29 32 32 30 36 30 30 30 39 30 39 36 44 26 29 27 33 44 35 32 35 29 35 31 26 34 37 33 35 40 44 31 34 49 32 29 34 31 29 48 27 21 28 28 34 34 39 21 33 48 37 45 31 38 26 30 27 31 24 31 22 37 31 23 29 34 30 28 31 27 26 32 26 29 29 33 32 28 34 41 33 43 37 33 34 23 31 33 38 35 40 28 39 40 26 46 26 22 34 30 31 34 28 30 31 28 37 30 31 33 48 26 30 33 27 35 46 33 42 40 36 37 38 36 25 36 26 31 32 45 35 27 22 35 33 26 33 41 35 27 44 26 26 26 38 37 35 29 38 41 39 26 35 40 38 37 44 32 28 33 26 45 26 38 28 31 30 28 36 38 34 28 27 42 37 27 30 29 23 30 36 30 44 41 39 40 26 43 21 38 40 37 29 40 32 41 36 32 23 23 38 34 41 31 33 32 46 30 34 36 31 35 44 40 28 36 34 32 30 33 31 30 21 20 28 40 29 40 25 22 30 31 33 24 40 21 25 23 37 33 32 39 43 28 23 42 33 32 26 37 26 31 35 32 41 35 25 33 30 37 35 36 32 34 35 34 32 34 34 38 34 29 34 40 34 29 34 29 39 39 34 21 32 35 33 37 24 36 41 35 29 27 31 33 20 36 23 31 34 26 28 41 39 41 39 22 28 34 31 29 31 29 37 40 29 30 37 37 27 34 37 33 25 31 29 34 34 28 37 33 30 33 39 34 25 35 30 30 36 32 36 32 39 34 35 33 26 45 39 28 35 45 33 29 30 42 30 28 36 41 34 28 42 29 32 30 34 27 48 36 30 22 36 20 35 40 36 48 26 43 21 34 35 38 37 35 30 38 27 23 36 30 37 36 39 33 29 31 37 29 38 37 32 39 42 34 21 45 25 32 30 30 36 28 34 30 33 28 27 28 32 27 35 26 33 24 39 19 33 30 42 37 32 28 35 36 50 33 29 30 31 26 32 42 49 38 30 37 32 29 30 28 35 32 34 42 31 33 25 31 21 30 30 35 28 33 34 34 38 35 35 47 34 36 33 44 47 37 30 35 35 32 21 35 28 28 37 23 25 35 37 32 32 37 31 29 29 28 32 31 34 31 35 38 33 31 27 33 32 37 32 39 37 43 35 38 30 27 29 26 34 47 43 36 31 35 40 28 26 38 29 35 25 42 26 33 29 29 38 43 33 32 35 35 29 27 32 23 41 31 32 32 33 29 24 32 42 27 28 30 33 26 31 25 29 34 28 31 31 30 23 28 29 38 28 30 32 36 23 31 41 30 49 37 36 27 40 41 28 31 32 44 23 35 33 29 19 32 33 28 33 42 44 30 33 29 37 27 27 37 29 33 26 25 24 33 35 29 31 30 28 32 35 22 25 34 43 26 18 36 33 33 31 32 33 38 45 31 38 40 25 35 32 35 30 30 30 36 31 27 39 34 25 30 22 58 26 31 38 23 38 39 29 27 36 28 32 34 20 50 25 28 44 26 28 28 33 29 21 29 34 24 33 39 30 44 40 26 18 33 32 36 30 28 38 32 28 32 29 36 38 40 33 30 29 32 32 29 21 36 29 29 45 27 26 29 40 29 30 28 31 36 32 44 37 35 40 39 29 42 27 27 27 46 37 34 31 43 35 40 38 33 47 37 26 37 37 37 39 40 37 29 38 28 33 30 29 29 32 38 44 29 39 39 34 46 35 25 32 37 39 27 26 33 27 30 23 36 26 57 31 31 37 31 36 34 28 22 29 37 26 44 29 43 35 32 29 30 35 21 32 34 26 33 38 25 36 31 38 30 29 30 30 32 36 30 28 31 39 32 38 24 36 37 38 29 28 32 37 41 32 28 28 28 33 31 38 37 23 31 33 29 30 33 30 43 35 22 26 25 32 28 25 37 28 32 36 26 38 29 30 41 27 31 35 26 31 29 31 22 31 35 29 40 35 38 30 25 22 29 41 31 33 30 37 35 38 40 49 35 32 41 33 33 32 36 45 45 42 34 35 31 31 34 41 34 19 40 22 44 30 22 31 26 43 29 38 28 26 36 26 40 32 33 36 34 25 29 32 34 36 33 23 24 34 37 39 36 26 33 42 32 40 46 30 37 30 35 36 33 31 31 27 37 31 28 32 27 27 32 19 31 32 32 28 39 31 40 27 29 41 22 25 31 34 25 43 52 31 30 32 41 26 30 39 26 28 34 28 36 31 37 37 29 26 30 41 37 26 21 29 33 35 39 38 33 30 35 32 28 36 35 30 29 36 34 26 35 38 27 29 41 28 38 31 31 31 33 41 34 25 37 28 24 24 36 28 39 41 37 31 40 33 30 36 27 32 36 40 33 26 32 31 43 36 32 44 30 41 32 29 37 39 39 38 40 44 32 33 27 34 30 33 36 38 35 29 33 32 33 35 28 35 47 39 29 32 32 24 38 42 30 33 33 31 40 36 40 40 26 35 29 34 35 40 35 34 40 39 30 29 34 31 29 32 35 43 28 25 30 54 35 29 22 28 39 25 33 33 39 35 31 34 29 28 32 31 37 33 30 30 26 30 23 32 36 25 39 26 43 29 39 30 33 33 32 29 43 38 33 36 27 29 26 35 36 27 33 38 30 29 32 36 32 31 28 28 36 36 36 31 23 28 36 40 27 16 42 25 30 45 28 40 40 37 29 22 22 35 34 25 34 28 32 35 28 43 36 30 34 34 42 28 42 35 31 34 33 34 38 33 35 26 41 33 38 33 37 35 30 36 28 25 41 38 35 42 24 30 44 32 27 42 27 38 32 23 23 32 33 40 36 29 26 34 34 30 30 41 29 33 31 34 42 39 36 37 35 31 23 33 37 37 39 24 35 26 32 28 29 27 28 34 37 36 45 39 32 36 25 25 33 29 30 35 35 34 28 23 33 38 26 40 30 34 41 30 27 38 33 23 37 33 34 36 23 17 39 27 31 32 34 27 43 36 29 32 35 23 26 27 35 37 47 29 37 27 30 32 30 39 16 35 34 33 33 25 43 24 41 32 46 33 41 24 30 32 27 43 26 31 30 45 30 32 35 38 29 29 31 39 33 32 36 32 26 29 40 33 35 21 39 31 33 40 30 25 36 31 29 38 33 31 31 43 31 34 31 25 30 29 27 31 37 28 31 31 31 32 32 30 33 26 36 29 34 26 31 38 41 25 29 30 30 29 34 39 40 31 28 27 27 29 33 36 25 40 40 28 28 24 31 35 32 27 37 26 46 31 37 27 32 27 33 35 31 45 28 29 31 29 26 34 40 38 30 33 34 11 23 39 41 34 32 33 27 44 29 34 32 32 36 32 32 42 35 24 39 26 41 33 33 33 32 34 35 38 23 32 33 38 27 32 49 31 33 34 37 45 33 27 39 35 41 39 28 31 36 35 29 33 25 27 38 35 42 37 31 30 32 33 36 29 36 37 30 29 26 41 32 25 26 36 36 37 32 33 36 42 31 37 40 29 38 38 30 30 32 21 36 28 33 33 34 34 39 29 37 31 30 31 20 25 39 44 32 31 36 26 23 34 37 23 32 34 27 35 33 26 32 35 23 31 32 32 26 36 28 27 33 38 28 39 25 38 26 26 39 23 36 29 28 36 28 32 44 39 30 34 28 23 35 32 34 40 28 30 28 43 33 31 42 40 26 28 20 22 35 33 34 41 28 42 26 26 27 50 29 36 35 28 29 36 24 21 25 28 25 28 31 37 43 34 28 29 29 35 32 24 29 41 46 35 38 36 37 40 26 39 39 41 31 29 25 30 36 40 29 36 24 32 37 28 35 36 40 21 29 36 35 35 40 36 31 33 29 21 35 35 42 50 34 29 34 32 30 31 26 36 31 29 30 36 28 20 31 31 30 35 25 32 30 35 32 39 34 33 35 35 33 29 41 29 29 21 42 25 33 36 41 37 39 35 39 47 27 31 37 26 35 23 36 34 35 31 31 32 29 31 26 34 26 32 40 29 29 34 41 36 38 38 27 28 39 40 33 33 22 33 40 29 36 39 35 29 25 29 40 26 30 38 27 31 31 26 33 29 28 33 34 38 46 26 33 31 30 34 31 38 22 31 28 33 33 26 48 20 30 36 39 43 27 21 31 27 27 34 29 29 31 24 34 33 40 39 29 29 36 35 33 29 35 26 22 30 38 39 35 28 37 43 24 32 37 49 30 37 28 34 31 38 26 38 38 35 34 31 39 32 33 31 47 36 33 32 31 39 35 38 28 37 28 26 27 42 33 37 34 26 32 38 23 20 27 35 39 34 35 30 32 27 30 30 31 33 29 25 31 33 41 33 24 31 29 31 24 35 20 31 36 31 28 41 37 29 29 39 27 32 26 44 48 27 35 32 31 27 45 37 37 26 32 38 43 34 41 36 24 24 27 22 29 21 32 30 26 24 32 40 27 30 37 23 29 30 28 42 34 35 30 24 36 31 30 32 35 26 35 40 23 21 36 43 33 30 42 37 28 29 27 24 28 36 40 36 28 36 31 39 39 33 27 41 27 30 25 36 45 28 41 32 29 24 34 25 42 30 31 34 30 24 35 31 29 28 40 30 29 30 35 38 33 29 38 30 40 26 28 30 26 28 34 32 43 44 38 46 36 31 30 43 49 32 25 35 40 46 24 31 34 19 35 31 21 33 34 32 28 34 37 30 34 31 37 39 31 25 35 39 30 37 34 33 32 36 36 33 40 35 24 30 31 31 22 31 31 25 38 35 26 32 27 29 35 37 39 35 25 28 24 31 39 29 31 37 24 26 35 35 21 49 36 33 33 24 44 23 39 31 29 31 27 37 37 32 32 33 28 32 28 38 28 30 41 32 33 40 31 37 41 34 32 53 23 27 20 34 39 31 32 26 32 28 34 36 31 30 31 45 41 39 36 24 46 30 35 49 46 37 29 27 29 31 32 33 43 33 30 25 41 37 32 34 39 27 32 34 34 27 27 33 41 31 31 28 28 39 35 31 33 42 28 35 37 26 25 36 37 24 24 33 33 36 32 40 38 36 29 32 36 27 32 31 27 30 32 32 28 25 45 32 41 22 28 36 27 24 33 38 40 32 34 37 30 43 32 25 28 30 38 42 31 51 26 33 41 37 26 37 27 41 29 33 25 24 45 34 31 33 25 27 30 36 29 43 36 28 32 36 33 34 32 37 37 33 28 33 40 28 36 32 25 31 33 34 26 34 36 36 43 32 31 32 30 24 30 39 27 24 37 36 32 32 29 31 35 50 38 36 27 28 32 35 38 36 35 31 31 40 38 38 33 38 34 26 24 31 32 41 35 32 34 35 33 47 29 34 35 48 27 35 28 39 35 32 30 24 32 28 24 34 34 36 25 27 38 25 32 29 35 30 41 44 27 31 37 32 39 31 30 38 29 30 22 39 34 22 41 22 27 32 39 23 36 27 33 34 41 31 40 24 39 28 38 35 27 34 34 46 33 36 31 40 34 41 49 31 29 40 36 48 31 40 34 36 38 33 41 29 33 41 39 31 29 36 24 34 37 27 38 26 30 36 31 44 33 36 28 28 28 38 31 38 26 28 34 33 33 29 30 28 35 32 32 25 30 31 30 29 30 27 24 36 38 41 32 31 41 42 41 29 36 36 23 42 31 37 33 25 33 29 29 28 34 36 38 35 35 35 28 36 35 34 39 31 39 39 25 30 37 27 31 27 35 31 27 28 27 35 28 35 46 36 32 34 36 31 27 28 30 36 22 38 34 33 32 26 34 39 33 31 41 42 34 30 24 28 37 38 28 26 36 31 39 39 37 26 36 23 34 28 43 37 35 31 32 41 32 38 29 38 31 31 38 34 30 28 24 21 37 37 19 32 21 23 32 31 28 33 29 41 41 40 31 26 35 34 20 24 37 32 26 36 28 29 26 31 42 39 41 38 37 25 35 33 32 22 32 35 34 36 32 27 26 27 31 34 26 33 36 38 37 36 32 27 33 33 40 38 37 33 44 37 38 25 29 25 28 33 37 43 35 36 25 39 36 35 31 30 37 35 41 28 33 36 44 31 39 30 30 35 35 33 36 35 41 48 28 25 28 35 24 33 35 34 32 29 30 40 27 30 39 31 37 45 34 29 34 32 46 26 19 37 27 35 32 36 35 46 34 42 33 29 36 31 34 27 27 38 27 37 27 34 27 36 22 26 26 51 28 23 38 27 29 29 31 28 28 25 34 34 29 25 33 41 28 37 33 34 28 40 40 28 33 33 27 31 33 30 28 38 37 24 34 36 27 24 40 36 45 28 32 38 33 45 32 41 33 46 28 32 22 38 29 29 30 30 39 34 44 31 32 33 24 36 32 40 39 31 31 27 36 40 33 39 25 40 30 40 26 36 33 30 37 29 36 36 34 40 39 26 29 38 37 34 24 35 46 28 40 42 38 46 25 32 36 31 32 27 37 36 23 25 34 30 32 34 40 36 30 39 31 36 25 33 31 33 36 24 28 26 31 33 30 47 35 40 33 41 26 32 44 34 40 34 20 37 26 38 43 31 38 33 36 37 34 31 29 33 23 26 32 36 34 42 22 33 33 40 29 32 37 34 23 26 35 26 31 32 38 32 28 26 31 41 29 30 27 32 24 35 31 40 32 37 38 34 40 31 33 47 32 36 54 26 31 42 28 32 31 40 31 40 38 32 35 33 37 26 27 17 29 31 30 28 34 43 28 35 31 35 48 36 38 26 27 24 36 34 21 28 34 30 35 29 40 27 35 41 39 51 26 37 32 28 35 33 41 27 36 33 34 36 37 28 36 30 26 30 41 39 28 40 29 28 31 41 31 33 35 34 35 28 43 27 32 28 38 29 26 31 26 35 32 32 33 27 32 30 42 27 30 28 38 38 38 25 28 36 19 27 29 37 37 39 38 27 42 41 32 34 33 37 30 34 34 34 31 27 31 33 38 31 28 28 25 34 44 39 36 29 40 33 34 27 30 41 31 40 44 32 35 24 18 29 27 32 27 41 27 30 34 24 48 33 33 22 28 31 34 35 36 33 30 28 36 30 25 34 38 29 25 27 39 27 21 31 39 29 32 34 31 24 28 33 36 23 30 26 27 37 31 44 31 31 35 30 34 34 38 25 28 38 20 39 40 31 38 21 32 37 35 34 36 24 28 24 28 38 36 31 29 40 28 26 40 34 38 33 26 29 28 34 28 30 36 33 35 40 39 40 32 37 29 34 36 26 40 28 30 33 32 34 33 35 27 29 37 36 32 31 34 28 31 28 35 38 46 33 36 34 26 37 31 30 35 40 33 34 40 39 38 29 39 35 39 30 36 30 33 27 31 30 31 42 28 33 31 29 30 29 35 41 35 29 40 34 30 31 26 42 39 50 44 39 34 25 30 32 41 36 28 22 35 31 31 35 26 49 38 43 35 31 26 34 26 38 29 30 17 31 31 28 33 20 35 32 30 34 22 35 27 32 33 30 27 34 32 31 40 43 36 35 36 32 25 41 37 32 35 35 26 29 33 29 40 20 25 34 38 28 30 25 33 24 41 38 32 33 37 36 31 22 35 33 29 32 33 31 44 40 31 30 34 31 30 39 37 28 34 28 36 35 24 37 35 25 47 31 28 30 32 39 29 22 34 38 27 27 32 35 44 28 26 25 32 34 35 32 36 34 37 30 38 30 29 27 45 34 33 28 37 42 31 37 38 33 31 39 21 36 25 38 39 28 37 32 37 34 29 36 28 27 30 27 33 41 33 36 37 28 34 39 26 22 32 36 33 27 23 27 30 31 33 35 22 32 39 38 38 30 33 37 37 33 34 31 42 40 30 23 26 40 31 20 28 24 24 31 29 40 37 39 44 30 32 28 40 21 19 32 27 32 28 36 22 30 15 28 31 33 30 33 41 27 31 28 39 29 33 24 30 35 34 20 35 40 34 29 28 32 29 35 24 28 27 26 37 35 28 30 42 35 44 26 28 30 43 31 25 29 34 36 22 32 26 27 36 27 31 31 34 32 22 28 35 39 35 34 27 36 32 30 25 32 31 39 26 31 30 23 24 40 28 40 34 27 31 42 37 30 24 38 41 34 25 21 26 31 30 33 36 25 36 26 34 38 25 44 35 41 25 36 33 27 27 28 32 36 29 38 34 36 42 34 42 33 24 32 44 39 33 34 34 29 41 28 27 29 34 32 29 30 22 32 37 38 38 30 32 37 40 24 32 32 24 27 32 23 23 29 32 35 27 31 41 38 29 23 37 21 35 28 31 38 35 36 29 27 24 25 28 35 46 31 35 46 39 34 35 33 39 33 37 27 39 38 34 24 33 24 26 37 36 30 30 39 33 26 32 40 30 38 44 27 28 41 25 34 20 31 38 22 40 34 36 29 29 26 40 34 35 38 27 28 33 34 30 32 31 48 35 28 32 30 27 32 30 34 32 35 46 37 40 34 31 26 35 31 51 33 31 32 28 33 28 38 30 27 34 30 35 28 29 26 24 36 33 33 30 32 41 38 36 26 30 43 49 31 31 35 32 33 39 35 34 27 38 40 33 32 27 45 33 28 29 38 36 30 23 28 43 47 33 30 36 33 37 31 35 30 34 36 36 37 32 30 32 40 29 34 41 34 33 27 36 47 32 28 27 27 29 30 25 37 29 41 23 46 31 33 49 17 34 39 35 23 24 30 33 30 26 30 38 34 35 29 21 29 28 29 34 26 25 33 30 32 35 26 35 41 35 37 26 33 30 34 23 38 31 26 24 39 35 43 33 36 33 24 23 37 27 35 36 31 41 40 27 30 29 27 39 25 26 37 34 27 23 39 34 39 33 31 38 32 45 31 36 40 33 24 34 32 27 32 35 27 28 40 31 33 33 37 30 31 35 30 28 35 37 28 29 27 25 27 36 30 43 26 25 37 28 36 26 37 36 17 31 30 27 40 30 29 35 35 33 36 33 27 48 28 33 31 31 30 24 38 32 40 49 21 26 34 43 26 33 31 34 41 29 36 39 28 37 36 29 22 29 26 41 39 38 33 31 33 34 33 42 32 30 35 30 26 37 32 43 31 30 25 30 32 21 29 35 12 32 43 35 38 28 39 29 34 39 38 38 24 42 34 36 27 26 35 34 33 35 29 21 27 22 29 34 43 38 40 30 35 37 28 41 39 35 25 29 43 29 30 31 20 37 25 30 38 39 37 27 35 19 38 24 35 33 33 20 35 34 34 33 41 28 30 34 36 41 22 36 28 43 31 33 28 25 26 23 39 33 31 36 31 40 48 32 30 26 36 34 37 41 30 27 35 30 27 35 37 37 27 32 33 37 32 44 44 37 29 28 35 28 36 34 33 36 36 33 34 35 39 32 36 27 37 47 25 34 23 23 38 38 34 28 39 30 29 29 35 38 34 32 42 32 25 35 41 28 21 38 32 34 30 38 33 35 26 28 26 36 29 28 37 50 25 33 37 37 24 37 29 30 33 36 42 35 26 31 27 29 32 33 31 37 32 34 30 43 25 40 23 39 35 35 28 36 26 28 31 34 32 29 36 29 23 42 34 32 31 32 38 29 36 19 31 36 31 36 46 28 32 28 31 36 34 28 33 42 39 26 40 32 27 23 26 42 42 31 38 30 32 33 33 26 23 26 33 33 35 31 27 35 44 37 27 30 31 33 39 52 31 29 35 51 40 34 27 31 43 28 29 41 28 30 31 38 38 26 31 37 40 26 39 35 22 41 31 27 33 46 36 29 32 26 40 30 37 32 32 27 34 39 35 33 37 27 30 29 29 26 31 34 26 38 36 29 37 42 32 28 40 43 31 38 38 43 41 32 36 32 32 27 30 39 32 40 34 32 30 27 26 35 33 28 30 30 21 37 35 27 36 30 30 35 38 37 45 25 31 37 20 41 32 32 31 31 29 34 27 36 40 40 42 35 28 41 37 34 37 41 19 38 29 26 31 34 26 34 31 28 31 30 35 35 40 28 32 32 34 34 36 34 37 29 24 33 48 35 42 34 25 45 26 32 34 32 23 29 27 34 26 35 40 27 40 30 43 27 33 33 33 37 36 31 27 41 27 32 27 34 26 30 31 38 38 33 33 42 38 33 28 37 45 31 26 35 38 41 35 35 32 32 38 26 27 33 33 32 47 28 28 34 37 31 33 34 37 33 24 26 24 27 46 27 35 41 39 25 40 34 25 33 30 26 42 27 37 30 30 25 32 36 29 25 28 44 30 30 35 37 36 30 31 44 25 37 26 41 29 31 38 37 27 35 44 30 37 30 23 30 26 31 36 33 42 37 31 35 29 30 30 29 33 40 28 33 45 28 36 28 36 37 31 35 31 36 32 26 32 37 34 42 34 37 35 34 38 27 25 29 40 35 35 30 30 29 31 29 30 27 37 34 33 37 25 38 31 34 37 39 26 31 27 35 41 34 30 39 25 21 26 25 33 43 41 36 30 36 31 41 31 22 37 27 31 30 19 40 48 26 34 32 40 28 26 33 34 31 24 36 27 21 34 39 42 32 30 28 33 39 29 43 37 29 35 25 31 24 30 31 34 44 32 41 41 26 24 41 36 26 30 33 42 45 35 32 22 35 31 21 37 30 34 38 31 32 31 34 37 43 28 30 36 34 33 42 29 29 36 32 35 33 30 33 35 29 37 35 42 23 30 25 39 46 39 29 34 57 35 27 27 30 31 31 27 25 27 40 29 35 26 31 33 33 29 34 40 36 33 25 30 29 31 33 27 36 36 32 34 26 23 31 40 32 33 29 40 40 37 32 29 30 31 34 30 41 21 18 28 30 25 41 28 35 43 36 34 32 35 29 33 38 31 33 35 37 32 32 30 24 27 27 38 30 43 43 29 35 24 23 27 40 46 28 30 29 39 31 33 33 37 31 37 23 40 25 33 36 30 37 34 31 41 23 29 35 26 30 34 38 34 27 23 33 34 30 25 31 43 24 29 25 37 27 33 21 28 29 27 35 34 40 28 27 40 37 29 36 35 32 26 28 24 35 27 31 34 36 33 28 30 40 32 18 31 31 34 24 35 37 31 28 32 39 36 35 32 22 38 35 33 37 32 31 30 31 32 28 28 25 29 31 32 29 37 31 37 27 30 32 42 31 30 31 33 33 38 32 41 24 30 24 35 28 37 37 30 27 29 30 34 37 33 35 29 36 37 37 25 31 33 38 40 30 29 25 34 42 30 39 39 30 31 24 34 45 36 36 32 40 35 27 37 30 27 30 33 31 37 28 27 32 25 26 18 25 47 38 22 26 32 45 37 26 33 40 37 39 33 43 31 36 33 39 25 33 34 34 37 29 31 31 34 32 32 31 31 32 30 38 35 44 35 30 31 33 36 41 43 28 40 34 23 48 26 27 37 31 35 34 29 33 26 27 31 28 35 29 41 28 27 24 35 30 43 22 36 32 36 21 23 37 33 29 39 51 29 37 33 41 31 31 33 33 32 37 35 36 27 34 30 40 27 34 35 36 31 29 48 42 29 41 35 36 32 30 30 29 39 35 32 34 35 27 40 33 34 35 27 34 35 30 34 30 40 28 27 31 34 28 40 30 32 37 37 35 39 34 28 35 28 31 28 35 36 44 29 30 34 40 29 34 28 33 33 41 34 37 33 29 34 34 35 32 25 31 37 23 33 27 36 35 41 23 30 27 42 25 33 26 28 26 35 56 39 29 30 33 31 32 33 39 40 33 25 38 28 31 31 21 35 38 21 46 26 29 29 30 29 39 29 43 29 34 38 27 34 36 53 45 29 36 40 39 36 30 40 31 26 24 28 38 36 31 33 31 35 47 40 39 35 30 37 34 32 31 28 34 31 29 40 38 29 32 31 34 22 26 24 34 38 35 33 30 26 35 41 29 35 32 35 31 30 32 31 25 38 32 29 31 38 21 30 38 31 32 36 34 28 29 36 33 32 22 33 27 38 38 35 30 25 23 35 45 17 27 30 34 30 35 35 24 35 29 38 27 30 37 26 49 30 22 40 34 29 41 36 33 21 32 29 30 26 32 31 35 39 28 37 27 40 30 28 27 38 33 30 35 35 40 26 33 30 35 45 26 31 26 34 23 45 33 28 31 23 36 36 42 32 36 30 43 39 43 42 38 43 27 30 29 42 31 44 34 37 30 30 42 44 30 42 32 25 35 28 26 39 38 32 24 28 43 34 34 23 29 38 31 34 34 20 32 32 37 30 33 33 27 23 22 33 25 41 39 36 30 36 30 20 32 29 29 28 39 33 32 34 23 24 33 32 29 31 35 21 36 30 36 29 29 31 30 29 32 35 39 33 39 33 38 28 34 33 36 36 34 35 46 28 41 34 36 26 26 33 32 26 26 36 42 54 23 28 44 33 32 41 34 27 33 23 42 28 35 37 35 30 31 37 39 26 32 37 41 33 31 39 36 34 26 39 37 34 31 41 28 28 27 27 34 29 38 27 23 34 32 41 33 24 33 31 33 32 35 33 36 25 35 32 31 37 33 48 37 44 30 46 33 30 28 30 48 31 44 26 31 24 24 34 24 35 24 35 31 34 29 40 31 26 39 28 33 39 45 25 31 22 40 37 41 35 32 32 24 28 32 28 36 28 20 29 33 23 46 32 28 33 30 39 36 30 28 33 31 32 34 36 34 34 31 27 35 31 32 32 24 33 30 28 30 35 25 32 32 30 22 35 48 29 34 35 28 47 44 35 35 56 32 31 24 29 26 43 41 32 47 32 40 29 28 48 24 29 33 33 32 34 21 31 30 48 46 29 41 30 42 32 36 35 39 29 41 34 31 31 31 26 36 28 37 35 40 39 35 30 27 26 43 29 32 30 24 29 32 35 42 27 41 33 39 29 31 37 41 38 39 42 29 33 30 30 33 28 34 35 34 34 32 34 28 33 36 39 41 34 45 26 38 34 37 32 31 34 30 27 31 27 36 38 34 40 39 32 32 33 31 33 34 27 31 43 31 29 29 44 25 35 28 41 24 48 34 39 28 35 33 29 29 31 33 40 31 29 34 31 34 36 35 29 42 31 34 38 49 33 31 30 29 29 30 30 42 29 35 25 35 32 26 37 32 26 28 26 35 28 28 24 39 23 30 28 34 32 35 31 34 35 28 32 24 35 42 36 31 34 44 29 34 33 32 38 34 24 33 34 29 22 26 33 37 25 28 23 32 35 39 34 25 38 35 32 29 30 42 32 29 26 31 28 37 41 41 38 36 30 39 30 31 36 44 32 26 39 34</t>
-  </si>
-  <si>
-    <t>JSB(8.532652394547316, 7.8838927355427995, -278.3297315553703, 2002.9446610988975)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239 203 230 292 207 233 206 121 208 150 236 241 237 236 194 253 272 224 230 259 240 205 203 170 268 241 146 143 219 263 165 245 245 215 253 234 215 290 211 262 179 245 215 186 244 259 142 123 205 265 215 227 291 237 171 280 209 227 197 204 243 307 170 209 295 205 192 196 213 189 231 252 247 302 184 291 246 260 209 247 296 228 334 162 228 238 174 337 302 188 353 295 230 231 149 170 233 244 118 213 284 215 189 222 161 178 204 182 227 310 155 162 278 229 216 309 254 174 192 220 208 237 248 182 229 216 247 273 295 232 133 220 240 227 134 304 146 328 288 227 137 314 205 228 202 203 260 227 222 333 247 202 225 306 217 182 305 217 174 146 297 243 142 252 216 213 182 256 152 250 300 387 177 188 202 232 281 279 276 182 200 330 193 270 267 304 239 218 210 209 277 202 190 195 275 186 283 255 279 278 222 175 186 234 193 282 211 260 289 257 231 205 247 191 132 279 231 294 267 266 249 235 315 232 257 223 138 216 246 281 234 194 195 202 227 248 277 288 268 199 342 340 310 204 279 212 226 218 284 154 270 185 203 264 187 277 297 176 235 175 354 269 185 197 116 197 205 146 213 153 221 214 214 190 231 170 155 250 217 182 210 248 199 267 168 233 196 295 153 293 244 239 267 211 297 218 225 246 245 266 254 243 212 225 263 152 313 223 303 228 231 198 218 185 241 246 240 244 195 327 251 154 296 301 180 273 325 268 213 135 226 274 203 261 215 213 129 217 191 280 207 285 210 211 260 156 121 209 211 203 197 234 356 199 240 275 233 163 196 203 278 294 152 165 209 162 179 251 216 181 197 227 204 226 180 196 173 313 252 246 273 270 281 300 209 202 146 165 226 257 234 294 154 191 235 203 243 186 227 217 264 244 253 203 211 237 279 230 267 270 185 238 221 180 238 285 310 325 187 276 265 282 176 212 202 288 206 241 256 228 260 195 248 208 212 256 267 258 184 256 103 224 202 192 197 191 175 213 242 222 210 169 234 291 242 239 243 177 287 296 329 170 201 246 195 311 191 202 246 226 332 293 294 175 248 283 152 270 263 293 250 292 207 238 214 174 281 148 283 268 203 203 214 239 159 199 258 315 220 225 247 209 266 193 272 315 216 179 348 247 160 198 323 204 251 194 307 227 175 247 256 220 272 247 230 194 252 266 144 254 219 177 203 280 254 283 217 223 268 230 244 173 220 207 270 259 129 239 217 191 191 219 213 233 294 191 275 284 207 232 171 262 168 171 286 201 198 213 281 235 216 128 184 222 190 289 239 288 251 300 151 197 274 250 184 259 169 192 211 233 127 310 238 232 302 319 212 225 276 250 159 205 301 220 256 242 250 238 251 243 187 253 281 246 258 276 185 293 232 235 142 277 271 278 252 235 168 220 216 358 231 240 184 305 180 91 244 191 280 246 313 207 258 294 304 235 277 264 265 212 192 235 280 203 263 240 212 220 155 260 190 203 175 194 304 256 207 212 226 211 210 222 269 229 322 252 196 239 205 265 299 215 168 257 192 219 158 213 122 337 219 173 221 276 263 232 197 189 201 208 198 244 213 236 297 228 226 237 311 233 245 171 235 167 248 245 237 238 261 260 133 244 299 213 197 254 242 288 278 198 223 205 209 247 248 238 235 214 351 195 245 243 272 200 212 198 144 172 308 334 180 157 268 213 247 308 263 279 256 156 234 171 328 255 262 232 231 257 239 241 323 216 221 221 246 169 284 184 224 258 258 195 194 268 359 178 207 232 203 284 192 329 120 284 172 218 128 185 196 221 262 319 214 173 156 135 304 243 131 163 253 217 281 257 248 218 234 243 362 255 322 201 271 205 260 232 200 252 259 227 183 269 274 283 247 246 237 243 329 254 229 237 239 217 186 284 138 292 281 159 230 204 254 267 284 233 225 283 241 270 200 259 270 319 195 289 195 249 245 160 136 379 195 178 264 333 177 285 256 155 256 195 211 190 235 225 205 259 161 192 196 268 158 200 222 263 221 163 320 257 217 216 336 203 350 245 210 279 290 145 201 209 211 327 289 182 167 155 213 194 259 235 299 214 171 185 180 243 318 250 243 166 274 210 257 265 205 248 224 214 194 236 192 121 389 215 247 240 275 194 232 234 236 268 278 178 244 215 286 225 175 228 203 265 283 251 244 235 239 255 196 308 209 185 221 183 210 191 237 217 233 211 212 209 245 219 187 234 146 147 224 286 236 133 268 250 254 247 187 254 256 240 249 196 184 151 232 313 237 186 213 156 229 299 176 145 219 238 246 270 224 350 239 209 146 215 207 183 185 222 202 230 242 292 180 230 236 195 219 337 298 193 251 211 247 251 173 172 354 233 120 211 214 182 254 258 186 241 276 184 211 228 231 280 189 206 264 303 232 300 200 301 216 156 210 236 237 191 137 264 190 202 255 268 279 200 229 294 273 241 356 221 186 249 260 179 284 224 353 163 308 131 189 263 318 177 246 198 184 224 246 310 214 283 288 281 218 216 318 217 213 160 268 310 263 269 222 342 150 218 234 337 239 230 309 254 123 218 221 256 225 172 225 288 145 302 273 374 205 231 278 324 216 203 280 239 224 206 258 198 202 228 259 139 343 250 232 234 271 198 241 262 194 289 281 159 231 361 260 247 223 294 233 206 141 165 248 186 263 235 250 203 291 276 216 290 186 233 244 275 261 237 193 222 203 190 252 307 249 222 175 315 217 295 162 161 231 161 265 142 268 291 193 203 213 141 240 278 238 237 140 273 227 219 272 276 204 154 250 206 213 197 166 275 229 229 278 199 298 330 197 238 305 227 204 235 243 254 145 276 332 180 255 180 292 172 276 245 245 285 186 290 253 237 215 320 167 154 181 204 186 214 252 210 216 193 273 214 168 241 271 235 285 234 215 231 194 221 273 136 153 283 205 153 220 220 152 228 244 234 188 181 167 175 224 265 152 171 261 256 158 240 183 266 212 199 292 205 187 222 221 210 180 214 234 172 289 177 185 167 185 214 196 159 202 221 200 211 269 214 243 210 201 239 307 232 200 287 160 294 238 268 145 258 172 213 206 360 253 115 171 279 170 241 233 279 215 205 215 192 196 159 230 316 133 266 232 228 210 288 259 212 328 267 139 265 242 187 181 328 213 195 235 286 258 265 229 266 264 265 298 310 162 215 190 263 209 254 180 318 249 266 165 176 191 269 196 390 259 293 209 217 180 192 235 261 259 191 322 276 168 249 229 164 268 285 207 203 204 191 208 262 212 327 263 210 275 184 210 228 115 200 262 176 261 177 218 175 307 249 265 234 232 255 237 232 161 140 258 189 218 243 241 271 155 211 237 321 232 204 243 253 340 235 295 239 232 241 195 251 201 220 298 260 249 253 182 141 320 206 233 233 151 135 194 277 297 179 270 331 274 250 299 241 166 250 240 224 224 186 250 142 317 310 238 185 236 178 247 249 255 236 253 294 218 179 244 185 205 268 254 213 310 199 258 291 194 141 339 259 229 260 170 208 208 284 201 223 154 258 244 278 213 159 295 221 237 244 222 310 197 198 158 207 196 347 238 280 187 207 196 279 117 140 185 250 221 193 336 272 249 309 179 226 180 256 235 235 220 177 280 207 169 166 268 182 209 296 265 244 275 227 207 220 124 249 247 179 221 313 272 230 190 192 176 212 272 256 256 245 214 240 295 170 253 169 200 227 237 172 214 235 316 329 286 316 278 276 301 233 249 170 157 248 269 246 268 305 270 242 305 202 270 241 236 195 250 290 288 257 212 158 337 243 174 281 220 277 318 313 344 239 292 237 249 245 261 208 215 285 320 311 202 254 347 293 258 280 178 258 226 247 211 253 224 142 257 272 295 208 210 184 349 172 268 260 309 300 260 384 152 224 176 258 160 321 223 190 230 258 217 276 230 274 260 270 334 372 198 209 229 294 137 295 242 259 261 254 241 194 303 190 201 234 176 172 232 158 194 228 253 198 276 244 264 180 301 194 203 249 210 185 267 306 271 295 236 206 211 163 191 272 245 191 258 151 207 206 175 243 227 287 278 172 210 257 213 279 233 173 170 211 228 242 222 189 206 252 253 245 212 177 172 251 114 253 187 252 205 133 235 225 264 154 248 267 309 288 262 310 231 169 180 238 287 298 237 258 243 195 213 224 259 142 208 341 235 215 236 302 253 233 297 202 243 235 304 272 161 156 175 210 173 320 174 199 323 280 220 226 303 209 191 268 199 211 244 147 210 249 305 195 248 236 193 276 219 211 346 196 192 282 221 216 321 321 211 199 212 234 229 236 188 215 204 271 327 305 160 270 240 296 321 197 198 253 272 197 214 205 172 304 193 147 235 280 199 268 226 207 231 282 247 314 261 173 238 164 190 209 247 215 221 233 295 247 229 221 149 163 144 252 184 289 229 268 289 276 251 232 291 178 300 321 240 170 209 245 274 217 221 221 234 219 190 218 212 201 239 172 362 245 316 283 215 275 210 249 258 210 182 253 332 251 267 213 142 242 227 71 215 302 156 231 186 223 194 261 213 224 229 186 140 241 301 285 279 248 316 211 218 214 228 324 222 259 179 268 239 269 167 293 123 289 180 227 241 279 247 225 219 248 247 259 137 250 210 286 209 191 202 199 281 204 335 187 263 248 172 217 212 187 219 303 277 146 264 181 218 228 252 182 273 248 346 324 287 232 145 189 182 180 187 285 189 257 267 228 311 217 145 199 237 219 287 209 181 262 225 253 261 254 239 180 193 264 279 393 194 281 237 242 193 178 282 223 233 224 164 239 286 182 206 144 328 197 172 196 231 229 166 257 227 241 320 216 226 197 206 141 126 198 242 213 272 199 264 248 360 188 293 229 196 318 263 213 198 223 293 226 195 229 189 243 287 299 226 239 235 186 190 285 274 176 162 345 251 183 257 184 353 213 271 169 232 186 157 181 232 254 277 213 304 239 282 179 306 286 242 235 286 223 270 251 227 223 249 255 325 215 298 208 242 338 200 161 224 175 217 199 221 231 194 201 292 223 228 199 251 126 208 278 252 242 107 189 220 258 229 244 286 257 171 214 257 245 205 258 299 270 246 188 237 362 262 302 182 245 253 250 199 208 201 203 242 292 201 121 237 199 259 151 284 232 190 306 225 196 288 232 156 178 244 212 176 203 272 255 275 202 250 131 213 251 274 210 283 327 239 277 175 181 320 176 195 249 267 237 206 208 176 184 250 107 240 185 191 206 264 251 248 221 288 216 220 240 145 168 176 302 183 221 186 238 215 205 270 263 196 279 178 251 130 186 166 271 152 287 173 189 252 225 218 206 231 256 245 277 265 194 248 245 184 234 238 196 248 213 237 355 202 227 304 263 300 285 299 242 197 300 184 275 171 207 260 149 171 333 247 148 232 220 202 282 224 213 202 229 165 151 265 285 260 122 321 202 191 184 231 128 171 176 177 241 208 198 220 264 264 268 205 184 242 225 296 382 205 283 213 284 285 246 200 272 152 257 197 247 269 229 243 247 273 237 161 292 211 157 293 185 254 218 261 241 182 204 259 161 228 206 163 231 256 267 172 320 252 231 340 272 197 202 186 221 269 228 201 184 201 226 163 282 262 251 256 247 292 155 292 282 256 243 238 350 247 194 219 313 348 200 231 253 260 245 242 308 191 239 227 218 241 256 298 231 186 263 205 186 308 237 236 143 230 240 162 282 163 222 148 205 238 190 271 213 191 216 226 242 245 203 202 140 256 269 230 193 167 170 221 238 240 301 200 259 230 181 150 216 274 286 267 151 265 257 302 279 331 243 156 167 132 148 160 259 244 157 210 302 245 304 194 321 239 214 197 259 243 338 227 175 220 280 260 219 295 212 263 214 248 244 267 269 168 185 262 327 234 244 284 255 197 190 210 174 311 174 343 170 201 272 174 207 300 268 274 200 236 306 209 206 154 207 178 317 206 259 175 198 242 200 231 221 230 281 252 197 343 260 276 185 183 180 215 148 215 202 227 231 179 222 286 168 184 272 282 218 217 258 159 266 314 227 207 215 212 224 144 334 277 240 299 227 150 224 179 300 285 329 201 167 299 221 281 280 245 266 218 111 272 232 247 184 276 248 216 269 292 196 248 211 264 292 214 167 330 215 249 314 201 203 323 196 255 268 263 210 263 233 222 255 215 211 136 181 212 164 155 282 191 134 284 189 205 220 228 296 217 301 199 110 183 213 275 187 231 313 180 260 232 176 259 266 300 191 180 152 287 273 271 266 239 352 226 174 308 231 276 239 183 255 168 182 201 209 225 184 148 251 239 273 242 279 188 245 242 239 176 197 295 229 264 218 212 219 223 285 253 243 248 214 107 139 189 193 201 296 253 212 254 208 183 302 224 168 221 236 273 213 169 374 188 161 190 293 163 268 302 304 190 229 170 223 203 264 303 300 303 237 248 221 252 250 303 152 223 256 269 199 251 235 205 281 254 236 190 265 182 184 146 197 101 230 173 301 246 211 173 233 251 304 238 171 237 125 293 175 161 273 164 248 188 250 254 271 205 220 192 199 195 180 210 249 217 202 185 185 337 226 205 246 174 250 200 204 208 251 168 260 260 165 306 210 170 338 156 253 191 292 279 163 235 215 226 259 240 221 178 227 179 214 197 180 212 211 195 160 181 261 210 264 242 159 220 227 241 201 254 199 192 258 262 263 223 263 321 229 177 354 151 265 174 158 190 269 266 263 280 291 286 317 248 222 188 337 188 250 307 216 243 274 251 238 244 273 189 216 254 204 176 238 261 203 211 226 243 166 252 242 254 251 177 213 137 220 179 318 199 231 259 203 256 215 159 231 222 274 245 265 275 199 235 174 238 182 377 284 208 210 369 183 273 292 171 238 314 311 291 302 205 311 210 180 234 189 251 245 230 216 297 228 198 236 342 176 211 333 312 211 175 208 243 233 139 202 305 224 314 245 232 252 272 264 235 210 179 290 247 203 270 254 233 168 174 284 237 361 243 278 304 241 219 291 180 281 265 172 256 297 196 245 163 194 268 304 217 230 183 203 215 231 284 241 202 258 256 200 161 240 159 194 272 131 179 230 221 240 238 220 212 194 272 145 125 289 198 196 182 335 211 223 267 261 253 252 152 240 319 243 205 216 299 155 184 203 259 211 262 194 262 143 119 254 169 168 141 187 305 248 258 159 219 194 211 328 266 221 238 329 196 270 254 128 312 205 172 279 236 240 220 204 232 207 232 172 274 217 280 263 201 202 155 217 334 283 297 157 241 265 245 313 221 202 234 220 247 244 223 223 282 268 180 327 264 200 190 201 270 213 174 200 223 284 201 188 265 293 211 257 191 282 266 199 275 166 304 349 241 170 212 206 237 210 227 233 261 216 233 213 288 222 297 179 146 282 360 143 102 175 148 195 233 374 380 262 155 183 258 238 260 208 187 168 125 244 249 276 229 280 219 240 242 179 236 239 197 177 233 212 204 222 97 221 330 243 196 189 293 271 313 162 254 243 238 209 259 199 319 287 288 363 277 303 156 185 235 238 239 204 326 276 308 159 159 244 187 290 244 246 209 209 241 220 226 219 274 225 221 192 222 216 184 202 262 229 183 197 186 210 296 239 276 288 288 253 121 217 211 223 337 254 217 279 353 216 251 174 251 193 276 271 217 267 208 250 123 221 188 273 224 209 268 247 350 253 273 255 320 286 186 135 223 255 200 260 267 196 298 263 222 249 204 214 212 217 213 196 195 251 200 310 141 286 167 354 239 173 188 293 193 265 188 171 248 236 179 171 286 240 292 178 302 272 211 217 250 98 253 111 305 299 248 249 200 236 284 248 258 328 263 138 293 168 237 305 221 171 162 145 211 206 207 138 228 249 130 170 275 184 216 226 202 237 230 165 318 248 247 262 195 228 257 150 179 273 243 226 257 209 167 217 260 212 348 313 286 237 340 166 147 254 339 215 132 200 220 218 295 238 305 270 155 354 279 241 196 322 179 153 237 232 188 201 233 255 300 212 231 182 260 184 225 241 227 268 205 195 185 221 280 261 241 280 306 320 243 187 227 243 215 219 200 196 285 248 298 211 258 222 264 232 305 287 285 228 203 190 238 313 189 137 226 198 235 181 278 166 271 151 251 176 269 239 252 306 256 272 240 289 142 294 265 224 334 242 196 263 265 262 259 220 234 249 281 215 207 250 187 266 204 201 194 130 165 137 234 192 277 197 279 230 219 265 315 348 329 208 178 277 184 199 232 310 265 301 201 122 276 289 294 205 215 230 270 213 194 210 154 308 359 174 218 199 258 201 180 228 122 239 205 236 248 155 275 193 235 188 240 169 236 299 223 278 165 219 255 176 293 249 251 198 209 217 287 231 195 298 301 161 272 154 192 184 160 222 264 222 280 264 181 166 294 186 242 396 147 230 231 186 250 212 248 250 247 189 270 240 130 263 234 188 319 251 207 272 200 180 229 245 222 256 319 177 297 244 212 238 149 252 184 243 218 252 354 297 126 144 279 189 270 220 266 187 254 212 257 239 233 347 212 236 340 223 165 281 179 184 213 220 299 271 191 243 169 213 316 237 219 210 344 196 266 267 256 260 176 239 142 252 268 239 196 258 276 297 238 213 296 217 271 182 220 250 248 211 223 215 173 257 257 304 221 196 249 253 239 190 262 242 217 232 216 235 171 277 328 274 179 290 150 259 234 273 156 238 249 290 208 162 239 222 155 212 271 191 260 328 237 186 259 178 204 207 189 214 316 303 244 243 197 264 309 225 211 244 211 213 210 188 152 159 263 203 138 183 185 227 239 283 186 301 154 264 159 247 242 233 280 209 251 242 231 202 167 177 263 147 283 153 246 249 233 265 193 264 203 181 227 204 174 251 301 203 244 242 226 143 223 245 229 237 281 138 141 226 207 265 310 216 204 229 187 214 248 221 193 262 240 205 330 206 241 263 160 200 253 278 221 288 260 255 213 245 128 165 197 194 254 184 171 265 262 298 267 233 197 279 203 285 199 250 241 174 281 235 227 357 177 257 248 334 249 223 203 209 215 219 232 263 181 187 196 215 225 241 272 238 282 262 216 206 240 274 284 306 160 221 243 301 226 221 233 144 214 293 224 223 217 296 233 175 297 245 154 164 163 258 200 261 154 279 227 190 195 203 181 213 173 212 253 296 258 238 205 225 206 271 268 245 284 251 225 238 255 143 345 193 316 118 262 240 165 254 164 263 313 201 249 275 311 103 194 168 180 169 200 285 250 208 250 189 300 193 256 210 110 202 276 297 215 250 263 188 308 243 149 166 218 301 239 196 153 228 290 187 296 217 249 225 258 117 292 225 269 213 180 119 250 225 248 248 269 162 297 215 166 204 239 194 241 297 220 254 269 294 251 207 224 243 251 364 215 201 169 242 231 225 264 135 192 250 277 308 219 283 182 214 256 279 174 322 128 270 235 185 248 239 175 190 233 204 205 277 200 215 170 220 253 210 252 267 237 275 204 257 195 186 187 256 224 266 278 176 267 285 214 299 191 171 200 184 262 249 208 209 249 165 231 247 260 219 309 185 292 203 228 224 259 272 217 291 193 262 269 243 198 248 183 253 208 355 234 272 158 255 260 195 252 226 323 163 218 187 189 187 254 252 297 226 269 322 233 178 151 377 261 222 303 229 200 244 213 282 108 275 219 248 200 226 260 241 263 209 219 313 179 158 191 238 212 197 246 219 276 254 316 322 169 318 115 297 256 266 186 301 179 285 284 237 200 170 212 229 257 240 244 242 340 184 243 274 175 280 338 320 225 293 256 248 167 261 261 178 105 137 238 296 220 272 141 221 232 204 205 175 284 172 180 136 237 237 200 276 332 218 187 286 171 258 207 283 214 208 301 144 256 201 192 283 249 247 252 255 200 240 226 242 244 283 226 227 249 220 265 186 213 187 187 242 282 311 263 115 207 290 208 225 207 289 311 187 217 205 250 222 149 290 114 207 174 196 207 333 288 240 282 235 180 166 215 167 130 204 262 253 169 130 290 311 248 251 231 188 161 197 218 252 264 225 270 254 167 244 281 224 134 271 186 210 263 264 201 221 239 229 231 240 199 331 207 225 238 316 187 230 216 258 158 139 286 297 236 250 273 198 229 193 258 209 313 237 208 179 291 148 239 242 275 417 169 300 143 265 258 326 244 268 222 237 197 176 211 212 223 286 280 198 234 272 202 193 233 210 198 282 224 248 172 219 176 266 204 248 225 231 298 217 232 205 212 225 210 200 278 204 183 206 233 127 286 250 344 341 273 173 203 282 357 206 209 252 244 218 251 287 326 247 216 246 246 184 193 220 273 191 251 249 245 182 183 214 120 241 176 210 232 244 257 243 226 228 245 314 265 230 200 345 315 244 234 196 262 238 171 233 166 195 253 208 191 226 241 271 245 261 125 205 240 179 206 163 257 178 188 214 252 202 166 273 216 271 165 248 207 237 274 255 229 215 160 191 192 315 294 217 250 270 310 182 144 275 189 278 230 250 194 209 161 197 210 310 258 286 222 224 201 190 192 112 243 292 181 150 230 182 136 280 292 168 162 216 191 120 211 201 160 266 160 172 267 226 175 163 174 342 223 174 208 182 149 201 302 219 242 223 302 226 285 281 205 166 217 357 154 286 182 190 112 222 189 175 201 308 287 188 223 240 247 217 229 230 227 258 159 159 161 179 182 261 224 198 118 198 245 157 172 249 286 145 128 286 188 183 225 206 209 199 366 244 296 268 138 312 249 269 244 247 192 270 168 222 283 240 89 191 143 383 246 173 244 178 272 333 189 200 185 141 270 255 124 319 182 226 293 169 203 236 208 219 170 247 256 163 218 201 212 287 277 150 138 259 189 190 226 231 265 198 233 228 262 267 297 228 208 207 197 226 195 173 146 253 186 177 354 182 177 154 261 212 178 255 223 216 191 243 251 234 234 259 260 337 160 133 204 325 269 242 228 308 268 300 221 227 290 266 276 251 329 231 243 206 322 180 281 192 202 179 278 190 185 285 308 217 296 295 260 306 238 197 296 268 261 219 210 256 182 235 168 337 171 336 165 207 217 191 267 203 198 136 220 252 208 295 177 282 220 190 171 224 267 166 189 269 198 238 247 182 233 195 203 251 172 188 210 147 259 234 112 188 260 256 274 174 181 263 263 261 225 158 238 313 285 239 191 184 279 178 285 246 175 167 247 209 191 278 214 327 277 199 177 241 202 185 188 212 195 270 273 162 187 217 218 261 161 282 232 222 210 215 202 174 265 209 274 247 255 240 209 193 212 155 242 144 292 178 274 271 376 286 399 255 185 249 255 249 259 229 297 231 241 276 250 138 253 284 301 295 131 300 168 352 198 162 267 218 226 288 289 205 187 263 163 268 223 224 240 292 228 232 202 174 193 228 145 173 263 280 271 289 223 300 268 177 274 283 230 300 156 219 240 256 223 293 219 299 210 194 227 220 190 261 118 284 209 213 174 281 280 316 197 192 321 168 160 173 190 179 245 298 270 210 219 281 193 231 223 249 194 259 207 292 278 360 241 248 187 214 320 255 224 119 185 194 164 293 316 219 223 191 250 174 267 253 206 198 269 245 196 260 286 201 208 280 195 285 229 216 237 201 318 225 175 176 201 224 142 291 252 265 301 265 158 280 203 214 271 223 283 225 275 248 210 217 230 279 260 235 291 218 248 235 224 252 252 254 271 243 250 219 237 190 232 216 279 196 229 280 173 227 192 273 227 160 268 269 247 217 284 233 204 274 266 211 201 204 189 269 277 221 302 168 310 185 247 229 304 265 246 322 255 225 201 233 173 248 239 242 283 128 181 238 335 212 183 145 239 294 219 235 309 302 266 207 233 235 205 260 175 243 244 238 227 208 236 153 203 243 203 314 151 328 214 288 225 294 205 218 196 273 209 168 241 174 272 203 230 284 156 207 313 278 205 243 230 236 207 206 176 283 241 299 186 197 167 333 271 135 113 296 210 231 288 196 209 276 250 207 111 195 233 226 195 241 153 245 273 203 271 203 192 293 285 260 203 248 235 190 213 167 206 227 135 268 146 278 208 290 208 277 222 182 222 230 160 365 264 279 198 166 187 284 218 202 263 184 243 283 226 164 288 228 291 262 253 181 296 231 239 237 252 195 219 202 157 256 315 226 271 236 226 192 253 234 205 249 179 263 209 262 214 228 256 188 224 252 213 295 268 214 288 196 201 145 260 256 249 241 256 245 213 230 283 246 259 222 264 245 292 192 255 171 164 229 292 273 234 149 132 291 185 258 222 253 162 309 222 201 227 200 167 223 214 283 262 304 214 256 239 173 259 180 235 120 216 303 217 148 201 228 186 271 210 270 228 314 177 207 202 180 260 211 179 210 326 214 190 234 244 173 185 252 229 234 273 216 197 130 232 286 191 241 184 257 205 244 286 233 185 218 239 227 209 301 246 246 277 164 238 220 197 163 190 154 202 240 238 228 253 205 265 181 256 264 146 239 196 244 164 239 257 276 143 197 232 231 157 204 183 219 239 227 229 195 218 184 249 169 284 301 165 199 188 217 219 157 213 257 168 327 259 268 204 175 155 217 211 237 313 266 146 238 177 174 245 323 256 177 243 263 81 100 259 253 255 189 261 194 320 155 238 253 221 207 232 223 239 284 178 228 196 309 238 235 252 266 283 217 236 116 254 239 255 198 247 370 206 337 293 323 296 272 133 245 240 241 345 210 192 242 284 242 177 178 268 265 290 367 331 177 288 234 267 229 277 292 258 224 222 200 204 186 221 132 264 168 290 265 200 254 289 211 278 263 169 265 206 192 227 260 188 237 275 238 251 272 191 228 196 260 210 197 250 124 197 294 285 198 191 244 212 187 236 277 142 282 232 181 268 260 157 238 252 193 235 258 217 172 244 220 167 249 221 224 206 178 298 199 186 308 117 197 185 173 236 187 267 282 268 266 233 146 155 265 215 202 227 237 289 214 280 189 219 261 257 190 241 187 154 292 204 197 293 221 275 183 229 137 354 191 216 240 226 175 261 185 143 230 234 209 211 258 279 266 248 181 196 219 206 277 182 237 243 284 240 281 249 242 255 202 265 246 245 245 215 189 218 304 238 206 258 201 191 313 186 292 272 216 170 174 228 249 271 277 280 299 253 225 156 217 269 284 269 225 193 281 220 220 171 168 229 162 247 249 219 199 164 175 257 263 267 184 221 197 248 152 262 214 195 347 249 255 193 306 194 239 181 334 180 207 298 221 267 279 231 305 334 136 186 215 194 293 160 215 271 283 231 214 218 161 193 161 182 173 250 280 245 245 253 259 194 305 305 220 181 284 291 247 286 166 172 312 227 289 209 277 214 205 215 277 183 198 275 191 203 160 197 248 202 188 274 284 250 362 174 247 207 234 237 258 288 175 157 196 302 187 168 313 153 196 200 260 211 145 113 231 156 164 294 204 254 201 165 249 190 292 285 180 215 264 214 234 209 260 172 145 208 253 216 194 194 194 297 144 272 230 350 200 224 205 193 283 218 197 287 222 268 279 269 228 207 230 251 356 213 254 243 196 291 214 319 183 263 194 216 169 239 263 306 266 118 250 280 139 151 204 272 214 226 260 208 247 209 176 189 224 214 201 128 275 246 281 254 137 272 205 227 191 285 117 241 267 250 268 273 320 186 235 301 218 209 187 364 294 229 237 255 175 185 236 222 307 109 252 196 210 240 283 267 153 193 181 152 189 172 265 228 218 179 215 339 222 219 277 159 112 177 266 246 229 215 206 193 330 258 187 200 299 265 319 334 200 135 197 231 229 204 287 299 130 233 196 167 161 212 280 261 241 257 262 265 236 234 213 275 163 197 188 184 245 202 262 262 206 189 256 182 285 183 251 219 168 140 286 254 222 176 209 188 254 194 220 365 218 249 262 248 226 109 230 231 154 209 217 218 265 293 336 331 265 259 239 325 317 230 225 275 234 259 210 204 247 143 190 227 119 254 195 239 170 196 271 295 290 230 303 322 181 162 264 256 168 274 252 247 256 215 274 255 236 266 180 188 174 239 116 199 206 230 245 203 149 279 187 232 223 212 204 280 216 188 206 171 254 177 214 276 121 219 267 208 117 321 264 221 186 144 302 197 270 255 209 175 175 165 243 137 213 161 209 222 237 235 168 156 227 276 203 276 174 244 264 254 197 357 116 161 145 210 276 210 183 182 169 234 322 261 234 256 232 274 300 252 254 174 290 216 280 338 272 234 186 218 174 251 203 243 265 248 232 148 279 254 265 214 287 179 201 218 215 278 161 247 314 257 186 152 190 306 280 222 217 291 196 230 344 219 140 214 280 191 188 229 231 256 188 269 271 234 227 200 234 163 205 166 252 275 197 246 178 187 344 210 288 139 206 256 211 156 198 199 232 253 258 294 107 268 231 225 225 153 241 268 181 255 183 176 284 247 160 245 172 282 204 219 182 161 286 237 181 192 189 166 195 259 247 299 252 166 258 192 182 207 200 275 231 234 143 193 300 101 220 194 165 282 239 253 235 222 326 245 316 292 264 257 241 120 244 265 151 155 244 262 234 188 226 275 174 334 327 265 201 184 209 285 272 206 292 258 178 267 207 194 264 236 231 215 135 242 199 306 186 253 198 199 220 320 191 245 276 431 153 238 206 303 288 191 191 173 191 207 191 213 250 275 213 181 317 140 229 191 315 233 328 270 188 161 219 197 256 236 207 276 202 171 164 242 237 158 247 179 179 180 272 190 192 246 253 271 283 267 236 135 267 186 265 249 212 221 209 267 169 312 271 294 259 245 292 189 191 211 261 223 217 292 241 215 301 186 289 241 271 260 290 232 239 271 160 270 242 220 288 177 236 278 161 323 246 209 238 201 214 269 217 247 253 181 297 232 205 249 231 163 240 242 238 172 202 226 194 224 237 199 127 276 344 206 237 232 234 325 370 214 286 195 188 207 211 180 250 164 243 210 243 209 238 293 244 281 249 284 158 232 303 200 141 201 344 299 162 192 269 172 237 210 263 240 186 179 209 239 200 253 292 262 261 247 254 262 221 216 256 278 172 255 247 235 237 188 184 271 270 234 276 280 265 191 212 236 266 183 265 179 267 233 235 292 243 224 311 147 249 216 266 216 228 221 182 290 237 251 250 260 196 217 211 212 183 213 167 196 275 202 73 229 135 158 292 249 140 218 295 270 343 241 248 165 227 241 209 166 255 272 223 244 197 205 131 206 272 232 291 294 310 161 241 279 236 175 135 267 237 182 232 242 180 255 186 192 220 169 214 303 223 229 177 152 221 229 270 306 234 242 289 273 260 159 243 158 256 229 268 251 279 220 197 245 248 246 193 207 248 220 271 201 274 261 288 246 271 279 224 199 212 180 222 244 243 238 152 140 227 279 222 235 246 233 194 205 208 282 181 187 333 193 183 267 277 276 223 218 274 144 151 263 180 242 251 231 293 283 264 335 166 235 271 224 240 276 193 272 182 217 184 204 156 236 162 167 154 350 179 178 256 132 166 204 248 219 190 203 198 217 215 177 188 330 197 320 231 260 203 199 264 259 227 231 202 245 183 274 174 276 282 134 238 274 240 91 223 314 277 194 266 259 177 348 237 224 211 263 195 178 196 261 189 201 182 197 270 225 302 205 225 229 188 170 237 288 250 224 204 219 251 292 277 230 216 304 217 277 137 246 223 187 263 241 176 258 217 187 291 139 186 271 176 214 230 224 353 156 194 338 257 287 155 207 269 269 213 202 198 230 143 184 201 226 251 257 259 329 263 272 261 232 202 228 253 209 259 233 183 163 214 249 294 238 243 285 223 253 204 186 319 181 290 219 125 224 218 255 273 260 286 265 252 221 171 267 225 273 140 224 229 245 191 297 149 181 301 237 205 261 265 210 142 198 218 245 201 191 206 249 226 196 218 282 239 220 162 252 175 286 214 258 203 208 192 216 306 241 217 330 203 215 353 212 229 318 243 186 210 293 261 277 214 228 289 221 211 195 182 120 179 173 172 199 243 240 256 218 166 241 270 241 284 238 148 125 236 276 156 203 225 239 213 237 186 220 220 245 253 341 197 237 220 200 231 244 323 186 257 222 234 291 266 191 316 228 211 234 277 304 207 273 193 196 255 278 218 258 304 252 288 176 268 218 212 196 337 226 204 257 160 247 197 243 258 202 243 223 274 207 181 211 227 293 212 215 192 233 115 225 202 234 247 277 275 210 252 336 151 237 256 340 239 219 211 270 182 241 218 251 326 238 206 202 173 285 315 226 272 272 278 226 225 190 261 292 252 281 291 201 260 132 111 223 235 244 147 250 182 201 202 167 203 241 202 141 233 243 235 241 239 248 275 216 269 206 184 247 264 231 231 194 301 211 110 208 259 248 186 274 192 184 223 230 234 188 214 138 194 301 201 318 216 178 340 239 194 281 177 207 206 247 149 268 234 268 347 116 289 297 220 250 247 202 171 183 246 266 301 212 221 304 189 247 286 274 351 230 165 204 187 204 219 220 260 267 236 225 185 260 215 228 199 282 246 174 215 196 187 230 263 246 191 275 241 208 211 242 181 243 232 143 163 165 214 305 349 234 195 225 177 226 252 224 231 310 240 223 267 243 294 184 252 259 262 166 261 238 261 260 268 262 239 329 208 196 214 195 211 239 267 251 279 204 270 342 147 204 165 307 277 325 345 370 241 209 197 281 340 202 202 154 237 177 233 263 205 366 263 264 226 190 175 229 217 295 160 200 141 204 225 220 133 162 292 213 219 230 147 222 189 249 231 264 221 279 246 181 272 252 294 245 223 228 176 267 279 216 247 241 166 195 263 185 289 134 191 289 300 186 197 198 225 161 276 224 215 216 247 296 216 194 212 219 214 193 193 257 324 244 218 208 240 232 172 164 288 226 276 217 219 198 182 261 269 134 249 217 215 234 191 196 192 190 233 260 174 229 226 313 303 203 192 171 222 240 251 176 285 171 294 219 227 232 183 185 226 279 229 250 325 273 231 197 207 233 226 279 157 292 193 298 255 263 252 276 239 281 268 233 232 249 198 162 218 274 205 293 300 162 213 254 248 136 235 263 199 249 147 185 204 233 175 320 124 213 274 267 344 259 193 279 246 227 261 180 338 252 285 151 147 303 186 182 212 217 176 196 216 234 238 225 317 178 240 205 239 145 137 218 178 240 156 250 182 248 146 193 173 220 279 254 170 186 245 176 330 176 197 174 239 264 264 139 255 280 206 201 235 208 241 318 132 211 214 151 303 197 229 179 249 209 258 189 262 208 168 234 175 231 252 259 115 239 176 135 266 202 206 168 275 195 143 198 231 302 165 232 228 217 275 236 262 204 241 259 158 209 166 149 206 257 162 248 339 117 235 323 194 211 148 271 278 209 157 122 177 228 199 230 212 180 241 171 284 276 164 287 238 263 191 232 206 182 178 200 201 213 249 254 230 266 259 268 185 243 153 138 334 281 260 230 195 259 344 219 198 210 259 223 226 175 109 205 228 271 284 200 169 265 314 151 260 266 215 124 278 198 104 251 234 248 196 199 271 174 217 180 231 137 241 210 188 271 223 294 215 216 168 140 212 237 338 222 277 398 254 240 254 196 286 213 218 242 297 247 248 211 261 155 197 238 236 228 188 302 209 168 229 309 201 294 322 196 207 242 220 221 126 274 238 169 328 212 262 209 239 198 300 149 250 215 152 241 214 263 205 245 279 352 287 181 214 149 214 246 201 274 222 229 306 242 273 185 192 227 275 252 325 268 219 187 214 161 209 294 136 188 216 221 267 192 232 141 191 183 219 263 196 235 292 248 263 245 215 293 384 216 215 216 289 260 263 340 245 221 260 264 249 223 216 272 219 202 205 317 228 281 203 152 299 293 219 250 252 236 220 225 181 226 213 238 209 234 196 241 227 253 235 229 257 193 245 210 309 309 228 211 217 159 175 192 221 242 226 283 169 265 220 235 313 175 259 291 231 148 176 176 182 186 207 183 287 226 255 201 158 191 222 193 212 195 188 270 218 267 171 179 275 241 245 212 181 278 261 247 171 281 253 189 184 238 265 370 277 286 157 167 166 270 153 250 262 217 275 311 204 187 204 197 285 209 172 304 204 242 157 261 214 251 197 248 257 156 264 193 241 330 226 161 220 247 137 231 222 232 223 304 188 206 256 232 191 239 283 210 211 171 271 264 238 192 129 280 292 197 295 195 173 259 207 257 161 299 222 78 209 246 182 311 222 180 244 258 172 261 253 189 331 209 230 204 230 196 157 255 217 181 348 165 213 268 307 199 249 248 211 279 225 263 298 188 249 224 174 184 209 196 246 323 261 283 202 268 255 195 304 240 205 197 252 160 233 226 245 198 173 209 194 188 155 215 233 119 195 259 258 331 188 243 241 230 213 241 255 204 220 244 249 216 180 253 209 300 233 165 151 205 165 157 233 304 267 231 216 282 173 223 243 276 231 178 189 </t>
-  </si>
-  <si>
-    <t>JSB(0.6344629601887342, 0.14845430724585118, -1.7697925349146143e-21, 6.040535651172986)</t>
-  </si>
-  <si>
-    <t>2 1 2 1 0 4 1 0 1 1 1 1 0 0 0 5 2 3 1 0 3 1 2 1 0 3 0 0 0 1 0 1 2 0 1 2 1 1 0 1 0 2 1 0 0 0 2 2 1 0 0 2 1 2 0 2 0 1 0 1 1 2 0 2 2 0 0 2 0 0 0 3 1 2 0 2 1 1 0 3 2 3 3 2 1 1 1 4 1 1 2 2 1 2 1 0 1 2 0 0 1 1 1 1 1 2 0 0 3 2 1 0 1 1 1 3 1 1 1 0 1 1 0 1 1 0 1 3 1 0 0 1 2 0 3 2 0 1 1 2 1 0 0 1 1 2 1 2 2 0 3 0 1 0 2 0 2 3 0 0 2 2 1 1 0 2 1 0 0 2 4 2 2 2 0 0 2 1 1 1 1 1 1 0 2 0 2 2 1 0 2 0 1 0 2 1 1 1 1 2 0 1 1 2 1 1 0 1 3 2 1 2 1 1 0 2 1 0 0 1 3 0 1 1 0 2 1 3 3 1 1 1 1 2 2 3 1 2 1 0 3 3 1 0 1 1 2 1 2 1 1 0 2 2 0 0 2 1 0 0 0 2 2 3 0 0 1 1 2 0 2 0 1 0 1 1 0 1 1 2 2 2 2 3 0 2 1 1 1 2 1 1 2 1 2 0 2 1 3 2 3 1 1 1 1 0 2 1 2 1 1 1 0 1 2 0 1 2 2 3 2 1 1 2 0 3 2 2 2 3 0 1 0 3 0 2 1 2 1 1 0 1 1 2 1 0 2 1 1 1 1 1 4 0 1 2 0 0 0 3 1 2 0 0 1 1 0 1 0 1 0 0 3 1 0 1 0 2 2 1 0 2 2 0 0 1 0 0 2 1 0 2 1 1 1 2 2 0 1 3 2 2 0 2 0 0 1 1 1 1 0 1 1 2 0 2 3 1 2 1 1 4 1 0 1 2 1 1 1 1 0 0 1 0 2 1 2 4 1 2 2 1 1 1 2 1 1 0 2 1 0 0 0 1 4 3 1 1 1 1 0 1 0 1 1 5 2 0 2 1 3 3 1 1 1 0 0 2 1 2 1 0 2 0 1 0 1 1 3 2 2 1 1 2 2 2 2 3 2 1 2 1 0 1 4 1 1 0 3 1 1 0 1 0 3 1 2 1 1 2 1 1 3 2 3 1 3 2 1 0 2 0 2 1 2 1 1 1 2 0 1 1 1 0 0 1 1 2 0 0 1 0 1 0 1 1 2 1 0 1 1 1 0 1 0 0 1 0 1 3 0 2 0 2 1 2 1 0 3 1 1 0 1 2 2 0 0 1 1 2 1 2 2 0 4 0 0 2 2 2 1 1 3 2 1 1 1 1 1 3 2 0 1 2 1 1 0 1 1 0 0 2 2 3 1 0 1 2 2 3 2 1 0 1 2 1 1 1 4 1 1 2 1 2 1 1 1 1 1 0 0 1 4 1 1 2 1 1 0 1 2 0 1 0 1 2 0 1 2 0 2 1 1 1 2 0 1 1 1 2 1 0 1 2 1 1 1 0 1 1 1 3 0 0 1 1 1 1 0 0 0 1 2 1 2 0 1 1 0 2 0 1 3 0 1 2 3 1 3 2 0 1 2 0 1 3 1 2 2 1 1 1 2 1 1 0 0 2 3 1 0 2 1 2 1 1 1 1 2 2 0 0 4 1 2 1 0 0 0 1 0 3 4 2 3 2 1 1 1 1 2 1 1 0 1 0 1 1 1 2 2 1 1 1 2 1 2 1 1 1 0 2 0 1 1 3 0 1 1 1 3 4 1 1 3 0 0 1 1 1 2 0 3 3 1 1 2 1 2 2 2 1 2 0 3 2 3 1 2 0 2 1 1 1 2 1 1 1 3 2 1 1 2 1 1 2 1 2 3 2 1 0 2 1 1 0 0 1 2 1 0 1 1 1 1 1 1 2 2 1 0 3 0 1 0 4 1 1 1 1 0 1 0 0 2 1 1 3 2 4 0 2 1 3 0 3 1 0 4 0 1 0 1 0 2 3 3 2 3 0 2 4 1 3 1 1 0 1 1 0 0 2 0 2 1 2 2 1 1 0 3 0 2 1 1 1 1 1 1 2 1 1 1 1 2 3 2 2 1 1 1 2 1 1 2 1 1 3 1 0 1 3 2 0 2 2 2 1 2 2 0 2 2 0 0 1 1 0 3 1 1 0 2 3 2 1 0 1 1 1 2 4 1 0 2 1 3 1 1 2 2 1 1 1 2 0 0 2 1 1 0 2 2 1 1 1 1 3 1 1 0 2 1 1 0 1 0 3 2 0 1 0 1 2 0 0 2 1 3 2 0 1 2 1 1 3 1 1 4 1 0 1 1 0 0 0 0 0 1 2 0 0 1 0 1 2 1 3 1 3 0 1 3 1 1 1 2 1 0 1 0 1 2 1 1 0 2 2 3 1 0 2 0 0 2 2 1 1 1 0 1 0 0 2 2 2 1 1 3 0 2 1 0 1 0 1 0 2 1 1 3 1 2 4 3 1 2 1 0 2 0 3 2 2 1 2 0 1 0 0 1 2 0 1 2 3 0 3 0 2 2 0 0 1 2 2 3 0 2 1 2 2 2 0 2 1 2 2 0 0 2 2 2 2 2 1 0 0 4 2 1 1 1 0 1 0 1 1 2 0 2 1 2 2 3 2 1 3 2 1 1 1 0 1 2 1 0 1 1 1 0 2 1 2 0 1 1 2 3 0 2 1 2 0 0 0 1 1 1 0 2 3 1 2 3 1 2 0 4 3 0 2 1 1 2 2 2 1 0 2 1 1 2 1 1 1 2 1 1 0 3 0 1 0 1 1 0 1 0 2 0 2 2 0 2 3 2 2 2 1 0 1 1 2 3 1 1 1 0 0 1 2 3 1 1 1 3 0 2 0 1 4 1 0 0 1 1 1 2 2 0 2 2 1 1 2 0 0 2 1 0 1 0 1 1 2 1 1 1 0 1 1 1 1 0 1 1 0 0 2 2 1 1 2 2 1 0 1 1 0 1 1 2 1 0 2 2 2 0 3 1 0 0 1 1 1 0 4 1 1 1 1 3 2 2 1 2 2 1 1 0 0 1 1 1 3 2 1 0 4 1 1 1 3 0 2 0 1 1 1 1 0 3 0 1 2 2 0 0 0 3 1 2 0 1 0 0 3 0 1 2 2 0 0 1 2 2 2 1 2 1 0 1 3 2 0 2 0 2 2 0 0 2 1 1 2 1 1 3 2 2 0 0 3 0 2 2 1 0 0 1 1 2 2 0 0 1 0 3 2 1 3 0 2 3 1 2 0 2 1 1 1 1 2 0 0 1 2 1 2 2 2 4 0 1 1 1 2 1 1 1 1 1 0 2 1 0 0 1 1 1 2 2 0 0 2 2 0 0 4 3 0 3 2 0 2 1 1 1 1 1 1 3 3 0 0 1 0 1 0 1 1 1 2 2 3 2 0 0 1 1 0 1 1 2 2 0 0 2 1 1 0 1 0 2 2 1 1 0 2 2 0 1 1 1 1 0 1 1 0 1 0 3 1 1 2 1 2 0 2 1 2 1 2 2 3 0 1 2 2 1 1 0 0 2 3 0 1 0 3 2 1 0 0 1 1 0 1 0 1 1 1 0 0 0 1 1 2 2 1 2 1 0 2 3 1 0 2 2 1 2 2 2 1 1 0 1 2 1 1 2 1 2 3 2 3 2 2 1 0 0 2 0 1 2 2 1 3 2 0 2 0 1 1 1 1 1 1 2 3 1 2 1 1 1 2 1 3 3 1 1 2 2 1 1 1 0 0 3 1 2 0 0 1 2 2 1 2 1 2 1 0 0 0 2 1 1 3 1 1 2 0 2 1 1 0 3 3 2 1 0 1 0 1 1 4 0 2 2 1 0 0 0 3 1 0 3 0 1 0 2 3 1 0 1 1 0 3 2 2 2 1 0 1 1 2 2 0 1 1 1 2 2 0 2 1 0 1 0 1 1 0 2 2 1 2 0 0 2 1 0 0 2 1 0 0 2 1 1 0 1 0 0 1 1 2 0 2 1 0 4 1 0 0 2 1 1 2 0 1 1 0 1 2 2 1 0 1 3 0 2 0 2 1 1 1 3 1 1 1 1 2 2 2 2 2 1 1 1 1 1 2 2 0 2 4 1 3 2 3 2 1 1 0 1 1 0 2 0 0 1 1 0 1 1 1 2 3 1 1 2 1 0 1 2 2 0 0 1 2 2 0 1 1 3 1 0 0 2 1 0 1 1 2 1 1 1 1 1 1 3 1 0 2 2 1 2 3 2 2 0 0 4 1 1 2 1 1 0 1 0 1 0 1 3 1 1 4 1 4 0 1 3 2 0 3 1 1 0 1 0 2 2 1 1 1 1 2 0 0 1 2 3 0 1 1 2 1 2 1 3 2 2 3 1 0 0 0 0 0 2 0 2 0 2 2 2 2 2 1 3 2 1 2 1 3 1 1 0 1 1 1 2 4 1 1 0 1 1 0 2 0 1 2 1 0 0 1 2 2 1 1 0 2 2 3 0 1 1 1 1 1 3 1 2 3 0 2 1 0 2 3 1 1 1 0 1 2 3 0 2 1 1 3 0 0 1 2 2 1 1 2 0 3 1 1 2 1 0 3 1 0 2 0 3 1 1 2 1 1 2 3 2 1 2 2 1 1 2 0 0 2 0 2 2 1 1 2 1 0 2 0 1 0 0 1 1 3 3 2 2 2 1 0 0 2 1 2 2 1 0 0 1 1 0 0 2 1 0 1 1 2 2 1 2 0 0 0 1 2 1 2 3 2 2 1 2 0 0 1 1 1 1 1 0 2 0 1 2 2 0 2 1 2 1 0 0 2 0 0 1 0 0 0 1 3 2 2 0 2 1 2 1 3 2 3 1 1 4 1 3 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 2 1 1 2 2 2 3 2 1 0 1 2 2 0 2 1 2 3 0 1 2 0 1 2 2 1 2 2 5 1 0 0 2 1 0 1 0 0 0 2 1 3 0 1 3 1 0 0 2 2 0 0 3 5 1 0 3 5 0 2 1 1 3 1 1 1 1 1 1 2 0 1 3 1 2 0 2 2 0 2 2 0 2 1 0 2 2 3 2 0 2 0 2 0 2 0 0 1 1 2 2 2 1 1 2 0 2 1 1 2 1 3 1 1 1 2 1 2 3 2 2 1 0 2 2 1 2 2 1 2 0 1 0 2 1 0 0 0 0 2 1 0 2 1 1 0 0 1 2 2 2 0 1 1 1 5 2 0 4 1 1 2 1 1 1 3 1 0 1 1 1 1 2 2 1 1 1 3 2 2 1 2 1 3 0 2 0 1 2 1 2 3 2 1 2 1 1 2 3 1 0 1 0 1 3 3 2 1 2 1 1 2 1 1 1 2 2 0 0 0 0 1 0 2 0 0 2 1 1 3 3 2 0 1 3 2 1 1 2 0 2 2 1 2 1 1 1 0 0 3 0 1 0 1 1 0 3 1 1 2 1 2 2 0 1 1 1 2 0 5 1 1 1 2 1 1 1 1 2 1 1 1 1 0 0 2 1 1 2 3 0 1 3 1 2 0 1 0 2 3 2 1 2 0 0 2 2 0 0 2 1 2 1 2 0 1 1 1 0 1 1 0 3 1 1 2 1 2 1 2 2 0 1 2 0 1 2 1 2 2 1 3 1 0 2 0 3 1 1 0 2 0 1 2 1 3 1 1 1 1 1 1 2 2 2 0 1 0 2 2 3 1 2 0 0 1 0 0 0 0 2 1 2 1 2 1 3 1 1 1 2 2 2 1 0 2 2 0 1 0 1 1 2 3 1 2 1 2 3 2 0 0 2 0 1 2 2 0 1 2 1 1 3 1 0 1 2 2 1 2 1 3 2 1 1 1 0 3 2 1 0 0 1 1 1 1 2 0 2 1 4 2 2 1 1 3 1 2 2 2 0 2 0 0 0 1 0 1 1 2 0 1 1 1 3 2 1 0 1 1 1 3 3 1 2 2 1 2 1 1 2 4 1 0 1 1 1 0 1 0 3 0 1 0 2 0 1 1 0 3 2 1 2 2 2 3 1 0 2 2 0 1 0 2 1 0 0 1 2 1 3 1 2 2 0 2 1 0 1 0 0 2 2 0 1 0 0 0 2 1 0 1 1 0 2 0 2 1 0 1 2 0 1 0 0 1 1 0 0 2 1 0 1 2 1 1 2 0 1 1 1 2 2 2 0 0 0 2 0 1 0 3 1 3 1 2 2 3 0 2 1 1 3 3 1 1 1 2 0 2 2 1 1 1 1 1 1 1 1 2 1 1 2 0 2 3 1 0 1 1 1 1 2 2 2 1 1 1 1 1 2 0 0 1 0 2 1 1 2 1 0 1 2 2 3 2 0 0 1 1 2 2 1 0 0 3 2 1 0 1 1 0 1 1 0 0 2 1 0 3 1 1 0 2 2 0 1 0 0 1 0 2 0 2 0 1 1 1 2 3 0 0 0 1 2 1 1 2 0 0 3 2 2 2 2 2 0 1 1 1 1 1 1 1 1 2 2 1 1 2 0 0 2 1 1 1 1 2 0 1 0 1 1 1 0 1 2 2 2 0 1 4 2 0 0 0 2 0 1 0 1 1 1 2 0 0 0 1 4 2 0 4 2 1 2 0 2 1 1 1 1 3 3 2 1 1 1 1 1 0 1 0 1 1 1 1 0 2 0 0 0 1 1 1 3 2 3 1 2 0 1 2 1 2 1 2 0 1 0 2 1 2 1 1 3 0 1 1 0 1 1 0 3 0 0 0 2 0 5 0 2 1 3 0 0 1 3 0 3 1 2 4 0 1 1 2 0 1 0 3 1 2 1 1 1 1 2 0 1 4 2 1 3 1 2 1 1 1 1 2 3 2 0 1 1 1 1 1 0 2 2 1 2 2 4 0 1 2 0 2 1 2 0 1 0 2 0 0 2 1 0 4 1 2 2 0 1 2 1 2 2 0 0 2 3 1 0 0 3 0 0 1 1 0 0 0 1 2 1 1 1 1 1 1 1 0 0 0 1 1 0 4 1 2 2 2 1 2 1 1 1 0 3 0 0 0 0 2 1 1 1 3 1 1 0 1 0 2 2 2 1 2 2 1 0 0 2 2 2 2 2 1 0 0 1 0 2 1 1 1 1 1 0 2 1 1 0 1 0 0 2 1 1 2 0 0 1 2 2 0 2 2 1 1 3 1 0 1 0 1 0 4 2 1 1 2 1 4 2 1 1 1 0 1 2 4 1 0 2 1 1 1 1 3 0 2 2 1 3 2 2 2 2 1 2 0 0 3 1 2 0 0 1 2 0 1 0 2 3 0 0 1 1 3 1 2 4 0 1 0 1 2 1 2 0 2 0 1 2 0 1 0 2 1 1 1 1 1 0 1 0 2 1 1 0 1 2 1 1 1 1 2 1 0 0 1 2 0 2 1 1 1 1 2 0 2 1 2 2 2 4 0 1 2 3 0 1 1 2 0 1 1 2 2 1 2 1 3 3 0 1 0 1 0 1 2 3 2 1 0 1 0 2 1 1 1 2 3 1 0 1 0 1 2 1 0 4 1 0 1 2 2 1 0 1 1 1 0 1 0 1 3 1 3 3 1 2 0 2 1 1 1 1 0 1 2 1 0 1 0 1 0 0 2 2 0 0 1 2 0 1 3 1 2 1 1 0 1 2 2 2 0 2 1 0 0 1 1 0 0 2 1 2 0 1 1 0 0 1 0 3 0 0 2 1 1 1 0 2 1 1 3 1 0 2 0 0 1 1 1 0 0 1 0 0 0 1 3 1 0 1 1 0 1 1 1 2 2 2 3 2 0 1 4 2 2 1 2 2 1 1 0 2 0 1 2 2 3 0 1 2 1 1 1 1 1 0 2 2 0 2 5 0 0 1 0 1 1 0 1 1 1 1 1 2 0 0 2 1 1 1 0 2 3 2 0 2 0 2 1 2 2 1 2 3 2 2 3 2 1 0 1 3 1 1 2 3 1 3 1 2 0 3 1 3 2 3 1 1 1 0 1 1 0 1 1 1 0 1 1 2 0 2 2 2 1 4 3 0 2 1 2 0 2 1 0 5 1 2 2 2 1 0 0 1 1 0 2 1 1 1 0 1 1 1 0 0 0 3 1 1 0 3 0 2 2 1 3 2 2 2 2 1 1 1 1 0 0 1 1 1 4 1 1 0 0 2 0 0 1 0 2 4 2 1 0 1 1 1 0 0 1 0 1 0 1 0 0 2 1 2 0 2 0 1 3 1 2 1 0 3 1 1 2 1 2 2 2 3 1 1 0 1 2 2 2 1 2 2 0 1 0 0 1 1 0 0 2 0 1 2 1 2 1 2 1 1 3 1 1 0 1 2 0 2 3 1 1 1 1 1 2 1 2 3 0 1 4 0 1 1 1 2 0 1 1 0 1 0 2 2 1 1 1 0 2 0 0 2 1 2 2 2 2 3 1 2 0 2 1 1 1 3 1 3 1 0 1 2 1 0 2 3 0 0 2 1 2 1 0 1 0 1 2 1 1 2 0 2 2 1 1 1 2 0 1 1 3 1 2 0 2 2 0 1 0 2 0 2 0 1 3 2 1 2 1 1 1 1 1 1 1 1 2 1 2 0 3 1 1 1 1 1 1 0 0 1 0 2 5 3 2 2 1 0 1 0 0 0 1 1 3 0 2 3 2 0 0 1 1 0 1 1 0 1 1 0 0 0 2 0 1 0 4 2 0 0 1 1 2 0 1 1 2 1 2 0 2 1 2 2 1 3 2 4 2 1 1 1 1 3 1 1 1 3 1 2 1 2 2 3 1 2 1 1 1 0 0 1 2 3 2 1 1 2 2 1 2 1 2 1 0 2 2 0 0 1 2 0 2 1 2 1 1 1 1 1 2 1 0 2 1 0 3 2 2 1 1 2 2 2 2 1 1 1 1 0 2 1 2 1 1 1 1 3 1 1 0 2 1 1 3 0 2 0 3 1 1 1 1 2 3 1 0 0 2 3 1 1 2 2 2 2 1 1 2 1 0 1 1 1 2 2 0 2 2 0 2 1 1 2 2 1 1 1 2 1 3 1 2 2 0 2 0 0 3 0 0 0 2 1 1 4 2 0 1 2 0 3 0 0 1 0 2 2 0 0 1 0 1 2 3 0 1 1 1 1 0 1 2 0 1 0 0 2 1 1 0 0 0 0 2 3 2 3 1 1 1 2 0 1 2 0 1 1 1 2 2 0 0 1 1 2 0 2 3 1 1 0 1 3 0 0 2 0 1 2 1 0 1 1 1 3 3 2 2 1 2 2 1 0 2 1 2 1 1 1 1 2 1 1 2 1 1 3 1 0 2 1 2 1 3 1 1 1 1 1 0 2 0 1 1 1 0 1 2 1 1 1 1 1 1 0 1 0 2 2 1 3 1 1 2 1 1 2 0 1 4 0 2 0 2 0 1 3 2 1 1 1 0 1 2 2 2 2 1 1 1 2 2 0 2 0 2 0 2 2 3 1 3 3 2 2 3 2 0 1 0 3 1 2 0 2 2 0 1 1 1 2 2 1 1 1 2 1 1 1 2 1 2 3 1 0 1 0 1 0 1 1 1 0 2 0 2 3 0 1 1 0 1 2 1 0 1 0 0 2 0 2 3 2 3 0 2 1 1 0 2 0 2 1 1 1 1 1 1 1 1 1 3 2 0 0 1 0 3 3 2 1 1 3 2 0 2 3 1 0 0 1 1 2 2 1 3 2 1 2 1 2 2 2 1 1 3 2 2 4 1 1 0 2 1 2 1 3 3 3 0 2 0 0 1 2 2 0 1 0 1 1 1 1 0 2 2 1 1 1 1 1 1 1 1 2 1 1 1 2 3 0 0 3 2 2 1 0 0 0 2 2 1 0 2 0 2 0 2 1 2 0 0 1 1 1 1 0 0 3 1 1 0 2 1 0 2 0 1 0 1 0 1 1 2 1 1 1 1 1 1 0 1 1 0 2 1 0 1 1 2 2 0 2 1 0 1 2 1 2 1 1 2 1 0 1 4 2 3 1 0 2 1 0 2 2 1 2 1 2 0 2 0 2 1 1 1 2 2 2 1 0 1 1 1 3 0 2 1 1 2 1 1 1 1 0 2 1 1 2 2 0 2 0 0 1 2 1 2 1 0 1 0 1 0 1 1 0 0 1 1 2 2 1 0 2 1 1 1 2 2 1 0 3 1 2 1 1 1 0 2 1 3 1 1 1 0 1 2 2 0 1 2 0 2 1 1 1 0 0 0 0 2 2 1 0 1 1 2 1 2 0 1 3 1 1 0 1 3 0 1 1 1 1 2 2 0 1 3 2 0 0 1 1 0 2 1 1 0 1 0 0 0 0 1 0 1 0 2 1 1 2 1 2 3 0 2 0 0 3 1 0 2 2 0 0 0 1 2 0 0 3 2 0 0 0 2 1 2 1 2 1 0 0 1 1 2 1 1 1 2 1 2 3 0 0 0 2 0 2 0 1 1 1 0 0 0 2 1 0 3 1 2 2 3 0 1 1 1 0 0 2 0 6 1 3 1 1 2 1 2 0 3 0 3 1 0 2 3 2 1 2 1 1 1 1 1 1 0 2 0 3 0 1 1 1 1 0 0 1 2 0 1 0 2 0 3 0 1 1 3 1 1 4 2 2 0 1 2 0 2 2 2 1 2 2 1 2 3 0 2 0 2 2 1 1 1 2 2 2 1 1 1 1 0 0 1 1 1 1 0 0 1 2 1 1 2 0 1 0 0 1 1 0 0 1 0 1 1 1 1 3 4 1 1 1 1 1 2 1 1 2 2 0 1 0 2 2 1 1 1 2 0 1 1 1 1 1 1 1 2 1 1 0 2 2 1 1 1 2 1 1 1 1 3 2 0 0 3 0 2 1 3 3 1 1 2 2 0 3 1 3 3 0 2 1 1 2 2 2 1 0 2 0 1 1 1 2 3 2 3 2 0 1 3 2 3 1 1 0 1 1 1 1 0 1 1 0 2 1 2 0 2 2 2 3 1 1 3 2 3 2 0 3 1 0 2 0 3 1 1 1 1 0 1 2 0 0 0 1 2 0 2 1 0 1 3 1 3 0 1 2 1 3 2 2 1 2 1 1 3 1 1 2 0 0 1 1 0 1 0 2 2 1 0 0 3 1 1 1 3 0 2 1 1 2 1 1 0 2 0 1 0 0 2 1 1 1 1 1 0 1 3 3 2 2 1 1 1 1 2 3 2 1 1 2 1 1 0 2 1 2 2 1 1 0 2 2 1 4 0 1 1 1 1 0 2 2 1 1 2 1 1 4 3 0 0 2 0 1 1 3 2 2 0 1 1 0 1 1 2 1 3 0 2 0 1 3 0 3 1 2 3 1 2 1 2 0 2 1 0 1 0 0 2 0 0 3 1 0 0 1 0 1 1 1 1 0 0 1 0 0 2 1 0 1 2 1 2 2 2 2 2 0 1 3 0 2 2 1 0 2 0 1 2 2 3 1 1 0 2 1 1 2 1 3 0 2 1 2 3 0 1 1 2 3 0 1 1 1 3 0 2 2 3 4 2 1 1 1 1 0 1 2 1 1 3 1 0 2 1 2 1 2 1 2 0 0 1 1 0 1 0 1 0 1 2 2 1 4 1 1 2 2 1 0 2 0 0 2 1 2 0 1 1 1 0 1 0 1 1 0 1 1 1 2 1 1 2 1 0 1 1 2 3 0 3 1 2 0 3 1 3 2 1 3 1 2 1 2 1 0 3 1 2 2 2 1 2 1 1 3 1 1 1 1 1 1 2 1 0 1 2 1 1 0 2 1 2 2 0 1 1 0 2 1 1 2 1 1 1 2 1 1 0 3 3 2 1 0 2 0 1 1 0 1 2 2 2 0 1 0 1 1 2 2 2 2 0 1 3 2 1 1 2 1 0 1 0 1 0 0 0 2 0 0 0 1 1 1 1 3 1 3 0 1 0 1 0 2 0 3 2 1 1 1 2 0 1 0 1 0 1 2 0 0 1 0 2 1 0 1 0 0 2 3 2 0 2 4 2 2 1 3 1 2 2 2 1 1 4 4 1 2 2 0 1 3 2 0 1 1 0 3 0 2 0 1 1 3 1 1 0 1 0 2 1 0 1 1 1 1 1 0 1 0 1 2 3 1 0 1 2 2 2 1 1 1 1 1 1 2 0 2 2 1 2 2 2 0 1 2 1 1 1 2 0 1 1 2 1 2 0 1 2 1 1 1 1 0 0 2 0 2 0 0 0 0 1 1 2 0 1 0 0 1 1 1 3 2 0 1 2 1 1 0 3 0 2 0 2 1 1 4 1 1 0 1 1 0 0 1 4 1 0 1 2 0 1 1 1 1 1 4 3 1 0 1 0 1 3 1 2 0 1 2 0 1 3 0 1 0 2 1 0 2 3 1 2 2 1 1 2 1 0 0 0 0 1 2 0 1 1 2 1 0 0 2 0 2 0 0 2 1 0 1 2 1 1 2 1 0 0 0 1 0 1 2 2 1 2 2 1 1 0 0 0 3 1 2 3 2 1 1 0 2 1 2 2 1 1 1 1 2 2 2 2 1 0 0 1 2 3 2 2 2 0 1 1 2 1 0 3 1 3 1 1 0 2 2 1 4 0 1 1 1 1 0 2 2 2 4 3 2 0 3 1 2 0 3 2 2 0 1 1 1 1 2 0 2 0 2 1 1 1 1 1 1 1 0 1 1 1 1 2 1 1 2 3 1 1 0 0 0 1 0 2 0 0 1 3 3 1 1 2 2 1 1 1 2 2 2 0 1 0 0 1 1 4 2 1 0 1 0 1 1 4 2 1 3 1 1 2 1 0 0 0 2 1 2 1 3 2 3 0 1 2 1 1 2 1 0 1 2 2 4 3 3 0 2 2 1 1 1 2 4 0 0 1 2 2 1 0 2 1 1 1 1 0 1 2 0 2 1 2 4 0 0 0 3 0 1 0 2 3 0 2 1 1 1 3 2 3 1 2 0 1 1 1 1 1 1 2 2 0 0 1 0 3 1 0 2 0 1 0 0 2 0 2 1 2 1 3 1 1 2 2 2 1 0 2 1 1 0 1 1 1 2 2 0 0 1 1 2 0 1 2 1 0 0 1 1 1 0 3 1 2 1 2 1 2 1 1 1 1 2 1 1 3 1 0 2 2 1 1 1 0 1 0 1 3 1 0 0 0 1 1 0 0 2 0 1 1 0 3 1 2 3 0 1 2 2 3 2 0 0 2 1 1 1 1 1 1 0 0 3 0 1 0 2 1 0 2 2 0 2 4 2 2 0 0 1 2 3 2 1 1 0 1 2 1 1 1 1 2 2 1 0 0 0 0 1 0 1 1 1 1 2 1 0 2 1 1 1 1 1 1 2 3 2 2 2 2 1 1 2 1 1 1 0 2 3 1 4 2 1 2 1 1 1 1 1 1 3 1 2 0 0 2 0 2 2 0 0 3 1 2 2 1 1 1 0 1 2 2 0 0 0 0 0 1 0 0 2 3 3 3 0 0 2 1 1 0 0 1 2 2 3 0 1 2 0 1 0 2 1 3 1 2 1 2 1 2 2 1 1 1 3 1 2 2 2 0 1 1 1 3 1 1 3 2 2 1 1 0 2 2 1 0 2 1 1 3 0 1 3 0 0 2 0 1 0 0 2 2 1 4 0 1 1 1 2 1 0 0 0 1 0 1 1 0 0 4 1 0 1 1 0 0 1 0 0 0 2 1 1 1 1 0 1 1 0 1 1 1 1 0 1 1 1 2 2 0 1 2 0 0 1 2 2 1 1 2 2 2 0 2 2 0 2 1 3 2 1 1 1 0 1 2 0 2 0 1 0 2 0 2 1 3 1 1 2 1 2 1 1 1 0 2 1 2 2 0 1 0 1 2 3 3 1 0 1 1 2 1 3 1 1 3 2 2 1 0 1 1 2 2 0 2 3 0 0 0 1 1 1 1 1 2 1 0 1 1 2 1 2 1 0 2 0 2 2 2 1 1 0 0 2 0 0 0 2 0 1 1 2 2 1 0 0 0 2 1 0 1 2 2 3 1 1 0 0 0 1 0 3 1 0 0 1 0 0 0 1 0 1 1 3 0 2 1 0 2 1 1 1 1 0 1 2 0 2 2 1 1 0 1 1 1 2 0 2 2 2 0 0 2 0 2 2 1 1 0 2 0 4 0 2 2 0 0 0 0 0 2 3 1 3 2 1 1 1 0 1 1 1 1 1 0 2 3 1 2 0 2 1 1 2 1 1 1 4 3 1 0 2 1 2 2 1 1 1 1 1 1 2 2 3 1 2 0 1 2 1 1 2 2 1 2 1 0 2 0 1 0 1 1 0 2 0 1 0 2 3 2 0 2 1 2 1 1 0 0 1 0 0 0 0 0 2 1 2 1 1 1 0 0 2 0 2 2 3 2 1 2 1 0 2 2 4 1 0 1 1 1 1 1 2 1 2 1 0 1 2 2 2 1 2 2 2 1 0 3 3 0 1 0 2 2 2 0 2 0 0 3 1 0 3 0 0 1 0 2 3 2 2 0 2 1 2 0 3 2 2 2 0 3 2 1 3 2 4 1 1 2 2 1 1 3 1 0 1 2 1 2 3 0 0 3 0 2 1 0 1 0 1 1 1 2 1 0 1 1 2 1 2 2 0 3 0 2 2 0 2 3 2 0 0 1 2 1 0 2 2 0 1 1 2 2 1 2 0 2 2 4 0 1 0 3 0 3 1 0 3 0 0 3 0 1 0 0 1 1 2 1 2 2 0 1 2 1 0 2 1 2 2 1 0 3 2 2 0 2 2 2 3 0 2 1 3 2 0 2 1 1 2 3 0 2 0 1 1 0 2 1 1 1 2 2 3 1 2 2 4 1 1 0 0 0 1 0 2 3 1 0 3 1 1 3 1 0 1 0 0 1 1 0 2 2 1 2 1 2 1 1 1 3 3 2 0 1 1 2 0 1 0 0 1 1 2 2 2 1 1 1 2 1 1 2 2 0 2 1 1 2 0 0 0 1 1 1 1 1 1 2 0 1 1 1 1 1 1 1 1 0 2 1 1 0 0 0 0 4 1 1 1 2 0 5 0 3 0 1 1 0 2 3 1 1 1 0 0 0 1 1 0 0 4 2 1 1 3 2 0 0 1 1 0 1 1 1 2 2 1 1 2 1 3 4 1 3 0 1 1 3 2 3 1 1 2 2 2 1 1 1 0 2 2 1 0 0 1 0 1 1 1 0 0 1 0 1 1 0 3 1 1 2 0 1 2 0 1 0 1 0 1 0 0 0 1 0 1 1 2 2 2 2 2 3 0 0 1 1 1 1 1 3 1 2 2 0 1 0 3 3 3 2 1 0 2 1 1 2 0 0 1 0 1 1 0 1 1 1 1 1 2 1 0 2 1 1 1 1 2 1 2 1 2 1 3 0 2 0 2 1 0 1 1 1 2 1 1 1 0 0 0 1 0 2 1 0 1 1 1 0 1 2 0 2 2 1 2 1 1 2 2 0 1 2 1 3 1 0 0 1 1 1 1 2 1 1 0 0 2 1 3 1 2 0 3 2 2 1 1 2 1 0 2 2 1 2 1 0 2 1 0 3 0 1 1 0 1 1 1 2 1 1 3 0 0 1 1 1 1 0 1 1 0 0 2 1 2 1 1 1 3 1 1 2 2 1 1 3 2 2 4 1 1 1 1 1 0 1 1 1 2 2 1 0 1 2 0 0 1 2 1 3 1 2 1 2 2 0 1 2 3 1 2 1 1 1 1 0 0 3 2 0 0 4 2 1 1 0 4 0 0 0 0 1 3 1 2 1 0 0 0 0 2 0 3 1 0 2 1 2 1 0 1 1 1 2 0 2 1 2 0 1 1 0 2 0 0 2 1 1 2 0 1 0 2 0 0 0 1 3 0 1 2 1 1 2 3 1 1 1 2 0 3 2 1 0 2 0 0 1 0 0 1 1 1 2 0 2 1 3 2 0 1 1 1 2 1 3 2 2 2 2 1 1 0 1 2 1 2 0 1 2 1 2 1 2 2 1 3 2 1 2 3 2 0 0 1 2 1 1 1 1 1 0 1 0 1 0 1 2 1 0 0 2 1 1 2 1 0 2 3 0 2 0 1 3 1 0 2 2 2 2 1 4 1 2 3 0 3 3 0 1 2 1 1 1 2 1 3 3 2 2 3 1 0 2 0 0 1 1 0 1 0 0 1 1 2 0 1 2 0 2 1 2 0 0 1 1 1 0 2 2 1 1 2 1 2 0 2 1 0 2 2 2 2 2 2 0 1 1 1 2 1 2 3 2 0 1 1 0 3 0 0 2 2 2 2 1 3 3 0 3 2 1 0 1 2 1 0 3 2 1 1 1 0 1 1 2 2 2 1 3 2 1 2 0 1 2 1 2 0 2 1 0 2 1 0 3 1 1 0 2 0 2 0 0 1 2 1 2 2 0 2 1 0 1 0 2 1 3 2 1 1 3 1 2 0 0 3 2 1 2 1 2 2 0 1 0 1 2 2 1 1 3 1 1 2 1 1 1 0 0 1 0 0 1 1 1 1 0 2 1 0 4 0 2 2 1 1 0 3 2 1 1 1 2 1 0 2 1 1 1 0 1 1 1 2 0 3 1 1 0 0 2 1 0 1 2 1 2 2 1 0 2 2 1 3 1 2 0 1 1 1 1 1 2 1 2 2 1 0 3 2 3 2 1 1 1 0 0 3 3 0 2 0 1 0 3 0 1 0 0 3 1 1 0 1 0 0 1 0 2 1 2 0 1 3 1 0 2 2 2 2 1 0 1 2 2 1 1 1 2 0 1 0 1 1 1 0 0 0 2 1 2 0 1 0 2 1 1 0 1 0 2 1 1 2 1 0 1 3 1 2 2 2 0 1 1 0 0 0 2 2 0 3 1 2 0 2 1 1 2 2 2 2 1 1 1 0 0 2 5 0 1 0 1 3 2 1 2 1 1 2 2 1 2 0 2 1 2 1 1 0 0 2 1 1 2 2 1 0 2 2 2 4 2 1 0 0 1 2 3 1 2 1 2 0 2 3 1 1 0 1 1 0 0 0 1 0 0 1 1 0 1 1 1 2 3 0 4 2 1 1 1 2 2 1 3 2 2 0 1 2 0 3 0 1 2 0 2 0 3 1 0 2 0 1 2 0 0 2 1 1 0 2 0 2 0 0 0 0 0 0 1 0 0 1 0 2 1 1 3 1 2 3 3 1 3 1 1 1 1 1 1 1 0 0 2 0 1 1 0 2 0 0 2 2 3 0 1 0 1 2 1 2 0 1 1 2 1 2 3 2 0 1 1 0 0 0 2 0 4 2 1 2 0 2 1 0 1 1 2 2 0 0 0 0 2 1 2 1 1 0 1 0 1 1 3 0 1 2 0 2 1 2 2 0 1 1 0 1 1 0 0 0 2 2 1 1 1 1 0 1 1 1 1 2 3 2 1 1 1 0 0 2 0 2 1 5 1 1 2 1 2 0 1 2 3 2 0 0 3 2 0 0 0 2 2 1 0 1 2 0 1 2 0 1 1 1 2 1 2 2 2 0 1 0 3 1 2 2 3 0 2 2 0 2 0 2 1 1 3 3 1 0 2 1 2 1 2 1 0 2 2 2 1 1 0 1 1 1 2 0 2 2 1 0 1 2 1 2 2 1 0 1 1 0 2 1 1 1 0 1 2 1 2 1 1 2 2 1 1 1 2 0 1 1 2 0 1 1 1 1 1 0 2 0 0 2 3 2 2 2 0 1 1 2 3 0 1 2 0 2 0 0 1 1 2 1 1 1 3 0 2 0 0 1 4 1 2 0 0 0 0 2 3 2 1 1 2 1 1 1 1 0 2 2 0 1 3 1 0 0 0 1 1 2 1 2 2 1 2 1 2 0 3 1 2 1 1 0 2 1 1 1 1 2 4 1 2 1 2 1 0 1 1 2 2 2 0 2 1 2 0 0 1 0 2 3 2 1 0 2 1 2 0 1 0 2 0 0 0 3 1 1 3 0 2 0 2 2 0 0 0 1 0 1 1 1 0 3 1 1 1 1 1 0 1 3 1 1 2 1 1 1 0 3 0 3 1 2 1 2 2 2 0 1 2 0 1 1 0 0 2 2 1 3 0 3 1 1 3 1 1 1 0 3 0 0 2 0 1 0 2 2 0 3 2 1 2 1 1 1 2 0 1 0 1 2 1 2 0 2 2 3 1 2 2 1 2 0 2 1 1 1 1 1 4 1 1 0 2 1 0 1 2 1 2 3 3 2 1 1 1 3 1 2 2 2 1 1 2 2 0 2 2 3 0 1 0 2 0 1 3 1 0 0 0 1 1 2 1 1 1 0 0 0 2 2 0 1 1 2 2 3 0 2 1 1 3 1 3 1 1 3 0 2 1 1 0 0 1 2 1 2 1 1 4 0 3 1 0 1 1 1 1 1 1 2 1 1 1 3 1 1 0 1 1 1 3 1 1 1 2 2 0 1 2 1 1 1 0 0 3 1 0 1 1 2 0 2 0 3 3 1 1 2 1 2 2 1 0 1 1 1 2 0 0 1 0 4 0 1 3 2 1 0 2 1 1 0 2 1 2 1 2 0 3 3 1 1 3 0 0 3 1 1 2 1 0 1 3 2 1 1 0 1 0 1 1 2 1 1 1 1 2 2 3 0 0 1 4 1 1 1 4 1 1 1 0 4 0 1 2 0 0 0 1 2 0 2 0 0 1 3 1 2 4 1 1 1 1 0 0 1 0 1 1 1 3 2 1 2 1 1 2 1 1 1 3 1 0 1 1 2 1 1 1 1 2 2 1 2 1 0 1 2 3 2 1 1 1 1 1 2 1 0 2 1 0 1 1 1 1 1 0 0 1 0 1 0 2 0 2 0 1 1 1 2 1 1 3 1 2 1 0 0 2 1 0 3 2 0 2 0 4 1 1 1 1 1 1 1 0 1 0 2 3 1 1 2 1 3 0 2 3 2 0 2 2 1 1 1 2 2 1 1 0 1 2 0 0 0 2 1 1 2 1 0 0 1 0 1 1 1 0 1 0 2 1 1 1 4 0 1 2 1 1 2 1 3 0 1 1 1 1 1 0 0 2 2 2 2 2 0 2 1 1 2 1 0 1 1 1 1 1 2 2 0 2 1 0 3 2 0 2 2 0 0 3 1 3 1 0 2 0 1 1 0 2 1 2 2 2 1 1 2 0 1 1 2 1 1 1 2 1 2 0 3 2 0 1 1 3 1 3 3 0 1 1 0 1 2 0 3 0 3 0 1 3 0 2 1 1 1 0 1 3 0 1 2 0 2 2 2 2 1 0 1 2 2 3 1 2 2 1 0 0 1 0 2 1 1 1 1 0 0 1 0 0 1 2 3 1 2 3 1 0 1 1 2 3 1 3 1 2 1 1 2 1 0 1 2 0 3 2 2 1 2 0 1 2 1 1 0 2 0 2 2 1 2 1 3 2 1 1 1 1 2 2 2 1 1 0 2 2 1 0 3 1 1 1 2 1 1 1 1 1 1 1 2 1 2 1 0 1 2 1 3 1 2 1 0 1 1 3 1 2 1 1 0 0 1 0 0 2 0 1 3 0 2 1 2 3 2 1 1 1 0 2 2 1 0 2 3 2 2 2 1 1 2 1 1 1 1 1 3 0 2 0 2 1 2 1 0 1 2 1 0 1 0 1 1 2 0 2 1 1 1 0 1 2 0 0 1 2 0 0 0 0 0 0 1 1 3 2 0 1 1 1 2 2 2 1 2 1 0 0 2 0 0 1 0 0 0 1 0 1 0 1 1 2 2 1 1 0 1 1 1 0 0 0 3 1 0 1 2 1 0 1 2 2 3 1 1 3 1 1 1 1 3 2 1 0 3 1 2 1 1 2 0 1 3 2 0 3 0 2 2 2 1 2 1 1 0 2 0 2 1 3 3 2 3 2 1 3 1 0 1 1 0 2 3 1 1 2 0 1 2 1 0 2 3 1 1 3 1 1 1 2 1 2 1 0 1 3 1 1 1 1 1 2 1 0 1 3 0 1 2 1 0 2 1 0 1 0 1 0 2 0 0 1 0 3 2 2 0 0 0 2 2 1 1 1 2 1 0 1 1 1 1 2 2 2 3 3 2 1 1 1 2 0 3 0 2 1 2 2 0 0 1 1 0 0 2 0 0 1 1 0 0 1 2 2 1 2 2 0 1 1 1 0 1 1 0 1 0 1 0 0 2 2 2 1 1 0 2 0 1 1 2 2 2 3 3 1 1 2 2 1 0 0 1 3 0 3 2 1 2 1 1 2 1 1 1 1 1 0 3 0 0 1 1 3 1 0 0 0 0 1 1 3 0 1 2 2 2 1 0 1 2 1 0 0 1 1 3 2 0 1 0 2 1 1 2 0 0 1 1 1 2 3 1 1 2 1 2 2 1 0 1 2 0 2 1 2 1 0 0 1 2 2 3 2 2 3 3 2 2 1 2 1 3 1 2 1 1 2 1 2 1 1 0 1 2 3 1 1 1 1 1 2 2 1 3 3 2 2 3 2 2 2 0 2 3 2 0 1 1 2 1 0 2 0 3 1 0 1 3 1 2 1 0 2 0 1 3 3 0 1 0 0 1 2 2 2 1 4 1 3 0 2 3 2 1 1 2 1 1 1 2 1 0 1 1 2 1 0 0 2 0 3 2 2 2 3 0 2 0 0 1 0 2 2 0 0 2 0 1 1 2 1 1 2 0 1 0 1 2 1 1 2 0 0 0 0 1 3 2 2 1 1 2 1 0 1 2 3 0 1 1 3 1 5 2 1 0 1 2 0 2 2 1 0 3 1 1 1 1 1 1 0 1 0 2 1 4 1 1 1 1 2 1 1 1 2 2 0 2 1 1 0 0 1 1 0 1 0 2 0 0 3 0 0 1 1 1 2 2 2 3 1 1 3 0 1 3 2 1 1 2 2 0 1 1 1 1 1 1 1 1 1 2 3 0 0 3 1 0 2 2 1 1 0 0 1 0 0 0 0 2 1 1 1 1 2 1 1 1 1 1 2 2 0 2 2 1 2 1 1 0 0 0 1 1 1 1 3 1 1 2 2 0 2 2 0 1 0 1 0 1 1 2 1 1 2 1 3 2 2 0 2 1 2 0 1 0 0 1 2 1 0 1 0 4 2 2 0 1 1 2 0 2 1 0 0 0 0 2 1 1 2 1 0 3 3 3 2 0 0 1 0 0 1 3 2 0 1 0 1 1 0 2 0 0 1 2 0 0 0 0 2 1 1 2 0 2 1 4 0 3 1 1 3 1 2 3 2 0 2 2 1 1 0 4 2 1 2 0 1 1 1 0 1 2 2 3 1 1 0 3 3 0 0 1 2 0 2 2 1 0 1 3 0 2 2 0 1 1 1 1 1 1 1 3 2 0 1 2 3 0 2 1 1 1 0 0 1 0 3 1 3 2 0 0 2 2 1 1 2 1 1 1 2 0 1 0 1 1 1 1 2 1 1 2 1 2 1 1 1 1 2 0 1 0 2 1 3 2 1 2 2 2 2 0 1 3 0 0 1 2 1 2 1 3 3 3 1 0 2 3 2 1 3 1 1 1 1 1 3 2 2 2 0 1 2 1 2 1 1 1 0 2 2 1 1 2 1 1 2 2 1 0 0 1 1 2 1 0 0 0 1 4 1 1 1 0 2 3 1 0 1 2 0 1 0 3 1 2 2 0 3 1 0 2 1 0 3 0 1 1 1 3 3 0 1 2 3 0 0 0 1 1 1 3 2 2 0 2 4 2 1 2 1 1 1 2 3 1 0 2 1 0 0 0 1 2 2 2 1 0 2 1 2 2 1 2 4 1 1 1 1 0 1 1 1 1 3 0 1 1 0 1 2 2 1 1 0 2 2 1 2 1 1 2 1 1 1 1 2 2 0 0 3 2 0 2 2 1 1 2 2 0 3 0 1 1 2 1 0 0 1 4 0 1 1 1 0 0 2 0 1 1 0 1 3 0 0 0 0 1 1 2 2 0 1 2 2 1 1 2 1 2 2 1 2 2 2 2 1 0 0 2 1 1 0 3 1 3 2 2 3 1 1 0 1 2 0 2 1 1 0 0 1 2 2 2 1 2 0 1 2 2 1 1 0 1 2 3 1 2 2 1 1 0 1 3 1 0 1 1 0 1 1 1 1 1 1 1 3 1 2 1 3 1 1 2 2 1 2 1 2 1 2 0 2 0 1 0 1 1 1 3 1 1 1 4 1 2 1 1 1 1 0 1 2 1 2 1 2 0 3 3 1 2 0 2 1 1 2 1 0 1 1 2 0 4 1 2 2 0 1 2 0 1 1 1 4 0 1 0 2 0 2 0 1 1 2 2 1 1 1 0 0 1 3 3 0 1 1 4 1 0 3 2 1 1 1 2 3 1 1</t>
-  </si>
-  <si>
-    <t>NIG(0.3164905399795963, 0.31645311314843133, 0.003640736208251952, 0.006248216505448085)</t>
-  </si>
-  <si>
-    <t>3 0 0 2 0 0 0 0 2 1 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 1 0 1 0 0 2 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 3 1 0 0 0 0 0 1 1 2 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 3 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 1 1 0 1 1 1 0 0 1 2 2 0 0 1 0 1 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 1 1 1 2 1 1 1 2 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 3 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 1 1 0 1 0 0 2 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 3 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 0 2 1 0 0 2 2 0 0 0 1 1 0 1 0 2 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 1 2 1 4 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 2 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 2 2 0 1 0 0 0 1 1 1 0 1 2 1 0 0 0 0 0 0 1 0 1 0 1 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 2 0 0 2 0 0 0 0 1 0 0 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 1 1 2 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 2 2 1 0 0 0 2 1 1 0 0 1 1 0 0 1 0 0 2 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 2 1 2 0 1 2 1 1 1 0 0 0 1 0 0 0 0 1 0 1 2 0 1 1 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0 1 2 0 3 0 0 1 2 0 0 0 0 0 2 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 2 0 1 1 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 1 1 0 2 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 0 2 0 0 1 1 1 1 0 0 1 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 1 0 0 1 1 0 3 0 0 0 0 1 0 0 1 1 0 3 0 0 1 0 1 0 2 0 0 1 0 0 3 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 2 0 0 0 2 0 0 0 0 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 3 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 2 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 2 1 0 0 3 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 1 2 0 0 0 1 1 1 1 0 0 1 3 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 2 1 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 1 0 1 1 2 1 1 0 0 0 0 1 1 1 0 0 2 1 1 0 0 0 0 1 1 1 3 0 0 2 1 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 1 2 1 0 1 1 0 0 0 1 0 0 0 0 0 2 0 1 2 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 2 1 1 1 0 0 1 1 1 0 0 0 1 1 1 0 1 1 0 1 0 0 0 1 1 0 2 1 0 2 0 0 1 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 1 2 0 1 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 2 0 1 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 0 2 0 1 1 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 0 0 3 0 0 1 2 0 1 1 0 1 2 0 1 3 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 2 0 1 1 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 3 0 0 1 0 0 1 0 0 0 0 2 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 1 2 0 2 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 0 0 0 1 0 3 1 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 2 1 1 0 0 0 1 0 0 2 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 1 0 1 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 1 0 0 0 0 3 0 1 0 1 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 3 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 0 0 0 0 2 0 2 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 2 1 1 3 2 0 2 0 1 1 0 0 0 0 1 0 0 1 2 1 2 1 0 1 2 1 1 0 0 0 0 2 0 0 1 0 1 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 2 1 0 1 0 2 0 0 2 1 1 0 0 0 0 0 1 1 1 0 0 0 3 0 2 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 2 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 3 0 1 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 2 1 0 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 1 0 0 1 2 0 0 2 3 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 2 0 0 0 0 0 0 2 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 2 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 2 3 1 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 1 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 1 0 2 0 3 0 1 0 0 0 1 0 1 2 0 1 0 1 2 1 1 1 1 0 1 1 2 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 2 0 1 0 1 1 0 0 0 2 0 1 2 0 0 0 0 0 1 1 1 0 1 1 0 1 0 0 1 0 0 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 2 0 0 1 0 1 0 1 1 1 0 0 0 0 0 2 0 0 1 0 0 1 3 0 1 2 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 2 0 0 1 0 0 2 1 0 0 3 1 0 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 3 0 0 0 0 0 2 0 0 1 1 0 0 3 1 0 2 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 2 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 0 1 0 1 0 2 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 1 1 0 1 0 1 1 0 2 0 2 0 0 0 0 0 1 0 0 1 0 2 2 0 0 1 0 1 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 3 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 1 1 2 1 0 0 1 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 3 0 1 0 0 0 3 1 2 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 2 1 0 2 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 1 0 0 1 1 0 1 1 0 1 1 0 2 0 0 0 0 1 0 1 1 0 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 2 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 3 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 2 0 1 0 1 2 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 0 0 0 0 1 0 1 0 0 1 0 0 1 1 2 1 1 0 0 0 1 0 0 1 0 0 1 0 0 3 2 0 1 0 0 3 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 2 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 2 0 0 0 0 2 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 1 2 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 2 0 1 0 2 0 0 0 1 0 0 0 0 1 2 1 0 0 0 0 1 3 0 1 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 2 1 1 3 1 0 0 1 0 0 0 2 1 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 2 0 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 2 0 0 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 2 1 2 2 1 0 1 1 0 0 0 0 0 0 2 1 1 2 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 2 1 0 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 3 0 0 0 1 0 0 1 0 1 2 2 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 3 0 1 1 0 0 0 2 0 1 0 2 1 1 0 0 1 1 0 0 1 0 0 0 1 0 0 0 3 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 0 1 2 3 0 1 0 0 0 1 0 1 1 0 0 3 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 1 0 0 1 0 2 1 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 2 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 1 0 2 0 2 1 1 2 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 1 1 0 2 0 1 1 0 1 3 0 2 0 3 0 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 0 2 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 2 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 0 2 0 1 0 0 1 0 2 2 0 0 0 1 0 1 0 1 0 2 1 0 0 1 1 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 2 0 0 1 0 0 1 0 0 0 1 1 1 3 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 2 2 0 2 0 0 1 0 2 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 2 0 0 0 0 0 0 1 2 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 1 2 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 2 0 1 0 0 0 0 1 1 0 0 2 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 1 0 0 2 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 2 1 0 1 0 2 0 0 2 0 0 1 0 2 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 2 0 1 0 1 0 0 3 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 1 1 0 0 3 1 0 0 1 2 1 2 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 0 0 1 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 1 0 2 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 2 2 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 0 1 2 0 0 0 0 0 0 1 0 0 3 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 2 0 2 0 1 0 2 0 1 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 3 0 0 1 0 1 0 1 0 2 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 2 0 1 1 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 2 1 1 0 1 0 1 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 2 1 1 0 1 0 2 0 0 1 1 0 0 1 2 2 1 0 1 0 0 0 0 0 1 0 0 2 1 1 0 0 0 2 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 1 1 0 0 1 1 1 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 2 2 1 1 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 1 0 0 0 1 0 2 0 1 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 2 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 1 0 0 0 0 0 2 1 0 3 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 2 0 0 0 0 2 1 1 1 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 2 1 1 1 2 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 2 1 1 0 1 1 1 4 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 2 1 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 2 1 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 2 1 1 1 2 0 1 0 1 0 0 1 2 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 1 0 0 0 3 0 0 0 1 2 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 2 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 2 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 3 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 1 2 0 1 1 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 3 0 0 0 1 0 0 0 0 1 1 0 3 0 0 0 0 2 0 1 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 1 0 1 1 0 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 3 0 0 1 0 0 0 0 0 0 1 2 2 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 4 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 2 1 0 1 0 0 2 1 0 0 0 0 2 2 0 0 0 0 0 0 0 3 0 0 1 0 1 0 2 2 0 0 1 0 2 1 0 1 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 1 2 1 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 2 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 2 1 1 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 1 0 2 0 0 2 1 0 0 0 0 0 1 4 0 2 0 0 1 1 1 1 0 0 1 2 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 1 1 1 1 2 1 0 0 3 0 2 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 2 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 2 0 1 0 1 2 1 0 0 0 1 0 1 0 0 0 1 2 1 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 2 1 1 0 0 2 0 3 2 0 0 0 0 0 1 3 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 2 0 0 1 1 3 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 2 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 3 0 1 0 0 1 0 0 2 0 2 0 0 1 0 1 0 0 1 1 0 1 2 1 2 0 0 0 0 0 1 0 1 1 2 0 3 1 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 0 2 2 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 0 1 1 0 0 2 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 2 1 0 0 1 0 1 1 0 1 1 1 0 0 1 1 1 1 0 1 3 1 0 1 1 1 0 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 1 1 0 0 3 0 0 0 1 1 0 0 2 0 0 0 1 0 2 0 2 1 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 2 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 2 1 0 0 0 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 2 0 2 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 2 1 0 1 0 0 1 0 0 0 1 0 0 0 3 0 1 0 1 0 1 0 0 0 1 0 1 2 0 4 1 0 0 2 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 3 0 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 1 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 2 0 0 1 1 1 1 0 0 1 0 0 1 1 0 1 1 1 0 3 0 0 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 2 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 2 1 0 0 1 0 0 2 1 0 0 1 0 1 0 0 0 1 3 1 1 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 1 2 2 1 0 0 1 0 1 0 0 0 2 2 0 0 1 0 1 0 1 0 2 1 2 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 3 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 2 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 1 2 0 0 1 0 1 1 0 0 1 2 0 0 0 0 0 0 2 1 0 1 0 0 0 1 1 2 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 2 0 1 0 1 0 0 0 2 0 0 0 1 2 0 0 2 1 0 1 0 2 1 3 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 2 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 2 2 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 2 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 1 1 2 0 1 0 1 0 0 1 0 1 0 0 1 0 2 1 0 1 1 0 2 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 2 0 1 1 0 1 0 2 1 1 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 2 0 1 0 0 1 0 1 1 0 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 3 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 3 0 0 1 1 0 1 1 1 1 1 0 1 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 2 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 2 0 0 0 0 0 1 2 0 1 2 0 2 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 2 0 0 1 0 0 2 0 2 1 1 0 0 0 0 1 0 0 0 1 1 0 1 1 1 1 0 2 2 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 2 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 2 0 1 1 0 0 2 1 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 3 1 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 1 0 0 3 0 3 1 0 2 0 0 2 2 0 0 0 0 0 0 0 0 2 0 0 2 1 0 0 0 0 0 0 1 1 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 1 2 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 1 1 1 0 0 0 1 1 0 0 2 1 1 0 0 1 0 0 2 0 0 0 2 0 0 0 2 0 0 2 0 0 0 0 0 2 0 0 1 0 1 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 2 2 1 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 2 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 1 0 0 2 0 1 0 0 0 3 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 2 0 0 0 0 1 0 1 0 3 0 0 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 2 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 2 2 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 2 0 2 3 2 0 2 1 0 1 2 0 1 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 2 1 0 2 2 0 0 1 0 0 1 0 0 1 1 0 0 0 1 0 3 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 1 1 1 0 0 1 0 0 0 0 1 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 1 2 1 1 2 1 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>JSU(-16.757040199208525, 8.474032762835574, -223.34309206431033, 94.23724824243092)</t>
-  </si>
-  <si>
-    <t>73 120 128 40 196 156 155 112 101 163 176 68 89 43 99 177 86 97 51 105 131 96 135 127 108 223 157 123 32 141 103 102 89 130 111 95 196 127 106 77 145 143 92 78 92 92 162 61 35 160 161 106 88 108 72 142 116 55 130 104 69 112 77 81 43 128 166 25 133 137 124 125 175 139 129 117 80 78 128 99 86 74 104 156 117 80 181 58 59 131 125 100 110 119 159 161 113 158 188 152 86 28 129 99 84 147 122 116 206 8 249 135 153 85 86 164 160 162 96 94 133 103 88 108 156 109 120 102 97 88 105 115 55 94 107 187 91 107 91 158 178 185 77 126 186 126 92 160 66 114 75 61 75 57 122 60 69 130 230 159 98 132 107 133 73 46 119 164 197 138 92 77 97 103 167 85 125 39 41 96 61 87 132 65 144 54 121 187 60 141 63 136 148 141 175 113 102 128 97 77 195 85 134 93 55 62 113 58 194 85 106 116 105 125 80 130 67 206 94 101 139 48 16 127 27 181 196 134 186 72 103 89 114 116 126 67 69 127 173 94 66 158 195 84 62 153 158 103 31 129 83 91 133 128 101 111 75 69 170 140 114 176 119 169 159 65 151 159 58 95 201 82 163 115 136 44 58 120 116 114 162 167 129 88 56 127 147 54 101 110 84 14 92 132 152 88 83 124 99 62 78 165 90 197 110 134 90 89 153 154 139 130 67 136 122 82 114 141 108 127 126 130 104 104 93 125 52 117 64 124 108 44 58 108 174 138 78 152 137 63 106 189 108 115 157 97 234 100 99 115 80 97 143 114 82 53 135 43 151 101 183 97 88 132 73 82 100 60 76 191 151 134 216 139 231 127 83 105 90 163 50 126 66 154 83 145 169 121 117 58 99 65 96 97 115 114 114 104 153 126 107 125 55 41 137 66 96 185 121 40 169 79 144 55 95 116 135 80 162 117 25 190 159 140 114 88 115 108 120 58 145 100 165 137 166 156 143 168 61 88 150 126 43 116 120 60 124 110 91 179 121 42 70 137 183 163 148 78 148 47 111 183 100 122 58 124 179 203 128 107 114 127 121 197 142 22 114 100 90 41 102 167 133 101 70 134 102 90 139 48 143 142 63 193 208 98 153 221 92 149 52 72 168 86 120 84 148 112 120 68 43 111 152 99 85 158 40 87 74 118 81 126 100 82 102 126 132 120 138 101 62 111 162 122 137 65 121 139 130 87 137 92 30 93 153 80 136 41 63 65 37 111 131 92 52 81 86 123 101 83 122 131 122 74 52 166 114 111 109 197 75 157 100 77 109 68 191 103 166 79 128 152 154 161 105 83 196 120 58 89 143 260 121 127 150 85 137 120 98 83 206 111 55 57 93 170 156 80 176 156 133 63 134 120 77 114 102 68 155 131 86 160 64 200 117 99 102 84 114 134 100 124 151 80 67 105 146 109 108 166 44 105 81 109 92 114 66 58 99 135 73 107 163 117 88 101 55 127 69 126 76 167 166 116 31 64 113 111 151 68 121 48 153 104 47 101 83 200 133 153 48 115 117 119 135 120 162 168 76 65 112 176 110 88 53 166 123 119 121 95 90 154 94 108 139 65 123 62 197 146 69 85 76 108 9 63 146 101 104 69 144 46 145 167 29 119 115 184 134 154 123 156 123 206 139 111 51 164 106 138 20 132 72 59 42 38 112 90 91 109 147 118 73 112 80 80 77 122 125 92 80 122 132 126 167 88 125 86 75 101 93 122 80 32 122 190 48 132 182 70 114 81 117 80 51 66 147 131 72 123 133 116 140 91 130 132 113 73 128 124 117 135 52 88 98 86 78 100 105 86 173 45 126 135 49 122 154 147 107 96 114 194 129 82 113 118 98 55 126 87 102 73 127 65 148 136 100 111 148 70 104 109 54 80 115 121 95 76 146 176 191 65 153 203 122 110 166 165 135 135 118 96 126 41 38 59 129 59 50 104 110 71 198 123 181 129 218 96 188 173 81 93 174 117 121 67 85 152 96 160 118 143 116 112 89 149 165 97 147 97 101 131 96 101 86 102 95 184 134 145 70 128 68 126 92 116 167 43 145 129 117 58 108 86 51 82 163 81 154 150 95 51 97 123 78 145 159 134 59 115 135 90 80 125 54 137 191 98 56 21 205 199 155 124 116 133 103 93 18 35 155 139 109 91 147 138 179 107 100 141 120 127 53 122 176 108 98 139 63 52 158 212 52 101 101 86 103 34 152 98 153 78 103 80 202 180 89 83 111 94 66 147 26 70 131 125 131 80 112 162 124 126 83 146 77 98 120 147 60 128 106 166 222 108 127 86 100 234 106 91 51 62 147 86 91 135 43 203 117 63 67 101 148 106 75 99 123 119 59 106 96 106 83 94 58 64 111 52 161 163 143 109 122 44 59 109 68 115 145 81 45 123 125 47 90 92 170 159 90 124 58 141 79 48 96 105 66 126 117 120 79 85 122 87 128 164 152 43 39 116 72 90 116 134 170 140 67 131 104 131 156 31 145 215 72 109 114 96 34 123 200 150 136 71 114 63 70 115 129 114 146 94 132 100 74 136 148 128 196 119 96 68 134 122 133 120 79 92 108 134 112 106 69 83 118 192 106 73 64 71 150 171 138 98 100 86 110 112 83 95 81 126 131 149 129 152 51 98 187 128 124 110 143 131 114 157 83 169 76 118 123 122 68 117 174 194 109 103 133 132 76 165 49 122 130 188 176 49 66 119 77 57 167 94 78 126 60 134 192 141 91 113 131 102 127 37 71 156 148 75 99 129 62 129 161 117 155 169 109 219 41 84 136 64 159 137 123 134 110 108 122 104 101 132 127 103 108 102 150 86 124 90 105 103 103 141 116 111 130 128 80 129 144 127 205 163 104 99 170 92 79 138 101 126 169 45 91 126 83 147 110 108 80 115 155 66 172 94 96 89 113 186 98 94 207 109 159 78 82 99 138 100 164 114 85 51 71 163 44 67 112 113 147 110 182 123 88 94 119 113 113 68 94 104 75 66 57 68 127 211 91 98 180 128 119 101 110 135 87 103 93 173 75 46 112 121 209 202 143 119 143 22 121 60 100 162 152 96 91 155 139 128 128 101 93 68 117 104 89 136 118 117 163 70 118 114 112 121 156 93 119 68 102 128 119 103 95 90 73 73 97 134 142 135 142 117 119 113 75 117 63 35 145 60 106 123 134 97 74 115 83 212 102 118 144 93 137 45 106 86 156 81 176 189 118 81 166 90 110 137 78 126 146 221 75 76 141 62 126 179 103 71 107 64 123 103 105 164 65 67 131 155 191 153 117 107 153 90 71 116 191 111 108 103 89 106 90 137 95 167 99 91 28 256 176 59 70 153 149 164 114 118 59 87 111 193 152 115 66 136 162 139 148 77 120 70 82 214 149 126 89 125 123 90 58 45 79 135 141 134 121 82 66 117 25 118 109 112 111 77 127 238 88 175 95 98 116 167 112 30 167 132 88 114 155 159 102 134 133 160 122 69 85 150 78 137 111 28 92 80 100 114 194 97 194 121 106 200 91 109 45 120 76 98 95 98 117 81 63 46 121 131 166 98 203 100 82 117 108 173 134 105 141 195 206 59 105 161 40 130 137 118 163 84 72 66 97 114 31 183 178 83 119 182 85 71 135 127 106 107 144 153 163 84 105 108 71 109 188 116 107 108 93 128 114 101 41 137 117 71 168 127 101 88 96 50 136 151 115 70 73 134 78 96 94 66 52 162 133 91 62 86 101 79 84 72 129 86 128 94 161 109 110 84 93 159 173 108 37 112 131 64 85 109 130 53 104 82 167 122 98 91 69 71 142 92 49 161 122 128 108 51 167 119 68 79 115 126 133 174 29 68 76 80 146 126 109 142 68 138 174 130 66 129 112 145 123 53 107 61 168 133 94 128 114 45 122 124 101 126 129 65 134 165 51 18 97 81 126 151 115 204 128 139 80 189 99 105 126 157 69 123 199 89 118 148 187 68 136 60 90 159 31 157 163 157 120 103 126 154 160 62 107 53 181 152 17 142 196 94 157 122 128 108 148 69 118 94 87 22 70 93 147 91 132 100 97 57 155 124 220 98 64 84 106 250 87 158 55 216 71 46 172 145 183 116 104 122 146 138 126 111 118 125 98 185 113 74 88 149 90 109 105 134 131 106 96 108 89 257 96 98 112 168 135 170 177 148 100 111 134 206 148 79 116 86 166 150 112 88 87 135 48 88 169 135 117 162 132 104 54 123 140 100 101 172 150 108 117 106 113 110 108 146 269 35 82 90 113 86 173 61 99 111 94 124 145 54 64 55 143 103 122 96 73 52 95 72 126 113 100 99 111 86 144 89 126 90 63 133 129 106 149 143 44 156 110 125 55 177 101 76 67 48 74 62 97 96 121 114 123 110 103 97 103 35 122 71 159 134 22 91 168 101 71 86 95 100 184 123 120 73 114 21 104 78 133 108 134 47 206 139 36 124 157 105 71 129 100 94 85 141 101 94 110 161 56 59 117 142 130 49 129 126 126 42 87 119 91 88 126 58 120 169 43 93 62 133 91 119 79 134 119 146 51 52 36 21 53 79 97 148 177 71 129 114 129 95 162 124 89 181 138 32 100 36 135 109 88 72 139 137 129 132 61 40 168 77 86 103 46 142 234 128 141 23 159 52 68 174 128 61 145 131 109 89 89 72 47 143 71 194 141 145 105 27 131 47 122 184 159 117 192 148 138 128 77 113 109 118 76 174 109 148 71 132 134 78 92 63 84 72 83 122 119 115 209 120 138 76 112 62 94 96 65 56 110 130 137 163 44 182 126 120 87 104 67 168 171 129 135 128 147 219 102 159 55 180 86 97 102 56 100 71 92 114 79 101 101 170 50 117 102 60 109 163 162 130 53 78 156 114 143 161 71 171 107 162 93 172 150 90 157 122 158 116 86 93 136 89 113 71 148 100 161 54 136 83 60 75 76 80 127 89 159 125 97 27 141 107 71 111 135 169 148 68 131 136 74 89 141 114 94 92 108 113 140 97 64 111 40 81 158 126 170 120 94 153 177 75 56 125 68 62 57 172 74 224 137 146 63 36 122 66 51 144 120 68 59 155 109 152 51 133 51 91 144 74 137 99 173 150 170 50 117 109 119 151 221 143 105 152 118 119 51 112 56 147 117 75 101 110 58 133 112 129 136 150 144 77 59 163 94 62 68 114 27 111 132 125 102 75 120 189 115 66 89 120 75 171 111 144 33 142 179 108 144 104 115 143 173 146 104 71 119 124 64 89 88 171 181 69 95 186 102 115 127 166 54 101 98 49 164 124 70 64 198 62 81 112 120 266 156 53 150 53 114 73 153 203 150 127 171 107 147 102 136 110 116 97 100 142 44 111 145 107 93 124 180 113 158 129 121 156 69 126 163 93 160 154 26 96 97 108 143 120 140 158 150 139 93 173 121 165 55 73 60 129 133 196 77 138 136 116 151 74 76 114 111 168 127 182 195 131 42 152 105 148 91 82 127 56 152 99 131 114 151 136 126 148 40 132 106 56 124 105 70 125 97 120 133 150 121 121 146 100 82 86 133 134 99 189 157 67 92 152 117 100 54 87 48 182 154 113 154 77 115 157 99 34 141 238 90 195 158 241 93 152 86 116 153 59 167 49 102 107 110 70 120 98 139 136 100 166 147 238 58 86 133 139 79 85 76 147 53 140 153 166 69 61 119 135 82 126 130 101 96 118 100 222 98 77 149 119 116 159 110 165 84 104 87 102 114 93 64 124 142 30 42 62 97 45 84 196 208 111 80 59 138 49 113 147 139 103 95 100 81 143 147 72 121 170 56 67 152 156 129 139 153 42 61 127 198 128 129 133 60 136 131 100 112 75 147 141 89 65 107 126 110 116 109 111 71 71 142 202 141 157 171 78 181 93 137 117 102 181 105 158 93 155 109 190 109 100 111 155 96 139 71 115 127 187 74 91 142 114 78 159 92 102 95 110 196 105 129 76 99 181 74 143 102 152 123 112 163 101 79 96 75 83 125 170 156 113 35 132 88 67 103 168 47 154 60 107 100 72 171 133 153 128 77 100 104 135 83 64 152 185 76 164 97 101 117 123 203 53 58 126 135 91 73 148 59 97 95 136 169 149 124 160 55 98 172 206 27 107 184 105 159 79 63 88 127 129 145 160 104 102 111 90 120 103 158 146 140 118 132 117 91 128 84 91 89 198 130 62 103 51 95 120 145 117 145 101 201 48 147 132 125 137 66 67 66 76 191 170 88 134 87 129 124 76 131 162 109 85 94 124 83 55 100 58 79 119 18 97 75 55 82 96 87 145 134 142 111 129 204 136 114 108 66 136 54 79 80 109 93 81 84 151 217 180 124 114 154 31 81 134 86 209 100 115 73 72 85 34 92 30 187 62 145 113 114 71 124 109 139 109 139 114 102 130 132 47 61 95 130 56 59 90 131 85 87 68 55 125 161 103 62 81 118 158 91 62 122 104 85 64 134 123 174 99 91 63 62 124 133 179 35 137 119 114 80 112 93 104 36 129 86 88 81 156 89 96 135 149 139 142 122 130 78 113 175 120 175 100 100 108 110 159 160 144 154 66 122 114 64 113 111 71 87 88 111 131 149 144 54 27 50 145 120 139 86 79 108 147 184 64 185 143 98 105 175 173 137 78 27 209 143 40 127 178 116 70 84 123 58 144 44 154 85 80 140 63 140 92 136 108 91 162 111 175 58 68 145 85 88 144 129 66 82 140 132 93 127 80 90 88 144 163 136 55 157 101 77 135 52 93 203 161 163 108 146 149 75 130 75 107 114 80 96 145 103 83 164 94 106 74 116 152 171 94 136 179 64 70 94 150 142 86 57 155 116 85 133 130 208 92 61 133 156 65 139 112 51 153 123 124 129 36 81 78 82 187 46 132 75 162 122 54 99 88 73 82 121 135 160 169 145 64 137 73 139 185 117 138 77 72 111 56 97 33 158 125 77 117 146 126 83 113 146 170 126 134 163 70 73 140 77 67 83 67 114 161 133 161 99 141 78 72 84 122 120 53 87 156 150 99 222 137 116 96 117 32 194 71 131 159 182 198 116 132 36 143 46 68 111 106 234 143 133 79 83 150 70 91 84 113 121 139 133 67 75 122 138 121 152 131 133 52 27 145 119 195 122 85 192 167 105 122 121 92 190 83 261 127 76 158 31 202 126 171 151 160 113 160 104 110 14 137 99 201 132 160 152 126 103 170 47 132 109 154 158 141 114 101 110 144 112 102 98 50 86 131 90 127 158 120 82 50 171 80 180 108 115 54 108 182 62 112 107 128 151 176 147 107 67 53 78 110 141 173 89 116 150 119 206 101 90 42 84 104 21 141 88 103 186 169 171 75 155 134 167 130 138 102 63 102 82 98 98 99 131 68 140 54 134 128 165 102 119 141 134 82 98 135 135 124 59 77 106 146 105 174 118 67 76 96 108 106 92 81 124 144 214 130 87 113 143 133 106 104 76 93 135 99 92 86 55 116 99 97 142 155 56 50 100 167 104 37 170 79 90 120 92 74 143 94 31 149 74 111 117 97 144 88 139 121 99 168 77 70 153 126 169 77 116 110 128 109 140 130 92 126 114 113 158 131 79 174 151 92 88 105 195 31 76 88 94 86 82 127 58 235 118 135 91 115 123 122 94 78 35 67 166 138 65 161 146 116 76 176 162 90 120 149 69 69 111 65 157 93 97 106 54 179 110 182 50 33 95 157 94 178 123 87 194 101 117 89 96 49 84 60 76 119 146 121 197 77 120 78 70 107 135 132 200 111 97 114 175 83 174 127 32 86 148 167 99 95 88 170 77 95 129 72 41 106 133 147 99 62 71 23 130 94 117 63 131 65 185 122 113 115 169 197 63 159 164 166 187 124 61 132 75 65 92 106 66 132 61 118 132 105 138 128 117 63 207 55 113 122 95 104 76 14 81 185 131 57 116 198 96 147 76 77 161 134 67 117 51 143 41 143 75 122 120 124 81 95 24 189 25 159 84 113 139 104 78 199 132 79 73 186 203 160 78 158 51 70 145 143 68 169 235 201 53 143 171 91 103 148 213 68 185 40 115 144 92 137 151 114 160 29 136 150 127 136 177 108 139 127 105 83 149 67 89 109 84 169 96 150 89 87 88 118 108 206 149 18 153 110 119 67 176 50 181 54 176 76 63 70 64 147 104 128 93 68 86 100 85 116 160 158 220 48 69 125 141 103 107 136 127 104 131 82 217 114 172 176 72 164 128 87 76 156 43 112 57 115 110 94 122 215 228 138 177 120 176 153 115 198 109 104 104 65 118 92 77 88 143 86 62 48 73 65 112 134 74 64 204 109 90 95 41 146 117 116 134 101 97 170 77 116 71 56 106 110 94 159 114 130 59 89 104 116 47 72 71 115 41 60 123 59 79 95 81 67 129 90 180 126 68 94 36 118 144 183 116 49 107 111 117 59 99 90 108 206 62 112 76 151 73 192 90 118 100 122 96 65 93 84 81 141 144 96 35 101 165 108 163 84 65 151 84 51 200 119 163 139 127 190 134 80 166 65 104 156 119 85 99 109 158 76 64 215 115 112 121 82 77 142 52 116 72 129 136 87 102 145 76 98 102 115 138 89 106 83 194 258 88 110 119 120 138 165 100 149 37 59 148 139 75 129 87 157 106 137 66 58 121 154 138 49 137 119 83 152 110 104 82 142 75 104 62 147 179 237 86 102 86 135 228 120 33 150 58 64 111 159 81 109 109 160 68 44 99 140 69 241 86 106 39 111 70 30 81 117 209 133 141 112 139 103 81 90 102 137 92 74 84 80 169 186 103 52 139 115 95 136 77 155 201 165 144 140 111 99 143 64 104 173 79 155 171 164 109 102 130 160 130 108 191 79 54 110 171 59 54 179 143 187 51 88 130 103 64 73 190 141 122 95 155 92 144 114 154 78 72 159 88 49 133 82 121 123 136 98 76 75 135 70 91 180 114 86 192 215 107 76 21 59 80 65 152 109 83 101 205 120 117 149 126 79 74 66 110 58 115 75 153 155 75 81 86 97 144 87 64 104 120 105 195 107 31 99 120 125 72 133 74 161 106 129 145 105 171 50 102 111 105 152 124 93 113 76 91 229 181 65 146 99 184 154 102 154 93 109 126 122 125 138 75 138 142 123 126 99 130 156 81 64 96 101 171 164 47 196 178 147 112 81 89 78 67 131 33 203 24 109 93 190 81 176 183 176 74 134 137 150 115 67 179 143 122 89 47 110 189 78 102 168 54 94 107 165 121 60 174 181 105 97 131 163 144 147 136 107 83 40 87 85 115 129 123 63 107 113 121 53 26 78 62 198 174 93 89 77 114 93 85 100 152 40 95 56 103 53 194 144 63 88 129 89 126 116 49 67 190 66 95 112 98 145 145 89 39 123 134 69 158 72 98 76 137 126 215 41 161 67 129 107 101 155 108 43 81 98 110 133 115 115 114 125 89 78 91 87 77 115 118 81 111 94 182 113 176 85 52 89 69 144 80 118 57 97 145 154 150 181 112 82 130 118 95 111 121 128 173 108 100 168 104 120 122 128 128 189 91 180 63 159 173 157 121 117 145 71 113 117 168 146 205 55 134 92 85 92 99 149 65 147 165 156 43 98 101 137 69 90 77 77 130 86 46 138 146 160 96 61 119 48 143 64 149 142 138 133 69 91 157 117 41 127 66 139 105 159 61 128 99 150 41 85 121 72 176 116 163 79 57 102 124 117 146 149 204 144 175 159 2 106 32 181 69 97 154 101 92 85 116 121 92 90 114 169 81 115 140 139 100 127 184 158 179 73 146 61 98 168 64 93 78 148 147 194 140 87 35 95 124 76 73 148 136 82 62 158 136 67 192 127 72 121 76 50 154 46 69 154 50 140 67 69 68 55 89 94 100 137 55 80 63 70 102 90 72 136 105 101 103 118 155 106 91 65 136 81 156 52 89 158 136 63 135 139 31 93 101 100 63 101 151 64 143 165 114 18 113 166 136 133 185 48 139 36 159 122 104 54 55 181 82 148 148 142 96 109 87 129 157 118 112 67 162 107 103 47 144 127 56 153 23 113 93 37 175 38 82 172 112 26 96 98 106 39 143 106 100 130 168 77 133 165 54 107 58 185 52 81 138 213 115 170 87 65 124 85 125 75 166 60 154 81 115 119 123 70 145 126 182 102 178 169 139 100 155 94 101 143 99 82 152 92 36 181 181 96 122 109 112 128 111 94 110 88 163 80 46 198 128 196 101 100 154 152 118 64 98 58 83 139 97 139 236 24 54 164 195 104 54 89 90 92 67 100 104 130 94 69 97 157 133 72 174 77 95 116 179 188 219 97 165 152 150 45 73 140 102 205 117 38 16 71 48 58 160 46 105 103 142 160 93 111 114 171 76 141 205 120 122 59 47 137 51 97 168 80 72 176 83 152 89 49 144 106 130 71 129 95 35 100 107 118 51 116 109 141 82 104 69 40 131 71 110 167 78 122 147 67 62 127 143 102 276 126 206 118 106 114 95 70 117 157 121 98 126 79 143 121 72 51 118 194 161 100 89 133 132 93 108 51 240 117 146 185 145 36 157 69 146 161 148 95 189 170 87 150 101 92 201 116 57 71 125 117 170 37 210 103 65 85 49 120 89 115 178 113 55 36 57 154 137 107 136 167 76 120 113 119 69 125 188 120 162 133 41 168 67 129 39 64 105 162 71 79 64 166 118 101 120 83 146 157 73 95 117 115 75 186 163 75 211 114 110 89 142 85 110 121 141 89 124 82 112 60 116 83 143 134 88 126 170 101 60 152 104 123 126 17 92 171 61 83 113 101 85 103 131 51 110 114 29 93 186 55 21 92 108 166 191 117 197 68 86 190 137 86 112 115 141 114 199 52 141 181 98 94 107 127 150 142 95 117 60 114 47 82 137 181 144 101 108 120 104 70 32 109 120 116 143 86 42 22 91 60 167 143 58 94 77 235 115 146 164 83 66 27 66 107 142 87 124 83 117 127 140 100 102 126 92 116 111 135 97 85 96 57 122 122 205 105 88 226 111 184 99 167 115 23 178 169 104 93 59 115 67 72 32 133 84 102 63 63 58 89 138 145 173 218 204 101 123 138 143 28 144 74 79 229 101 191 154 140 91 176 123 155 81 99 73 133 92 135 90 143 69 125 70 100 65 91 99 84 113 131 121 128 133 115 104 88 133 120 103 120 72 216 81 137 150 102 72 146 152 139 77 139 60 126 128 70 123 84 114 69 149 149 142 196 74 132 91 144 87 107 121 142 154 89 157 77 116 102 49 40 148 130 89 85 51 110 195 147 157 120 91 108 76 134 182 80 137 65 57 99 167 153 116 112 98 90 136 90 90 115 74 24 146 37 144 58 100 119 137 114 128 141 135 100 86 160 84 231 137 214 64 159 101 119 131 120 145 81 104 90 100 51 62 99 146 97 113 79 69 65 120 137 137 139 76 82 14 43 179 118 59 86 131 120 48 169 117 89 164 95 60 29 108 160 188 57 120 123 69 95 100 120 162 129 84 151 53 111 145 163 211 196 110 85 63 118 77 101 114 193 59 143 145 136 112 47 113 135 161 154 91 97 48 156 93 123 100 78 89 155 208 112 132 104 94 126 153 151 129 131 64 151 89 156 98 45 86 202 97 118 129 186 18 76 148 64 47 32 109 94 121 108 113 86 77 90 138 76 110 140 38 100 149 148 97 115 98 96 67 122 173 95 130 56 92 63 81 47 116 72 63 156 174 118 54 153 90 84 107 97 93 108 100 57 165 142 28 144 20 90 133 137 68 181 129 67 232 164 138 111 62 104 138 119 73 91 124 160 103 83 123 87 42 27 134 98 223 233 232 107 68 177 77 122 153 105 145 93 37 107 113 140 126 145 185 124 68 141 99 117 108 66 139 74 122 64 134 172 100 112 74 119 128 137 72 123 127 63 123 110 83 135 133 84 128 138 74 100 97 161 132 56 205 117 38 90 31 151 147 194 80 96 45 112 178 159 110 96 144 87 94 41 95 112 92 115 116 26 109 132 120 58 130 122 64 97 113 58 188 102 71 183 103 117 141 172 58 46 78 110 66 157 136 63 106 173 89 121 173 69 99 141 178 177 84 115 165 169 100 128 109 64 123 62 102 82 113 99 82 66 106 97 150 137 137 88 38 48 144 98 164 52 223 50 157 65 156 117 146 49 115 118 108 72 99 120 108 97 177 135 115 150 206 94 127 137 104 104 99 71 171 83 64 61 122 201 165 95 152 159 178 80 70 115 96 137 112 68 117 175 132 67 188 168 165 85 127 41 139 113 94 145 123 34 91 168 146 93 68 72 98 104 95 72 135 46 140 147 59 139 191 174 181 154 137 120 54 117 124 151 90 201 130 224 68 124 93 125 127 141 62 105 157 132 210 173 175 94 118 202 170 145 84 120 131 123 105 132 19 98 137 136 123 107 136 88 158 185 72 170 83 160 106 92 130 220 127 51 91 110 71 161 89 133 119 85 184 84 153 67 118 144 175 67 87 67 127 181 205 165 161 126 129 156 84 62 111 66 85 81 123 138 139 193 120 116 89 262 120 87 114 177 91 63 159 182 93 113 139 124 58 98 160 138 80 57 98 215 126 99 104 142 162 152 170 138 139 157 86 27 120 94 103 92 62 158 139 183 86 135 116 165 88 75 71 174 102 60 103 162 165 126 46 211 135 99 70 89 113 148 156 58 212 123 47 116 70 93 214 101 140 185 124 37 97 133 86 135 188 149 135 102 53 74 112 64 86 76 147 121 69 112 53 96 59 75 115 112 140 73 102 95 146 42 91 157 108 69 150 94 103 127 76 88 99 135 126 116 60 154 90 190 116 138 95 121 151 104 75 112 145 89 127 104 161 196 119 73 44 133 77 113 159 185 148 145 151 96 114 153 141 68 145 209 79 103 113 53 82 167 72 111 139 124 205 105 87 58 69 107 132 205 166 91 107 82 138 105 165 114 152 88 164 124 70 133 59 202 53 129 58 192 103 137 162 30 68 204 180 124 116 56 198 110 164 53 149 157 101 126 89 67 82 87 137 35 56 193 137 55 17 73 102 57 113 160 118 120 66 35 80 166 124 218 106 73 80 116 91 105 106 158 116 111 61 124 116 103 147 94 81 93 71 106 68 143 124 88 69 174 116 106 109 123 116 133 89 133 147 177 193 84 148 127 110 93 149 119 47 110 160 230 167 145 112 80 99 132 115 93 58 151 103 104 94 85 92 44 92 125 106 23 166 101 127 130 113 110 89 80 91 105 124 126 24 169 121 118 71 60 100 88 99 85 189 190 141 80 127 117 70 138 102 88 228 89 78 137 100 84 79 181 231 120 108 177 214 98 127 145 71 111 161 94 148 17 133 174 119 161 92 110 130 113 53 49 152 66 83 127 163 113 165 69 117 69 89 160 154 128 90 178 116 111 160 72 63 53 160 143 184 101 69 143 89 147 99 171 115 86 27 89 59 72 57 191 144 110 85 183 165 190 56 119 65 130 51 31 99 86 80 83 64 80 73 76 39 152 105 155 78 127 118 141 168 92 105 99 93 148 99 92 94 144 135 109 157 99 59 198 103 95 146 114 126 74 79 54 118 93 102 110 113 81 158 105 145 118 103 128 42 141 112 72 111 90 33 82 99 136 117 68 28 107 104 56 153 102 167 152 173 39 79 50 100 134 65 122 110 66 22 112 91 71 84 97 104 160 67 142 103 106 87 103 180 92 93 124 145 110 108 164 100 137 130 100 176 166 218 66 100 50 78 117 187 51 79 163 80 149 216 18 105 95 136 139 72 114 178 114 134 109 106 184 125 94 63 141 80 70 95 72 189 103 124 93 181 114 98 62 96 128 138 82 85 116 161 102 96 158 159 142 150 39 129 85 143 109 166 95 158 112 40 115 89 89 110 50 58 110 59 113 147 134 64 48 119 132 137 80 77 121 82 175 233 156 122 84 34 93 203 14 144 76 137 150 132 85 57 96 130 104 49 149 128 93 75 176 86 103 130 123 82 116 89 130 121 129 87 115 86 56 109 140 123 133 180 58 49 56 116 87 133 140 128 181 86 129 111 106 180 165 109 174 66 100 43 41 107 38 220 69 111 146 106 136 114 123 145 103 103 145 96 119 123 43 109 90 82 121 148 148 143 52 102 110 29 42 139 64 161 95 153 116 189 65 160 125 94 136 101 67 142 75 148 104 138 83 156 158 60 18 55 100 136 182 114 117 181 105 56 140 129 155 179 86 164 98 35 189 136 146 100 147 105 159 122 119 61 164 148 116 130 134 121 147 94 83 91 105 76 82 95 81 81 123 152 73 91 126 67 141 84 112 48 160 166 119 195 205 95 211 100 105 123 100 180 72 53 191 165 63 145 71 132 102 123 46 65 105 122 183 127 100 77 151 18 191 115 59 86 111 86 125 109 118 148 97 97 29 141 136 80 180 123 109 91 109 60 119 138 187 160 129 120 56 68 127 79 64 32 113 81 128 170 81 126 93 144 90 109 93 69 89 82 169 140 79 139 135 99 218 203 51 146 130 67 109 81 62 36 150 72 113 76 135 75 86 91 119 100 156 117 92 105 77 153 72 173 133 153 166 113 159 120 108 39 119 32 133 128 117 82 96 88 139 81 118 143 134 156 111 117 223 93 108 195 57 199 96 104 122 97 64 127 160 78 133 154 108 129 109 165 90 79 190 88 154 60 69 117 96 159 75 152 95 89 22 91 81 172 67 175 137 114 148 105 93 99 109 155 97 79 55 120 145 63 154 68 170 139 100 117 181 54 107 82 187 117 100 91 103 128 59 88 114 181 204 110 50 140 129 128 105 82 139 122 72 66 134 24 76 68 55 97 78 66 151 178 60 30 96 106 89 85 42 86 125 88 126 91 82 101 39 134 132 65 126 59 122 103 75 116 46 103 70 125 97 28 105 53 78 122 122 144 136 102 119 68 137 224 119 133 99 69 119 68 37 153 142 92 90 92 108 137 108 53 58 161 133 112 67 111 103 118 96 88 94 90 61 127 309 171 113 193 192 119 106 85 131 101 64 91 103 117 107 150 156 126 132 40 110 173 119 94 110 134 35 100 122 101 91 102 76 110 65 94 111 144 94 82 172 75 131 113 163 70 140 54 106 170 148 201 116 211 128 122 102 107 157 138 92 130 197 49 167 107 147 120 121 131 125 125 113 133 139 153 136 117 37 141 29 125 86 112 56 121 63 75 67 74 89 116 56 183 47 150 77 97 108 68 90 153 76 80 127 70 121 140 122 117 44 91 109 181 125 147 45 71 107 99 105 64 113 51 125 111 177 83 93 48 113 146 92 85 105 137 114 150 98 109 140 108 113 47 105 152 135 130 77 13 90 180 144 55 156 96 109 123 147 132 162 103 99 106 138 63 129 100 103 61 90 65 72 149 237 120 94 117 120 175 129 65 147 120 93 191 109 118 112 181 180 134 107 174 170 92 49 68 96 168 93 65 138 135 148 110 148 104 63 95 102 97 101 81 110 93 114 177 105 47 95 125 100 76 56 100 17 132 106 101 132 164 68 43 115 137 131 125 104 44 99 108 120 158 83 67 128 36 139 86 135 59 110 104 103 120 153 126 95 61 70 44 84 122 97 140 111 58 165 138 57 122 156 171 99 106 86 67 53 158 68 140 233 150 113 109 111 101 29 101 76 10 108 123 129 50 156 124 147 41 67 226 113 163 35 63 103 46 66 154 100 172 60 124 72 160 152 212 166 146 55 113 71 73 79 130 72 137 144 146 63 166 107 71 147 135 181 58 54 90 80 49 174 79 34 70 49 72 267 88 103 178 58 52 79 148 101 45 152 105 124 102 151 136 74 92 111 124 76 130 129 113 162 77 124 173 154 120 73 130 141 125 48 95 160 163 93 80 108 180 87 158 135 168 122 116 121 127 147 66 94 174 145 23 146 79 84 99 100 139 111 71 121 161 173 125 99 81 110 48 123 117 135 169 160 105 167 167 82 89 149 86 87 137 86 123 98 112 70 90 63 143 170 147 129 208 183 150 88 86 96 106 19 40 115 126 132 149 136 137 164 116 92 114 142 85 146 112 86 75 89 149 86 120 114 87 162 127 135 36 178 114 121 102 104 126 46 107 88 155 87 89 129 81 138 88 135 155 130 58 135 96 88 119 85 112 76 190 116 162 109 102 122 124 112 150 109 113 62 156 97 66 56 72 95 121 169 95 165 96 77 252 184 115 143 141 257 134 79 93 77 72 94 154 123 174 110 162 42 166 121 123 132 105 100 109 191 141 115 161 79 62 160 132 71 150 72 83 82 206 105 52 134 66 95 85 214 87 89 109 73 112 57 175 132 158 90 221 110 143 108 162 134 109 152 138 211 127 32 54 165 120 90 104 121 103 156 90 108 96 58 126 86 102 135 53 161 157 76 93 105 104 152 186 117 128 84 171 129 87 154 130 86 128 83 95 146 77 126 134 80 85 167 82 210 68 110 56 138 113 97 133 105 132 70 95 106 102 162 153 36 78 122 137 117 70 170 79 108 69 103 64 83 90 118 49 61 48 110 128 71 190 79 112 193 45 110 60 94 119 172 85 98 93 167 45 123 170 82 162 134 114 157 144 168 116 151 56 214 81 183 133 120 131 92 104 189 111 23 125 197 109 95 110 165 117 76 98 114 113 84 99 132 53 100 124 91 154 116 88 89 52 78 74 49 127 128 126 176 93 113 74 167 172 157 160 150 141 78 122 191 61 67 108 141 120 57 115 63 145 80 113 117 52 101 53 146 136 214 65 75 168 102 193 118 139 157 109 110 204 98 88 188 94 115 137 93 140 147 95 127 139 56 149 42 170 99 83 206 126 139 187 74 96 181 198 176 124 41 154 133 81 89 143 116 54 124 136 51 100 50 83 170 87 83 65 86 224 99 65 131 88 138 102 103 66 77 130 98 176 201 148 97 90 168 70 41 165 170 161 90 122 120 171 87 128 106 99 130 124 123 175 117 130 104 64 77 70 92 113 71 73 136 85 81 162 124 120 114 31 75 116 143 38 119 87 258 135 83 62 115 84 91 131 160 61 78 111 133 83 107 82 119 145 89 174 152 75 118 99 67 40 145 106 174 146 163 157 178 207 166 156 207 95 48 112 52 166 113 123 101 172 167 137 217 177 88 54 105 135 70 98 126 75 98 158 29 114 134 160 125 76 104 162 131 135 112 114 104 190 56 224 141 110 93 134 127 137 138 84 104 134 143 108 69 51 46 65 53 82 153 124 121 79 84 153 36 87 92 88 68 158 101 155 70 92 139 87 109 72 139 75 92 78 199 141 138 177 142 173 169 84 62 138 58 104 91 9 92 42 137 60 92 129 159 208 90 103 137 137 147 145 73 143 103 112 53 115 166 80 170 91 149 60 179 124 48 151 101 236 169 119 139 115 123 149 36 73 106 153 108 58 110 116 112 95 53 108 64 108 162 99 132 72 117 146 95 74 99 93 102 111 114 159 87 160 90 85 83 110 148 129 145 135 147 113 99 163 118 58 93 90 59 122 95 52 114 138 116 171 203 153 152 124 94 109 147 82 99 132 27 93 153 138 140 102 161 83 103 181 109 121 201 108 159 46 67 111 172 62 117 146 135 118 171 58 51 105 110 128 202 204 137 134 154 156 71 117 143 135 83 128 84 113 148 124 107 52 58 160 100 138 124 40 112 223 100 115 107 155 64 110 132 87 85 110 50 48 120 130 103 105 69 90 118 84 109 121 107 142 133 94 119 160 150 127 122 59 187 113 105 189 69 95 106 91 136 149 154 85 55 92 168 73 150 124 121 138 213 112 94 60 119 135 109 47 140 180 97 70 131 111 135 90 59 72 139 123 179 92 98 84 77 115 165 107 73 106 130 143 58 71 92 178 96 60 127 116 146 84 129 169 84 116 39 124 93 48 119 63 163 111 80 71 51 198 105 120 169 124 106 122 79 125 21 91 107 134 107 158 86 131 125 218 207 235 153 107 126 80 91 83 117 130 109 131 111 54 249 86 112 141 67 107 137 84 93 102 201 179 170 122 168 120 109 93 99 140 102 134 121 165 55 107 68 176 114 98 128 100 34 83 162 207 89 143 68 92 26 113 76 103 186 93 76 131 117 71 145 139 172 110 35 87 60 113 92 147 148 176 138 97 190 94 80 123 78 60 109 108 35 142 150 77 87 146 97 107 160 150 65 127 128 87 126 104 81 130 114 48 108 126 38 174 90 130 76 175 100 175 152 105 35 148 200 132 111 169 165 85 110 88 214 111 122 186 126 43 107 126 134 196 41 110 107 78 99 167 83 161 93 106 103 123 155 95 34 109 111 120 88 149 119 108 100 99 133 162 84 70 146 132 69 80 97 150 152 167 77 111 68 53 90 159 115 164 86 122 80 93 129 109 119 150 84 56 127 89 91 110 102 88 56 129 89 253 82 85 202 124 182 131 76 191 143 44 95 146 101 22 90 89 106 126 93 158 102 71 149 65 64 119 73 129 177 52 67 95 172 158 143 148 71 82 62 81 107 117 69 97 103 152 107 57 164 70 63 76 219 89 80 184 155 145 132 145 129 79 125 119 124 100 26 48 19 129 125 86 172 134 124 183 123 107 99 205 154 76 128 98 100 77 107 100 32 108 98 139 135 64 59 164 274 149 177 175 148 122 66 122 97 99 107 115 135 118 107 82 160 89 85 166 86 117 61 107 72 113 141 158 63 124 24 114 137 78 94 109 105 171 64 135 77 74 186 124 115 132 158 69 97 160 130 132 100 139 64 129 26 137 31 108 132 55 103 127 41 115 136 206 93 95 103 97 49 95 74 134 160 196 141 146 143 132 84 149 106 58 103 99 160 90 99 95 111 89 121 116 260 151 164 90 92 136 171 86 85 95 182 94 118 34 135 168 111 59 169 117 52 151 120 59 68 95 120 89 85 91 51 169 77 75 92 66 102 45 153 68 139 68 99 217 99 81 175 87 144 162 161 151 143 120 87 128 82 63 157 131 92 120 108 115 137 118 117 96 164 109 181 135 83 141 99 33 98 121 122 139 139 134 86 96 45 100 122 124 132 186 129 128 105 107 97 64 119 113 118 94 146 164 92 95 115 173 31 117 114 139 85 150 130 128 86 130 113 136 109 149 135 134 173 158 70 136 121 115 108 113 54 159 60 148 137 173 122 162 73 160 105 37 82 137 89 100 102 49 165 91 159 221 71 16 202 196 187 158 156 99 114 94 107 39 71 103 151 109 189 138 130 82 97 105 102 148 157 139 92 106 158 87 109 136 123 84 60 112 108 169 111 165 109 67 124 92 140 75 92 204 188 107 65 91 82 61 146 94 158 75 61 104 102 120 138 65 85 89 111 148 161 115 228 60 125 68 25 66 23 149 149 60 169 77 112 112 93 83 83 38 116 149 116 60 146 81 98 117 151 60 141 139 123 48 107 117 80 32 220 21 185 187 90 77 30 57 195 107 76 68 100 83 75 155 145 107 90 120 58 79 87 98 120 58 125 108 107 84 88 120 128 111 102 120 62 39 169 127 162 116 71 101 176 114 111 112 141 90 69 80 132 92 193 98 87 163 109 106 115 100 74 166 135 107 151 87 54 97 102 166 75 128 67 84 90 188 105 97 119 121 100 73 95 171 86 107 41 114 94 75 88 67 121 72 120 106 77 92 109 105 150 189 197 78 100 36 142 70 95 114 106 138 146 141 55 90 90 187 28 181 35 126 87 91 139 166 168 61 108 59 118 126 146 61 189 118 117 149 129 119 72 100 82 102 174 82 110 128 200 89 90 149 131 69 129 191 181 175 79 141 86 144 63 97 111 112 149 142 152 77 114 154 127 160 110 115 130 140 103 66 92 101 93 78 141 171 58 59 81 106 47 81 133 52 130 149 87 121 159 169 80 91 87 48 98 89 74 141 178 52 146 70 55 74 120 77 72 65 52 115 89 55 70 172 178 97 129 119 118 71 139 106 108 105 86 99 104 69 124 90 164 107 98 191 62 92 66 82 120 141 75 160 155 67 76 131 121 71 186 117 68 105 82 104 52 158 118 127 76 143 149 122 49 82 104 65 68 101 83 91 99 155 169 139 143 75 108 132 160 54 179 125 157 88 177 42 88 172 122 93 150 161 58 64 153 135 182 105 32 117 113 171 65 90 107 106 83 184 194 69 38 31 147 131 135 249 164 100 229 83 71 162 90 158 105 55 96 170 132 82 101 89 119 36 163 134 83 176 117 88 93 126 90 114 86 111 161 30 71 108 46 96 113 138 114 73 158 127 107 167 137 152 182 101 185 136 138 19 122 72 91 103 134 119 84 69 129 115 110 93 119 144 147 114 95 84 171 187 188 88 115 121 138 43 164 57 151 57 127 111 84 158 106 149 162 155 54 132 41 67 134 87 161 96 121 9</t>
-  </si>
-  <si>
-    <t>GAM(0.5676858279129685, -4.312585821176703e-28, 0.6243605045694163)</t>
-  </si>
-  <si>
-    <t>0 1 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 1 3 0 3 1 1 0 1 0 3 0 0 1 3 0 1 0 1 0 1 2 1 0 0 0 2 1 2 0 0 0 0 1 0 2 0 0 1 0 1 1 2 3 0 1 1 0 0 0 0 2 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 1 1 2 2 0 1 2 2 1 0 0 1 1 1 0 0 2 2 0 3 1 1 0 0 0 1 2 0 1 1 3 1 0 1 0 1 0 2 1 0 1 0 2 0 3 1 2 1 2 1 4 2 1 1 1 0 0 0 3 0 0 1 0 0 1 0 1 4 0 1 0 0 2 2 0 1 3 2 2 0 2 0 0 1 0 1 1 1 1 0 0 1 1 2 1 1 1 0 2 1 2 1 1 1 0 1 2 1 1 3 1 1 0 1 0 1 1 1 0 0 0 2 0 0 2 0 4 1 1 1 0 0 2 1 1 2 0 1 1 0 1 0 1 0 0 0 0 2 1 0 3 0 0 1 2 0 0 0 0 0 1 0 1 2 3 0 0 4 1 1 1 2 0 1 1 0 1 0 0 1 1 1 1 1 0 1 3 1 2 0 1 0 1 0 0 1 0 0 1 1 0 1 1 2 1 1 1 0 2 0 3 2 1 2 0 0 1 0 2 1 0 1 1 2 0 1 0 0 1 2 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 1 2 3 0 2 3 1 1 1 1 0 0 1 1 0 1 1 0 1 0 3 1 1 1 0 1 1 1 0 1 0 0 1 1 1 2 0 1 3 0 1 0 0 0 1 0 0 2 2 1 1 3 0 0 1 0 0 0 2 1 1 2 1 0 1 1 0 0 2 0 1 2 1 0 1 1 0 0 0 2 2 1 1 0 0 0 1 1 0 0 0 1 2 1 1 0 2 3 1 0 0 0 0 1 1 1 0 0 0 1 1 3 0 2 1 1 0 1 0 1 3 0 1 0 1 1 1 1 0 0 0 3 1 0 1 1 2 1 1 0 0 0 1 1 0 2 0 0 1 3 1 0 0 0 0 2 1 1 1 0 0 2 0 1 0 1 2 0 1 1 2 3 2 0 0 2 2 1 0 1 0 0 1 1 0 2 0 0 1 1 0 3 1 1 0 1 0 0 3 0 1 1 1 1 0 1 0 1 1 0 0 0 2 0 0 2 1 2 0 0 0 1 0 0 1 2 1 2 0 1 0 1 1 2 1 0 1 0 0 0 2 0 1 0 2 2 0 0 0 1 1 0 1 0 1 5 0 1 0 0 2 0 0 1 2 0 0 0 0 2 1 1 3 2 0 0 0 0 0 1 2 0 2 1 0 1 1 2 2 0 0 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 0 1 0 2 0 1 0 1 0 1 0 1 0 0 3 1 2 0 3 1 0 2 0 3 1 1 1 1 0 1 1 1 2 2 0 2 1 0 1 3 1 1 1 1 1 1 2 1 0 1 2 0 1 0 3 0 0 0 0 2 0 0 0 0 2 1 1 0 2 1 0 0 2 1 0 0 1 0 0 2 2 1 0 2 1 2 0 0 2 0 0 1 1 0 0 1 0 2 0 2 0 0 1 1 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 3 0 0 2 0 0 0 1 1 1 0 0 3 1 1 0 1 1 0 1 2 1 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 1 0 0 0 1 3 0 0 0 1 0 0 1 1 1 0 1 1 0 1 0 0 3 1 0 1 0 0 0 0 0 0 0 1 3 2 1 2 2 3 3 1 3 2 1 2 0 0 0 0 1 0 0 1 0 1 3 1 3 0 1 0 2 1 1 1 1 1 2 1 0 0 0 1 1 0 1 0 0 1 1 1 1 1 0 2 0 1 0 0 0 1 0 1 0 0 0 1 1 0 2 0 1 1 2 2 2 0 0 1 0 0 2 1 2 0 0 0 0 1 0 1 0 1 1 1 0 2 0 0 2 2 0 0 2 1 1 2 1 1 1 0 0 0 1 2 0 0 0 2 2 1 2 1 1 2 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 2 1 0 2 1 0 1 1 0 1 0 0 1 1 3 0 1 1 1 0 0 1 1 1 1 0 0 2 0 3 3 2 2 0 1 0 1 1 0 1 0 0 1 1 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 2 2 3 1 0 2 1 1 1 0 1 0 0 0 1 0 1 2 1 0 1 0 1 1 0 2 0 1 1 0 1 2 1 1 0 0 2 0 1 1 0 0 3 0 0 2 1 1 0 1 2 0 0 2 0 2 2 0 2 1 3 1 2 0 1 0 1 0 1 0 1 0 0 1 2 1 1 0 1 1 0 0 0 0 2 1 1 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 2 1 1 2 0 0 1 0 1 0 0 1 1 2 2 0 1 1 0 1 1 2 1 2 1 0 2 0 0 1 2 1 0 0 0 1 0 3 2 1 1 0 1 0 3 2 0 0 1 1 0 1 0 0 1 1 0 1 0 1 2 1 0 2 0 0 1 1 0 2 0 0 1 0 0 1 1 0 1 0 0 1 1 1 0 1 0 1 1 1 1 1 0 0 2 1 0 1 2 1 1 0 0 0 1 2 2 2 2 2 0 1 2 1 0 0 0 0 1 1 3 0 1 0 0 0 3 0 1 1 1 0 1 2 0 1 1 1 1 0 0 1 0 3 2 1 1 0 2 0 1 0 0 1 1 0 2 1 1 0 0 2 4 2 0 0 1 1 2 0 0 1 0 0 0 0 0 1 1 0 1 3 1 0 1 0 1 1 1 0 1 0 1 2 0 0 3 2 2 1 0 1 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 0 2 1 1 1 1 1 0 0 0 0 0 0 0 2 1 1 1 2 0 0 1 2 0 0 1 1 1 0 1 0 0 1 0 4 1 2 3 1 0 0 2 0 1 0 2 1 1 2 0 1 1 1 0 2 1 2 0 0 2 0 0 0 0 1 2 0 2 1 0 0 1 2 1 3 1 0 2 2 2 0 0 0 3 0 0 1 0 0 0 1 1 1 1 2 0 3 2 1 1 1 2 1 0 1 1 1 1 2 1 0 0 2 2 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 2 1 0 2 0 0 0 0 2 1 1 0 0 1 0 1 1 1 3 1 0 0 2 1 1 1 1 0 0 1 0 0 2 1 1 0 1 1 2 0 0 1 1 4 2 2 2 2 2 0 1 0 0 1 0 0 4 0 1 1 0 0 0 1 0 1 2 0 1 1 2 1 0 1 0 1 2 0 1 0 0 1 1 1 1 1 0 1 0 1 0 1 3 0 2 3 1 1 1 1 2 2 2 1 1 0 0 1 0 0 1 1 1 2 1 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 1 0 2 0 0 0 2 0 0 0 2 1 0 0 0 3 1 0 0 0 1 0 2 0 0 1 0 0 2 1 0 0 0 0 2 0 0 1 0 1 0 1 2 1 0 2 0 1 0 3 0 1 0 2 1 1 2 2 0 1 1 2 1 0 1 1 0 0 1 1 0 1 1 2 0 0 0 1 1 0 1 0 2 2 0 1 0 1 1 2 0 1 0 1 1 2 0 0 0 1 0 1 3 2 0 1 2 1 1 0 1 1 0 2 3 1 4 0 0 0 3 0 1 0 4 0 0 1 1 1 2 2 0 0 1 0 1 0 0 0 1 2 3 0 1 0 1 0 2 1 1 0 0 1 0 1 1 1 0 0 1 0 3 1 0 0 2 1 0 2 0 0 1 1 1 3 1 0 1 1 1 0 0 1 0 1 1 1 1 3 1 0 1 0 0 0 1 0 0 1 2 3 3 0 2 0 3 1 2 0 0 1 0 2 3 1 2 0 1 0 0 1 1 0 0 0 2 1 1 1 1 1 1 1 2 1 0 1 0 1 3 0 1 1 1 1 0 0 2 0 0 1 0 1 0 1 2 0 0 0 1 2 1 2 2 1 0 1 0 1 0 1 1 1 0 2 0 0 0 0 1 1 0 0 1 0 1 0 1 0 2 0 0 2 3 0 2 0 2 0 0 0 2 0 0 1 0 0 2 2 0 0 0 0 0 0 2 1 1 0 1 2 0 0 2 0 0 1 0 0 0 3 3 1 1 1 0 0 1 0 1 0 1 0 0 0 0 2 0 1 1 2 1 2 0 1 1 0 0 0 0 2 2 0 0 0 1 0 0 0 0 2 1 0 0 0 1 1 2 1 1 2 1 0 0 0 2 2 1 0 2 2 2 0 0 2 0 0 0 0 0 1 2 0 1 0 2 0 0 0 2 0 1 2 0 1 0 0 1 2 0 2 1 0 2 0 0 0 0 2 1 1 4 3 1 0 0 1 1 2 0 2 1 2 0 0 0 0 0 0 1 0 0 0 0 1 4 1 0 1 0 2 0 1 1 0 0 0 2 0 0 2 1 0 1 1 0 2 1 1 1 1 1 3 1 0 0 1 2 1 0 0 2 1 0 0 1 0 3 1 1 0 0 1 1 1 2 1 0 1 2 3 1 3 0 0 1 1 0 1 1 1 2 0 1 2 1 0 0 0 1 1 2 0 1 1 1 0 0 1 1 0 2 2 1 1 0 0 0 2 0 1 2 1 2 0 1 0 0 1 2 0 3 2 1 2 3 1 0 0 0 0 0 0 0 0 2 3 1 1 0 0 2 0 0 1 0 1 3 1 0 0 1 2 0 1 1 1 0 1 1 1 0 1 0 0 1 0 0 2 2 0 0 0 1 2 2 1 2 2 0 2 1 0 0 2 0 2 1 1 2 1 0 0 1 2 3 0 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 1 2 0 2 0 0 0 0 0 0 0 2 3 2 0 1 3 1 0 0 1 0 2 1 0 1 2 0 0 1 0 0 1 2 2 1 1 0 0 3 0 1 2 2 0 1 3 1 0 2 0 0 1 1 1 0 0 0 1 1 0 2 0 1 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 2 2 1 0 0 1 0 1 0 0 1 2 1 0 1 0 2 1 2 1 1 1 3 0 0 1 3 0 2 0 1 0 1 1 1 1 1 0 2 0 0 1 0 0 1 0 1 2 0 3 0 0 1 2 2 0 1 1 1 1 0 2 2 0 1 3 0 2 0 1 1 0 1 0 1 1 1 2 2 1 0 0 2 0 3 1 2 1 1 2 0 0 0 1 0 1 0 1 0 0 0 1 1 1 2 2 3 0 4 0 1 1 0 2 0 0 1 1 2 1 3 0 0 1 0 1 0 0 0 0 1 2 2 1 0 0 1 1 2 2 1 0 0 1 0 0 0 0 2 0 0 0 0 1 0 0 2 3 0 0 1 0 0 2 2 2 1 1 0 0 2 1 0 1 0 0 0 2 1 0 0 1 0 0 2 0 1 0 3 0 2 0 1 2 0 1 2 2 0 1 1 0 0 1 1 0 0 0 1 1 2 2 2 1 1 0 1 2 0 1 0 1 0 0 3 0 0 0 2 0 0 1 0 1 2 0 0 1 1 0 2 0 0 0 1 2 1 0 1 1 1 0 0 0 0 1 0 1 0 2 1 0 1 1 4 2 1 0 1 0 0 1 2 0 0 0 1 1 0 1 1 2 0 0 1 0 1 1 0 1 0 0 1 2 1 2 2 4 1 0 1 0 1 1 2 0 0 2 0 1 2 3 2 1 0 2 2 0 1 2 2 2 0 0 0 1 1 2 1 0 0 1 1 1 0 1 1 1 0 2 2 0 1 2 1 1 2 0 1 1 0 1 1 0 1 1 0 3 1 0 1 0 1 0 0 0 0 3 0 0 1 0 1 1 2 1 1 2 0 2 0 0 1 1 0 2 1 0 0 0 0 1 0 1 1 2 1 0 1 1 1 1 0 0 1 0 0 1 1 1 0 1 2 2 1 1 0 1 0 0 1 0 3 0 0 0 0 1 1 1 0 0 2 1 1 1 1 0 1 3 1 2 1 1 0 0 0 0 0 3 0 0 1 0 1 2 0 0 1 1 0 0 0 1 1 1 0 2 0 0 0 1 1 0 1 0 0 0 1 0 2 1 1 1 2 0 0 0 0 0 2 0 1 1 3 2 1 0 0 2 1 3 1 0 1 0 0 2 0 0 0 0 1 1 1 3 0 1 2 0 2 1 1 0 0 0 1 0 1 1 0 0 1 2 2 0 0 1 1 2 0 2 1 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 1 0 0 3 0 2 0 0 2 0 0 1 0 2 0 1 0 0 1 2 1 1 1 1 0 0 0 0 0 1 1 0 1 2 1 0 2 0 0 1 0 0 0 2 0 1 0 0 1 1 2 0 1 0 0 0 1 1 1 1 0 0 3 1 1 1 1 2 1 1 0 1 0 1 1 3 1 0 1 1 2 1 0 0 3 0 2 1 0 4 1 1 1 0 2 0 0 0 0 0 0 2 1 1 0 0 0 1 1 0 1 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 1 3 1 1 1 1 2 1 2 0 1 1 0 2 0 1 0 0 0 1 2 1 0 2 1 0 1 0 3 1 1 2 0 1 0 1 2 2 0 0 1 1 0 1 0 0 2 2 1 0 1 0 0 1 0 2 0 1 0 1 1 1 2 1 1 2 1 0 1 0 0 1 0 2 2 2 1 0 1 0 0 0 1 1 1 2 0 0 1 3 0 2 0 0 0 0 1 0 2 0 2 0 1 0 1 0 3 1 2 1 1 2 1 1 2 0 1 0 0 0 1 1 0 1 2 2 0 1 0 1 2 1 1 1 1 1 0 1 0 1 0 2 0 1 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 2 1 2 1 1 0 2 0 0 0 1 1 2 0 1 0 0 0 2 0 0 0 1 1 1 1 1 2 1 0 0 0 2 1 0 2 1 1 1 1 1 1 0 0 0 1 4 2 0 0 1 1 1 0 0 1 1 0 0 1 0 1 0 1 1 3 0 1 1 0 2 0 2 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 1 2 0 2 0 0 2 0 0 1 2 2 1 0 1 1 1 0 0 0 0 2 2 2 1 0 0 0 1 0 1 0 1 1 0 2 0 2 0 1 0 1 1 1 2 0 1 1 0 2 0 0 2 1 0 0 2 0 1 0 0 0 0 2 1 1 0 1 1 2 0 1 0 0 1 1 1 2 1 0 1 0 1 1 0 2 1 1 0 0 1 1 0 0 2 0 0 1 2 1 3 1 2 0 4 1 2 1 0 0 1 1 2 1 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 1 3 0 2 0 4 1 0 1 2 2 0 0 2 0 2 0 1 0 0 0 1 1 1 1 0 1 1 0 1 0 0 0 1 0 1 0 2 0 1 0 0 1 0 0 1 1 1 0 0 0 1 0 1 1 0 2 1 0 0 2 1 0 0 2 0 2 0 2 1 0 1 1 0 2 0 0 1 2 0 0 0 0 1 0 0 0 0 1 3 2 0 1 1 0 0 1 0 1 0 0 0 1 0 2 1 1 0 0 1 1 1 1 1 1 0 0 0 1 1 0 1 1 0 2 2 3 0 0 1 0 0 1 2 0 1 0 1 0 2 1 0 1 4 1 1 1 1 1 1 0 0 2 0 1 0 0 1 2 0 0 0 3 2 0 0 0 2 0 0 0 1 0 1 0 0 3 1 0 0 1 0 1 0 0 0 0 0 1 2 2 2 0 2 1 0 1 1 1 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 2 0 0 0 0 4 0 0 1 1 1 2 1 1 0 1 2 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 3 1 1 0 0 1 0 4 0 1 2 0 1 1 0 0 1 0 0 0 0 1 1 1 1 3 0 1 0 1 0 1 2 1 1 0 0 1 2 2 3 0 0 1 1 0 2 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 2 1 0 1 1 1 2 0 1 1 1 1 1 1 0 1 0 0 0 1 0 2 1 0 0 1 1 1 1 2 1 0 0 1 1 1 0 1 2 1 0 1 0 2 0 0 0 1 1 0 1 0 1 3 1 1 1 0 1 0 0 1 0 2 1 2 1 1 0 0 1 2 0 1 0 0 0 2 1 0 1 4 4 0 1 0 0 3 0 0 1 1 0 0 1 1 1 2 1 1 1 1 1 1 1 3 0 0 0 0 2 2 1 0 3 0 2 0 0 0 1 0 2 0 0 1 1 2 0 1 1 0 2 1 0 1 1 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0 1 0 0 2 1 2 1 0 0 3 1 1 3 0 1 2 0 2 0 2 0 1 2 0 1 2 0 1 0 1 1 1 2 0 0 0 0 0 0 0 0 2 1 1 3 2 2 2 0 0 1 0 0 1 0 2 2 0 0 0 0 2 1 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 1 1 0 1 2 2 0 0 0 1 0 3 0 2 1 0 1 0 2 1 3 2 0 0 1 0 1 1 1 1 2 0 0 0 1 0 1 0 1 1 0 1 0 0 2 0 1 0 0 0 0 0 3 0 3 4 3 0 0 3 0 0 0 1 1 2 1 0 1 0 1 1 1 0 2 1 1 4 0 2 1 0 0 3 1 0 1 3 1 0 0 0 1 1 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 1 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 1 0 1 0 1 0 3 0 1 1 0 0 1 1 0 0 0 1 2 3 1 0 3 0 1 0 1 1 1 1 1 0 0 2 0 0 2 1 1 1 0 1 0 0 1 0 4 1 1 1 1 0 1 0 1 2 0 1 2 0 2 2 2 0 2 1 0 2 1 1 0 1 3 1 2 0 1 1 0 0 0 3 1 0 0 0 0 0 1 2 0 1 0 1 0 2 1 2 1 0 0 1 0 1 1 1 1 2 1 1 2 0 1 0 0 1 2 2 1 1 1 1 0 2 0 0 0 1 2 1 1 4 1 1 1 1 0 0 1 0 1 1 0 0 1 1 3 1 3 2 0 0 0 0 1 0 2 1 0 0 0 1 1 1 1 1 0 1 2 0 0 0 1 1 2 1 1 0 2 1 1 1 1 0 1 2 0 0 1 0 0 1 0 1 1 1 0 2 2 2 1 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 1 1 0 1 1 1 0 0 1 0 1 1 0 2 1 0 0 1 2 1 0 0 3 0 1 2 3 1 0 2 0 0 1 1 1 2 1 0 2 4 1 0 1 0 0 1 2 0 2 0 2 2 1 0 0 0 0 1 2 1 1 1 0 1 1 0 0 0 2 2 0 1 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 0 1 1 2 0 0 0 0 3 0 1 0 1 0 1 0 2 2 1 0 0 2 3 0 1 0 0 1 1 1 2 0 1 2 1 2 0 1 0 1 1 1 1 0 1 1 0 0 1 0 3 1 0 1 0 1 0 1 2 2 3 1 2 1 2 0 2 0 1 1 1 1 0 1 1 1 3 1 0 1 1 0 1 1 2 0 1 1 0 1 0 1 1 2 0 0 0 0 0 2 0 0 0 1 2 1 1 1 2 2 1 0 1 1 2 2 0 0 0 0 1 2 0 1 1 1 0 1 2 0 1 0 2 1 2 0 0 0 3 0 0 2 0 0 2 1 3 0 0 1 0 1 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 3 1 2 0 2 1 1 0 1 1 1 1 2 0 2 0 2 3 0 0 1 0 2 2 0 2 1 1 1 1 2 1 2 2 1 0 2 1 0 1 0 0 1 0 0 0 0 1 2 1 0 0 1 1 0 0 2 0 0 0 1 1 0 0 2 0 0 1 0 1 1 0 1 1 0 2 0 1 0 2 1 2 0 0 0 2 0 1 0 1 2 0 1 0 1 1 1 1 1 0 1 0 1 0 2 0 2 2 1 1 2 0 1 0 1 1 0 2 2 1 0 1 1 1 1 0 2 2 0 3 2 1 0 2 0 2 2 0 1 2 0 1 1 1 0 0 1 0 2 1 1 1 1 1 0 0 0 2 2 1 1 1 0 0 1 0 2 0 1 0 2 1 1 1 1 1 1 2 0 1 0 0 0 1 1 1 1 2 0 0 0 2 0 0 0 1 2 1 0 0 0 0 0 0 1 0 0 1 0 2 0 1 1 0 0 0 0 0 1 0 0 0 1 1 4 1 0 0 0 0 2 2 3 0 1 0 1 1 1 1 1 2 0 3 1 2 0 0 2 2 1 0 0 1 0 1 1 1 1 1 0 0 1 1 0 0 1 1 2 2 1 0 1 0 0 0 0 2 2 1 2 1 1 1 1 1 0 2 0 1 0 0 0 1 1 0 0 2 1 1 2 0 1 1 1 1 0 0 0 1 0 0 0 1 1 3 2 2 0 0 1 1 0 2 2 1 0 0 0 0 0 1 1 1 3 2 0 1 1 1 1 2 1 1 2 0 0 0 1 0 1 0 0 1 2 1 1 0 1 1 3 0 1 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 1 0 2 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 1 2 0 1 0 2 1 1 1 0 1 0 1 1 0 0 0 2 1 2 0 1 0 0 1 2 1 1 0 2 1 1 2 1 0 1 2 1 0 0 1 1 2 3 0 0 2 2 3 0 0 1 0 0 0 1 0 1 2 1 0 1 1 1 3 2 1 0 0 1 1 0 2 1 0 0 1 0 1 1 2 1 1 2 0 0 0 1 0 2 0 0 0 1 1 1 1 0 1 0 1 1 1 1 0 0 0 2 0 0 0 2 1 1 2 0 0 0 3 0 0 0 2 0 1 0 0 1 1 1 1 0 2 1 0 1 2 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 3 2 0 1 1 1 1 0 1 0 0 0 3 2 0 1 0 1 0 0 1 0 2 0 2 1 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 1 2 1 0 3 2 3 1 0 0 1 2 0 2 0 0 1 2 1 1 1 1 1 0 3 0 0 2 0 1 1 2 1 1 2 1 1 0 1 1 0 1 1 0 0 0 1 0 2 1 1 0 0 2 1 1 0 0 0 1 0 0 0 0 1 1 3 0 0 1 0 1 1 0 0 2 1 2 0 1 0 2 1 1 0 0 1 0 1 1 2 0 1 0 1 1 2 0 1 1 1 0 1 0 1 0 0 0 3 1 0 1 1 0 1 4 2 1 0 1 0 1 1 0 0 0 1 0 1 1 0 2 0 0 0 0 1 1 1 2 0 1 0 0 0 0 1 0 2 2 0 1 1 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 3 4 0 1 1 2 0 0 0 2 1 0 0 0 1 0 1 1 1 1 1 2 2 0 1 0 0 0 3 1 0 1 1 1 1 0 0 0 1 2 0 2 0 0 2 1 2 0 1 1 1 1 0 0 1 1 3 1 0 2 1 1 3 0 0 1 1 1 1 0 1 1 1 2 0 2 1 2 0 0 0 1 2 2 1 1 0 1 0 1 1 1 1 1 2 0 2 0 0 1 0 1 1 0 1 1 1 2 1 1 3 1 0 1 2 0 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 2 3 1 0 1 2 1 1 2 2 2 2 0 1 0 0 0 1 1 2 1 1 0 0 0 2 0 1 1 1 0 2 1 1 1 0 0 1 0 3 2 1 0 1 0 1 0 1 0 2 0 3 2 0 1 2 0 0 0 0 1 0 1 1 2 1 2 1 0 0 0 0 0 4 0 0 1 2 2 0 0 3 2 0 0 0 0 1 1 1 4 0 0 0 1 0 2 2 2 2 1 0 0 1 0 0 1 1 2 0 0 0 1 0 2 0 0 2 0 1 0 1 2 0 1 0 0 1 2 0 3 0 1 0 1 1 2 1 1 2 1 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 2 1 2 1 1 1 0 0 1 0 0 2 2 0 1 0 3 0 1 1 1 1 0 1 2 0 1 0 0 0 1 0 1 1 0 0 2 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 2 1 0 1 0 1 1 1 0 0 2 1 1 1 0 1 1 3 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 3 1 0 2 1 0 2 1 3 0 0 0 1 1 2 0 1 2 0 1 1 0 2 1 0 0 0 0 1 0 2 2 0 0 2 1 1 1 1 1 1 0 0 0 2 3 1 2 1 1 1 2 0 1 1 2 2 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 3 2 0 2 0 1 1 2 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 2 1 2 3 0 0 0 0 0 2 2 2 0 0 2 2 0 2 1 1 1 1 0 0 0 0 2 1 2 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 0 0 2 1 1 2 0 3 0 3 0 1 0 1 1 1 0 1 1 0 1 1 2 0 0 0 0 0 0 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 1 1 2 3 2 1 1 2 0 0 0 0 2 0 0 0 4 2 1 2 1 2 2 1 0 0 0 1 2 0 0 0 0 0 3 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 2 0 2 2 1 0 1 1 0 2 1 1 1 1 0 0 0 0 2 0 0 0 0 1 1 1 1 0 1 0 1 0 0 2 0 0 1 3 2 1 0 1 4 1 2 0 0 2 3 2 2 2 1 2 1 1 0 2 0 0 2 2 1 3 0 0 0 1 2 1 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 2 0 1 1 0 1 0 0 2 1 0 4 2 3 0 0 1 0 2 0 2 0 2 0 0 1 0 1 2 1 1 0 0 0 0 2 1 0 3 1 1 0 1 1 2 0 0 2 0 2 2 0 1 0 0 0 3 0 1 0 1 1 1 1 0 0 0 1 0 0 2 1 0 1 0 3 0 1 1 1 1 0 1 0 2 0 1 0 1 2 3 1 2 0 0 1 0 1 0 1 0 1 0 0 0 0 2 2 0 1 0 1 0 0 0 0 2 0 0 1 0 1 1 3 0 0 1 1 0 2 0 0 0 1 1 0 2 0 0 0 1 1 0 0 2 0 0 0 2 0 1 0 1 0 1 0 0 0 1 3 1 1 1 0 1 2 1 0 0 0 2 1 1 1 2 0 0 1 1 1 3 1 1 1 0 3 0 1 0 2 1 1 1 2 0 2 2 1 0 1 1 1 0 2 0 1 0 0 1 1 0 0 0 0 0 1 2 1 1 0 0 1 2 1 1 2 1 2 0 1 0 1 1 0 0 2 2 0 2 0 1 1 0 0 0 0 2 0 0 0 0 0 0 2 0 0 1 1 1 0 2 1 1 0 1 0 2 0 1 1 1 0 0 0 0 3 1 2 2 0 2 0 1 0 0 0 0 2 0 3 1 0 2 0 0 1 0 1 0 1 1 2 0 0 1 2 1 2 2 0 1 2 0 1 4 0 0 3 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 0 1 0 4 0 1 2 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 1 0 2 1 0 0 2 0 0 2 0 0 0 2 0 1 0 2 0 1 0 1 0 2 1 1 1 1 1 1 0 1 2 0 1 0 0 0 1 0 2 0 3 0 1 0 1 0 1 2 0 1 0 0 1 3 1 0 0 1 0 1 1 2 0 0 2 1 1 0 0 0 3 0 1 0 4 1 2 0 1 3 2 1 0 0 1 0 2 2 0 2 0 1 1 1 0 3 3 1 0 0 1 0 0 0 1 0 2 1 1 2 0 0 1 0 0 2 0 1 1 0 2 0 1 1 2 0 0 2 0 2 1 2 0 0 0 0 1 0 0 2 2 1 1 3 0 0 1 0 0 2 0 3 1 0 0 1 2 2 2 0 0 0 2 0 1 2 2 1 3 4 1 0 2 1 1 0 0 1 3 1 0 1 1 1 0 1 1 1 1 3 1 3 1 0 0 0 1 1 1 0 0 1 1 0 0 0 1 0 1 2 0 3 0 1 0 0 0 0 1 1 2 2 2 1 2 0 2 0 1 0 0 2 1 0 1 0 1 1 2 0 0 1 3 3 1 1 2 0 1 0 1 1 0 0 2 0 0 0 2 0 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 2 1 2 0 2 0 1 1 1 0 0 2 0 2 2 1 0 2 1 2 0 2 1 1 0 0 0 1 2 1 3 1 0 1 1 1 0 1 0 0 3 1 0 0 2 0 0 3 2 2 1 1 1 1 0 0 0 1 1 0 0 0 1 0 1 0 0 2 0 0 0 1 2 0 0 1 2 1 1 1 0 1 2 3 1 2 1 2 1 0 0 2 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 1 3 0 0 0 1 1 1 1 0 1 2 2 2 1 0 1 0 0 0 1 1 1 1 0 1 0 3 0 0 0 0 0 2 0 2 0 0 3 0 1 0 1 2 1 1 1 0 0 1 0 1 2 0 0 2 0 0 0 0 0 0 1 1 1 0 2 0 2 1 0 1 0 1 0 1 2 0 0 1 1 2 0 1 1 1 1 2 2 2 0 2 2 0 1 0 0 0 2 0 0 0 0 0 2 0 4 0 0 0 1 1 1 0 1 0 1 2 2 0 1 2 0 1 0 2 1 0 1 0 2 1 0 1 1 0 0 1 1 1 1 0 2 0 1 1 1 0 1 0 1 0 0 2 0 0 0 0 1 1 0 2 1 1 1 0 1 1 0 0 2 3 1 0 1 0 0 1 1 2 2 1 1 1 3 1 0 2 0 0 1 1 0 1 2 1 1 2 1 0 0 0 0 0 1 0 0 0 0 0 0 2 3 1 0 1 4 2 0 2 1 0 0 0 2 0 0 1 2 2 0 0 1 1 2 1 0 0 0 0 0 2 0 2 1 0 1 1 1 0 3 0 0 0 0 1 0 0 1 1 1 0 2 0 0 1 1 1 2 0 1 1 1 0 0 1 1 3 0 1 0 0 1 2 1 1 2 0 1 2 0 1 0 1 1 1 2 0 3 0 0 4 3 3 2 1 1 0 0 2 0 0 0 1 1 1 0 1 0 0 0 1 1 1 0 1 0 0 2 2 1 0 3 3 0 2 0 0 1 1 1 1 1 1 1 1 2 1 0 0 2 0 0 1 1 0 1 2 0 0 0 2 0 0 0 0 3 1 1 0 2 1 1 2 0 0 1 0 2 0 1 0 0 2 1 0 0 1 0 0 0 0 1 0 2 2 2 0 1 1 1 0 1 1 1 1 1 1 0 2 2 0 0 1 2 0 0 0 2 2 1 4 0 1 1 0 1 2 0 1 0 1 0 1 1 1 2 1 2 1 0 0 1 1 1 0 0 0 0 2 0 2 1 0 2 0 0 1 1 1 1 0 1 0 2 0 0 1 1 0 0 1 2 1 1 1 2 0 1 2 3 0 1 2 1 0 2 1 0 0 2 0 2 1 1 1 1 1 1 1 0 1 1 0 2 1 0 1 3 0 1 0 0 0 0 1 2 0 3 0 1 1 1 1 1 1 1 2 0 2 1 0 1 2 1 1 0 0 1 1 1 0 0 0 2 1 0 0 2 0 0 1 0 2 0 0 1 0 1 2 1 0 0 1 0 0 0 0 2 0 2 0 0 2 0 2 1 0 1 2 0 2 0 2 0 3 1 0 0 0 1 0 1 2 2 1 1 1 1 0 0 0 1 2 0 0 1 2 1 1 1 0 2 1 1 0 0 1 1 1 5 1 1 1 2 1 0 1 1 2 0 2 0 1 0 2 2 0 0 1 0 1 0 2 1 0 0 0 0 1 0 1 0 0 0 1 2 0 1 0 1 2 0 1 0 1 2 0 1 1 1 2 0 1 0 1 0 2 0 1 0 0 3 2 1 1 2 0 1 0 0 1 2 0 1 1 0 0 2 1 2 0 1 0 0 0 0 1 0 1 1 0 1 1 1 2 0 1 0 2 1 0 0 1 2 0 0 0 0 3 0 0 0 2 1 1 1 1 1 2 0 4 2 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 1 1 1 2 0 0 0 1 1 1 3 1 1 0 0 1 0 1 1 1 0 0 0 1 1 1 2 1 2 1 0 1 1 0 1 0 1 2 0 1 0 1 1 1 3 0 0 0 0 0 2 1 0 0 0 1 0 2 0 0 0 1 0 3 0 0 1 1 2 0 2 1 1 1 1 0 0 0 1 0 0 1 1 2 1 0 0 0 1 0 1 2 1 1 2 0 0 0 0 1 1 0 1 1 1 1 1 0 0 2 2 1 2 2 3 0 0 0 1 0 1 1 0 1 1 0 2 0 1 1 2 2 1 2 1 3 1 2 1 0 1 2 1 1 1 1 1 0 1 0 3 1 0 2 1 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 2 0 1 0 2 0 0 0 0 1 0 0 1 2 0 1 0 1 1 1 0 0 0 1 3 1 0 2 0 0 0 2 1 0 0 2 1 1 3 2 3 0 2 0 0 1 1 0 1 1 0 0 1 1 1 1 0 3 1 0 3 0 0 0 1 1 1 1 2 0 0 2 1 0 1 1 3 3 1 1 0 3 0 0 1 1 3 0 0 0 0 0 0 1 0 0 1 2 2 0 0 0 0 2 1 1 1 1 1 0 1 0 1 1 1 1 1 0 1 0 2 0 2 1 1 0 0 0 1 1 0 0 0 0 2 1 0 2 0 0 1 0 1 0 0 1 1 0 1 0 1 1 2 2 2 0 2 1 1 0 1 1 0 2 0 1 0 1 0 0 1 0 2 1 0 1 2 3 2 3 1 3 0 1 1 0 1 1 2 1 1 0 0 1 1 3 2 2 1 0 0 1 2 1 1 0 0 0 2 0 2 3 2 1 1 0 0 2 2 1 0 0 0 0 1 0 0 2 0 2 0 1 1 1 0 0 0 0 0 1 1 2 0 1 1 1 1 0 2 1 3 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 4 1 1 0 2 1 1 3 1 1 1 0 0 2 1 0 3 0 0 0 1 1 2 0 0 1 1 0 2 0 1 1 1 1 1 1 1 1 0 0 0 0 2 1 0 0 0 1 2 0 0 1 2 0 1 1 1 0 0 1 1 0 2 1 0 1 1 1 1 2 0 2 0 2 3 1 0 1 0 1 1 0 2 0 1 1 3 1 1 2 1 2 2 0 2 0 0 0 2 1 0 0 1 1 0 0 0 1 0 1 1 1 1 1 0 0 1 0 0 1 2 0 1 2 0 0 1 2 0 0 2 0 3 1 0 1 1 0 0 2 0 0 0 2 0 1 0 0 0 0 1 2 1 0 0 0 2 4 0 1 1 0 0 2 0 0 3 1 0 0 0 0 0 3 0 0 0 0 2 2 1 0 1 2 2 0 1 4 1 1 0 1 1 0 2 0 1 0 2 1 1 2 1 1 0 0 0 0 1 1 2 1 1 1 0 2 0 1 0 1 2 1 1 1 0 1 1 0 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 2 0 2 1 0 0 1 2 1 0 1 1 0 1 1 0 0 2 3 1 1 2 0 2 0 1 0 0 1 1 0 0 0 0 0 1 2 2 1 0 0 1 1 0 0 1 2 0 1 0 1 1 0 0 0 1 0 2 0 0 1 0 1 2 0 1 0 0 1 2 0 1 2 0 3 0 0 0 1 2 0 1 1 0 2 2 1 1 1 0 0 0 0 0 2 2 0 1 2 0 1 1 0 2 1 0 2 2 0 2 0 0 0 1 2 1 1 1 1 1 0 1 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 3 0 1 0 4 0 1 1 0 0 1 2 2 0 3 1 0 1 3 1 0 3 1 0 0 0 0 1 1 1 2 0 1 1 3 1 2 0 2 1 0 0 1 1 0 0 0 1 0 2 0 0 0 2 2 0 1 0 0 0 1 0 0 1 0 1 0 0 2 3 0 1 0 0 1 2 1 1 0 2 0 0 1 0 0 0 0 0 1 1 3 0 1 1 1 2 0 1 2 3 1 1 1 1 1 1 2 1 0 1 1 3 2 2 1 2 1 2 2 0 2 1 2 2 0 0 0 0 2 0 0 2 1 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 1 1 2 0 0 2 0 0 2 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 1 0 1 1 3 1 1 1 1 1 0 1 0 1 3 0 0 1 1 2 1 2 1 2 1 1 1 1 1 0 0 0 2 1 0 0 1 0 1 2 2 0 0 0 2 0 2 1 0 1 0 2 0 1 0 0 2 0 0 1 1 1 1 0 3 0 1 0 0 1 1 0 1 1 1 2 0 1 0 2 0 2 0 0 0 1 0 0 1 0 1 0 1 0 1 0 1 0 1 1 0 0 3 3 0 1 2 1 0 1 1 0 2 1 1 0 0 2 2 1 0 2 1 0 1 2 0 1 0 0 0 1 1 1 0 0 3 0 0 0 0 1 1 1 1 1 1 2 0 1 2 1 1 2 0 0 0 1 0 1 2 1 1 0 0 0 0 0 0 2 2 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 2 1 1 0 3 1 1 0 1 1 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 2 0 0 1 1 1 1 1 0 4 1 1 0 4 1 0 0 2 1 0 1 1 1 0 1 2 1 1 0 0 0 2 1 0 1 0 2 2 1 1 1 1 0 0 0 2 3 0 0 2 2 1 1 2 1 2 0 1 3 0 1 0 3 0 1 2 2 0 3 1 0 0 1 2 0 1 1 1 0 0 2 0 0 0 4 0 1 0 3 0 0 3 0 1 0 0 1 0 1 1 0 1 1 1 2 1 0 2 1 1 0 2 2 0 1 2 1 0 0 2 0 1 1 0 1 0 1 0 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 0 3 1 1 1 0 2 2 1 1 1 0 0 2 1 2 1 0 0 0 1 2 2 0 1 2 2 1 2 0 0 1 0 1 0 0 1 1 3 1 1 1 0 0 3 1 0 0 3 1 0 0 0 3 2 0 0 0 1 1 2 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 2 1 3 1 1 1 0 1 0 0 0 0 1 1 1 0 0 0 1 0 0 2 0 0 2 0 2 0 1 0 0 0 1 1 0 0 0 2 2 0 2 1 0 1 1 0 2 0 1 2 1 1 1 1 0 0 1 1 0 3 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 3 2 1 1 1 0 1 2 1 0 1 0 2 1 0 1 0 2 1 1 2 1 2 1 1 1 1 0 1 1 2 1 1 0 1 1 0 0 1 1 1 1 1 0 2 2 1 0 1 2 2 0 1 1 0 1 0 0 0 0 0 0 1 2 0 0 1 0 0 0 1 2 1 0 1 2 1 2 4 1 3 0 0 0 1 1 1 0 0 2 0 1 1 1 0 1 0 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 1 1 1 1 1 1 1 1 2 0 2 0 0 0 1 0 2 0 1 0 2 0 0 2 0 1 3 1 0 1 4 1 2 1 0 1 1 2 0 1 1 4 3 1 2 2 1 1 1 1 0 2 1 1 2 2 3 1 1 1 1 0 1 1 2 1 0 0 1 0 0 2 0 2 1 1 3 0 0 1 1 2 0 0 1 0 1 1 1 0 1 0 0 0 1 1 0 0 2 0 2 2 0 0 0 1 1 1 2 0 2 1 1 1 1 1 1 1 4 0 0 0 2 1 0 1 2 1 3 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 3 2 1 1 0 0 0 0 1 1 1 0 1 0 3 1 1 0 0 3 0 2 0 3 1 1 1 0 1 0 1 1 0 1 1 1 0 0 1 0 0 0 0 0 2 0 2 1 2 0 0 0 3 0 1 3 0 0 1 1 0 1 1 2 1 2 0 1 0 2 0 0 1 1 1 0 1 1 5 0 1 0 2 3 1 4 1 0 0 1 2 1 0 0 1 0 0 1 1 2 0 2 0 0 0 0 1 0 2 1 0 1 0 1 0 0 1 3 0 3 0 0 0 0 1 0 0 1 1 1 0 1 0 1 0 0 1 1 0 1 0 1 0 3 1 1 0 0 2 1 2 0 1 1 0 0 1 0 0 2 0 0 0 2 2 0 2 0 1 1 1 0 0 0 1 1 0 0 1 0 1 1 2 0 0 2 0 1 0 0 2 1 2 1 0 2 1 1 2 1 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 3 3 1 0 0 0 1 0 1 2 0 1 0 0 0 0 0 2 2 2 0 1 3 0 1 2 2 1 1 0 0 2 0 1 2 0 0 0 1 1 1 2 1 1 1 0 0 1 1 1 1 1 3 1 0 0 0 0 0 0 1 0 0 1 1 1 1 2 0 1 2 0 2 4 0 0 2 1 0 0 2 1 2 3 2 2 2 1 0 0 2 1 2 0 1 1 0 0 3 1 1 1 1 2 0 1 1 2 0 4 0 3 0 1 1 0 2 0 0 0 4 0 0 1 1 2 2 0 1 1 2 0 0 1 1 1 0 1 1 0 2 0 1 0 2 0 0 1 1 0 2 1 0 2 1 0 0 1 1 0 0 1 0 2 1 0 3 0 1 1 1 0 0 0 0 0 0 0 1 0 1 1 1 1 2 0 0 0 0 1 2 1 0 1 0 1 1 0 0 1 1 0 0 1 0 1 2 1 0 1 0 1 0 1 0 1 0 1 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 2 0 1 2 0 0 0 0 2 0 0 2 1 0 0 1 0 0 0 0 2 1 0</t>
+    <t>NIG(38.15895472002768, 21.52356960509768, -5.989129359531243, 36.137525077645634)</t>
+  </si>
+  <si>
+    <t>28 21 21 10 38 24 36 14 16 12 23 16 14 13 7 16 21 28 13 29 3 20 24 7 0 21 27 16 26 10 10 13 14 12 24 20 3 28 21 23 34 23 18 27 13 23 10 13 34 20 19 23 13 24 27 18 37 7 14 13 17 22 7 19 6 9 21 27 18 7 31 17 20 16 21 22 21 18 15 27 24 20 3 25 17 20 16 6 16 6 15 14 15 9 23 10 20 17 17 9 16 26 21 10 24 17 20 24 17 20 23 17 13 14 19 14 19 33 20 9 10 23 10 12 14 14 22 10 13 33 17 20 23 19 20 23 17 13 24 14 12 41 24 31 7 17 17 10 13 26 38 17 14 16 9 20 7 6 13 14 23 22 10 20 19 10 20 9 16 19 10 21 24 17 20 24 17 13 17 13 17 34 25 27 9 35 24 21 9 19 28 30 21 27 14 17 13 33 17 35 13 7 24 20 17 24 7 14 34 20 25 17 28 19 18 23 24 24 34 24 24 10 17 10 24 24 18 6 30 24 17 14 12 27 24 16 15 30 20 24 6 13 27 10 28 10 0 18 27 21 9 11 12 20 10 38 31 13 29 24 45 13 16 24 13 27 15 13 10 20 16 20 20 18 20 24 13 16 28 20 23 23 19 17 30 13 18 18 21 14 27 9 23 12 15 3 17 21 21 17 20 27 20 10 30 3 16 10 12 20 34 14 17 9 14 17 34 17 12 28 17 10 19 38 20 6 21 13 27 16 10 19 20 6 30 13 22 17 21 34 26 20 26 16 19 34 27 20 19 16 17 7 15 29 22 17 14 20 10 10 12 13 17 14 29 17 7 20 32 24 6 12 13 31 28 26 24 20 20 27 7 40 17 17 17 27 6 13 20 20 9 13 20 20 10 24 23 13 13 16 23 20 13 11 31 16 21 13 9 14 28 12 23 9 15 14 0 27 27 13 23 0 16 17 14 19 8 30 25 10 27 41 18 21 32 17 17 13 18 17 20 21 34 31 8 30 21 15 17 9 21 15 17 17 30 9 20 16 31 6 13 6 46 6 21 18 14 21 8 7 27 26 27 24 19 24 17 27 23 14 16 24 21 16 7 31 13 24 26 21 10 27 17 16 10 34 27 19 6 17 9 20 22 25 20 3 24 7 15 21 13 13 13 9 18 20 27 27 23 19 7 9 10 13 12 13 7 3 20 19 28 24 20 27 17 20 27 16 40 6 13 18 16 9 10 23 7 44 19 34 27 27 17 23 6 28 24 26 23 30 20 24 27 15 17 27 14 10 24 29 20 0 20 17 13 13 14 20 26 32 13 21 2 6 30 34 13 31 21 31 17 15 27 20 18 26 14 24 20 26 21 20 24 18 14 17 17 21 23 19 10 23 7 20 23 38 10 17 13 13 6 20 34 16 21 29 27 23 6 17 13 16 20 17 12 16 20 17 15 13 17 27 18 7 13 7 0 20 20 26 6 10 25 14 23 24 21 0 24 24 27 14 16 23 34 23 17 24 20 13 27 13 14 27 20 12 9 13 42 16 33 13 12 20 30 7 27 23 20 11 10 31 3 23 20 26 14 0 13 20 23 10 16 27 26 23 22 15 3 17 20 20 10 27 24 15 26 20 23 15 20 28 17 9 31 27 20 17 24 23 23 31 12 17 20 34 9 3 41 24 13 24 14 16 12 3 20 20 7 27 28 3 31 17 23 20 10 20 35 17 33 38 24 27 27 17 17 20 16 21 26 16 16 21 26 35 10 11 21 6 23 17 20 7 16 24 23 7 13 27 14 15 21 20 13 17 10 38 27 20 9 21 23 16 32 15 21 20 7 17 19 13 28 27 16 9 13 34 23 23 20 13 13 22 20 17 30 11 3 34 17 31 19 34 6 10 25 23 28 24 33 14 21 27 26 27 20 20 13 24 20 27 16 29 6 26 20 24 14 30 10 27 13 20 26 21 13 7 16 21 16 17 14 13 17 14 24 21 0 21 13 21 17 3 12 18 30 5 22 31 7 30 24 20 31 17 17 19 20 20 16 23 17 20 17 16 34 38 13 9 31 23 17 16 3 21 9 10 28 14 28 28 17 24 27 31 21 24 21 17 20 26 10 35 19 13 27 28 25 23 10 21 19 17 22 20 14 14 14 14 24 9 27 21 24 17 34 13 27 17 19 17 14 13 16 30 16 30 13 20 12 23 9 18 3 10 17 7 20 19 27 27 14 16 27 21 17 17 14 22 23 15 17 17 9 9 14 17 20 13 35 17 21 16 16 17 24 24 30 24 11 19 30 31 27 10 17 28 16 14 14 27 28 24 10 19 24 27 16 15 10 21 17 21 13 13 17 27 13 10 17 23 25 20 10 20 35 16 19 10 17 10 7 16 19 13 21 21 19 23 20 7 17 18 19 14 35 20 24 13 31 16 15 24 25 17 20 15 17 20 10 23 30 13 14 31 30 14 27 16 13 24 3 25 18 20 26 13 9 17 17 10 35 6 11 24 10 6 20 9 16 24 13 20 16 35 20 20 34 29 33 20 23 25 13 14 26 23 28 14 22 15 21 21 19 17 9 16 25 23 6 23 20 0 6 20 13 28 21 16 28 20 13 23 30 20 16 24 13 23 10 16 27 17 20 24 26 17 13 8 17 24 17 16 7 42 15 13 20 38 13 24 31 24 37 27 24 10 20 13 13 27 29 14 20 17 24 14 17 14 15 24 21 22 27 3 17 20 23 20 20 28 26 17 22 16 34 24 23 20 10 9 20 14 13 29 24 10 31 28 20 26 20 13 20 12 15 9 16 33 23 23 20 0 17 6 16 17 10 17 9 23 19 20 13 26 20 10 10 12 16 17 17 16 21 34 30 27 21 17 23 20 30 28 31 31 35 30 17 3 17 20 10 20 13 10 19 9 9 27 38 19 7 21 10 13 12 22 17 34 24 15 7 37 10 17 3 6 17 23 28 17 16 0 38 6 20 13 6 24 26 28 17 17 18 27 17 20 27 24 13 10 24 13 13 13 20 9 17 10 24 28 31 24 12 3 23 0 24 12 9 28 30 17 31 9 20 17 3 23 24 20 23 20 28 16 14 9 10 21 23 10 17 10 23 13 28 13 25 17 22 16 13 9 20 24 17 21 20 20 24 20 28 23 22 14 10 16 3 22 14 17 13 17 21 17 13 34 16 14 34 14 24 19 17 31 23 23 13 17 15 14 28 20 23 25 16 10 7 21 14 7 23 13 14 10 26 26 17 23 17 21 7 30 30 6 6 13 12 7 6 17 14 20 9 20 14 17 23 16 10 22 17 16 19 14 14 16 40 24 16 13 9 14 20 17 23 13 10 13 24 17 19 31 31 23 6 20 33 27 14 24 21 17 14 17 14 17 27 17 20 27 24 24 16 3 17 10 24 10 7 13 21 23 27 13 21 30 17 14 17 22 17 24 16 9 12 20 27 18 31 20 21 22 12 10 17 10 23 31 34 10 13 14 15 24 20 23 30 10 19 7 13 28 28 23 13 26 20 34 0 24 35 13 14 21 24 21 16 24 35 30 9 22 24 8 15 17 15 27 12 31 27 6 10 13 7 19 9 27 17 10 30 23 9 16 19 21 10 15 7 27 8 24 6 16 15 25 31 24 21 23 17 23 24 28 12 21 24 31 13 24 23 19 20 19 13 0 14 30 13 17 14 23 16 13 21 17 20 28 13 20 38 10 13 16 16 17 24 23 21 17 20 17 14 27 15 20 20 24 10 14 24 27 17 13 10 13 23 20 19 20 16 17 24 14 10 24 17 9 3 10 16 10 17 14 33 16 38 20 23 20 10 31 20 14 19 22 25 38 26 17 10 23 10 30 23 23 23 20 31 30 10 20 10 17 9 14 17 12 35 14 11 13 19 10 23 16 16 17 20 24 27 14 14 11 25 28 22 0 13 6 14 15 11 14 21 10 14 13 7 20 27 10 20 30 17 21 30 19 24 13 23 28 28 3 10 13 27 22 18 10 20 27 20 34 17 20 23 17 13 3 21 10 7 20 17 23 13 16 27 30 10 10 20 27 10 13 21 14 34 14 33 13 13 14 18 27 13 20 10 13 24 17 6 23 26 10 20 24 13 27 0 18 24 26 27 13 16 26 16 22 26 26 16 27 18 13 16 17 20 20 20 10 17 17 6 6 25 23 17 23 28 20 19 9 16 41 24 10 23 6 18 23 24 40 8 22 12 19 14 7 34 13 14 20 13 34 11 20 24 10 23 23 19 21 16 13 31 23 20 27 10 13 8 14 17 23 15 3 12 24 19 13 28 17 20 17 20 27 7 20 12 10 28 21 30 38 25 17 19 24 21 24 24 13 20 20 27 30 28 14 23 13 24 24 17 23 24 24 24 40 21 13 28 10 14 13 16 27 28 20 16 21 17 20 14 15 26 13 20 25 15 14 17 26 24 3 13 27 23 27 20 19 17 20 25 13 10 12 10 14 14 16 27 22 36 14 28 17 20 10 9 7 3 7 27 20 17 16 21 20 12 13 16 12 27 16 21 9 26 44 41 32 16 17 23 0 30 10 3 17 26 21 24 10 23 16 10 10 16 20 12 21 17 27 14 7 24 13 23 7 18 9 18 24 13 14 15 16 13 0 21 18 13 21 36 30 16 28 14 17 16 20 20 20 9 17 25 24 6 21 0 14 14 18 25 6 17 16 14 31 17 27 17 16 14 30 6 35 17 13 17 17 14 3 27 9 14 16 14 13 24 16 21 17 30 10 25 38 14 13 16 10 23 19 13 10 13 10 17 23 16 28 9 14 17 11 24 17 16 17 20 21 23 17 21 23 9 20 17 16 16 31 31 22 14 18 31 29 23 27 11 24 34 21 14 20 15 17 24 13 19 17 17 16 34 13 35 24 7 26 13 20 0 23 23 14 30 13 16 28 9 29 6 24 16 13 7 21 28 13 29 17 17 16 24 13 28 21 17 38 23 24 13 9 9 13 17 16 34 21 20 3 31 6 21 28 17 15 17 26 17 28 19 31 38 41 17 19 15 17 52 17 10 13 17 13 20 20 7 21 28 27 23 10 9 16 3 13 12 20 13 17 17 27 26 27 23 14 21 23 31 34 23 18 6 17 17 17 29 26 20 17 14 16 18 6 4 35 6 10 0 23 21 28 13 19 19 23 17 43 21 13 30 34 20 22 16 23 13 12 20 20 7 13 17 24 7 7 19 10 0 23 19 20 9 24 35 20 29 13 24 27 10 20 17 18 17 9 21 9 23 10 13 16 27 23 27 19 9 28 16 24 7 17 20 17 21 13 24 10 37 16 17 3 31 9 7 17 16 19 3 20 17 27 13 34 22 20 19 20 31 15 21 20 19 26 23 26 23 30 27 13 34 24 17 16 17 27 21 34 14 10 34 14 16 27 10 21 11 24 20 7 26 10 27 7 24 17 3 17 16 26 23 13 19 13 20 16 17 26 20 20 28 10 17 17 23 14 14 27 13 21 16 24 14 17 17 16 35 14 20 24 13 16 20 9 13 12 45 23 7 23 24 24 30 17 23 10 16 27 6 17 20 12 24 27 27 10 34 20 17 24 15 23 20 9 8 18 28 13 30 21 13 10 13 27 10 27 13 27 15 17 10 17 11 16 24 10 16 10 28 7 17 20 17 23 27 14 28 10 21 30 10 13 30 9 10 10 14 24 16 11 13 31 27 9 22 27 23 31 10 21 21 13 31 27 21 20 13 20 16 7 17 16 18 10 5 16 11 23 21 20 38 26 15 13 13 12 24 26 25 17 27 27 24 17 17 6 8 30 3 23 16 17 10 27 22 20 27 27 13 14 20 21 9 14 7 13 28 21 23 10 26 23 16 10 23 20 13 7 24 13 19 31 19 31 31 27 18 15 24 24 23 34 13 15 21 21 17 14 24 7 27 17 23 23 10 16 6 14 18 18 28 31 23 28 7 24 24 20 24 16 10 34 23 6 21 41 24 27 17 14 20 6 22 6 21 31 13 17 19 33 20 14 3 23 15 29 28 6 20 15 7 24 19 3 24 13 3 36 23 16 19 23 3 4 24 23 34 27 10 21 11 26 20 13 37 13 35 7 20 31 30 14 27 20 20 27 20 10 20 19 28 23 23 13 20 16 24 3 17 34 34 3 22 17 17 13 23 10 13 20 13 9 30 20 15 31 14 22 5 9 19 24 13 31 24 21 23 25 36 20 20 20 12 28 12 16 10 19 17 23 26 13 13 24 16 13 13 13 30 20 10 17 21 27 9 6 14 16 17 20 31 16 17 10 41 16 24 10 23 24 11 19 13 38 14 30 17 15 34 30 23 24 17 11 10 27 20 18 17 20 12 20 24 13 24 17 16 3 16 7 20 17 13 21 13 15 38 21 13 21 21 24 3 30 24 17 24 23 19 23 10 17 10 10 17 24 10 13 17 23 19 10 20 38 16 20 31 17 8 0 27 3 17 33 18 17 27 31 20 25 19 16 41 12 41 10 24 22 6 13 24 16 20 27 17 17 30 10 17 12 27 23 23 14 10 17 20 13 23 3 20 17 20 14 3 15 35 20 38 17 16 24 20 24 17 13 17 10 17 17 10 24 24 13 37 22 17 26 14 24 13 17 6 13 12 20 27 21 20 24 10 19 16 34 6 17 13 10 15 34 26 33 26 21 6 20 31 21 21 21 13 23 23 27 14 11 16 10 22 30 29 21 13 23 38 27 27 20 13 12 6 17 10 24 9 18 10 17 13 10 20 17 34 15 12 26 19 13 6 19 13 20 16 16 23 3 17 24 20 33 16 27 30 55 31 15 12 23 17 30 16 30 19 12 17 27 18 20 19 16 18 31 37 16 21 14 6 31 35 10 9 17 10 23 16 40 16 26 6 34 28 17 14 27 25 28 9 17 13 13 13 13 20 33 24 19 14 20 31 24 34 6 20 3 26 17 16 10 6 24 10 26 31 20 6 7 16 27 20 17 13 19 12 16 31 19 15 12 23 0 17 14 28 13 20 0 14 10 34 6 16 17 28 19 21 13 23 13 16 20 16 19 13 20 16 15 30 13 9 28 20 20 30 21 12 22 20 17 13 13 16 35 23 7 28 6 14 16 33 31 24 24 6 22 13 17 14 14 23 23 29 19 35 6 13 10 8 17 15 17 31 20 13 21 17 23 27 19 34 9 35 14 20 13 24 23 20 16 19 22 21 19 30 24 21 13 10 6 17 23 9 20 15 24 24 33 25 27 13 17 6 26 12 6 16 10 13 20 17 23 10 44 21 20 15 18 10 16 24 13 29 27 37 20 16 24 3 24 26 17 9 28 21 13 21 6 14 17 22 10 13 9 24 17 16 17 10 20 31 10 9 17 17 14 23 22 31 27 19 13 37 17 16 10 21 26 31 12 27 9 31 10 20 35 13 13 17 23 28 19 40 6 14 13 13 24 17 9 33 21 20 21 20 6 7 48 17 6 14 20 30 31 10 26 31 17 23 23 15 17 0 13 11 14 10 14 19 10 30 23 13 17 17 10 26 13 28 16 26 6 20 14 31 28 20 3 24 16 7 27 9 21 31 17 17 24 31 16 10 15 31 8 31 15 13 13 14 21 16 29 10 10 10 17 13 7 21 13 14 3 3 13 10 17 17 15 27 24 27 13 17 13 24 0 24 13 21 20 24 15 10 24 35 20 20 14 19 14 20 17 17 13 20 8 21 24 23 20 6 17 31 15 22 17 21 10 20 17 20 30 27 19 25 3 28 17 35 10 24 9 25 11 18 6 25 17 9 15 12 17 15 0 33 24 17 10 20 7 23 19 16 16 17 16 14 20 20 20 20 20 10 13 24 13 17 27 27 23 26 9 28 11 29 17 6 17 13 23 31 30 23 27 17 3 13 14 24 7 13 17 13 26 7 30 20 21 17 0 27 25 10 23 9 24 31 15 13 17 24 3 30 44 14 26 21 3 20 20 19 7 17 10 3 24 13 24 21 15 16 13 16 21 10 12 13 13 23 6 17 21 17 41 24 5 7 13 23 34 22 22 21 13 25 10 23 28 27 10 22 34 23 14 20 24 19 26 20 21 0 20 7 24 24 13 13 23 13 24 22 23 27 14 10 19 7 27 29 7 27 24 20 28 21 20 31 17 21 40 33 16 26 28 7 10 24 10 8 6 13 17 24 19 17 17 15 14 27 15 27 24 6 28 6 20 20 30 21 14 6 20 21 34 20 14 10 40 31 31 24 16 6 15 15 45 15 17 27 24 19 13 17 13 15 17 24 16 19 31 23 28 21 14 17 10 23 24 24 12 13 35 16 34 13 23 22 23 34 17 30 13 32 13 16 6 27 15 11 21 17 6 7 28 26 20 10 24 8 19 7 7 18 20 17 7 20 9 37 12 27 13 20 13 16 17 18 18 13 20 34 24 6 3 16 29 20 19 20 19 27 20 21 0 14 20 16 25 22 25 14 23 34 11 17 17 23 24 18 14 21 27 19 21 14 33 21 6 14 14 6 24 17 8 20 14 14 19 23 27 10 7 13 9 17 13 24 8 24 6 16 20 24 20 27 18 13 10 20 17 22 6 20 13 28 13 26 20 24 19 17 10 28 27 23 16 6 48 27 9 10 35 3 20 17 28 20 28 26 16 17 9 10 20 9 28 10 21 9 24 24 19 13 6 10 13 6 23 6 21 13 13 19 28 30 12 16 13 28 22 6 30 16 10 13 19 13 23 9 16 19 19 16 17 20 31 17 30 26 31 7 14 23 31 10 24 16 29 13 13 17 13 7 3 28 20 10 13 6 20 31 21 7 16 30 20 6 10 7 19 13 38 34 22 31 13 25 16 13 13 16 14 9 10 20 26 10 14 7 16 19 23 38 20 3 10 14 13 24 31 27 20 20 19 13 30 29 10 9 14 14 23 34 20 16 27 22 20 24 14 42 24 14 16 7 16 13 17 6 17 21 20 31 13 28 23 21 21 23 23 27 16 13 17 30 36 19 20 24 31 7 10 7 13 9 26 13 17 13 7 13 20 18 23 10 10 13 17 24 7 24 33 24 23 10 20 20 24 6 34 17 16 24 20 15 20 26 28 17 16 21 6 10 3 12 3 14 13 10 20 3 23 26 7 20 20 16 18 7 21 13 17 24 10 14 16 21 15 20 13 21 7 30 19 21 20 27 13 6 28 17 10 25 17 14 20 20 30 38 7 23 30 27 18 35 21 38 14 23 12 16 27 31 12 13 16 17 20 6 23 17 16 26 21 30 20 14 12 13 13 14 15 17 9 23 15 17 13 18 23 34 21 13 23 10 26 9 14 20 19 10 3 7 13 22 20 22 17 22 31 10 13 9 19 21 21 10 20 17 23 10 9 13 15 26 7 26 17 10 15 31 21 11 24 20 24 3 14 3 10 17 31 20 16 14 27 14 17 20 14 24 27 36 20 13 20 24 30 11 20 6 31 23 17 27 25 33 10 14 17 7 27 24 20 14 16 28 21 35 6 24 30 10 23 27 3 10 24 16 17 35 15 16 3 20 13 9 16 6 13 19 15 16 27 13 22 22 20 28 20 6 9 13 26 15 10 22 24 24 9 29 23 31 25 18 18 21 27 13 17 24 20 14 23 6 16 16 20 20 20 7 9 12 30 24 27 24 16 16 27 19 16 24 16 28 31 31 20 20 14 13 16 28 20 6 23 6 24 13 10 17 9 7 9 24 21 24 14 14 14 27 15 7 13 13 27 17 31 31 24 15 16 16 0 21 12 22 20 26 17 20 20 24 13 34 20 17 20 13 7 24 19 16 23 19 14 3 10 26 17 24 13 10 38 9 11 12 20 17 14 24 30 12 37 27 30 20 3 21 17 17 14 22 12 17 25 22 42 0 27 14 13 17 20 24 20 24 17 10 17 19 10 27 30 20 19 0 10 17 27 10 28 30 17 10 24 22 18 20 3 0 20 16 34 20 15 3 14 17 9 31 16 24 18 16 16 21 10 20 13 26 13 20 10 13 24 6 7 16 18 20 23 17 27 15 17 6 30 27 16 10 13 14 14 34 24 17 17 6 35 16 24 16 17 19 20 9 10 21 14 24 16 10 20 13 41 13 10 26 3 26 20 20 29 13 24 16 24 30 34 44 13 17 20 17 6 0 17 17 19 16 19 25 28 17 30 7 25 13 17 17 13 20 14 10 23 28 9 28 24 22 25 17 17 34 13 28 24 16 14 16 24 27 10 14 20 9 10 19 30 17 22 21 19 21 26 27 7 31 23 9 31 17 20 24 10 17 25 6 3 17 14 29 13 20 20 38 37 19 24 16 20 30 7 21 10 14 21 3 9 10 13 23 7 31 20 17 16 13 6 15 14 12 7 14 22 9 22 16 17 21 20 10 19 17 13 13 17 20 21 21 12 6 0 17 26 21 13 17 20 13 20 9 17 13 24 28 24 20 19 28 17 16 6 23 15 23 7 33 21 15 27 17 14 16 17 16 21 17 21 20 13 24 20 10 24 6 14 22 14 12 21 24 3 31 13 23 17 10 16 17 37 7 24 38 13 31 6 24 20 24 20 20 17 27 37 12 30 20 6 7 27 16 16 32 44 17 10 23 16 27 24 6 23 3 22 7 23 28 27 27 20 23 24 20 20 14 14 13 33 27 16 28 22 13 10 28 16 24 13 15 29 23 20 27 12 18 13 9 20 16 16 13 16 22 28 17 17 20 14 12 15 10 13 23 16 18 17 23 17 13 20 24 24 19 14 14 25 17 17 19 22 24 9 27 27 31 14 20 23 21 24 31 31 20 17 7 23 10 10 20 21 24 30 16 16 24 17 13 20 20 13 6 27 17 27 33 31 15 23 28 24 17 10 27 14 10 12 6 30 24 33 17 20 13 21 16 16 10 15 8 14 13 16 20 16 13 6 17 23 14 10 22 31 31 12 20 17 12 14 24 26 13 28 19 9 9 26 15 10 17 12 31 21 10 27 35 20 10 9 28 34 9 9 20 28 24 17 0 17 9 21 30 20 23 37 20 14 16 3 8 16 27 10 21 30 10 19 20 25 20 9 7 17 19 35 27 10 16 12 14 17 16 20 21 6 19 33 15 14 19 41 16 27 27 13 17 27 19 8 17 20 17 14 23 20 19 20 26 37 37 16 34 22 10 17 21 29 7 24 30 27 12 21 20 24 27 21 16 16 27 24 31 14 21 16 28 30 23 20 17 14 23 24 28 21 24 16 26 20 17 18 22 20 9 10 23 3 20 20 17 33 23 21 20 27 20 31 19 23 27 10 17 13 24 3 31 14 6 23 14 35 6 10 24 27 10 28 20 14 13 18 19 15 18 27 24 24 31 24 6 24 19 19 15 21 17 13 13 16 12 18 6 6 14 20 17 24 14 9 0 21 21 13 18 22 21 10 15 20 30 22 17 8 17 13 20 10 13 24 22 20 27 24 14 13 30 3 19 14 7 13 21 31 0 40 34 25 24 24 21 16 20 24 24 29 21 13 20 20 6 24 6 17 24 24 11 23 21 30 24 14 17 16 16 6 15 13 21 11 14 17 20 20 24 18 3 11 17 21 32 10 24 10 13 20 10 27 13 17 38 17 20 27 16 31 10 12 36 7 13 13 21 36 20 13 6 16 20 17 24 8 17 25 20 9 10 17 13 21 35 13 20 20 27 35 26 24 34 14 13 23 28 18 14 13 17 19 33 14 20 24 17 11 20 17 22 23 31 28 6 17 26 24 17 21 3 9 13 17 17 7 16 19 26 24 7 13 19 11 17 30 9 7 27 10 35 13 9 28 14 20 17 17 10 13 27 23 14 17 13 6 20 23 17 24 24 17 23 27 17 21 24 24 31 24 10 19 20 27 24 6 15 21 24 25 34 20 17 13 19 24 16 19 27 21 12 13 23 14 10 9 20 20 9 27 21 20 12 14 26 23 14 17 24 6 13 10 18 17 34 17 26 23 9 28 20 24 16 27 23 20 18 23 10 19 24 27 13 14 34 23 28 31 7 30 23 10 12 13 9 9 7 23 30 23 15 13 17 3 9 31 19 20 41 19 17 9 15 22 16 21 19 14 24 27 31 17 20 21 22 23 14 3 7 29 14 13 23 15 26 13 20 20 27 26 3 0 7 31 27 23 13 17 16 20 27 28 27 10 23 6 6 27 13 17 17 24 10 24 20 9 23 13 20 34 18 18 27 21 20 20 18 10 33 10 20 30 21 7 22 24 7 22 9 24 13 35 14 31 24 9 20 17 3 26 7 19 23 33 20 28 10 24 21 27 17 20 13 16 21 19 30 0 20 21 27 13 27 34 17 15 16 23 16 13 15 27 17 22 26 23 14 23 23 18 13 19 6 12 16 9 14 10 26 13 13 46 20 20 17 16 9 27 21 10 41 16 9 20 23 23 6 17 26 33 10 16 26 33 6 23 22 24 17 13 15 27 25 20 26 14 15 45 17 20 18 27 14 15 26 19 27 18 20 27 16 27 17 10 22 7 10 9 17 17 28 10 30 30 21 17 27 20 37 21 23 19 48 9 14 41 20 9 17 17 21 16 28 10 9 21 17 23 23 31 24 23 24 15 13 13 16 28 13 29 6 31 20 13 17 6 27 9 13 7 20 10 16 16 7 3 10 24 34 24 8 9 16 24 10 23 6 29 16 22 21 27 17 21 14 23 20 14 24 27 30 12 24 30 31 13 17 8 13 13 13 13 3 27 14 30 13 31 14 13 10 13 3 12 14 20 34 20 30 20 26 16 21 13 38 29 3 23 10 20 26 10 14 14 27 20 3 24 25 20 20 3 27 9 7 24 3 24 23 20 13 19 13 20 9 17 13 13 20 27 0 27 16 13 21 29 20 13 20 3 30 31 17 21 24 13 14 20 3 30 19 20 31 17 14 11 34 20 16 14 32 26 20 13 30 23 17 27 12 24 13 17 27 26 16 20 24 24 7 21 16 7 21 10 16 10 27 30 21 23 20 9 10 35 24 9 16 14 14 16 13 27 23 24 3 20 7 30 20 10 18 37 23 24 41 30 10 20 10 20 9 21 17 28 12 24 13 19 15 38 19 20 18 10 12 9 16 23 12 22 14 13 21 28 30 33 24 17 21 10 9 17 27 10 10 12 16 14 6 21 31 20 25 28 20 31 23 20 8 16 10 27 16 27 13 22 24 14 26 14 16 35 31 13 18 20 16 17 18 23 24 23 23 15 16 9 20 21 13 6 12 22 17 30 31 20 13 24 24 17 13 20 21 38 7 20 33 26 17 20 20 24 19 16 15 33 14 10 17 16 17 31 19 16 26 19 26 24 20 13 16 18 20 49 27 6 14 7 28 28 26 17 3 20 17 13 19 10 23 26 9 13 7 10 24 10 15 10 17 22 7 24 27 19 16 24 8 31 37 14 13 21 10 35 24 17 14 19 27 13 20 35 13 10 27 26 20 20 17 22 10 12 7 21 10 10 20 27 6 16 9 24 30 13 20 16 17 13 13 24 13 25 14 24 17 30 17 17 22 28 19 8 19 13 10 26 14 9 33 10 14 25 20 10 26 18 21 3 14 23 7 21 14 31 16 27 17 27 29 13 10 6 9 19 20 24 7 13 28 23 17 30 20 7 23 9 3 10 12 14 23 17 13 22 27 22 30 13 25 19 13 27 24 29 14 16 10 22 17 18 10 35 20 16 35 16 17 23 14 10 16 17 17 3 17 16 34 13 20 10 17 14 15 29 34 13 14 14 38 24 20 13 3 20 14 21 26 19 17 9 16 14 16 31 16 14 10 7 15 20 20 18 16 3 24 24 24 10 35 28 21 6 23 10 23 14 15 23 13 19 21 23 6 21 22 6 31 14 24 13 13 24 19 23 3 26 24 16 20 12 15 21 21 13 6 34 20 28 10 10 10 24 12 35 13 24 24 27 30 3 14 14 40 13 23 9 23 17 16 14 14 15 20 26 27 6 8 20 19 7 20 17 16 31 29 17 17 23 9 27 17 17 21 21 31 30 17 20 23 10 14 15 20 27 21 24 28 20 14 18 7 20 10 27 0 12 30 13 30 18 7 17 22 16 14 15 28 9 20 18 20 21 15 13 34 15 17 3 13 7 7 21 23 20 13 14 20 12 30 24 24 31 21 17 13 14 23 13 26 14 27 34 13 0 24 14 34 20 21 15 6 17 14 22 0 16 30 24 10 30 0 19 19 30 28 24 28 12 14 21 20 16 14 7 20 13 37 17 20 12 6 10 22 27 24 22 9 7 24 12 17 10 17 17 24 17 26 27 17 10 34 23 28 24 21 17 10 24 13 31 42 24 20 19 6 16 9 19 15 17 14 31 31 27 19 3 7 3 27 14 20 24 6 34 7 27 19 30 17 20 14 16 9 10 17 17 20 23 3 12 10 16 19 21 26 21 18 21 16 9 17 20 20 28 16 27 15 28 13 17 20 41 35 20 17 13 13 23 17 3 19 18 13 13 23 20 21 14 18 10 19 16 6 19 27 13 6 22 12 15 14 31 21 30 28 28 14 17 24 6 17 16 14 33 21 13 24 18 10 10 20 20 24 15 12 3 31 24 13 10 24 28 3 18 21 27 10 28 3 30 20 23 31 31 27 16 25 30 20 23 19 6 17 10 20 16 10 14 15 16 6 13 23 23 3 13 12 10 13 24 23 20 14 24 27 10 45 24 10 17 17 18 20 20 20 22 16 12 14 30 37 20 21 41 23 14 28 16 20 12 17 12 36 20 24 27 21 23 26 10 13 10 14 16 25 27 13 12 30 17 13 14 10 20 14 6 14 19 16 23 17 7 16 3 14 24 6 24 17 13 17 15 30 15 20 45 19 20 16 21 24 35 24 9 13 13 30 16 16 20 24 24 21 17 12 9 30 16 18 12 24 14 10 17 19 44 26 23 26 10 15 21 10 10 18 16 13 31 10 31 21 23 27 16 23 28 16 26 28 7 7 27 17 23 26 22 9 12 10 27 10 20 30 23 6 10 27 16 3 15 24 16 19 16 13 24 21 22 12 7 25 14 14 19 10 14 27 23 20 14 17 13 13 10 21 17 10 17 12 15 6 10 21 23 21 7 6 7 13 11 17 27 7 20 23 3 10 34 17 27 20 8 51 20 17 17 27 28 20 13 31 20 9 16 17 12 6 27 17 21 3 31 14 14 21 17 20 24 23 34 13 18 13 21 28 13 13 13 20 21 3 30 12 27 16 15 9 6 16 23 16 29 10 39 28 20 17 24 27 21 15 20 15 16 20 24 10 41 31 21 13 24 17 9 17 45 17 31 10 17 14 20 16 20 27 10 21 16 14 3 18 24 30 14 38 27 20 24 24 12 3 9 24 7 13 10 10 7 17 36 20 27 28 24 17 7 23 20 36 34 31 30 17 14 34 15 17 20 17 10 20 16 17 24 18 38 17 13 27 20 20 10 0 20 20 15 17 24 27 26 7 19 14 19 17 20 13 24 0 38 7 25 6 13 21 30 21 10 19 20 14 15 21 10 9 14 3 20 17 15 20 27 21 23 20 18 10 7 22 11 24 17 10 14 21 34 7 27 30 7 12 7 23 17 7 19 27 7 20 16 21 27 21 0 17 34 15 10 20 13 13 14 21 20 3 20 31 16 19 24 23 24 36 22 23 13 6 14 24 13 17 27 33 17 14 20 10 17 16 14 26 32 6 12 29 24 14 12 23 31 14 13 24 10 23 16 17 13 19 30 16 10 18 28 6 9 20 24 6 26 19 10 7 38 27 10 16 10 30 24 17 12 31 17 23 26 20 14 17 23 3 19 24 33 17 21 24 17 42 14 27 17 31 17 22 13 23 28 28 17 13 7 34 17 12 17 7 9 10 17 16 10 14 20 6 3 5 23 27 28 21 20 28 22 13 28 35 17 10 21 7 21 27 17 24 38 23 9 31 23 6 16 27 16 17 38 12 27 21 29 13 10 20 14 13 24 24 12 16 21 14 13 21 10 24 20 20 9 17 24 24 24 7 17 21 10 20 24 12 31 19 10 23 25 21 20 31 19 21 17 16 17 7 24 3 27 27 21 9 6 17 21 21 6 9 23 17 17 10 22 17 19 20 21 10 23 27 17 17 10 33 16 7 24 20 37 14 24 3 20 27 16 10 10 10 19 17 27 16 30 24 30 13 10 23 23 6 35 30 10 26 27 23 10 11 19 26 17 14 18 17 14 20 21 15 10 14 21 30 30 6 20 27 10 13 31 24 29 27 23 14 14 10 11 23 20 24 20 13 13 27 26 24 25 17 13 13 14 30 24 17 10 13 13 21 16 20 17 25 9 35 17 9 36 20 24 27 6 28 27 17 6 20 17 23 23 10 13 16 13 29 23 30 17 19 16 20 17 20 24 7 23 13 37 24 7 22 13 7 24 24 20 20 17 24 7 20 24 23 24 10 15 42 18 21 3 13 19 16 20 23 13 16 10 23 35 9 6 20 22 17 20 17 26 19 10 6 3 21 10 0 36 17 21 23 18 17 17 14 14 13 17 9 29 14 24 14 9 22 9 21 23 17 19 16 19 24 20 27 22 17 13 9 33 27 27 10 18 19 20 26 11 12 20 22 17 21 28 17 30 17 13 23 20 10 22 21 9 14 24 13 30 22 23 25 24 16 3 12 20 21 13 25 17 18 21 14 6 23 10 3 20 20 16 6 34 13 21 21 27 15 32 21 19 20 12 10 19 24 20 21 19 24 12 20 17 23 22 10 19 20 20 17 20 20 17 6 16 19 17 17 20 27 24 16 24 26 25 13 19 17 20 17 31 22 17 17 21 16 30 14 28 27 24 10 13 14 17 27 17 20 15 20 26 23 0 17 40 9 21 34 16 22 35 10 16 6 13 24 3 9 6 29 31 17 24 13 23 25 17 8 13 17 40 13 13 11 21 17 23 13 28 28 14 10 30 0 12 16 23 20 20 31 17 20 20 13 10 16 14 14 24 19 20 27 17 23 12 19 23 16 7 13 23 23 31 9 14 33 35 33 24 27 11 6 21 16 27 20 10 16 17 31 16 10 23 6 10 23 14 11 23 23 20 10 21 8 20 14 21 19 26 20 16 17 7 17 16 23 12 20 16 27 10 0 30 14 10 21 16 23 24 20 23 10 0 10 37 12 21 10 6 24 16 20 28 24 24 10 17 16 31 20 20 16 10 15 14 17 24 38 31 31 34 19 20 5 10 24 32 15 31 27 9 23 19 23 10 17 13 29 25 17 20 9 7 20 22 25 10 23 24 9 10 34 20 17 19 29 20 17 7 21 17 27 19 19 14 21 16 23 6 11 31 16 24 13 23 27 24 3 10 28 13 15 17 31 17 28 31 10 17 13 8 21 17 23 26 23 27 20 17 10 21 10 12 15 13 24 17 17 21 22 27 28 20 20 14 21 9 45 24 23 20 10 11 27 27 20 24 16 24 13 17 13 20 7 16 30 20 19 17 16 17 13 19 20 20 14 24 17 20 17 17 17 24 17 13 24 24 30 24 24 20 7 27 34 23 10 17 13 31 16 14 24 20 13 24 3 22 3 24 6 34 17 24 20 23 6 21 22 33 34 24 19 16 23 11 21 6 3 24 17 20 6 20 20 36 10 28 27 16 16 23 15 12 23 13 16 22 26 10 16 30 31 13 3 29 21 22 34 24 16 23 10 16 9 9 27 33 20 20 21 7 16 14 30 25 37 14 19 17 17 26 14 31 16 10 13 21 11 14 16 12 31 34 17 33 24 9 16 13 17 7 20 20 14 17 7 16 20 24 10 30 17 23 21 6 14 19 40 10 16 21 14 12 21 9 9 24 23 27 20 17 24 19 17 14 21 20 9 12 20 20 3 34 20 14 20 6 31 27 38 21 14 27 13 11 23 17 6 27 13 13 10 17 16 23 20 17 17 30 15 17 14 16 25 23 11 31 27 17 24 34 3 31 27 21 30 41 7 26 18 24 10 24 3 17 26 13 9 23 23 6 20 13 38 26 16 20 9 13 24 20 5 31 9 14 10 24 26 14 17 24 27 6 38 24 16 17 19 17 24 40 13 29 23 16 35 31 17 14 21 27 13 30 17 26 17 27 13 22 21 10 9 14 24 10 12 10 35 27 27 10 18 6 17 24 17 14 24 16 24 22 17 20 23 20 13 17 24 24 25 20 21 13 31 6 26 7 24 6 20 14 17 30 21 27 23 21 17 14 20 12 20 19 17 9 17 33 12 10 16 22 33 13 16 15 24 3 6 20 20 7 32 33 20 12 15 34 24 27 0 17 31 17 20 9 14 13 10 24 17 17 27 23 20 17 30 17 21 17 24 13 23 16 24 10 27 20 27 16 3 14 10 20 20 30 30 22 6 10 35 17 34 38 15 7 17 16 17 21 6 20 9 18 23 19 19 7 6 21 17 28 17 15 0 16 3 19 12 13 33 38 14 17 13 20 15 20 7 30 20 18 9 20 27 21 10 18 20 16 16 24 30 21 20 10 10 16 23 20 16 33 13 19 23 10 16 17 17 19 9 3 40 9 6 25 20 20 13 21 22 10 17 10 23 7 24 17 30 31 10 12 24 38 24 9 13 23 27 16 10 21 17 15 16 17 9 10 23 13 7 13 11 3 38 35 21 20 29 27 0 14 9 16 20 3 20 10 10 27 17 17 17 24 13 19 3 21 28 28 9 14 24 20 17 8 29 15 14 24 7 27 21 13 10 30 27 6 30 23 9 23 24 19 27 24 20 35 19 16 22 31 6 16 7 17 24 10 27 13 14 12 20 8 27 19 31 35 17 17 13 27 7 13 36 17 13 24 24 24 14 27 16 22 12 13 9 21 31 9 17 10 16 16 13 13 10 17 27 20 21 13 17 13 34 20 10 17 17 3 16 34 19 34 16 13 17 14 20 35 13 22 13 21 3 23 21 30 9 13 23 42 7 24 23 20 10 10 17 22 20 17 14 27 21 37 16 8 39 9 27 13 21 34 9 22 14 31 34 13 10 27 23 17 27 20 23 13 13 16 20 9 17 3 19 35 20 14 12 12 24 14 6 31 0 19 7 31 6 12 18 12 16 24 26 23 24 16 31 13 12 14 20 14 22 40 12 10 10 10 33 19 22 24 3 14 10 23 24 14 16 17 9 17 27 18 17 7 21 41 20 18 17 18 10 16 20 7 19 17 26 13 10 23 19 19 21 31 17 30 24 17 9 24 20 31 24 34 24 6 16 20 30 14 27 24 33 23 27 38 27 11 20 12 30 28 9 27 10 16 23 14 6 37 10 31 21 14 3 16 16 3 22 33 21 28 24 19 3 23 47 31 17 17 14 26 10 27 17 0 24 16 7 20 12 27 38 13 20 9 19 11 14 0 18 10 28 22 20 27 37 19 13 17 17 10 16 20 20 14 20 12 25 16 21 13 20 16 20 10 25 16 27 26 3 10 35 17 27 30 7 20 6 24 41 34 20 21 20 34 28 20 0 10 44 24 27 10 17 20 21 20 17 19 17 21 34 21 31 20 14 20 34 13 28 26 9 19 23 9 16 14 12 20 16 17 23 26 0 20 9 10 20 9 26 30 19 3 22 37 25 17 10 27 19 6 19 16 23 16 7 14 14 23 23 23 8 33 28 14 7 20 20 19 24 16 14 13 20 6 23 10 20 28 27 19 22 20 27 23 19 6 23 15 13 23 9 27 23 0 27 24 16 26 10 16 27 9 14 14 24 3 30 15 17 34 21 14 10 19 27 25 17 16 21 16 13 31 12 39 21 17 24 13 20 27 10 23 27 24 7 20 10 10 26 23 28 14 21 17 17 20 24 33 13 12 16 23 10 16 21 21 24 20 18 12 30 3 14 10 17 14 10 26 28 20 13 24 27 17 19 28 14 28 7 17 20 16 20 26 27 13 18 27 10 31 17 14 20 24 21 20 31 24 24 14 17 21 14 16 24 33 16 27 24 14 23 23 18 23 25 24 27 31 28 34 30 22 14 22 9 23 20 17 14 3 21 13 17 16 23 9 20 31 31 20 19 14 17 10 24 17 17 14 21 22 16 20 5 17 27 17 6 6 37 23 14 13 17 12 6 31 17 13 17 11 10 17 26 15 15 20 6 21 14 13 14 17 24 24 20 21 17 18 29 17 12 7 16 27 9 20 12 10 10 20 15 19 24 31 14 17 27 14 20 16 17 21 31 16 21 16 34 17 17 27 24 13 17 23 21 19 28 17 24 17 20 20 7 19 10 27 17 10 13 16 17 17 31 13 13 24 16 20 16 24 21 7 9 20 20 34 3 20 16 9 22 21 13 17 49 24 28 26 7 24 7 21 7 31 16 31 20 20 14 21 27 17 0 10 7 16 23 21 13 13 20 3 16 20 20 14 14 13 13 35 12 20 27 16 18 24 34 10 28 28 28 17 13 15 21 27 12 21 20 34 27 24 10 15 6 10 30 27 15 10 23 12 17 25 28 13 28 20 9 31 20 9 17 15 10 14 14 13 10 30 24 30 10 16 27 21 31 20 14 21 18 30 20 16 21 24 21 16 13 17 10 13 27 25 10 8 24 24 28 20 15 10 24 7 13 20 17 36 10 16 7 7 14 16 19 30 41 16 13 14 27 13 14 13 27 20 14 20 21 28 24 17 31 10 13 23 30 23 26 28 31 23 20 34 26 20 23 23 20 28 24 9 31 18 30 23 28 24 16 13 21 24 7 9 21 20 17 20 9 13 7 23 19 29 31 26 20 45 25 10 20 21 10 12 34 23 13 10 17 9 23 10 23 12 27 24 27 12 14 17 13 16 21 20 9 17 24 21 21 13 20 14 16 35 16 13 16 20 17 17 17 28 24 14 10 13 16 0 7 20 20 9 20 24 20 20 17 27 13 17 21 17 9 20 24 9 23 17 21 24 28 16 16 17 19 23 9 13 10 10 20 27 24 23 19 10 13 19 17 14 23 17 28 29 28 33 19 17 17 24 21 13 34 21 11 17 23 27 27 24 18 17 31 20 33 24 16 7 24 28 13 22 34 7 13 13 6 7 22 28 7 23 22 11 14 23 20 22 17 24 20 6 21 31 12 14 10 13 19 20 13 28 24 6 14 14 16 21 19 6 25 31 24 23 25 21 3 9 20 16 13 27 10 7 16 3 19 20 6 28 13 17 24 10 10 21 13 3 13 18 19 21 31 19 13 13 3 24 30 31 23 17 21 24 6 7 15 3 13 9 36 28 23 3 33 21 33 19 11 29 12 3 6 10 17 17 18 20 22 13 27 19 7 9 10 20 6 19 20 16 17 18 16 16 20 20 12 21 21 17 17 3 17 20 6 13 10 14 25 9 16 34 19 24 7 14 11 0 45 24 9 7 6 14 19 13 13 22 28 18 19 16 20 28 31 20 28 10 7 35 30 21 14 17 16 10 13 17 40 13 6 20 20 12 21 13 17 24 3 16 20 20 25 31 23 24 10 14 20 15 16 24 33 16 22 30 19 28 3 14 34 27 16 18 7 23 14 24 36 17 17 20 10 20 20 9 27 14 7 31 23 10 20 21 23 24 26 24 14 7 13 20 30 27 23 23 20 13 17 24 10 21 3 12 24 18 14 20 15 9 20 28 28 10 16 17 13 31 19 17 13 9 23 0 15 27 19 3 20 24 21 23 13 27 9 9 15 23 31 31 28 21 24 24 22 34 21 20 26 23 10 19 20 17 27 31 19 23 22 26 16 24 18 29 20 20 27 24 11 13 3 26 17 24 24 20 12 20 20 35 10 18 17 9 16 17 10 28 24 7 16 17 20 17 13 7 13 14 13 17 21 17 37 9 13 23 41 20 24 34 17 14 19 24 26 16 20 7 17 16 19 26 21 34 33 14 19 21 20 3 10 15 18 20 13 3 19 9 24 24 18 30 14 33 13 7 14 14 16 21 6 13 19 17 16 41 34 10 18 21 17 19 17 17 35 9 13 23 14 16 20 9 20 20 15 27 16 21 10 20 14 17 26 20 21 17 26 23 29 3 13 13 15 20 20 26 20 31 28 17 19 9 13 18 12 24 27 21 14 24 44 24 17 29 10 14 29 33 24 24 29 6 20 21 28 35 17 13 28 27 28 20 14 22 15 12 27 24 10 19 23 9 27 14 33 19 17 19 17 26 26 18 10 24 16 13 19 20 14 17 24 10 29 23 20 13 6 11 16 13 31 13 34 7 9 10 26 27 24 19 23 15 21 16 27 27 30 23 24 17 17 31 11 6 20 24 13 10 20 18 24 21 17 24 10 23 17 44 28 24 21 17 27 17 8 27 15 29 30 10 23 20 14 10 14 23 25 6 13 23 3 6 21 13 24 6 28 19 20 17 21 27 34 13 24 31 10 20 13 21 20 23 34 23 28 30 17 35 31 31 13 27 13 14 15 27 31 37 16 23 23 17 8 24 17 21 19 35 37 13 21 14 24 24 14 13 27 9 14 20 20 16 10 23 23 21 20 16 25 10 17 13 20 27 7 16 17 17 0 11 18 6 14 20 27 23 17 16 20 6 3 15 10 12</t>
+  </si>
+  <si>
+    <t>GAM(128.03952179486438, -26.307405495757447, 0.3756715467257462)</t>
+  </si>
+  <si>
+    <t>20 23 26 21 23 25 21 19 22 15 16 21 16 22 26 22 22 24 22 28 27 26 22 18 20 20 21 25 28 22 21 18 15 21 21 22 11 31 17 27 31 18 27 20 27 23 21 25 32 23 20 25 21 19 23 27 28 14 22 22 23 20 16 19 28 28 21 27 21 19 23 21 22 21 24 19 22 20 21 23 27 25 17 21 28 26 18 17 18 21 29 20 18 30 27 22 27 23 15 16 24 25 26 21 19 21 22 25 14 21 19 17 14 20 27 18 30 26 19 19 21 22 21 19 19 27 30 24 24 23 19 18 27 28 24 28 23 26 24 25 22 34 27 26 15 21 14 18 22 14 34 18 18 27 27 17 16 26 22 24 23 30 18 27 24 18 19 15 23 23 25 30 19 29 23 21 20 21 19 16 19 21 26 13 19 23 25 29 13 23 21 19 18 18 19 19 16 26 20 30 20 17 30 25 28 22 22 15 26 18 25 19 22 22 18 22 20 18 22 23 20 23 23 25 24 21 17 20 16 26 30 22 18 20 20 20 22 21 21 17 20 20 22 22 23 35 18 22 20 22 22 19 22 19 16 22 21 18 27 24 32 19 23 13 20 24 22 17 26 23 21 17 21 17 28 25 17 29 27 20 22 22 13 22 23 19 22 23 26 26 24 19 21 23 18 19 23 20 22 27 16 26 21 22 25 9 23 25 25 20 22 22 23 15 22 18 23 21 24 17 16 22 21 30 24 21 22 18 21 24 17 21 23 22 24 23 24 29 23 28 22 22 19 26 20 22 26 24 18 20 16 18 16 34 14 22 27 21 19 19 19 19 19 20 30 14 18 24 22 21 24 18 24 22 20 23 23 28 24 24 19 28 22 21 22 27 14 21 23 19 24 24 18 26 31 24 27 20 22 25 21 19 15 18 20 18 20 16 21 20 24 22 20 18 16 24 28 22 25 26 18 19 21 17 15 25 28 26 23 17 19 23 36 21 24 18 21 13 18 25 21 23 22 21 21 24 21 20 22 22 19 26 18 19 29 15 30 25 25 22 24 14 26 23 24 23 13 18 26 19 24 30 20 20 23 29 20 21 19 23 25 29 22 19 21 23 19 23 24 26 12 24 21 27 23 24 21 25 21 25 17 21 29 18 23 18 25 18 17 21 20 22 23 17 23 21 24 22 20 21 20 17 20 25 18 28 24 20 16 26 20 23 28 21 23 19 23 27 23 16 19 35 25 23 19 23 20 25 28 27 25 24 30 27 27 21 24 19 19 24 21 26 22 27 16 28 23 18 18 18 29 19 16 26 19 17 27 29 19 21 23 19 15 26 24 17 12 20 27 26 24 18 30 36 19 18 17 29 20 21 25 28 24 16 23 17 24 18 18 16 22 19 26 18 19 28 20 21 18 26 15 25 18 21 22 18 26 21 18 24 16 24 27 20 26 17 23 24 19 23 24 22 21 15 21 17 14 19 20 17 20 24 18 26 20 30 24 23 20 18 18 16 22 27 19 21 20 18 22 30 16 23 22 28 19 20 19 19 25 19 26 17 16 25 22 25 27 20 19 24 19 20 18 22 23 28 26 17 16 25 27 15 21 24 22 25 28 18 22 19 20 28 15 29 25 21 30 22 28 22 25 29 24 10 27 22 23 25 26 22 25 31 29 21 20 26 17 16 28 28 17 26 21 24 15 17 21 20 25 26 21 15 29 27 28 22 20 29 27 20 33 23 23 31 27 19 17 23 18 28 32 22 16 20 22 21 27 15 19 12 21 30 22 17 33 26 24 20 27 18 21 17 20 21 27 23 10 21 26 18 20 25 21 31 20 19 24 20 15 20 26 19 20 23 34 20 27 22 18 18 27 25 19 22 19 24 26 23 13 28 19 20 17 26 21 22 16 24 24 21 30 15 21 24 21 24 23 22 21 28 24 24 24 24 29 22 19 20 22 29 24 19 24 23 18 26 27 17 26 23 26 19 16 22 27 25 22 22 22 31 20 17 17 23 27 13 19 21 19 23 22 19 15 22 23 16 24 20 22 16 19 15 13 20 24 27 24 25 20 17 24 20 25 19 19 26 28 17 31 22 26 18 28 23 25 20 23 18 22 25 21 23 22 16 26 23 24 36 26 28 18 27 17 20 27 23 16 23 17 25 26 20 23 29 19 22 22 23 25 18 16 25 22 22 20 24 24 27 21 20 18 22 14 26 22 22 19 20 21 24 24 18 16 28 12 20 24 29 22 16 22 30 21 22 22 29 22 21 22 15 20 20 21 26 33 25 23 22 24 23 15 21 24 22 25 20 22 22 22 20 19 24 23 17 23 17 26 29 18 18 22 28 24 19 15 20 18 24 30 26 23 28 25 20 25 26 29 23 27 25 24 26 25 21 20 25 21 21 23 25 23 17 18 18 24 16 34 22 21 23 27 24 20 16 32 19 28 31 23 24 19 26 18 23 25 24 26 25 26 26 23 21 22 23 22 21 29 21 18 19 24 22 19 16 20 23 20 22 21 24 27 27 19 16 23 32 17 24 36 32 24 26 17 19 20 21 28 22 35 18 15 27 20 23 22 31 21 20 20 22 16 14 16 12 18 25 19 21 23 26 21 22 15 28 25 17 17 23 21 24 27 18 20 26 22 26 22 18 17 9 25 28 29 21 25 31 22 17 23 22 22 28 17 24 23 22 20 22 22 25 32 25 21 24 24 19 22 24 20 23 21 20 22 20 21 19 32 21 24 19 20 22 25 18 28 21 31 27 27 25 16 26 21 24 23 28 27 24 25 21 21 16 27 19 15 23 20 23 13 29 17 14 23 26 26 29 16 17 15 26 23 22 17 19 12 30 18 23 17 21 21 25 21 26 18 31 23 21 25 33 23 21 29 23 23 18 22 25 20 23 24 20 14 26 28 28 20 26 16 21 29 28 18 24 22 23 26 22 22 27 20 27 27 35 26 20 13 15 15 22 20 20 21 22 33 21 22 16 23 23 20 36 18 22 23 22 15 23 17 23 25 21 24 20 20 24 20 23 19 17 21 21 18 18 21 13 22 23 26 25 20 24 23 23 23 23 32 21 18 21 19 18 21 26 25 22 22 24 12 23 12 15 24 22 17 23 17 19 20 29 13 20 21 18 18 25 22 22 18 23 17 21 25 20 17 17 21 20 22 20 21 20 14 21 25 25 16 20 28 29 26 24 24 22 26 21 20 18 22 37 14 22 25 20 24 22 23 17 20 19 18 20 24 21 16 27 19 25 16 22 25 19 21 28 21 19 34 24 20 15 15 18 20 24 22 17 25 20 28 17 16 39 27 23 26 16 26 20 22 24 21 19 22 17 19 16 22 20 18 24 20 19 15 24 20 25 19 22 25 19 24 22 22 27 26 23 22 25 22 18 18 23 23 21 23 26 18 18 23 22 21 22 24 17 21 27 20 20 14 19 16 25 19 22 22 24 14 25 24 21 23 22 19 21 11 17 21 20 26 19 24 22 33 24 23 22 27 27 23 22 27 23 20 18 23 17 23 26 19 27 20 20 29 26 28 23 25 21 21 24 24 28 20 24 24 17 25 24 19 23 24 24 25 13 20 16 23 18 27 28 17 24 26 27 17 25 20 19 17 23 16 14 15 20 18 18 21 30 21 35 21 17 16 17 21 27 24 20 21 16 23 25 26 26 18 23 27 15 20 24 17 19 19 19 16 24 24 25 22 21 21 26 27 17 18 22 22 18 17 23 25 25 28 23 18 24 23 19 30 30 27 26 23 14 15 14 24 25 19 27 22 23 22 32 28 12 19 21 20 33 24 17 25 29 24 8 26 15 28 19 14 20 9 18 24 27 18 21 18 18 24 13 20 19 30 21 22 26 20 20 29 22 19 20 23 28 21 20 17 16 15 25 15 21 27 16 19 19 28 26 19 24 28 20 19 21 19 24 20 20 16 20 23 23 15 25 22 15 16 15 16 19 20 29 22 28 18 25 20 17 23 22 27 25 25 13 28 19 21 23 17 20 30 18 19 29 24 26 21 19 23 22 19 16 22 25 26 25 21 18 21 29 24 22 25 19 23 17 19 13 23 25 27 27 16 15 25 25 25 19 22 16 26 22 20 20 29 21 24 27 17 19 12 24 20 23 21 20 20 25 26 21 16 19 29 22 19 19 19 21 23 23 23 22 18 19 18 20 31 18 21 27 23 24 24 17 20 29 31 22 20 22 29 23 20 20 16 18 15 17 21 19 19 15 20 27 19 24 14 12 21 19 23 14 15 23 21 21 20 32 19 29 20 23 21 19 23 24 26 18 21 22 26 15 22 17 17 19 23 21 12 27 23 21 16 18 23 23 24 18 18 28 23 25 23 18 26 13 23 27 21 25 27 26 21 22 17 21 21 22 26 29 25 24 20 28 15 21 27 20 19 20 24 23 21 28 22 25 17 22 24 34 16 20 19 26 25 24 26 21 17 18 24 23 27 24 25 27 20 19 20 13 25 23 26 20 26 34 26 19 21 21 16 31 20 22 21 22 24 31 27 21 23 20 16 19 23 29 25 20 26 25 24 24 16 23 24 11 29 21 19 17 19 25 25 19 27 25 16 15 24 17 29 22 18 23 32 23 21 23 24 18 27 19 22 20 17 20 17 22 23 14 19 18 21 23 18 29 23 25 27 22 23 21 18 21 18 21 21 25 18 17 10 24 15 21 27 17 23 22 28 28 24 18 19 23 20 24 18 23 21 17 23 24 17 27 22 25 27 22 24 17 24 23 21 19 19 15 32 17 29 21 20 23 29 23 17 16 24 21 16 19 24 26 19 25 23 24 29 20 21 20 16 27 21 27 20 18 15 27 23 13 16 19 24 18 20 19 23 28 21 21 13 23 28 27 24 23 25 29 23 21 23 24 20 19 30 18 23 23 23 19 24 25 13 16 22 25 27 19 23 31 25 26 11 20 20 19 20 25 34 21 20 16 25 23 17 26 18 18 28 22 27 24 19 21 15 23 17 22 22 26 34 24 18 31 24 20 17 24 30 30 22 26 36 19 28 21 17 26 18 27 25 18 18 18 13 24 13 31 28 19 30 22 25 18 24 27 15 16 20 20 22 20 21 23 21 23 29 21 26 24 26 26 18 22 15 20 23 19 19 20 19 14 16 22 25 11 18 29 28 18 12 24 30 21 24 19 27 26 21 23 18 23 25 23 17 18 16 26 17 19 22 25 20 20 27 18 18 23 21 17 12 28 23 19 25 18 25 18 29 18 22 30 19 27 19 28 20 16 18 20 21 18 15 20 22 27 21 23 20 23 24 27 24 25 21 15 24 29 27 15 24 33 22 16 25 17 18 32 22 28 16 18 17 28 27 14 22 24 24 24 19 18 23 18 22 29 26 26 27 16 21 18 33 21 24 26 25 26 22 22 17 28 19 21 19 25 20 18 19 28 31 16 25 17 26 17 33 22 16 29 18 29 21 14 19 20 26 28 20 24 19 19 17 19 13 19 27 24 24 26 24 16 25 26 19 20 22 21 24 20 23 20 23 17 20 15 29 25 24 15 15 23 16 28 20 21 23 23 17 23 21 19 17 14 18 17 22 27 29 22 19 14 20 22 20 17 17 23 23 25 26 26 18 20 19 20 13 21 39 19 16 20 18 18 22 19 26 22 20 21 20 21 23 23 21 12 25 21 24 22 20 24 12 24 17 26 21 15 19 28 17 28 16 26 23 15 22 21 24 24 19 33 20 25 22 15 23 24 16 26 31 25 28 24 29 24 14 22 25 24 21 14 22 29 19 21 22 15 29 22 30 25 26 14 21 20 13 23 24 24 24 28 24 16 19 20 26 29 18 21 23 24 25 21 22 12 22 16 24 23 24 24 21 22 16 25 18 18 17 18 24 14 29 27 21 19 19 21 23 17 18 24 26 26 25 13 18 15 28 21 20 23 22 17 20 25 24 22 19 21 22 19 20 19 24 27 18 22 30 28 21 19 19 28 30 22 20 30 27 29 25 22 18 27 27 18 22 30 19 27 23 17 31 17 24 22 18 19 18 25 19 19 15 20 28 17 26 18 21 27 21 23 24 22 10 18 23 21 26 18 19 25 24 26 28 22 27 19 28 22 20 20 14 22 31 26 19 20 19 26 31 30 24 24 24 21 17 19 24 23 18 27 23 19 21 21 15 14 22 22 16 19 23 31 23 24 20 25 22 25 21 18 20 25 23 16 20 19 30 26 24 21 24 28 22 18 22 24 16 11 19 20 20 22 18 17 26 19 17 21 20 27 25 23 18 17 23 29 24 22 20 18 24 21 26 16 23 17 30 16 14 20 17 17 16 24 18 24 17 30 21 21 25 21 27 18 23 19 23 15 16 25 26 18 23 14 20 21 19 20 32 17 23 20 22 12 27 26 23 17 22 21 28 20 20 21 28 20 19 19 25 25 21 17 19 21 20 20 19 27 15 13 21 21 16 28 24 23 23 17 17 20 18 10 19 25 32 20 20 20 18 12 25 20 21 15 26 16 21 19 22 19 20 21 24 25 17 30 22 19 20 26 16 17 26 18 17 11 23 25 22 20 27 17 20 19 22 18 23 21 24 25 17 25 24 27 25 28 19 19 21 17 16 19 30 32 27 23 14 21 25 23 22 16 18 18 19 20 23 19 20 20 12 18 22 24 25 26 22 25 15 20 28 26 21 23 18 22 26 21 22 22 17 20 14 23 20 23 21 14 19 23 25 23 12 25 21 25 26 17 18 18 11 29 17 20 15 25 23 22 28 15 20 20 23 20 19 22 33 15 18 33 22 22 19 18 20 25 26 23 25 19 23 30 28 32 24 24 23 23 19 20 21 23 22 19 21 25 25 22 19 18 21 17 23 19 19 25 22 22 32 24 19 18 16 18 25 24 22 19 22 21 21 15 21 22 30 29 16 12 23 14 20 20 22 25 27 25 21 23 21 26 19 20 19 21 20 21 26 15 15 22 23 23 23 30 19 16 16 20 19 17 27 19 21 23 24 23 26 23 30 27 26 24 20 15 13 20 22 19 29 15 21 18 19 19 23 16 24 18 32 20 21 16 26 21 19 22 24 23 20 17 23 29 27 22 18 28 20 17 17 21 17 31 25 19 24 17 20 21 27 27 25 27 18 19 24 28 20 18 19 20 27 25 25 23 19 13 11 19 22 19 27 27 24 25 24 25 20 19 24 17 21 20 17 19 30 33 22 18 21 28 21 24 27 19 22 15 16 18 18 22 26 24 18 33 21 24 18 21 23 22 17 26 19 20 25 24 13 25 21 22 17 27 29 17 21 26 21 20 23 26 18 17 24 21 13 23 16 23 19 26 22 18 17 18 23 19 24 19 17 25 20 14 21 21 22 25 19 17 20 17 23 24 21 25 25 18 14 15 23 14 30 24 23 20 22 15 28 28 22 22 26 19 17 25 18 28 24 27 20 28 28 21 28 21 15 20 25 22 31 22 19 17 28 22 18 31 26 18 19 22 22 32 18 26 37 18 20 30 24 24 17 24 17 27 18 17 23 25 22 19 19 21 19 29 18 27 20 14 23 22 26 21 21 20 17 19 24 23 22 19 23 18 24 20 28 22 20 13 26 17 22 28 19 26 29 26 27 28 21 28 16 22 26 25 15 22 18 21 21 22 20 23 25 18 16 16 15 15 21 24 25 26 22 19 22 24 25 20 24 25 18 22 25 19 17 20 29 19 19 17 27 16 23 21 20 19 22 16 18 22 27 21 20 21 21 25 24 20 16 31 34 15 21 26 23 22 23 24 28 22 21 27 20 19 22 21 22 20 28 24 22 19 29 18 21 15 22 20 24 22 28 22 24 26 23 26 22 28 25 20 22 21 23 16 16 18 19 24 23 24 15 25 21 17 16 25 26 20 18 27 23 23 20 19 15 30 18 26 26 23 16 15 22 26 16 24 19 13 20 22 14 22 17 25 21 21 19 25 23 27 28 29 21 20 23 22 21 23 15 24 23 18 13 21 23 18 16 23 20 16 19 14 22 26 14 20 25 18 24 26 22 32 18 28 24 21 23 23 25 22 23 21 18 21 22 28 26 21 15 28 25 14 22 22 20 28 26 23 24 27 20 20 21 25 23 14 15 22 21 21 26 24 23 24 16 18 27 15 22 17 17 18 23 23 25 18 23 26 24 23 25 17 26 24 25 22 22 17 18 27 16 20 19 21 17 24 20 22 24 22 21 18 17 24 26 22 24 17 19 18 22 23 23 22 18 25 14 22 29 16 17 21 17 31 25 16 14 22 22 22 24 15 29 21 27 30 19 29 21 26 24 19 27 15 24 20 18 16 21 21 21 24 26 26 23 21 26 22 19 22 34 19 19 18 24 21 23 22 24 17 20 25 17 23 23 24 16 24 22 21 26 18 18 20 31 22 25 23 21 20 27 19 22 22 23 23 24 24 26 21 17 22 22 19 30 20 26 22 30 22 21 15 24 21 25 24 21 16 22 20 24 19 24 17 17 24 21 12 19 18 16 23 14 26 21 15 23 20 25 25 22 30 21 21 16 23 22 26 18 18 17 24 24 21 20 26 29 19 20 23 20 21 28 22 21 23 23 17 18 17 21 12 22 20 20 24 24 20 19 22 19 28 19 21 23 25 28 17 23 27 21 17 24 21 24 25 24 25 20 20 14 28 20 20 16 25 17 22 20 28 21 11 20 24 23 18 24 13 16 26 23 20 23 18 23 20 20 23 20 17 20 22 17 16 17 30 17 20 22 25 23 25 22 27 33 24 25 19 24 17 18 27 18 28 23 25 21 19 24 21 29 20 23 26 17 20 17 16 23 16 17 15 26 20 21 22 29 18 17 22 21 27 24 21 19 17 15 19 15 16 22 17 21 22 23 24 16 16 20 22 24 21 23 15 21 19 21 22 27 19 19 22 23 28 17 15 24 27 27 27 26 20 19 22 18 19 23 22 31 21 24 19 21 23 19 24 22 17 22 20 33 20 23 14 22 29 24 18 25 20 11 23 24 19 20 26 27 21 17 24 28 21 16 21 21 28 20 19 15 22 18 24 15 20 26 23 23 13 18 30 26 19 19 14 24 21 19 28 22 21 20 21 27 16 27 23 19 25 21 26 14 15 18 19 33 19 17 25 10 23 25 19 27 19 14 21 20 23 23 17 26 26 21 23 24 26 25 19 25 20 26 26 25 12 26 20 22 28 21 23 25 19 23 21 23 16 24 18 20 23 20 23 26 16 17 19 27 29 25 23 17 23 26 20 17 14 24 19 22 18 21 23 22 20 21 19 24 21 22 22 20 16 21 21 21 24 29 19 28 18 19 23 22 21 21 15 24 21 14 19 15 23 33 25 19 15 29 29 25 22 23 30 25 21 19 27 25 20 19 22 19 31 28 16 27 18 17 25 20 20 27 22 18 17 24 22 21 15 20 26 29 17 22 18 21 20 27 15 19 21 24 16 18 26 24 23 14 26 17 22 23 22 23 21 33 21 17 27 18 18 15 22 22 17 25 23 25 15 19 22 17 22 22 22 21 27 25 25 27 23 18 22 32 21 24 26 17 22 26 25 25 20 23 18 22 27 23 18 21 19 21 23 20 13 28 22 15 23 27 24 22 27 16 23 17 18 23 24 22 17 23 21 20 19 20 20 24 19 21 22 15 24 18 18 27 22 26 19 28 18 21 24 22 19 25 19 21 21 22 20 31 21 15 22 24 25 20 25 24 17 25 26 26 30 27 26 31 22 20 16 15 23 24 22 31 21 23 25 21 18 20 15 23 18 26 18 22 21 23 26 24 28 29 23 26 21 21 22 17 26 31 23 21 20 27 29 20 30 18 24 14 21 22 21 21 25 21 19 24 24 29 19 20 21 27 12 23 22 25 19 23 17 12 28 29 28 14 24 29 19 17 18 19 27 14 28 24 18 21 23 22 23 22 29 19 16 19 22 23 28 26 23 29 22 17 25 19 17 16 22 18 33 22 26 28 15 26 23 22 20 24 22 19 19 16 24 24 19 21 19 22 22 25 29 21 23 23 26 22 21 17 29 14 21 22 21 25 20 30 13 31 22 24 24 19 22 18 33 21 19 18 19 29 20 27 15 18 20 25 14 21 27 17 16 21 22 23 22 16 28 16 22 15 20 27 25 25 30 29 27 18 23 18 22 16 16 19 24 22 28 25 23 21 24 19 16 22 19 22 14 20 25 17 19 19 20 27 18 21 17 20 23 22 17 20 22 20 23 20 22 29 21 23 22 29 17 19 26 27 20 22 26 24 24 23 16 21 17 16 22 18 24 25 21 21 29 17 18 16 24 30 21 22 24 24 31 20 23 20 24 21 23 25 21 22 25 14 14 19 21 27 16 27 13 22 27 18 17 18 23 22 15 14 20 17 26 25 23 21 20 14 27 19 21 21 22 26 22 13 18 18 21 26 17 26 23 19 20 20 23 22 17 32 21 23 28 24 19 19 18 24 19 28 22 22 22 27 18 20 24 16 22 16 20 29 23 16 15 21 19 22 21 17 18 20 19 16 18 33 26 19 23 23 14 27 21 21 27 18 30 21 21 33 26 27 17 27 26 23 19 21 26 22 24 27 23 23 17 21 27 18 28 26 27 27 22 19 18 24 18 24 14 25 26 16 23 20 17 27 22 27 23 22 19 22 26 13 21 16 16 18 22 18 20 23 25 19 18 26 21 15 23 19 16 18 22 20 18 15 21 21 19 24 18 25 26 16 20 21 31 26 12 25 16 24 20 27 15 21 25 21 21 22 22 25 19 17 21 27 16 22 14 22 22 20 18 16 22 26 18 22 22 18 22 21 22 20 14 27 23 17 22 16 19 26 14 18 23 19 23 14 20 24 18 29 25 22 22 27 16 15 26 30 8 21 27 11 28 20 21 18 18 17 24 17 15 15 23 21 26 9 22 21 19 17 23 18 28 26 24 19 18 28 19 21 32 15 20 17 28 16 27 26 18 18 22 19 19 22 28 23 26 22 28 27 27 20 17 25 23 21 17 17 22 23 17 14 23 26 19 22 17 24 32 26 15 17 11 27 19 20 22 34 17 21 23 22 28 20 18 16 21 19 26 16 18 23 16 25 24 21 30 27 19 27 20 26 24 23 28 24 18 21 21 28 21 21 21 25 19 27 20 23 19 25 25 24 27 25 19 27 22 19 16 20 33 20 21 24 30 17 27 20 23 26 22 22 27 25 26 26 23 24 24 25 23 12 22 23 22 20 23 21 25 21 31 22 18 17 21 20 20 20 18 24 31 26 16 20 27 18 16 19 27 18 21 24 31 25 18 23 23 29 16 17 20 17 21 18 32 15 25 19 25 20 22 15 21 17 32 23 25 26 25 22 25 23 23 21 26 25 25 25 19 22 20 20 26 18 20 27 18 23 15 32 24 21 19 13 30 18 18 21 26 26 24 30 16 19 24 19 22 17 22 20 23 22 16 26 21 23 25 22 18 23 19 25 17 12 23 22 19 24 24 30 24 24 21 23 18 23 21 20 25 17 21 23 16 29 26 21 22 23 17 16 23 23 21 21 22 17 21 18 10 13 22 21 17 21 27 23 21 20 29 19 21 19 25 30 20 23 19 16 21 16 23 22 20 27 20 25 23 22 22 21 17 26 15 20 24 22 27 14 18 18 19 27 23 24 22 16 20 18 24 12 15 20 16 23 16 19 28 22 27 21 20 29 20 18 32 28 22 13 19 18 25 28 19 22 23 22 24 17 18 9 26 23 22 17 23 27 19 21 20 16 16 16 20 19 14 23 20 18 22 21 22 28 23 25 28 27 18 22 11 19 15 22 23 20 19 26 21 16 21 20 21 20 25 20 14 27 22 18 27 27 22 24 30 21 18 23 23 25 24 16 21 21 26 22 22 19 21 14 24 27 22 21 19 21 24 22 25 24 18 18 19 22 17 18 14 22 20 21 22 19 19 26 16 22 22 25 22 23 21 22 26 14 21 19 25 27 16 18 25 20 22 22 21 28 23 26 17 14 22 27 23 24 21 27 27 26 24 24 22 23 20 24 19 20 24 20 20 22 24 26 15 20 22 23 21 19 19 25 24 19 16 25 19 20 25 26 15 33 25 27 22 24 18 21 17 18 14 13 24 23 29 27 18 25 24 22 19 24 24 22 20 22 33 26 24 28 25 17 20 21 25 24 19 21 21 15 19 24 20 16 21 16 19 23 15 23 23 21 21 21 24 19 24 20 23 21 22 26 16 23 16 26 14 16 23 16 26 22 23 20 28 22 21 30 23 21 20 25 22 18 22 21 31 22 18 19 21 30 31 21 21 19 17 25 21 28 25 18 17 26 28 23 30 20 24 31 25 20 12 21 24 19 19 23 22 19 24 25 26 21 25 28 18 22 22 19 15 25 20 24 20 16 22 22 25 17 20 23 17 30 21 28 20 23 15 15 27 25 31 21 26 17 28 20 26 23 20 25 18 28 23 26 19 23 20 25 27 21 17 26 23 18 21 24 22 24 18 26 18 22 16 23 12 22 22 22 29 27 24 29 22 18 23 24 20 18 25 25 33 24 24 31 19 18 25 24 20 24 19 27 22 25 24 21 22 24 21 24 23 20 22 20 33 15 29 22 15 24 23 12 28 20 17 20 24 23 17 23 19 15 27 16 36 20 21 21 20 24 31 26 14 21 26 22 24 22 26 19 17 13 23 21 21 20 21 14 16 26 26 28 19 28 19 19 20 20 21 24 18 27 26 15 28 18 25 25 22 32 21 20 19 13 21 27 20 28 29 22 22 24 25 23 29 28 22 20 20 26 21 16 34 29 16 18 20 18 20 27 21 23 18 22 24 28 18 22 26 26 15 19 24 27 26 23 18 14 23 24 19 10 20 15 28 23 29 19 18 21 13 22 24 19 20 19 18 20 22 22 22 17 20 26 25 24 22 25 11 20 29 26 18 17 23 21 27 17 25 29 24 20 17 32 25 25 19 21 22 20 21 25 18 20 20 25 19 37 24 24 13 21 20 20 24 19 18 19 23 21 17 20 25 20 18 27 18 17 23 22 23 24 21 21 23 30 19 22 25 19 17 22 20 27 22 19 21 18 17 22 26 19 20 22 29 26 25 16 20 20 18 30 30 23 20 21 21 15 24 22 21 16 17 25 22 19 8 12 20 20 18 29 17 25 26 19 18 21 16 13 21 23 20 21 20 24 12 28 20 19 15 18 29 28 19 17 17 17 19 20 14 20 18 27 25 16 11 22 24 19 19 21 26 20 21 21 22 22 19 24 23 22 19 21 30 16 16 24 24 23 25 26 35 20 33 23 28 20 19 15 24 19 35 17 19 25 24 15 20 18 21 17 19 19 26 24 13 17 17 26 22 24 20 20 22 19 19 21 20 23 24 23 19 28 17 27 16 17 18 22 26 16 15 24 24 17 15 25 28 24 19 17 20 14 20 27 19 15 21 19 26 15 22 24 19 19 17 22 21 25 28 17 25 19 21 24 16 21 25 13 17 16 18 28 22 26 22 16 22 19 20 17 29 21 24 24 20 21 21 19 16 26 24 23 24 27 30 18 22 19 20 17 22 24 24 28 23 27 18 20 22 21 15 23 21 33 22 11 24 34 20 15 22 22 19 17 26 19 18 23 11 22 25 29 23 28 27 18 18 20 17 26 20 24 28 32 19 22 25 31 15 17 22 30 25 20 17 25 24 25 28 23 21 12 14 28 22 17 29 26 24 26 19 12 18 19 24 18 15 29 19 17 24 27 20 33 20 21 19 23 22 23 23 24 29 29 20 16 22 26 17 13 17 20 33 25 18 23 18 21 24 23 20 18 16 27 23 25 22 20 21 24 12 19 17 23 26 26 29 20 20 14 22 21 18 21 21 19 23 22 24 17 22 26 19 19 18 19 15 25 15 17 21 25 18 26 25 22 21 19 20 22 20 22 17 23 23 22 22 26 16 18 21 26 24 16 24 24 22 19 16 20 15 20 18 19 18 13 25 20 23 14 26 22 28 25 24 15 28 21 21 21 17 19 27 22 18 19 25 30 23 23 20 21 23 23 26 19 26 20 22 17 26 21 30 15 22 31 21 26 24 15 21 23 18 17 26 22 17 26 21 20 26 26 26 23 27 23 21 21 14 24 17 21 19 23 16 24 22 20 19 30 21 24 20 27 18 15 26 24 19 27 25 20 18 24 21 25 22 18 25 19 18 16 21 22 18 21 23 16 20 23 19 19 17 26 21 20 24 24 22 32 19 15 25 17 28 30 22 18 20 16 18 28 26 21 23 22 15 27 16 23 22 20 22 22 16 18 27 17 18 31 26 27 26 20 28 15 18 20 25 27 33 18 25 22 24 21 22 25 23 20 21 21 19 33 23 25 20 20 19 19 22 22 24 19 18 23 20 25 20 18 21 24 23 20 23 23 20 23 26 17 21 29 23 25 27 16 17 25 23 23 19 25 19 21 23 26 28 26 19 19 31 23 23 20 23 21 20 20 23 29 26 15 21 20 26 29 21 24 18 22 32 16 22 29 15 16 28 22 17 20 25 25 26 22 26 18 24 17 27 12 21 18 32 25 20 22 23 14 24 23 22 27 21 23 28 23 28 20 20 20 27 16 31 21 20 13 25 16 27 27 22 21 27 19 19 26 30 30 18 26 9 19 14 17 25 19 22 32 23 21 21 18 16 13 24 23 24 19 27 24 20 21 16 24 22 27 29 20 23 25 19 29 21 25 22 24 15 22 14 24 24 13 33 16 21 28 20 28 28 17 24 23 15 32 24 27 27 28 24 15 15 19 19 27 17 17 23 26 25 18 16 14 20 24 22 24 24 17 17 22 25 22 16 17 28 14 21 21 25 23 23 20 30 15 24 20 25 22 22 19 18 20 18 21 28 24 16 24 22 23 23 27 17 26 21 23 27 23 18 19 22 21 26 17 33 26 24 17 16 17 24 15 18 24 20 19 24 25 32 26 22 20 23 23 22 18 18 28 20 12 17 23 25 18 25 22 16 15 18 21 23 26 25 15 16 18 21 22 23 21 21 20 24 14 24 25 19 16 17 24 17 21 18 20 17 19 23 17 24 27 26 23 20 23 24 17 26 18 29 21 23 22 22 23 21 23 22 25 18 19 28 12 19 22 21 21 22 15 33 24 21 24 25 17 29 27 18 20 24 21 18 23 18 19 18 19 24 18 20 17 23 11 17 17 20 17 27 27 26 27 21 17 27 29 14 26 15 20 17 15 27 25 23 16 21 22 20 29 24 12 24 19 29 28 28 17 20 17 19 19 23 19 19 25 22 21 30 14 17 20 25 17 27 17 22 25 32 10 17 20 15 17 17 24 17 26 19 18 14 26 19 25 18 20 23 18 24 19 16 20 27 28 16 20 26 19 19 27 20 29 19 19 18 26 18 21 25 27 31 29 26 24 28 25 22 21 26 24 17 24 23 17 26 29 19 21 19 37 30 22 22 14 25 24 15 21 13 15 22 18 27 27 21 28 21 34 34 12 27 17 23 26 20 23 27 18 18 20 20 18 24 25 27 19 23 16 20 13 19 28 24 20 23 18 19 19 20 26 23 24 22 16 19 24 24 21 23 26 21 20 19 22 22 15 20 23 16 22 25 27 19 16 19 16 31 17 18 22 17 14 21 23 24 22 28 25 18 13 21 14 22 28 21 24 27 17 23 25 23 18 23 30 25 16 25 15 20 30 22 20 24 23 17 23 16 15 18 18 22 20 20 18 14 18 13 22 12 20 28 15 17 20 28 26 21 22 25 19 14 23 18 21 29 25 20 27 26 25 22 12 25 22 22 21 23 21 20 16 21 19 18 20 24 15 19 25 24 30 30 25 13 24 24 16 26 23 31 22 21 15 17 27 23 19 28 24 22 17 15 25 21 21 12 25 20 26 22 22 23 23 21 20 23 24 23 20 15 23 28 16 28 23 14 25 23 20 20 19 20 12 19 21 26 27 29 20 24 18 24 13 18 25 26 27 34 16 23 21 28 15 12 25 20 22 21 26 17 19 28 20 18 18 20 21 18 25 20 25 20 18 21 20 22 28 21 28 26 28 27 20 25 24 26 14 21 24 22 21 18 15 24 23 22 18 26 15 22 20 23 20 24 21 18 28 25 24 16 19 23 24 16 20 23 27 31 15 18 24 25 22 23 15 22 24 21 21 21 24 23 20 20 21 19 21 18 17 18 27 26 18 26 18 24 21 21 17 25 24 16 23 25 19 21 16 18 21 25 19 22 18 28 16 13 18 23 16 22 26 24 25 16 24 25 20 21 13 23 22 22 23 23 16 18 24 21 23 19 25 18 27 19 29 15 28 22 20 12 14 16 20 16 13 24 23 27 26 12 30 22 19 21 19 19 23 20 24 16 20 26 18 20 27 24 22 26 16 20 18 22 22 21 18 20 22 22 13 28 22 16 26 17 29 20 23 12 24 18 23 16 17 19 30 25 22 12 21 24 29 21 26 24 16 23 26 23 21 19 27 17 22 21 24 20 24 16 17 17 21 23 17 22 20 23 20 19 17 18 25 15 17 27 20 24 31 23 26 18 25 25 21 21 25 25 27 30 25 28 20 15 19 11 15 26 25 25 19 22 26 13 28 32 25 22 21 18 19 21 16 26 30 24 25 17 16 27 23 14 21 21 17 27 20 20 21 21 17 21 21 15 18 22 26 24 17 25 18 25 24 25 20 24 22 22 14 25 26 15 24 23 24 27 17 26 31 32 17 21 20 20 20 19 22 18 20 22 25 23 20 17 15 24 24 21 25 17 20 19 21 16 21 20 16 22 19 25 27 22 18 19 18 25 17 27 25 16 19 21 24 21 23 22 20 25 19 24 22 15 21 20 26 28 15 25 23 12 17 27 18 21 18 22 29 23 17 25 24 17 21 17 20 20 23 25 19 26 22 20 17 20 23 20 20 27 28 18 26 24 26 17 17 26 23 19 26 22 17 27 14 20 17 16 19 17 25 14 18 26 24 23 22 26 23 23 21 24 19 25 27 19 21 17 25 25 21 25 29 19 29 22 23 22 19 17 28 23 26 21 18 21 23 25 27 29 20 23 21 20 25 27 24 19 26 20 21 20 19 19 14 26 22 25 20 18 19 18 13 21 21 21 23 22 18 25 15 23 25 19 22 23 27 29 24 25 23 18 19 28 29 23 23 16 19 28 27 20 25 17 16 24 21 26 24 26 20 16 23 26 21 22 15 21 27 28 27 23 14 19 17 32 24 18 19 23 17 20 25 20 17 18 24 25 17 24 15 19 23 17 22 22 26 31 21 23 24 23 30 21 27 18 17 19 20 27 24 18 29 24 20 23 23 20 21 21 18 21 16 20 23 15 23 16 30 21 24 29 28 26 20 31 20 23 16 22 24 16 22 20 22 23 19 27 16 20 26 31 17 20 27 20 19 23 17 20 24 20 24 25 21 23 26 20 26 24 26 20 26 22 17 24 20 22 21 13 22 26 24 18 19 22 26 26 18 17 20 21 26 26 19 21 18 17 25 25 21 28 28 19 33 18 25 22 24 25 21 18 37 20 20 18 15 25 23 24 17 15 25 24 15 24 17 26 13 21 22 24 22 15 25 24 28 23 26 20 31 13 28 17 27 18 17 28 37 20 26 25 24 24 23 28 25 23 25 22 25 25 20 20 26 24 22 20 19 26 26 18 22 29 23 16 27 22 15 20 25 27 23 13 20 21 24 18 27 22 23 24 26 28 20 22 18 21 27 20 16 22 20 24 18 22 20 20 19 19 29 28 22 24 20 22 18 20 20 16 22 23 20 25 12 15 19 18 20 21 20 22 23 12 19 21 26 20 17 30 17 22 21 20 16 19 26 22 23 25 23 13 22 21 14 20 24 22 19 15 14 25 23 28 24 21 28 21 24 22 24 23 25 15 29 21 17 25 29 21 19 23 20 18 20 17 24 24 11 16 24 20 18 24 16 21 22 25 18 18 19 24 25 23 29 27 25 22 17 18 23 20 15 21 25 22 23 21 28 32 24 22 22 17 29 15 19 22 25 19 23 16 22 28 24 25 26 22 25 25 20 26 27 20 27 19 19 25 20 29 29 24 21 21 27 24 26 26 22 20 21 25 23 19 15 22 29 27 22 25 17 28 25 24 22 18 29 17 28 23 23 12 19 20 22 15 26 22 19 23 13 24 16 28 21 13 24 23 22 22 27 15 25 17 18 22 19 14 20 22 18 17 18 16 29 21 22 14 15 20 23 25 12 16 29 30 22 23 20 23 27 23 32 19 20 15 25 19 25 21 29 29 17 15 30 28 26 19 19 27 24 27 26 20 20 22 22 23 20 20 29 20 30 21 28 25 18 22 24 17 25 23 25 36 30 20 30 20 21 23 18 24 17 24 25 21 20 16 30 18 24 31 31 15 21 16 21 22 25 20 29 20 15 22 22 23 22 21 28 15 19 21 15 21 16 24 29 18 21 25 20 22 26 21 23 19 27 22 21 28 24 22 19 18 19 28 25 21 17 21 18 27 26 27 20 17 29 27 25 26 22 22 21 25 26 20 23 19 15 19 29 24 22 26 26 19 26 29 26 17 19 20 22 20 20 22 21 19 14 21 22 29 18 24 20 24 28 24 23 18 24 20 18 26 22 20 18 22 21 27 20 22 28 27 17 18 13 21 18 22 22 25 24 16 20 26 17 21 22 22 26 29 19 24 15 28 21 17 18 13 17 18 19 21 24 25 25 18 23 25 26 32 14 28 18 16 27 22 20 22 29 19 23 17 22 27 27 26 22 28 14 18 23 22 27 23 23 24 22 21 25 27 27 23 19 21 26 24 18 27 18 20 31 29 24 26 19 17 22 26 20 23 18 22 22 28 25 20 20 22 19 19 29 30 31 35 19 26 24 21 16 19 26 20 17 18 22 20 27 23 17 30 17 23 25 25 19 28 25 21 20 21 19 18 18 16 21 25 22 24 26 22 23 26 21 12 23 24 26 16 24 17 24 31 21 29 17 25 25 21 22 22 23 20 20 21 31 20 21 19 21 27 22 25 19 22 13 19 29 28 20 15 17 24 19 13 25 23 20 22 20 21 22 22 19 30 18 20 19 27 23 31 21 26 17 20 20 21 13 16 18 17 22 22 18 24 23 21 26 22 25 18 24 20 20 27 20 23 26 27 18 30 17 17 25 22 17 19 23 21 23 26 18 24 22 27 16 18 22 24 19 22 22 16 15 30 12 24 21 23 21 27 18 20 28 22 21 17 13 25 22 21 26 26 31 23 31 29 21 27 24 24 18 25 18 21 23 22 29 29 21 29 13 26 17 18 30 18 20 16 22 22 18 26 26 25 27 23 30 27 17 27 13 23 23 23 30 17 20 15 19 23 19 23 26 20 18 23 20 19 22 13 15 19 18 18 21 25 28 24 19 18 24 20 22 20 20 19 22 25 26 15 22 17 28 20 16 13 19 22 24 23 21 19 27 21 19 30 13 12 18 25 26 25 20 18 26 23 26 18 25 19 33 18 19 19 22 24 25 25 23 26 22 26 23 19 28 27 20 18 33 19 17 21 19 16 23 17 19 26 20 20 23 23 20 29 20 24 23 20 28 20 25 19 24 27 27 21 19 25 20 24 16 16 16 27 18 23 18 27 29 27 29 19 21 22 25 12 25 23 19 23 25 24 20 19 22 17 18 18 18 24 19 23 22 22 27 21 26 20 21 17 21 21 14 16 19 16 25 24 17 25 20 17 31 18 21 27 35 12 26 24 18 25 27 26 22 23 21 24 18 23 25 24 17 21 19 23 19 29 31 27 25 22 22 24 21 18 18 18 23 17 24 24 22 22 16 17 20 19 25 25 20 25 24 22 29 18 19 22 19 25 32 25 22 18 20 18 20 25 22 27 26 29 24 15 19 24 29 25 24 17 25 22 15 24 19 28 24 17 18 17 25 25 22 22 19 25 21 19 25 22 25 19 22 18 26 23 19 28 17 25 25 24 30 21 23 21 29 17 24 24 32 25 27 26 18 22 17 19 22 16 23 16 20 25 26 22 19 24 19 30 25 20 23 23 18 23 24 20 22 15 21 18 20 20 18 18 18 19 15 19 23 22 12 26 22 17 18 24 28 17 19 30 25 27 14 25 25 22 24 27 22 21 18 25 21 18 17 17 25 18 21 34 19 16 22 23 25 24 14 22 16 19 27 27 27 24 17 20 20 25 17 25 18 32 25 27 23 26 29 15 22 26 28 23 26 21 14 22 22 26 20 18 19 13 14 23 16 19 31 20 23 21 19 24 31 21 25 21 26 14 22 31 20 24 21 22 22 26 15 20 31 20 22 27 23 18 27 21 21 21 14 22 14 16 27 26 28 25 30 22 20 26 17 18 21 17 23 19 26 23 25 20 29 24 24 24 24 20 24 23 17 26 18 19 23 21 25 26 27 26 24 28 16 23 19 28 20 19 15 28 16 30 23 25 21 21 22 22 20 24 30 22 26 23 16 21 23 24 22 21 25 19 25 11 15 16 24 23 16 18 22 25 21 24 17 17 31 24 23 19 21 28 18 24 18 22 27 20 29 25 24 23 22 23 26 23 23 21 21 20 24 25 17 18 29 16 19 18 20 30 20 23 27 16 16 22 23 24 26 22 21 19 29 19 14 18 22 30 15 19 21 24 24 15 28 19 21 24 25 15 20 23 18 18 20 27 23 23 20 26 26 22 30 20 27 23 17 27 32 20 26 24 23 27 19 15 21 22 20 22 18 24 16 23 16 29 25 30 24 35 21 20 12 22 17 20 23 20 19 18 20 22 18 21 17 18 28 23 25 21 22 16 21 19 26 23 26 17 20 19 22 18 16 23 27 20 26 24 19 24 19 15 19 22 23 24 16 21 21 12 16 26 15 26 25 20 22 21 15 31 18 18 27 20 19 25 22 19 20 18 19 30 15 20 22 25 20 22 27 21 20 28 26 23 23 19 20 17 24 21 24 17 25 21 19 25 31 23 24 20 21 26 19 14 18 28 30 26 29 25 18 18 21 21 16 26 29 22 24 16 22 22 26 15 25 17 23 19 27 18 19 18 23 21 24 21 21 21 24 39 24 23 25 19 18 16 17 22 25 21 19 15 21 25 16 21 10 16 15 18 24 22 25 23 20 21 26 24 25 22 16 28 23 24 23 17 26 13 19 19 28 26 23 21 17 27 25 22 23 14 23 28 23 27 22 17 14 23 18 20 14 20 21 34 25 22 17 25 19 14 25 25 34 18 24 29 21 20 28 20 26 19 15 22 14 19 19 20 30 23 22 22 22 23 19 21 27 17 18 20 22 27 17 23 20 16 26 24 19 16 20 24 23 23 28 21 21 19 22 28 29 19 28 27 28 25 14 21 34 13 26 23 17 19 20 26 29 22 25 19 25 30 22 19 23 23 24 24 19 13 17 23 25 17 27 25 28 21 22 24 26 18 23 17 16 25 17 21 17 26 18 24 17 21 23 25 24 26 22 21 18 29 14 19 31 21 28 29 21 17 24 22 23 25 23 16 16 27 17 24 26 18 18 16 22 21 19 18 23 26 17 26 22 23 29 23 28 23 27 26 21 18 24 21 20 22 25 26 18 22 20 33 24 19 20 23 28 25 23 15 24 20 22 29 24 19 20 24 27 24 22 29 24 15 25 17 23 18 17 16 23 14 31 29 16 19 19 21 30 25 22 25 26 26 18 27 32 26 18 22 24 25 14 23 25 19 24 29 28 24 26 26 20 24 19 30 31 18 27 22 20 22 22 24 17 27 18 17 22 22 19 17 23 21 21 12 19 19 23 26 22 21 16 24 24 16 20 12 18 12 30 33 29 13 22 26 21 24 25 20 24 28 26 25 23 28 27 16 18 17 20 29 16 26 17 28 26 15 20 26 28 26 25 16 34 24 23 25 21 20 27 23 23 31 28 27 19 25 14 14 22 27 20 15 24 16 14 19 27 25 24 22 20 20 26 21 23 22 24 18 25 22 21 18 27 20 22 28 23 22 19 25 20 24 28 17 23 23 20 26 30 13 29 20 24 19 17 31 26 21 25 21 21 23 16 24 19 24 19 20 19 16 36 21 22 21 24 18 22 22 28 20 27 18 27 23 33 18 17 21 27 20 24 25 23 24 17 20 23 27 18 18 21 22 22 30 27 19 19 23 29 30 25 32 25 23 21 16 27 21 24 20 23 17 33 18 20 23 29 18 17 23 21 20 19 24 29 19 24 25 21 22 25 20 32 19 23 22 18 31 19 19 17 26 24 27 24 23 19 17 26 31 24 16 21 26 30 20 21 21 16 25 24 19 26 23 13 27 28 28 30 24 26 18 19 23 24 25 17 16 17 19 17 20 22 19 26 24 19 17 21 23 21 26 28 16 18 23 22 12 23 20 16 22 25 19 21 23 9 22 17 23 22 20 26 27 24 24 24 30 21 14 26 23 22 20 24 27 23 29 25 20 16 20 19 22 23 23 19 17 26 19 21 23 17 24 24 23 18 21 17 26 22 25 18 30 20 12 27 18 24 21 21 20 26 22 21 20 15 18 20 22 20 20 15 17</t>
+  </si>
+  <si>
+    <t>JSB(10.197967116132983, 6.579702446184633, -13.3225699873764, 262.00657955996826)</t>
+  </si>
+  <si>
+    <t>29 34 40 32 32 32 36 29 29 29 23 32 27 41 40 31 33 31 38 31 37 43 36 26 36 30 26 36 37 37 26 32 22 34 34 33 21 37 22 40 37 26 40 32 38 35 32 37 38 37 27 39 40 26 32 39 40 26 26 34 33 32 26 29 44 43 29 31 28 38 33 23 33 33 40 25 30 31 37 35 37 34 23 34 43 34 27 35 32 38 43 28 35 45 38 36 33 31 26 21 37 32 37 43 29 28 33 34 24 30 29 23 28 30 40 24 38 39 29 28 38 30 31 27 32 35 39 38 33 32 30 30 40 41 33 42 30 39 36 38 29 46 46 31 24 30 23 28 31 25 44 26 26 41 42 26 30 38 37 35 37 37 30 33 35 35 33 26 33 32 40 48 28 45 30 32 26 28 28 24 24 27 38 22 28 25 29 42 26 28 30 31 27 28 36 31 29 38 33 38 29 31 38 37 46 27 43 24 31 31 40 34 36 29 27 29 28 29 33 34 27 36 34 37 37 26 29 27 26 39 44 27 32 31 29 30 29 30 37 27 35 31 34 34 29 46 34 35 35 33 36 25 30 25 30 32 33 33 40 36 41 27 30 19 34 29 34 25 35 33 33 28 27 30 38 33 29 37 40 26 28 32 21 39 36 36 33 36 40 37 26 32 31 37 28 32 32 28 35 37 25 36 25 37 32 24 31 47 36 29 27 30 32 30 33 35 34 33 38 25 33 44 27 40 32 34 33 32 34 37 35 37 35 36 35 44 31 42 31 38 34 45 23 45 30 28 34 36 32 33 31 30 27 45 22 38 43 32 29 32 36 33 30 35 42 31 27 37 32 28 33 28 39 27 28 35 34 40 34 33 28 33 31 26 30 35 25 36 31 31 38 41 34 35 50 32 41 35 28 37 38 26 24 25 23 36 31 24 33 35 35 32 30 29 26 35 44 31 37 41 31 41 30 25 24 48 46 38 36 29 34 31 50 25 31 30 33 26 29 36 29 29 31 30 39 30 37 35 35 31 29 38 33 32 35 27 41 36 34 35 40 27 43 42 36 35 19 32 34 23 38 44 28 28 37 33 31 27 30 30 32 38 28 34 33 28 32 33 36 35 26 32 32 39 39 35 31 33 36 32 33 30 47 26 30 30 37 33 35 33 31 35 36 27 39 34 39 28 27 28 34 28 29 39 30 44 34 32 25 34 30 27 36 30 32 28 35 40 33 25 29 50 38 35 31 37 38 37 42 39 31 35 41 38 40 27 33 30 31 33 35 38 31 47 25 37 36 26 35 25 43 34 26 34 27 33 41 46 27 32 34 25 32 39 40 27 25 26 44 38 38 24 38 52 31 28 29 33 30 30 35 50 32 32 35 28 34 26 24 24 37 28 44 33 28 39 38 36 25 47 25 38 27 29 32 29 39 35 27 34 37 34 39 28 42 31 29 37 35 32 36 34 29 24 35 30 27 26 30 27 36 41 30 36 27 39 32 38 34 30 33 31 38 41 26 34 25 23 27 42 23 38 29 39 27 31 32 30 32 36 32 27 27 37 28 33 42 31 35 40 30 28 36 37 35 40 35 34 29 37 38 25 34 31 31 37 37 26 32 28 33 35 35 39 32 31 45 36 42 35 36 41 37 20 35 31 33 40 39 29 37 45 41 29 36 36 28 28 35 38 26 40 32 32 31 34 33 26 36 32 31 29 38 41 35 30 31 35 35 30 43 28 35 38 38 34 26 37 27 38 43 37 26 28 32 25 39 30 27 24 30 43 35 23 51 33 33 32 42 26 31 32 30 33 43 39 19 34 34 28 31 32 35 44 25 29 40 27 23 26 35 26 25 32 50 35 40 29 31 30 38 41 30 28 25 36 35 39 35 34 26 30 25 31 36 30 28 34 35 32 38 31 35 36 31 33 33 32 35 41 33 32 38 30 49 33 28 34 29 39 33 27 33 39 26 33 39 29 38 38 36 29 28 40 36 38 32 30 46 39 25 26 24 36 40 25 30 33 30 35 31 29 25 37 30 29 34 28 37 31 32 27 23 30 33 44 34 29 35 31 33 28 33 26 35 40 41 28 41 29 31 23 43 35 35 25 29 25 37 39 32 30 35 20 45 31 35 49 48 39 27 35 20 36 41 31 30 29 31 38 36 32 30 34 28 33 31 35 32 32 30 41 34 30 30 35 43 36 29 24 28 30 21 36 39 32 36 33 32 41 37 24 27 40 26 35 32 46 31 27 29 47 30 32 38 51 33 35 33 24 29 26 28 30 55 37 35 37 32 34 26 30 35 28 36 35 31 27 35 30 26 31 29 28 35 25 37 41 28 26 35 39 38 29 28 31 26 27 47 40 37 42 40 28 39 33 41 34 36 32 42 35 35 34 29 38 35 33 34 34 34 30 29 38 30 28 44 29 30 35 35 40 27 19 43 29 35 44 34 37 34 37 27 36 44 32 35 36 38 38 30 32 36 30 34 33 42 33 29 29 29 33 32 29 35 34 27 37 37 44 43 42 41 29 33 39 24 38 48 44 36 40 30 21 32 37 41 28 41 34 22 34 26 35 29 40 32 35 32 33 31 20 32 23 26 37 27 24 27 35 26 28 33 35 35 26 31 35 37 26 41 26 25 39 32 37 33 27 24 21 39 39 39 36 44 42 28 31 32 29 36 40 23 34 32 29 27 32 36 38 39 36 28 37 34 27 31 32 33 38 33 30 39 27 30 34 53 34 32 38 29 29 31 27 40 33 44 39 40 33 26 41 29 32 32 39 40 45 33 28 26 21 41 31 23 35 27 36 25 37 26 23 32 41 36 47 24 23 24 40 40 33 25 26 28 45 33 32 25 32 33 36 27 40 28 38 37 31 33 44 30 31 39 34 27 27 29 42 26 40 35 30 21 30 35 43 26 38 29 32 39 46 27 28 35 33 42 33 34 33 25 41 39 44 39 35 28 23 28 33 28 32 26 37 44 31 37 22 39 34 32 40 26 35 39 33 26 29 24 29 36 38 38 34 37 37 33 43 26 28 27 31 27 32 33 31 29 36 34 40 32 29 30 35 30 41 49 34 26 28 24 32 29 38 37 37 42 42 20 30 23 32 33 34 25 35 24 25 23 51 20 27 35 30 27 38 27 35 21 29 23 26 38 29 24 32 29 28 33 32 33 32 23 29 37 39 33 26 39 38 33 38 37 33 36 27 30 30 34 51 23 35 40 28 30 35 35 26 37 32 31 37 38 29 23 39 30 38 27 35 33 26 30 40 31 28 51 31 31 21 29 26 33 34 35 24 37 29 45 25 28 53 38 32 35 29 39 34 34 41 26 34 36 27 32 27 27 35 27 30 34 27 27 34 34 36 31 28 38 23 37 28 31 37 41 37 41 35 32 29 31 31 30 34 38 36 28 34 31 34 38 30 39 23 30 39 25 32 22 29 29 37 33 27 30 37 26 34 31 35 31 36 26 31 20 29 28 28 33 26 41 34 45 34 34 29 49 33 30 35 38 35 37 26 28 28 30 33 27 37 40 33 36 43 39 33 33 29 34 34 35 42 37 33 32 32 33 33 32 36 36 30 37 35 35 29 31 30 44 30 23 42 40 34 37 35 29 26 22 38 28 28 28 29 26 27 35 37 30 51 27 23 25 26 30 38 33 39 30 31 35 28 30 43 28 35 37 36 30 30 26 31 24 33 29 41 37 34 35 31 34 34 34 28 31 36 38 29 26 30 35 34 43 38 28 38 33 29 47 45 36 32 40 21 27 22 32 41 28 37 32 32 39 45 36 19 30 29 37 46 32 31 40 50 38 16 39 28 37 29 25 30 19 23 33 39 30 40 29 27 37 26 26 32 45 38 30 35 28 31 42 26 29 29 42 37 34 31 28 27 22 40 31 32 46 22 32 24 35 39 25 28 42 31 31 27 26 28 27 34 25 35 40 34 23 35 31 23 32 26 30 27 27 40 35 37 33 34 33 29 30 34 48 34 36 26 44 32 32 38 35 26 46 27 31 44 37 36 30 31 39 34 25 29 32 40 42 37 30 32 27 45 39 44 34 26 41 18 32 22 33 31 33 47 24 28 40 31 33 28 37 28 32 30 36 32 45 38 37 33 39 28 25 40 33 37 32 32 31 34 34 33 25 27 43 35 30 28 35 28 33 29 35 37 33 36 24 32 42 25 32 39 28 33 29 25 36 41 45 33 27 32 44 32 28 34 26 33 33 30 31 28 25 20 30 39 30 35 27 16 30 29 42 26 26 38 35 31 29 47 33 41 31 36 33 26 34 35 44 30 33 30 45 25 29 27 24 42 34 32 18 46 35 30 23 28 33 30 36 30 29 38 36 37 32 33 35 22 37 33 34 32 38 36 29 34 26 26 33 35 30 38 32 40 32 43 26 35 44 26 27 26 31 25 36 37 37 34 30 33 33 49 32 37 31 34 35 37 36 27 26 28 34 30 33 33 37 38 36 28 29 22 47 35 35 30 35 50 37 25 29 35 24 44 34 32 31 29 35 43 39 28 37 29 40 37 35 39 31 31 38 34 34 34 28 29 38 24 46 30 32 23 31 42 31 30 38 38 27 26 38 28 39 32 31 31 49 39 28 34 40 28 37 33 32 26 29 34 27 29 39 28 23 26 34 29 31 42 38 31 39 34 40 29 28 27 39 36 37 31 37 28 20 36 25 32 39 29 33 34 39 37 32 26 33 29 35 33 27 33 28 33 42 37 33 39 30 41 44 29 35 30 30 26 32 33 28 29 38 24 50 39 37 37 42 31 30 26 38 32 33 30 33 34 34 45 41 36 33 39 29 30 22 42 30 45 30 27 27 39 29 21 25 26 31 29 36 27 32 48 32 30 22 30 32 36 33 31 35 48 29 37 38 34 31 29 43 27 31 35 32 30 36 36 33 30 31 38 37 40 36 38 36 39 28 29 34 37 42 47 40 41 34 26 39 37 29 35 22 31 46 26 37 37 33 38 37 29 25 33 32 31 43 40 27 46 36 31 29 39 44 42 35 32 53 24 35 30 31 36 26 39 29 27 34 25 22 35 16 49 41 25 43 36 37 26 37 39 24 28 34 31 29 29 27 34 28 37 42 32 33 34 42 35 31 33 28 33 35 29 28 33 28 20 28 32 39 27 34 40 37 27 28 33 42 33 35 23 41 45 31 27 24 36 33 30 22 32 29 39 27 36 30 35 27 28 36 30 32 32 33 26 28 37 35 30 41 28 42 32 38 28 31 40 33 41 25 39 31 24 26 28 33 37 24 30 34 36 31 31 32 28 31 35 29 44 34 26 34 42 37 28 35 49 31 36 29 35 31 48 33 44 29 28 27 39 42 24 31 37 35 35 23 21 34 32 31 41 38 32 38 22 32 31 43 33 27 40 36 40 33 32 22 46 24 31 31 32 31 31 36 42 40 36 38 30 32 28 53 31 32 42 29 40 27 29 25 28 40 37 32 45 33 30 22 28 22 30 39 32 38 40 39 21 41 35 29 25 34 33 32 24 35 27 34 21 26 28 52 44 30 27 30 31 23 41 28 28 29 34 25 31 36 31 31 23 26 33 28 46 38 36 36 25 25 32 29 26 35 34 28 31 34 42 34 34 33 26 23 36 56 36 29 35 32 25 34 29 30 37 33 36 26 31 37 40 31 24 35 28 35 39 30 34 25 37 25 39 36 29 26 35 28 41 26 39 32 20 32 29 33 28 34 49 30 34 28 30 33 36 27 38 46 42 46 38 46 36 27 37 38 38 27 26 32 39 30 33 35 29 36 30 38 31 40 21 26 23 23 34 37 33 37 34 36 28 30 35 38 45 31 34 40 29 37 31 34 18 40 26 30 35 36 33 29 32 22 33 30 25 25 31 34 23 49 33 32 29 26 31 34 27 23 35 35 37 32 26 26 22 41 33 30 43 30 31 29 36 38 33 34 31 32 25 25 28 41 35 36 31 45 37 33 33 33 34 42 38 36 46 36 35 40 29 26 49 39 27 30 43 30 43 36 21 43 28 41 30 30 26 28 42 25 39 31 27 37 28 35 25 32 39 33 35 29 30 22 38 32 31 40 32 33 32 35 37 43 36 39 37 32 32 30 33 24 37 35 42 27 29 28 38 48 42 28 33 34 34 29 34 36 40 25 38 31 31 35 29 21 28 30 38 21 33 31 43 33 36 31 32 37 39 34 29 34 35 32 24 30 32 43 38 35 34 31 46 30 26 30 38 30 24 31 28 34 37 34 25 36 29 30 32 29 37 45 27 27 21 31 53 38 37 28 32 31 37 41 28 33 29 40 27 21 23 41 24 27 36 29 35 27 48 28 30 33 25 35 29 43 24 32 25 24 36 47 26 29 26 27 29 27 25 43 27 38 30 36 17 33 44 38 28 34 35 42 26 34 32 37 29 30 32 33 31 34 27 28 35 30 26 28 43 21 22 33 35 25 39 36 36 37 22 34 29 26 21 30 34 47 31 31 37 30 19 32 25 32 25 34 27 31 29 42 35 29 26 35 34 30 38 30 27 30 40 26 24 38 30 27 21 40 40 31 34 41 27 31 34 35 30 30 30 29 42 26 30 35 39 34 35 23 24 31 30 27 28 41 40 35 37 23 25 33 35 30 27 38 31 33 32 28 32 28 30 29 30 38 37 36 41 29 44 28 30 42 35 26 30 31 29 34 31 29 34 27 27 29 31 30 39 35 29 34 41 33 41 21 34 25 43 33 22 26 28 29 42 29 28 23 32 37 35 42 27 34 25 29 34 27 33 45 31 28 42 39 28 34 32 32 41 33 31 33 31 36 47 38 38 32 41 38 33 26 35 30 37 29 30 28 35 38 31 31 32 32 23 35 31 30 47 31 28 42 29 30 26 31 30 42 30 32 25 37 29 31 24 30 30 39 37 36 21 39 26 31 27 30 35 37 33 40 35 34 40 29 32 33 42 29 34 36 22 31 27 41 35 29 41 26 24 28 31 29 22 35 27 30 35 32 32 37 32 39 33 41 32 32 25 27 37 32 30 37 28 28 33 24 29 35 29 34 32 57 35 35 34 35 30 34 45 32 40 33 28 36 44 38 34 31 38 28 25 31 38 27 41 32 35 34 38 29 29 38 38 34 37 30 31 39 39 30 32 26 31 31 35 32 41 30 27 25 27 33 30 36 37 35 33 38 37 26 30 32 26 28 27 28 27 45 50 37 30 34 40 27 42 36 26 33 24 24 43 27 26 38 37 32 46 34 37 30 27 33 33 29 38 34 32 39 34 25 38 28 34 32 36 42 26 33 38 28 33 32 39 26 24 34 32 23 36 32 32 30 36 35 26 22 27 28 36 40 30 29 42 29 27 31 29 33 41 32 31 34 31 34 33 36 43 38 27 18 22 34 23 35 42 33 38 28 23 35 35 31 43 36 42 31 40 27 43 38 37 30 38 37 33 39 33 28 25 33 40 43 28 27 26 39 32 27 41 36 34 26 35 27 40 31 40 46 28 29 44 39 38 31 47 26 45 27 30 28 37 31 32 30 30 30 40 29 48 28 20 32 44 37 29 31 26 29 37 34 32 30 22 38 27 31 28 40 34 28 28 35 31 35 40 26 40 45 41 43 38 30 38 23 30 48 34 27 39 28 33 33 40 35 36 34 29 23 29 29 25 26 43 33 35 32 38 38 32 36 29 35 39 31 36 40 33 30 30 41 30 24 33 38 27 33 36 29 34 33 26 30 29 42 35 31 33 32 36 38 34 21 42 39 28 33 40 29 31 29 36 34 41 34 52 35 35 29 30 33 31 37 39 27 34 40 27 33 28 38 34 34 34 39 32 34 37 38 33 34 34 37 28 37 29 33 27 31 29 25 32 29 42 24 38 25 32 29 36 36 29 26 38 30 39 31 31 30 41 30 44 35 31 27 41 39 37 33 35 28 23 27 28 19 30 30 35 27 31 31 34 41 40 38 40 30 26 26 36 29 33 24 38 32 31 21 32 32 29 28 34 30 26 32 20 35 41 29 31 35 28 37 36 30 44 27 38 38 37 32 28 40 28 26 30 28 28 34 41 32 32 19 34 36 25 35 32 33 49 43 30 43 33 35 31 28 42 38 24 27 30 35 30 34 35 32 35 26 23 40 26 28 33 26 26 41 38 33 37 32 44 39 36 40 24 44 38 33 37 36 35 31 48 27 27 31 31 35 35 29 37 40 27 33 24 28 31 31 28 36 27 30 25 35 37 26 30 29 35 23 29 41 29 29 35 28 38 34 23 30 32 34 31 36 23 37 28 35 40 23 37 32 34 33 25 38 28 35 27 27 32 29 29 26 36 40 35 32 25 34 31 25 30 48 27 25 34 32 29 33 29 33 36 34 33 27 32 40 30 30 36 45 30 42 29 30 33 41 36 34 35 30 34 40 30 32 29 33 34 32 33 37 32 31 36 34 29 46 34 38 34 38 30 30 27 40 32 41 32 30 26 31 28 35 26 29 21 30 33 32 23 32 26 26 35 25 32 25 37 34 32 36 39 33 44 31 34 28 34 37 35 28 34 34 30 29 35 33 46 39 36 29 39 28 32 32 36 32 40 36 26 30 20 32 27 33 41 33 33 41 30 28 33 29 35 27 33 38 29 43 31 36 38 31 28 32 28 32 36 37 35 26 32 23 41 37 32 30 42 30 43 32 44 31 29 38 36 34 31 36 20 32 35 29 26 43 36 37 32 26 31 37 25 29 42 28 29 29 44 26 34 33 35 40 36 35 40 50 38 34 26 42 25 23 34 32 37 31 38 32 37 35 27 46 33 29 36 31 29 31 27 35 22 28 26 35 31 36 34 48 38 28 29 31 33 30 33 33 26 20 31 27 28 32 22 29 33 29 40 25 31 34 34 31 28 35 24 34 27 26 31 38 35 27 37 40 40 26 28 37 40 32 41 31 32 30 31 31 33 29 36 46 29 30 31 37 36 29 35 38 26 25 27 43 26 35 25 42 36 36 22 35 32 20 33 36 30 30 40 36 34 28 33 42 34 33 35 37 34 31 27 25 32 28 30 21 28 38 35 31 22 30 35 34 25 27 32 34 27 27 33 34 29 28 31 42 27 31 34 26 38 30 36 22 29 35 30 46 27 25 34 26 27 32 35 43 26 20 31 42 32 36 30 34 41 36 33 35 41 36 29 31 32 34 38 37 26 34 33 37 36 38 33 35 31 33 26 38 23 29 33 29 31 32 35 32 25 23 28 40 41 40 35 32 38 40 31 30 21 34 32 29 31 33 34 30 29 31 33 39 29 31 32 30 22 33 40 33 39 47 28 44 26 32 36 35 28 30 26 29 34 22 32 27 34 46 32 31 22 38 36 37 36 41 37 35 34 30 34 37 40 30 40 30 47 39 25 42 31 29 38 24 31 40 28 31 24 37 28 34 28 30 37 40 26 32 27 29 39 45 27 24 28 35 27 25 30 31 34 22 38 33 34 34 30 40 28 42 29 26 37 29 30 25 28 32 30 35 34 33 29 30 36 24 33 30 31 28 41 37 28 32 31 26 37 43 31 35 39 32 31 37 42 41 31 36 32 31 40 37 30 33 29 31 37 29 23 44 29 22 33 40 35 27 33 29 43 21 29 32 38 29 28 31 32 34 37 31 32 33 30 33 31 24 36 27 24 37 36 45 27 37 27 29 40 32 29 35 28 30 29 32 32 40 27 33 29 39 35 32 39 36 35 43 45 41 40 33 32 43 30 31 25 31 37 33 35 44 29 31 32 34 35 31 25 32 31 36 25 31 30 37 36 32 45 36 29 35 35 31 41 27 37 45 33 34 29 50 43 31 43 26 34 23 29 41 35 28 45 31 34 38 32 33 25 29 30 40 22 29 34 38 29 37 27 25 40 43 37 22 40 39 33 30 30 28 40 19 39 40 31 31 30 35 30 35 43 32 28 33 30 37 41 35 28 44 33 32 40 24 32 29 31 27 43 33 38 38 23 33 33 27 32 33 32 25 28 24 36 33 26 30 34 29 40 34 39 39 43 31 36 30 33 27 40 22 30 39 31 34 33 42 27 37 39 35 32 29 30 27 45 34 31 26 28 37 29 42 25 30 29 34 24 31 39 29 26 35 37 33 32 29 46 31 29 25 29 38 36 37 39 37 40 26 32 25 37 30 24 30 34 33 40 29 32 29 28 33 25 31 32 30 23 32 38 29 29 23 38 35 31 32 25 30 28 33 24 35 30 31 38 28 34 35 35 32 31 42 28 29 35 37 34 29 42 42 28 30 23 33 24 23 37 32 35 32 32 35 41 33 26 27 33 43 37 29 38 39 41 30 25 27 38 28 41 34 34 31 37 35 24 34 30 36 25 31 23 33 38 33 23 27 41 29 30 24 28 28 35 37 29 35 25 29 38 28 34 31 32 37 30 19 33 27 29 33 23 41 36 29 30 31 34 34 28 45 27 28 40 32 34 24 27 35 27 41 40 34 35 37 27 28 35 28 33 24 32 45 34 26 25 28 38 36 28 28 24 38 35 35 21 54 35 31 32 26 26 33 33 34 42 24 45 31 39 42 40 31 31 41 37 33 33 30 38 33 34 38 31 28 25 37 40 28 42 37 40 33 29 25 28 37 30 38 20 34 39 27 32 30 20 36 29 36 27 34 27 36 41 18 30 24 27 25 28 28 30 34 41 33 32 33 29 26 34 25 25 31 37 31 26 28 26 36 28 40 23 41 43 25 26 30 48 39 23 40 28 35 28 40 26 30 30 33 30 28 34 39 22 26 34 39 23 29 22 35 30 34 29 25 37 39 27 28 34 28 31 31 31 34 27 36 37 29 35 32 29 37 23 28 32 26 38 24 25 30 31 40 39 34 31 38 18 24 39 48 20 35 41 18 39 27 33 28 28 27 32 22 27 30 39 33 35 20 37 27 32 28 42 29 39 41 37 35 30 36 32 29 46 36 34 27 35 32 36 35 35 29 38 28 32 32 40 28 37 33 36 37 32 36 36 33 26 33 32 26 27 35 28 19 31 41 25 32 26 37 36 38 27 27 26 48 28 29 37 46 30 33 31 27 36 28 38 32 39 32 39 21 26 34 32 34 28 32 39 35 33 38 31 46 32 34 35 35 25 26 30 42 33 39 36 29 29 42 36 32 27 44 34 36 38 38 28 38 37 31 32 38 43 40 32 35 35 33 34 33 39 38 33 28 42 35 39 35 36 35 43 35 35 24 30 39 36 30 32 31 43 30 36 37 28 24 35 26 34 29 28 35 46 39 32 36 36 27 22 32 37 29 31 37 43 31 32 38 37 45 32 26 30 34 34 30 42 30 42 27 33 31 29 25 34 39 41 37 37 35 34 27 37 34 29 32 35 32 32 31 24 33 33 34 38 26 27 41 28 38 28 47 33 31 36 25 44 29 27 40 40 37 38 42 20 37 33 35 37 27 35 31 33 32 26 36 39 34 36 31 27 37 30 34 30 22 30 35 28 42 33 37 34 33 36 35 38 36 35 26 39 29 31 32 24 49 34 35 30 35 28 28 35 29 35 29 29 25 34 27 18 28 30 25 29 31 37 35 35 24 38 29 30 26 38 38 28 36 30 26 28 29 33 40 37 35 28 37 32 31 34 30 30 39 23 34 36 29 36 26 29 30 26 39 43 34 38 21 30 22 31 24 25 34 24 29 26 30 48 30 39 34 31 34 36 34 40 35 31 20 29 30 31 35 29 30 28 30 46 25 28 19 33 32 36 27 38 41 32 32 29 27 24 26 34 32 25 38 25 32 30 30 35 39 35 32 37 36 30 28 22 24 22 40 28 29 22 35 28 33 30 32 28 28 31 34 32 42 32 24 36 35 32 36 40 25 29 32 33 37 36 33 35 37 37 36 36 30 30 19 34 35 39 32 31 32 35 32 31 28 23 24 33 34 26 29 28 32 35 32 31 26 33 42 32 32 31 48 29 28 32 38 48 27 30 31 40 39 23 35 37 37 29 34 28 36 33 36 31 27 37 38 33 33 41 39 44 33 30 37 30 29 29 29 33 38 38 33 30 29 33 35 22 27 36 37 33 28 30 29 28 28 31 44 31 28 35 37 22 50 31 41 30 35 22 32 28 32 26 22 30 28 41 35 34 39 33 31 34 34 36 32 46 41 45 38 35 40 42 24 34 30 34 36 32 35 39 27 30 33 32 23 27 35 30 34 19 36 33 32 37 31 32 25 33 31 30 29 34 40 25 37 21 38 28 28 30 25 37 33 32 28 34 34 32 38 39 36 37 42 31 25 31 27 39 28 26 38 29 36 37 32 30 34 28 33 36 38 31 32 23 38 35 27 41 30 36 40 37 30 15 34 40 30 28 29 30 30 38 42 38 42 34 45 37 33 32 25 34 36 31 38 35 25 29 31 37 32 29 29 31 39 31 44 26 32 22 34 39 43 45 35 34 27 34 36 40 34 30 30 29 35 33 39 28 29 37 42 34 30 24 42 33 27 35 32 32 27 22 39 32 29 32 30 25 34 38 35 42 41 32 38 31 25 32 34 33 28 39 32 45 32 34 45 33 26 33 30 30 37 34 44 29 32 38 33 30 38 34 29 33 26 26 33 47 22 44 37 27 31 33 27 38 32 25 27 40 32 35 43 33 19 39 25 48 30 43 35 27 35 45 36 30 33 37 37 33 29 38 25 31 23 38 33 33 33 32 19 22 37 33 34 26 36 25 30 30 29 29 35 34 43 33 29 35 28 33 38 31 45 34 34 30 25 34 45 36 38 41 30 31 33 44 34 38 30 35 34 29 41 38 32 45 38 25 27 30 26 32 39 31 30 35 33 36 40 28 35 34 37 24 29 32 40 34 34 27 22 28 35 30 20 23 23 40 32 40 31 32 31 28 35 32 29 33 27 22 32 34 37 29 25 29 32 36 36 34 36 17 28 48 35 27 24 34 28 39 22 34 43 29 25 23 43 36 41 32 37 32 30 26 34 26 30 38 39 27 43 37 34 17 30 28 33 33 23 38 28 32 32 25 30 35 30 29 47 29 31 31 37 36 36 30 28 30 36 25 39 39 29 29 32 32 36 33 30 36 35 25 29 36 24 29 31 39 36 36 24 36 33 26 42 45 35 28 25 30 21 32 32 34 28 27 35 31 28 27 27 34 32 26 38 32 36 34 29 26 31 26 28 36 38 28 28 36 35 31 38 33 25 21 37 40 44 31 30 27 26 29 32 23 27 25 38 35 21 28 32 32 31 36 39 38 26 30 30 39 33 26 37 35 31 27 31 39 24 24 34 34 47 36 36 46 36 41 35 39 29 26 22 40 30 39 26 28 32 36 22 29 31 32 32 29 25 45 32 26 27 26 38 28 37 31 34 25 28 29 33 32 31 40 32 32 39 30 42 22 26 40 33 38 30 24 37 37 34 24 43 39 31 31 26 26 25 31 37 27 32 34 31 39 24 39 33 32 31 28 35 30 38 39 33 46 26 29 36 27 35 35 21 29 30 23 41 38 43 33 23 38 29 25 28 41 38 31 29 31 40 31 30 27 39 33 30 40 43 37 26 33 31 28 26 26 40 34 39 32 33 33 32 36 32 21 41 35 45 38 22 38 52 31 21 34 39 29 26 32 24 27 35 22 33 32 41 36 42 35 37 27 31 27 38 38 37 44 38 34 37 43 45 19 25 28 44 36 32 27 44 36 39 42 30 26 24 25 36 37 27 42 38 39 40 32 18 29 36 36 29 26 42 35 32 36 37 33 38 34 32 26 28 32 39 31 44 39 48 29 25 30 38 32 23 30 29 42 35 25 39 36 33 33 32 30 29 30 35 29 35 30 30 28 31 24 31 34 40 38 41 46 29 27 25 37 30 34 30 32 29 36 33 30 27 32 38 28 37 30 23 32 38 26 26 31 35 33 40 35 33 25 32 32 29 32 26 21 35 28 30 30 41 33 28 33 38 39 22 45 29 37 29 19 31 25 34 25 28 27 22 35 35 42 30 36 33 40 32 32 24 39 36 29 31 25 30 34 28 29 30 34 40 32 38 38 31 34 41 38 29 38 40 26 30 41 35 37 26 37 42 31 35 41 25 30 36 30 29 44 33 41 32 37 30 39 39 39 30 52 34 35 27 20 40 26 31 31 34 28 32 39 30 29 46 31 35 30 42 32 27 38 33 39 38 40 31 35 29 32 33 36 29 39 34 29 20 35 32 35 30 35 32 24 41 29 29 26 34 30 28 35 40 28 39 34 25 35 24 38 38 27 23 31 32 30 38 36 29 38 31 27 38 27 29 35 37 36 35 31 29 37 29 34 41 36 41 37 31 42 24 33 38 41 38 47 30 39 35 35 37 27 41 32 31 33 28 27 53 35 43 36 32 32 32 32 41 40 35 26 31 35 33 36 28 36 37 38 35 33 33 27 42 41 32 32 41 31 32 39 31 23 42 32 40 31 35 23 28 28 42 39 32 27 31 40 30 39 28 35 35 27 26 41 43 39 26 32 29 34 37 32 35 29 31 41 29 30 41 24 25 44 41 30 37 37 36 35 34 28 25 35 28 42 18 36 30 37 32 34 28 33 24 35 27 35 34 39 35 41 30 35 31 30 29 40 32 43 33 31 28 31 27 36 38 28 34 36 28 25 37 38 43 31 38 17 25 29 27 44 30 34 44 30 32 36 30 29 25 33 38 38 26 36 36 29 33 26 27 31 33 41 34 37 36 36 48 32 35 34 34 28 39 24 31 30 18 43 25 30 34 28 38 40 27 36 36 25 46 35 39 39 39 40 24 29 27 36 38 29 34 36 42 32 29 21 22 30 36 33 38 38 27 27 37 46 35 33 28 38 26 32 30 39 30 35 30 49 22 33 27 34 30 30 25 23 26 31 32 44 28 25 29 30 29 34 32 25 45 35 30 47 30 31 28 33 34 40 32 43 42 33 28 27 30 32 26 25 39 31 24 32 46 39 35 32 30 39 40 35 27 31 38 30 22 28 36 37 27 36 37 25 30 31 41 33 36 34 31 23 29 32 35 34 29 28 31 37 29 38 37 29 27 28 38 26 33 31 32 29 37 26 26 40 42 41 34 31 31 34 32 38 31 44 34 28 38 29 35 40 38 31 34 28 35 46 25 31 31 38 30 32 21 43 38 27 37 32 25 42 36 25 35 38 30 31 41 28 35 25 36 40 29 26 30 29 18 29 21 27 29 40 34 29 39 34 31 42 38 28 37 30 31 27 27 41 36 32 28 31 40 39 49 34 24 28 33 40 35 36 24 29 26 25 27 35 28 36 35 28 29 46 23 23 29 34 34 48 28 32 35 39 19 25 32 27 28 28 40 25 46 30 30 31 37 28 33 33 31 29 31 38 31 24 39 44 36 29 28 40 36 27 43 28 41 27 29 26 38 28 31 35 35 45 37 37 40 36 40 34 34 38 33 32 36 38 25 31 38 28 34 36 50 45 29 33 27 36 41 25 29 21 22 35 26 40 38 35 41 31 50 48 27 35 29 34 45 33 30 38 28 27 33 30 24 36 36 43 39 27 39 28 20 30 41 34 27 34 32 33 32 33 42 32 30 40 31 34 35 32 32 31 33 32 24 36 37 32 25 36 33 25 34 35 33 33 23 32 24 40 33 28 33 26 21 34 34 35 44 42 34 34 22 34 23 31 38 36 32 49 33 40 34 35 32 33 39 34 26 35 22 26 49 32 32 42 38 29 32 21 24 34 23 24 30 28 30 23 32 20 32 22 32 46 24 28 32 37 47 36 35 31 29 25 32 32 37 38 32 34 38 36 32 29 22 37 30 34 31 31 31 31 23 33 39 23 30 34 32 26 30 30 37 40 29 28 34 37 22 38 42 47 42 33 23 23 31 36 34 39 38 35 33 24 38 34 30 18 40 36 34 31 30 28 31 31 27 35 33 27 30 29 35 36 28 44 31 22 31 31 32 35 28 32 28 26 33 38 33 38 31 32 27 37 23 33 38 40 39 45 24 33 34 43 25 19 43 35 32 34 35 33 29 46 31 26 25 23 33 29 33 31 37 27 29 33 30 28 36 35 39 34 42 32 26 37 37 40 30 31 39 25 33 34 21 32 38 35 30 38 36 27 32 37 31 39 35 36 37 36 30 37 32 34 35 32 37 33 37 41 23 21 40 39 30 38 24 32 38 30 28 28 36 32 28 33 40 27 26 30 40 26 33 37 29 38 28 38 34 33 24 36 31 28 31 37 27 28 28 28 30 40 26 29 32 38 30 25 23 33 29 32 36 33 36 26 33 39 32 28 22 31 35 36 34 31 29 26 33 28 33 26 36 31 41 39 42 27 38 28 27 28 26 27 28 30 23 32 31 37 40 21 37 30 25 35 29 23 33 27 42 22 26 38 29 27 39 34 33 40 24 34 31 28 36 27 35 30 32 38 24 39 33 20 40 28 40 35 34 19 39 30 32 25 24 35 39 35 37 20 32 37 38 29 32 38 26 40 40 30 39 31 42 29 32 29 31 23 38 29 33 27 30 34 26 31 31 34 27 25 30 36 35 28 25 39 31 33 40 30 39 32 36 40 35 31 35 32 43 36 34 37 29 24 30 26 23 37 34 28 29 29 35 26 35 51 33 34 35 23 30 28 30 36 40 34 44 25 34 36 30 24 30 30 29 40 26 24 33 31 23 27 30 23 27 36 38 36 27 36 24 37 37 41 31 29 32 36 28 37 42 23 30 34 35 36 23 37 41 42 23 31 27 34 37 29 29 28 29 31 41 34 37 26 26 36 39 30 33 28 40 31 35 22 30 33 27 28 29 38 44 33 28 32 36 40 30 35 35 19 28 31 40 34 32 29 32 33 29 35 28 23 38 34 39 45 26 40 32 22 31 35 36 30 27 34 40 26 30 35 44 26 29 37 34 32 32 34 36 40 34 27 23 31 38 39 31 40 42 37 41 30 38 22 24 33 34 30 44 30 29 36 17 29 28 29 28 21 40 17 25 40 47 34 30 41 43 32 32 35 30 39 34 32 33 29 34 33 32 32 49 30 40 29 36 30 26 31 37 35 38 28 28 37 37 36 33 38 36 32 35 39 38 39 38 25 37 34 36 27 31 26 26 35 31 37 31 33 25 34 22 34 40 33 35 30 28 41 35 35 34 33 31 36 40 40 39 34 38 30 29 39 47 39 36 26 24 47 33 30 34 24 31 31 37 34 36 37 31 28 39 38 25 30 20 28 36 36 37 40 24 36 25 44 40 26 24 37 33 34 35 31 29 31 32 39 29 34 27 30 32 31 31 30 36 45 27 38 31 38 45 28 36 26 35 29 30 46 39 31 39 42 30 37 36 31 34 35 31 38 27 30 33 21 37 31 39 34 36 42 39 40 31 43 36 34 27 35 33 27 33 32 32 34 25 39 26 29 39 51 30 32 40 37 28 39 27 33 40 25 42 41 34 36 30 31 41 35 34 32 36 36 25 31 26 28 29 24 38 36 28 32 31 28 34 41 26 30 28 33 40 39 24 28 27 26 40 39 27 39 38 27 47 23 33 32 40 42 28 33 47 31 39 25 25 35 35 35 23 26 40 38 30 34 25 36 26 34 33 39 27 23 38 35 40 35 35 33 41 22 39 39 33 32 32 35 44 31 38 38 35 33 32 43 31 39 36 33 35 40 28 31 35 32 33 31 31 32 32 28 36 38 30 32 37 30 26 24 31 33 37 31 35 32 34 27 42 34 37 34 36 41 33 30 33 27 38 26 26 31 28 34 30 33 31 31 31 39 42 34 29 36 31 34 33 34 27 22 29 34 35 36 24 27 26 31 27 32 30 26 37 21 28 29 37 31 30 43 31 32 27 33 23 26 35 28 31 32 34 24 38 30 23 30 35 34 29 23 28 32 39 34 29 28 37 29 30 30 40 31 34 23 35 31 33 34 45 33 30 32 36 25 29 24 29 34 27 29 37 29 28 35 26 30 30 34 28 28 32 34 33 32 38 35 35 36 33 26 34 33 28 34 37 32 38 32 39 56 33 29 33 28 43 24 31 35 32 30 31 26 31 40 40 35 34 38 41 39 33 45 38 25 38 25 26 33 32 40 43 32 26 33 32 36 33 38 34 29 35 39 32 25 23 29 38 41 37 32 35 40 34 40 30 37 36 22 39 36 31 26 26 37 37 24 35 27 24 34 20 32 26 39 28 19 28 37 32 30 38 27 34 30 27 38 28 30 32 37 24 28 26 21 38 28 34 24 22 35 35 36 20 22 39 42 31 36 33 35 38 36 41 29 33 26 48 31 37 28 41 40 33 28 43 34 34 26 30 41 34 41 37 26 34 31 32 32 37 36 40 25 38 34 34 37 26 41 36 36 33 29 34 53 41 31 40 26 33 34 28 36 26 38 36 34 31 28 38 28 35 43 40 26 28 24 29 31 35 28 49 30 24 40 30 32 31 32 46 27 30 36 36 27 41 37 40 30 34 32 29 27 33 27 35 32 37 28 30 43 37 36 31 31 31 48 40 28 28 36 29 43 35 40 41 27 39 30 40 35 41 32 30 42 41 32 39 28 29 34 41 36 40 40 34 24 42 40 38 30 34 27 27 26 27 30 29 26 31 42 31 39 27 35 29 43 33 39 30 27 36 33 29 34 37 32 34 35 30 40 31 34 34 39 28 25 18 33 25 32 39 35 32 31 28 39 28 29 36 35 37 37 30 35 25 42 34 29 27 22 29 25 30 39 35 36 42 28 36 36 39 52 24 44 29 30 36 32 29 35 37 31 35 23 35 43 44 41 30 36 32 29 37 35 36 39 34 42 35 31 33 46 38 33 25 24 36 38 27 39 31 37 44 42 32 34 34 24 38 34 31 34 35 31 35 38 33 34 28 32 30 33 40 43 45 44 27 40 34 29 27 38 36 29 27 26 29 33 38 27 28 37 27 37 35 32 27 37 35 35 33 29 39 27 26 27 34 36 35 33 44 35 35 41 35 21 32 33 41 23 34 33 37 38 34 49 27 37 36 32 31 30 32 29 37 33 44 35 35 28 31 39 29 39 28 35 22 33 42 48 27 26 28 27 25 25 36 36 28 30 32 32 28 27 34 45 27 32 30 46 33 50 32 40 25 30 29 40 32 26 29 30 30 30 34 35 37 34 36 34 38 27 34 34 28 39 34 38 37 40 32 38 22 30 36 37 26 28 32 37 35 35 31 39 30 40 31 32 33 35 30 34 31 25 24 36 18 34 29 27 33 36 32 29 35 30 34 34 18 34 31 31 41 39 40 30 43 43 37 39 31 35 28 39 31 30 38 38 42 48 31 39 26 35 22 32 43 27 37 29 36 30 28 32 37 38 43 36 40 43 27 40 23 36 33 35 48 30 33 26 30 29 27 33 32 30 29 35 31 30 38 29 24 27 29 31 33 31 32 33 32 28 29 31 34 33 28 32 34 36 39 24 34 31 39 35 26 22 30 34 33 33 35 31 35 29 32 36 24 20 32 34 34 37 32 35 35 30 35 35 41 32 44 23 26 31 32 30 30 36 35 37 30 39 31 26 33 30 31 30 46 29 24 29 35 24 32 28 27 43 26 29 31 34 30 37 31 34 35 33 41 29 30 27 34 45 34 30 33 43 33 29 27 32 30 41 33 31 27 47 42 43 39 28 36 35 38 25 33 39 28 33 40 39 26 29 30 25 29 36 27 34 30 35 27 29 36 31 36 34 35 27 36 28 33 25 25 34 36 36 24 38 30 24 41 35 38 38 49 23 37 41 24 33 35 36 43 38 28 36 32 35 35 30 22 30 28 34 29 42 48 36 33 29 33 36 26 29 34 29 29 26 33 38 29 32 24 33 28 33 32 38 30 35 34 28 41 33 29 32 28 36 50 34 32 32 32 30 34 34 38 37 29 47 30 24 26 37 43 35 36 23 37 34 26 32 28 41 34 29 33 24 39 32 31 31 41 37 31 29 34 37 37 30 33 33 43 35 32 39 36 35 38 37 44 29 32 27 48 32 35 31 43 31 37 39 30 32 31 28 30 26 34 23 30 42 41 26 38 36 30 42 35 29 34 37 26 33 32 30 35 24 34 27 32 32 37 24 33 25 29 28 34 34 23 43 32 26 40 27 37 32 25 42 32 38 21 39 37 33 36 42 33 31 28 42 33 32 26 25 40 26 29 50 31 33 38 35 36 45 20 35 31 29 42 37 37 29 29 30 27 38 28 43 25 49 30 37 31 36 41 28 30 36 38 36 36 35 21 27 31 42 28 25 29 23 30 42 28 32 41 31 34 33 27 36 43 35 41 29 42 27 35 39 28 35 32 35 34 30 25 30 41 30 30 44 37 25 35 29 32 32 35 26 27 21 41 37 41 38 37 33 32 33 23 33 39 31 40 26 40 30 36 36 40 36 36 37 40 37 35 34 30 37 27 26 32 34 35 37 36 42 35 40 24 33 26 44 30 27 24 43 23 40 32 42 28 32 33 36 29 30 43 36 41 32 24 28 31 38 35 29 32 31 28 21 18 28 42 32 28 30 34 35 28 28 30 27 51 35 36 32 27 43 31 34 27 30 37 25 41 33 38 33 35 36 35 36 30 34 35 28 29 31 27 28 38 28 28 23 37 39 26 38 36 30 28 32 41 32 36 40 30 28 41 28 20 29 27 44 26 27 35 35 36 26 37 37 31 32 38 27 33 28 26 27 25 44 30 33 32 38 35 30 41 35 37 32 24 43 43 34 41 34 30 38 25 29 39 34 35 26 31 36 30 35 22 40 35 39 37 43 34 33 19 31 35 36 29 34 32 34 25 37 33 32 21 32 35 29 32 31 37 25 34 27 32 29 35 27 31 31 30 30 24 29 42 31 47 37 31 34 33 25 33 29 27 43 28 39 38 28 29 32 31 36 39 32 26 31 21 38 31 36 37 34 36 34 35 29 25 31 28 37 22 34 28 37 28 31 40 32 37 42 43 35 35 27 32 32 40 28 33 31 41 26 26 35 44 29 36 32 37 35 24 26 30 42 49 37 43 32 24 27 34 33 19 43 40 33 37 32 34 30 37 26 34 26 35 29 44 33 27 28 33 34 34 42 34 36 32 54 36 34 42 30 31 26 28 33 36 37 37 22 29 37 26 33 28 24 29 29 35 32 36 30 25 30 47 34 39 33 30 38 32 34 38 29 49 21 35 28 48 38 42 28 26 42 44 33 38 27 35 51 36 38 39 27 21 30 31 24 25 31 24 44 39 34 36 40 33 36 37 39 45 28 31 42 37 30 43 30 41 25 26 41 26 30 33 26 48 39 27 40 37 33 38 32 47 26 29 28 27 35 25 53 30 25 34 33 35 24 27 39 33 37 39 28 30 29 34 40 39 32 38 33 37 37 28 34 49 30 34 35 32 25 33 37 40 33 30 34 38 47 39 35 35 34 33 33 28 24 31 32 34 25 45 38 37 29 37 31 38 29 35 29 24 37 24 41 22 32 30 31 34 26 34 42 32 35 38 30 28 43 25 28 36 33 39 41 32 24 42 38 30 30 37 26 28 39 23 47 35 29 26 31 25 30 31 42 31 35 29 33 31 39 41 33 37 42 35 37 27 27 40 27 31 30 37 34 27 31 30 42 39 29 38 40 34 38 41 35 40 25 30 36 33 35 29 35 38 34 26 40 35 26 35 32 32 27 28 31 29 24 48 46 33 23 26 35 46 31 31 34 31 37 31 44 49 40 27 35 33 38 25 40 34 27 33 46 42 35 33 37 31 33 34 40 46 30 40 29 33 39 32 32 27 34 29 30 34 33 34 17 43 33 33 27 27 26 35 37 29 35 34 29 31 24 33 21 36 20 45 45 40 22 31 41 31 32 30 24 32 43 33 39 35 40 39 29 27 32 33 50 30 36 28 39 35 24 27 34 38 46 43 22 42 30 38 40 31 30 32 33 37 49 41 37 31 36 22 23 33 39 34 26 32 27 23 28 35 37 37 37 28 37 38 30 30 30 36 25 36 32 31 29 32 27 32 40 39 39 41 37 23 40 39 22 32 32 38 38 41 29 38 28 35 31 25 37 34 33 32 28 31 43 26 45 30 35 26 29 29 25 44 32 24 31 35 30 31 35 39 27 34 28 41 32 51 28 24 31 37 29 32 30 41 33 35 32 38 39 38 28 35 35 29 37 38 28 31 32 43 40 35 42 34 32 34 27 34 33 33 23 31 26 46 33 28 35 43 35 31 35 30 30 24 39 48 25 32 37 32 29 37 34 42 25 32 29 24 39 26 29 28 36 42 38 34 29 29 26 34 43 38 27 29 30 47 31 28 27 24 32 33 33 37 29 28 40 40 41 37 35 37 29 23 33 34 32 23 21 28 31 32 31 38 36 35 44 26 26 30 29 27 40 36 26 26 35 35 18 37 27 23 35 29 29 30 34 21 29 25 32 32 30 39 41 33 35 31 39 28 23 47 33 33 29 35 36 39 33 35 29 27 33 29 33 37 34 30 33 37 31 26 31 31 34 38 34 25 30 30 37 31 34 24 40 34 21 45 29 36 31 30 33 37 38 39 28 25 32 34 35 31 34 29 26</t>
+  </si>
+  <si>
+    <t>JSU(-7.820598761365192, 9.828268007762428, -81.42320130596687, 350.5366620080257)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201 292 262 224 242 284 229 165 219 150 151 199 165 244 271 206 243 230 253 274 242 309 256 204 232 223 220 242 237 244 195 176 153 180 229 254 94 297 179 303 308 179 280 209 294 232 191 242 325 261 183 266 213 224 205 284 294 138 201 232 220 222 183 222 273 275 195 308 239 169 269 217 224 237 227 201 231 228 222 249 282 234 190 202 290 238 187 193 206 195 276 226 182 358 283 184 284 228 161 171 231 311 298 202 159 242 216 258 134 260 230 183 167 193 287 240 309 252 233 196 195 248 212 179 189 330 308 204 262 232 234 181 264 297 299 262 215 269 248 217 219 361 245 281 165 192 156 199 219 165 336 189 187 309 291 151 143 281 229 238 261 336 165 264 275 212 186 137 228 261 238 293 202 332 233 228 211 213 196 169 179 238 225 134 211 274 249 318 142 222 236 219 219 207 207 223 165 295 213 322 198 179 331 275 269 255 230 178 285 189 270 179 241 248 183 264 197 186 242 237 229 258 247 263 267 222 158 221 181 262 302 254 163 165 223 228 184 185 264 202 216 187 241 250 225 330 206 253 190 227 209 231 224 208 172 240 252 179 309 237 368 191 230 131 207 268 235 149 283 231 250 180 225 201 322 236 173 299 289 203 263 263 138 209 242 183 195 223 275 319 248 204 211 223 180 162 256 215 248 311 131 287 238 219 237 105 204 254 254 218 229 209 262 192 215 215 259 211 252 195 213 236 213 298 248 187 251 177 221 261 182 202 235 228 236 241 256 252 236 282 213 231 214 276 278 230 286 264 252 190 177 170 148 346 168 217 261 212 196 197 187 210 183 187 308 149 220 283 250 248 253 201 260 242 167 240 271 287 254 239 194 304 215 209 233 279 140 202 246 210 247 208 200 277 282 232 328 226 238 243 227 190 165 174 226 167 241 163 197 209 257 210 216 164 163 264 279 219 274 282 187 203 177 165 161 247 285 282 223 156 240 256 320 204 269 218 220 119 183 254 211 287 263 198 201 265 224 236 201 234 199 260 180 156 367 168 317 273 282 257 272 134 265 223 312 244 126 223 238 217 241 322 206 249 253 251 222 185 191 248 286 327 231 196 201 253 237 212 256 287 129 234 223 309 211 253 211 288 238 276 154 226 303 184 245 180 249 187 183 212 222 237 242 184 280 215 230 241 246 228 179 174 197 262 208 285 238 212 175 257 205 235 289 277 285 225 220 250 229 132 153 325 241 234 206 252 195 284 324 311 265 237 312 278 301 213 257 219 233 249 248 294 206 264 161 333 244 180 209 159 284 161 151 281 200 196 270 322 220 189 232 196 180 294 264 142 134 201 305 271 274 179 319 388 229 147 185 278 221 194 278 310 244 182 232 182 243 185 189 198 225 210 254 205 217 329 198 219 206 255 186 279 206 237 216 233 252 214 174 265 182 222 268 213 276 231 222 240 203 272 233 197 194 149 222 167 150 175 192 189 235 277 172 250 234 264 216 224 192 220 210 189 214 305 195 243 216 250 192 296 188 210 225 273 202 223 188 197 294 230 280 193 162 276 200 253 271 220 241 245 155 227 183 227 212 293 253 192 209 233 263 159 282 292 193 259 296 190 230 182 204 265 163 306 248 232 330 245 312 226 260 284 240 131 295 252 264 282 273 275 256 336 279 239 199 270 191 158 300 254 172 272 249 233 171 166 259 214 233 281 250 129 314 253 290 223 229 325 318 204 364 264 256 308 291 207 186 273 173 274 318 234 161 200 237 267 276 167 168 99 230 320 257 183 285 260 237 217 287 202 188 172 169 230 282 272 124 247 265 150 233 220 262 301 199 194 256 219 142 219 279 207 230 251 293 231 284 238 196 232 262 273 208 221 189 245 286 229 108 289 199 258 176 274 195 232 169 280 274 243 298 200 202 230 206 268 261 242 235 292 290 260 237 256 311 247 209 223 215 311 231 223 264 243 216 277 293 162 269 214 244 192 194 231 250 268 216 225 254 299 244 173 144 206 270 127 205 218 215 236 253 240 162 255 264 210 259 220 225 180 212 211 130 200 230 300 268 275 191 198 246 225 242 176 192 269 290 180 325 206 252 218 326 240 302 212 242 171 258 255 218 213 215 168 302 245 242 357 285 290 197 280 190 239 297 248 179 247 180 282 271 211 242 269 224 249 236 226 283 189 205 266 205 221 216 278 232 296 204 212 193 225 146 252 218 227 185 189 217 280 261 165 151 292 133 207 265 296 184 177 218 304 227 223 236 294 210 196 221 165 202 205 200 297 269 277 223 238 248 237 163 242 286 269 262 228 246 227 193 198 193 230 242 174 256 181 267 328 159 197 222 276 266 195 162 238 166 230 328 215 223 274 298 204 268 270 317 269 279 239 256 247 283 254 226 244 193 231 244 261 239 166 189 177 233 163 350 235 187 230 282 226 205 148 294 176 246 298 247 244 177 303 210 208 245 258 259 242 292 243 239 211 219 228 233 210 297 228 211 199 253 183 231 133 191 214 204 236 206 241 280 283 178 149 229 338 152 222 363 310 239 277 203 184 197 208 254 198 322 161 154 250 199 216 235 275 230 197 252 255 182 165 175 130 169 289 200 244 240 267 202 256 158 313 294 188 189 277 233 266 269 206 217 268 252 283 224 175 188 108 253 288 313 231 212 304 253 175 258 233 238 296 212 260 261 206 232 205 252 278 331 287 199 242 270 171 241 265 239 223 255 229 241 230 213 214 342 214 254 205 204 228 262 195 296 206 288 248 296 245 154 231 213 252 230 320 315 276 259 235 233 171 282 198 150 271 210 252 136 326 167 182 286 253 282 291 168 185 155 278 214 246 200 216 126 292 175 242 179 194 218 260 200 281 249 319 274 229 258 343 263 223 303 249 218 147 214 252 218 237 286 213 146 264 292 310 220 293 171 238 316 259 194 231 254 227 279 311 261 266 185 234 288 345 268 186 118 175 153 219 216 185 211 226 322 187 211 147 235 244 208 321 189 235 261 199 148 224 188 259 239 221 244 230 225 254 210 231 189 168 257 263 194 183 234 115 230 240 326 250 187 261 265 263 241 227 380 230 187 213 198 212 236 259 260 245 246 226 132 274 125 163 222 183 205 249 177 189 226 303 129 191 225 195 193 281 220 218 198 236 189 242 246 187 177 171 233 214 239 225 192 172 167 240 247 306 146 224 297 289 265 210 259 219 270 243 245 187 253 406 154 226 265 213 240 239 261 182 211 177 178 243 219 241 198 297 192 243 174 223 238 236 211 316 222 203 314 251 224 143 182 195 203 248 226 193 241 203 304 201 144 420 310 261 271 195 264 196 231 267 195 164 240 173 228 205 202 200 183 253 203 226 152 267 233 264 165 248 278 183 236 234 221 269 298 237 262 228 248 186 179 243 213 220 237 280 162 201 256 238 202 216 221 179 269 312 218 192 136 181 169 271 196 250 219 256 152 245 270 239 281 240 224 223 123 175 242 213 278 212 264 238 343 241 220 224 290 275 236 206 287 242 215 192 250 176 239 263 198 318 160 211 287 295 274 206 254 197 204 284 280 317 192 258 239 164 273 208 222 257 239 237 256 156 193 180 251 199 219 314 222 208 271 311 191 250 201 170 165 192 171 154 175 201 181 199 223 344 262 380 229 197 158 158 224 287 255 237 224 129 264 277 257 241 178 228 232 118 191 292 161 243 203 188 158 251 257 235 239 221 200 300 335 195 212 231 215 226 169 233 252 245 278 225 184 279 217 200 306 289 244 294 229 143 186 133 207 260 195 327 246 224 241 313 325 109 180 205 216 327 249 152 260 280 218 88 250 171 282 228 143 217 97 223 233 275 181 221 209 213 261 117 187 206 331 266 198 312 231 233 313 217 169 182 245 292 188 193 158 150 187 237 134 205 308 160 197 192 255 278 195 253 328 210 156 218 211 272 184 199 177 200 276 248 190 246 224 159 180 161 157 204 199 276 223 307 243 273 250 166 234 193 284 237 238 145 350 203 193 261 199 224 339 209 201 285 229 256 225 190 240 177 194 171 221 230 252 277 227 215 233 339 267 216 247 206 227 187 209 121 287 261 296 282 146 178 218 288 289 194 227 180 283 221 213 230 290 189 263 302 169 204 123 231 235 282 202 197 212 246 290 212 205 239 283 236 213 165 207 217 298 239 230 233 170 173 176 189 343 189 219 299 227 229 244 164 185 316 299 237 241 226 292 259 192 202 145 183 169 195 203 199 207 158 218 271 203 231 163 114 257 213 258 194 168 262 204 187 182 346 230 269 218 203 180 187 244 247 255 216 212 226 263 190 230 187 204 180 251 204 125 266 262 206 155 217 289 267 221 214 183 342 227 286 233 209 226 132 231 280 219 281 258 242 206 222 182 216 248 244 294 328 237 240 209 292 153 232 282 202 186 231 286 227 209 317 209 260 200 237 272 328 183 214 185 273 281 223 241 217 163 212 331 234 249 227 276 265 226 197 227 192 277 227 255 193 256 383 304 213 195 200 169 322 201 239 202 228 260 300 274 196 256 173 202 235 258 333 245 200 272 271 254 261 160 256 224 111 301 208 205 174 257 290 275 211 275 260 171 173 240 187 299 216 166 218 287 277 226 251 247 196 265 183 217 209 190 167 175 211 219 140 211 178 212 232 206 334 257 230 264 231 230 230 188 225 169 199 215 251 177 211 90 227 176 231 286 176 298 225 277 326 228 170 223 211 232 245 192 240 222 180 260 274 174 308 252 268 289 197 268 180 226 216 208 199 232 151 379 182 280 235 232 233 328 246 173 156 230 188 190 201 219 252 190 265 227 254 296 219 254 222 166 257 207 310 203 199 178 321 251 113 187 199 256 209 207 197 212 302 224 227 139 256 304 289 245 248 274 312 246 206 198 255 222 194 339 215 221 255 241 185 274 270 124 195 229 234 293 203 263 308 235 313 124 198 199 208 197 294 324 260 232 188 276 230 200 271 232 210 245 222 281 238 188 217 189 257 150 202 266 271 374 236 191 317 234 191 166 257 330 340 209 282 376 229 287 225 174 262 189 249 304 188 208 180 115 259 163 335 286 196 270 250 282 191 277 286 166 164 204 218 241 273 223 268 241 269 327 212 272 235 259 276 195 247 171 196 220 176 185 198 206 147 157 244 263 86 191 347 287 197 153 288 310 236 217 209 286 299 218 229 181 231 291 245 201 197 176 280 179 234 217 251 180 217 304 200 179 235 194 160 108 292 264 186 297 175 284 170 293 182 226 332 206 325 183 279 205 198 181 231 233 208 163 235 243 285 244 242 230 223 240 287 265 305 233 140 247 310 242 182 255 334 228 163 292 178 190 383 253 315 163 199 148 268 241 130 192 251 255 254 200 181 238 177 248 288 277 271 303 191 229 206 355 271 265 343 232 312 217 219 164 309 204 241 235 265 231 206 187 265 297 164 281 172 284 181 349 224 206 340 164 327 194 147 223 188 309 307 186 264 204 167 176 205 113 228 309 295 220 232 242 176 279 295 213 205 223 213 267 208 281 207 233 213 203 169 304 240 293 158 130 245 233 290 245 211 217 274 165 249 205 219 193 142 194 203 206 272 322 234 211 142 218 236 188 192 189 219 220 259 292 281 189 226 220 196 137 219 395 222 162 208 216 197 244 204 274 241 199 203 231 182 246 276 245 157 271 204 218 236 195 268 153 266 164 243 188 180 203 283 191 266 179 293 250 163 269 221 240 264 183 395 230 291 267 184 226 248 162 258 309 305 287 267 309 226 145 241 254 275 225 158 228 311 204 185 200 154 309 223 275 238 288 149 207 194 148 223 256 309 242 263 210 159 202 218 265 300 179 207 218 239 287 207 263 135 245 182 244 235 256 249 216 253 185 269 195 202 188 190 256 162 281 285 232 234 232 255 220 234 180 234 276 297 237 134 197 158 280 193 201 229 258 200 210 270 218 251 177 207 198 187 203 184 241 284 176 218 316 264 184 188 177 268 351 237 256 314 291 292 276 237 213 279 305 176 259 326 230 300 261 175 321 192 251 238 219 222 207 262 183 191 152 220 255 222 231 179 209 284 204 214 256 230 104 177 277 195 275 202 169 246 303 292 297 249 317 198 296 202 218 241 142 216 323 253 181 216 201 237 334 288 272 265 232 236 184 215 243 221 214 333 276 191 231 199 187 155 254 227 164 213 257 317 229 263 237 253 236 261 240 208 172 233 227 186 205 190 292 266 234 208 253 322 249 194 224 241 213 115 218 238 202 198 195 169 269 207 174 229 227 263 245 251 218 197 242 297 217 222 216 194 238 221 267 142 274 188 328 163 144 234 184 192 171 296 192 272 170 303 248 223 244 261 296 174 237 207 242 168 165 252 288 246 231 110 201 185 162 206 354 166 257 178 223 155 283 234 295 188 222 262 284 229 188 219 320 233 186 199 232 286 228 201 198 202 242 214 193 306 183 165 220 209 165 345 259 237 274 165 188 185 195 96 219 292 352 212 209 234 178 123 238 193 207 166 292 154 213 187 234 194 216 223 244 296 178 314 213 172 192 274 189 195 285 182 187 103 273 270 236 187 263 199 219 174 251 208 285 235 257 289 175 258 242 255 276 327 176 171 223 182 141 244 334 272 285 216 159 232 244 257 189 159 184 198 198 229 257 184 205 180 121 218 257 238 222 300 216 231 163 222 287 290 209 225 169 247 251 247 223 240 182 190 144 293 205 257 213 144 205 274 277 249 131 239 240 280 277 196 190 160 101 276 187 235 171 301 225 218 307 176 199 214 232 218 183 223 376 168 185 340 215 266 241 161 216 268 245 283 254 246 245 340 255 358 259 270 235 317 183 259 238 237 235 217 213 262 251 244 212 214 235 152 259 193 185 274 231 210 373 248 183 186 171 186 279 281 215 196 233 216 209 196 259 228 290 306 206 117 242 136 234 204 191 257 311 247 204 234 229 295 267 215 205 204 223 199 317 163 146 255 209 277 231 348 214 165 177 215 213 205 263 206 214 231 251 211 280 225 323 309 282 275 224 182 136 178 196 175 294 166 231 203 194 191 250 174 253 203 297 221 231 169 252 208 177 255 257 232 202 153 238 297 261 241 189 326 220 162 195 249 181 310 255 213 248 171 218 198 327 310 279 292 186 218 241 302 206 195 167 216 267 270 234 238 197 150 126 180 254 217 270 285 254 235 236 287 207 188 229 184 257 210 180 189 321 316 265 198 218 293 209 241 304 194 219 168 154 170 210 238 288 242 196 345 213 291 191 198 241 242 170 328 188 230 270 261 122 237 235 257 179 284 313 155 218 256 198 182 223 266 172 189 270 202 146 226 168 209 185 254 231 183 212 191 227 194 271 208 174 239 218 168 216 196 216 224 208 193 227 162 199 235 199 265 269 188 163 124 236 123 373 208 264 196 221 152 284 274 229 232 302 211 184 241 210 274 304 291 248 295 320 219 282 221 187 221 265 232 329 211 163 176 257 243 167 340 242 190 181 230 237 343 200 280 391 165 219 309 267 219 165 275 170 285 188 212 221 277 201 199 201 216 209 293 194 309 207 143 256 226 252 237 222 247 215 157 297 240 223 212 259 193 256 210 269 210 244 139 255 198 192 299 212 240 309 231 302 277 180 257 191 254 256 274 159 169 204 235 213 221 195 256 254 170 190 171 165 184 229 237 272 256 274 188 223 285 240 193 258 253 163 237 305 199 194 186 289 207 212 200 266 172 239 192 198 201 218 174 169 245 275 219 242 256 238 288 264 259 169 306 334 158 267 266 226 246 231 269 242 241 246 221 213 232 232 196 248 222 326 223 210 184 319 228 213 157 278 216 274 243 282 210 209 253 244 238 214 292 286 191 249 187 239 172 138 193 229 238 262 227 157 249 243 180 151 255 237 236 230 255 236 232 220 190 189 307 201 261 256 244 171 169 253 253 193 232 208 135 227 222 124 234 176 257 243 215 180 280 264 302 289 323 212 228 266 224 228 249 133 224 257 167 161 250 231 189 159 244 204 175 189 159 209 246 159 160 263 169 242 275 263 336 186 241 247 208 246 221 230 257 232 192 167 223 240 285 268 220 162 295 271 127 228 239 211 286 275 227 231 284 189 182 198 268 225 173 154 237 230 243 272 246 216 190 157 189 310 155 251 179 203 174 193 259 274 219 229 271 254 232 277 171 261 274 242 258 242 163 194 300 172 211 211 188 169 241 211 215 300 221 215 219 207 276 280 227 285 184 191 191 215 280 240 225 208 278 156 232 332 200 157 224 196 287 246 179 164 264 247 223 263 179 329 233 304 292 206 330 222 266 265 199 260 171 259 191 171 166 190 232 216 264 274 236 228 211 313 227 204 260 355 172 220 182 250 224 223 243 240 205 192 278 173 249 201 253 163 235 222 214 272 222 205 217 307 233 253 225 251 207 275 192 208 247 227 227 262 235 257 235 186 239 276 217 280 241 288 248 298 285 218 164 231 205 285 258 246 176 226 235 245 181 249 169 176 282 210 97 231 193 169 255 148 272 221 187 266 199 251 302 213 346 245 175 147 261 214 285 146 187 153 277 240 247 218 255 303 191 254 249 231 235 273 228 193 233 222 199 208 145 213 133 234 199 237 254 280 203 211 197 179 257 190 232 246 283 334 191 206 251 205 164 246 268 291 261 260 234 228 205 127 300 199 200 154 249 179 237 193 275 237 122 217 237 211 208 241 150 172 302 229 211 227 180 221 205 226 227 222 138 219 233 176 168 184 316 148 237 207 288 231 293 280 261 354 260 261 177 234 145 218 286 201 282 208 290 224 184 228 231 272 215 243 240 152 192 212 182 209 159 166 162 234 207 216 216 262 192 164 250 217 279 252 238 199 143 151 237 134 149 249 167 238 197 260 231 155 181 217 269 278 269 237 148 228 173 181 242 301 225 205 245 258 336 170 144 222 299 269 300 333 216 207 219 235 192 273 263 369 223 242 189 192 252 193 224 214 207 221 234 372 202 244 132 243 293 238 185 296 228 111 210 241 185 183 268 259 251 191 218 301 207 152 242 215 285 214 230 159 200 175 246 154 173 286 217 215 144 186 334 260 175 211 159 242 229 211 278 256 219 205 209 276 162 242 247 210 285 232 251 146 155 175 198 363 201 128 260 100 227 285 221 265 229 160 203 189 229 269 196 302 278 215 243 246 246 263 203 270 225 300 265 283 138 283 216 191 310 217 232 270 184 250 207 218 175 281 193 256 254 217 273 310 199 197 225 293 329 254 253 173 241 296 228 176 151 231 196 264 216 236 258 264 190 251 206 233 200 270 232 240 161 259 185 251 262 319 180 349 216 212 242 175 206 222 175 273 250 138 182 127 210 357 286 186 168 244 261 263 241 237 311 261 210 199 307 262 201 213 258 202 320 300 178 333 226 182 241 216 221 325 224 174 175 189 234 205 170 212 303 283 146 205 218 205 218 301 126 233 207 262 146 188 292 236 249 172 272 172 245 244 249 276 211 365 206 165 302 176 219 150 234 225 155 290 253 278 187 200 217 141 230 258 203 217 296 247 237 289 249 184 244 364 223 264 223 205 239 275 265 274 257 264 224 240 292 220 203 236 208 221 231 174 132 297 244 197 215 297 272 276 282 173 266 190 207 222 251 283 215 240 226 192 250 225 213 244 233 280 272 162 265 171 206 260 228 260 236 281 187 206 231 260 197 278 216 201 215 213 204 388 213 155 240 283 259 187 242 252 165 254 280 284 307 315 261 260 237 225 187 170 225 240 263 350 250 248 237 218 205 247 166 247 194 281 168 230 195 220 253 253 267 293 258 244 223 207 221 176 275 343 213 245 179 260 300 193 351 207 249 147 231 213 205 230 239 244 209 256 239 269 188 212 256 274 124 246 237 262 196 236 181 136 306 288 331 130 237 312 207 186 223 176 281 173 274 238 170 234 250 228 218 231 307 214 177 212 258 236 276 265 240 300 245 209 268 198 179 139 252 148 404 219 286 261 173 243 233 269 195 229 211 211 206 141 259 222 201 218 211 229 246 304 294 195 226 246 277 245 254 190 318 138 207 209 241 254 174 286 148 274 233 288 259 256 240 172 345 216 192 188 182 277 226 277 175 167 224 276 138 201 296 160 185 219 230 234 178 173 269 154 257 165 208 270 258 255 331 301 296 206 237 185 183 157 170 202 258 279 265 258 247 218 266 219 167 226 163 230 135 203 263 193 179 201 186 263 210 242 211 175 219 245 166 177 277 217 207 185 239 286 193 259 252 300 149 210 272 265 215 199 277 253 248 252 151 206 208 174 222 239 266 226 220 234 282 159 204 157 261 311 229 243 337 264 314 228 218 211 223 218 216 272 226 247 261 159 130 201 193 261 172 284 142 247 288 173 190 150 208 243 158 164 218 167 253 262 275 231 235 166 292 171 270 229 230 263 208 135 178 164 214 245 165 282 205 204 205 235 212 252 197 339 223 229 282 300 189 229 202 248 195 259 212 277 201 247 198 241 239 185 246 148 229 324 245 177 143 234 197 237 216 169 228 267 149 170 164 397 259 203 236 236 140 294 217 225 254 188 326 188 218 376 267 248 186 259 274 216 178 221 281 228 282 287 265 220 159 212 274 207 279 321 263 268 203 190 189 250 177 234 174 237 285 139 224 237 179 271 203 262 275 249 190 233 264 159 202 159 160 195 194 149 201 254 293 201 190 282 262 180 234 205 168 197 236 204 178 175 168 179 203 255 209 246 309 171 223 201 305 245 138 264 202 235 193 262 144 218 260 276 238 283 216 230 196 194 231 333 174 211 119 251 240 235 189 169 231 274 198 242 258 166 224 205 206 191 146 275 278 191 250 165 199 286 117 175 231 191 283 181 208 268 204 362 270 253 261 284 167 154 226 378 100 204 289 115 304 226 240 189 225 197 267 201 137 165 225 250 268 117 237 209 186 189 264 159 291 274 241 219 279 332 212 188 339 166 215 192 274 170 243 259 179 150 242 195 269 214 247 237 254 203 270 303 286 195 216 276 230 210 206 179 245 258 140 116 259 241 183 260 185 282 335 257 188 188 118 231 233 195 211 313 160 202 198 247 327 223 186 185 238 241 263 180 179 235 166 259 256 225 350 270 193 277 229 241 284 283 337 242 212 247 208 316 249 235 180 285 214 271 202 237 182 266 271 243 265 280 204 265 220 190 167 241 332 195 250 270 345 153 314 217 249 263 239 243 279 251 323 265 254 251 276 227 253 128 222 264 235 186 257 243 289 208 318 267 184 182 211 219 167 192 159 270 293 254 161 199 335 172 171 214 296 183 224 329 336 269 181 247 246 327 159 164 204 171 223 172 331 164 231 195 287 196 250 175 219 193 281 252 242 297 277 230 269 234 186 216 240 291 253 273 210 254 232 211 267 197 219 301 161 238 155 340 240 215 211 156 298 203 182 223 247 263 262 299 185 198 231 194 264 162 214 194 214 247 166 286 211 252 264 230 198 251 201 321 153 101 199 179 170 229 264 295 278 240 223 247 183 242 217 189 275 186 200 229 178 303 273 216 198 259 190 164 254 214 218 230 248 170 228 183 83 147 234 240 212 216 274 265 259 209 285 191 239 182 239 313 225 242 201 183 239 177 229 231 203 296 200 236 243 245 257 229 170 240 128 237 265 239 299 149 208 205 214 317 267 231 187 153 195 180 219 145 160 207 169 218 173 229 303 253 316 208 193 308 229 195 325 274 217 129 195 194 279 319 217 238 277 222 249 177 163 117 282 244 232 174 243 285 205 227 204 138 155 183 198 187 143 242 223 183 217 204 264 291 251 251 312 280 187 279 112 215 169 213 223 209 217 268 186 177 189 224 222 191 252 184 154 282 243 174 246 257 220 270 316 233 181 259 265 325 258 159 233 233 257 208 211 214 233 161 241 293 215 222 199 213 243 257 256 235 169 185 178 249 166 185 132 232 219 196 212 198 181 273 187 228 210 275 234 257 236 224 290 136 206 185 248 274 166 188 266 195 279 237 203 281 238 247 183 131 229 309 271 262 202 296 249 276 265 232 222 228 197 231 223 259 234 230 201 244 257 272 148 188 235 222 251 227 210 249 239 206 187 221 197 195 244 314 162 350 234 296 226 238 196 222 185 201 173 135 279 232 319 279 171 278 247 208 209 261 299 237 225 208 327 247 257 302 282 156 206 199 285 241 229 212 230 155 174 246 184 147 229 158 180 278 156 214 193 195 201 229 250 218 241 198 271 232 217 227 174 233 198 323 155 189 261 132 285 225 268 220 316 205 256 294 243 224 226 251 207 172 252 211 340 235 204 188 247 302 313 195 212 226 161 286 223 284 291 193 200 284 287 244 316 224 241 297 278 207 114 250 283 208 181 246 240 222 247 284 258 225 254 278 208 238 242 232 157 273 198 258 215 167 220 225 281 194 241 256 161 315 227 280 247 255 126 166 284 287 313 247 281 203 323 223 253 251 230 234 182 327 257 265 172 329 207 245 289 231 169 292 235 197 194 282 226 254 200 291 198 265 158 233 136 225 213 194 283 242 259 280 222 175 223 246 234 192 243 245 317 242 259 339 200 199 265 262 197 268 216 268 221 231 236 204 246 233 203 255 274 211 192 197 365 134 284 225 152 231 254 122 263 202 177 170 261 265 169 236 201 138 295 169 342 206 207 202 194 262 364 262 153 219 315 205 268 211 285 169 191 134 232 215 199 206 224 154 181 285 232 306 201 302 187 216 203 242 240 259 182 298 256 194 334 184 270 269 249 315 205 212 147 143 223 289 186 331 258 257 254 246 269 254 295 283 208 214 214 243 245 205 339 295 154 221 231 156 230 287 194 235 153 210 222 306 202 267 238 245 163 193 258 313 270 268 181 129 268 250 174 120 177 153 280 235 312 209 180 230 127 227 248 233 222 235 192 209 200 198 248 214 251 277 290 223 315 292 137 238 277 255 176 182 244 206 286 183 303 295 233 234 154 378 248 267 206 238 225 196 200 283 207 200 185 276 167 351 240 252 143 235 237 202 248 223 176 180 233 218 156 243 290 181 233 263 205 165 250 235 242 239 206 198 235 342 176 228 289 192 174 247 197 286 227 230 233 185 183 240 322 201 226 215 283 308 253 177 177 208 207 305 314 246 206 234 202 161 238 219 216 165 162 280 221 183 74 147 224 168 226 292 192 275 248 229 167 208 166 148 209 240 253 238 199 252 137 291 201 220 163 204 315 275 191 183 167 138 222 203 148 212 216 296 290 175 130 224 243 218 191 226 306 202 216 217 250 228 183 225 238 233 176 220 354 177 176 248 244 233 224 261 371 235 352 200 304 218 193 155 257 225 361 151 195 282 212 123 208 200 216 196 223 219 293 247 136 200 170 331 213 284 193 172 223 189 202 217 212 256 226 249 187 250 181 272 160 167 215 226 268 148 165 244 245 187 185 301 288 267 194 165 224 140 254 264 188 161 210 204 258 153 256 243 229 200 194 216 252 244 337 168 283 203 185 235 180 253 232 120 175 167 165 344 222 285 219 165 204 201 244 163 273 228 231 256 244 230 225 179 170 245 249 229 247 316 310 178 254 188 249 180 193 237 223 314 211 307 190 195 252 192 142 219 231 326 242 109 241 397 211 147 221 218 211 184 256 207 163 242 156 242 273 296 223 310 272 183 177 190 171 294 192 230 288 327 178 233 266 310 172 152 229 313 273 196 197 270 237 246 284 232 218 131 142 340 242 193 324 262 247 237 210 137 172 211 240 195 173 306 191 188 208 246 214 340 235 236 204 261 224 199 242 221 269 265 231 159 231 249 172 131 199 228 359 228 198 247 189 189 227 244 225 166 190 298 235 287 238 226 168 209 108 234 169 232 265 254 383 205 238 109 227 219 195 219 209 211 233 243 241 171 197 247 198 221 208 211 192 246 143 171 220 256 163 254 250 203 257 217 224 224 249 199 185 259 257 215 257 285 186 176 188 312 240 161 268 240 191 240 188 216 209 212 218 203 216 150 253 216 235 160 275 225 279 212 245 153 266 213 223 208 183 237 257 221 226 198 256 332 219 244 193 215 253 285 281 222 257 196 227 172 278 223 331 182 218 324 174 287 248 151 214 251 175 164 239 231 176 286 237 193 245 275 249 291 310 201 211 213 120 268 154 179 206 229 141 254 225 195 218 258 251 231 189 267 176 153 223 227 221 286 266 194 167 260 235 253 244 191 264 173 191 164 234 206 212 244 237 151 211 260 190 199 217 303 222 274 256 272 215 339 190 148 229 176 276 321 219 181 191 139 171 279 260 226 235 226 173 312 157 256 207 202 213 245 169 206 270 175 178 339 297 300 294 226 269 181 215 185 304 240 322 176 271 229 251 245 202 263 232 217 257 268 190 349 179 265 212 199 222 204 226 234 269 227 178 279 227 258 215 188 227 275 246 200 252 210 243 212 273 185 217 266 226 289 282 196 197 260 257 223 206 286 189 211 257 262 298 245 198 163 305 226 290 193 242 216 260 199 219 360 264 129 228 213 251 307 211 260 168 235 337 173 192 351 156 184 301 199 180 222 243 251 260 197 236 176 222 191 253 110 206 215 298 269 202 210 247 142 268 230 230 288 210 222 273 218 257 208 203 241 279 182 284 228 201 120 231 181 282 274 241 262 281 222 162 291 270 303 181 257 84 181 182 195 231 166 218 324 243 232 235 167 184 146 236 244 264 219 355 292 196 208 183 235 222 272 300 229 224 284 194 297 228 262 218 262 152 221 130 261 222 138 356 151 179 343 204 338 293 161 260 224 146 338 234 282 309 304 243 165 149 222 176 277 178 187 242 276 270 171 148 153 236 226 199 263 214 150 180 235 238 236 147 164 276 172 279 217 247 243 217 226 252 178 288 201 214 230 196 189 195 186 200 197 259 268 181 265 230 233 233 290 218 275 225 250 297 226 200 186 239 201 246 178 362 288 276 187 150 170 255 155 198 280 210 196 269 248 331 258 246 231 256 227 256 179 210 337 236 116 189 228 254 217 229 227 176 129 229 193 265 257 273 158 154 202 236 226 187 206 218 214 223 151 223 253 199 148 172 218 193 217 186 235 145 234 274 159 277 298 273 195 202 257 286 170 283 202 260 221 229 211 237 221 202 248 227 250 172 227 268 114 201 225 223 265 242 134 328 285 221 264 260 182 303 292 209 206 257 182 202 215 201 218 206 255 258 201 227 177 211 99 169 194 222 182 276 311 281 251 240 197 310 333 132 256 153 204 160 141 287 256 250 178 209 221 191 266 215 141 242 223 318 268 265 174 231 173 170 189 220 183 211 250 226 231 299 141 145 214 221 172 278 197 256 247 330 104 179 210 151 206 194 254 137 297 186 177 164 276 220 264 188 229 242 207 268 207 141 191 293 289 154 213 288 195 156 259 208 283 195 223 200 271 188 240 279 295 355 287 279 265 265 310 220 216 288 267 183 268 219 193 289 333 206 248 221 382 304 267 235 158 240 237 127 216 132 178 259 181 255 263 219 298 208 355 353 127 295 139 253 274 185 241 277 215 201 238 201 174 242 277 246 185 260 161 237 120 178 287 208 234 244 185 213 184 176 258 239 265 241 167 212 244 255 170 247 287 256 213 217 228 233 159 199 285 184 252 251 241 185 178 201 157 310 197 204 192 184 129 204 240 255 215 319 298 180 160 222 186 262 270 254 290 293 205 265 258 254 227 234 321 261 183 261 185 214 320 232 213 257 239 178 244 187 133 182 201 231 180 232 181 125 164 136 191 131 209 301 126 169 236 322 259 207 196 230 223 127 241 203 202 333 264 228 278 265 282 293 97 257 223 198 235 237 218 180 185 249 184 183 195 256 187 205 280 269 281 296 273 135 280 234 179 253 245 355 263 237 137 175 284 228 217 256 277 226 176 141 282 185 197 133 273 202 245 266 194 245 232 223 230 230 236 270 199 179 231 307 174 283 275 140 228 269 219 217 198 236 139 206 220 289 311 341 209 252 194 260 158 229 258 246 289 343 173 264 234 298 162 110 276 248 216 281 236 167 219 290 211 167 165 233 214 175 250 189 293 177 178 210 225 273 290 259 313 239 272 277 192 255 247 293 118 255 232 229 218 179 156 243 257 274 175 278 174 235 193 258 213 259 196 181 286 281 269 192 220 245 291 149 223 234 292 363 123 200 254 272 242 225 158 203 235 208 178 200 250 232 227 202 207 204 218 246 216 224 277 255 201 266 185 241 242 235 158 245 238 164 253 216 231 232 158 191 186 289 204 217 196 250 176 132 185 268 169 248 259 226 255 153 205 255 203 214 146 231 213 255 306 234 198 218 281 222 207 232 265 203 246 177 286 198 266 220 197 134 168 169 213 223 168 279 236 284 296 102 281 237 213 239 220 237 219 237 222 187 222 233 184 196 323 244 214 228 176 213 206 233 205 227 223 223 239 239 116 324 239 173 254 182 344 231 261 117 253 215 234 190 168 191 327 265 184 122 212 258 286 252 285 252 167 244 242 254 198 203 273 202 220 208 234 190 325 160 178 210 228 260 166 226 186 251 237 191 174 185 231 167 184 308 243 255 312 234 271 200 273 242 198 259 274 255 275 299 221 299 203 182 187 110 141 298 258 277 209 203 266 171 329 344 263 284 212 165 173 199 179 284 302 266 266 164 140 289 219 168 204 199 200 294 240 202 219 208 178 182 226 182 211 228 237 249 157 249 176 253 288 274 202 260 248 230 121 272 241 144 241 199 256 284 176 316 320 351 175 242 202 208 206 198 235 183 221 246 281 248 216 166 151 254 232 233 256 168 176 203 243 200 233 207 212 255 227 252 308 261 201 213 220 250 167 290 271 160 216 207 276 236 238 244 210 292 205 257 253 154 195 225 285 300 154 264 300 125 164 259 182 236 188 215 298 250 184 250 233 181 261 187 225 230 275 293 196 281 226 210 199 176 248 212 228 295 282 172 299 258 305 195 162 278 231 183 288 217 160 279 147 199 214 163 189 170 257 149 192 239 239 221 210 236 247 247 204 251 260 239 236 221 245 164 248 244 186 273 305 208 297 247 273 238 225 181 296 228 251 243 223 189 275 274 340 306 208 207 235 181 250 282 270 212 303 230 206 218 210 214 164 298 203 270 225 217 178 175 160 187 234 237 262 243 207 231 168 251 238 217 260 256 295 340 248 266 235 165 211 309 314 212 229 148 210 282 289 216 243 192 169 277 243 249 253 259 242 174 240 298 218 201 158 230 277 306 287 242 124 180 210 343 226 178 179 236 202 237 258 198 192 180 213 335 187 252 180 174 308 183 232 234 284 310 200 258 275 233 341 231 279 176 178 218 200 265 277 195 302 226 208 264 241 192 191 173 178 226 145 183 232 162 236 170 345 202 239 278 274 252 243 325 208 222 179 209 260 179 258 248 258 236 205 253 185 220 232 320 132 216 272 220 215 240 175 221 291 246 293 247 270 220 271 253 294 235 261 234 257 224 171 240 216 258 209 127 246 336 255 172 221 227 305 266 141 171 205 223 272 287 204 186 202 166 243 245 224 249 305 201 352 223 290 252 253 263 190 214 430 208 232 179 146 294 240 241 177 145 252 269 168 243 152 277 141 243 219 245 256 180 257 303 285 210 250 233 300 136 312 182 234 190 197 284 357 189 292 242 253 244 240 296 265 281 271 270 275 249 220 201 280 243 216 239 207 255 283 162 224 322 236 164 308 269 174 211 255 282 227 128 193 219 229 170 267 224 208 241 261 287 225 247 187 240 263 232 183 253 192 216 198 214 207 221 229 210 304 296 218 251 230 254 201 224 177 179 235 235 220 268 107 192 192 183 210 241 234 213 235 136 226 237 278 213 192 289 153 234 263 203 150 218 281 239 219 274 246 122 243 247 162 218 246 217 171 143 158 278 234 337 254 214 257 260 282 227 271 289 276 159 296 196 195 261 270 215 192 211 202 181 215 147 261 261 133 177 255 186 208 214 169 257 238 256 197 182 191 298 256 264 305 262 274 247 156 167 242 262 174 247 298 198 229 228 256 326 208 224 206 164 281 162 198 266 254 203 190 185 191 248 226 256 247 242 270 285 182 250 315 188 277 192 218 279 199 347 298 289 207 212 277 225 282 265 226 224 208 251 216 216 160 261 307 289 249 229 179 287 220 256 228 226 329 244 306 238 264 123 181 185 268 166 300 227 205 241 161 254 190 312 267 154 284 225 223 237 294 167 274 182 242 229 207 154 223 258 185 140 214 156 315 265 237 154 154 223 261 232 134 159 323 342 234 243 202 214 302 261 322 209 215 154 254 217 257 196 297 306 164 167 326 298 276 203 209 300 313 279 257 220 223 238 221 218 208 247 337 201 278 203 298 257 225 282 254 205 256 231 283 385 292 203 292 202 193 232 166 230 173 272 257 289 226 160 326 177 223 333 321 212 209 164 239 243 252 242 283 217 146 219 247 271 244 224 296 125 196 230 145 228 200 247 294 192 230 260 245 222 284 184 204 207 295 240 209 281 244 218 174 </t>
+  </si>
+  <si>
+    <t>MIE(0.33940333337993867, 1.5088863183484997, -1.2572332815747274e-30, 1.8505156160699026)</t>
+  </si>
+  <si>
+    <t>1 3 2 0 4 1 2 1 0 0 1 1 1 1 1 1 2 3 1 2 0 1 0 0 0 2 2 2 1 0 1 1 1 1 2 1 0 3 1 0 4 2 2 1 1 1 0 1 5 2 1 2 0 2 2 2 3 0 2 1 2 0 1 1 0 0 2 0 2 1 2 1 2 1 0 0 2 2 1 1 2 1 0 3 2 1 1 0 0 0 1 1 2 0 1 0 2 0 0 1 1 2 2 1 3 2 2 1 0 0 2 0 0 1 2 0 2 2 1 0 1 1 1 1 0 2 0 1 1 3 0 1 2 2 0 3 2 0 2 1 0 4 3 2 1 1 2 1 0 2 4 1 0 1 0 1 1 0 1 1 2 1 0 0 1 0 2 1 2 0 1 3 2 1 0 1 2 1 1 0 0 3 2 2 1 2 0 2 1 1 1 3 1 0 1 2 1 2 2 5 1 1 2 2 1 3 1 2 2 2 2 2 2 1 1 3 2 1 3 1 0 0 1 1 2 2 1 0 1 3 0 2 0 1 2 1 2 3 2 1 0 0 2 0 1 1 0 2 2 1 0 1 1 2 1 2 1 1 0 2 4 1 0 0 1 3 1 0 1 1 2 1 0 2 2 1 1 0 3 2 2 1 0 2 2 1 2 1 2 1 2 0 1 1 0 0 1 1 3 2 1 1 1 1 1 0 1 1 0 2 2 2 2 1 1 1 1 2 0 1 1 1 2 4 2 0 3 0 3 2 0 1 2 0 1 1 0 2 2 3 3 1 1 1 1 4 2 2 0 0 2 1 1 0 0 1 1 2 1 0 0 1 2 1 2 2 0 1 2 1 1 1 0 1 2 1 2 1 3 2 1 5 1 0 1 2 0 0 1 0 0 1 1 1 1 1 1 0 1 0 3 1 0 1 3 1 2 0 1 1 1 0 1 0 1 0 0 0 2 1 0 0 1 1 1 0 1 2 2 1 2 2 2 1 2 2 2 0 1 1 1 2 3 1 0 2 1 2 2 0 2 1 2 1 2 0 1 1 2 0 1 0 3 1 0 1 0 2 1 1 3 3 2 2 1 3 1 2 0 1 1 3 1 1 0 3 1 3 0 2 0 1 1 1 1 2 3 2 0 1 0 2 3 2 1 0 2 0 1 2 1 1 0 1 2 1 2 2 2 2 1 0 1 1 0 0 1 0 0 1 2 2 2 1 1 1 0 2 2 0 1 2 1 1 1 0 1 2 1 1 2 4 2 2 0 2 2 1 2 3 2 1 3 1 1 3 1 1 0 1 1 0 1 2 1 1 0 0 2 2 1 3 0 1 1 2 0 2 2 3 2 0 2 2 2 0 0 2 2 1 2 3 3 1 0 0 1 2 1 1 1 1 1 1 2 3 0 2 1 1 0 1 2 1 2 0 2 2 0 2 1 1 3 1 1 1 2 1 0 1 2 1 1 1 2 0 0 1 0 2 0 0 1 0 2 3 2 0 2 1 1 1 2 1 2 2 1 2 1 0 1 1 2 3 1 1 1 1 2 1 3 1 1 2 1 0 1 0 2 1 0 3 0 1 2 2 1 0 1 1 1 0 1 2 1 0 3 1 0 1 1 1 1 1 2 1 0 1 1 0 2 4 1 0 1 1 2 1 0 3 2 4 1 2 2 3 0 0 3 2 0 1 1 1 0 0 0 1 1 1 3 0 4 0 1 2 1 2 4 1 3 3 2 3 1 2 1 1 1 2 2 1 0 1 0 3 1 0 2 0 0 1 1 1 2 1 2 0 2 2 1 0 0 1 1 2 0 2 3 2 0 2 0 0 1 2 3 1 1 1 1 1 3 3 1 1 0 2 1 1 2 2 0 1 1 2 1 1 0 3 1 4 1 2 0 0 1 1 2 1 3 1 0 2 1 2 1 1 1 2 2 3 0 1 1 2 0 2 1 2 1 2 1 2 2 1 1 0 1 1 1 2 0 2 0 2 2 0 0 2 1 1 0 0 1 1 2 0 1 0 1 1 3 1 2 1 2 1 1 1 1 0 1 2 1 1 3 3 1 0 1 2 2 1 0 2 0 0 1 1 2 0 1 2 1 2 2 1 1 2 1 1 1 2 1 1 1 3 3 0 1 0 0 1 3 2 1 1 1 2 3 1 3 1 1 1 2 1 3 0 0 2 2 2 1 3 1 2 0 1 0 1 0 1 0 1 2 1 1 1 3 2 2 1 0 1 2 2 1 1 1 2 0 1 0 0 0 0 2 1 2 2 2 1 2 1 2 2 3 2 1 2 2 4 2 0 2 1 0 2 1 2 1 2 1 0 3 3 1 0 0 1 1 1 1 1 1 2 1 1 0 1 1 1 1 1 3 1 2 1 2 1 0 1 0 1 1 2 2 2 2 0 0 2 1 1 1 0 3 0 3 2 0 0 2 0 1 1 1 2 0 1 1 0 2 3 3 2 3 1 1 3 0 1 0 2 1 1 0 1 2 1 3 0 1 2 1 0 0 0 1 3 1 0 1 2 1 2 4 4 3 1 2 1 1 2 1 1 3 1 1 0 1 1 0 2 0 0 0 1 0 1 1 0 0 0 0 3 2 2 1 2 0 3 3 2 1 2 0 1 1 2 1 1 1 0 1 1 1 1 2 0 1 0 1 3 0 2 2 2 1 3 1 2 1 2 0 1 0 0 1 2 3 0 2 0 2 0 2 2 0 3 1 2 2 0 2 2 1 1 1 2 1 2 3 0 4 2 0 2 1 1 1 1 0 2 3 1 2 3 0 0 1 1 0 1 1 0 0 2 2 1 1 0 1 0 0 1 1 2 0 2 0 0 0 2 0 1 0 0 1 1 2 1 3 5 2 1 3 2 1 1 1 4 2 1 3 3 2 0 1 0 1 1 1 1 1 1 0 1 2 2 0 3 1 0 0 2 2 2 1 2 0 2 0 1 0 0 1 2 1 1 0 0 3 0 1 1 1 3 2 4 2 1 0 1 2 1 1 3 1 1 1 1 0 1 2 0 1 1 0 1 3 2 0 0 0 0 1 1 1 2 2 2 4 1 0 1 0 2 2 1 0 1 4 0 1 1 1 1 0 1 1 1 1 1 3 1 1 2 1 2 0 0 2 3 2 2 2 2 2 1 3 2 2 2 1 1 0 0 1 1 0 1 2 1 0 1 1 1 3 2 2 2 1 3 1 0 1 1 2 2 2 2 2 1 1 0 1 3 0 0 2 1 1 0 2 2 1 2 2 2 1 1 2 0 1 1 1 1 0 2 1 1 0 1 1 2 2 1 1 3 2 0 0 1 2 1 4 1 1 1 1 1 1 1 2 0 0 1 1 0 1 1 1 2 0 1 2 2 1 2 2 1 2 1 1 2 0 2 0 4 0 2 1 0 2 1 2 0 1 2 3 1 3 1 1 2 0 2 2 1 2 2 0 0 0 0 2 2 2 0 3 1 0 1 2 1 1 2 3 0 1 2 1 1 2 3 1 1 0 1 1 2 1 1 0 2 2 1 0 1 4 1 1 1 1 2 1 3 2 2 1 2 3 1 1 1 1 1 0 2 3 0 1 1 1 1 1 2 1 0 2 2 1 1 0 2 0 1 1 1 1 1 0 0 0 1 1 3 0 2 2 1 2 3 1 0 1 1 0 3 2 0 2 0 0 0 1 2 0 1 2 2 2 1 2 2 0 4 1 1 4 1 0 2 0 1 1 1 3 1 1 1 1 1 2 2 1 2 1 1 2 2 2 1 1 1 2 1 1 2 0 1 3 2 1 0 2 1 0 0 1 1 2 1 1 1 2 1 0 2 1 3 2 1 0 2 1 1 1 2 0 1 1 2 3 1 0 1 1 1 0 1 1 1 0 1 1 1 4 1 1 0 2 0 2 0 1 1 1 1 3 0 1 1 2 1 1 0 0 0 1 0 0 2 3 1 1 0 1 2 3 0 2 3 2 1 2 1 1 1 3 1 3 0 1 1 1 0 1 1 2 2 2 3 1 2 1 1 0 0 2 1 0 2 1 3 1 1 1 2 0 1 1 3 1 1 1 1 1 1 2 1 0 0 1 2 0 1 1 1 3 2 1 2 1 1 2 1 1 1 0 0 1 1 2 1 0 2 0 2 1 0 2 3 0 0 1 1 0 2 1 1 2 2 0 0 1 1 1 1 4 1 1 0 0 4 3 1 1 0 2 2 0 3 0 1 0 2 1 1 2 0 1 3 0 2 1 0 1 1 2 0 1 1 1 1 3 2 2 2 1 1 0 2 2 2 2 0 0 2 1 0 3 1 0 1 2 1 0 3 0 0 4 2 0 2 3 0 1 1 1 1 2 1 2 0 2 2 3 1 1 1 1 2 0 1 2 2 2 3 2 1 3 1 0 1 2 2 2 2 1 2 2 1 0 0 0 1 1 3 1 1 2 3 3 0 1 2 1 1 1 2 2 2 3 0 1 0 1 2 1 0 3 2 2 2 2 1 1 0 0 1 0 0 1 1 1 1 2 2 0 2 1 1 0 0 1 0 2 4 2 1 1 2 1 0 1 1 0 2 1 2 2 1 2 1 1 0 1 2 0 2 0 1 1 1 3 0 2 1 2 0 1 3 1 0 0 1 1 0 1 1 1 2 4 2 0 2 2 2 1 1 1 1 1 1 2 1 0 2 0 0 2 2 2 0 1 1 1 2 2 2 1 0 2 1 0 5 0 0 2 1 2 0 2 0 2 1 2 0 2 0 2 1 2 1 0 3 1 0 0 1 1 1 0 1 1 1 2 2 2 2 0 1 1 1 2 2 1 0 1 2 1 1 3 1 0 3 1 1 1 1 1 1 2 1 3 1 1 3 1 2 3 1 1 1 1 2 3 0 1 1 1 0 1 0 3 2 1 0 1 2 0 2 1 2 2 1 1 2 0 1 0 2 1 1 1 3 2 0 3 1 2 2 1 0 1 1 1 1 1 2 0 0 0 0 0 0 2 2 2 0 2 0 0 2 1 1 2 2 1 3 2 3 5 2 1 2 1 2 4 1 1 1 0 0 3 3 1 0 3 2 2 0 1 1 0 1 0 1 1 1 1 2 0 2 2 2 2 2 2 3 1 1 0 2 1 0 3 1 1 0 2 0 2 0 0 4 0 0 0 2 3 1 2 0 3 2 0 3 1 1 2 3 2 1 1 0 0 1 2 0 1 1 2 1 1 1 2 0 0 2 1 2 1 1 4 2 2 0 2 1 0 2 1 1 1 0 2 0 2 0 1 0 1 2 1 0 0 2 1 1 1 1 1 1 2 1 3 1 0 2 1 0 3 0 1 2 0 3 0 1 1 2 2 3 1 2 2 0 3 1 2 0 1 3 2 2 2 1 2 1 3 2 1 1 1 2 1 3 1 1 2 1 1 3 0 0 0 2 1 1 1 0 2 0 3 2 0 1 1 0 1 1 1 1 2 0 1 2 1 2 2 1 1 1 0 1 2 1 1 1 0 2 1 2 2 1 2 1 1 1 1 0 0 0 1 1 2 1 1 0 2 1 2 2 2 1 0 2 0 2 0 1 1 1 3 1 4 1 1 1 1 2 1 0 1 1 3 1 2 2 0 1 0 3 0 2 1 1 1 0 0 1 0 0 2 1 1 1 2 1 2 1 2 1 2 1 2 1 2 2 1 1 2 1 1 0 0 1 0 0 2 4 1 0 1 2 3 3 0 2 2 1 3 1 2 3 0 3 2 1 2 0 2 1 0 1 1 1 1 1 3 1 1 1 1 0 3 2 3 2 2 1 2 2 2 0 1 1 0 2 1 1 1 3 1 0 1 2 1 1 1 1 0 2 1 1 3 2 1 1 2 2 0 1 2 2 0 0 1 0 0 3 1 2 2 2 1 0 2 2 2 2 0 1 3 1 1 1 1 0 1 0 1 2 1 1 0 0 1 2 2 1 1 4 1 3 2 1 2 1 1 1 2 0 3 3 1 2 0 0 1 0 0 0 3 2 1 1 1 0 2 2 0 2 0 2 1 0 1 2 1 1 1 0 1 1 0 2 2 1 1 1 0 0 3 2 2 0 0 2 1 2 2 1 2 1 3 1 0 2 0 1 3 2 2 2 2 0 1 1 1 3 2 2 2 0 0 0 1 3 3 0 2 2 1 0 0 1 0 1 1 0 4 1 0 3 0 1 0 1 1 2 1 2 1 1 1 1 1 1 2 2 1 1 1 1 0 1 0 2 1 0 1 2 1 0 1 0 2 1 1 2 2 1 0 0 1 1 1 0 2 1 2 0 3 1 3 0 1 1 1 0 1 2 1 3 1 1 1 2 3 1 1 1 1 2 1 1 2 2 0 0 0 0 2 0 1 0 0 1 1 1 1 0 2 2 2 1 1 1 1 1 0 2 2 2 1 0 2 2 0 2 1 1 2 2 0 1 1 2 0 1 1 3 1 0 4 1 1 0 0 0 0 2 2 1 1 2 1 1 1 1 2 0 4 1 3 1 1 1 1 1 2 2 0 2 2 1 2 0 1 1 1 1 0 0 0 1 2 0 1 1 2 1 0 1 2 0 3 2 0 3 2 3 1 1 1 1 2 0 0 1 3 1 1 0 0 1 0 1 0 0 1 2 0 1 2 2 2 3 1 0 1 3 0 2 0 1 1 1 0 2 2 1 0 1 1 3 3 2 0 2 2 2 0 1 2 1 1 3 0 2 0 0 3 2 2 2 0 0 0 1 1 3 1 2 1 2 1 0 1 2 3 0 1 1 1 1 0 0 1 1 0 1 1 0 1 1 1 2 1 2 2 4 3 0 1 1 1 1 1 1 1 0 2 2 1 1 0 1 2 1 2 1 1 1 0 3 2 1 0 1 0 1 1 5 1 1 1 2 2 0 1 3 2 4 1 1 1 0 1 0 2 1 2 1 1 2 1 1 1 0 1 0 2 2 1 0 0 1 1 2 2 1 0 1 1 3 0 1 1 2 0 1 2 2 0 1 2 0 0 1 2 1 0 0 1 0 2 0 0 2 2 1 0 1 2 1 1 2 1 1 1 1 1 1 2 1 0 2 2 2 2 2 0 1 2 2 1 1 1 3 3 1 2 0 1 1 2 1 1 3 0 2 1 1 2 0 3 1 1 0 3 0 1 0 0 1 0 2 4 1 2 2 2 1 1 1 1 0 2 2 1 0 2 3 2 1 1 3 3 1 2 3 1 1 1 0 2 0 0 1 2 3 0 3 1 3 0 1 0 2 1 0 0 1 1 1 0 1 1 4 1 1 1 1 1 1 1 1 1 2 1 2 0 2 0 2 1 2 0 2 2 1 2 0 0 1 0 1 0 1 3 2 1 2 0 1 2 1 0 1 1 2 2 1 0 2 2 1 2 2 1 1 1 1 3 2 2 1 1 1 1 2 0 1 1 2 3 2 2 0 1 0 0 2 2 1 2 3 2 3 0 0 0 1 1 0 1 1 1 3 0 1 3 0 1 1 2 0 0 0 1 2 1 1 1 1 3 2 1 0 2 1 2 1 3 1 2 0 2 1 1 0 0 0 1 0 0 2 1 1 2 1 2 1 1 1 1 1 3 1 1 2 1 1 2 2 1 2 1 1 1 2 1 1 2 1 1 0 0 1 1 1 1 0 1 2 2 1 2 0 3 0 1 0 3 0 1 1 1 2 4 1 0 2 2 1 1 1 2 1 1 1 1 3 0 2 1 1 2 1 0 2 2 1 2 1 1 3 2 1 0 0 2 2 2 1 2 0 2 1 0 0 2 2 0 1 0 1 2 0 3 1 2 1 2 1 2 0 1 1 2 1 0 1 1 3 2 0 0 1 3 0 2 2 2 2 2 0 2 1 3 1 0 1 1 0 0 2 1 2 1 0 0 1 2 0 0 1 2 1 0 2 2 2 1 0 0 2 1 3 0 1 1 1 1 2 1 0 2 3 0 2 1 0 1 2 0 0 2 0 0 1 1 2 2 2 2 1 1 1 1 1 0 1 1 0 2 2 2 2 0 0 1 2 0 1 2 1 0 2 1 1 1 3 1 1 1 1 1 0 0 1 1 3 1 1 0 2 1 2 1 1 0 1 0 2 1 1 3 1 1 3 1 0 4 0 1 1 2 3 1 2 0 1 3 2 2 2 2 2 1 1 0 0 0 0 0 1 0 1 2 1 2 1 3 0 1 1 1 0 0 3 1 2 2 1 0 1 3 2 1 1 1 3 0 3 3 2 0 1 1 4 1 1 1 2 2 0 2 1 0 2 3 1 1 3 0 2 3 1 2 0 2 1 2 1 1 4 2 2 0 2 3 2 4 2 2 1 2 1 0 0 3 0 1 2 2 0 1 2 1 1 0 2 0 2 1 1 1 2 2 1 2 0 2 1 1 0 2 0 2 2 2 1 0 2 3 1 0 0 1 2 2 2 2 0 1 1 2 0 1 1 1 1 1 1 1 1 2 1 0 1 2 1 2 2 2 0 1 1 0 0 0 0 2 2 0 2 2 0 1 1 1 1 1 1 0 0 0 1 1 1 1 1 3 0 1 1 2 2 3 2 1 0 0 1 0 1 0 0 2 1 1 2 3 1 1 1 3 3 3 2 0 5 3 0 1 2 0 2 2 2 2 1 1 1 1 0 1 1 0 3 1 3 0 2 2 1 0 0 1 1 0 1 0 2 0 1 0 3 3 2 1 0 1 2 1 2 1 1 1 0 1 0 1 2 1 1 1 2 1 3 2 2 2 2 0 2 3 3 1 3 1 2 1 1 2 0 0 0 1 2 1 1 0 1 1 2 0 1 3 2 0 1 1 0 1 1 3 1 4 1 0 0 0 1 0 1 1 0 1 2 1 2 1 0 0 1 1 0 0 0 0 0 2 1 3 1 1 1 1 1 2 1 0 2 2 3 2 1 1 1 3 1 1 1 2 1 2 0 0 0 1 1 0 1 2 1 2 2 2 0 1 2 2 3 2 0 1 0 2 1 2 1 1 3 1 0 1 1 0 2 1 1 1 1 1 1 1 2 1 1 1 1 1 0 2 3 2 2 1 0 1 2 0 1 0 0 2 0 0 3 3 2 1 1 1 1 0 0 0 0 2 1 1 2 0 2 3 1 0 2 0 1 1 1 1 1 2 1 1 1 3 2 2 1 3 0 1 0 0 1 2 1 0 2 1 0 2 1 1 0 0 2 1 0 1 2 0 2 4 2 4 2 0 1 1 3 3 1 1 1 2 1 0 1 1 0 3 2 3 1 1 1 1 1 1 1 0 0 1 0 0 1 1 1 3 1 1 2 0 3 1 1 1 0 1 0 0 1 1 1 0 0 2 4 1 0 1 2 1 2 1 1 0 1 1 1 1 1 1 1 1 2 1 1 2 3 1 1 1 0 0 1 0 1 1 3 2 1 1 2 1 1 2 0 1 3 1 1 1 2 3 2 0 1 0 3 1 1 1 1 4 1 2 0 1 2 1 2 1 0 2 2 4 0 2 2 0 2 1 0 1 1 0 2 3 2 1 0 1 1 1 0 0 1 0 1 1 1 1 1 1 3 2 1 0 0 1 3 0 1 2 2 1 0 3 0 2 1 1 2 1 1 1 2 3 1 1 3 0 1 2 1 0 1 1 0 0 1 2 2 2 0 1 3 2 1 2 2 4 2 3 0 2 1 1 0 2 2 0 1 0 2 1 1 2 1 0 1 0 1 1 2 2 2 3 1 0 0 1 1 2 1 3 1 1 1 1 0 3 0 2 1 2 1 2 1 2 0 2 0 2 2 1 1 2 1 2 1 1 2 0 0 1 2 0 0 1 2 0 1 1 2 1 1 3 3 1 2 1 2 2 0 1 2 1 1 1 0 1 3 1 4 0 2 1 0 1 1 2 1 2 2 0 1 2 1 2 1 0 2 0 1 1 0 0 3 1 1 1 3 0 1 0 0 0 0 1 2 2 0 0 0 0 0 1 1 2 0 1 1 3 1 1 1 2 0 0 0 0 2 0 1 2 1 1 0 0 2 1 1 0 2 3 1 1 0 2 2 2 3 0 2 0 3 0 3 1 2 1 1 1 0 2 2 2 1 1 2 0 3 1 1 1 0 1 3 1 1 0 3 1 2 2 3 3 1 2 2 0 0 0 0 1 1 0 1 1 2 2 2 1 1 1 2 1 0 2 2 1 0 2 1 2 2 2 1 0 2 3 0 0 1 0 1 1 3 3 1 1 1 1 1 0 1 1 2 1 2 1 0 1 0 3 2 0 1 2 1 2 0 1 1 1 0 0 0 3 1 1 2 2 3 1 2 0 2 0 1 1 1 1 1 0 0 1 0 2 1 2 1 1 1 1 0 1 1 0 1 0 1 0 1 1 1 2 1 0 1 2 0 0 1 2 2 3 0 0 0 2 2 2 0 2 2 0 3 0 2 1 1 3 3 1 2 3 0 1 0 1 2 0 0 2 1 0 3 1 0 0 2 1 0 2 2 1 1 2 1 1 2 0 2 1 1 0 2 2 0 3 1 2 2 0 0 1 3 1 2 3 0 3 0 3 1 1 1 2 2 2 1 0 1 3 0 0 3 1 1 1 5 1 1 1 1 1 3 0 0 0 1 0 2 2 0 3 2 2 2 1 1 0 2 1 2 3 1 2 3 1 1 3 0 3 0 1 1 1 1 1 0 2 0 0 1 1 0 0 0 1 1 2 1 1 2 0 2 1 0 2 1 2 2 1 2 1 2 1 0 1 1 0 1 1 1 2 1 2 0 2 1 3 1 1 2 1 2 1 4 1 0 1 1 1 1 2 1 1 1 0 1 2 2 1 1 2 1 0 1 1 1 3 2 2 1 3 2 2 0 1 0 0 1 0 2 2 3 2 1 1 2 1 0 1 1 0 1 1 1 2 1 1 0 1 1 1 1 2 1 1 0 1 0 0 2 1 1 2 3 2 1 0 1 2 1 1 1 2 3 0 2 2 1 0 0 1 2 0 0 1 3 2 1 0 0 0 1 2 2 1 4 1 0 0 0 0 0 1 1 3 2 1 0 1 1 1 0 0 0 1 2 3 0 0 1 1 1 0 1 2 0 2 3 2 1 1 4 1 1 1 1 2 3 0 0 2 1 1 1 3 0 1 0 1 3 2 1 3 2 0 1 2 3 1 2 2 2 0 3 0 2 1 1 2 2 1 3 1 2 1 1 3 1 0 1 0 1 0 2 1 2 1 1 1 0 1 1 1 1 0 1 2 0 2 0 1 3 2 2 2 2 2 2 0 3 2 0 1 1 2 0 1 1 0 1 2 4 0 1 0 0 1 2 1 1 0 2 1 2 1 2 1 3 3 3 0 2 0 1 1 3 1 0 1 1 1 2 0 0 1 0 2 3 1 0 0 2 2 0 2 0 2 1 2 1 2 1 1 0 0 1 3 1 1 2 1 1 3 2 2 1 3 0 0 1 1 1 1 3 0 2 2 3 3 1 1 0 1 1 1 2 2 1 1 0 0 0 0 1 3 1 0 0 2 2 1 1 1 1 1 0 0 1 1 1 2 1 2 2 2 0 0 1 1 3 4 0 0 0 1 1 0 1 1 2 5 1 0 2 1 2 1 0 3 1 1 1 2 5 0 0 0 2 1 2 2 1 0 1 2 1 1 0 0 2 4 0 1 2 2 2 2 3 3 1 1 1 2 2 1 1 2 2 3 2 0 2 1 1 2 2 1 1 3 2 1 2 3 2 0 2 0 1 2 1 1 1 1 1 1 2 1 1 2 1 2 3 0 0 3 0 3 0 0 3 0 1 2 2 0 0 2 0 1 1 0 0 1 2 1 3 2 2 1 1 2 2 2 2 4 2 1 0 0 0 2 0 0 0 0 1 2 2 0 0 2 1 1 1 2 3 0 1 3 1 1 0 2 2 1 0 0 2 0 0 1 1 1 1 2 0 1 1 2 1 4 1 3 1 0 3 1 1 1 2 1 0 2 1 1 0 2 1 1 2 2 1 3 4 1 1 2 1 1 0 0 1 0 2 2 1 0 0 2 0 0 3 1 1 3 1 0 0 2 1 0 1 1 2 3 3 0 2 1 2 0 2 2 0 1 0 2 1 1 0 1 0 2 2 2 2 0 0 0 2 3 1 1 2 0 1 3 0 3 1 2 0 0 0 1 0 2 1 1 1 1 0 3 2 1 3 1 1 3 3 2 1 2 1 2 1 1 1 2 1 1 2 1 3 0 1 0 2 1 2 1 1 1 1 0 3 0 2 1 3 2 3 0 1 3 2 0 1 0 0 0 1 1 0 0 0 2 0 2 2 2 1 1 1 1 0 0 1 2 2 1 1 1 1 1 1 1 1 1 0 1 1 1 1 1 1 0 3 2 2 1 1 0 1 1 1 2 0 1 2 1 1 0 1 2 4 1 1 1 3 0 2 1 1 1 1 0 3 2 2 3 1 1 2 1 0 1 1 0 1 1 2 1 1 2 2 2 1 2 0 1 1 0 0 2 1 3 1 1 3 2 1 1 2 5 1 1 1 2 0 1 2 1 1 1 2 1 1 2 0 1 1 2 2 1 3 2 2 3 2 1 1 1 2 1 1 0 2 1 0 1 1 3 0 1 1 2 1 1 2 0 0 1 2 3 3 1 0 1 2 0 2 0 2 0 0 1 0 2 2 2 2 1 1 2 2 2 0 1 2 2 1 2 1 1 1 2 1 0 1 1 3 0 2 2 1 1 1 0 1 2 2 0 1 3 2 0 2 2 1 2 1 0 0 0 0 0 1 1 2 2 2 0 3 3 1 2 0 1 0 1 2 0 3 1 1 1 0 0 2 0 2 1 1 2 2 0 2 1 1 3 2 2 0 2 0 2 3 2 3 2 0 2 1 0 2 1 2 4 1 2 1 3 0 0 1 3 0 1 1 2 1 1 3 0 3 1 2 4 2 0 1 3 3 1 3 2 0 1 0 2 1 2 1 3 0 1 0 0 4 2 0 1 1 1 1 1 2 2 2 0 1 1 2 0 1 2 3 1 2 2 1 0 1 1 1 1 2 2 1 0 2 0 1 1 3 0 1 2 1 0 0 1 2 0 1 1 1 1 2 1 2 1 2 2 1 0 2 3 0 0 0 0 2 0 2 3 1 3 1 1 3 3 0 0 1 0 0 1 1 1 1 1 0 0 0 1 2 3 1 1 1 1 1 1 2 1 2 0 0 0 0 2 2 0 1 0 1 0 3 2 1 2 2 2 2 1 1 3 3 1 1 2 1 2 2 1 3 1 1 0 3 1 1 0 2 1 1 0 2 3 1 2 3 0 0 1 2 0 3 0 0 2 1 4 1 2 1 0 2 1 1 2 1 1 0 0 1 1 1 0 1 2 0 2 2 1 2 3 2 2 1 1 1 4 1 0 2 1 3 3 1 1 0 2 2 1 2 1 1 3 0 2 1 2 1 0 0 1 2 1 1 0 3 0 0 0 1 2 0 1 1 1 1 0 2 1 3 1 2 1 1 2 1 1 3 1 0 1 0 1 3 1 0 2 0 2 2 1 1 2 2 0 0 1 2 1 1 2 2 1 1 0 2 3 1 0 0 1 2 2 0 1 1 3 2 1 3 1 1 1 1 0 1 0 1 2 0 0 2 3 0 2 0 2 1 0 2 2 3 2 0 1 3 1 2 1 3 1 0 2 0 0 2 1 1 2 2 1 0 1 0 1 1 1 0 1 1 1 2 1 0 0 1 4 1 2 0 0 2 2 2 2 1 2 0 1 1 1 3 1 1 1 1 0 2 1 1 1 0 2 2 3 1 3 3 2 0 1 1 2 1 1 2 1 1 1 1 0 2 2 0 3 1 3 1 1 1 1 1 0 1 2 0 2 1 0 2 2 1 1 0 1 2 0 0 1 1 0 3 1 0 0 3 3 0 0 2 3 1 0 0 2 2 1 1 2 0 2 1 2 0 0 2 0 1 2 2 0 1 1 2 1 1 1 1 1 2 1 0 4 1 0 0 3 1 1 2 2 2 2 1 1 2 1 1 1 1 0 3 0 1 3 1 1 2 0 1 1 2 1 2 1 0 0 1 2 1 0 1 3 2 2 0 1 1 1 1 2 2 1 2 1 0 3 3 0 1 2 0 1 1 0 2 3 1 2 0 1 0 2 0 1 0 1 0 0 0 1 3 0 0 1 1 1 1 0 1 2 2 4 1 2 1 2 1 3 1 1 1 1 2 2 2 2 1 1 1 1 1 2 1 0 1 1 0 2 1 1 1 0 1 0 2 2 1 2 1 1 1 2 2 0 1 0 3 5 3 1 1 0 2 0 1 0 1 1 2 1 1 2 0 0 0 1 2 1 3 0 1 1 1 1 2 1 0 1 0 0 0 1 1 1 2 0 1 1 1 2 2 2 3 1 2 0 0 1 1 0 3 1 2 1 3 1 0 2 3 4 1 2 1 1 2 0 0 1 2 1 2 1 2 3 1 1 1 1 0 0 1 2 0 0 2 0 2 0 1 1 2 2 3 2 1 1 1 1 2 0 3 2 0 3 1 0 1 1 2 2 2 0 0 2 3 1 1 3 1 0 2 1 3 1 2 0 2 2 1 1 2 1 0 3 3 1 2 1 0 1 0 0 1 1 1 1 2 1 1 0 1 0 1 0 1 1 3 1 2 2 3 2 0 4 2 1 1 1 2 2 1 1 2 2 1 2 0 2 2 3 3 1 2 1 0 1 1 1 2 0 2 2 2 1 2 1 1 1 0 0 1 3 1 1 0 3 1 1 2 1 2 1 0 1 1 1 0 1 0 2 0 1 2 0 1 0 0 2 0 2 2 1 4 1 1 1 2 1 3 2 1 1 1 2 0 0 0 3 2 3 2 1 0 3 2 2 0 0 1 1 1 0 3 2 1 1 1 2 3 1 1 2 0 0 3 1 2 2 0 1 1 1 2 1 1 2 1 0 1 1 2 0 1 0 0 0 1 0 1 2 0 0 1 2 1 0 1 2 0 1 0 0 1 2 2 1 1 2 1 2 1 1 2 2 2 0 2 1 1 0 1 2 1 0 1 0 2 0 1 1 2 3 1 0 1 0 1 2 1 1 1 2 0 0 2 2 2 1 1 3 1 0 1 2 3 1 1 1 2 0 1 0 0 0 3 1 2 0 2 2 1 3 0 1 1 2 4 1 1 1 2 3 0 1 0 1 1 0 1 1 0 1 1 0 0 0 3 0 2 0 2 2 2 1 3 1 0 1 1 0 1 3 1 1 4 2 0 1 3 2 0 1 3 1 2 0 1 2 0 1 1 1 0 1 2 1 0 2 2 0 2 2 1 1 3 3 0 0 0 2 0 1 1 0 1 0 2 2 1 2 2 1 1 1 1 2 3 2 0 2 1 3 0 2 0 2 1 1 1 1 2 2 3 1 1 1 2 2 1 0 3 3 1 2 0 2 2 1 3 2 0 1 1 1 2 0 2 0 2 0 1 2 1 2 1 1 2 1 1 2 1 1 1 0 0 2 1 1 3 1 3 1 2 0 1 2 1 2 1 0 0 1 2 1 1 3 0 1 0 1 1 0 0 3 0 2 0 0 2 0 0 1 3 1 1 2 0 0 1 1 1 0 1 3 1 1 1 0 2 2 2 0 1 0 1 1 0 0 1 2 2 1 2 1 1 1 2 1 3 1 0 1 3 1 1 1 2 1 1 1 1 0 1 1 0 2 3 0 1 1 3 0 0 1 2 0 1 2 1 1 1 1 0 0 0 2 2 0 1 3 1 2 1 2 0 2 2 0 2 2 1 1 1 2 2 2 0 2 0 1 1 0 1 1 2 2 1 0 1 3 2 1 0 1 0 0 0 0 1 1 0 0 0 0 1 2 2 2 1 2 2 0 2 4 0 1 1 1 2 1 2 3 4 2 0 1 2 0 1 2 0 1 3 0 3 1 1 1 1 1 1 1 2 1 0 1 2 1 1 2 1 3 1 2 0 2 3 2 2 1 1 0 1 1 3 1 1 1 0 2 1 1 1 2 2 3 1 2 1 0 2 0 0 2 1 0 0 0 2 3 1 0 2 1 1 0 2 1 1 1 1 1 1 2 1 2 1 2 0 1 2 1 3 1 3 0 1 1 0 1 1 1 1 1 3 0 2 3 1 1 1 2 2 1 1 2 1 0 3 1 1 0 1 0 1 0 0 0 2 1 1 0 1 1 2 2 0 1 3 3 1 0 3 2 1 1 2 2 1 1 0 2 0 1 1 2 1 2 3 1 3 2 1 0 1 1 0 2 0 1 1 2 1 1 0 2 1 2 1 0 3 2 2 3 0 3 3 2 0 2 0 2 0 1 1 1 1 1 1 0 2 0 2 0 1 0 2 1 2 1 2 0 1 0 1 1 0 1 1 2 1 3 0 2 2 1 1 0 0 4 1 2 0 1 1 2 2 1 2 0 0 1 2 0 0 2 1 2 1 2 0 0 0 0 0 1 1 0 2 2 1 2 1 1 2 1 0 1 2 1 3 2 2 2 0 2 1 1 1 2 1 2 1 3 1 1 0 0 1 0 2 2 2 1 1 1 0 1 1 1 1 1 2 1 2 0 2 1 0 1 1 0 2 2 1 1 1 0 2 1 1 1 1 0 0 0 2 1 1 2 2 1 1 1 0 1 0 0 1 2 1 0 2 2 1 1 3 0 2 2 1 1 1 1 2 2 1 3 2 0 1 1 2 1 1 1 1 1 2 2 1 2 2 1 2 1 2 2 2 1 2 2 2 2 2 0 1 0 1 0 3 2 0 0 2 2 1 1 0 0 2 0 1 1 0 2 1 1 2 1 2 1 0 1 1 0 0 3 1 3 5 1 1 1 1 2 0 1 0 2 1 1 3 1 1 2 2 1 0 2 3 1 1 0 0 1 2 0 2 2 1 1 2 0 0 0 1 0 0 2 2 1 1 1 1 2 1 1 3 0 2 1 1 1 0 1 0 0 1 0 1 1 2 0 1 1 4 2 2 2 1 0 2 2 2 2 1 1 2 2 1 0 1 0 1 1 2 1 2 1 1 1 2 1 1 2 2 1 1 2 1 2 1 0 0 1 1 1 1 1 1 0 2 1 1 2 1 2 1 1 3 1 0 1 3 1 2 1 0 3 2 2 4 2 2 1 2 0 3 1 0 0 0 0 1 1 2 2 2 2 3 1 2 0 1 1 4 2 2 1 1 1 1 0 1 1 0 2 3 2 2 0 1 1 1 1 0 1 3 0 1 2 1 2 0 3 1 2 1 3 2 1 0 2 2 1 1 1 1 1 2 0 1 0 1 0 1 0 0 1 1 2 2 4 2 2 3 1 2 0 1 1 2 1 0 2 3 1 1 1 2 1 1 1 0 3 2 2 2 1 2 1 1 2 0 0 0 5 0 1 2 0 1 2 1 0 2 0 1 1 1 0 0 1 1 3 1 1 0 1 2 1 1 1 2 2 1 0 2 2 1 1 1 1 1 1 1 2 2 3 2 1 2 4 1 1 1 1 4 1 1 1 0 1 3 0 2 0 3 0 2 2 1 3 1 0 2 2 2 3 1 1 0 2 1 2 1 0 3 2 1 1 1 2 4 0 2 2 0 1 1 2 1 1 1 1 0 1 1 1 3 1 1 0 3 2 0 2 0 0 0 1 1 0 1 2 3 1 1 2 0 0 2 1 2 2 2 0 1 1 1 1 4 1 1 0 3 1 1 1 0 3 1 1 2 1 0 1 1 1 0 0 1 1 0 1 0 0 1 1 2 2 2 2 1 1 2 4 1 0 2 2 1 1 0 0 0 0 2 1 2 1 0 1 0 2 1 0 1 1 1 0 1 1 0 2 0 3 2 4 1 2 3 1 1 2 1 0 2 1 0 1 1 1 2 0 0 0 2 1 1 2 1 1 2 1 3 3 1 1 3 0 0 3 2 2 2 1 1 1 2 1 1 0 0 1 1 0 2 1 0 1 0 2 0 2 2 0 1 2 2 0 2 0 2 1 0 1 0 0 2 1 0 4 2 1 1 0 1 2 3 1 2 2 1 3 2 2 2 1 2 0 0 2 1 2 1 1 1 1 1 0 0 1 1 1 1 4 1 2 1 1 0 2 2 1 2 2 1 2 2 2 1 1 0 0 0 2 1 1 2 1 1 4 0 1 1 3 0 0 2 0 2 2 1 2 1 1 1 0 0 1 1 1 0 0 1 1 1 1 1 1 0 0 1 3 0 0 0 2 1 2 2 0 0 2 1 1 1 0 1 1 1 1 1 2 1 0 2 1 0 1 1 1 2 2 1 2 2 2 1 1 1 3 1 2 2 2 0 0 1 1 1 0 2 2 1 0 0 4 1 1 3 2 0 2 1 1 2 1 2 0 1 1 1 0 0 0 2 2 0 2 2 0 1 0 1 0 0 2 3 0 1 1 1 0 2 0 1 1 1 1 2 2 1 1 2 0 2 2 1 0 3 1 1 1 0 2 2 1 2 1 2 2 1 0 1 2 1 0 0 5 0 1 1 2 0 1 2 1 0 2 1 1 1 2 0 0 2 0 1 1 3 1 0 0 2 2 1 0 1 0 1 2 2 0 1 1 1 1 2 1 0 2 4 0 2 2 0 0 1 1 2 0 0 0 1 0 0 1 1 2 3 1 0 0 2 2 1 1 2 1 1 0 0 1 0 2 2 0 1 3 0 0 0 1 0 3 1 0 1 0 0 1 1 1 4 1 0 0 3 0 1 0 1 2 1 1 0 1 1 1 1 3 1 2 2 2 2 0 1 1 0 1 2 1 1 2 2 2 2 1 1 1 1 0 2 3 1 2 1 1 1 1 2 1 1 0 1 2 0 1 1 3 2 1 0 0 0 1 3 0 4 1 0 2 2 1 4 1 2 0 2 0 0 1 1 0 1 1 2 1 1 2 1 1 0 1 0 1 1 2 0 1 2 1 0 1 0 2 1 2 2 1 1 2 3 2 0 0 2 0 1 0 1 1 0 1 0 1 1 1 0 0 3 1 1 1 0 2 1 0 3 0 1 1 1 0 1 1 1 2 2 1 1 1 1 3 0 1 2 0 2 1 3 1 0 0 1 1 1 2 1 0 1 0 1 1 0 1 2 0 2 0 0 2 0 1 3 1 1 2 2 1 1 2 0 1 1 1 0 1 2 1 1 1 3 0 3 2 1 0 2 0 2 3 1 2 0 0 1 3 0 2 2 3 1 3 3 3 1 1 0 1 3 0 0 1 1 1 1 0 2 0 3 1 2 0 1 0 0 2 2 3 2 2 0 0 1 0 3 1 2 1 1 1 2 2 0 1 1 1 1 0 2 4 1 0 0 1 1 1 0 1 0 2 1 1 1 2 2 1 2 2 0 2 1 1 1 1 1 3 0 1 1 2 1 2 1 2 0 3 1 0 1 3 2 1 3 0 1 0 2 1 4 3 2 1 3 3 1 0 1 2 1 1 0 1 1 1 2 1 0 2 2 2 3 1 1 1 1 3 0 2 1 0 1 0 0 0 1 0 1 1 1 1 3 0 1 1 0 0 1 2 3 1 0 2 3 1 2 1 3 1 0 1 1 2 2 1 0 1 2 2 1 1 1 4 0 1 0 1 1 1 2 1 0 1 0 0 0 1 3 2 1 2 0 3 2 0 1 0 1 1 1 0 2 1 0 1 2 0 1 0 0 2 0 1 1 3 0 2 1 1 2 1 2 1 1 2 2 0 1 1 1 1 2 1 1 3 2 2 1 2 1 0 0 1 1 1 1 0 1 2 2 3 2 2 1 1 1 2 3 0 0 1 2 1 1 3 1 1 1 2 1 3 0 2 0 1 1 0 3 2 2 1 1 2 2 0 4 2 0 1 1 1 0 1 1 3 0 0 1 1 3 1 1 1 2 1 2 2 2 1 2 2 0 1 1 2 2 0 2 2 1 3 2 0 2 1 3 2 1 3 2 2 0 0 0 0 2 2 2 1 0 1 2 2 0 0 1 1 2 2 1 1 2 0 0 1 1 0 0 1 2 1 1 0 2 3 1 0 0 2 3 1 1 0 0 1 3 2 0 1 1 1 2 1 2 2 1 0 2 2 1 1 2 3 1 1 2 1 1 1 1 0 1 1 1 1 2 0 1 1 2 2 0 1 3 2 1 1 2 2 1 1 2 3 1 2 1 1 1 0 1 1 0 0 2 1 0 0 0 0 0 0 1 1 0 0 2 2 0 1 1 1 1 1 1 0 3 1 1 0 2 2 1 1 2 2 1 0 2 1 0 1 1 1 1 2 3 3 3 1 2 1 1 0 0 2 3 2 2 2 1 1 2 0 1 0 1 2 1 0 1 3 0 1 2 1 2 1 1 0 4 1 1 2 0 2 2 3 0 0 3 1 0 0 2 1 2 0 3 1 4 2 3 1 0 0 1 2 2 0 1 1 0 0 2 4 0 0 1 0 2 2 0 1 0 1 1 0 0 1 2 1 2 1 2 1 2 1 0 0 2 2 1 1 1 1 1 3 0 0 1 1 1 2 1 1 0 3 1 3 1 2 1 2 1 0 1 1 2 0 1 1 0 0 1 2 3 3 1 1 1 2 0 1 0 2 1 1 2 3 2 2 2 2 0 0 2 1 1 2 2 2 0 0 3 3 1 0 2 1 4 3 1 1 2 0 1 3 2 0 0 0 1 0 0 3 2 1 1 0 0 1 0 0 2 4 1 1 5 0 0 0 1 1 0 1 1 0 1 1 1 0 1 2 0 0 2 4 1 1 2 1 1 2 1 0 2 3 3 3 1 0 0 1 2 1 1 1 1 2 1 1 3 3 1 1 1 0 0 1 1 1 0 2 2 1 0 1 3 0 2 2 1 0 2 1 0 0 1 1 1 2 1 1 2 1 1 0 1 1 1 0 2 1 1 0 1 1 1 2 1 2 1 2 2 4 2 1 2 1 2 2 0 1 2 1 2 2 3 2 3 1 0 2 1 1 3 2 0 3 3 1 2 2 0 0 1 0 1 1 1 0 3 0 1 1 2 1 3 1 1 2 0 2 2 0 2 1 0 0 0 1 3 3 0 1 1 1 3 1 0 1 4 2 1 2 2 0 0 1 2 1 2 1 0 1 0 0 2 0 2 1 2 1 0 1 2 1 0 0 2 2 3 1 2 1 1 0 1 0 2 2 1 0 2 0 1 2 0 0 0 3 4 1 0 0 2 2 1 1 2 0 0 0 0 1 2 2 2 1 1 2 1 1 1 1 1 0 2 1 1 2 2 1 2 2 2 1 2 1 1 2 0 2 1 0 0 1 2 2 0 1 2 1 2 1 1 1 0 3 0 1 0 0 1 2 1 1 0 2 2 1 1 1 2 3 2 2 1 0 3 2 1 1 0 1 1 1 2 3 0 0 2 2 1 1 0 1 1 0 1 2 1 2 4 2 2 1 2 1 2 0 2 3 2 2 1 0 2 0 2 2 2 0 0 1 3 2 2 1 0 2 1 0 2 2 1 1 1 0 3 1 0 0 0 1 2 2 3 2 0 1 1 0 2 2 0 1 0 0 3 1 0 0 1 1 1 2 0 2 0 1 1 3 1 1 1 0 3 2 2 1 0 2 0 1 3 2 0 1 1 2 1 0 2 0 0 2 2 2 2 2 1 1 1 3 0 2 2 2 2 0 1 1 1 1 3 2 2 1 3 2 0 1 3 1 2 2 3 1 1 0 1 2 3 1 2 1 1 1 2 0 1 1 0 1 1 1 3 2 0 1 1 2 0 1 1 1 0 1 1 2 1 3 1 1 0 1 1 1 3 1 1 1 3 3 1 2 0 2 1 1 1 2 2 3 1 0 2 2 0 1 0 1 2 1 0 1 0 3 2 1 3 1 1 1 1 0 2 1 3 0 0 1 1 0 2 2 1 2 1 1 1 2 1 3 1 1 2 2 0 0 0 2 1 1 2 0 1 1 2 0 1 1 0 2 2 3 2 3 0 1 1 1 1 3 3 1 0 3 1 0 0 1 2 0 3 1 0 2 3 2 2 2 2 1 1 1 2 2 1 2 0 2 2 3 2 1 1 2 1 2 2 1 1 1 0 2 0 0 0 1 0 3 1 3 1 2 2 2 1 1 2 1 2 1 1 2 1 2 1 3 1 3 0 1 1 1 1 0 0 1 0 3 0 0 1 1 2 2 1 2 2 3 0 2 2 2 1 2 1 2 3 1 0 1 3 1 1 2 2 1 2 1 1 1 2 2 1 3 3 2 1 2 1 0 3 0 2 1 1 3 1 1 1 2 2 1 0 0 1 0 0 3 1 2 0 2 1 0 1 2 1 1 1 2 0 1 0 1 2 1 1 4 1 2 3 1 2 0 2 1 1 0 2 1 1 1 1 1 2 2 0 1 2 1 2 2 2 3 1 0 0 2 2 1 1 3 0 2 1 0 0 1 1 2 1 2 0 0 0 2 2 1 2 1 1 2 1 0 1 2 1 2 1 0 2 1 1 2 0 0 1 0 0</t>
+  </si>
+  <si>
+    <t>NIG(0.32541151095460086, 0.3253691109710028, 0.003817428174334744, 0.00661020076727217)</t>
+  </si>
+  <si>
+    <t>0 0 1 1 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 2 1 0 1 3 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 1 0 0 1 1 0 0 0 1 0 0 0 0 1 2 0 2 1 1 1 0 1 1 1 0 0 0 0 1 0 1 0 2 1 1 0 0 0 2 1 0 0 0 1 0 0 0 1 1 2 0 2 1 0 1 1 1 0 0 0 0 0 2 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 2 0 1 0 1 1 0 0 1 0 2 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 0 0 1 1 0 1 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 2 1 0 0 0 0 1 0 1 0 0 1 0 0 1 2 2 2 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 3 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 4 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 1 2 0 0 1 1 0 1 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 1 0 3 2 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 3 3 0 1 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 2 0 0 2 0 0 2 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 0 3 0 0 0 0 0 1 1 2 0 1 0 0 1 1 2 1 1 0 0 2 1 0 2 1 0 1 1 0 4 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 1 3 0 0 0 0 0 0 1 1 0 0 0 0 0 2 2 0 0 1 0 3 0 0 0 0 0 2 0 2 1 0 0 0 0 2 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 1 1 1 0 0 0 2 1 1 0 0 1 0 1 1 2 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 2 0 0 1 0 0 0 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 0 0 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 2 1 0 2 0 0 2 1 1 1 0 0 0 1 1 0 0 0 2 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 2 0 1 0 0 1 2 0 0 2 1 0 0 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 1 0 2 0 0 0 3 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 3 0 1 0 1 2 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 2 1 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 2 1 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 3 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 2 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 1 1 3 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 0 2 1 0 2 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 2 1 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 1 1 1 0 1 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 2 1 0 1 0 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 2 2 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 1 1 0 2 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 3 0 0 0 0 2 1 0 0 0 0 0 1 4 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 2 0 0 0 1 0 0 0 0 2 2 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 2 0 2 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 2 1 0 1 2 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 2 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 1 1 1 0 1 2 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 2 0 0 0 0 1 0 1 1 0 1 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 1 0 2 1 0 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 1 1 0 0 2 1 2 0 0 1 2 1 1 0 1 2 2 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 3 1 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 2 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 1 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 2 0 1 1 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 3 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 2 2 0 2 0 2 0 2 0 0 0 0 0 2 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 0 1 1 2 0 0 1 1 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 2 0 0 3 0 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 1 1 0 0 2 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 1 2 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 0 2 1 0 1 1 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 2 0 0 0 0 2 0 1 0 0 0 0 0 1 2 1 0 0 1 0 2 0 0 0 0 1 0 0 1 0 2 5 0 0 0 1 0 2 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 0 0 1 0 0 2 0 1 0 1 0 1 1 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 3 1 0 0 0 2 2 1 1 0 1 0 1 0 1 0 1 1 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 2 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 0 0 3 0 0 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 1 1 0 2 1 0 0 0 0 0 0 1 2 1 1 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 1 0 0 0 1 1 0 1 2 1 1 2 1 0 0 2 1 0 1 0 0 1 0 0 0 1 1 0 0 0 2 0 0 3 0 2 1 0 0 0 0 0 1 1 1 0 2 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 2 1 1 0 0 1 0 1 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 4 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 2 2 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 1 0 1 0 1 1 2 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 2 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 2 0 0 0 1 0 2 1 0 1 1 0 0 0 1 1 1 0 1 0 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 1 0 1 0 0 1 2 1 0 0 0 0 1 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 1 3 0 0 0 1 0 2 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 1 3 0 0 0 2 0 0 1 1 1 2 1 0 1 0 0 0 0 0 1 0 1 2 1 1 0 2 2 1 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 3 0 0 0 1 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 0 2 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 0 1 0 0 1 0 1 0 0 0 0 2 0 0 0 0 1 1 3 0 0 1 0 0 0 0 0 0 0 1 2 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 2 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 2 1 0 1 0 0 0 3 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 3 0 1 0 1 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 1 0 0 2 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 4 2 1 1 1 0 2 0 0 0 0 1 2 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 1 1 2 0 0 0 2 0 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 1 1 0 1 1 1 0 2 0 0 1 0 1 0 1 2 1 1 2 0 2 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 3 3 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 1 0 2 0 3 0 0 0 1 1 0 0 0 3 0 0 0 0 1 2 0 0 0 1 0 2 0 1 0 0 0 1 0 1 0 1 0 2 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 0 2 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 2 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 0 0 1 0 2 0 1 1 1 3 0 0 0 0 2 0 1 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 2 1 1 0 0 0 0 2 1 1 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 2 1 0 0 1 0 1 0 1 0 2 0 0 0 0 2 1 0 1 0 0 1 0 1 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 1 2 0 1 0 1 0 2 0 1 0 3 0 0 0 1 2 0 1 1 0 1 0 0 3 2 0 0 0 2 1 0 1 0 0 0 0 0 2 0 2 1 0 0 0 1 0 0 1 0 0 0 1 0 0 2 0 1 0 2 0 0 0 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 2 0 0 1 0 0 1 0 2 0 0 0 0 2 0 0 0 0 1 0 0 0 2 0 1 1 0 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 2 0 1 2 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 2 0 0 0 1 1 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 0 0 1 0 0 0 2 0 0 2 0 1 1 1 0 1 2 0 1 0 0 1 0 1 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 1 0 0 1 0 1 0 0 1 0 2 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 1 2 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 2 0 0 0 1 1 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 0 1 1 2 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 2 1 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 0 1 1 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 2 1 0 2 0 4 0 0 2 1 0 0 0 0 0 2 0 2 1 2 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 2 1 1 1 1 1 2 0 1 0 2 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 1 2 0 0 0 0 0 0 0 1 0 1 0 0 3 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 0 0 1 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 2 1 0 1 1 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 1 0 1 1 3 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 3 0 1 0 2 1 1 0 0 1 0 0 3 0 1 0 3 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 2 4 0 0 0 0 1 1 1 1 0 0 1 0 0 2 1 1 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 1 0 1 0 0 2 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 0 3 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 2 1 0 2 0 0 0 0 0 1 0 0 0 0 1 0 1 1 3 0 0 0 0 2 0 0 2 1 0 2 0 0 0 2 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 2 1 0 0 1 1 1 0 0 0 0 0 2 1 0 0 1 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 3 1 0 0 1 0 0 0 0 1 0 0 0 0 1 3 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 0 0 2 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 2 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 2 1 0 0 0 0 0 2 1 0 0 0 2 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 0 0 0 0 0 1 3 0 1 0 2 0 0 0 0 1 2 0 0 0 1 2 1 1 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 2 0 0 1 1 1 1 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 1 1 0 0 1 0 2 0 0 1 1 1 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 3 0 0 0 1 0 1 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 3 1 0 1 0 0 1 0 0 1 0 1 3 0 0 0 0 0 2 0 0 0 0 2 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 3 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 3 1 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 2 0 0 1 2 1 0 1 1 1 0 0 0 1 2 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 2 2 1 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 2 1 1 2 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 0 0 1 1 0 0 2 2 1 2 2 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 2 1 0 1 2 0 0 0 0 0 1 0 0 0 0 0 5 1 0 1 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 1 0 1 1 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 3 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 1 0 0 1 0 0 2 1 3 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 1 1 0 0 0 3 0 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 2 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 0 1 1 0 0 1 0 2 1 0 2 1 0 0 2 0 0 0 1 0 0 1 0 1 0 0 1 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 2 2 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 0 1 0 1 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 1 1 0 0 1 0 2 1 0 0 2 1 0 0 0 1 1 0 0 0 1 0 2 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 1 0 2 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 0 1 1 0 1 0 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 2 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 2 0 0 1 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 2 0 0 0 1 1 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 2 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 3 0 0 1 1 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 1 0 1 0 1 0 0 0 2 0 1 0 0 1 0 1 0 0 2 0 1 0 0 2 2 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 2 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 1 1 2 0 0 1 0 0 1 0 1 0 1 0 1 0 2 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 3 2 1 1 0 0 0 0 2 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 2 0 1 0 1 0 1 2 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 1 0 0 1 0 1 0 0 0 0 3 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 1 0 0 1 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 1 0 2 0 2 0 1 0 1 1 3 2 1 1 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 0 0 1 0 0 2 2 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 2 2 1 0 1 0 1 1 1 1 0 0 0 2 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 1 0 2 0 1 1 3 1 0 0 0 1 0 2 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 2 3 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 2 0 0 0 1 0 1 0 0 0 2 0 0 0 2 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 2 1 1 0 0 0 1 0 0 0 0 1 2 1 1 0 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 2 1 0 0 1 0 1 1 1 2 1 0 1 0 1 0 0 1 0 0 2 0 1 0 2 0 1 0 0 2 1 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 1 1 0 0 0 1 2 0 1 1 0 3 1 0 0 0 0 0 0 0 2 1 0 0 2 0 2 0 1 2 1 1 1 0 1 0 1 0 0 0 0 2 0 1 0 1 1 0 0 1 1 0 0 0 0 0 1 0 1 0 0 3 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 1 0 0 2 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 2 1 0 0 4 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 2 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 1 1 1 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 2 0 3 0 2 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 3 0 1 0 2 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 1 0 1 0 1 0 0 0 0 0 0 1 2 1 2 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 1 1 1 0 2 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 1 0 1 1 0 1 1 3 1 1 0 0 0 1 0 1 1 0 0 1 1 0 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 1 0 0 1 1 1 0 0 1 1 2 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 1 0 0 1 0 1 0 0 0 0 1 0 1 0 2 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 0 0 2 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 2 2 0 1 0 1 2 0 0 0 1 1 0 0 2 1 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 2 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 1 2 0 0 1 0 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 3 0 1 0 2 0 0 0 0 1 0 0 0 1 2 1 0 1 0 0 1 1 1 1 0 0 0 1 0 2 0 0 0 0 0 0 0 3 0 1 1 3 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 1 3 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 2 1 0 1 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 1 2 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 2 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 0 2 0 0 0 2 1 1 1 0 0 1 0 0 0 0 2 0 0 2 0 1 0 0 0 0 2 1 0 0 1 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 0 1 0 1 0 2 0 0 1 2 0 0 1 1 0 1 2 0 1 1 0 0 0 0 0 0 2 1 2 0 1 0 0 0 3 0 0 0 0 2 0 0 3 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 2 1 0 0 1 0 0 1 0 0 0 2 2 1 0 0 0 0 0 1 3 1 0 0 0 0 0 1 1 0 1 0 1 2 0 0 0 0 1 1 0 0 0 1 1 0 0 3 3 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 3 0 2 0 1 0 1 2 0 0 0 3 0 0 0 0 1 0 0 0 3 0 0 0 0 1 0 0 1 0 1 0 0 2 1 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 1 0 1 1 0 0 0 2 1 0 1 1 0 0 1 0 2 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 2 0 0 1 0 0 0 0 1 0 0 1 1 0 3 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 2 0 0 1 1 1 0 1 0 0 0 0 3 0 1 1 1 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 0 0 2 1 0 1 1 0 0 0 1 0 1 1 1 1 1 0 1 1 1 1 0 0 0 0 3 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 1 0 2 0 0 2 1 1 0 1 1 0 1 0 0 0 0 1 0 0 0 1 1 1 0 2 3 0 0 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 2 1 3 0 0 0 0 0 0 0 3 0 0 0 0 1 0 2 1 1 0 2 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 1 1 0 1 0 0 0 1 1 3 0 2 0</t>
+  </si>
+  <si>
+    <t>JSU(-20.409420524687214, 10.445643891625473, -301.999743523357, 119.49110556973852)</t>
+  </si>
+  <si>
+    <t>209 66 54 68 133 149 179 80 124 133 169 114 125 41 98 68 113 129 39 124 30 86 100 62 42 188 92 92 151 56 92 123 74 111 122 110 48 84 63 125 144 96 54 218 171 122 101 65 125 126 158 110 133 106 105 57 169 123 61 76 85 175 41 88 78 51 176 116 139 53 93 110 114 124 145 88 144 99 135 146 114 110 64 152 107 154 133 69 107 65 18 160 86 81 106 40 88 134 136 72 140 129 82 50 188 136 125 68 148 108 107 172 82 97 56 155 43 76 115 81 92 163 51 43 148 33 159 155 141 157 108 77 91 111 82 105 102 124 144 129 124 122 162 159 105 191 117 73 132 158 88 88 86 78 74 123 130 81 131 119 85 144 96 110 191 96 102 129 40 125 40 60 119 93 140 107 100 84 124 153 140 116 148 179 87 152 106 54 135 154 144 144 133 93 60 102 77 157 163 101 77 102 110 31 146 136 106 96 150 179 82 121 104 85 136 128 114 130 141 125 126 75 106 101 105 123 181 88 221 77 115 74 149 147 104 137 218 141 113 208 92 98 121 114 151 46 101 51 84 74 61 90 57 129 128 197 160 104 167 102 158 146 97 242 133 137 166 113 35 204 102 203 162 75 48 159 128 83 111 145 94 118 129 43 115 126 97 133 109 94 178 74 160 33 110 95 92 96 105 33 174 95 203 126 166 82 170 46 58 100 107 131 115 82 81 78 119 40 98 132 53 58 95 153 126 135 117 70 200 106 131 127 77 51 85 86 150 122 198 103 111 200 115 95 111 102 182 160 126 88 87 78 114 154 123 121 72 168 116 84 94 90 92 102 99 105 46 110 129 96 32 126 88 166 198 170 96 137 55 153 95 105 117 128 139 123 64 82 120 149 84 45 131 126 65 109 128 147 168 68 86 145 163 111 151 84 124 132 94 78 124 80 157 122 101 141 22 136 87 67 164 28 123 151 87 109 68 144 173 113 123 211 52 97 139 157 103 100 105 82 79 118 123 177 40 97 146 62 78 52 164 114 108 149 99 124 121 115 163 30 65 142 189 71 110 89 136 150 51 42 147 124 149 101 107 121 131 132 172 64 109 94 164 60 131 152 54 85 204 102 102 199 76 82 71 200 102 92 77 71 106 153 18 148 113 60 163 81 111 126 144 71 113 69 95 106 123 217 171 125 89 81 96 126 116 113 107 96 188 84 160 61 84 100 52 147 138 64 148 149 77 44 90 86 128 165 81 179 38 72 136 142 67 88 88 88 158 199 131 116 76 93 168 54 131 139 52 115 113 164 128 106 134 135 117 32 119 83 147 148 86 183 40 79 67 211 117 169 65 141 78 173 142 115 45 129 99 180 68 105 82 66 142 131 64 105 127 177 100 103 132 164 71 180 118 224 120 103 58 174 90 129 175 84 107 141 100 125 79 81 46 192 77 90 62 101 85 84 110 79 90 190 77 57 83 129 86 164 118 143 118 77 149 64 117 161 106 40 156 122 182 72 72 97 223 91 103 150 134 74 138 86 91 92 91 69 65 104 220 75 144 79 40 126 198 85 153 162 84 91 108 197 37 140 136 133 32 9 52 80 108 117 155 121 175 100 70 120 59 130 130 116 76 64 125 157 138 116 84 135 95 94 109 89 123 148 54 54 146 55 103 62 45 151 135 158 94 83 142 115 132 149 98 87 115 51 99 154 100 114 171 41 81 92 44 107 105 97 98 95 112 187 148 86 107 113 190 83 116 100 93 105 122 236 179 148 111 60 75 106 149 35 130 90 71 165 99 84 96 131 103 126 38 66 92 135 77 164 126 187 71 153 184 82 179 73 133 98 130 95 129 104 171 120 71 72 133 220 142 201 133 88 108 162 142 67 136 57 77 114 138 174 99 208 97 47 157 80 125 210 124 57 119 172 128 160 125 108 102 105 93 105 131 131 28 129 143 155 84 130 67 97 83 86 112 81 79 95 109 77 123 88 130 9 110 114 159 102 58 49 136 123 146 98 99 145 244 84 122 211 81 115 132 121 148 131 84 120 143 198 107 122 147 80 46 116 117 127 131 103 133 65 43 114 24 21 52 99 121 120 116 190 48 110 185 195 186 165 137 128 114 168 68 184 144 113 127 57 90 116 69 120 117 84 55 131 90 68 106 39 136 56 114 71 94 80 152 94 118 148 166 44 55 104 137 117 87 161 90 104 93 121 69 150 35 132 128 24 83 173 110 149 64 97 137 157 85 95 122 71 102 86 123 140 79 61 73 137 158 111 164 85 128 95 70 163 137 123 211 73 45 111 173 93 168 124 64 173 70 68 164 118 184 187 98 161 115 199 141 123 153 48 73 133 102 101 157 152 47 46 135 131 86 150 24 121 101 88 47 67 82 30 72 187 147 111 202 114 62 136 159 98 157 89 101 77 140 161 146 91 219 93 123 164 73 101 88 114 104 103 119 131 231 131 68 69 84 46 162 86 85 91 59 149 93 113 104 134 30 100 105 59 168 122 38 129 143 76 83 55 85 81 67 187 126 168 95 85 157 74 87 104 107 156 68 31 125 110 120 106 123 109 114 121 79 102 74 109 116 163 83 120 117 19 49 114 135 179 178 68 181 90 111 101 117 133 95 161 141 103 81 149 149 22 126 190 148 166 97 103 43 51 120 175 20 122 88 72 73 140 70 84 142 82 169 143 168 44 114 114 98 141 107 81 107 116 142 105 133 80 71 129 122 122 164 35 35 94 147 87 124 138 107 102 71 85 189 93 163 80 34 80 170 140 130 106 49 93 166 169 102 141 110 120 129 159 133 103 86 151 162 145 99 62 16 52 86 155 165 89 39 157 152 152 215 105 142 70 137 116 85 165 119 68 108 206 151 131 174 76 99 125 103 161 178 229 249 67 145 119 39 140 76 108 81 56 150 42 78 83 148 78 75 199 65 164 93 85 88 166 161 36 48 128 58 166 146 107 85 89 164 89 113 62 132 97 130 147 73 160 170 93 109 83 97 184 142 99 130 82 72 76 143 54 58 93 140 97 89 173 126 171 139 166 47 31 132 50 112 26 123 103 199 62 162 45 109 87 78 119 223 100 112 146 151 73 97 23 80 129 131 63 104 104 115 93 186 162 62 55 156 33 122 60 106 90 98 98 216 114 105 64 74 133 149 85 80 82 74 161 51 141 140 95 106 109 141 130 159 6 172 85 64 93 145 153 142 164 86 76 117 81 185 120 107 142 71 95 43 79 144 119 150 159 86 129 208 146 130 143 162 115 79 81 145 100 54 93 133 94 70 101 74 98 13 138 75 103 90 165 124 39 120 87 133 80 132 107 167 191 119 111 64 52 60 86 143 124 75 117 98 108 100 171 175 107 104 95 206 142 85 146 176 72 32 93 41 107 88 136 127 124 126 84 170 83 93 91 135 80 106 84 111 145 149 86 114 122 203 98 154 92 110 142 164 116 106 79 127 78 193 107 107 192 116 137 78 81 184 121 97 80 86 76 111 113 78 85 146 127 114 25 107 111 155 206 55 137 125 121 75 184 102 87 155 163 129 87 114 127 176 137 72 175 164 33 42 90 104 82 82 156 73 71 53 61 134 103 36 86 66 80 153 99 103 102 116 125 107 91 52 194 78 111 179 134 129 110 188 58 67 146 129 105 104 110 121 122 152 213 99 62 138 156 112 85 105 58 140 130 88 62 67 109 147 92 126 103 127 105 125 115 130 64 142 136 70 106 185 185 95 149 51 48 84 113 67 69 126 71 129 51 92 159 147 145 65 92 143 173 136 69 116 79 156 127 111 153 92 36 90 132 99 65 93 167 108 130 136 95 139 168 70 133 119 67 158 133 146 225 172 148 68 187 59 69 111 94 160 93 99 193 125 166 33 62 53 103 162 110 235 110 61 160 97 94 145 108 81 89 160 151 80 126 68 84 112 131 121 66 86 48 84 128 72 88 90 141 66 134 118 90 205 108 173 109 107 124 172 140 194 79 45 122 130 48 47 138 183 214 117 51 119 157 133 97 123 64 129 91 74 33 84 90 70 137 124 122 130 86 122 178 56 98 127 153 75 94 124 124 177 106 162 35 166 94 103 84 123 171 74 62 105 105 71 85 121 46 66 131 63 143 48 78 154 79 166 123 90 117 122 96 134 145 100 148 119 149 157 142 83 107 59 62 120 134 115 98 120 165 135 113 102 89 98 89 97 136 59 35 124 68 70 179 175 177 156 124 113 107 42 81 162 132 121 155 216 210 40 168 159 62 83 129 170 92 110 75 209 57 91 92 150 79 95 91 83 76 24 82 112 116 146 148 165 126 58 63 127 150 62 52 122 156 167 206 124 155 63 146 101 113 134 134 74 90 137 174 98 84 143 111 135 61 149 142 164 162 88 120 75 115 113 101 152 22 166 63 48 93 150 70 72 91 173 88 79 115 231 85 76 73 79 81 122 116 119 70 104 66 160 93 39 113 119 89 71 195 86 124 88 136 34 149 127 110 151 47 136 82 139 118 129 28 89 138 120 158 87 93 54 141 66 120 131 45 172 125 153 99 129 211 168 175 79 44 218 40 234 43 105 97 171 109 83 67 137 68 131 96 113 144 138 153 130 117 76 18 88 81 76 16 64 57 91 160 94 220 204 144 81 80 131 109 28 98 146 137 54 172 67 162 41 107 126 125 18 69 158 202 75 108 46 185 61 34 168 100 61 124 60 125 145 120 82 101 112 143 62 131 124 104 51 106 95 102 152 69 30 153 92 125 131 160 90 60 130 98 183 212 23 145 119 72 121 89 82 113 112 157 119 60 60 140 65 75 92 40 156 83 101 95 182 118 164 59 133 185 136 56 113 162 57 165 97 123 51 81 154 104 143 101 67 125 185 82 86 109 94 47 85 106 192 86 86 167 138 104 133 131 46 143 41 207 32 80 155 57 98 66 167 99 93 213 93 140 69 98 49 119 126 123 148 158 76 109 117 169 136 137 115 138 119 96 108 68 141 69 94 209 117 73 56 56 177 59 162 131 68 68 39 110 140 100 57 119 157 175 50 58 105 74 198 81 158 136 171 58 141 57 83 117 86 96 111 118 86 73 74 159 55 118 109 93 107 124 127 123 142 90 122 146 108 202 195 100 96 75 147 107 166 130 122 116 70 145 77 113 48 157 82 119 47 54 48 168 135 122 53 96 137 278 80 109 134 213 111 102 111 79 82 63 151 119 84 83 45 88 53 59 174 133 106 76 130 117 96 175 140 92 130 127 182 89 116 30 167 46 137 109 93 79 136 108 79 132 150 111 122 124 81 154 82 123 80 60 105 133 116 126 99 52 210 59 186 52 137 65 53 74 110 55 79 94 107 85 46 209 103 122 130 171 194 84 104 140 89 143 107 146 86 179 122 65 98 99 88 77 169 111 111 200 73 124 148 126 123 105 93 114 93 124 96 34 123 99 94 65 70 153 88 168 220 104 203 150 100 153 84 87 86 156 123 104 165 135 112 103 98 71 53 202 118 163 115 89 110 151 56 134 167 123 125 136 73 132 99 57 44 56 178 134 61 113 115 113 117 204 143 46 169 151 41 124 87 154 113 156 153 49 98 135 96 191 136 151 107 88 62 82 161 83 86 108 144 64 86 80 79 74 44 164 126 102 150 123 17 118 102 78 154 131 130 126 109 143 83 132 143 110 97 99 119 182 111 78 187 47 62 152 130 123 146 42 22 81 142 66 154 174 91 76 151 25 110 105 163 116 39 90 191 113 149 28 106 128 71 54 82 129 95 93 131 127 145 115 142 85 79 170 84 184 80 101 81 145 114 145 151 82 63 97 73 148 134 95 51 142 118 104 175 116 106 99 114 159 80 119 60 95 149 157 155 75 182 111 198 131 109 127 131 92 137 94 159 127 134 197 110 141 77 198 161 118 145 119 92 185 107 219 133 158 186 40 165 126 154 126 94 78 83 72 139 109 129 184 122 95 25 115 195 110 190 80 74 139 49 71 87 181 85 97 84 96 147 65 136 71 137 135 130 98 100 160 84 131 63 105 148 131 186 89 109 43 72 146 120 137 142 88 72 165 145 157 146 224 47 43 79 140 189 203 149 108 35 89 82 65 140 63 152 78 100 101 182 99 143 98 174 204 114 99 109 102 143 150 144 70 161 97 94 19 117 132 123 107 63 122 121 133 94 77 107 132 96 97 118 102 87 170 110 161 93 65 62 111 100 210 171 123 154 70 214 116 107 49 28 180 143 114 96 140 79 229 150 104 90 154 47 100 88 188 168 111 26 118 100 202 77 48 60 104 116 111 156 134 65 132 203 103 149 172 187 124 51 149 113 116 75 220 102 47 148 118 126 223 84 77 74 134 126 70 112 80 118 131 144 138 139 176 178 48 129 100 63 126 109 162 100 26 168 156 80 130 213 102 101 216 75 141 146 114 130 111 90 131 79 152 87 139 73 92 129 115 191 87 136 128 72 199 92 157 23 20 199 95 125 91 96 99 162 194 179 179 106 127 186 91 232 136 63 76 29 51 113 63 136 83 117 139 148 77 179 144 166 183 125 74 79 140 109 78 112 76 98 112 113 135 12 138 129 117 195 83 107 135 97 130 122 94 97 87 120 110 90 142 58 113 159 115 72 102 91 127 96 184 59 56 146 116 130 117 116 176 13 117 82 142 96 52 119 71 117 275 113 139 113 99 85 85 144 156 142 75 103 140 134 98 120 70 74 99 120 145 186 48 130 148 209 75 169 208 203 83 58 118 28 106 170 50 132 68 44 34 119 110 180 72 86 120 24 153 74 119 92 105 115 101 158 79 168 64 91 138 130 99 104 210 153 46 21 123 117 160 147 136 109 191 82 155 126 101 144 78 94 242 194 94 130 75 75 171 172 69 64 152 66 122 85 266 145 165 87 157 166 151 70 177 115 97 59 135 80 117 51 100 85 132 53 112 140 94 129 130 167 73 127 41 136 65 142 106 72 129 63 151 167 117 24 100 149 142 130 95 113 172 74 134 205 110 117 71 80 23 74 43 142 108 140 105 117 152 159 124 92 146 198 126 157 159 179 115 26 57 52 196 42 128 103 61 162 102 61 185 100 56 87 109 45 101 103 115 140 46 102 92 101 93 156 92 118 203 124 114 82 128 139 124 55 106 75 106 122 88 98 103 199 55 96 133 108 118 123 100 168 117 111 107 100 156 121 115 134 53 132 142 75 129 104 20 62 70 115 65 91 132 101 180 86 117 127 64 126 198 97 124 123 49 174 110 179 134 143 64 92 159 98 71 72 86 101 153 95 96 111 164 69 142 128 61 108 97 92 53 199 161 154 106 97 92 136 116 126 128 92 238 97 92 100 67 122 79 177 95 145 93 145 146 67 97 75 119 150 163 95 95 86 87 100 160 210 199 85 115 102 168 99 32 126 140 95 54 93 76 123 39 125 185 96 43 29 145 96 86 164 101 137 133 143 159 79 63 102 135 142 135 101 76 42 149 60 63 155 98 236 46 65 140 71 127 155 125 28 80 56 58 87 53 121 94 85 95 178 96 108 179 97 77 176 45 105 148 118 125 94 104 86 149 131 43 152 131 110 144 73 152 117 167 160 86 195 135 30 104 192 89 175 42 76 56 42 116 69 132 90 98 45 92 164 146 108 162 117 131 43 121 71 103 85 86 112 134 96 148 101 43 103 58 140 93 103 124 197 31 68 100 135 113 172 78 47 139 82 133 93 179 139 37 155 100 157 138 58 55 187 51 75 137 110 116 44 124 132 120 107 238 87 53 117 63 124 166 121 108 192 38 186 137 128 132 72 98 90 73 83 51 181 110 61 101 157 92 141 103 87 74 137 101 116 106 114 93 107 73 105 129 132 126 104 141 108 39 111 107 246 92 92 111 72 77 59 162 159 130 127 156 91 76 90 51 118 88 82 71 167 136 52 193 107 90 144 45 160 111 98 144 50 149 116 107 140 66 162 26 70 174 111 111 108 17 148 62 157 60 137 112 86 207 72 99 157 99 112 136 145 125 34 32 58 50 192 77 150 65 131 219 205 33 65 54 140 143 87 98 151 98 123 54 111 148 93 102 122 162 126 112 137 174 68 60 80 128 70 75 71 140 114 60 149 114 174 130 128 130 137 61 89 92 119 216 85 125 117 248 75 153 118 133 125 64 101 224 108 86 117 172 78 106 145 78 106 66 126 95 185 121 56 146 76 136 55 145 226 123 59 203 102 157 141 145 125 102 108 140 111 166 145 122 118 173 151 241 109 169 87 87 162 161 82 96 234 131 57 54 68 130 135 191 102 57 134 102 138 80 92 115 124 98 148 182 127 78 127 120 151 169 126 118 118 161 151 110 188 104 152 71 106 105 143 138 57 115 125 67 114 147 223 188 173 108 82 114 51 41 20 109 51 126 110 83 194 115 148 180 56 132 110 126 35 68 111 149 169 132 83 33 119 194 136 126 83 150 74 123 84 63 96 127 67 170 62 209 117 121 160 46 83 93 149 94 121 119 109 145 70 107 149 150 91 41 66 111 71 123 129 54 110 136 146 75 151 105 56 107 139 125 140 96 135 47 120 55 60 68 149 145 99 160 89 26 97 82 117 90 158 155 137 108 119 74 157 135 182 111 213 108 165 99 41 111 61 83 52 168 89 166 132 126 85 145 153 109 166 55 83 82 95 162 86 143 70 53 109 64 159 85 70 69 71 101 92 74 66 79 100 152 149 74 116 58 115 170 110 110 118 101 140 191 164 93 87 80 140 91 76 71 112 95 49 186 100 225 184 96 96 118 118 99 113 74 88 151 103 73 92 85 135 102 111 80 78 92 179 101 142 210 182 125 33 101 28 197 73 173 224 122 125 125 127 116 172 157 169 125 99 72 111 159 70 92 46 127 102 159 195 70 70 119 137 130 124 174 162 155 127 110 54 155 192 93 145 53 108 106 129 61 151 109 129 148 134 56 109 183 124 122 57 150 66 124 85 82 88 78 129 150 180 201 120 81 129 106 149 72 192 119 148 219 96 132 114 153 105 86 51 109 155 119 146 134 62 105 152 144 118 103 134 71 121 121 184 151 136 171 99 156 99 209 123 165 95 106 111 178 208 188 113 160 124 66 109 46 67 99 83 157 78 112 24 156 145 33 21 74 132 96 92 69 147 97 88 107 75 129 123 59 102 133 74 27 122 73 104 71 158 86 180 140 137 47 49 99 100 135 125 53 145 167 92 201 146 97 121 138 145 19 109 67 178 128 141 15 54 170 210 63 16 102 141 146 46 202 134 120 147 103 117 143 91 63 69 144 92 66 110 142 108 93 100 48 70 110 114 146 87 154 87 169 92 157 133 153 94 91 83 119 58 75 188 155 132 100 109 106 18 73 146 105 103 94 95 153 156 106 148 120 184 119 136 106 160 103 128 76 43 156 139 167 40 138 85 37 149 140 98 84 147 123 120 123 83 113 176 145 111 120 148 90 112 254 107 63 80 182 105 96 134 192 120 63 127 131 80 112 188 71 48 152 128 117 159 82 170 186 176 96 105 88 123 131 69 73 97 83 70 40 93 104 66 94 60 149 112 120 91 154 107 105 127 54 129 127 26 92 72 121 94 104 155 131 131 44 123 126 145 169 141 100 175 93 44 99 85 97 104 147 94 79 86 126 130 136 35 105 93 142 140 127 100 138 32 102 99 76 189 59 101 172 123 145 161 104 72 118 89 134 60 143 64 96 84 79 49 49 59 39 95 80 105 100 80 116 186 99 42 103 82 199 43 144 118 150 54 91 111 98 75 137 84 166 129 124 79 152 156 62 88 179 76 137 150 62 143 103 58 178 91 93 76 68 128 52 188 123 119 247 42 72 132 103 104 80 69 150 80 208 102 186 138 71 147 75 133 111 137 87 112 89 72 80 76 71 78 119 145 108 86 136 127 48 135 150 140 81 205 222 136 109 103 115 146 117 85 111 174 104 54 80 142 93 115 88 107 180 146 157 108 122 32 85 86 112 119 86 79 47 102 69 85 65 124 113 196 68 122 44 111 95 179 67 107 111 181 115 62 121 176 125 68 111 81 90 48 70 118 41 146 124 60 87 113 106 226 171 102 122 105 117 81 106 107 66 160 186 124 46 126 172 84 75 150 77 150 70 167 172 105 161 71 126 127 90 194 54 69 97 139 99 110 131 97 119 80 61 104 129 148 176 76 167 67 135 68 105 125 63 57 116 167 66 130 128 128 163 193 93 148 187 130 157 87 52 116 124 76 125 134 117 69 163 164 152 94 177 132 62 174 103 122 125 134 114 109 203 91 82 94 52 54 159 59 84 120 115 89 24 61 55 125 136 178 103 99 85 150 51 147 81 101 75 12 95 35 167 116 88 106 155 150 148 61 88 124 63 83 137 146 131 81 61 149 88 92 113 42 106 114 129 52 113 154 82 133 120 120 70 109 167 77 140 115 147 154 83 96 73 24 96 119 78 130 88 140 163 112 71 176 66 62 60 104 137 130 159 135 124 121 117 87 122 102 161 113 87 179 113 74 123 99 74 167 75 46 144 116 101 174 45 100 83 71 86 118 157 25 82 144 99 121 29 81 84 143 89 149 106 94 146 95 86 121 88 32 61 119 125 84 227 76 93 181 132 150 93 88 177 54 121 87 200 128 124 91 82 133 104 162 204 123 90 146 150 152 147 211 157 95 112 114 117 108 100 140 135 79 134 168 122 150 77 83 123 129 171 153 100 110 139 70 165 149 122 113 53 116 136 74 127 26 106 118 154 74 157 123 103 115 81 49 134 104 172 50 126 182 128 95 173 147 136 102 107 105 81 67 106 99 116 83 138 79 34 120 79 121 99 107 74 150 180 122 49 153 79 142 107 195 196 61 69 89 94 99 117 56 182 138 97 152 81 96 184 109 168 130 121 64 90 131 165 91 86 92 131 88 131 129 106 112 27 139 136 89 101 102 97 127 125 171 87 116 88 148 137 155 82 126 84 132 114 69 83 136 147 182 104 101 98 160 115 97 60 107 120 76 91 123 141 129 166 101 116 119 130 92 156 103 125 92 103 149 69 49 90 186 64 86 173 94 104 104 104 185 92 45 169 111 146 146 108 109 75 93 115 183 131 82 130 94 126 116 87 95 82 106 111 173 107 108 137 161 114 71 150 77 121 97 189 96 155 128 138 159 56 166 159 110 160 50 174 105 110 198 100 158 80 149 108 80 139 127 88 134 131 86 110 126 116 118 190 147 114 52 34 168 121 135 54 188 88 229 113 176 114 106 103 84 135 124 81 136 179 116 148 81 112 118 103 178 221 58 34 127 85 134 49 116 72 229 149 75 183 77 123 69 70 162 123 85 93 106 121 88 70 95 114 102 129 145 128 110 128 89 168 58 91 106 78 111 71 78 68 45 68 70 61 122 156 37 153 115 90 109 91 140 98 120 179 83 33 34 148 192 137 94 124 107 80 141 116 68 171 76 151 190 101 68 202 121 75 134 88 61 102 186 173 24 166 110 93 74 184 122 131 135 179 130 167 98 102 142 58 57 184 65 129 124 103 32 130 137 117 179 86 186 63 93 97 190 125 147 51 111 95 121 78 115 110 86 47 105 66 129 107 122 122 110 80 103 161 101 146 172 145 148 121 153 167 147 109 113 86 197 75 120 153 172 62 61 106 55 71 122 70 152 138 118 56 81 156 76 146 180 122 118 68 112 98 165 135 134 89 111 118 145 95 77 98 75 126 125 123 180 95 155 55 178 48 143 117 195 156 53 99 137 144 103 135 94 73 72 80 77 62 123 87 158 145 50 86 64 34 114 150 58 90 156 127 128 120 77 111 166 137 95 105 86 110 87 170 110 169 102 98 82 141 133 146 155 163 125 102 104 133 170 117 101 67 45 136 59 177 111 125 161 149 137 147 163 117 102 183 118 123 93 157 173 140 112 73 81 102 84 125 108 102 46 142 158 119 86 89 118 100 57 99 65 115 79 51 168 119 166 49 126 137 146 168 128 98 86 159 201 96 65 129 38 95 79 96 124 80 197 40 104 166 57 205 147 99 61 147 57 54 51 182 183 145 82 148 105 119 67 185 132 121 132 98 135 104 60 170 109 130 204 104 51 104 110 235 84 146 145 140 66 71 115 139 119 69 121 155 150 114 131 140 101 103 18 45 39 147 173 136 104 91 168 126 137 142 155 99 189 76 91 175 69 160 114 165 61 194 89 130 144 116 121 163 123 89 111 113 51 131 69 124 142 71 139 164 68 65 121 86 119 29 123 151 165 148 80 162 104 64 113 52 24 101 127 99 178 158 108 126 96 116 72 163 131 89 121 148 92 91 164 51 176 136 196 100 119 93 104 91 36 140 108 88 104 138 91 158 79 73 89 105 148 49 81 120 41 119 99 44 111 88 135 26 145 209 112 92 63 71 80 128 129 79 172 105 83 151 157 148 89 148 90 136 130 89 98 128 55 156 124 93 131 172 89 142 105 157 116 81 120 213 73 166 105 172 116 132 130 76 123 85 162 110 93 201 97 82 127 77 76 92 43 61 107 68 223 110 76 114 157 118 238 91 123 126 141 117 115 195 108 147 98 60 65 75 140 173 78 86 53 152 125 111 131 75 140 40 162 83 190 260 41 206 113 114 106 174 94 20 182 146 157 67 162 46 135 26 161 47 70 190 151 140 33 141 79 64 82 118 101 112 93 180 214 123 79 131 115 207 147 83 60 248 87 115 90 193 240 130 114 104 135 31 50 76 88 90 151 146 103 132 66 39 87 139 85 126 68 65 134 117 153 134 120 79 108 33 156 120 49 126 85 111 154 60 48 129 92 70 31 108 92 135 84 68 171 111 61 177 137 152 120 205 135 112 78 109 114 149 109 123 81 148 143 170 125 88 113 76 118 124 81 72 164 127 73 54 180 153 61 69 42 168 87 85 107 87 132 80 128 143 77 79 150 229 113 130 223 91 106 112 103 152 83 145 83 139 75 205 120 77 72 126 114 66 159 140 39 76 124 78 103 190 114 82 66 154 129 66 111 181 98 126 81 181 159 142 41 98 216 145 84 65 77 209 69 117 172 183 80 30 37 36 60 154 134 155 109 84 79 164 95 171 150 155 137 64 127 99 35 135 71 162 83 89 195 152 101 210 178 100 214 65 52 173 79 112 96 191 146 103 100 75 210 86 173 156 128 158 102 177 160 109 102 129 84 173 103 85 154 113 196 129 168 179 163 58 149 108 167 98 165 159 211 113 142 81 176 66 128 92 92 26 116 81 125 138 198 106 78 117 92 44 164 110 110 108 105 154 112 152 40 131 121 94 174 49 114 111 82 61 132 70 56 145 148 76 119 109 177 143 129 83 121 142 184 172 143 84 119 88 132 209 177 143 124 190 137 88 139 96 160 124 145 91 31 110 115 87 71 170 59 61 60 174 88 86 57 101 63 175 112 105 106 104 131 199 209 107 110 146 180 61 144 145 92 71 134 158 143 72 111 93 167 154 82 95 84 78 130 154 42 117 82 153 174 93 143 107 144 93 114 155 80 115 102 153 147 138 87 142 155 162 101 18 98 127 70 69 74 82 291 120 82 114 119 126 82 161 82 101 83 126 55 191 47 225 51 154 115 140 70 163 102 122 58 78 123 90 73 129 115 62 140 118 61 35 78 116 41 105 168 148 59 124 109 71 93 198 130 126 94 163 119 124 59 88 110 121 72 134 129 55 85 146 145 158 127 89 102 75 118 31 160 109 131 89 86 95 167 98 47 186 148 154 93 136 126 122 117 164 146 121 105 111 71 99 130 153 170 127 106 114 117 63 90 122 115 89 79 69 137 198 142 95 146 90 118 105 97 67 127 108 157 90 142 70 120 40 40 93 117 121 153 91 60 167 126 51 152 72 118 44 98 63 85 111 72 158 155 172 73 170 114 61 85 205 35 121 109 123 91 151 118 197 136 148 103 116 166 116 92 71 166 25 139 105 210 174 50 84 98 135 79 164 99 166 161 49 98 81 112 37 125 99 97 115 154 62 155 116 35 122 102 177 114 144 194 178 125 120 97 52 91 116 146 142 87 100 144 75 78 60 57 125 132 118 56 94 89 113 119 166 86 100 110 117 106 53 143 83 190 126 199 91 103 87 93 61 126 128 72 74 97 114 131 188 92 132 115 74 138 125 125 166 158 117 51 108 120 90 168 125 143 179 134 8 121 98 137 123 151 125 83 105 107 123 55 101 117 144 127 141 37 123 109 174 100 136 122 78 80 89 52 88 97 99 134 48 135 106 64 50 82 86 73 158 153 156 61 64 80 132 76 56 146 65 140 99 115 172 99 45 108 180 82 105 140 84 58 126 110 86 192 71 123 106 63 68 102 135 103 134 42 113 137 212 33 96 70 82 96 95 120 131 71 114 102 153 65 117 75 176 130 93 129 21 152 94 85 150 47 83 119 78 86 92 85 52 91 122 140 85 110 137 91 210 73 115 64 74 96 101 147 185 199 84 107 70 81 163 88 98 87 89 100 87 129 124 42 69 93 133 120 111 147 83 81 95 118 93 98 101 133 117 105 132 148 182 143 148 145 26 96 112 115 116 100 109 111 152 129 70 130 67 148 53 111 87 127 133 81 51 44 224 107 57 104 114 42 136 40 107 115 205 108 116 122 174 109 157 81 113 144 67 191 94 109 101 82 97 62 173 117 104 110 130 66 53 110 51 180 90 91 170 126 157 62 93 167 120 110 127 112 77 115 109 137 160 91 52 27 148 209 126 144 107 131 139 44 135 85 51 72 47 189 176 44 116 109 108 144 100 135 84 137 74 125 151 148 66 115 111 139 83 64 69 97 81 95 118 111 93 134 103 59 67 127 136 103 114 153 113 117 156 116 76 89 217 141 122 86 140 100 139 146 47 99 100 88 127 162 80 118 117 129 110 108 98 73 63 121 69 159 113 140 125 134 137 87 179 189 146 118 78 137 172 64 138 85 104 94 123 102 147 199 127 170 68 162 118 100 86 138 95 116 143 143 149 118 119 149 157 53 97 202 162 96 113 126 179 82 60 154 209 116 184 114 160 147 77 93 98 98 147 123 81 111 60 171 52 199 71 27 107 60 97 114 96 161 74 82 46 74 84 62 153 153 147 64 30 108 75 85 138 35 171 199 133 122 233 114 124 122 81 210 106 110 53 81 136 93 67 185 161 83 156 92 128 54 97 138 126 47 101 55 118 81 89 162 84 155 104 111 177 63 143 138 104 117 152 88 158 125 131 90 146 100 113 73 69 60 53 202 110 144 116 74 96 92 65 236 231 147 81 141 123 51 110 92 195 222 136 78 114 39 99 98 206 132 88 130 126 132 149 94 149 179 155 131 136 133 41 76 178 145 136 121 146 186 114 170 110 91 67 88 69 95 35 94 76 144 235 76 155 134 172 98 71 173 47 146 108 75 149 36 70 166 138 91 67 122 86 149 107 175 102 60 141 109 92 119 99 84 92 47 94 71 80 133 213 124 126 84 29 110 202 95 153 85 110 45 148 55 145 38 106 140 123 96 133 129 165 58 114 124 86 47 86 61 174 114 104 93 134 94 124 192 78 63 97 90 103 76 178 139 75 88 123 74 99 162 51 112 77 133 87 103 135 150 115 134 89 139 180 120 27 170 158 116 128 119 56 109 108 79 68 70 109 104 199 152 195 118 98 218 86 154 85 48 66 146 148 100 178 118 50 116 68 31 99 23 65 183 110 16 123 80 155 87 167 187 168 42 53 152 163 139 169 125 91 65 79 72 90 86 112 102 133 160 186 110 195 124 100 107 168 148 26 79 95 178 126 143 136 97 112 115 115 129 133 89 208 17 125 182 210 147 144 148 77 205 112 103 166 99 72 107 70 189 63 112 107 109 94 122 94 138 113 53 102 112 177 110 107 203 182 42 85 53 154 163 165 78 61 91 67 73 130 167 110 140 126 60 51 135 177 85 115 100 51 203 125 62 54 77 117 118 190 124 167 130 140 97 159 80 74 81 98 170 68 54 102 102 83 150 87 139 117 97 136 166 110 127 185 132 153 159 76 109 143 101 140 180 82 140 120 98 85 92 60 155 62 160 110 136 110 21 183 112 168 69 135 115 124 86 68 69 151 164 126 179 48 114 146 123 195 92 73 166 100 84 54 58 73 38 167 72 126 160 84 56 128 105 145 111 112 45 102 148 125 131 121 85 219 85 115 150 149 42 172 101 70 209 205 145 38 109 162 189 91 112 127 99 38 84 87 102 117 87 66 193 201 64 48 171 78 133 184 170 154 245 104 101 123 65 42 108 124 204 151 71 70 89 149 129 164 103 86 69 74 110 176 97 116 72 107 134 129 164 145 99 73 174 98 123 167 131 109 178 135 159 187 96 74 125 146 137 151 173 104 90 122 118 133 131 117 102 90 166 131 151 131 88 163 88 177 133 53 216 46 29 140 161 103 96 98 79 99 35 120 152 122 120 46 155 114 149 99 109 105 148 140 130 73 196 71 130 151 145 47 98 85 116 94 90 161 116 142 59 131 124 27 31 245 168 84 141 126 144 124 22 139 125 81 35 134 121 154 146 54 71 69 86 132 131 141 49 136 161 113 150 170 110 66 63 105 183 167 87 200 119 191 80 88 15 67 116 151 207 173 96 60 34 114 117 138 154 149 99 132 138 102 113 129 106 136 155 157 118 126 112 97 111 58 106 78 141 161 187 85 83 59 152 113 53 68 149 138 46 187 117 85 61 137 118 168 113 46 136 203 212 135 108 148 142 131 160 83 140 113 56 85 161 179 135 149 64 77 105 77 160 145 133 106 142 105 126 158 109 84 103 132 63 97 163 200 104 138 114 121 17 183 116 151 128 52 47 102 81 166 184 88 150 63 249 77 120 58 107 174 151 149 172 97 54 220 98 105 7 132 109 49 47 55 127 59 155 87 82 116 161 148 15 99 67 129 82 47 129 148 50 123 107 107 130 88 63 122 69 120 138 155 137 235 152 80 135 163 179 47 7 102 136 140 119 125 227 54 76 81 148 116 74 66 111 100 164 103 64 174 127 100 140 116 119 95 64 142 43 131 102 94 87 100 138 59 45 157 103 48 75 57 39 150 72 84 91 113 81 92 98 34 184 140 105 127 121 53 89 110 154 73 98 92 84 67 29 119 94 80 105 54 91 57 134 143 105 75 88 105 140 97 127 98 100 79 112 120 116 133 78 169 146 159 70 122 102 95 128 43 78 174 221 118 193 146 72 138 124 58 177 134 126 134 178 69 148 117 108 39 128 83 203 35 143 126 117 36 124 108 172 128 144 83 81 48 109 178 65 138 123 190 67 76 156 139 149 156 44 55 74 140 137 63 45 165 132 137 140 129 136 184 47 92 135 130 75 112 115 93 128 118 111 64 60 30 82 91 97 110 103 184 128 98 142 118 53 30 134 127 79 94 75 143 126 147 78 115 67 52 89 120 177 148 115 121 91 37 117 140 116 108 125 123 92 194 99 121 93 92 189 138 40 116 94 98 109 38 129 92 105 176 138 123 100 108 164 100 135 114 125 117 88 94 120 71 86 185 71 118 198 110 171 88 146 94 188 90 21 114 64 56 103 99 95 143 178 97 85 148 104 116 74 218 110 157 35 116 86 8 118 37 60 72 79 95 93 116 121 182 169 76 95 91 37 133 111 93 99 90 133 144 125 154 132 127 139 136 141 105 111 212 85 92 125 153 43 130 134 118 156 144 90 119 90 65 71 59 192 48 206 130 198 72 101 155 106 134 125 167 184 89 76 62 42 107 77 158 127 123 132 99 71 125 149 98 83 144 86 74 152 124 146 114 121 79 140 72 84 128 106 106 174 55 126 79 92 81 151 57 79 136 88 93 98 114 182 180 50 146 106 79 90 113 173 158 69 103 145 54 143 121 135 96 143 187 45 103 76 84 89 138 117 171 100 138 8 149 82 93 118 128 76 191 127 128 103 148 129 185 85 99 82 103 138 194 86 155 149 117 110 183 65 148 128 127 116 162 61 117 71 88 101 132 122 38 108 115 198 161 75 129 126 28 100 187 98 135 142 154 84 131 99 102 166 144 183 45 126 91 81 117 92 178 129 94 77 108 61 92 135 156 112 97 102 123 114 129 112 109 70 134 84 88 177 86 88 87 155 89 113 80 108 164 82 100 105 94 99 127 124 78 140 140 117 43 91 105 142 67 113 113 166 137 202 127 109 174 156 100 180 114 141 53 180 64 135 134 89 231 87 82 115 77 179 112 148 88 123 98 78 107 55 53 119 119 100 117 136 83 134 103 26 115 98 89 77 70 220 136 65 87 61 127 27 108 129 86 127 60 77 94 123 128 101 66 76 172 102 150 125 153 76 143 188 121 145 107 113 53 169 82 100 62 64 182 68 129 143 111 112 161 64 78 110 143 123 140 107 55 135 149 79 138 42 134 62 79 129 126 91 58 71 111 22 176 139 52 21 118 60 95 144 152 147 157 186 121 73 143 139 113 87 166 88 91 106 76 111 155 109 33 151 113 125 192 172 78 71 82 12 73 97 134 99 124 87 115 183 45 71 102 111 199 79 43 154 79 101 138 193 116 42 138 79 86 149 130 101 97 149 85 146 164 71 100 163 138 188 87 71 103 123 145 77 141 100 144 47 101 26 131 141 92 81 79 68 31 86 112 129 129 159 122 37 38 70 86 212 81 111 47 157 114 115 103 109 111 178 123 123 110 97 145 78 92 127 135 108 101 145 113 95 194 125 113 55 30 65 158 155 58 154 135 96 125 113 123 77 145 164 119 106 85 138 167 81 140 52 109 106 75 136 133 189 114 87 35 134 99 174 172 131 71 123 175 61 122 109 46 173 131 141 148 59 147 60 137 55 149 107 149 129 51 92 52 161 98 50 16 65 124 130 99 83 82 115 69 117 132 65 158 110 111 118 155 153 131 109 82 139 28 74 142 97 33 120 91 159 116 143 221 71 89 116 136 69 86 155 138 87 124 109 116 188 151 123 162 129 110 64 63 165 114 167 126 75 160 96 203 45 115 109 72 135 130 177 66 114 144 231 120 92 128 124 68 76 106 84 150 165 170 56 69 161 117 65 71 39 117 106 162 39 50 53 53 112 65 163 130 153 63 143 91 140 127 117 126 134 193 94 69 105 62 149 81 97 149 51 104 83 143 118 121 99 67 120 150 164 151 99 83 117 169 141 155 31 131 43 149 133 44 77 68 103 86 48 134 175 83 181 125 130 132 159 91 52 60 175 163 106 183 113 29 124 127 174 156 106 123 124 133 157 73 131 55 139 125 124 162 129 152 128 155 102 172 54 177 153 111 118 120 45 86 105 128 75 123 106 115 152 118 30 67 209 85 133 54 116 137 49 72 42 38 80 116 88 85 20 117 230 114 81 71 129 141 86 91 129 84 110 68 118 121 226 72 97 101 74 111 84 102 127 110 130 81 138 175 92 135 79 150 215 95 74 107 140 110 81 81 151 121 171 125 128 157 109 98 121 130 153 113 90 118 125 99 34 139 148 134 158 87 202 126 161 132 91 55 72 74 231 128 181 143 71 129 93 121 178 99 105 125 111 96 112 98 109 190 102 108 176 81 85 110 64 80 148 171 156 186 103 78 101 128 182 38 57 119 118 105 46 132 63 81 62 140 67 105 113 152 87 140 111 129 65 113 156 94 152 80 126 162 114 136 150 84 85 83 169 113 112 130 130 73 183 97 128 120 86 119 93 145 155 39 124 136 90 85 24 130 69 137 76 29 87 147 119 122 134 171 94 143 106 91 160 129 112 90 136 110 128 152 76 163 95 24 63 51 155 131 43 147 194 151 57 183 126 116 147 99 197 25 112 90 121 124 107 119 130 152 214 110 84 152 82 114 85 123 99 46 144 37 109 89 182 59 109 88 159 56 98 118 107 147 109 129 82 173 44 58 133 67 109 110 139 170 130 136 42 206 108 68 65 156 157 107 120 118 119 80 51 140 109 102 158 146 79 96 73 100 136 122 146 154 108 126 189 124 78 132 86 85 157 166 105 128 120 107 147 50 95 90 58 123 134 56 134 103 134 148 126 98 115 99 98 104 81 57 84 158 97 89 50 130 98 165 102 119 212 147 119 112 160 63 46 115 75 145 85 50 147 42 172 97 63 212 68 52 116 103 126 112 95 174 88 57 78 151 130 29 117 109 130 115 76 99 83 83 58 137 86 133 104 193 62 126 134 68 153 76 158 47 109 110 103 120 124 128 112 145 51 110 95 107 149 175 115 146 182 75 118 119 85 113 70 85 90 109 94 104 89 112 104 62 69 128 110 111 74 92 100 60 109 62 142 122 100 176 58 131 107 113 58 83 211 110 143 150 108 128 78 113 117 117 109 143 96 60 146 80 85 98 57 137 119 148 231 167 114 142 64 12 110 76 105 54 76 138 87 166 167 156 153 137 84 131 174 86 242 140 207 91 119 15 119 148 89 64 113 138 128 26 78 141 89 120 239 101 121</t>
+  </si>
+  <si>
+    <t>GAM(0.481367200242217, -4.192119073752364e-28, 0.5444442871159072)</t>
+  </si>
+  <si>
+    <t>3 0 0 1 1 2 1 0 1 0 1 0 1 0 0 0 0 1 0 2 0 1 3 1 0 1 1 0 1 1 0 0 1 0 1 1 0 1 1 2 0 1 0 2 0 1 1 0 0 0 0 1 1 1 1 0 1 1 0 1 0 2 0 1 0 0 1 3 0 0 2 1 0 0 2 2 1 0 0 2 1 1 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 2 2 0 0 1 0 0 0 0 1 2 2 2 0 2 1 1 0 2 0 2 1 0 0 1 0 0 2 0 1 0 0 2 2 1 0 0 2 0 0 1 1 1 0 1 0 2 0 1 0 0 1 0 1 1 2 0 0 1 0 0 0 0 0 1 1 2 0 1 0 0 0 1 0 0 1 1 3 2 0 0 1 1 2 2 2 2 0 3 3 1 0 2 3 0 2 3 1 0 0 2 0 0 0 0 1 0 1 0 0 0 2 0 1 0 2 0 1 0 0 2 2 2 3 1 1 0 1 1 0 0 2 0 2 0 1 2 1 0 0 0 0 2 0 1 1 1 3 0 0 0 1 1 0 0 0 0 0 3 3 0 3 1 2 0 1 3 0 0 0 1 0 1 0 1 2 0 1 2 0 1 0 0 0 1 2 0 1 0 0 0 1 1 1 0 1 0 1 0 1 2 0 0 2 2 1 0 2 0 1 0 0 1 2 0 0 0 0 1 3 0 0 3 1 0 0 1 0 0 0 1 0 0 1 1 0 0 2 0 2 0 1 1 0 0 1 0 1 0 1 0 2 1 0 0 0 2 3 1 1 0 0 1 0 0 0 1 1 0 1 1 2 2 0 0 1 3 2 1 1 1 0 1 0 0 1 2 1 1 0 1 2 2 0 0 1 1 0 2 1 1 0 1 0 1 1 0 1 1 1 1 0 1 3 1 2 0 0 2 0 3 1 0 2 0 0 1 1 1 0 1 0 0 1 3 0 2 2 0 0 1 1 1 1 1 1 3 0 2 2 0 0 0 1 1 0 1 1 0 1 0 2 0 0 0 2 0 2 0 1 0 0 0 1 0 1 1 1 0 1 1 2 1 0 0 2 1 1 1 0 0 2 1 1 2 1 0 0 3 0 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 1 0 0 1 0 0 1 1 0 0 1 1 2 1 0 2 1 1 3 0 2 0 0 0 0 0 0 2 0 3 1 3 1 0 0 1 0 2 1 2 0 1 1 2 0 0 1 0 0 0 3 2 1 0 1 0 1 0 0 2 0 2 0 0 0 0 2 2 1 2 0 1 0 2 1 0 0 2 1 1 0 2 1 0 0 1 2 2 1 1 1 0 0 2 0 1 1 2 1 0 0 0 0 1 3 0 1 4 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 1 0 0 1 0 1 2 1 0 1 1 1 1 0 1 0 1 2 2 1 0 1 2 0 1 1 1 1 2 0 0 0 1 0 0 0 4 0 1 0 0 0 2 1 2 2 0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 1 1 2 0 0 0 1 1 1 0 2 1 0 2 1 1 2 1 0 1 0 2 2 1 1 3 0 0 0 0 0 0 1 0 0 2 1 1 2 1 0 0 0 2 1 0 3 1 0 0 2 1 1 0 0 1 1 1 2 1 0 1 0 1 1 1 1 0 0 1 2 3 2 0 1 1 0 2 1 1 0 0 2 1 1 0 1 1 2 2 1 0 0 1 3 0 0 0 1 2 2 1 0 0 2 0 1 0 0 1 0 0 0 1 2 1 1 0 0 1 1 2 0 2 0 0 1 1 0 1 2 0 1 2 1 2 2 1 1 3 1 1 1 1 1 1 1 1 0 1 2 0 0 2 1 1 1 0 1 0 0 1 2 0 1 0 1 0 0 2 0 2 0 1 2 0 0 0 2 2 0 0 1 1 0 0 4 0 2 0 1 2 1 0 0 1 1 0 3 1 0 1 0 1 2 0 0 3 0 0 0 0 1 0 1 1 0 2 4 1 1 2 2 1 1 2 0 1 2 0 3 0 0 2 1 0 1 0 3 2 1 0 1 1 1 1 0 0 0 0 2 2 1 2 0 0 2 1 0 0 0 0 1 1 2 1 1 0 1 0 1 0 0 0 0 1 0 0 1 0 1 3 2 0 0 1 1 1 0 2 1 0 0 2 2 0 0 3 0 1 1 0 1 1 1 1 1 0 0 1 0 1 1 0 3 1 0 0 1 3 1 0 2 0 1 0 0 1 2 1 2 0 0 0 1 0 0 2 1 1 1 0 1 2 1 0 0 0 0 1 0 1 0 2 0 0 0 0 1 2 0 0 1 4 2 0 2 1 0 1 3 1 2 1 0 1 0 1 1 2 1 0 1 0 0 0 0 0 0 0 0 2 0 1 0 1 1 0 0 1 0 0 1 0 0 2 0 1 0 0 2 1 3 1 1 0 0 1 1 0 1 1 0 2 1 1 1 1 0 2 2 1 0 0 1 2 1 0 2 1 0 0 2 1 1 1 0 3 0 2 0 0 0 0 1 1 1 0 0 2 1 1 2 1 1 0 0 0 2 1 1 0 3 1 0 0 3 0 0 3 1 3 1 3 0 2 1 0 1 1 2 0 2 1 2 0 0 0 0 1 0 1 0 0 0 2 1 2 2 2 0 0 1 1 1 2 0 0 0 1 1 1 1 0 0 2 1 2 2 1 0 2 0 0 0 1 1 0 1 1 0 1 0 1 1 0 0 0 0 1 2 1 0 2 0 1 0 0 0 0 0 0 0 1 2 0 0 2 1 2 0 2 2 2 0 0 0 1 2 0 1 0 0 0 0 0 2 3 0 1 0 0 1 0 1 0 2 2 0 1 2 1 1 0 0 1 0 3 1 1 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 2 0 1 0 2 0 1 1 0 0 1 0 3 3 1 1 0 0 2 0 2 0 0 2 1 0 0 0 2 1 0 1 1 1 2 1 0 1 0 0 0 2 2 0 1 0 1 0 1 1 2 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 1 0 0 0 0 2 1 1 1 1 1 1 1 3 0 0 1 0 1 0 1 1 1 2 0 1 0 0 2 0 0 1 0 1 0 0 2 1 0 0 1 1 1 1 1 0 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 1 1 1 0 0 1 2 0 0 0 0 1 1 1 1 1 0 2 1 0 3 3 0 0 1 1 1 1 1 1 1 0 1 0 0 3 0 2 0 3 1 0 0 0 0 1 1 0 0 0 1 0 0 2 1 2 0 0 1 0 1 1 0 0 2 1 0 2 2 0 0 0 0 0 0 2 2 1 1 0 0 1 2 0 0 2 0 2 0 0 2 2 1 2 0 0 3 0 2 1 0 1 2 2 1 1 0 3 1 0 1 0 0 1 1 1 2 1 1 0 1 0 0 0 1 0 1 1 1 2 0 0 0 1 1 1 1 0 2 0 2 0 2 0 1 2 0 3 0 0 1 1 0 0 2 2 3 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 1 0 2 0 0 1 1 0 1 0 1 1 2 1 0 1 1 1 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 1 0 0 1 1 0 0 0 3 0 0 0 1 1 0 0 1 3 0 3 1 2 0 0 0 1 1 1 0 2 4 1 0 1 2 0 1 0 1 2 1 3 2 1 1 0 1 0 1 1 0 1 1 0 1 0 1 1 1 1 1 0 2 0 2 1 0 1 3 1 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 2 0 2 0 0 2 1 0 0 0 2 2 0 0 0 1 1 1 1 0 2 1 1 0 1 0 1 0 1 0 0 0 2 1 1 0 1 0 0 0 2 1 4 0 2 0 1 2 1 1 1 1 0 0 0 0 0 1 2 0 0 2 0 2 0 1 2 1 1 0 1 1 2 0 1 3 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 1 1 1 0 1 1 1 1 1 0 0 1 0 0 0 3 2 0 0 0 0 1 0 2 1 0 0 1 2 0 2 2 0 1 2 1 2 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 2 1 0 2 1 0 0 1 0 1 3 3 0 2 0 1 1 2 1 0 1 2 1 1 1 0 2 1 2 1 2 1 1 1 1 1 1 0 1 0 2 0 0 1 2 1 0 1 0 1 2 1 2 0 1 0 0 0 0 0 0 0 0 2 1 2 1 0 0 0 0 1 0 0 0 0 1 1 0 1 1 0 2 1 1 1 0 0 0 1 2 1 1 0 0 0 0 0 0 0 3 1 2 0 1 1 3 2 1 0 1 0 2 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 2 2 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 1 1 1 1 2 0 0 1 1 1 1 0 1 1 2 0 1 0 2 0 0 0 0 1 0 1 2 0 1 1 1 0 2 0 0 2 1 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 2 2 0 1 1 0 1 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 0 2 1 1 1 1 0 1 0 0 0 0 1 3 3 0 0 1 1 2 1 0 0 1 2 2 1 1 1 0 0 1 0 1 1 1 3 1 2 1 0 2 0 0 0 1 1 0 1 0 0 2 1 1 0 1 0 0 0 0 2 1 1 1 0 0 2 1 3 2 0 4 1 1 1 0 0 1 2 1 2 1 0 0 2 0 3 2 1 0 0 1 0 1 0 1 0 3 1 0 0 0 3 1 0 0 2 1 0 0 0 2 1 1 1 1 0 1 0 0 0 1 0 1 1 1 2 1 0 0 1 0 2 1 1 0 0 0 1 2 1 2 2 2 0 1 0 0 0 1 0 1 0 1 0 2 0 2 0 0 2 3 2 0 1 1 0 2 0 2 1 0 0 2 0 0 0 2 0 0 0 1 0 1 1 1 0 2 1 0 0 1 1 2 1 0 1 1 1 0 1 0 0 1 0 1 2 0 2 1 0 2 1 2 0 1 1 1 0 0 0 0 4 0 1 0 1 0 0 0 1 0 0 1 1 1 0 1 2 0 0 2 1 0 1 2 0 0 1 1 0 2 1 0 1 1 1 1 1 1 0 1 1 0 2 1 0 0 1 3 0 1 1 0 2 1 1 1 0 0 0 0 0 2 1 0 0 0 0 1 1 1 1 0 2 0 1 1 2 1 0 2 0 2 1 1 1 0 0 1 3 1 1 2 0 1 2 0 0 0 4 1 0 2 1 2 1 0 0 0 1 1 0 0 2 0 2 2 0 0 0 1 1 2 0 1 1 0 0 0 1 0 1 0 1 0 1 0 1 1 1 2 1 2 1 1 1 1 1 0 0 0 2 0 0 1 0 1 1 1 2 0 0 1 0 1 1 0 0 1 2 2 1 1 0 0 2 0 1 1 0 1 1 0 1 0 1 3 1 0 1 0 0 0 0 1 0 0 0 0 0 1 2 1 2 1 0 0 0 0 0 1 0 0 1 2 1 0 0 0 0 2 0 0 0 1 0 0 0 2 2 1 0 1 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 1 1 2 1 2 1 0 2 2 1 0 1 1 1 0 2 2 0 0 2 1 1 1 1 2 2 2 0 0 1 0 2 1 0 2 3 1 0 0 0 1 1 0 0 0 3 0 0 0 2 1 1 2 2 1 0 2 0 0 2 0 1 0 3 0 0 0 0 1 1 3 0 1 0 0 2 0 0 2 0 0 2 0 0 1 1 0 0 0 0 2 3 1 1 0 0 0 0 3 0 2 0 2 1 3 0 1 0 0 1 1 1 1 1 2 0 1 0 0 1 3 0 1 1 1 0 1 0 1 1 2 0 1 1 0 0 0 1 0 1 2 0 0 0 0 1 0 2 2 2 2 1 2 1 0 1 0 3 0 1 1 1 2 1 1 1 0 1 1 1 0 1 1 1 0 0 1 2 0 0 0 0 1 2 2 0 0 1 2 1 0 1 1 2 0 2 0 3 1 0 0 0 3 1 0 2 1 0 0 1 1 0 0 0 1 2 3 1 1 2 0 0 1 0 1 1 0 3 0 0 3 2 0 0 2 2 0 1 1 0 2 2 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 2 0 2 0 1 0 0 3 0 2 2 0 1 2 2 1 2 1 0 3 0 1 0 0 2 0 0 2 0 0 1 2 0 2 0 0 1 2 1 2 1 1 2 2 0 0 0 2 1 0 1 0 0 3 2 2 0 1 0 0 0 1 0 1 0 0 2 1 2 0 0 3 2 2 2 2 2 1 2 0 0 0 1 1 1 0 0 0 2 0 1 0 0 1 0 0 3 2 2 0 2 0 1 3 0 0 1 1 1 0 1 2 0 0 0 0 1 3 0 1 3 2 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 1 1 0 1 2 1 1 0 1 2 3 1 2 0 1 1 3 0 2 0 0 0 1 1 1 1 0 0 3 2 1 1 1 0 1 3 0 0 1 1 1 1 1 0 1 0 2 2 2 1 0 0 0 0 1 0 1 1 1 0 2 1 1 1 0 2 2 3 0 1 0 1 0 0 1 0 2 0 1 2 1 0 0 0 1 3 1 0 0 1 0 2 0 0 0 1 0 2 1 2 0 2 0 1 1 2 0 1 0 2 0 3 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 0 0 1 1 0 1 0 0 0 0 1 2 0 0 2 0 1 0 1 3 2 0 0 0 0 1 0 2 0 2 2 1 2 0 0 1 1 1 2 0 0 1 0 1 0 2 3 0 3 0 3 0 1 1 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 2 0 1 0 0 3 0 1 0 1 1 0 1 0 0 1 0 0 1 1 1 0 2 2 1 0 1 0 0 2 0 3 1 3 0 1 1 0 1 2 0 0 2 1 0 1 0 0 1 1 0 1 0 0 0 1 0 1 1 2 0 0 1 0 0 0 1 4 2 0 0 2 0 0 0 2 1 1 0 1 0 3 0 1 1 1 0 0 0 1 0 3 0 1 1 1 1 0 0 1 0 0 0 2 0 1 4 1 0 1 1 2 1 1 1 1 2 2 1 0 1 0 1 0 0 0 1 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 1 3 4 2 0 2 1 1 1 0 2 2 1 0 1 3 1 0 1 1 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 2 1 0 0 0 1 0 0 2 1 0 2 1 0 0 1 1 1 2 0 0 1 1 1 0 0 1 0 2 0 2 0 0 1 2 1 2 0 1 0 0 1 1 1 2 0 2 0 2 0 3 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 1 0 0 2 1 0 0 1 0 1 1 0 2 0 2 0 1 1 0 1 0 2 4 2 1 1 1 0 1 1 1 1 1 1 0 1 1 1 0 1 1 0 3 1 0 0 1 2 3 0 0 0 2 0 1 3 2 1 2 0 2 0 1 1 0 1 0 2 0 1 1 0 0 0 0 2 0 0 1 1 1 0 0 1 0 4 3 0 0 0 2 3 1 1 3 0 2 0 1 0 1 0 2 3 2 2 2 2 1 0 1 2 0 0 0 1 2 0 1 2 1 1 1 1 0 1 0 0 0 3 0 1 2 2 0 1 1 0 4 0 0 3 1 0 1 2 0 0 3 1 0 0 1 1 3 0 0 1 0 0 0 2 2 2 0 3 0 0 1 1 0 0 0 1 0 2 1 0 0 1 4 1 0 0 0 0 0 2 0 1 2 1 0 1 0 0 1 0 0 0 1 1 2 2 0 1 0 1 0 2 1 0 0 1 0 2 1 0 0 1 1 0 2 1 2 0 1 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 0 1 0 2 0 2 1 0 1 0 0 0 1 1 0 1 2 0 0 0 1 0 0 0 2 2 1 0 0 0 1 0 1 0 1 1 1 2 0 2 0 0 1 0 0 1 3 0 1 2 3 3 0 0 0 0 1 0 0 2 1 1 0 1 2 1 1 1 0 1 1 2 0 0 0 0 1 1 0 0 0 0 1 2 1 2 0 2 1 2 0 1 1 0 1 1 0 1 0 0 0 0 2 0 0 0 3 0 0 0 2 0 3 2 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 0 1 1 0 0 0 1 3 0 0 1 0 0 0 2 0 2 0 0 0 0 0 0 1 1 0 2 1 2 1 0 0 1 0 0 0 1 0 0 0 1 1 0 3 1 0 0 1 1 3 1 1 0 1 0 0 0 0 2 0 4 1 2 0 0 2 1 1 0 1 1 0 1 1 1 0 0 0 1 1 1 3 2 0 1 2 1 1 3 0 2 1 1 0 2 1 0 0 0 0 0 3 1 0 2 0 1 2 1 2 2 0 1 1 1 0 1 0 1 1 1 2 0 2 2 1 1 0 0 1 1 0 2 1 4 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 2 1 1 2 1 0 0 2 1 1 0 3 2 1 1 2 1 0 0 2 1 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 2 0 1 1 0 0 1 0 0 0 0 0 1 2 1 3 1 1 0 0 2 1 1 0 1 1 2 2 2 4 1 1 1 3 0 1 1 1 0 2 0 0 0 1 0 1 0 0 1 0 2 1 1 0 1 1 1 1 0 0 0 1 1 2 0 1 0 2 0 1 1 1 2 0 0 1 1 0 1 1 1 0 0 1 0 1 1 1 2 1 0 0 1 0 0 2 1 0 1 2 1 0 0 0 0 1 0 2 0 0 1 2 0 0 2 1 3 0 0 0 0 1 1 0 0 1 1 1 1 0 2 2 0 2 2 0 1 0 2 1 1 0 1 2 1 2 1 0 0 0 2 0 1 2 0 1 1 2 0 1 0 1 0 1 0 2 0 0 2 2 0 2 0 0 0 1 0 0 1 0 0 1 0 0 2 0 2 1 0 1 1 0 0 0 0 1 0 0 1 2 0 1 2 2 1 0 0 2 2 0 0 0 1 1 0 0 0 0 1 2 1 0 0 1 2 1 2 1 1 0 0 1 0 1 0 0 2 1 3 0 1 0 1 2 0 0 1 0 1 0 0 0 0 1 0 2 2 2 0 0 0 0 1 1 1 0 2 0 3 1 2 1 0 0 0 0 0 1 1 0 1 0 2 1 1 2 2 0 1 0 0 1 0 0 1 0 0 0 1 2 0 3 1 0 3 0 0 0 0 1 0 0 1 0 3 2 1 0 0 2 0 1 1 1 1 1 0 1 2 0 1 0 1 1 1 1 1 1 0 1 1 0 0 0 2 2 0 0 0 1 3 1 1 2 1 0 0 1 1 2 0 0 2 0 2 0 0 0 2 2 0 3 0 1 2 1 0 0 0 1 0 0 1 2 1 1 1 0 0 0 0 1 2 2 1 0 1 0 1 0 1 0 1 0 0 3 0 1 0 0 2 1 0 1 0 0 2 0 1 1 0 1 0 0 0 1 2 0 0 1 0 2 0 1 1 1 0 0 1 1 1 3 0 0 0 2 0 0 2 0 1 1 1 2 2 0 2 0 1 0 0 1 1 0 0 0 2 1 0 2 1 1 2 2 0 1 1 2 2 1 0 0 0 0 0 1 1 0 0 1 2 1 0 2 0 0 2 2 1 1 0 0 2 0 1 1 1 1 1 0 0 2 0 0 0 1 1 3 1 0 1 1 0 3 0 2 0 1 1 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 2 2 0 1 1 1 1 1 1 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 1 0 1 0 1 2 1 0 1 0 2 1 2 1 1 0 1 2 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 1 1 1 0 0 1 0 0 0 1 1 1 1 0 1 2 1 1 0 0 1 2 1 0 0 1 3 0 2 0 0 1 0 0 0 3 0 1 0 1 1 2 0 0 2 0 1 1 0 2 3 0 0 0 1 2 1 2 0 1 2 0 1 2 0 0 0 1 1 0 1 1 2 1 1 2 1 0 1 0 1 1 1 1 1 1 3 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 2 2 1 1 2 2 1 1 0 2 1 0 1 2 1 1 1 0 2 1 3 0 1 2 0 1 0 0 0 2 2 2 1 0 1 0 0 1 0 0 0 2 1 2 0 2 0 1 1 1 0 1 1 1 1 0 0 2 1 1 0 1 0 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 1 3 3 1 1 2 0 0 2 1 0 1 0 0 0 1 0 0 1 0 2 0 1 1 3 1 1 0 2 2 0 0 1 1 1 1 0 2 1 2 1 0 1 1 1 2 1 0 0 1 2 0 0 1 0 2 1 1 1 1 1 2 1 2 0 1 1 0 0 1 1 1 1 0 0 1 0 1 1 1 1 2 2 0 0 0 2 0 0 1 1 1 0 2 1 2 1 1 3 1 1 0 1 1 1 0 0 1 1 1 1 0 2 1 2 2 0 0 2 0 3 0 2 0 1 3 3 1 1 1 2 1 3 0 2 0 2 2 1 1 1 1 0 0 1 0 0 2 1 1 0 1 0 1 0 2 1 0 2 1 1 1 1 0 3 0 0 2 0 1 0 0 3 3 0 2 1 0 1 0 0 0 1 1 2 0 1 0 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 1 1 1 0 1 0 0 0 1 1 0 1 0 2 0 0 0 1 1 1 1 0 1 0 0 0 0 2 1 0 0 1 1 0 3 3 0 0 1 2 1 1 2 2 0 1 0 1 2 0 3 0 1 0 2 1 2 0 1 2 1 1 0 1 0 1 0 2 0 0 1 1 0 1 2 0 0 1 0 0 1 3 1 0 1 1 2 0 0 0 1 2 1 0 2 0 0 1 0 0 0 1 0 2 1 0 0 1 0 0 0 2 0 0 0 0 2 1 1 1 1 1 0 1 3 1 0 1 1 0 1 2 0 1 0 0 0 0 0 2 1 1 0 0 0 2 1 1 2 0 0 0 1 2 1 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 2 1 0 1 2 1 0 0 1 1 1 2 1 1 1 0 1 0 1 0 1 0 1 2 0 1 1 1 0 1 0 1 2 3 1 0 0 3 3 1 2 0 2 1 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 3 3 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 1 0 1 1 2 0 1 2 2 0 1 0 1 1 2 0 0 2 2 1 0 0 2 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 1 1 1 2 0 2 0 0 0 2 1 1 0 0 0 4 0 1 1 2 0 0 0 0 3 0 0 1 2 2 1 1 0 1 0 0 0 1 2 0 2 0 0 1 1 0 3 0 0 0 0 0 3 0 1 0 2 0 2 1 1 0 0 1 2 1 1 0 0 0 1 0 0 1 0 1 2 0 0 1 1 0 0 0 2 1 3 1 2 1 0 1 1 0 0 1 0 1 0 0 1 1 2 0 1 2 1 1 1 2 0 3 0 2 3 2 1 2 2 0 0 1 2 1 1 0 2 0 0 1 1 1 2 0 1 1 1 0 0 0 0 1 0 1 0 1 2 0 0 1 1 0 2 2 0 3 1 0 0 1 1 0 1 1 0 0 1 1 0 0 0 1 2 1 0 1 1 1 0 0 1 1 4 1 2 1 2 2 0 1 0 2 1 0 1 0 2 0 1 0 0 1 0 0 1 1 0 2 0 1 1 2 0 0 2 1 0 4 0 1 3 1 0 0 0 1 1 2 1 0 1 0 0 1 1 1 0 0 0 0 0 0 2 0 2 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 1 1 2 2 3 0 0 0 0 1 1 1 1 1 0 2 2 2 0 0 0 0 0 0 0 0 2 1 1 1 2 0 0 0 0 0 0 0 0 4 1 1 0 3 0 1 0 3 2 0 2 1 2 2 0 1 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 1 1 0 2 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 0 1 2 1 0 0 2 1 0 1 1 1 0 0 0 1 0 0 1 2 1 0 0 0 0 0 1 2 1 0 0 1 2 0 2 1 0 1 1 1 0 0 1 1 1 0 1 0 1 0 1 0 1 2 0 0 1 1 1 3 2 1 1 0 1 0 1 0 3 0 0 1 1 0 2 2 1 0 0 2 0 1 0 0 2 0 0 1 2 2 1 2 0 1 0 0 0 0 1 1 0 2 0 0 1 1 1 0 3 1 1 0 2 0 0 1 2 0 2 0 2 2 2 3 2 0 3 1 0 1 1 0 1 0 1 2 0 2 0 1 0 0 1 1 0 1 1 2 1 2 1 0 1 1 0 0 1 0 2 0 1 2 1 0 0 1 0 0 0 1 0 0 0 2 0 0 3 1 0 0 1 1 0 2 1 0 0 2 2 3 0 0 0 0 3 1 1 0 0 1 0 0 0 1 2 0 0 0 0 3 0 0 1 0 1 0 1 1 0 0 2 0 3 1 1 2 1 0 0 0 1 1 2 1 0 1 3 0 0 0 3 0 1 0 1 1 0 0 1 0 0 2 0 0 1 0 1 2 1 0 1 1 0 1 1 0 0 1 1 1 2 0 1 1 1 1 1 0 1 0 1 1 0 2 1 0 1 1 0 1 0 3 0 1 0 0 2 0 2 1 2 2 1 0 0 1 0 0 0 1 3 0 0 1 1 1 1 1 0 1 0 0 0 1 1 0 2 1 1 0 1 1 1 0 0 1 1 0 1 0 2 0 0 1 0 0 1 1 1 3 1 2 1 1 0 0 0 1 0 1 1 3 0 1 1 1 1 0 2 3 1 2 0 1 2 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 1 0 0 1 0 1 1 1 0 1 1 0 0 1 1 1 0 2 0 0 1 0 1 0 1 2 1 0 1 0 0 1 0 0 0 0 2 0 1 0 2 1 1 0 1 2 0 1 0 0 4 1 1 1 1 0 2 1 2 0 3 3 0 0 0 2 0 1 0 2 0 1 0 0 1 0 1 0 2 1 0 0 0 1 0 0 0 1 3 2 0 1 1 0 2 1 0 2 3 0 2 1 1 0 0 0 0 0 1 1 1 3 0 0 1 0 1 1 0 0 0 0 0 2 0 1 0 1 0 1 0 3 0 2 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 3 3 1 2 0 1 2 0 0 1 1 4 0 0 1 2 3 2 2 0 0 2 1 0 0 1 2 2 0 3 0 1 0 2 0 2 1 0 0 2 0 0 1 0 1 0 2 0 0 0 0 0 1 2 1 2 1 0 2 0 0 0 1 0 2 1 3 1 0 0 2 1 1 2 1 0 1 2 1 1 1 0 1 0 0 0 0 0 0 1 0 2 3 2 0 0 1 0 2 0 1 0 0 3 0 2 1 1 1 2 1 1 1 1 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 2 1 0 1 1 0 0 2 0 2 1 1 0 0 0 1 2 0 1 0 1 0 2 0 0 1 1 0 0 1 0 1 1 1 0 1 1 0 2 3 2 1 2 1 0 1 2 0 1 0 2 2 1 2 0 0 1 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 0 2 0 1 0 1 3 2 2 1 0 0 1 0 0 0 1 1 2 0 0 1 1 0 0 0 2 1 0 1 0 0 1 0 2 0 0 0 1 1 2 1 0 1 1 0 1 1 1 0 0 0 0 3 3 1 0 2 1 0 2 1 1 0 1 0 3 0 1 2 2 0 1 0 1 1 2 0 0 2 0 1 0 1 0 0 0 0 1 0 1 1 0 3 1 1 0 0 1 1 0 2 2 1 0 0 1 0 1 2 1 1 0 1 2 2 1 0 1 1 2 1 1 2 0 1 0 0 0 0 0 0 0 1 2 1 0 1 1 2 0 2 1 0 0 0 0 0 0 1 1 1 0 2 1 2 2 0 1 2 1 1 1 0 1 2 1 1 2 1 0 1 1 2 1 1 2 2 0 0 1 0 0 0 1 2 0 1 1 2 1 1 0 0 1 1 0 0 0 0 1 0 2 0 1 0 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 2 0 2 1 0 4 1 2 1 1 1 1 0 3 0 0 0 2 0 0 0 0 1 0 2 0 1 0 2 1 2 0 0 0 0 0 1 1 1 0 1 1 2 0 2 0 3 0 1 0 0 1 0 1 0 1 2 2 0 1 0 2 3 0 2 1 0 0 2 0 1 2 3 0 0 0 0 1 3 1 2 1 1 0 2 1 1 2 1 1 0 0 0 0 1 3 0 2 3 1 0 0 0 0 1 1 1 0 0 1 0 2 1 1 2 2 1 1 0 1 1 1 1 2 3 0 1 1 1 0 1 0 0 1 0 1 1 0 2 1 0 1 0 1 0 0 0 0 1 0 3 2 1 0 0 0 1 1 1 0 1 0 3 1 1 0 0 1 2 0 0 0 0 1 0 1 0 0 1 0 2 0 0 1 0 2 0 1 0 1 0 1 0 1 1 1 2 2 2 0 2 1 1 0 0 1 1 1 1 0 1 1 1 3 1 2 0 1 1 0 0 0 1 1 1 0 1 0 1 1 0 1 1 2 0 2 1 2 0 0 1 2 1 2 2 2 0 1 0 0 1 1 0 1 1 0 0 2 0 1 0 1 2 1 0 2 0 2 0 1 1 1 0 1 0 1 1 0 0 1 1 0 1 0 0 0 4 2 1 1 1 1 1 2 0 1 1 0 2 0 2 0 1 0 0 1 3 1 2 1 0 4 2 1 2 3 1 1 0 1 2 1 1 1 0 1 0 1 2 0 0 1 2 1 0 1 3 0 0 0 1 1 2 1 1 2 0 1 2 1 2 0 2 0 1 2 0 0 1 0 0 3 1 0 0 1 1 1 2 0 0 2 2 0 0 1 1 0 1 2 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 1 3 0 1 0 0 3 0 1 1 2 2 1 2 0 0 1 0 1 1 1 0 3 1 2 0 0 2 1 0 0 0 0 1 1 1 0 1 1 1 1 0 1 2 1 0 0 1 1 0 1 1 1 1 0 0 1 3 1 0 0 0 1 1 0 1 2 0 2 0 0 0 1 0 4 1 0 2 0 1 0 0 0 2 1 2 2 0 0 1 1 2 0 0 0 1 3 0 0 0 0 1 1 1 2 2 0 0 1 0 1 0 2 2 1 0 0 1 0 2 0 0 0 1 1 2 3 0 1 0 0 1 0 1 2 0 0 3 1 0 1 0 1 0 1 1 0 0 0 0 1 0 2 0 0 0 0 3 1 4 0 1 0 2 1 2 1 0 1 0 2 2 0 2 0 0 3 2 1 0 1 0 1 0 1 1 2 1 0 2 1 1 0 0 0 0 0 2 0 2 1 1 1 1 1 0 0 0 1 0 3 1 1 0 0 2 0 0 2 0 2 0 1 1 0 1 2 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 2 2 1 0 0 1 1 2 0 1 1 2 1 0 0 1 1 0 2 2 2 2 1 1 1 1 1 0 1 0 1 2 1 1 1 1 2 2 1 0 0 0 1 0 0 0 1 1 0 0 1 1 0 1 1 0 0 2 0 2 2 0 0 1 1 1 1 0 0 1 1 1 0 0 3 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 2 1 0 1 0 1 1 2 2 1 2 1 0 2 1 1 0 2 1 4 3 1 1 0 1 2 1 1 1 0 1 1 2 0 0 3 0 2 1 0 0 0 0 0 0 0 1 0 0 0 2 3 1 0 0 1 1 0 0 1 0 2 0 0 0 3 1 1 1 2 2 1 0 1 0 0 1 1 2 2 2 0 1 1 0 0 0 1 1 0 1 0 3 1 2 0 1 2 1 0 1 1 1 2 0 0 2 1 1 1 1 0 0 1 0 1 1 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 2 0 0 2 1 0 1 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 1 2 1 1 0 1 1 1 3 2 1 1 0 0 0 0 1 0 0 2 2 0 1 1 2 0 1 1 2 0 0 0 0 0 1 2 1 1 2 0 0 0 2 1 0 1 0 1 0 0 0 0 2 1 0 0 1 0 1 0 0 2 1 2 1 1 3 2 0 1 3 0 0 0 0 0 2 1 0 0 1 0 2 0 1 2 0 0 1 1 0 1 0 0 0 1 0 0 0 1 2 1 3 1 1 2 2 0 1 3 1 1 1 0 1 2 2 1 1 2 0 1 1 2 0 0 0 1 1 2 1 0 0 1 1 0 0 2 2 0 0 1 1 1 1 0 1 2 2 1 0 0 0 1 0 1 0 1 0 0 0 1 2 1 0 0 0 1 0 0 0 2 0 2 0 2 0 1 1 2 1 2 0 1 0 0 1 0 0 0 0 1 0 1 0 1 1 1 1 1 0 1 0 0 2 1 0 3 1 0 0 1 3 0 0 0 1 2 2 3 1 2 0 0 0 0 1 1 1 2 0 1 1 0 3 1 2 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 3 1 2 2 0 0 0 1 1 3 1 1 2 0 2 2 2 0 1 0 0 1 0 1 1 1 0 1 1 0 0 2 0 0 3 2 1 1 0 2 1 1 2 1 1 0 0 1 1 0 3 1 2 0 0 1 1 1 2 0 1 0 0 0 1 0 1 0 1 0 0 0 0 2 1 2 2 1 1 0 0 2 0 0 1 1 1 2 1 0 4 0 1 2 3 0 1 1 1 0 2 0 2 1 0 0 0 2 1 1 1 3 3 0 0 0 0 1 0 0 2 0 0 0 3 2 2 2 1 2 0 1 1 0 1 1 1 1 2 0 1 0 0 2 2 0 0 1 1 1 3 0 2 0 2 0 0 2 0 0 2 2 0 0 0 0 2 1 0 0 0 0 1 1 0 1 0 0 1 0 1 1 2 1 2 1 2 1 0 0 0 0 0 1 0 0 0 2 0 2 2 1 2 1 2 1 1 2 0 1 1 1 0 2 3 0 0 1 1 3 1 1 1 0 0 0 2 0 0 2 1 2 1 0 3 2 1 0 1 3 1 1 0 0 0 1 1 1 2 2 1 1 0 1 1 1 0 1 0 1 0 0 0 1 0 2 2 0 1 0 1 2 1 1 1 0 1 1 1 3 2 0 1 0 0 1 0 0 0 1 1 2 1 1 1 0 1 0 4 0 0 0 0 0 1 0 1 2 2 2 1 0 1 0 0 1 2 1 1 0 0 1 2 0 0 2 0 0 2 3 0 1 0 0 1 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 0 1 0 1 2 3 2 1 0 2 2 1 0 1 1 1 0 1 2 2 0 0 0 0 0 1 0 0 0 0 0 3 1 3 0 2 3 0 1 0 0 2 0 2 0 1 3 1 1 0 0 0 1 0 0 2 3 0 0 2 1 2 0 2 0 0 1 1 2 0 1 1 3 2 0 1 1 0 1 3 2 2 2 1 1 0 1 2 1 0 0 1 1 1 0 2 1 1 0 1 0 0 1 2 3 0 0 1 2 0 1 3 0 1 1 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 3 1 1 1 1 0 1 1 0 2 2 0 1 1 2 0 0 1 0 0 1 1 0 0 1 1 0 2 2 2 0 0 1 4 0 2 0 1 0 1 1 2 1 1 0 2 2 2 1 0 3 0 1 0 1 2 0 2 0 1 1 1 1 1 2 1 3 1 2 1 0 1 1 0 1 0 2 2 1 1 0 1 1 1 0 1 0 0 0 3 0 0 1 0 0 1 2 1 2 0 1 1 0 0 3 0 2 2 0 1 1 0 2 0 1 2 0 1 1 1 2 2 0 0 0 0 3 2 0 1 2 2 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 1 2 1 2 0 1 1 0 1 2 2 0 3 1 0 2 0 1 2 1 1 1 1 0 2 0 0 1 0 2 1 1 4 0 0 1 1 0 2 1 1 2 0 0 0 1 0 1 2 0 2 1 1 0 1 6 1 1 0 1 2 0 1 0 0 2 0 0 1 1 1 1 0 2 0 1 0 1 0 1 1 1 1 1 2 2 0 0 0 0 1 0 1 1 0 1 0 0 1 2 0 0 0 0 0 1 1 0 1 0 0 2 0 2 1 1 1 0 1 4 0 0 1 1 1 1 1 0 0 3 2 2 1 1 2 2 0 1 1 0 1 2 0 3 1 1 1 1 2 2 1 0 0 2 0 1 1 1 1 0 1 1 0 0 1 0 1 2 0 1 1 1 0 0 1 2 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 3 0 2 0 1 1 1 1 0 1 1 1 0 2 1 0 1 1 1 1 2 0 0 1 0 2 0 0 1 0 1 1 0 2 1 1 1 1 1 2 0 1 0 0 0 1 0 1 2 2 0 0 1 1 0 2 0 2 0 0 2 0 3 0 0 1 0 0 2 1 2 2 2 0 1 1 0 0 1 1 0 1 1 1 1 1 1 2 0 0 0 0 0 0 2 2 1 0 0 1 0 0 1 1 1 1 0 2 0 1 2 1 0 2 0 0 4 0 1 2 2 1 2 0 1 1 3 0 1 1 1 1 1 1 0 2 1 2 0 0 2 1 0 1 2 1 1 1 1 0 0 1 0 0 0 1 3 1 2 1 1 2 1 0 0 0 0 1 0 2 0 0 2 2 0 1 2 2 2 0 0 2 1 2 1 2 1 1 1 0 1 0 0 1 1 0 0 3 0 1 0 2 1 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 1 1 1 1 3 1 0 0 0 2 0 0 0 0 0 0 0 1 2 1 0 1 2 0 0 1 1 1 1 0 1 0 3 1 1 2 2 1 2 0 2 1 4 2 3 2 2 1 0 1 1 1 0 1 0 0 1 0 3 0 1 0 0 1 2 1 1 0 0 0 0 3 0 0 1 1 1 1 0 1 5 0 0 0 0 1 0 2 1 4 0 1 0 0 0 1 2 0 0 0 1 0 0 2 1 0 0 0 0 0 1 0 1 0 1 1 0 1 2 1 0 1 1 1 4 1 1 2 2 0 2 1 0 0 1 0 1 0 0 1 0 0 1 1 1 0 1 0 2 1 0 1 4 1 0 2 0 1 1 1 0 0 2 1 0 1 1 1 0 0 2 0 3 2 2 1 0 3 1 0 2 2 0 1 1 1 0 0 1 1 0 0 0 2 1 1 0 0 1 0 1 1 1 1 1 0 0 1 2 1 0 1 2 1 1 0 1 1 1 1 1 2 1 0 0 2 1 0 1 1 1 0 2 1 1 2 2 2 2 1 0 1 3 0 1 0 0 0 3 0 3 1 1 1 1 1 3 2 1 0 0 0 1 1 0 1 0 2 2 1 0 3 1 1 2 1 2 2 0 1 3 1 1 0 1 0 2 0 1 1 3 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 2 0 3 0 0 1 1 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 1 2 1 0 1 0 1 1 0 0 1 0 2 1 2 2 1 0 0 0 0 1 1 1 0 0 2 1 2 1 2 0 0 1 0 1 1 1 2 0 0 1 1 0 1 1 1 1 3 0 0 0 0 0 1 0 0 2 2 0 2 0 0 1 0 0 0 1 2 1 1 0 0 0 1 3 1 0 1 0 1 0 1 0 0 2 0 0 1 2 1 0 0 1 2 2 0 1 0 0 0 1 1 0 0 0 2 0 1 2 0 1 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 0 2 1 0 1 0 0 1 0 0 0 3 0 0 0 0 2 3 2 1 1 2 1 0 0 0 0 1 0 1 0 1 0 3 1 2 0 0 2 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 0 1 0 1 2 0 1 0 0 0 0 3 3 0 1 0 1 0 0 0 2 2 0 0 1 1 2 1 0 2 0 1 1 1 2 0 2 1 0 0 0 2 1 0 0 0 0 2 1 1 2 0 0 0 1 1 0 0 1 0 0 1 0 1 1 1 0 0 2 2 2 0 0 2 1 2 0 0 0 0 0 3 2 0 1 1 0 0 0 2 1 1 1 2 1 2 3 1 1 0 0 0 1 0 1 3 1 0 2 2 1 2 0 0 3 0 0 2 1 0 2 0 0 1 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 1 2 1 1 1 2 0 0 0 1 2 2 2 2 2 1 0 5 1 1 0 0 1 0 2 1 2 1 0 0 0 1 0 3 1 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 2 3 1 1 1 0 0 1 0 1 1 1 0 1 1 2 0 0 0 2 0 0 0 1 2 0 0 2 4 1 2 1 1 0 0 0 0 1 0 1 0 1 1 1 1 2 1 1 1 1 0 0 0 2 1 0 0 0 0 1 0 1 0 0 1 3 0 0 2 0 0 0 0 1 0 1 1 3 2 0 0 2 1 0 0 1 2 0 0 0 0 1 2 0 0 1 0 1 2 2 0 0 2 1 2 2 1 0 0 1 1 0 0 0 0 1 0 0 1 4 1 0 1 1 0 0 0 0 2 3 0 0 3 1 0 0 0 1 3 1 1 2 1 0 1 1 1 3 1 0 2 2 2 0 1 0 0 1 1 3 1 1 2 0 0 1 1 0 0 0 0 1 2 0 0 1 1 1 0 1 0 1 0 0 1 3 1 0 0 0 1 1 3 1 1 1 0 0 1 2 1 1 0 0 0 1 1 1 1 1 1 1 0 1 0 0 1 0 0 0 0 0 2 1 1 2 0 1 0 4 1 0 1 1 1 1 1 0 0 1 2 0 0 1 1 0 0 1 2 0 1 1 0 0 0 0 1 0 1 1 2 1 1 3 3 0 1 4 0 2 0 1 1 1 0 2 1 0 1 1 4 2 0 2 1 0 1 2 3 3 0 0 0 2 0 1 1 0 0 3 2 0 3 2 1 1 0 0 0 0 0 1 2 1 0 1 0 2 0 1 2 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 3 0 1 0 0 0 0 1 1 0</t>
   </si>
   <si>
     <t>Name</t>
@@ -267,52 +267,52 @@
     <t>M.Badgley</t>
   </si>
   <si>
-    <t>JSB(3.167870685760593, 3.548056496341853, -20.77798630863576, 136.1909122340306)</t>
-  </si>
-  <si>
-    <t>13 16 7 31 21 28 17 16 16 19 16 20 9 27 12 31 23 27 24 10 27 20 24 24 7 23 17 31 34 26 10 17 26 23 19 16 17 24 14 24 31 17 10 12 17 10 24 23 24 13 17 24 29 17 24 17 9 23 14 16 24 35 17 31 19 16 18 33 17 13 24 14 25 14 9 17 20 37 23 22 30 24 20 9 17 25 17 10 32 21 10 10 14 24 17 24 31 17 10 13 17 35 23 21 20 13 10 22 0 30 22 20 20 20 13 17 14 13 17 16 16 13 20 21 18 27 20 19 34 18 24 20 23 24 15 22 16 38 7 24 20 8 20 20 7 14 24 20 9 34 10 31 7 45 13 27 24 24 10 13 14 10 17 9 20 38 20 13 28 27 17 18 28 20 17 17 21 24 16 12 3 3 14 14 17 9 24 7 34 17 11 10 23 17 14 13 17 24 21 13 21 17 10 21 30 34 16 35 7 17 20 3 13 20 20 12 17 24 16 24 17 27 30 17 23 11 14 19 0 27 17 9 16 30 11 27 30 14 28 38 38 14 14 30 30 19 19 20 23 16 34 17 24 10 13 10 27 41 6 17 13 19 19 27 7 16 14 20 17 10 7 17 12 21 9 30 31 34 16 7 12 19 20 7 20 20 20 20 34 31 21 27 17 17 3 9 20 13 0 17 21 31 13 23 13 10 28 21 0 24 29 19 30 23 25 20 31 13 26 29 13 18 27 17 9 30 45 16 27 23 13 38 41 20 14 24 12 17 37 21 6 11 13 16 14 13 24 27 19 27 27 31 13 23 16 10 13 38 19 11 13 28 24 23 15 21 26 34 13 23 19 10 29 17 14 24 16 21 7 16 13 16 42 18 23 20 23 10 24 19 24 31 20 13 24 13 3 23 27 7 24 20 24 23 20 27 20 29 23 14 10 29 17 20 24 10 7 27 22 17 27 28 20 3 24 32 12 24 33 17 14 9 24 17 16 14 10 24 13 17 27 17 27 20 20 20 7 17 14 17 23 16 23 21 16 22 9 23 3 19 31 23 14 10 15 17 20 13 22 13 17 20 27 10 24 28 13 16 27 20 3 13 21 16 26 20 24 24 24 9 16 10 16 15 10 23 22 3 28 21 13 45 23 20 17 30 9 20 28 24 9 17 24 12 26 21 27 20 22 17 10 16 28 24 28 9 15 11 24 20 32 11 14 28 17 17 21 9 22 17 20 20 40 21 13 20 16 21 27 17 19 24 12 15 38 14 24 7 21 13 13 14 16 21 13 29 17 3 24 7 13 12 20 23 24 29 24 21 9 14 17 17 10 21 10 17 3 19 14 28 13 25 7 7 24 42 21 25 17 9 8 17 27 28 24 10 21 30 13 17 10 24 17 14 14 17 26 19 21 3 24 11 30 10 19 22 17 14 17 17 24 31 24 17 28 10 16 6 13 25 16 6 28 16 14 27 31 31 34 6 13 17 17 6 20 13 16 27 23 10 20 17 17 16 30 27 17 7 24 27 22 31 17 27 24 11 27 17 23 24 31 10 21 17 7 13 7 20 26 13 10 12 24 20 21 17 14 23 27 17 13 31 9 20 14 10 23 27 21 20 20 13 27 14 24 30 21 9 30 21 23 34 13 3 42 28 16 2 6 6 17 16 17 26 10 21 24 28 11 27 20 13 27 21 45 20 10 31 33 10 3 17 21 17 3 6 19 6 16 24 27 24 17 17 14 31 20 21 23 16 20 23 24 27 6 15 35 13 18 17 14 14 17 3 38 12 13 14 7 9 20 35 20 17 27 21 10 19 13 10 15 12 34 13 27 34 17 22 16 27 17 20 10 17 30 16 6 16 21 31 22 34 30 17 6 13 30 29 19 10 16 17 20 17 28 17 17 27 3 13 14 26 27 30 24 17 6 14 30 19 16 19 10 17 7 16 12 7 20 7 20 13 20 31 7 17 3 16 28 16 20 34 13 23 7 26 15 20 24 16 17 16 16 13 14 37 14 20 24 15 24 17 24 17 10 17 7 26 20 10 7 24 24 12 24 27 21 16 12 20 24 13 19 7 21 27 9 17 10 20 17 20 13 21 34 16 24 26 24 17 28 34 20 27 9 17 24 24 34 17 17 14 28 23 31 22 17 26 31 32 13 14 24 13 31 20 12 24 24 15 17 21 27 13 11 23 10 21 21 24 3 15 10 26 24 21 19 20 21 20 16 7 33 27 23 12 23 21 7 21 12 13 15 20 7 21 38 17 17 13 21 24 24 27 16 21 10 13 44 24 28 10 30 21 14 24 10 30 14 27 22 7 10 22 20 20 16 10 23 16 34 13 14 24 13 17 35 17 17 23 10 23 14 21 34 10 14 22 35 34 21 16 20 14 38 13 24 23 16 9 13 14 14 13 30 6 21 28 17 35 13 10 9 20 24 14 3 17 17 30 17 10 16 38 19 17 21 21 24 17 30 10 24 14 16 27 19 22 23 27 23 26 13 7 21 21 21 26 15 0 24 30 20 20 30 7 27 22 27 9 14 6 28 24 28 30 22 23 14 23 7 3 21 10 28 16 16 13 17 17 12 14 7 27 24 23 24 17 10 20 28 12 26 19 27 24 17 24 24 17 21 28 21 13 20 17 35 15 48 22 30 17 24 27 19 14 10 3 6 26 17 24 22 17 16 10 30 27 27 16 21 21 27 24 24 13 12 24 20 22 13 23 20 20 13 26 6 24 31 40 19 34 24 28 19 14 17 10 12 13 13 13 42 10 31 16 21 20 13 15 19 26 27 31 21 22 13 24 18 26 30 23 17 28 12 17 14 6 10 24 21 16 28 30 20 13 35 17 10 45 6 29 20 13 14 13 31 26 17 7 15 23 10 14 19 28 9 24 13 20 14 9 34 13 24 28 20 14 16 17 30 18 10 24 16 14 24 14 6 12 17 18 23 24 22 30 9 14 24 16 10 30 31 21 13 35 17 3 10 20 17 21 20 16 27 22 28 27 12 11 17 40 16 17 20 30 16 12 27 18 24 24 18 19 10 13 24 27 31 20 27 14 7 10 23 26 17 0 13 3 16 26 21 17 27 17 24 24 27 20 21 23 19 20 26 17 14 16 20 17 9 16 10 10 20 14 23 17 21 41 17 17 24 17 17 24 24 13 21 27 21 16 20 20 14 28 23 3 38 21 27 28 10 20 13 16 17 28 16 21 9 25 30 21 17 14 35 33 17 33 24 30 10 17 13 17 17 22 8 18 34 7 16 13 27 38 20 16 8 13 30 27 20 35 13 20 13 17 24 24 17 17 17 13 24 27 13 27 28 24 6 30 14 0 23 20 16 20 24 10 15 13 27 21 13 13 27 3 22 21 26 24 34 28 11 14 17 15 33 24 16 23 14 3 6 27 13 7 20 17 19 20 17 16 17 25 33 20 14 21 28 31 24 17 37 19 20 6 17 20 3 24 30 7 3 20 13 16 17 20 9 27 3 10 24 24 23 13 17 19 24 19 20 9 31 7 6 33 20 21 6 23 15 26 24 10 12 13 20 20 28 28 14 19 20 16 7 34 16 23 23 22 7 24 3 20 27 24 0 9 24 3 5 10 21 30 6 24 27 24 6 3 16 17 13 24 30 13 28 3 9 26 17 27 20 13 14 11 14 18 16 17 16 19 10 12 20 10 28 16 14 22 21 24 16 16 20 26 14 21 22 20 10 13 23 26 23 13 26 17 34 20 23 16 20 26 31 10 21 20 24 20 27 14 21 14 19 27 31 20 3 7 23 20 16 20 10 20 27 3 21 30 27 3 17 22 13 28 14 16 35 17 30 17 7 6 38 6 10 17 37 14 20 10 28 30 16 16 21 26 41 24 34 16 30 24 24 23 31 13 21 13 10 6 21 19 21 30 17 23 10 10 20 16 28 31 21 24 18 17 20 30 13 13 41 31 7 30 23 14 20 3 17 31 14 14 14 20 30 33 24 14 17 20 10 17 9 13 24 15 23 17 30 17 8 20 9 3 13 16 28 26 14 31 3 10 31 16 20 24 20 14 16 14 14 22 10 20 17 36 31 14 6 16 13 13 10 3 21 9 24 16 31 19 24 24 10 25 9 16 28 20 3 17 13 20 20 16 19 6 20 13 9 6 17 14 24 31 20 29 29 24 11 20 20 16 24 23 38 31 20 20 17 23 27 10 7 24 28 20 10 31 14 17 18 15 9 22 14 0 16 20 30 14 14 10 7 15 23 24 17 9 11 27 6 16 10 20 16 37 13 13 20 7 12 23 30 17 20 21 17 38 30 14 31 6 10 38 16 23 20 24 9 23 17 20 14 33 3 17 19 7 14 7 12 21 17 23 20 15 10 12 13 10 44 7 14 9 17 17 21 24 30 41 30 22 17 24 16 10 13 19 20 17 21 14 26 20 16 10 28 10 25 21 20 7 16 20 16 33 13 19 28 38 16 14 16 10 7 19 28 24 31 13 27 36 21 18 10 17 13 24 31 14 20 13 17 24 24 13 10 23 21 31 26 24 20 22 17 23 42 13 16 22 30 17 17 20 27 21 20 10 20 6 16 27 19 43 37 10 6 25 32 27 17 16 20 24 9 17 24 14 18 30 34 27 26 21 20 17 20 20 24 38 17 42 7 31 27 17 31 34 21 20 17 38 22 37 27 3 9 22 16 13 27 20 21 24 20 8 23 15 27 19 27 28 13 27 10 10 38 30 10 9 13 32 7 19 17 17 36 13 20 20 20 13 14 28 29 21 17 29 13 23 16 31 18 24 9 20 13 23 13 20 24 31 14 25 24 14 31 22 22 12 26 21 20 17 25 12 33 10 25 6 21 10 33 17 19 20 22 13 7 28 13 17 0 30 11 27 10 27 13 16 35 13 21 21 28 31 14 13 13 21 21 24 16 24 20 16 19 13 21 23 14 40 24 30 25 15 7 9 13 23 18 26 16 20 24 20 23 13 17 21 11 23 24 31 10 17 31 17 27 13 16 28 20 20 13 19 11 14 16 3 17 15 16 10 13 24 28 24 20 13 18 20 17 19 24 40 37 13 31 34 14 15 23 26 20 0 34 38 13 27 14 17 24 27 35 15 20 17 24 23 32 24 17 21 24 10 10 26 14 27 21 17 16 26 14 23 31 13 7 17 34 14 24 23 16 17 13 16 19 21 14 9 31 14 31 21 24 7 35 17 24 15 35 20 17 17 24 13 7 6 7 34 19 25 20 13 13 24 16 10 27 6 20 35 28 17 7 23 35 26 7 20 21 19 31 15 21 20 12 14 17 23 16 13 30 31 24 23 13 23 17 20 38 17 24 24 16 9 21 26 20 30 20 27 31 13 30 11 12 13 13 15 17 28 17 27 24 24 21 23 17 19 24 14 22 28 10 21 30 23 32 16 20 6 20 28 20 20 10 7 10 20 10 19 19 13 20 19 31 24 10 6 20 17 19 26 7 17 21 17 14 26 9 17 20 14 17 6 24 3 34 3 16 24 23 12 7 23 17 17 20 24 13 17 21 14 20 6 27 20 12 30 16 23 13 15 23 17 24 17 31 11 23 19 17 10 14 23 16 24 10 7 28 24 31 10 28 23 17 22 17 23 27 7 16 30 10 7 27 24 27 21 28 13 33 7 3 10 27 33 14 27 10 19 35 17 17 20 18 17 19 10 9 28 20 27 24 38 24 6 21 19 0 34 41 16 6 24 17 14 9 13 13 16 7 19 15 37 23 10 27 14 17 3 13 24 28 17 21 24 30 21 10 31 13 24 32 35 30 13 12 13 23 24 30 37 13 21 37 17 20 21 30 20 21 34 20 10 20 20 6 3 20 14 24 30 21 7 22 21 23 14 20 20 24 6 10 35 27 31 25 22 24 17 17 20 10 27 45 9 31 24 16 7 17 26 14 24 23 9 20 17 21 10 21 23 19 37 24 28 28 18 13 24 27 17 10 21 21 14 13 10 9 23 17 10 20 23 13 10 7 33 38 21 31 10 24 21 13 19 16 10 10 20 34 27 14 18 22 24 34 23 17 27 30 19 17 0 27 24 40 22 17 6 30 9 31 24 23 27 20 31 14 20 13 6 16 6 17 22 17 20 17 20 15 7 16 17 26 28 10 24 18 24 6 27 31 31 17 13 31 15 17 17 24 23 27 25 21 13 16 10 27 20 22 21 28 17 14 10 21 10 23 13 23 16 15 10 10 7 12 34 23 17 6 26 14 17 13 17 17 24 14 17 17 10 27 24 24 14 10 17 13 27 28 9 23 13 17 20 27 24 23 21 19 22 41 27 14 17 31 17 24 28 13 28 30 21 13 22 13 24 13 14 28 16 16 6 24 37 27 30 24 14 6 23 10 16 6 21 9 35 6 27 23 38 16 6 20 20 27 34 20 24 13 37 16 21 10 21 17 11 6 31 14 20 13 23 16 34 27 10 3 17 28 16 16 34 17 19 34 10 21 26 27 19 26 28 24 28 27 20 16 24 7 24 10 20 9 22 21 16 6 26 30 12 17 14 9 15 9 19 14 35 10 26 2 15 19 34 21 21 13 10 10 17 26 21 16 21 18 16 31 20 21 31 18 6 10 19 24 34 16 21 13 23 16 38 20 24 20 23 48 27 27 13 23 13 21 28 16 15 18 24 15 13 13 16 24 7 14 29 33 13 6 35 3 24 22 17 9 3 28 23 28 20 13 24 17 13 18 11 10 9 17 12 11 14 13 28 20 35 16 10 11 37 20 17 20 28 6 19 24 13 10 7 12 23 14 24 20 23 21 20 23 23 14 7 17 16 19 14 17 24 17 20 20 18 20 27 7 14 24 18 17 20 28 24 27 30 29 13 24 20 21 3 17 16 26 12 22 17 17 17 6 13 24 17 20 14 24 15 13 14 10 23 28 23 24 13 21 28 27 20 21 34 13 27 27 10 21 25 27 16 13 11 15 24 17 13 10 23 14 27 13 27 23 29 7 8 16 20 10 25 20 20 39 15 13 22 10 27 30 24 27 27 14 31 6 24 6 20 23 17 17 30 23 12 24 21 16 13 27 20 13 31 22 20 21 24 16 27 14 34 14 17 33 6 31 10 27 24 22 17 24 20 6 31 10 13 20 31 16 19 16 20 14 16 20 19 14 16 23 20 26 27 40 16 17 20 10 7 16 21 14 20 17 6 10 20 16 12 20 13 28 17 19 14 13 9 21 7 22 31 30 10 30 16 21 14 20 23 17 10 44 21 20 24 10 13 16 10 9 10 27 10 16 24 20 20 24 17 16 30 27 27 21 24 14 21 9 28 13 10 16 19 21 23 17 24 24 21 17 20 16 10 10 17 20 23 27 7 13 24 23 35 27 31 27 17 31 26 21 15 35 13 22 10 20 20 13 29 45 14 22 38 7 14 24 17 12 32 44 31 10 10 17 9 10 22 24 10 16 13 28 19 24 23 17 27 7 34 7 7 14 9 7 30 10 13 11 20 21 27 23 20 15 19 17 17 30 24 22 27 24 12 19 10 13 13 20 27 7 10 24 20 6 27 7 29 17 30 14 13 31 6 29 21 12 30 10 10 21 24 7 27 24 21 16 30 20 16 19 20 10 30 14 18 31 27 19 20 20 7 21 31 3 20 27 21 8 23 13 13 17 24 12 13 45 15 17 18 24 26 17 17 17 26 30 17 20 14 20 21 19 20 10 20 6 13 14 21 41 25 17 14 9 22 16 34 20 7 10 13 34 23 16 3 13 31 13 13 19 24 15 11 20 11 17 29 24 16 13 13 6 31 14 29 26 13 18 17 10 10 14 10 7 24 21 20 34 6 26 13 10 23 10 17 16 7 10 20 9 14 7 6 31 13 13 33 17 14 20 28 27 24 20 17 20 13 29 3 28 17 13 20 8 31 9 7 24 19 27 20 13 7 21 31 10 17 19 14 16 27 21 24 24 23 37 23 30 31 23 10 20 23 17 14 24 21 13 23 26 7 19 17 27 20 20 28 21 20 20 20 27 24 23 0 22 16 16 23 13 30 30 17 17 28 15 14 10 17 24 14 14 20 21 23 31 22 10 10 27 20 22 16 38 21 11 10 21 23 27 7 20 30 13 24 28 24 17 20 24 9 24 16 14 13 38 20 31 17 41 13 20 10 16 21 17 28 10 9 13 14 17 26 3 17 29 22 16 30 13 17 13 17 17 20 27 17 20 13 15 34 21 9 15 17 20 12 10 23 26 0 21 16 23 10 24 31 30 26 17 17 31 13 24 0 16 20 36 19 37 30 20 17 17 17 16 13 16 20 7 3 16 34 10 27 16 21 13 44 23 20 10 17 10 12 26 41 41 21 24 10 20 17 8 10 17 20 30 24 27 13 17 24 24 15 34 16 16 31 21 17 14 23 20 23 31 27 6 28 30 10 35 16 35 24 24 10 23 17 24 37 24 34 20 26 14 16 23 27 6 17 17 16 9 10 14 26 26 10 28 17 37 17 20 19 30 10 22 24 19 24 12 22 6 23 6 8 10 7 27 12 24 16 17 9 24 21 24 30 14 15 17 20 17 27 13 27 16 13 27 17 21 23 17 23 24 15 42 21 10 10 9 10 21 13 17 33 19 17 10 21 21 17 27 34 20 27 21 24 31 34 17 3 14 16 6 34 20 15 21 14 37 27 17 20 23 17 17 21 16 20 31 27 21 20 20 10 21 19 12 14 24 27 17 10 24 17 14 20 6 22 12 24 20 9 13 20 24 24 24 26 21 7 22 21 20 16 14 28 27 28 17 21 15 20 19 19 23 23 22 20 27 20 12 21 27 27 12 14 13 23 16 28 17 10 17 28 23 20 26 9 17 13 16 20 13 17 24 33 17 21 19 17 12 20 20 13 21 16 19 20 14 6 17 20 17 21 40 13 17 34 23 27 17 12 20 16 0 31 27 13 11 14 21 16 10 16 17 7 20 24 31 14 26 23 12 20 24 26 0 25 14 18 24 22 23 21 16 13 9 30 31 30 20 21 17 21 17 27 13 10 17 16 14 26 17 26 20 24 20 10 10 14 22 19 16 13 23 22 13 28 7 24 6 19 9 9 34 17 17 24 27 10 17 13 15 9 14 17 30 38 15 23 27 23 20 21 6 35 9 20 13 27 13 24 13 3 6 20 17 22 23 23 24 14 19 18 14 20 30 9 13 23 23 30 22 27 27 14 20 7 12 3 9 21 3 23 31 24 27 13 34 17 24 31 23 10 21 9 26 8 21 15 23 15 28 8 7 18 23 12 6 20 6 20 6 17 34 10 14 16 24 17 20 13 10 17 15 15 20 24 23 29 24 13 10 29 10 19 23 24 14 17 38 26 17 14 10 18 17 19 28 21 34 14 3 9 20 16 3 24 23 14 27 31 20 24 28 16 20 20 10 28 15 18 17 17 13 14 34 21 20 26 23 17 13 28 17 16 14 21 20 21 12 13 13 10 13 17 15 27 21 28 10 6 13 17 23 34 24 13 10 11 13 21 23 14 21 20 7 16 24 14 27 13 21 28 7 37 10 20 14 17 17 13 30 13 24 19 12 23 13 14 26 21 3 10 16 22 20 3 20 19 20 14 21 21 20 6 31 24 23 10 14 3 9 17 7 24 24 28 19 31 45 18 14 13 24 38 14 7 0 38 17 27 24 35 35 20 9 21 20 3 10 24 23 7 23 3 27 22 23 13 6 20 20 0 17 16 10 20 10 10 20 27 30 20 13 27 23 27 20 14 12 7 10 17 6 0 31 17 16 7 30 15 20 20 20 23 15 23 13 17 13 21 20 23 10 17 17 16 23 10 27 28 19 17 17 20 19 30 20 16 21 20 24 7 24 21 24 24 26 20 16 16 37 10 14 16 29 7 27 14 26 31 34 14 24 28 19 14 10 24 23 3 26 31 20 16 14 20 34 11 23 26 21 31 31 20 6 17 10 21 14 17 10 10 23 38 27 27 14 20 10 10 17 23 17 19 25 24 15 21 24 17 13 43 27 10 16 27 24 13 15 13 3 17 24 25 10 10 20 27 20 10 10 10 9 21 0 17 17 16 16 10 19 27 17 7 27 13 41 9 20 23 34 25 6 27 17 27 34 29 23 27 29 19 13 24 14 30 17 34 7 24 10 14 17 34 12 16 20 24 24 17 10 6 24 23 10 7 20 30 13 14 18 21 17 16 10 20 20 33 35 24 20 20 20 17 24 6 23 17 16 26 28 27 44 16 13 31 27 23 22 19 23 9 13 10 31 24 25 26 7 10 20 13 30 12 17 17 3 28 24 22 6 20 23 33 38 20 0 10 38 14 13 24 17 17 20 24 21 22 10 9 13 23 14 24 10 16 22 24 9 12 10 8 14 28 17 21 17 24 27 14 38 31 24 31 10 27 21 35 23 3 20 26 30 21 20 24 3 17 16 20 27 17 27 33 10 28 34 7 28 6 20 30 23 6 23 26 13 20 27 20 17 25 30 16 13 10 9 23 27 51 24 16 23 0 21 3 16 27 25 24 21 28 10 16 17 13 17 14 28 14 24 14 20 23 17 17 28 14 9 17 10 20 21 26 28 6 14 17 33 13 17 16 17 14 17 24 23 24 23 20 17 20 13 23 21 23 13 23 29 24 20 27 17 10 7 31 12 21 33 9 24 18 30 28 31 21 14 27 20 20 28 15 31 13 31 16 21 30 10 23 9 23 21 3 17 14 17 20 22 16 10 16 35 9 27 9 15 24 24 17 0 21 30 24 9 21 21 7 17 20 16 22 16 6 24 17 27 12 21 28 17 28 19 34 24 13 10 17 30 10 25 21 31 20 15 14 20 31 23 18 23 7 16 13 16 31 23 14 24 15 31 14 13 31 24 41 17 24 25 27 24 14 20 14 20 14 19 19 10 20 15 30 22 20 24 20 13 21 6 20 27 13 20 27 13 29 18 13 14 24 27 19 17 30 27 21 21 23 20 10 19 34 20 19 20 14 27 13 10 21 16 23 11 24 24 20 20 24 9 20 31 10 28 27 13 17 25 14 25 9 8 30 14 20 23 17 10 6 11 22 16 13 28 27 14 20 20 31 13 24 19 27 24 3 13 14 30 23 16 24 23 24 23 28 20 15 7 12 27 32 16 20 27 34 24 23 9 3 14 17 24 10 23 27 16 16 17 13 31 20 23 14 23 9 16 13 26 13 27 20 15 17 23 13 24 17 21 27 13 28 7 27 16 0 21 13 6 28 10 20 13 13 29 13 20 7 9 10 17 21 10 20 17 16 9 19 10 13 23 38 23 31 9 20 14 20 20 17 14 31 13 6 42 28 13 21 24 20 27 23 14 31 14 31 23 24 10 14 16 13 13 24 31 28 16 20 24 27 14 23 17 20 23 17 19 34 27 28 18 17 10 21 24 27 32 18 17 34 14 16 13 31 17 17 27 7 17 30 12 16 23 21 10 13 14 22 20 21 24 23 17 19 16 31 16 14 31 30 17 27 35 13 16 13 6 21 21 7 44 15 12 3 10 15 28 27 9 19 17 24 9 17 20 20 14 13 9 29 12 6 13 25 23 14 17 9 34 10 31 16 21 10 3 17 28 17 9 27 14 27 16 10 17 13 9 17 27 19 20 13 24 34 3 13 10 27 3 24 10 20 20 20 6 9 23 3 35 17 13 44 24 26 3 19 12 25 30 21 17 23 27 33 13 17 27 24 27 19 20 10 23 18 16 16 24 13 17 18 13 20 24 31 28 3 6 17 10 37 19 16 31 24 24 31 23 20 21 3 24 23 35 14 14 21 9 23 23 15 12 12 27 24 33 10 27 14 20 27 16 21 20 17 10 20 31 24 21 13 38 17 19 23 16 28 23 24 44 34 0 34 6 28 21 17 41 3 20 19 27 22 13 9 30 10 16 23 15 24 22 17 6 17 28 17 21 34 13 24 10 15 17 24 41 25 38 8 18 21 10 23 10 24 15 21 16 10 7 24 20 34 38 17 23 24 24 31 14 10 34 15 28 10 17 21 34 23 41 20 7 14 10 17 6 13 23 14 9 18 21 24 17 45 27 14 28 20 17 26 6 17 17 30 37 7 12 24 27 29 10 14 20 7 17 20 26 24 24 27 17 23 30 31 16 14 10 15 20 10 14 24 21 24 12 30 24 31 28 21 27 38 14 28 23 24 29 27 17 20 18 22 34 37 13 17 21 10 21 16 17 25 21 6 7 24 20 13 16 20 20 20 14 7 24 13 13 17 24 14 38 28 35 14 7 27 21 23 20 33 19 27 7 24 17 17 16 30 14 9 24 23 0 17 23 18 20 24 10 20 10 10 20 23 21 14 17 27 24 21 24 24 19 20 22 27 24 17 31 26 15 27 27 10 31 20 29 9 14 3 16 19 14 17 13 17 27 17 13 13 28 13 12 27 20 20 24 13 12 13 20 38 13 23 7 14 17 20 20 28 20 15 10 13 35 17 23 16 10 14 12 19 14 12 16 8 6 15 6 24 16 20 13 28 24 13 30 3 24 24 10 24 12 17 3 22 34 10 24 30 21 14 16 24 31 12 16 24 7 13 21 19 21 24 10 27 21 17 24 16 20 17 17 24 20 10 32 6 13 10 24 27 20 3 16 14 30 10 19 10 20 33 27 23 17 10 14 20 17 10 10 28 20 24 24 28 23 31 9 14 33 20 27 23 18 10 7 13 23 20 17 7 31 24 16 16 27 21 37 15 10 27 13 23 17 24 21 8 7 27 22 31 31 28 23 15 21 23 17 40 3 24 20 7 13 22 7 31 20 23 16 13 24 17 14 22 13 20 28 24 35 34 20 28 31 15 6 20 30 45 10 28 24 34 13 24 12 24 9 20 14 12 7 10 35 23 10 13 12 7 19 17 23 21 7 9 21 16 21 13 20 17 24 20 23 10 35 28 3 13 13 11 28 21 24 20 3 16 26 20 24 16 28 16 20 17 21 17 24 16 15 20 12 23 17 7 6 23 21 21 7 21 20 12 14 16 12 23 14 17 20 13 27 17 11 7 33 8 24 7 26 31 13 16 9 19 14 14 17 19 9 23 24 10 20 9 14 31 24 23 20 31 28 15 7 30 30 20 24 28 10 6 7 20 10 27 24 14 13 31 27 10 21 3 10 20 16 14 6 21 24 27 0 21 22 27 10 12 16 17 27 10 17 13 27 22 13 27 14 17 17 17 17 24 6 13 17 6 17 30 24 14 13 13 28 13 14 21 14 21 19 24 26 18 17 35 13 13 24 35 16 29 16 20 38 16 16 27 6 14 13 14 20 14 19 10 12 13 21 22 24 3 9 21 17 12 0 28 17 14 27 26 14 24 10 17 16 16 20 38 6 13 24 13 17 17 20 13 23 10 21 9 17 13 14 6 20 13 19 10 23 31 13 20 16 28 20 3 10 17 24 13 14 31 26 27 21 20 23 19 14 34 13 11 19 10 9 3 20 17 14 34 20 31 20 10 14 23 17 13 21 28 24 24 27 20 30 15 23 24 34 17 9 16 31 17 21 6 27 3 24 24 25 20 19 17 27 27 9 14 24 35 31 24 22 20 16 16 23 26 30 10 27 20 27 13 20 23 13 21 23 10 10 21 23 6 13 19 16 17 10 18 15 27 14 9 16 23 20 9 17 27 23 31 24 17 35 14 27 27 38 10 21 20 20 3 13 12 31 17 10 34 14 24 28 24 17 23 17 14 18 28 27 45 30 23 30 9 23 3 13 23 21 10 14 24 17 24 10 10 13 37 19 20 20 23 15 16 17 24 21 13 36 29 12 14 20 24 17 27 20 31 37 28 20 6 0 33 19 17 14 20 20 13 17 13 13 24 23 6 14 24 17 13 27 20 10 23 6 29 17 21 17 25 24 28 21 11 9 20 6 16 17 21 10 22 14 24 20 27 7 19 14 24 23 26 9 14 24 12 12 27 10 28 9 24 27 10 17 17 41 38 27 17 14 17 24 16 38 24 12 20 10 16 28 15 16 30 17 13 23 10 23 17 6 18 24 10 24 20 24 30 27 27 21 24 21 31 36 31 26 14 27 10 26 10 17 24 24 19 23 27 10 16 26 23 17 17 7 22 13 16 24 17 13 22 3 24 23 13 30 16 38 12 21 21 16 15 6 31 20 23 33 15 17 14 27 17 27 20 44 21 6 17 14 14 26 10 28 13 10 14 33 31 14 13 19 10 16 16 29 20 28 20 10 21 24 23 26 14 16 24 9 23 24 3 34 17 31 24 17 27 20 14 13 29 20 13 21 10 31 21 31 35 23 7 7 22 24 17 17 14 24 10 24 17 10 21 23 7 24 19 7 17 24 6 23 15 20 21 6 10 15 27 24 16 13 21 24 21 35 21 28 10 25 10 10 17 16 13 17 34 19 7 35 20 13 14 27 17 32 25 16 23 23 20 28 10 24 13 27 14 45 13 9 34 28 10 19 20 21 27 16 14 14 35 13 17 16 13 20 16 26 17 38 22 20 10 24 13 6 24 27 17 24 10 26 24 30 21 27 24 33 9 21 13 26 24 24 17 17 25 23 31 17 27 31 29 24 37 24 10 20 20 13 38 27 24 20 7 22 24 20 23 34 21 10 10 13 20 20 17 14 7 19 10 6 21 13 10 23 10 20 17 31 24 17 27 7 10 27 20 23 13 14 17 14 10 20 23 14 14 9 20 13 7 14 13 31 27 21 21 24 20 16 15 10 35 32 6 14 8 23 16 24 22 16 42 21 24 21 6 15 27 24 17 13 24 22 23 17 20 20 16 10 10 20 25 38 29 13 17 27 24 10 14 13 10 23 24 28 7 34 13 24 14 22 28 10 33 17 9 9 14 17 38 24 13 11 25 16 17 10 13 24 38 26 21 24 23 22 16 6 26 7 14 24 23 31 26 9 37 25 20 19 14 27 10 14 23 30 24 34 3 20 30 14 28 17 35 6 23 13 20 28 21 21 14 27 31 23 17 35 13 21 19 20 24 14 13 25 16 45 27 17 16 10 17 17 17 9 20 20 13 21 6 20 10 20 10 6 7 23 17 31 28 24 14 13 19 17 13 20 17 31 13 10 23 7 23 14 20 3 17 17 7 28 28 17 10 6 17 17 25 7 14 15 6 10 23 24 24 24 23 10 20 34 29 13 10 17 7 23 17 24 24 14 18 22 6 14 24 7 20 14 27 28 26 20 19 16 20 24 13 10 24 24 10 17 16 21 24 20 13 18 35 17 23 31 10 10 27 13 10 16 23 22 27 20 13 13 7 20 9 10 7 3 14 6 16 31 34 17 20 20 3 10 17 10 27 27 45 31 23 20 10 9 9 10 23 23 24 20 22 14 7 10 12 13 7 30 26 17 14 25 17 20 14 13 17 13 31 15 10 17 13 31 13 21 13 27 18 28 7 31 26 21 31 29 13 16 10 24 20 27 12 24 14 16 33 17 17 20 31 22 24 3 22 41 13 6 14 3 16 3 19 14 27 16 20 27 21 17 21 29 17 14 24 41 7 0 16 30 20 18 33 24 30 22 7 33 6 13 30 6 16 31 22 15 20 41 34 17 27 10 14 13 19 12 15 23 13 23 24 17 17 21 30 19 10 17 26 23 24 30 17 20 10 34 24 20 16 13 14 18 13 49 20 16 14 31 13 24 10 30 10 16 31 28 31 24 28 28 17 35 18 20 20 23 9 14 11 18 27 10 27 14 13 42 0 13 10 23 26 17 7 44 31 24 38 28 24 31 3 19 10 12 21 14 37 9 20 24 15 28 10 10 26 24 20 24 7 7 26 10 24 17 24 23 9 20 20 19 27 13 31 19 17 21 20 24 34 10 27 27 6 13 21 6 28 17 26 21 31 31 24 26 21 19 13 19 24 38 25 30 10 20 13 28 20 20 14 10 15 30 17 23 10 13 20 15 14 17 27 30 13 17 23 23 17 20 38 22 21 23 20 7 10 22 17 34 28 23 23 14 14 18 13 22 14 17 25 13 21 3 16 26 21 18 3 9 27 21 20 26 27 35 14 10 3 24 41 3 20 27 33 23 22 21 24 20 10 17 17 20 10 27 28 10 27 21 27 20 24 20 17 24 30 17 17 22 7 27 10 20 17 27 17 12 31 15 10 17 20 23 13 28 28 13 28 13 19 17 42 17 24 17 27 17 23 17 6 13 20 10 22 17 34 14 37 6 6 20 23 18 16 13 20 21 9 17 27 21 6 7 17 14 29 34 20 28 31 21 21 16 28 24 28 12 9 24 20 23 24 6 14 24 31 21 20 13 22 10 17 7 20 14 14 9 27 17 7 17 23 10 16 23 31 27 23 27 10 20 23 28 23 20 23 16 30 24 30 19 17 17 17 21 24 17 35 24 15 21 13 24 10 30 14 17 16 13 19 24 21 24 20 17 6 30 24 10 7 9 13 26 31 13 24 17 38 9 19 24 20 17 22 17 9 10 14 10 10 7 24 28 20 14 13 16 13 24 20 20 23 20 7 23 21 23 7 14 3 17 15 27 16 17 17 13 23 17 14 24 30 17 21 14 27 14 12 10 13 13 14 41 17 16 13 31 22 19 23 41 24 37 13 3 38 13 14 17 13 34 19 16 23 22 27 20 10 13 14 20 13 14 16 10 24 28 17 13 13 14 30 18 10 17 16 14 17 20 27 17 24 23 34 6 17 31 33 27 13 10 27 16 23 23 13 24 27 27 26 12 7 14 31 16 13 20 10 34 28 23 27 30 20 16 17 14 7 14 27 16 10 20 10 20 17 34 20 30 9 25 21 17 19 10 20 16 14 38 32 24 17 16 13 16 34 23 18 18 14 24 17 13 20 9 20 10 7 24 16 13 19 6 25 20 31 17 23 17 15 21 14 29 9 21 21 31 27 21 23 28 21 31 31 15 10 13 13 14 17 23 13 20 38 21 28 3 14 24 13 9 13 16 14 31 20 0 16 29 21 23 20 16 27 14 10 21 13 29 13 23 35 17 20 17 14 20 28 6 20 3 14 13 20 14 13 16 20 14 17 23 21 19 16 6 31 20 24 24 17 17 16 15 17 31 16 14 16 19 24 39 16 14 14 9 28 18 29 10 20 11 34 13 12 16 11 21 0 14 13 27 7 17 24 12 14 24 10 28 20 14 21 10 3 10 10 7 17 37 36 17 24 23 21 14 21 14 13 27 13 20 24 37 13 14 14 23 10 20 31 17 24 14 18 19 10 16 13 20 3 7 10 13 20 7 44 10 0 20 20 20 13 12 17 27 31 20 16 13 13 26 13 31 17 20 23 18 21 24 6 10 14 10 16 16 27 17 20 17 19 20 17 20 13 27 27 12 17 33 18 18 17 14 19 13 14 13 32 10 46 13 24 24 35 21 20 30 44 21 6 15 31 14 10 13 27 6 16 17 27 15 35 13 20 23 14 24 6 30 16 16 37 18 13 16 13 27 13 16 17 24 28 20 26 17 6 24 11 21 27 16 9 7 28 17 21 17 27 14 21 21 17 10 28 20 28 14 10 6 24 27 3 20 17 24 17 10 9 17 9 22 10 12 24 31 17 13 17 15 17 14 21 24 17 17 17 17 16 6 23 24 7 17 17 17 24 10 13 27 26 19 13 24 27 20 13 13 14 27 7 6 24 21 20 20 12 12 6 9 10 20 27 16 20 10 14 13 10 20 20 19 17 17 24 35 26 20 28 9 30 28 15 20 16 16 17 17 21 38 14 21 10 14 14 10 41 17 23 31 28 24 27 40 20 23 11 20 26 24 10 10 17 28 27 23 27 17 17 20 14 19 17 20 20 20 30 14 17 24 26 28 34 17 23 9 27 13 13 23 16 10 23 21 13 10 27 28 9 6 17 23 21 11 27 22 24 14 7 18 21 31 14 23 21 19 13 27 13 17 24 17 17 7 12 22 19 22 22 17 8 20 23 21 26 27 17 20 18 27 20 10 23 34 38 31 20 25 20 17 30 6 18 20 9 6 12 16 27 12 27 35 7 24 28 24 10 12 13 31 12 19 21 19 24 20 17 27 24 19 16 3 7 14 16 17 13 17 14 11 7 39 3 24 13 7 17 19 19 20 13 20 20 20 30 6 28 20 24 6 28 9 19 20 26 17 20 10 27 12 24 30 27 16 16 7 24 27 7 10 23 21 10 19 21 14 10 31 16 23 34 24 23 0 21 37 16 23 27 26 27 6 10 24 13 27 27 9 10 30 20 21 20 24 20 22 13 12 10 21 17 20 14 10 17 18 13 14 31 21 13 19 27 13 16 10 31 31 28 21 21 17 10 32 24 20 10 31 14 17 29 14 20 23 9 13 27 24 24 20 20 13 24 27 24 23 13 16 17 24 27 22 13 30 34 17 21 14 27 13 13 24 27 17 20 40 10 27 6 20 17 24 13 10 28 9 27 17 29 14 24 7 26 21 16 23 20 31 12 30 8 27 6 31 9 8 13 9 14 14 17 17 20 13 27 27 20 17 37 14 24 34 20 28 28 20 28 26 28 17 17 13 27 20 14 16 9 17 34 17 10 35 24 16 14 17 28 14 13 16 12 16 19 16 24 19 17 14 31 31 10 19 16 37 20 26 20 13 10 17 21 17 14 20 9 15 13 13 37 30 42 0 13 10 24 23 12 9 17 17 14 20 17 13 27 7 12 20 31 33 42 13 9 16 16 20 14 13 12 15 20 13 13 35 21 20 13 21 21 26 24 27 9 24 6 13 20 14 17 16 17 27 27 24 7 24 20 24 34 12 17 21 21 7 7 17 7 13 16 24 20 24 24 24 13 10 16 28 14 13 21 30 34 9 30 16 24 23 24 35 7 20 21 13 14 10 10 28 13 13 20 24 13 17 19 17 12 16 24 17 31 17 15 37 10 20 17 20 27 7 28 10 9 20 13 27 13 13 16 9 17 15 30 6 16 27 16 38 9 18 9 15 20 27 20 13 24 21 31 17 16 20 20 31 27 10 10 34 21 19 6 20 29 22 18 20 26 16 13 20 14 16 16 31 10 24 13 20 37 15 34 17 21 12 24 24 23 6 16 28 25 20 19 23 27 6 27 13 13 31 12 10 12 18 19 23 20 20 27 31 13 24 27 17 13 24 13 20 10 21 3 11 20 24 27 21 20 30 17 20 44 7 27 17 17 6 17 28 13 10 10 24 9 10 16 18 15 17 13 13 24 13 6 17 23 16 27 16 20 37 21 17 35 20 10 27 32 24 15 13 14 27 19 27 21 21 13 30 30 18 10 13 16 12 10 16 17 36 20 17 23 19 23 34 21 17 25 20 21 29 21 31 24 24 7 19 23 7 17 27 24 21 27 34 16 6 21 34 15 6 21 6 7 23 18 20 10 14 13 10 10 24 23 21 8 19 16 20 14 24 17 20 26 20 17 17 0 20 16 17 27 35 26 24 30 41 21 31 22 10 10 19 24 38 24 27 17 31 17 31 28 10 14 27 23 16 12 27 24 16 30 20 6 40 24 17 17 24 24 6 16 19 27 9 12 17 23 31 23 20 27 22 21 27 14 6 13 20 10 27 16 16 16 21 10 22 10 25 27 38 16 17 23 7 34 10 19 10 23 22 26 16 7 20 9 24 14 9 27 27 16 19 21 16 7 17 27 14 21 17 27 17 10 3 14 19 23 23 21 9 38 16 30 8 21 20 9 20 11 17 19 23 31 10 22 37 23 24 20 13 14 28 20 13 26 26 19 24 23 20 10 23 24 20 11 10 10 25 20 3 27 13 27 9 38 13 14 17 14 17 23 20 24 27 10 15 6 31 7 7 10 17 20 13 11 22 23 23 38 37 10 10 7 0 16 24 27 22 23 10 20 34 20 24 24 14 21 13 13 20 16 23 9 10 19 21 24 24 25 13 10 10 24 27 15 27 21 28 21 14 18 20 19 17 24 15 20 37 21 12 20 17 10 10 23 12 20 28 23 13 38 10 0 31 15 35 10 24 20 27 19 27 27 36 16 17 13 20 20 27 20 10 25 16 26 20 18 16 29 31 21 24 13 23 24 17 28 20 27 21 37 17 15 16 20 20 17 0 16 30 19 27 23 14 20 12 9 20 34 31 20 10 16 31 23 17 24 11 30 42 24 7 34 20 14 14 14 7 10 10 13 20 13 17 19 24 20 10 14 24 13 14 24 27 16 16 14 34 23 15 17 19 26 17 20 24 30 21 13 20 27 7 10 9 14 30 13 7 23 21 17 27 7 20 21 7 16 23 6 35 13 17 13 23 18 17 13 38 21 16 10 9 17 17 20 27 15 12 38 27 17 26 9 10 33 23 12 21 14 22 10 10 3 21 13 24 14 16 3 24 13 20 17 37 24 29 20 14 13 35 20 23 16 27 17 6 16 27 23 25 20 9 7 31 10 16 10 27 6 10 10 13 12 10 7 7 13 23 14 24 12 31 26 24 19 20 17 32 21 16 34 24 26 21 20 17 10 16 18 23 20 6 7 12 17 14 33 17 21 12 17 25 14 24 24 27 24 9 16 31 23 10 27 24 21 24 20 10 13 20 20 17 17 14 27 26 23 20 6 7 17 33 3 3 20 20 50 36 14 21 23 23 7 21 16 20 26 31 13 17 14 24 26 19 27 11 21 13 24 10 17 6 24 22 24 30 17 27 27 6 20 18 27 23 23 27 13 12 27 10 32 31 14 21 16 10 15 14 14 9 30 14 21 20 16 23 10 23 27 14 19 9 17 26 13 17 13 20 16 27 31 16 24 24 23 9 27 18 7 15 13 13 29 15 13 17 30 30 20 19 21 21 10 23 14 10 27 27 34 17 19 21 30 15 20 10 20 23 16 20 17 24 25 24 21 10 12 16 20 23 20 20 19 19 21 34 18 19 27 15 24 20 7 7 3 21 13 20 20 30 35 13 17 16 10 21 7 37 35 10 21 20 26 17 17 21 33 30 14 27 24 31 10 22 24 30 16 17 32 13 13 10 17 24 14 31 24 28 34 30 24 16 16 13 14 19 7 16 23 23 34 13 13 23 10 3 17 24 11 16 13 24 7 17 26 12 21 28 16 24 17 20 38 33 38 0 21 13 13 37 29 30 10 9 23 14 13 34 24 17 21 23 24 17 28 21 17 26 13 27 14 21 21 3 35 7 23 21 16 16 21 16 14 31 13 34 22 33 10 19 7 40 12 17 21 27 23 19 21 10 22 27 16 10 14 21 17 22 20 6 24 13 20 7 13 21 27 41 13 7 3 20 20 23 20 24 24 14 38 14 23 21 9 31 21 40 16 10 34 14 9 14 41 29 34 20 17 17 21 16 18 10 22 13 14 24 16 19 20 10 24 17 26 31 17 6 20 15 21 16 14 24 21 10 20 10 22 11 23 28 19 21 47 31 9 31 0 17 20 17 0 34 10 16 6 24 17 13 24 29 31 44 29 13 21 27 15 7 21 29 16 10 20 20 6 10 14 6 24 16 17 23 24 21 14 13 16 24 10 30 27 10 19 27 20 17 24 15 17 14 10 28 27 7 21 28 10 35 15 19 9 7 27 16 28 14 19 10 37 6 10 31 17 13 22 17 27 24 14 23 20 13 11 26 20 26 17 20 28 26 17 31 24 16 56 18 13 17 17 14 21 20 28 24 18 16 24 20 17 20 31 34 16 31 21 14 28 10 33 14 21 13 20 22 21 24 17 24 16 14 16 34 10 38 27 7 26 15 10 7 37 17 9 7 13 23 14 33 10 13 6 17 15 24 16 24 23 24 12 21 20 28 27 19 16 14 13 21 20 21 18 13 13 13 26 20 20 31 35 10 25 35 20 6 17 24 34 16 20 20 16 34 20 26 23 6 21 21 27 3 10 9 13 10 45 17 8 20 16 31 21 24 26 15 10 10 20 10 17 16 28 16 7 10 13 13 16 14 28 26 21 13 27 24 16 13 23 27 7 28 9 9 13 28 31 21 27 13 16 16 28 28 10 12 14 23 17 20 8 19 13 38 23 23 23 23 21 34 23 28 20 35 21 16 6 27 14 28 30 9 26 13 17 21 21 20 14 20 22 16 23 10 14 18 18 31 35 7 20 36 28 13 7 31 16 10 41 13 14 9 17 17 16 27 14 15 37 14 24 3 7 30 20 14 27 20 13 5 14 35 19 24 24 9 24 13 10 10 16 13 24 21 10 20 13 24 10 24 21 17 7 28 16 14 27 34 20 6 30 17 27 29 31 31 10 16 21 15 10 10 20 17 13 17 16 14 24 38 6 13 23 25 13 24 14 15 23 14 20 25 20 7 9 17 27 38 16 38 20 24 29 16 21 14 13 32 14 6 24 21 19 20 34 10 13 24 27 6 34 31 27 30 13 13 19 13 21 17 6 25 14 17 24 17 19 13 16 17 44 27 20 27 15 6 10 21 17 31 13 10 19 16 20 30 17 23 34 20 26 21 23 13 7 17 23 24 23 17 17 20 19 16 13 13 22 51 3 20 17 6 31 34 13 10 12 20 27 7 34 23 10 13 17 14 27 18 10 17 17 9 41 13 10 17 24 28 23 21 23</t>
-  </si>
-  <si>
-    <t>EXN(0.4097530968065348, 21.400723207273806, 4.039211915090665)</t>
-  </si>
-  <si>
-    <t>24 24 22 20 21 26 25 23 32 25 26 20 18 28 20 31 25 25 20 20 26 23 28 28 15 29 24 22 34 22 16 29 14 23 27 21 16 22 23 27 27 18 20 23 31 20 28 28 21 27 29 25 23 21 16 20 12 28 13 22 24 19 20 19 29 22 21 33 28 25 19 28 21 12 25 20 21 26 21 27 26 28 20 23 23 21 17 19 23 28 20 21 29 25 30 14 28 20 22 24 23 29 30 22 24 16 20 24 23 29 21 23 20 22 22 19 21 30 26 20 23 26 19 18 27 17 23 23 25 25 24 22 27 24 26 27 28 26 22 19 28 23 29 27 18 22 18 24 25 22 21 31 23 29 20 25 19 22 24 21 22 24 26 17 23 27 22 22 21 27 30 26 27 24 18 22 22 29 24 20 27 13 26 16 23 26 30 19 26 21 27 19 24 20 30 19 27 26 18 18 23 23 22 18 31 30 28 26 24 24 21 20 25 27 25 21 27 23 15 18 21 21 34 18 23 22 27 21 20 24 28 22 30 22 20 25 26 26 27 31 29 20 21 31 20 24 23 29 25 28 29 19 20 18 21 23 24 35 14 23 19 24 28 25 20 27 20 23 17 21 19 28 19 26 17 27 29 32 22 29 23 23 18 42 27 14 24 27 30 20 17 25 24 20 20 19 26 19 18 18 33 30 19 26 23 18 29 22 16 21 25 22 28 18 22 21 29 24 22 23 30 27 29 18 17 20 31 23 27 21 18 28 29 24 18 21 22 31 31 22 24 19 20 24 13 23 17 22 19 22 20 33 15 24 24 21 23 37 22 34 18 26 22 25 20 22 29 28 27 35 16 25 20 21 26 23 19 17 19 29 13 22 34 18 28 21 29 23 26 16 25 31 20 16 27 19 21 30 17 22 27 22 23 24 23 26 27 24 24 21 21 19 24 27 26 21 14 24 25 17 20 19 25 25 20 24 20 16 33 21 18 18 24 25 24 25 24 22 25 28 22 19 30 20 26 22 16 28 17 31 22 23 24 20 24 19 19 24 16 18 25 32 22 18 24 29 21 25 19 20 20 21 24 19 20 26 18 17 24 28 12 24 20 23 28 22 25 20 20 29 23 25 30 20 18 31 12 26 21 22 19 31 24 24 23 20 24 22 28 24 24 26 22 22 27 28 25 20 29 23 19 30 25 28 26 18 20 25 21 22 27 22 21 21 19 19 23 19 27 22 23 23 25 25 18 18 21 24 27 21 25 24 19 24 24 21 30 15 20 17 27 29 20 28 24 23 28 23 19 30 20 21 22 28 22 24 23 24 21 21 24 23 24 16 21 23 20 31 24 21 22 32 31 13 28 31 24 23 24 24 28 20 23 29 18 19 24 22 21 25 23 21 22 14 22 31 30 18 23 22 21 29 20 18 21 27 26 24 25 19 26 19 18 16 24 27 20 26 26 15 26 30 22 21 20 20 24 30 33 18 19 18 28 20 23 18 21 23 24 24 30 18 21 19 22 25 23 13 24 28 31 28 19 23 16 28 21 25 16 25 21 22 22 19 21 15 22 31 28 19 25 22 18 20 25 19 23 25 22 22 26 24 24 18 23 21 23 22 22 27 20 23 21 25 17 27 25 18 34 27 25 27 18 23 30 28 20 20 18 18 24 19 23 23 24 20 25 30 21 24 25 20 14 25 33 22 21 20 26 22 21 25 22 18 26 15 23 17 21 19 23 35 25 22 21 24 20 24 21 19 30 22 25 31 24 25 29 20 23 22 20 23 27 17 26 27 21 18 24 17 16 23 26 20 24 26 18 20 25 21 26 25 33 17 27 30 17 25 24 24 22 23 18 16 22 15 31 27 19 23 24 29 22 19 18 21 17 26 32 21 27 18 23 26 18 19 23 28 14 24 19 24 24 24 21 24 18 27 21 25 29 20 15 28 13 27 21 17 28 13 20 29 16 31 23 16 20 17 23 21 23 26 24 31 23 22 28 17 31 19 20 29 24 21 26 21 27 19 24 37 25 20 19 20 22 23 14 21 22 23 20 24 19 24 24 20 23 21 24 24 31 16 25 19 24 25 24 26 19 25 13 26 18 21 28 25 26 25 24 23 29 25 22 20 13 23 20 26 28 19 22 24 18 24 24 21 27 31 20 29 14 18 26 20 21 19 24 24 23 20 22 26 25 15 28 26 25 24 29 21 21 22 27 21 24 26 22 23 29 22 24 13 23 30 18 23 23 23 16 22 17 25 23 26 20 23 32 18 19 21 23 21 31 27 26 25 18 23 19 23 22 22 30 25 22 24 20 21 19 19 22 15 26 33 19 27 26 19 24 29 39 20 24 28 23 21 22 22 25 25 26 19 20 22 27 27 23 24 26 25 29 20 27 21 27 28 24 21 22 27 22 24 27 19 22 24 28 22 16 21 25 21 23 26 20 17 21 18 19 26 20 20 29 32 21 22 25 18 24 18 21 25 25 22 15 28 26 31 22 25 20 29 19 18 26 21 18 20 25 20 23 24 23 25 20 20 24 25 22 26 20 21 24 25 24 28 26 27 26 16 21 16 27 18 16 26 25 25 23 25 27 27 22 22 27 26 25 15 15 12 27 26 22 20 19 23 28 21 24 19 26 34 24 21 29 24 31 22 30 25 33 18 22 33 25 19 21 12 24 24 27 21 29 17 29 21 21 29 24 27 25 20 21 23 17 21 18 18 24 23 22 17 21 20 20 25 17 19 25 29 24 23 19 18 26 20 27 19 25 19 25 22 29 15 25 19 21 15 18 20 28 20 20 26 23 22 20 28 25 23 27 24 20 21 23 28 21 18 17 24 19 16 25 25 25 17 29 25 21 35 25 25 24 16 21 16 25 15 26 18 25 26 17 21 23 31 21 23 19 21 22 27 31 24 17 29 24 35 22 19 26 27 13 21 29 26 21 22 23 19 20 28 22 23 14 32 13 25 24 26 24 27 24 22 28 27 19 21 27 24 27 23 25 25 20 28 30 26 25 25 21 23 25 21 25 35 22 23 31 27 18 27 27 30 20 26 22 24 25 21 30 28 23 30 25 20 29 21 22 23 16 17 23 25 27 25 25 23 26 26 12 18 25 30 21 15 26 19 21 25 26 24 22 18 28 20 26 21 21 23 21 22 24 27 19 24 15 21 18 21 22 21 21 22 15 27 23 18 26 25 25 19 21 23 23 21 25 21 27 29 14 35 28 28 25 22 23 21 20 28 25 27 23 27 24 21 21 18 21 27 25 19 22 29 25 23 16 28 26 15 24 29 20 31 25 29 20 19 19 22 22 15 22 23 20 24 24 26 20 24 24 23 18 18 19 25 25 24 25 20 19 23 20 24 23 30 24 21 15 18 28 24 26 21 18 21 24 21 24 24 24 21 14 20 21 18 18 18 15 25 15 30 25 20 23 24 22 20 29 28 32 28 22 21 27 23 26 21 28 24 20 26 29 21 24 16 23 27 19 21 13 27 23 22 29 24 25 22 21 21 24 23 24 13 30 13 24 31 19 29 24 24 22 27 20 20 23 17 24 26 25 21 18 25 22 15 19 23 17 16 23 25 30 26 26 17 26 23 19 25 23 21 19 25 26 26 17 15 24 19 18 18 26 21 29 23 25 23 30 19 21 26 23 30 26 21 20 23 23 29 16 21 26 24 21 19 22 24 32 17 17 28 23 26 21 29 18 23 22 22 30 22 22 22 21 20 23 25 23 24 26 19 22 21 20 20 29 24 16 22 19 22 25 20 19 18 25 25 25 21 14 14 17 21 17 27 25 18 24 22 21 26 21 17 26 23 21 28 22 23 28 21 24 25 19 18 23 15 18 16 15 21 17 23 27 31 27 21 28 33 28 24 28 22 29 21 21 33 24 29 25 17 20 17 15 25 20 20 25 21 20 20 25 20 29 24 16 29 29 22 22 23 18 16 23 22 29 16 18 20 25 18 21 23 21 14 16 20 26 32 21 24 28 24 18 21 27 20 23 27 21 29 23 31 23 22 26 23 14 30 27 27 18 21 18 18 28 22 20 25 28 22 17 21 16 21 25 19 18 28 19 20 18 25 21 21 20 20 25 20 27 20 26 22 27 24 27 27 16 26 25 24 20 21 17 27 25 18 26 25 23 17 28 24 30 23 29 35 26 28 19 25 14 28 20 26 19 29 26 29 20 19 23 23 20 18 17 22 23 22 16 31 25 23 28 22 27 23 23 24 22 29 33 20 26 24 24 27 27 24 25 19 20 21 18 23 21 26 22 27 16 20 25 18 29 24 24 21 20 24 16 22 20 28 27 26 15 24 24 18 15 22 19 22 27 21 28 24 23 16 25 24 31 26 25 25 24 24 26 18 17 17 9 22 29 14 20 12 29 22 22 17 23 30 28 31 24 16 23 22 22 25 25 15 28 23 16 23 19 20 23 19 30 19 23 22 20 22 20 26 25 28 24 34 27 23 25 22 23 21 23 21 28 19 24 27 26 22 20 27 26 31 27 19 18 30 20 23 16 23 29 28 13 26 23 24 26 20 24 27 28 20 20 24 26 26 26 19 20 21 25 30 23 18 23 28 22 25 22 20 14 19 27 23 23 14 28 21 26 25 24 16 21 22 16 25 19 26 29 15 26 17 24 22 24 27 21 25 23 19 25 26 25 21 20 28 23 27 32 25 25 18 22 18 20 24 18 27 21 19 12 25 28 18 26 32 15 28 23 18 31 20 26 30 27 21 20 25 21 21 30 18 27 26 18 23 21 24 21 27 24 24 28 25 17 26 25 24 19 17 19 24 27 23 21 25 19 22 22 20 28 17 17 23 22 19 23 20 31 18 25 23 21 26 26 17 29 20 20 22 24 19 20 29 18 17 18 23 20 21 24 25 25 24 21 22 22 30 24 26 18 24 20 23 20 26 20 20 22 19 25 19 22 24 30 32 25 30 23 20 20 21 18 23 26 22 23 24 24 19 21 16 28 24 19 21 22 30 26 20 24 18 22 25 12 24 22 17 15 15 24 20 23 27 26 27 26 26 23 22 26 23 25 20 22 23 22 28 18 36 30 14 22 25 33 21 26 21 17 31 29 28 20 26 22 29 25 24 24 28 32 22 19 25 17 21 28 25 21 26 26 24 26 31 16 30 14 21 21 24 28 20 21 19 26 20 26 22 18 24 25 18 23 21 30 20 30 27 23 19 18 26 27 28 28 16 25 19 18 18 19 20 27 28 24 31 28 24 22 16 20 27 28 31 21 20 23 26 28 22 23 21 15 20 27 17 27 20 24 25 23 16 19 20 28 22 15 19 25 29 24 21 24 26 27 23 31 19 23 27 20 19 26 24 27 23 24 30 20 14 23 22 22 23 23 22 17 25 18 20 25 19 21 24 19 22 17 22 35 25 18 19 27 26 23 25 27 18 16 23 20 22 22 18 14 19 29 25 21 25 20 24 28 20 27 19 23 30 29 27 26 23 26 18 22 20 17 27 21 27 19 15 25 26 28 17 19 21 21 21 22 22 28 24 21 20 22 15 15 14 29 17 21 25 25 22 19 24 16 30 21 19 23 24 24 21 21 22 20 17 22 21 21 24 21 27 28 18 21 28 27 24 23 21 31 21 20 23 23 28 20 23 20 23 30 21 22 26 26 26 23 24 21 22 23 26 28 28 26 18 24 29 25 22 20 23 29 27 17 26 24 24 27 16 21 31 17 24 28 22 13 26 29 22 20 16 20 24 23 32 18 27 18 20 25 18 30 24 22 30 25 21 32 22 24 22 21 34 21 23 32 25 26 17 20 22 28 23 22 28 20 19 28 20 23 23 22 19 19 31 23 21 29 20 23 16 29 21 29 26 21 21 23 15 25 14 20 25 21 20 19 36 21 27 22 26 24 25 20 19 13 13 27 26 28 28 16 27 19 31 32 26 21 21 20 29 22 28 18 20 26 17 23 26 16 29 27 27 30 23 17 21 23 27 24 21 19 27 19 22 22 28 28 27 18 29 28 26 24 18 24 20 16 26 29 16 23 16 23 26 15 31 25 18 23 21 19 27 32 16 28 24 29 30 30 26 26 18 28 17 24 26 21 29 28 18 22 26 13 18 26 25 22 18 20 18 24 17 21 16 18 24 17 26 21 26 25 26 19 22 23 19 26 20 26 25 12 21 24 25 20 23 25 16 28 13 25 20 26 26 26 21 29 22 18 18 23 20 20 27 15 20 23 16 24 30 17 19 23 21 15 19 24 28 20 24 22 21 19 21 27 25 22 18 28 28 18 19 26 21 25 28 16 22 21 19 29 22 23 27 28 28 19 20 27 16 24 19 25 23 23 25 24 34 18 23 23 23 27 25 17 24 25 26 24 23 29 17 19 20 32 21 18 23 30 27 21 23 21 27 22 27 18 27 23 25 24 22 22 24 22 22 16 20 17 26 21 22 27 22 19 33 23 21 26 13 19 15 36 27 27 20 29 23 27 27 26 29 26 24 15 21 26 29 18 18 17 20 20 18 21 23 28 20 26 23 16 30 25 25 21 23 21 22 17 24 25 26 21 22 17 24 26 25 27 21 28 17 26 21 26 27 27 24 23 24 22 26 22 22 27 16 18 22 25 26 16 22 26 26 29 29 30 24 16 37 33 22 24 21 24 24 26 19 15 21 23 20 29 19 23 19 29 20 13 27 34 22 20 26 20 19 21 24 22 13 21 20 32 26 17 19 20 27 28 24 18 18 19 10 24 25 21 23 19 23 18 20 24 20 19 26 26 20 22 23 22 21 18 20 21 23 25 22 25 19 24 22 17 25 21 22 21 24 27 12 27 23 20 24 21 25 26 25 22 21 19 18 26 19 18 25 33 25 23 23 16 23 23 18 24 15 20 25 27 22 23 24 17 21 23 27 32 18 28 23 23 21 26 23 26 25 23 22 21 20 28 25 22 34 18 29 23 24 24 27 28 13 18 29 18 25 27 25 19 21 23 23 24 21 22 25 20 26 22 26 20 17 29 28 25 27 20 29 15 21 34 21 18 25 24 26 15 18 18 26 27 30 22 23 23 30 26 18 27 19 17 21 12 29 31 25 23 23 25 26 23 23 25 17 24 14 28 20 23 23 22 20 38 22 22 28 27 19 23 18 25 23 29 22 17 27 19 19 26 21 18 17 29 23 26 23 24 23 18 26 22 32 22 28 16 23 16 24 18 23 21 23 24 25 17 19 25 19 21 24 23 25 28 18 29 22 21 15 22 20 20 24 31 23 19 26 14 23 17 19 25 23 30 18 23 28 26 25 30 24 21 29 21 29 22 28 23 15 15 29 23 27 22 24 20 22 19 32 19 18 18 26 32 26 14 23 18 23 26 13 19 20 26 32 20 26 33 23 22 23 20 21 29 18 26 23 20 16 24 25 29 18 30 29 21 16 24 17 22 22 36 27 24 30 18 19 21 16 22 20 21 22 30 24 25 30 29 19 21 27 21 19 22 20 18 27 27 20 22 22 21 20 25 27 24 23 13 19 27 16 25 18 22 27 27 17 12 21 26 33 25 17 23 21 18 26 19 27 22 28 28 20 30 24 21 21 25 26 25 20 24 23 26 20 23 23 25 26 29 24 21 18 28 24 16 19 31 26 25 19 20 18 22 22 17 21 22 21 21 19 18 22 18 20 17 15 28 23 17 27 21 31 22 17 23 22 33 19 20 21 19 27 27 21 18 19 21 18 20 17 26 21 22 25 15 29 21 26 23 21 19 20 28 22 26 23 23 27 26 17 26 25 13 28 22 24 28 26 17 19 21 23 18 20 23 28 23 23 25 24 25 29 23 18 20 20 15 24 30 24 16 32 24 18 16 20 27 16 20 20 20 20 22 12 19 27 23 29 20 21 26 24 24 22 21 26 29 17 35 23 22 26 23 14 21 20 22 18 21 23 33 18 26 29 21 21 22 19 25 21 28 33 21 22 24 22 20 22 20 23 28 17 29 26 18 18 30 28 25 19 29 35 19 21 23 29 24 18 25 22 23 27 27 20 25 15 25 26 18 21 17 24 23 28 20 23 19 21 21 19 24 13 26 23 19 15 28 21 13 24 25 25 27 21 29 26 26 26 18 28 20 11 22 30 28 23 20 27 22 29 23 24 19 27 24 18 26 28 24 23 28 24 21 25 21 32 28 17 24 19 19 23 26 25 15 21 30 16 18 21 21 21 21 18 24 21 26 18 25 19 24 17 24 22 25 22 19 22 13 26 20 23 24 20 26 20 31 24 26 27 17 12 28 20 20 20 15 19 29 23 27 31 24 18 19 23 16 20 23 27 26 9 24 31 19 19 17 25 18 28 24 31 21 23 24 29 23 32 23 27 19 23 25 15 27 24 26 16 22 23 17 18 20 28 19 28 28 29 26 25 29 22 17 29 23 27 35 22 21 19 24 23 29 28 28 31 25 22 25 19 21 23 23 26 25 23 20 29 22 24 14 21 18 30 25 15 18 21 23 19 18 28 32 22 26 27 27 22 24 23 21 22 16 19 22 21 17 23 21 27 26 27 21 22 21 29 28 26 23 23 24 26 24 23 22 29 26 24 20 21 19 22 23 23 24 27 13 25 26 13 24 22 29 19 19 26 23 21 26 18 16 23 22 21 26 30 33 22 27 21 22 31 17 15 23 22 25 28 28 28 30 21 29 32 32 21 29 17 27 23 20 23 26 27 21 22 23 22 25 20 21 19 22 23 24 21 36 28 21 19 19 21 23 23 23 17 19 18 25 28 27 24 23 30 26 18 26 24 30 28 23 23 20 24 18 26 24 13 17 27 25 19 31 21 16 24 24 27 25 22 17 19 24 28 25 17 27 27 32 23 20 18 19 20 20 22 24 25 20 23 16 23 21 28 28 20 27 23 21 13 22 24 22 24 22 25 18 19 33 26 21 21 25 22 16 22 24 20 18 23 20 26 23 19 23 25 15 17 29 22 25 26 29 19 28 17 25 22 27 23 23 25 24 20 16 30 29 30 22 19 17 31 27 22 20 26 26 21 23 22 19 19 18 32 19 30 18 27 20 22 19 18 21 12 28 25 29 22 26 24 17 27 23 31 21 28 18 25 21 21 22 22 24 27 15 19 22 16 16 24 29 27 25 29 24 21 27 23 27 31 25 24 17 35 22 26 17 23 21 17 26 22 31 27 23 17 24 27 16 23 24 23 25 25 24 29 24 21 29 19 16 16 21 17 18 21 22 22 33 22 22 21 27 25 28 20 25 22 16 18 27 26 17 25 15 28 25 16 19 21 24 31 22 26 15 26 18 23 25 17 22 20 26 20 18 21 23 20 20 25 25 24 22 23 26 23 25 22 16 26 24 21 24 29 28 24 19 17 20 27 30 26 20 23 29 26 16 19 25 24 18 28 17 28 33 26 24 26 21 15 22 19 19 17 30 22 22 16 17 21 30 25 22 17 29 22 23 17 19 19 16 26 22 21 31 17 22 24 24 18 24 25 27 26 24 23 15 17 32 31 22 27 14 19 26 20 24 22 34 23 28 20 24 25 29 24 21 35 30 25 23 24 16 16 18 19 20 29 27 18 18 24 20 23 19 27 22 20 29 20 18 21 26 16 19 23 25 23 24 14 30 22 20 18 24 22 17 27 26 21 20 20 22 26 30 24 20 20 24 25 19 17 21 23 16 24 26 26 30 22 12 14 22 21 18 23 21 15 23 25 25 29 26 24 17 26 25 15 25 16 23 23 28 22 18 28 26 23 20 22 23 17 33 23 29 16 20 24 26 22 26 25 36 15 27 17 28 24 22 27 28 22 15 20 22 24 15 27 20 22 20 22 26 15 25 24 22 27 15 21 29 20 33 18 26 22 19 18 25 27 25 31 25 22 18 30 20 20 26 20 29 23 29 21 30 23 32 23 20 32 26 15 25 23 20 18 24 31 15 23 21 23 29 20 29 33 19 27 24 12 25 15 17 18 15 22 22 18 26 31 22 24 24 20 21 11 26 28 26 21 32 25 21 26 26 30 20 29 18 29 22 27 24 17 22 19 24 22 23 29 20 26 21 31 27 21 25 22 17 21 16 24 17 21 18 17 18 26 24 27 33 26 29 21 22 17 29 25 19 24 26 26 24 26 27 37 32 19 32 25 26 31 28 22 16 22 17 19 20 27 25 28 32 19 32 24 20 22 19 19 18 18 22 26 28 21 19 26 24 22 21 29 23 30 26 28 26 24 24 28 24 29 21 21 23 31 26 29 26 24 15 22 21 21 25 21 23 15 24 25 29 29 30 29 20 22 26 21 35 22 21 25 21 22 18 16 17 20 24 27 24 23 17 23 31 19 13 28 21 23 15 23 26 18 28 18 18 19 19 23 17 23 13 22 19 24 18 22 19 32 23 20 22 27 31 21 24 24 24 23 19 27 24 26 19 17 26 23 26 22 25 34 36 23 20 25 24 24 28 31 21 32 23 28 27 22 18 26 23 16 15 26 23 18 26 22 25 21 26 19 21 30 27 20 26 30 26 24 19 13 25 15 26 30 21 25 23 20 30 23 26 27 14 13 21 15 19 23 29 18 26 36 25 28 19 30 22 21 29 29 21 24 22 20 35 22 26 27 27 25 29 27 28 25 26 15 18 25 12 25 22 18 22 22 24 33 22 21 22 20 15 33 23 27 38 18 26 22 29 26 31 26 22 27 20 22 17 23 25 14 19 20 22 27 18 23 21 25 27 16 25 20 24 21 23 27 24 21 29 24 28 27 25 26 27 23 15 19 21 18 21 20 22 19 21 19 22 18 18 22 25 22 24 21 26 17 25 23 24 29 24 28 15 26 35 24 25 24 29 24 13 27 31 21 32 26 20 19 18 21 25 31 25 19 26 26 24 22 21 28 19 28 21 25 31 24 27 21 25 26 22 18 17 23 22 18 27 19 22 25 27 25 23 31 23 22 25 27 31 20 21 23 22 23 20 26 18 24 16 28 26 20 25 25 25 21 27 32 24 26 28 20 27 14 25 21 17 19 24 30 27 25 30 21 18 26 24 24 29 22 19 21 29 21 15 25 18 24 18 25 21 21 24 17 20 23 25 21 24 26 25 22 25 20 32 19 26 29 28 26 26 26 29 19 29 22 26 21 28 21 23 17 21 22 25 34 33 24 18 27 24 24 19 23 24 26 22 20 23 23 18 17 18 24 24 22 22 22 17 18 29 16 16 30 28 30 20 21 25 25 27 24 18 24 24 20 15 31 22 14 28 18 24 23 19 26 35 19 32 31 29 18 17 30 22 21 23 23 18 31 29 18 21 22 25 27 28 29 19 15 20 26 23 21 26 35 20 16 30 26 25 28 23 18 28 24 26 20 21 27 21 26 14 20 23 19 23 22 26 26 25 25 23 26 29 27 30 15 23 20 19 39 24 31 20 24 18 23 25 21 23 18 17 18 22 21 23 25 20 20 23 20 22 30 15 19 19 18 23 28 26 26 24 23 21 20 25 23 30 26 25 30 30 31 25 26 26 25 26 15 27 14 20 21 28 24 17 21 23 29 23 22 23 24 12 17 19 19 26 21 20 22 17 21 23 23 21 29 20 27 21 23 27 17 27 21 28 17 21 11 25 18 20 23 20 20 21 31 23 16 17 19 27 24 24 25 23 30 20 19 18 20 14 21 27 21 20 29 20 18 22 14 23 24 19 31 26 20 24 21 20 23 26 15 27 23 23 20 23 22 22 29 18 32 22 26 19 19 18 12 23 21 17 26 23 19 23 24 23 30 21 19 23 27 21 20 22 21 26 25 21 25 26 22 27 15 23 25 17 15 25 24 22 25 29 23 31 20 34 19 28 22 22 21 16 22 24 28 25 25 22 28 34 25 20 25 22 26 20 24 24 31 28 24 21 17 13 30 27 26 28 10 19 26 20 26 22 22 24 17 32 19 23 33 28 25 27 20 26 21 20 23 20 26 25 23 18 28 29 22 36 11 31 20 27 26 15 28 21 20 23 19 20 32 24 31 27 19 20 27 25 24 22 23 30 19 27 16 20 29 34 28 30 21 21 20 21 23 19 13 21 27 14 23 17 17 20 30 28 23 25 29 22 21 21 20 19 26 28 25 20 19 22 23 23 14 25 22 19 21 25 26 20 18 23 22 32 25 25 21 20 23 23 16 28 22 20 23 21 21 30 29 28 23 37 28 18 27 27 31 16 29 24 21 22 17 31 25 29 17 20 23 29 25 20 30 23 23 26 27 24 16 16 20 24 21 20 25 17 20 16 30 20 23 20 35 23 22 19 23 21 27 18 30 20 23 14 22 28 23 18 28 22 23 28 21 21 19 27 26 19 27 19 21 15 15 23 30 19 18 27 31 28 28 24 30 28 18 25 30 31 23 35 18 16 23 25 22 29 22 18 16 22 30 22 25 19 24 21 26 22 25 20 19 32 20 20 21 29 17 30 25 17 22 27 28 26 31 14 27 24 20 21 25 23 24 22 24 31 20 29 21 21 20 20 21 23 20 22 26 21 26 23 32 20 20 23 25 20 23 25 22 26 22 17 21 16 18 26 25 25 21 20 29 27 23 28 27 18 28 32 21 22 22 23 20 18 26 17 21 27 21 23 23 25 14 22 28 22 22 15 21 18 30 28 27 27 14 21 20 29 19 29 27 26 28 24 22 19 27 23 22 32 21 19 22 28 25 24 24 21 26 23 19 23 16 26 20 26 22 16 20 22 19 19 16 22 23 20 33 27 23 22 29 17 27 20 20 23 20 25 25 17 24 24 27 25 27 30 17 26 20 23 27 24 21 20 18 17 34 23 32 23 22 21 33 22 26 20 23 23 33 24 22 24 27 24 34 28 31 27 18 31 29 21 22 26 29 35 18 21 23 22 26 22 26 22 26 25 18 24 21 14 24 23 27 26 22 28 20 28 19 27 29 21 25 24 21 24 20 30 26 15 21 21 32 22 24 29 23 19 20 27 24 27 21 26 28 24 17 20 27 18 19 17 25 25 18 20 22 13 21 24 26 26 14 23 22 24 20 23 25 22 14 19 25 29 17 22 23 24 23 23 18 22 26 18 27 22 30 23 29 27 19 23 27 20 22 18 25 23 33 34 18 19 22 25 24 19 21 28 29 21 20 20 21 20 26 24 20 21 29 22 26 25 16 17 13 21 24 19 14 19 28 22 26 19 26 25 23 21 28 23 20 25 23 24 25 25 31 21 26 24 22 22 24 20 21 22 16 22 20 15 31 17 23 15 24 23 21 20 34 25 27 20 25 27 33 26 23 31 26 20 24 27 29 24 20 25 21 24 22 22 26 24 18 28 25 24 14 23 21 25 22 29 20 22 16 17 16 8 23 23 24 27 20 23 20 20 27 24 23 19 29 17 24 30 23 19 23 19 19 28 22 18 21 25 25 18 19 23 25 30 22 26 23 23 23 33 29 23 21 23 27 25 32 22 25 29 26 28 18 25 21 18 30 22 19 27 23 25 14 28 21 27 29 24 26 28 14 20 20 17 15 28 24 30 28 27 23 28 23 19 30 26 19 14 28 18 25 14 11 25 13 24 27 25 27 18 19 22 24 24 24 28 26 28 21 23 25 22 26 24 25 15 21 24 23 27 16 26 19 15 15 26 23 20 26 18 14 24 27 25 25 19 25 22 29 17 14 25 22 26 22 20 29 27 32 28 22 28 27 14 28 30 20 21 23 24 26 18 22 31 24 18 18 22 20 27 24 22 28 24 24 27 20 25 29 20 22 31 21 21 24 22 19 28 21 23 24 24 25 23 22 25 27 24 23 24 27 24 24 19 24 25 21 26 19 25 17 16 25 15 21 25 28 26 31 35 19 18 29 28 21 21 26 19 22 13 23 21 18 28 15 16 28 18 21 19 23 18 19 20 23 17 23 24 17 24 26 30 24 29 26 25 28 20 32 25 26 25 27 32 22 16 19 32 27 18 17 22 25 23 22 20 20 18 28 20 29 25 22 22 22 26 29 24 27 20 23 23 23 25 29 21 20 23 32 24 22 25 27 20 19 24 21 25 21 14 23 24 19 31 21 18 20 23 18 19 19 21 28 27 23 21 22 20 26 21 22 28 27 22 28 23 32 18 24 22 28 22 25 18 15 22 33 23 33 19 27 21 25 27 26 30 22 34 21 25 21 21 16 27 29 21 16 26 25 25 19 28 22 24 21 27 29 14 19 23 13 29 19 26 21 21 27 25 27 22 28 15 24 23 24 21 26 26 19 25 18 24 19 28 22 19 22 23 16 19 12 22 26 29 23 22 25 25 26 29 23 26 16 31 18 25 21 27 28 27 23 23 23 29 28 19 16 22 21 24 23 16 23 28 25 32 23 22 24 16 28 23 26 20 18 20 22 18 27 27 16 21 27 25 17 31 24 25 21 24 21 18 25 26 18 16 21 17 27 30 19 24 24 22 23 23 20 19 29 15 27 30 19 25 23 30 17 30 25 22 23 25 22 18 19 20 24 20 23 23 31 21 21 23 19 28 19 19 20 27 26 27 22 24 23 28 23 20 19 29 31 24 27 32 23 28 23 27 22 27 21 25 20 24 18 23 28 30 20 26 27 23 29 19 21 30 26 31 27 22 33 20 28 20 15 24 28 24 20 19 21 29 14 18 23 22 26 25 18 20 18 21 20 14 27 23 14 23 16 22 21 25 24 14 23 26 29 19 22 21 25 29 27 27 25 22 27 27 25 16 24 23 22 25 24 20 21 20 21 20 28 16 28 22 20 14 23 22 32 27 24 26 28 31 17 22 23 27 29 19 21 25 23 22 18 30 26 25 17 24 21 21 22 24 29 18 26 22 19 20 15 21 18 14 22 30 25 26 14 27 22 25 24 22 28 22 21 31 33 29 29 23 24 16 30 25 27 17 20 17 26 28 28 28 24 19 22 20 32 20 26 22 26 23 19 19 32 20 20 33 21 22 23 15 23 32 25 27 23 18 21 23 24 23 29 19 22 24 19 29 23 22 18 22 22 23 21 26 21 24 21 28 24 26 24 27 22 27 21 21 28 23 28 24 23 24 25 18 19 22 19 24 25 23 19 18 20 21 32 26 22 33 21 23 23 23 23 18 19 27 22 19 23 16 23 25 30 18 22 26 27 31 27 23 32 20 18 18 19 24 24 22 15 24 21 28 19 29 22 24 31 22 32 21 16 24 27 23 18 25 24 26 15 26 22 21 24 16 25 26 30 27 30 22 27 27 28 24 20 17 20 22 20 23 24 27 21 26 16 26 29 21 21 30 17 30 30 24 23 30 26 23 31 22 26 14 26 22 25 17 31 24 21 17 17 31 29 21 24 24 19 22 27 29 24 22 26 23 23 25 22 16 26 18 21 29 25 25 24 21 22 20 27 18 19 20 22 24 20 18 21 22 24 24 25 22 25 21 21 27 22 34 20 27 19 25 24 21 21 19 26 20 19 25 27 25 19 30 21 20 16 23 25 24 23 17 27 18 19 23 21 24 20 32 16 19 26 21 15 19 24 23 27 22 18 33 23 26 30 26 27 19 25 30 26 21 18 24 19 18 27 28 30 23 13 30 16 25 26 19 21 24 31 15 24 26 25 20 26 16 25 19 26 19 25 19 22 20 18 19 23 21 29 23 21 29 25 28 21 26 16 25 24 25 23 17 30 17 32 28 16 34 20 20 26 28 31 26 23 31 20 24 27 16 24 24 24 24 20 21 27 24 22 23 19 20 21 24 22 17 30 19 15 28 25 21 19 20 22 28 27 39 23 23 32 27 25 27 34 28 22 21 20 30 26 14 29 24 27 32 17 27 25 28 23 21 23 13 24 15 26 23 23 22 18 34 24 26 20 17 24 24 24 27 23 26 24 22 25 21 13 12 28 29 24 33 25 25 28 34 21 21 27 19 23 28 25 26 24 17 17 20 28 27 24 17 16 17 24 36 28 26 15 21 31 19 23 26 23 22 19 19 24 33 22 23 20 29 20 19 29 24 20 26 12 32 16 21 19 23 28 15 24 26 20 17 31 15 25 15 19 24 18 21 13 28 18 27 21 37 22 28 24 21 25 15 23 13 33 28 26 26 24 26 32 23 25 19 25 27 19 23 28 22 21 27 20 19 20 22 24 21 30 30 19 24 26 18 23 24 31 23 23 27 21 19 19 26 22 26 24 26 26 14 25 19 22 22 29 21 23 20 25 20 26 20 22 23 21 11 25 20 27 21 28 20 25 18 25 25 16 20 21 20 21 23 23 18 20 15 24 19 32 24 23 20 29 15 21 23 24 21 28 22 29 24 29 19 22 25 28 32 30 19 21 30 26 23 23 25 25 18 27 24 26 25 21 24 21 19 23 22 28 21 29 20 21 23 26 18 22 30 22 19 25 29 26 15 22 27 22 19 26 24 24 27 27 23 24 25 27 28 23 24 21 30 28 25 25 21 25 17 17 27 22 12 19 23 24 26 22 16 28 17 26 22 22 24 25 18 22 25 22 27 27 13 26 21 27 21 22 23 21 19 24 23 22 22 28 23 12 17 30 20 23 19 25 22 13 25 28 26 26 25 21 27 22 25 26 20 17 23 23 19 23 18 27 19 34 29 24 18 25 20 26 24 24 37 23 34 20 12 28 24 24 26 26 27 26 26 26 29 22 33 14 17 25 32 19 24 22 15 20 29 14 18 22 27 28 15 21 22 29 20 20 29 22 18 20 21 40 12 28 23 34 23 25 16 18 22 22 28 21 23 13 26 24 27 27 18 29 23 17 18 16 14 30 24 25 26 22 26 29 23 20 12 22 13 30 27 25 22 26 32 26 23 30 21 31 25 19 20 19 20 20 27 22 20 25 16 19 21 22 23 33 22 31 29 20 18 27 20 24 22 26 25 19 21 24 27 31 23 27 15 23 26 26 30 24 18 16 21 19 20 18 22 25 24 16 28 31 15 29 26 24 26 29 28 19 27 28 24 25 20 25 21 16 18 22 26 18 21 22 15 25 22 22 29 14 30 26 26 25 25 19 31 19 29 28 24 21 30 19 25 25 23 20 29 27 19 23 19 22 22 17 19 26 28 24 32 22 22 29 18 12 24 26 23 24 18 26 23 21 24 20 21 21 16 20 19 31 22 22 29 23 25 19 23 22 19 19 27 19 19 25 28 23 26 22 17 21 27 19 22 26 25 24 18 17 23 21 27 26 21 20 30 31 22 28 20 21 23 25 23 28 27 21 21 24 24 25 27 25 24 25 26 29 13 32 26 19 26 23 17 33 31 20 23 14 20 27 22 32 33 18 29 24 28 22 17 22 27 26 20 24 27 19 20 24 29 24 22 22 22 21 28 22 17 26 21 18 31 26 22 21 22 25 17 25 21 22 18 26 14 21 25 21 18 27 18 29 22 25 13 31 24 31 23 20 27 20 26 21 23 23 23 27 15 21 23 21 22 24 17 23 19 25 20 27 27 19 18 21 17 22 20 15 19 32 19 20 22 20 19 32 21 22 26 26 18 18 21 25 26 20 25 22 22 22 28 24 21 22 29 36 23 24 22 21 24 26 18 28 22 20 17 20 30 20 17 18 28 28 24 22 18 17 29 26 18 21 27 23 31 20 33 24 23 21 20 27 22 19 25 23 16 26 25 19 25 14 25 25 21 19 19 13 23 15 23 32 25 20 27 28 27 17 25 23 18 27 30 27 25 28 21 18 23 19 20 20 16 28 17 28 16 33 22 20 24 24 26 25 22 19 24 22 24 27 24 29 20 16 20 22 22 28 19 16 25 36 19 30 26 24 24 24 21 25 23 20 27 25 24 23 21 21 21 30 25 22 21 23 27 26 25 18 26 21 30 31 13 25 30 27 26 22 27 28 29 27 20 25 20 18 29 17 14 24 28 25 19 25 20 20 16 21 23 22 22 18 23 25 25 22 22 21 21 19 25 19 27 22 26 22 23 19 17 21 14 18 25 20 20 23 26 25 17 20 22 32 22 21 23 18 25 29 25 27 30 32 21 22 22 25 22 23 21 26 23 27 17 27 22 21 23 26 26 20 22 24 26 26 19 31 33 24 21 22 20 19 20 25 25 24 16 19 8 23 19 20 22 24 24 22 28 23 27 21 29 28 13 22 26 22 23 18 17 14 24 27 20 22 24 20 24 22 21 31 26 23 21 33 19 24 23 26 25 25 21 28 26 24 26 23 23 23 23 15 23 24 27 19 20 23 19 27 27 22 10 27 22 26 20 19 25 22 19 26 28 14 22 29 22 22 18 28 20 25 25 29 25 23 25 20 18 14 20 29 25 26 27 14 22 24 31 18 24 21 30 26 25 27 23 25 28 22 25 25 29 26 23 22 23 27 19 23 23 22 26 19 23 24 20 25 28 26 21 23 27 20 24 25 26 23 22 21 21 20 22 26 28 24 25 24 17 29 20 18 29 26 31 27 17 20 33 32 16 12 26 22 15 23 22 22 21 21 16 26 24 25 24 25 28 25 19 27 22 17 23 25 24 17 20 18 21 20 21 25 14 22 23 22 27 25 24 22 31 23 26 28 27 31 23 26 30 32 15 21 23 19 19 21 21 25 23 24 24 24 28 23 25 23 26 23 22 24 25 25 14 22 23 23 24 21 21 16 25 20 32 22 21 18 22 18 19 27 14 20 25 25 19 19 26 27 25 26 21 19 26 25 24 21 21 24 20 28 22 18 24 21 20 22 14 38 31 27 17 14 22 26 27 17 21 14 22 17 21 30 30 23 20 28 22 15 25 24 18 24 31 18 24 21 25 25 18 23 21 30 22 22 26 31 27 22 25 22 22 17 20 16 18 21 23 20 26 26 22 27 28 28 24 22 24 26 21 13 23 26 21 28 17 29 25 22 26 28 25 23 18 28 21 26 23 25 26 30 23 16 17 19 24 27 19 27 16 28 17 17 27 18 21 27 24 23 24 22 23 20 18 23 26 16 29 32 23 16 24 31 19 19 24 23 25 24 21 22 21 15 26 27 24 23 19 17 21 15 27 16 31 24 15 15 25 26 18 20 26 18 28 21 27 17 28 24 23 19 22 15 27 20 21 20 25 34 20 24 26 21 19 24 29 24 28 23 23 24 15 31 21 25 16 26 29 17 33 23 19 25 24 33 22 21 13 28 23 22 23 20 22 19 21 22 25 19 29 19 19 32 27 28 20 22 29 19 24 29 23 20 18 29 18 26 20 14 20 22 26 20 24 24 23 19 19 27 20 18 21 36 23 20 26 21 29 18 27 19 26 28 19 15 19 29 24 22 33 23 20 24 23 21 35 20 32 24 25 18 21 26 25 19 24 25 30 26 18 20 30 26 23 24 22 27 23 30 29 22 18 26 19 21 26 22 25 24 25 22 24 32 35 21 26 21 24 26 13 24 17 20 23 20 24 21 14 25 18 18 25 34 24 20 26 24 27 25 23 22 23 26 26 19 24 19 21 22 20 25 25 27 23 27 32 20 28 21 19 16 27 29 27 24 27 21 24 20 23 29 23 21 22 27 22 18 24 28 27 24 25 24 27 23 22 18 27 30 20 24 24 25 22 26 18 21 32 26 27 29 24 27 28 23 18 22 24 17 33 16 23 22 23 22 25 20 21 31 31 20 29 24 18 26 23 24 23 25 31 27 25 14 27 24 21 17 25 21 28 23 25 25 21 30 17 19 21 22 21 25 24 22 16 20 16 21 29 26 24 30 18 25 21 27 26 26 19 25 24 30 29 29 24 21 24 23 21 18 27 30 23 27 16 32 21 24 21 25 21 26 27 23 32 29 16 27 28 24 16 21 18 26 17 24 28 21 20 17 19 18 26 31 23 28 23 17 26 20 18 20 25 18 21 26 22 26 23 26 31 17 19 20 14 25 26 18 17 23 21 18 30 24 25 17 15 21 24 30 29 22 20 21 26 23 26 17 19 25 22 24 27 18 31 22 22 30 26 17 22 25 27 20 17 23 20 26 29 30 23 26 21 13 21 23 18 24 24 25 19 33 15 14 26 18 33 26 23 17 25 25 24 18 27 17 28 24 17 24 30 22 27 25 23 22 28 30 18 24 29 22 23 20 26 22 27 29 18 25 13 28 22 25 18 21 21 23 16 22 26 21 22 20 19 21 25 12 22 27 24 25 27 26 28 24 29 21 32 21 24 30 26 26 23 18 20 20 16 20 19 19 28 22 23 22 25 24 29 18 24 28 22 18 28 23 15 21 26 23 26 28 24 23 21 29 21 25 28 23 19 30 19 19 17 27 27 24 21 23 24 20 22 24 18 17 15 22 24 21 24 23 23 17 28 28 23 24 32 20 20 23 18 32 27 21 23 22 24 33 16 19 29 23 24 25 23 24 18 17 26 12 17 26 28 24 31 27 27 19 19 12 25 28 32 21 29 20 27 22 30 20 22 23 18 26 19 22 22 19 29 25 22 22 31 23 21 25 28 19 23 27 18 34 25 27 14 22 19 30 15 23 26 24 22 23 27 18 21 20 21 31 26 29 20 27 22 23 24 29 23 22 19 17 23 17 19 23 22 19 25 26 31 23 28 27 21 21 16 20 31 22 14 22 36 23 19 19 17 31 32 18 25 20 25 24 29 28 20 18 24 27 25 17 25 17 18 24 22 19 24 26 25 23 25 16 15 22 27 17 30 22 22 23 25 23 18 18 20 31 22 21 24 24 20 19 26 21 27 30 22 29 26 24 26 25 24 26 25 26 22 27 28 26 25 24 20 21 18 22 21 24 30 17 31 24 20 25 19 27 17 18 17 16 34 29 27 19 28 29 20 29 20 28 22 28 19 24 20 19 30 17 20 21 17 23 22 34 26 16 27 21 23 34 20 19 17 28 30 20 22 21 27 23 21 25 24 23 21 22 28 23 21 26 23 21 23 11 14 24 22 22 25 26 20 26 29 28 23 26 17 20 21 14 25 22 25 20 27 28 28 27 22 23 23 24 25 19 28 23 17 27 22 23 24 23 25 29 27 20 30 29 27 17 23 22 30 24 21 28 21 24 19 22 27 25 30 18 23 26 23 18 19 22 28 20 19 19 18 31 24 28 26 22 33 25 12 19 28 24 25 20 30 14 25 24 22 20 22 24 25 31 25 30 26 25 22 26 24 20 29 28 25 23 16 30 23 19 21 22 21 27 25 20 22 21 27 22 18 24 27 18 23 17 15 35 21 18 19 26 19 24 21 27 30 24 22 22 24 25 26 16 25 19 29 26 28 22 23 23 18 20 24 27 22 21 21 27 22 24 16 27 16 27 19 18 24 25 26 23 20 20 20 20 24 26 29 23 18 22 21 31 20 25 32 25 30 17 25 24 15 25 28 28 31 25 18 22 21 23 22 21 24 24 22 20 17 31 24 30 14 25 16 31 23 29 11 17 24 19 11 25 24 16 21 27 17 27 20 25 18 17 23 43 21 23 21 23 25 26 26 19 34 16 27 18 27 24 22 21 23 24 35 25 26 22 30 23 15 15 22 23 28 29 18 16 20 26 20 27 36 18 24 25 23 31 18 22 23 21 23 27 22 32 28 22 23 21 19 27 26 18 17 22 20 27 17 24 28 22 21 16 26 24 18 20 24 19 28 23 21 21 28 26 27 21 28 21 19 21 25 20 16 25 26 24 32 22 19 18 20 17 35 21 14 31 20 24 17 16 17 20 30 24 22 24 17 23 29 29 30 23 23 20 29 20 33 23 22 31 25 20 18 26 24 21 24 24 34 23 17 22 27 15 30 24 27 30 18 15 15 27 25 21 14 27 25 25 25 26 18 18 19 20 20 32 17 16 26 28 25 22 26 27 23 19 31 17 16 20 18 15 22 19 19 23 24 21 26 18 20 19 27 20 19 17 29 28 23 23 35 20 31 27 25 31 27 19 24 26 22 19 14 20 19 35 21 18 26 28 25 25 24 23 20 25 15 31 23 23 24 26 20 25 21 29 24 28 20 25 27 20 23 31 19 20 22 24 28 23 27 21 23 26 28 26 21 25 23 27 35 24 25 16 20 31 21 19 26 16 21 21 29 20 30 17 21 19 29 19 27 18 25 20 25 20 17 25 23 28 22 29 25 24 25 23 20 26 26 21 26 21 26 24 26 18 18 25 16 18 24 29 18 19 26 20 33 27 23 22 25 21 25 26 21 21 23 30 16 22 15 15 31 29 19 22 20 19 22 21 25 25 24 21 25 23 29 18 20 20 22 18 29 20 23 18 22 21 25 24 28 22 19 26 21 31 29 26 22 27 20 22 31 29 21 23 25 30 19 23 20 31 24 17 20 24 24 18 21 30 25 21 26 12 23 16 20 26 25 22 22 26 21 21 18 29 26 17 28 22 20 22 25 27 18 21 27 24 24 21 23 26 23 26 21 14 24 27 20 21 20 21 29 26 28 30 23 20 19 26 28 27 23 17 25 22 27 20 21 28 27 19 31 26 20 29 17 21 28 25 28 18 23 20 29 23 16 17 26 17 28 24 27 19 24 18 24 28 33 20 29 16 24 18 24 20 31 19 13 21 16 23 27 28 16 24 22 24 21 30 17 21 25 22 23 28 20 19 24 21 17 25 18 26 20 19 20 34 20 21</t>
-  </si>
-  <si>
-    <t>JSU(-5.817556287263697, 7.7185744386428325, 5.568222869941819, 32.98780312995718)</t>
-  </si>
-  <si>
-    <t>38 32 35 26 33 35 34 35 42 37 35 26 33 38 25 46 32 36 29 31 33 32 39 34 20 49 38 32 43 32 26 46 26 35 36 34 28 33 31 34 32 24 34 36 42 27 35 33 24 39 37 34 32 28 27 27 21 42 19 36 32 29 29 23 37 33 30 39 34 34 27 37 28 24 36 29 29 35 30 32 40 40 25 30 39 28 28 29 30 35 32 39 43 37 41 25 34 25 43 35 29 38 45 32 35 29 29 32 42 39 25 33 32 26 29 29 36 42 34 36 32 39 28 24 32 24 28 32 32 36 29 30 36 31 39 45 42 35 32 29 39 35 40 41 31 40 24 32 41 31 32 39 35 37 30 37 29 30 33 33 37 39 38 30 31 37 27 35 29 34 41 43 33 35 23 31 28 38 33 28 36 23 37 24 35 43 33 33 34 35 40 27 30 30 44 34 35 37 26 26 32 30 32 30 46 38 40 31 34 40 29 35 39 36 34 32 35 33 25 21 30 28 46 30 29 36 35 29 35 38 33 36 42 29 28 31 37 31 36 41 36 34 32 44 35 37 34 43 36 39 40 28 27 33 34 32 31 42 24 36 29 33 41 37 26 37 31 36 24 26 32 39 28 33 29 38 34 38 34 44 35 32 26 58 34 22 32 33 44 24 25 32 36 36 31 28 31 27 32 29 37 44 25 35 36 26 37 38 36 28 37 35 36 23 32 28 35 29 32 30 38 34 34 28 28 33 41 31 36 32 30 33 41 32 29 26 35 44 46 36 39 36 30 34 22 37 30 32 28 31 33 38 30 36 44 40 38 44 32 47 27 26 29 36 27 29 43 34 38 46 24 38 27 31 42 31 32 28 26 41 23 34 41 29 37 32 35 32 38 24 33 32 25 24 43 25 30 34 27 35 37 35 31 31 33 33 34 31 33 31 33 27 37 35 33 33 24 36 34 23 29 29 40 37 31 37 29 22 40 29 30 32 35 34 36 33 37 34 31 42 28 33 39 27 29 30 31 38 22 45 32 38 34 30 34 28 35 35 30 28 33 40 30 25 36 39 30 37 27 35 29 30 33 28 29 37 24 28 33 36 18 34 27 29 41 31 36 29 32 45 31 34 42 26 29 48 21 38 30 32 26 35 35 32 33 35 33 34 39 36 33 36 34 30 32 39 33 28 35 30 26 38 27 34 38 30 26 33 30 34 39 36 34 29 30 35 30 26 33 28 30 34 35 39 27 22 37 31 37 37 31 33 31 35 35 32 45 28 26 34 41 40 27 39 30 30 36 33 25 47 29 34 33 36 26 39 31 32 32 31 32 31 35 25 40 34 33 39 28 28 29 48 43 26 37 40 32 27 40 31 47 27 32 37 29 33 40 28 31 36 34 29 33 20 30 42 39 29 29 39 31 50 27 34 27 37 35 30 33 34 34 28 24 27 30 36 25 42 34 27 35 45 32 32 24 28 38 38 40 26 25 29 39 32 34 25 35 31 36 35 38 27 32 33 27 35 34 18 41 33 49 41 31 31 31 49 37 37 25 32 27 34 31 29 35 24 30 44 41 32 35 33 29 31 34 30 26 36 33 29 39 35 33 31 41 28 31 35 29 36 26 29 28 40 24 41 34 28 51 38 30 29 31 36 36 41 28 30 34 23 38 34 32 37 33 24 36 42 30 32 35 26 22 30 39 27 35 26 38 35 29 34 33 25 32 30 29 21 36 24 33 45 36 31 30 32 25 29 33 30 40 32 36 41 36 37 36 29 37 34 34 34 36 30 34 35 30 28 36 24 27 31 41 30 31 47 25 31 34 25 40 31 38 33 35 45 22 40 35 30 35 32 31 25 34 27 53 43 27 38 37 36 33 27 30 32 26 35 47 32 34 24 36 31 21 33 28 42 24 32 34 33 33 31 29 29 26 37 29 38 40 36 22 43 20 35 30 27 40 23 31 39 28 36 29 22 36 36 33 36 35 38 37 39 38 35 40 23 38 29 27 39 35 28 45 33 39 32 35 59 35 26 26 26 32 31 18 33 31 38 30 31 31 37 32 24 32 34 38 33 38 33 42 27 36 36 36 37 33 33 21 35 28 27 31 36 32 37 33 27 35 32 35 25 22 32 28 28 32 28 30 35 25 37 28 32 42 37 28 37 24 31 38 34 24 20 35 34 31 29 28 36 30 26 41 42 34 36 43 30 36 34 37 29 32 34 30 35 34 33 39 19 33 42 28 34 32 35 25 32 28 42 33 37 35 29 44 23 27 35 30 28 40 36 30 33 25 36 28 28 29 28 39 36 34 34 36 28 29 29 35 28 37 41 28 34 38 38 33 41 50 34 37 35 39 32 29 32 36 39 31 27 34 32 38 50 33 30 35 35 43 31 39 30 40 39 27 29 32 42 34 36 40 23 33 32 45 33 21 35 37 28 38 42 29 23 39 31 28 39 25 36 48 41 33 34 32 30 36 29 29 35 30 31 21 39 39 38 32 30 27 35 25 28 36 32 31 32 39 39 34 29 31 34 29 26 33 31 29 36 32 29 36 38 27 37 40 40 37 31 30 32 36 32 18 33 39 38 33 35 41 37 34 33 32 37 31 24 27 26 33 40 34 30 22 27 36 33 40 36 35 49 33 27 41 36 38 30 40 39 43 24 36 43 31 28 32 25 36 29 38 29 43 27 41 32 28 37 39 38 37 30 33 28 25 30 25 26 37 33 31 28 33 32 31 35 38 29 36 36 32 31 28 22 35 27 35 26 38 27 42 32 35 23 32 28 27 22 27 30 38 29 31 33 29 35 32 37 40 33 39 34 34 32 39 39 31 31 31 34 24 29 33 33 35 33 39 31 35 38 35 31 33 24 37 24 34 24 36 25 35 33 25 30 32 37 33 32 30 28 30 38 38 38 26 35 39 52 32 27 39 42 25 32 40 34 33 32 30 30 30 42 28 30 21 43 29 37 37 35 36 33 30 27 35 33 27 30 42 36 35 27 35 32 24 38 36 33 36 39 31 32 33 28 29 47 41 31 42 38 29 35 44 43 30 43 29 28 31 32 39 44 30 47 34 30 41 34 26 43 24 30 28 33 37 31 31 30 36 37 22 29 35 37 25 22 36 27 34 37 36 31 33 28 33 29 40 26 32 31 27 28 35 37 22 32 23 32 34 31 25 33 25 29 23 33 32 33 30 30 32 24 32 36 34 32 39 32 37 38 26 46 40 36 36 36 31 27 26 36 29 33 31 44 37 34 29 25 33 41 31 26 35 48 32 30 27 40 38 29 29 42 25 39 35 40 35 29 29 33 31 29 29 30 25 32 43 30 30 29 43 38 29 36 27 34 41 31 34 31 34 33 31 34 29 35 37 37 24 23 38 31 36 28 33 32 32 27 31 32 34 32 27 28 31 24 26 27 23 34 25 41 36 31 35 35 29 33 39 38 38 36 27 36 37 29 33 36 36 37 33 36 35 35 44 27 31 36 27 31 26 39 32 27 36 30 32 39 29 25 36 32 29 21 42 19 39 38 26 41 42 35 30 38 23 34 40 27 31 36 33 35 25 37 42 22 25 29 26 27 35 32 42 28 38 24 34 29 39 37 31 32 27 37 31 37 25 23 35 27 26 30 39 26 36 34 35 39 43 34 34 35 36 36 37 36 31 31 29 48 28 29 32 37 31 34 30 31 37 25 29 36 33 39 29 39 24 30 32 37 45 36 29 28 30 35 35 38 35 31 38 24 34 30 29 36 41 34 24 34 25 33 35 26 28 29 34 33 35 27 31 21 24 28 24 44 39 23 29 37 31 29 29 30 33 32 27 38 32 29 42 33 31 30 33 23 27 25 34 27 23 30 23 35 36 44 38 35 36 49 35 33 41 30 37 28 27 47 33 42 35 28 29 27 29 38 29 27 29 29 32 35 32 27 34 35 29 37 39 28 30 33 32 26 30 27 42 20 29 30 38 30 25 27 31 23 27 31 36 39 31 36 41 35 30 30 47 31 34 33 32 43 32 39 36 29 39 31 22 38 39 35 24 29 29 29 41 31 33 33 35 29 23 28 25 29 43 25 24 40 21 25 29 33 26 32 29 26 36 31 37 29 33 39 35 32 36 38 26 37 31 36 34 27 28 37 32 24 39 37 31 26 47 34 42 29 37 45 33 35 28 38 22 37 31 38 27 40 30 37 26 30 31 32 26 31 26 32 30 37 24 46 44 34 39 36 42 33 32 45 36 36 43 31 48 36 39 37 33 32 35 37 35 30 32 31 30 37 31 34 28 40 32 30 43 28 45 29 25 30 29 30 27 43 32 41 21 32 34 31 29 34 31 37 36 25 44 33 36 25 34 36 50 39 42 32 34 34 39 27 28 28 19 35 38 33 29 33 39 33 38 24 33 34 33 41 35 31 35 35 34 42 34 26 39 31 21 32 30 37 31 36 43 30 31 34 32 31 28 35 36 39 31 39 35 32 36 34 35 28 34 30 34 25 33 34 35 33 33 35 34 43 32 27 29 41 29 30 21 31 38 42 21 30 38 33 36 27 33 41 38 31 31 31 35 35 34 30 29 28 33 52 34 34 36 38 34 37 34 32 31 26 34 33 34 26 35 28 39 36 26 28 29 35 30 29 29 34 38 26 41 31 32 29 33 37 27 32 31 32 38 37 34 25 32 38 38 42 38 36 34 29 36 30 27 34 30 37 30 31 19 33 40 27 37 41 29 36 28 26 39 33 44 41 35 29 28 38 30 31 34 29 43 36 27 30 31 30 34 34 38 36 38 30 27 30 35 34 30 25 28 30 45 33 25 36 27 34 35 33 36 23 27 31 34 25 35 30 45 26 37 37 28 41 39 29 34 28 33 30 32 23 32 34 24 27 37 34 30 33 41 30 36 29 31 33 33 37 31 34 26 33 25 33 27 35 31 27 32 31 34 30 34 36 39 39 33 36 27 36 37 33 29 32 30 34 33 34 34 25 35 24 37 30 32 26 31 33 37 34 33 22 30 44 19 31 31 23 23 21 38 28 32 40 36 35 39 37 32 32 40 36 38 33 33 26 31 41 26 47 40 28 30 36 39 39 42 31 29 45 39 39 28 37 29 39 31 33 29 43 50 31 27 34 32 32 40 33 29 42 42 32 33 44 22 38 24 26 30 34 37 28 31 31 34 37 36 29 33 35 37 28 32 31 37 35 52 35 31 24 29 38 36 38 40 28 37 30 30 27 30 33 47 39 32 41 35 37 33 29 31 39 39 36 29 35 28 37 37 34 40 29 21 29 39 23 37 27 32 38 31 25 34 33 33 34 26 27 37 36 33 26 35 34 39 32 39 27 32 39 28 39 43 33 40 30 30 37 32 27 34 37 30 35 31 34 25 32 28 23 36 30 34 31 29 25 32 30 50 31 33 26 36 31 37 37 36 29 26 30 34 30 32 26 28 27 36 33 28 39 33 33 37 27 37 33 35 44 39 34 40 36 34 27 30 30 29 40 31 43 27 23 35 47 37 24 31 30 29 31 29 34 38 38 30 26 33 21 19 22 40 34 28 33 36 30 32 38 26 45 26 29 33 34 29 33 29 32 36 30 32 29 32 31 32 38 35 33 32 46 39 29 32 38 45 29 27 33 32 37 31 34 27 28 43 32 32 38 39 42 34 31 26 34 31 35 42 36 32 27 29 41 34 33 27 38 47 41 29 33 30 33 34 28 30 44 26 28 34 37 24 37 43 36 32 22 32 40 36 48 32 40 21 24 35 27 42 32 36 41 40 37 52 31 35 31 32 46 28 34 38 28 36 32 29 30 38 29 32 41 35 30 40 29 35 32 28 32 25 39 33 32 41 27 29 34 42 24 42 35 28 28 32 28 36 32 31 34 35 35 31 46 32 34 32 30 31 33 30 32 25 31 37 35 32 41 23 38 30 35 41 36 32 33 26 35 30 45 29 27 39 23 30 33 26 38 42 40 39 31 26 33 32 34 42 34 29 41 31 31 29 33 42 36 30 44 32 33 33 26 33 27 24 40 43 37 33 26 32 40 23 45 30 21 41 24 29 39 45 22 37 40 36 39 40 33 37 30 42 26 32 34 33 37 39 24 31 37 25 24 33 36 37 34 36 35 31 26 31 24 28 35 27 33 33 36 37 32 39 30 38 25 41 29 35 39 20 33 35 33 25 30 31 24 48 24 30 30 38 39 29 40 39 28 21 27 36 30 26 43 23 34 36 24 40 44 26 35 43 30 26 26 38 36 33 33 36 34 24 33 36 34 29 26 52 38 31 28 35 33 32 37 30 30 29 30 39 30 31 33 34 36 32 28 38 26 33 27 33 33 31 35 40 45 25 30 34 34 34 32 26 31 37 31 33 27 35 25 33 28 46 38 27 30 46 40 33 36 34 33 28 38 26 40 29 35 33 30 30 31 30 36 28 30 24 43 34 30 40 28 31 43 39 29 33 24 26 24 42 38 40 26 40 28 35 36 31 40 38 32 27 27 34 39 31 26 25 29 31 27 26 30 37 29 37 35 31 37 35 42 30 29 29 27 25 31 39 42 26 30 31 30 36 33 31 31 43 23 37 28 38 34 36 32 30 33 25 37 32 29 43 31 33 32 31 42 30 33 36 41 38 39 35 34 22 48 44 29 31 24 35 35 39 26 24 29 34 30 39 33 33 25 35 38 27 38 40 39 31 37 32 29 32 38 31 20 30 27 38 45 26 24 28 40 35 36 32 37 34 23 34 40 31 31 33 32 26 29 36 30 30 41 38 27 29 32 35 36 31 37 30 29 33 28 33 30 32 36 26 34 30 37 34 41 41 21 37 34 31 32 29 36 31 28 33 29 24 27 37 27 28 30 40 33 35 37 25 30 29 33 30 26 28 39 39 29 33 28 28 27 27 32 40 27 39 39 37 30 42 30 32 31 30 33 31 29 32 38 31 45 27 44 27 41 32 34 38 22 33 40 24 35 33 38 29 35 48 33 31 30 31 40 29 37 31 32 35 33 39 46 32 40 33 37 25 31 38 29 24 34 28 35 29 30 28 39 41 46 35 29 38 48 35 28 38 29 27 29 21 39 44 34 37 35 34 33 31 34 32 24 36 22 34 30 33 36 32 30 51 30 32 36 38 31 32 26 33 43 41 28 34 38 25 33 34 33 28 22 42 31 36 31 34 30 26 42 27 39 32 40 31 36 25 35 30 37 31 37 33 29 25 26 35 33 34 37 31 34 38 33 36 34 30 26 32 31 33 37 37 31 24 34 25 37 29 34 39 35 35 31 34 38 33 35 40 36 35 35 26 37 29 41 32 22 31 39 39 36 26 33 30 31 32 41 35 25 30 40 44 34 22 31 30 30 34 26 30 29 43 42 27 33 43 29 29 35 32 34 39 27 34 29 28 26 36 36 38 36 40 36 32 26 32 21 30 34 46 38 39 40 23 32 40 32 26 28 35 31 42 33 37 41 40 27 38 32 33 27 33 26 33 38 37 31 32 39 31 25 34 35 34 31 21 29 36 23 33 27 31 31 42 32 26 34 35 44 33 22 33 35 36 32 27 36 27 37 37 31 37 38 27 31 30 40 39 30 36 28 42 28 36 30 41 34 40 32 32 25 40 32 28 26 37 27 32 30 34 32 32 29 23 30 35 29 31 26 30 31 41 23 27 25 39 31 32 39 26 39 33 26 39 30 43 27 37 26 30 40 37 28 29 31 37 26 29 25 32 29 31 34 22 39 28 37 34 29 33 34 40 27 39 34 31 39 43 22 37 32 24 47 33 38 37 33 24 32 34 33 30 27 33 38 29 42 33 31 37 44 33 33 31 28 18 32 39 43 25 39 33 25 28 27 37 24 32 31 34 30 30 21 32 39 33 35 26 37 34 33 34 33 32 33 40 31 45 36 29 34 31 28 33 33 32 28 32 38 45 23 34 41 26 31 31 26 40 25 35 47 27 31 28 32 26 30 34 33 43 23 42 38 21 24 37 42 31 25 40 45 26 27 27 41 37 24 31 32 32 40 35 25 36 27 36 37 28 31 34 32 34 46 24 31 25 27 29 28 37 19 40 38 30 24 38 27 26 35 35 35 36 38 45 34 39 35 33 41 32 18 30 42 39 29 28 44 35 46 29 31 26 29 32 29 37 40 31 36 35 37 27 39 32 46 39 22 32 31 25 33 36 36 28 36 48 27 25 28 34 30 32 28 36 35 36 26 37 30 31 21 31 35 35 31 33 35 20 37 29 33 35 27 38 28 37 32 36 39 27 20 35 29 26 32 28 27 37 36 34 38 36 29 30 31 20 37 32 38 38 19 43 38 29 22 31 31 22 37 31 39 34 31 38 42 27 40 33 30 28 33 36 31 42 32 38 23 28 30 30 26 28 33 25 44 36 45 37 30 40 31 27 41 32 36 45 27 37 26 33 27 38 41 36 43 31 36 37 33 27 29 32 34 33 32 30 41 33 40 28 32 25 42 34 28 28 30 34 32 20 38 44 35 35 43 34 37 38 32 29 27 25 35 35 31 31 44 35 36 42 41 30 32 37 42 35 33 31 31 33 33 30 34 34 33 43 37 32 30 24 32 31 33 29 30 26 40 29 22 27 32 42 29 26 36 30 39 39 29 23 28 28 33 35 39 45 31 36 32 33 39 28 34 33 31 35 35 38 36 38 32 41 45 42 29 39 27 33 29 30 32 32 40 30 34 34 30 33 35 38 32 31 37 32 34 48 43 28 29 34 27 38 35 27 26 28 27 36 33 40 35 26 40 33 27 36 35 46 42 32 35 28 38 27 35 35 16 30 31 37 34 38 29 24 32 28 34 31 31 30 27 32 33 38 28 37 41 34 33 28 26 32 33 27 37 35 31 30 38 24 32 33 39 36 27 33 33 31 21 27 34 34 35 38 32 35 28 37 39 29 29 35 29 20 33 33 25 30 29 30 43 32 27 32 36 25 24 51 31 34 34 38 30 37 21 39 31 38 24 39 34 30 33 21 33 39 39 36 33 30 42 32 30 37 35 38 26 34 27 34 30 28 51 31 46 29 36 24 27 30 30 43 23 44 34 36 30 36 29 27 49 33 36 30 43 27 34 26 36 35 29 27 39 21 31 28 31 26 34 39 33 37 44 31 35 36 31 43 36 36 29 28 44 31 33 29 42 36 23 35 33 35 36 31 28 32 33 20 32 28 39 34 33 36 37 37 33 40 28 25 30 37 29 23 28 34 31 40 30 32 32 30 33 36 33 33 35 27 32 35 41 33 30 23 42 31 29 34 34 34 38 38 32 25 34 30 33 30 24 34 31 35 26 31 30 42 27 30 33 37 34 30 29 31 44 38 31 22 35 36 27 33 41 35 30 30 26 25 33 42 34 26 30 38 30 32 23 39 35 32 38 27 40 38 32 37 40 33 21 32 33 22 24 39 32 27 28 26 30 34 34 27 22 44 35 34 22 24 30 29 34 26 27 42 21 25 34 33 28 39 31 35 33 31 29 24 33 45 40 28 38 26 32 29 24 32 37 44 31 45 31 32 33 37 33 29 45 39 34 33 33 29 26 25 34 25 36 36 32 31 31 33 34 30 38 39 28 40 32 24 34 37 28 27 34 33 35 32 31 38 31 31 29 38 38 31 40 42 32 26 30 35 34 38 35 27 29 33 29 28 30 38 27 23 33 32 31 34 28 22 25 29 35 24 30 29 22 32 39 38 40 39 36 33 34 30 30 36 30 34 39 40 32 24 37 31 34 36 29 35 24 47 29 42 27 28 28 39 35 43 36 53 25 39 28 40 34 36 39 46 29 19 32 31 37 22 36 35 32 28 37 32 23 30 31 31 35 22 28 37 36 46 29 36 31 27 27 34 37 30 41 37 29 29 39 26 36 31 33 36 35 37 34 41 34 37 34 25 41 32 21 36 30 29 38 32 38 26 34 39 35 39 31 46 44 30 36 30 24 40 21 24 25 28 30 35 33 36 39 26 32 37 29 32 19 43 38 35 34 47 35 34 36 31 43 33 41 28 47 34 37 34 28 30 28 43 27 34 41 32 45 32 41 31 30 32 28 30 28 25 27 24 32 36 30 29 30 32 40 46 36 36 33 34 23 34 35 39 30 33 32 30 35 35 51 44 29 47 31 33 41 39 31 28 26 30 30 29 36 41 35 47 25 38 34 27 34 27 24 37 26 25 36 41 31 29 39 31 30 28 35 35 37 31 34 38 37 37 41 32 36 29 28 38 39 36 44 35 34 24 36 27 33 42 35 33 25 33 39 36 39 41 36 27 35 37 29 51 33 33 34 40 28 29 23 25 28 42 41 31 37 36 29 39 31 22 43 35 38 20 33 35 27 44 30 26 28 30 29 26 40 21 30 31 36 29 41 27 42 31 27 30 37 44 38 34 36 37 31 36 34 30 37 30 26 35 28 39 34 36 43 52 33 33 41 36 40 38 38 31 34 33 44 37 34 29 32 36 21 21 39 38 30 36 29 38 26 32 28 28 46 37 26 39 36 41 31 31 28 37 28 37 38 35 40 32 31 39 31 33 37 24 23 33 26 29 36 39 21 39 47 37 47 32 38 30 26 43 44 36 36 27 29 42 37 34 40 34 41 41 43 33 31 32 23 27 37 26 32 31 30 28 33 29 47 32 31 32 30 28 42 40 33 47 28 33 28 35 32 41 32 31 33 30 31 20 29 33 27 31 35 26 38 22 31 33 37 41 31 36 30 34 29 30 37 35 32 39 38 31 40 42 41 34 33 26 32 30 26 29 30 37 28 35 29 33 28 31 31 33 31 36 28 37 26 34 37 32 39 33 36 24 36 46 45 38 30 39 36 16 33 39 29 42 39 33 30 27 32 33 43 34 28 35 40 35 36 31 32 33 39 28 34 44 31 42 27 33 48 32 23 29 32 30 23 34 33 28 32 34 35 33 36 34 30 36 33 38 27 33 34 35 31 31 35 24 33 23 35 31 33 34 35 29 36 42 42 32 43 38 33 32 24 38 27 26 30 34 37 41 33 41 30 25 31 29 30 41 31 31 28 42 28 28 38 32 36 32 33 38 26 36 28 30 33 35 32 32 36 36 29 33 32 53 25 38 34 34 45 36 35 39 29 38 29 35 29 40 28 33 29 32 32 34 45 42 32 26 33 33 35 38 30 35 34 29 32 30 32 26 29 28 44 32 28 30 32 29 26 37 26 22 41 34 36 34 29 38 34 48 32 28 33 37 27 27 40 34 32 36 32 38 33 27 39 45 29 44 46 40 31 26 47 30 32 35 29 30 44 44 24 32 39 38 35 43 39 33 19 29 37 30 29 40 47 27 25 36 33 38 36 27 25 36 34 43 26 30 36 28 39 24 32 37 31 35 36 31 32 38 43 31 33 38 33 36 23 32 35 33 43 35 36 29 27 27 28 37 28 28 30 21 27 32 32 35 27 33 28 29 38 26 37 25 32 31 25 27 41 37 38 28 30 32 27 30 35 44 32 31 43 39 37 36 36 36 36 38 22 35 25 37 35 32 34 25 29 35 38 29 34 35 33 21 31 28 28 33 30 31 35 30 26 34 32 32 35 24 39 36 31 33 28 36 32 36 25 40 19 31 30 37 30 31 28 32 39 29 30 27 27 35 35 34 42 30 38 27 26 27 30 40 29 41 32 30 38 27 25 34 22 27 36 27 39 32 28 34 31 31 31 33 23 44 34 33 29 33 26 30 33 28 39 32 38 23 28 27 20 39 28 25 36 35 25 39 31 26 41 29 25 30 29 33 32 30 30 31 33 32 37 34 34 38 32 29 35 27 25 39 33 33 42 44 34 36 28 44 34 39 29 37 27 27 36 38 40 39 35 33 32 49 35 31 39 30 35 25 30 34 39 37 31 34 24 23 46 34 47 40 23 26 33 27 34 35 31 34 28 49 28 32 46 41 38 39 30 37 32 32 32 27 35 37 37 23 44 35 31 49 23 44 37 42 33 24 36 43 29 33 26 31 45 35 33 39 23 33 33 34 33 29 42 40 30 31 30 30 40 40 33 35 28 27 29 29 29 32 20 28 33 21 33 28 23 30 40 40 30 31 40 28 36 34 25 35 34 31 32 31 23 34 35 33 24 34 34 25 33 41 32 28 22 33 32 40 29 37 33 25 34 34 27 37 29 27 31 29 28 37 41 36 28 48 34 27 35 38 35 22 43 33 31 29 27 39 35 40 22 31 30 44 34 33 38 35 37 33 33 33 24 35 29 34 26 30 31 21 30 29 41 22 35 26 45 28 32 25 36 36 34 21 38 29 33 22 29 47 29 27 35 29 34 38 39 32 31 35 35 24 40 26 32 23 31 36 37 23 29 42 42 41 34 33 37 36 24 38 41 49 33 41 26 26 32 30 36 40 29 24 24 33 47 34 34 31 41 27 37 27 38 26 29 35 31 40 31 38 28 42 38 27 34 42 37 41 40 25 36 34 27 32 35 34 36 30 30 37 25 45 33 32 35 31 30 30 36 34 38 34 35 35 38 27 31 32 29 29 31 35 38 35 26 26 33 27 28 41 37 32 35 27 35 35 36 40 38 25 37 41 28 38 33 30 35 22 34 24 26 33 28 37 31 32 20 32 37 35 34 27 38 29 47 35 39 31 25 29 28 42 28 36 42 34 39 31 40 26 39 33 32 39 35 28 32 38 33 36 29 29 33 35 35 31 25 32 28 40 36 26 28 29 24 28 28 27 26 30 48 37 29 29 46 36 38 28 25 34 30 31 37 24 34 31 32 30 37 45 31 33 33 37 31 36 30 31 24 27 44 30 39 32 34 40 45 31 37 28 30 34 39 27 32 29 36 34 44 37 43 38 24 38 35 35 29 31 35 50 28 35 32 33 34 35 36 32 38 31 27 41 31 20 39 34 38 32 32 39 43 35 27 33 38 32 42 29 31 31 40 39 37 24 30 31 49 32 27 36 29 37 31 36 33 32 27 36 37 40 24 30 32 24 27 22 33 35 25 36 38 21 27 36 34 43 17 39 36 36 28 28 32 32 23 28 32 41 32 32 36 31 35 36 34 32 36 25 40 36 44 27 40 34 28 42 40 34 30 28 41 32 42 45 22 30 35 34 29 36 32 35 42 28 28 31 41 32 37 39 25 30 42 30 37 34 24 30 27 33 30 31 26 33 41 32 35 31 35 37 28 29 37 33 32 35 29 34 29 34 44 27 36 35 34 30 35 30 36 27 26 27 29 21 44 24 36 23 38 27 33 35 50 36 43 27 39 41 47 34 27 44 39 24 30 34 43 32 26 31 27 34 32 33 43 26 25 35 36 33 27 31 33 30 32 44 29 33 19 29 29 18 34 32 32 38 29 31 29 29 36 32 36 32 35 30 36 38 34 33 30 30 26 35 35 27 34 41 32 26 27 35 37 46 28 36 31 28 28 42 32 36 32 30 39 31 43 35 42 31 37 41 28 34 27 25 34 33 25 36 34 36 26 39 29 33 39 33 35 38 26 33 27 29 29 36 30 43 36 38 34 38 29 27 41 30 29 28 37 28 32 19 23 32 22 35 32 32 38 27 38 32 30 43 28 36 34 30 27 32 31 38 50 35 32 26 27 29 33 34 22 41 29 25 21 33 38 32 34 28 34 35 40 33 39 33 35 31 36 25 23 39 30 40 39 37 38 43 42 41 34 37 38 21 45 36 33 36 44 36 42 24 34 40 29 25 25 29 30 36 33 32 35 34 36 37 30 33 47 32 38 37 29 27 44 33 28 39 35 32 31 32 36 35 32 41 38 34 30 33 39 33 32 31 37 33 33 33 25 37 28 24 31 24 30 35 32 38 38 41 34 28 40 35 29 28 42 35 33 28 34 29 31 39 24 35 35 28 33 23 30 39 30 33 32 30 36 35 28 33 36 42 37 44 36 36 37 30 44 30 40 38 34 46 29 26 33 51 39 22 27 42 35 34 33 34 27 28 35 34 36 33 31 26 31 35 40 33 39 30 28 32 38 32 41 31 29 36 41 30 33 39 39 26 33 31 29 30 28 29 37 40 32 38 33 23 26 32 24 30 27 28 37 38 30 36 27 29 35 28 27 42 34 33 46 37 43 33 34 29 42 34 33 28 24 28 47 36 51 33 35 34 34 38 37 39 31 46 36 38 29 30 24 42 32 34 23 39 43 34 27 41 35 36 33 37 43 30 31 33 19 39 26 34 26 35 34 34 38 36 39 20 28 35 36 30 33 39 29 37 25 33 24 42 32 32 29 36 21 27 24 28 39 39 27 38 34 36 31 39 30 36 27 39 31 31 29 36 39 38 32 35 30 38 45 28 26 30 29 32 33 20 30 42 40 43 31 32 33 23 43 33 36 27 32 32 31 27 34 34 20 30 34 38 28 37 31 33 32 34 39 31 35 36 27 25 29 24 35 37 29 30 32 34 39 29 34 27 44 24 37 40 31 32 34 37 28 38 41 39 26 32 37 29 29 30 31 30 29 33 41 33 30 30 23 38 27 32 30 35 36 41 35 30 34 35 31 32 24 46 45 34 39 41 30 40 29 43 31 35 38 32 33 39 26 34 40 38 24 32 34 29 37 25 29 41 40 43 37 32 41 34 35 29 29 31 35 32 30 30 33 39 24 29 29 34 39 33 24 32 34 32 30 20 41 34 22 31 25 32 26 31 30 29 35 37 39 27 34 38 39 39 44 40 34 35 37 41 35 25 34 34 39 29 32 32 41 33 30 31 40 21 33 30 27 25 35 33 39 30 33 37 34 36 26 32 39 42 39 23 27 34 29 35 28 42 41 33 27 36 33 32 37 34 39 25 34 28 32 31 33 31 30 22 26 40 35 36 28 35 31 32 34 34 47 34 34 43 43 35 35 31 32 19 48 40 37 28 30 23 33 34 39 36 33 27 38 36 36 34 39 28 36 34 25 29 41 30 30 48 29 34 33 21 31 42 36 35 44 27 26 26 32 39 32 23 31 39 32 42 32 30 28 31 31 29 28 34 32 39 31 40 31 35 37 35 38 36 27 36 42 38 50 35 30 30 39 23 30 30 31 36 37 35 25 32 30 26 38 35 34 42 41 34 34 34 31 29 34 30 32 28 39 24 33 38 34 31 31 46 35 39 39 30 43 31 26 25 29 42 38 36 25 33 27 39 26 39 31 37 37 31 42 25 28 35 43 32 27 32 33 37 22 38 34 33 33 28 31 39 37 30 42 29 43 44 37 38 31 25 26 29 27 38 37 43 29 35 32 39 36 30 34 36 32 48 37 36 33 36 38 34 40 29 39 24 42 30 43 24 43 35 34 26 28 42 39 36 33 34 43 29 35 43 32 34 34 32 30 34 36 30 37 25 33 41 32 32 42 34 33 32 35 24 24 30 35 34 27 25 31 33 35 34 33 28 36 28 31 41 30 46 33 39 34 37 34 29 39 34 34 33 25 36 41 36 35 39 28 30 32 28 35 38 36 29 35 25 25 39 32 42 30 37 26 30 33 28 21 32 34 33 32 29 29 44 29 38 36 35 42 30 33 37 39 33 27 37 29 30 34 36 33 27 22 41 24 37 34 31 31 30 40 26 34 33 31 27 36 28 31 30 38 30 36 29 25 30 26 32 35 33 36 37 39 41 40 39 31 41 24 33 37 34 32 27 44 20 49 43 29 36 32 27 36 38 39 33 32 41 36 33 35 23 39 33 30 35 35 30 43 35 29 32 38 30 26 41 36 29 38 31 18 36 39 34 29 31 37 36 41 48 34 32 39 37 34 35 49 42 27 39 29 46 37 27 38 33 43 40 29 37 34 38 28 29 35 19 34 24 32 39 28 30 28 48 36 32 30 29 36 32 36 37 32 33 36 34 39 27 20 19 44 41 28 38 34 32 37 43 31 25 35 31 38 37 38 32 35 26 32 28 42 36 28 24 28 31 37 49 38 34 27 37 42 27 31 38 34 34 24 26 35 41 26 35 30 47 30 28 42 37 34 41 20 41 23 33 27 34 40 22 34 39 32 28 40 27 34 24 32 30 25 31 23 34 25 38 28 46 31 36 33 28 42 28 30 23 42 39 39 36 36 35 42 43 37 28 33 39 35 29 34 34 25 37 29 28 35 26 41 29 39 42 28 38 38 22 36 38 42 33 30 33 28 37 32 38 29 45 30 34 39 20 34 30 38 38 40 36 33 26 30 29 32 34 40 34 26 29 37 29 37 39 36 34 40 30 32 37 26 31 30 28 35 29 34 24 39 22 35 26 36 31 31 33 39 23 34 33 32 33 37 34 41 30 45 27 29 40 41 53 39 30 28 39 34 34 32 38 34 25 39 37 39 41 37 33 32 29 39 30 39 30 37 34 34 35 36 26 31 46 30 27 39 44 39 24 31 37 29 27 33 30 41 38 37 38 36 34 35 35 27 29 33 42 40 34 38 28 35 25 29 35 33 21 30 35 38 34 28 24 33 34 35 35 29 34 39 31 37 31 31 38 38 23 40 34 42 29 27 29 32 24 33 35 31 30 36 37 18 26 39 27 38 29 39 30 21 30 40 37 33 42 36 32 32 36 34 33 30 29 32 28 32 29 44 31 47 38 33 29 36 28 33 33 30 40 31 39 29 21 39 33 34 42 42 36 37 34 33 40 34 49 26 23 36 41 31 38 26 28 27 40 25 30 29 40 36 29 32 36 38 30 27 37 37 31 27 26 49 18 38 31 43 32 34 27 29 34 28 33 31 30 22 30 35 39 40 28 42 29 30 22 31 25 37 34 33 37 33 38 44 34 36 23 30 22 43 43 34 28 37 41 31 31 42 27 38 38 23 26 26 30 30 40 33 25 42 24 33 33 29 32 50 43 37 37 29 35 38 33 31 31 37 31 28 29 34 37 46 36 34 23 30 39 37 34 33 27 26 28 24 27 22 29 37 33 29 34 43 25 44 34 32 35 48 38 33 39 36 33 29 35 35 30 30 26 35 40 31 31 31 24 33 28 29 38 22 43 29 42 38 34 32 41 30 36 37 36 32 42 27 40 34 37 32 45 40 36 31 26 34 38 28 25 34 41 34 42 32 35 34 25 19 30 41 32 36 26 34 31 28 36 30 28 30 28 33 34 42 29 29 35 35 38 34 34 28 29 29 33 30 26 38 39 41 49 31 26 35 30 28 31 41 34 38 25 24 28 27 43 32 29 26 37 39 31 37 29 29 34 34 29 35 34 35 33 32 36 34 38 36 32 38 39 38 20 41 40 29 35 30 28 48 39 31 38 25 34 40 35 36 54 25 40 30 40 28 29 28 35 36 27 43 43 29 30 34 36 31 31 41 32 33 34 34 32 41 37 29 47 35 29 37 35 30 34 31 33 32 27 32 26 32 33 29 28 32 29 44 37 45 23 40 34 41 32 31 37 24 35 29 29 29 26 35 24 29 36 34 24 33 35 32 31 34 39 31 37 28 32 33 22 36 28 24 30 45 36 21 34 36 29 38 35 27 30 37 23 27 29 40 37 27 29 27 29 34 38 31 25 34 38 50 29 31 33 31 41 35 23 39 33 30 26 25 42 34 25 22 34 36 30 30 28 31 39 33 31 30 35 33 45 29 44 40 31 31 32 44 33 25 33 33 29 38 32 27 37 29 37 30 30 29 26 24 30 19 27 43 35 27 41 37 32 22 34 33 27 32 39 34 31 42 32 25 31 24 32 29 29 38 31 36 29 44 33 28 35 30 30 31 26 28 34 28 36 37 33 36 28 26 29 31 28 38 33 29 34 51 29 34 38 34 35 30 28 30 36 23 34 37 38 35 28 29 30 41 37 31 31 31 40 35 36 26 34 38 39 48 23 31 42 36 33 29 38 41 39 36 29 31 32 32 44 28 28 35 41 44 26 37 27 38 27 33 30 36 30 26 35 37 33 31 33 24 33 30 34 30 36 31 37 35 33 27 30 31 25 29 32 28 35 28 35 33 28 26 28 41 32 34 29 27 33 38 44 33 38 39 33 32 31 34 36 31 37 38 34 40 27 40 31 30 31 40 30 33 33 30 38 39 27 40 49 38 35 32 30 27 39 34 31 32 26 29 24 41 27 29 26 34 32 28 39 34 43 39 37 34 24 39 33 37 35 29 27 26 35 31 39 30 32 30 36 30 34 38 35 33 35 44 29 29 39 37 38 32 29 40 35 33 34 36 32 33 30 26 31 41 39 29 34 32 29 30 32 34 16 37 33 33 28 30 33 31 29 42 38 17 29 35 39 32 24 44 26 35 37 37 39 37 43 25 29 20 28 38 36 37 41 21 28 35 42 36 33 29 49 35 37 39 34 31 37 29 36 37 33 36 34 38 36 39 28 37 34 31 37 29 31 30 36 31 39 32 41 29 42 28 33 41 38 34 28 34 31 33 32 37 38 35 38 38 25 40 30 24 43 39 40 45 24 30 45 43 25 26 41 28 24 32 35 31 30 32 33 40 37 34 36 33 34 38 30 47 35 30 31 34 41 33 35 31 29 28 36 32 25 32 32 29 39 34 33 31 40 32 36 39 37 35 29 38 42 47 33 29 36 31 30 28 30 43 31 40 32 36 37 33 38 34 36 30 34 36 38 39 24 31 37 29 34 26 29 30 38 34 45 27 33 29 27 29 26 35 18 27 37 37 30 32 35 37 32 33 34 29 36 36 31 33 31 29 30 37 39 22 37 28 30 31 26 45 39 32 28 25 26 33 40 31 30 21 37 31 30 42 38 38 30 43 30 27 33 28 28 35 42 35 35 32 35 41 29 31 24 39 31 42 33 42 34 33 31 33 33 23 28 31 28 34 37 30 37 42 28 33 38 43 31 33 32 39 28 21 32 40 38 38 28 37 32 31 31 42 32 35 25 42 29 34 30 35 30 41 31 28 32 31 42 42 29 37 25 39 26 23 38 24 25 42 29 33 34 29 32 36 25 44 35 31 35 33 32 23 37 39 29 27 31 31 30 37 35 33 24 22 33 34 40 32 22 25 29 23 36 27 42 37 31 29 32 37 31 27 37 27 42 29 31 25 39 32 31 27 31 27 29 30 29 28 33 41 29 31 36 33 27 36 39 35 42 36 28 35 22 44 31 34 32 32 35 27 50 32 31 36 32 45 31 32 25 38 32 33 27 29 33 38 34 34 31 33 38 35 30 40 32 36 31 28 42 26 32 38 37 29 24 37 31 39 24 25 31 31 38 36 33 32 31 34 25 35 34 25 31 58 36 29 32 32 41 26 39 27 41 35 26 21 29 33 32 31 47 34 30 36 34 39 47 35 39 32 33 28 31 39 38 34 38 29 40 34 28 30 40 39 30 36 30 39 31 50 39 25 27 36 27 37 33 30 44 34 34 32 29 41 37 23 41 32 32 36 26 34 25 25 31 32 32 37 20 34 25 26 35 48 38 33 35 36 38 32 32 37 30 36 34 30 37 33 21 27 30 38 31 41 32 31 41 30 35 35 31 25 43 40 36 38 33 30 34 30 31 33 42 28 28 30 29 30 32 43 40 34 35 29 37 30 30 27 33 38 33 30 28 33 33 36 28 28 38 32 42 44 35 34 35 31 30 31 36 31 43 31 35 33 34 37 36 32 31 33 37 31 37 29 36 35 34 43 35 38 38 36 39 23 35 37 34 28 40 36 39 30 39 36 36 37 31 29 26 32 28 38 30 30 26 34 29 27 38 38 39 37 26 34 29 37 37 42 24 33 36 38 38 37 41 28 35 36 27 28 44 37 30 41 27 42 30 34 35 36 25 39 38 32 41 40 27 39 36 38 25 32 33 36 33 32 41 32 25 26 25 28 34 42 29 47 34 28 31 27 22 30 38 24 29 41 35 38 30 32 39 29 24 30 28 40 34 27 26 34 37 29 42 28 34 29 23 30 33 39 45 32 30 32 33 33 33 24 34 36 30 41 34 27 40 33 24 40 34 22 36 36 36 32 28 34 26 35 36 41 40 33 28 25 30 32 28 37 32 33 27 45 23 26 32 33 39 39 30 27 32 31 37 26 33 24 34 34 25 38 43 33 42 35 34 31 36 48 28 42 37 30 33 35 40 30 36 43 32 34 21 42 31 40 32 36 30 36 26 32 38 32 30 34 24 35 39 26 32 35 33 33 33 37 37 33 40 26 43 33 35 34 38 32 32 27 25 27 22 35 31 23 40 35 30 33 34 33 44 26 31 36 37 23 38 34 22 34 36 36 40 36 30 29 27 36 28 35 37 30 33 37 43 34 27 36 37 36 33 30 32 38 28 33 23 24 22 37 37 29 31 38 34 30 38 50 30 32 39 31 29 34 28 43 35 30 34 32 33 46 22 31 40 34 35 38 30 35 25 32 43 18 31 39 38 33 42 39 41 28 29 23 33 37 44 30 41 26 37 35 36 27 29 31 26 35 30 35 32 27 38 44 36 33 40 34 30 36 40 32 37 40 29 45 31 34 27 35 27 44 22 32 36 35 29 38 43 25 28 32 38 41 36 36 30 36 27 30 29 44 30 36 29 26 33 24 30 28 34 29 35 35 45 31 42 36 25 32 26 29 44 33 27 34 42 37 30 30 28 42 44 31 39 27 37 34 37 40 24 41 41 41 32 31 39 31 26 36 27 33 34 37 43 33 41 26 26 25 40 31 44 31 30 32 36 31 30 24 28 36 33 30 38 33 31 25 36 30 36 41 34 37 42 37 40 32 36 34 41 41 26 33 38 36 34 31 32 33 26 31 33 31 38 24 45 36 32 38 27 31 25 27 28 25 49 46 34 29 37 39 27 38 28 40 29 46 30 35 27 28 53 33 30 30 31 31 32 42 36 22 38 29 32 49 29 35 26 35 40 31 30 37 35 34 28 31 37 36 29 32 40 32 38 39 33 33 34 30 23 33 28 33 31 38 34 36 39 39 35 38 30 40 34 31 38 35 33 39 36 40 41 31 29 37 35 37 31 31 30 29 27 40 34 36 34 30 37 39 44 32 47 32 39 26 36 31 38 34 36 38 36 33 29 30 37 35 37 27 32 35 34 26 29 32 38 31 27 34 26 39 34 39 38 29 44 39 27 23 38 36 30 32 37 29 28 35 38 36 35 41 32 41 35 37 31 37 31 35 28 32 35 37 30 34 27 43 27 28 29 32 27 38 35 31 32 24 34 38 29 31 35 28 31 25 26 42 33 24 32 33 29 34 26 29 38 40 33 35 29 36 41 31 38 25 37 40 31 28 30 35 35 28 32 40 36 34 31 34 27 29 28 36 27 42 33 23 30 36 30 36 31 39 32 32 35 36 35 30 25 33 34 38 25 35 42 33 41 29 34 35 23 41 30 34 37 37 24 27 30 34 28 31 30 39 34 28 23 46 39 50 29 35 26 38 29 43 22 31 37 31 23 36 32 23 27 33 31 31 33 40 23 32 33 54 29 29 27 33 31 35 32 33 40 25 39 27 32 36 33 30 30 31 46 39 36 35 37 32 31 23 31 34 44 39 32 28 30 42 32 32 50 27 38 32 31 42 32 32 33 32 34 37 35 45 40 34 35 28 30 35 39 29 26 29 23 34 20 33 40 30 30 26 36 37 25 29 32 25 35 30 28 32 40 38 34 28 37 25 29 36 37 36 27 31 32 41 47 32 31 27 31 30 39 28 22 38 29 31 25 23 26 26 43 36 29 32 28 35 40 40 39 30 32 30 31 25 40 28 27 39 38 27 23 30 31 29 34 27 48 32 27 32 33 26 35 39 38 37 24 25 26 33 33 34 20 40 32 39 31 40 24 22 27 32 26 57 23 29 31 38 32 31 33 34 34 28 39 25 20 24 28 24 30 29 31 31 34 29 40 21 29 29 34 27 28 32 44 35 31 32 45 32 41 39 35 39 37 31 34 30 39 31 30 26 28 49 29 31 37 36 28 39 30 32 29 31 20 40 43 34 32 36 24 38 36 38 41 39 32 36 35 31 37 37 30 32 31 34 37 39 33 31 34 42 39 35 31 33 33 37 46 32 31 32 35 52 24 25 36 30 30 32 34 30 43 26 30 28 37 29 34 24 33 28 40 31 21 38 31 39 33 37 35 34 36 37 32 44 39 27 35 28 39 27 37 25 33 40 19 29 31 38 24 33 32 29 44 37 36 30 29 37 33 38 26 38 34 33 28 29 28 22 40 42 28 38 27 26 35 32 34 37 31 30 43 32 42 25 32 25 38 27 35 31 32 25 28 37 38 32 37 38 32 38 31 37 35 32 40 32 26 32 46 42 25 32 32 40 29 35 29 41 30 27 29 36 31 26 30 39 33 28 39 25 33 20 32 33 30 32 27 35 32 33 25 38 37 26 38 32 24 29 40 42 29 29 39 36 41 29 32 38 37 36 34 27 32 42 31 35 26 26 46 44 42 39 30 27 29 37 32 38 32 22 33 35 40 36 34 35 35 30 36 40 38 40 26 30 35 43 39 35 32 28 41 41 24 28 33 24 35 31 38 28 37 26 33 40 40 30 39 25 39 27 32 33 40 26 21 28 24 35 43 39 24 37 29 34 28 37 31 28 40 27 37 36 28 30 39 32 23 30 23 38 32 26 27 47 41 31</t>
-  </si>
-  <si>
-    <t>NIG(104.55948104893824, 56.536174852670456, -3.9402193479615244, 395.8298115786366)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">279 268 239 240 216 297 238 247 342 267 287 212 186 307 189 311 284 265 219 239 292 236 280 287 165 318 256 279 333 206 160 284 168 264 306 234 167 256 235 309 270 227 174 217 292 206 279 295 231 282 287 253 271 199 201 199 131 321 153 232 244 210 240 213 332 229 226 356 287 230 216 275 232 132 233 256 248 236 204 319 275 288 213 226 271 274 157 195 231 304 208 206 339 289 305 144 286 224 221 267 284 300 331 245 251 163 207 261 223 316 238 273 237 238 254 202 224 295 256 235 271 296 232 204 283 205 238 246 238 279 276 253 329 258 273 283 269 272 229 198 291 240 335 258 182 271 199 267 268 249 213 320 258 331 211 258 236 239 229 210 252 261 300 177 241 290 247 201 216 244 328 271 291 230 175 265 236 319 227 230 318 119 269 162 287 270 303 237 296 228 317 181 269 234 313 206 304 275 217 202 210 245 221 249 357 307 302 254 265 241 240 187 237 303 276 224 284 266 164 221 262 237 406 178 300 259 278 236 207 234 340 195 305 255 210 240 293 256 300 305 286 206 270 350 227 267 284 325 291 276 307 196 195 201 233 240 270 362 128 245 212 264 279 259 229 336 279 273 200 262 193 302 182 273 200 316 304 362 251 299 255 247 211 383 270 152 264 243 350 243 177 284 253 227 226 216 265 214 180 227 335 365 195 281 207 225 318 263 162 238 260 287 263 224 238 201 317 254 205 220 299 287 265 208 186 216 322 223 272 222 161 318 287 289 234 226 255 374 361 209 256 199 249 249 151 298 183 226 181 254 212 303 151 299 275 205 262 325 245 402 199 261 223 241 226 240 319 318 283 355 192 315 224 197 306 259 182 187 185 313 152 261 367 211 259 229 310 289 290 193 249 334 239 166 324 198 199 346 216 254 257 245 233 294 239 276 307 275 292 200 245 231 245 266 311 216 120 250 264 172 253 237 272 220 212 299 203 182 337 211 201 199 248 278 222 307 206 223 279 302 221 208 346 219 303 234 182 340 198 322 267 255 263 246 286 200 208 266 143 226 288 358 197 185 279 323 234 287 207 238 231 236 270 198 228 294 190 180 240 298 114 263 214 263 342 238 263 222 224 323 208 299 326 196 195 327 89 273 199 265 201 324 274 249 260 240 247 238 282 279 281 258 258 244 317 294 301 242 325 238 222 348 296 339 250 160 189 265 269 264 315 211 209 269 218 193 234 199 298 243 244 247 283 281 206 190 209 267 273 235 296 273 201 267 244 203 370 182 256 206 276 302 231 256 276 246 300 197 226 280 218 225 237 286 252 272 270 266 237 234 256 234 280 189 240 285 227 319 253 249 232 340 317 134 323 336 244 291 233 245 276 219 266 284 195 191 261 255 224 279 250 230 244 157 257 353 346 203 284 256 238 278 234 169 240 284 292 241 266 255 287 219 207 182 265 263 208 272 310 161 220 322 233 227 192 203 248 277 358 205 200 220 311 229 249 185 233 249 271 241 376 201 234 208 287 221 249 127 295 272 332 312 206 250 189 287 253 251 168 299 262 244 235 223 214 162 254 336 322 232 244 205 176 217 236 213 257 253 199 204 269 260 268 191 234 219 285 267 266 321 204 248 227 273 193 313 252 189 365 250 277 298 177 249 303 323 184 226 206 171 289 194 257 270 270 192 276 342 207 247 292 220 160 266 392 273 196 241 276 258 222 289 230 184 245 183 211 173 264 202 256 314 273 227 267 281 187 239 251 193 347 268 290 326 235 242 270 232 209 221 198 296 305 147 323 325 232 176 254 187 193 253 313 239 269 290 203 206 278 212 275 269 360 202 268 359 176 272 274 278 253 241 180 162 241 160 305 301 216 267 273 307 276 210 193 215 248 271 292 221 310 173 254 253 231 195 247 264 145 253 197 325 277 262 259 269 175 307 239 297 320 277 137 290 130 276 256 167 342 142 230 320 190 339 246 154 182 210 236 242 229 270 247 325 237 259 343 192 351 207 181 298 236 223 256 234 279 184 228 347 275 207 214 206 271 227 171 225 254 240 236 260 200 236 269 222 222 274 251 260 340 163 281 187 254 324 224 298 219 221 132 271 199 198 277 274 253 275 251 272 282 279 240 212 152 249 202 257 320 226 211 256 204 259 257 200 288 322 229 308 131 211 287 255 225 201 257 211 232 189 230 302 288 175 287 280 265 207 290 256 217 236 298 216 275 294 222 279 331 217 285 138 273 329 181 250 288 239 176 241 162 274 252 300 209 241 352 192 190 225 274 197 336 283 264 285 206 263 223 233 238 215 322 232 241 260 231 243 179 210 280 156 287 357 230 291 269 235 237 310 394 194 293 303 200 218 217 224 271 279 292 200 204 206 300 251 248 246 271 259 291 210 272 239 316 288 230 203 254 285 221 284 257 192 308 245 295 271 178 237 274 214 248 297 223 196 244 170 197 298 223 175 303 370 216 255 300 155 258 203 231 225 270 262 191 299 297 335 228 256 225 317 215 181 276 216 176 212 263 231 302 250 262 276 221 191 237 264 246 287 252 232 255 304 275 283 331 266 258 193 196 177 265 209 203 303 281 269 235 266 307 296 204 234 275 303 282 171 152 118 281 246 254 229 244 265 304 222 264 207 266 382 235 225 310 252 334 200 367 304 350 191 247 371 293 215 232 112 230 291 286 231 348 191 326 225 239 321 269 268 238 264 226 275 194 254 189 194 272 251 204 193 221 244 211 283 189 202 299 315 235 257 211 219 235 210 290 205 261 160 236 285 356 142 278 203 216 194 173 211 351 230 235 309 254 200 234 295 298 254 320 254 243 246 228 341 249 168 162 273 201 183 297 286 259 168 312 227 228 355 260 264 252 165 232 194 257 174 276 201 241 282 155 238 261 343 227 266 186 242 205 261 335 266 177 318 244 348 310 194 260 300 171 227 271 308 231 223 266 193 206 295 254 234 124 309 152 237 253 233 252 349 300 241 289 266 200 226 271 249 262 271 273 264 236 303 306 297 241 274 236 213 287 194 278 387 238 256 293 254 211 268 296 312 220 272 271 263 285 223 341 306 271 328 263 220 343 216 222 252 179 157 263 236 301 289 265 251 278 330 171 168 273 303 237 163 301 218 230 242 252 271 246 179 316 223 279 227 227 302 223 227 279 275 187 276 148 221 182 243 226 200 236 248 141 312 267 202 322 251 280 158 254 305 248 218 289 259 265 288 150 346 372 236 249 213 292 211 209 332 270 285 283 281 277 211 222 175 237 271 273 225 233 338 267 270 182 292 288 148 276 331 204 394 262 318 185 194 223 242 240 170 253 240 194 257 238 257 227 287 255 243 201 165 198 264 263 264 235 210 228 261 191 293 231 309 299 227 180 205 259 242 311 230 174 257 258 228 238 250 229 209 149 196 249 233 174 201 182 244 194 322 240 227 256 253 238 182 349 308 349 314 234 235 329 254 264 204 246 284 228 293 333 202 243 191 214 262 202 204 165 290 244 228 290 244 296 260 247 217 275 275 292 134 296 136 240 346 206 284 262 249 260 295 233 226 286 186 303 299 280 231 188 254 233 166 207 265 174 188 286 269 287 270 287 161 323 231 215 289 247 216 220 243 313 282 183 166 277 200 192 182 290 248 292 227 341 272 350 213 250 271 255 331 284 271 213 231 280 296 188 192 264 271 225 217 247 224 356 174 211 305 232 292 261 305 182 252 271 248 327 251 209 239 217 202 255 268 224 281 272 204 256 230 215 224 287 244 181 231 188 251 294 201 239 186 274 288 236 241 150 150 197 234 156 291 312 201 296 254 239 275 246 189 280 271 202 317 210 262 333 191 280 258 202 179 262 165 183 182 154 216 180 286 265 323 269 186 304 371 286 258 314 246 345 221 246 339 291 294 271 179 222 221 211 275 230 187 305 259 243 208 249 208 311 244 174 296 303 244 216 242 206 175 260 255 319 186 263 229 261 217 225 265 238 141 176 220 268 363 222 310 321 313 207 210 268 208 258 261 235 303 259 376 257 284 301 258 151 347 298 298 193 262 182 189 346 230 232 296 271 209 199 254 158 214 241 188 183 298 211 234 155 278 225 216 238 192 272 197 282 242 244 273 283 222 280 321 143 276 284 249 196 240 173 317 260 192 307 273 225 200 318 288 289 236 288 430 292 282 221 311 155 311 209 288 240 336 294 321 221 215 237 228 221 202 161 261 298 214 182 351 300 243 280 237 292 235 230 228 240 286 329 198 260 204 215 285 291 262 262 188 227 216 209 251 268 292 214 294 184 252 271 182 342 300 248 256 227 255 185 283 217 279 301 292 191 285 240 208 153 261 192 257 272 217 314 268 244 170 288 275 367 289 273 279 228 294 310 206 206 185 125 237 339 133 215 170 321 259 232 177 247 325 357 333 271 204 286 258 232 245 279 173 317 246 174 260 221 213 267 181 307 216 241 258 211 244 230 312 271 291 291 359 302 224 273 194 238 219 246 235 319 212 278 337 268 237 205 282 238 352 340 197 178 304 204 249 178 245 311 321 107 295 237 267 254 209 238 290 332 224 200 273 316 256 255 201 210 237 298 300 238 195 288 334 237 285 243 203 170 214 269 287 249 175 361 267 229 264 228 169 216 253 168 279 233 247 327 183 294 173 271 217 235 336 228 272 262 226 275 322 289 233 210 306 277 288 358 263 255 197 219 188 226 230 183 273 215 199 160 258 255 209 226 338 161 304 249 200 343 206 333 330 246 261 226 263 193 215 342 200 282 257 197 260 189 269 244 298 290 271 274 279 189 314 293 296 251 160 200 256 275 221 245 306 228 246 194 250 317 204 165 237 248 192 264 221 344 222 300 260 240 244 254 160 289 215 210 265 253 180 220 299 189 212 186 226 197 233 253 290 262 257 220 252 266 330 273 308 194 235 197 268 198 262 203 211 286 214 254 183 251 277 356 338 305 359 243 220 242 274 200 251 273 227 253 293 256 218 229 164 344 298 192 260 259 309 282 203 256 209 247 237 154 260 249 182 176 168 239 230 250 280 277 267 282 290 237 249 333 232 258 214 214 277 262 276 198 394 335 145 241 212 332 251 280 210 217 352 292 323 192 307 242 325 267 295 243 254 360 238 211 279 190 247 326 252 247 242 234 248 313 338 172 345 143 238 221 249 302 233 210 218 317 232 256 240 174 227 247 198 231 207 311 245 326 273 244 202 223 318 296 310 288 149 293 221 228 212 192 201 259 264 249 309 296 296 201 149 235 315 292 334 240 227 221 280 295 223 222 214 199 245 288 209 250 215 233 235 250 183 187 186 304 208 183 211 264 304 269 246 251 336 274 231 368 226 238 259 228 197 260 269 274 250 246 291 265 158 283 210 230 225 207 196 195 248 200 249 282 228 240 261 199 235 195 200 414 287 192 230 336 320 252 236 281 191 143 271 235 275 238 168 188 197 287 265 199 266 263 279 300 222 275 192 237 296 288 244 288 242 320 214 258 202 174 270 256 280 188 153 251 296 257 169 223 246 228 226 262 242 264 246 228 215 285 160 169 161 329 192 232 266 285 262 204 277 191 341 224 214 247 242 254 194 237 216 222 181 212 214 233 296 222 292 300 229 262 293 337 237 251 254 317 222 231 260 237 312 274 238 216 235 325 241 257 264 269 309 241 250 221 225 264 309 313 295 314 204 232 321 292 235 244 315 301 300 216 277 240 262 292 170 220 326 167 238 289 231 134 295 281 212 224 178 195 258 248 369 212 303 187 214 301 195 329 271 222 324 267 236 331 247 291 248 244 350 232 268 316 260 306 155 260 204 318 290 237 326 198 194 330 197 285 221 263 210 231 319 238 199 320 190 242 169 286 210 343 307 235 201 245 175 269 192 216 241 217 225 193 393 234 299 242 275 247 283 225 244 147 155 240 291 314 314 165 288 210 342 306 247 212 212 236 320 253 297 208 236 280 239 232 334 175 317 272 272 298 243 172 221 227 290 259 240 206 271 188 247 228 364 330 310 191 322 322 252 272 200 286 201 145 281 313 178 240 195 243 265 172 350 244 195 276 216 212 258 324 185 319 234 294 388 332 310 238 152 288 206 242 285 252 270 283 188 226 299 149 163 294 266 280 206 241 201 258 181 228 192 226 237 206 298 218 260 285 303 188 261 276 195 253 210 327 254 143 235 221 310 251 251 252 153 292 118 271 203 278 275 303 221 309 226 182 191 254 246 226 297 156 218 271 181 301 324 192 259 264 238 168 209 221 292 212 264 261 249 216 220 254 278 222 197 264 300 176 195 285 244 272 307 173 261 237 184 303 240 258 278 320 320 207 195 265 178 270 232 261 277 278 276 275 365 196 283 249 231 308 276 200 208 276 321 307 282 325 191 229 240 350 230 200 234 278 297 251 249 225 340 243 301 229 253 267 304 263 235 247 300 248 224 157 211 173 238 259 224 291 239 178 404 242 223 244 135 184 143 369 305 255 239 312 269 327 317 293 278 270 264 171 254 265 338 213 198 199 245 192 182 222 239 307 211 267 280 181 288 281 246 248 224 204 231 174 278 297 317 207 195 166 258 304 279 258 228 330 198 251 229 352 273 299 248 225 267 227 304 195 234 289 176 187 243 250 302 175 245 311 271 277 316 330 311 207 353 360 213 275 228 291 274 267 220 154 237 219 198 288 224 259 188 283 182 149 309 373 208 203 323 237 201 239 237 231 144 219 237 342 322 239 242 230 322 279 249 197 203 211 108 246 249 234 274 208 260 178 216 238 222 242 262 271 226 260 237 204 239 177 241 243 237 313 236 282 224 257 249 198 257 212 218 222 275 269 127 268 232 206 266 206 283 289 279 201 198 201 214 229 218 201 272 351 254 249 254 207 251 256 179 260 179 238 262 321 239 208 278 162 238 268 306 316 189 279 256 238 199 288 272 311 222 268 269 224 226 301 243 240 352 215 302 274 294 262 287 321 127 225 295 153 252 265 242 221 244 271 228 249 258 257 251 186 286 219 258 180 201 322 321 259 254 228 320 161 254 385 235 196 242 298 276 180 188 145 283 266 330 250 278 257 346 293 175 264 214 204 247 113 319 328 272 239 271 268 259 238 233 244 176 275 142 293 225 283 272 261 203 414 242 221 324 326 232 240 247 270 243 322 228 224 280 197 230 291 237 181 155 295 241 335 241 258 257 189 248 238 337 238 289 152 286 193 249 203 291 232 210 283 268 171 208 259 206 202 187 259 256 303 250 318 239 196 148 234 204 213 247 341 252 185 305 144 242 195 198 258 242 314 188 223 280 253 315 338 303 266 313 257 310 243 297 289 167 164 304 282 295 241 222 188 213 189 348 206 200 236 250 324 279 143 236 174 261 280 142 216 205 296 361 210 272 350 253 245 225 218 195 290 159 310 239 220 168 243 272 285 213 322 340 223 176 260 208 255 294 357 301 246 345 185 196 243 164 227 243 212 219 305 252 253 330 304 182 236 291 218 221 269 210 158 300 312 211 237 243 226 232 256 323 253 242 128 206 296 188 281 206 247 300 280 170 136 218 323 378 261 184 206 273 176 277 219 310 233 338 300 212 305 247 242 233 226 315 260 239 260 282 278 225 261 238 275 260 321 251 239 184 284 292 160 222 318 284 301 203 221 212 236 249 212 227 235 236 223 194 221 254 215 212 208 160 341 229 153 296 238 317 194 192 239 216 344 232 226 255 216 318 284 259 203 185 235 241 229 196 300 226 266 257 165 340 231 282 270 217 187 223 284 247 256 248 240 343 287 180 260 247 125 296 228 245 261 276 185 202 210 227 230 249 248 345 250 238 228 223 286 305 230 186 218 199 181 215 326 270 179 335 256 187 183 212 306 204 218 235 189 221 233 151 208 294 221 327 201 216 275 245 215 255 249 270 339 191 330 269 216 285 213 178 220 232 240 172 252 241 346 197 285 350 192 234 269 189 288 179 306 386 211 252 258 239 241 286 215 265 317 192 315 290 199 192 342 296 292 203 342 360 182 249 242 285 250 155 266 233 223 287 306 185 319 169 251 270 196 224 191 259 291 316 237 265 249 238 195 194 254 150 281 251 185 146 308 233 158 252 254 287 277 254 340 288 266 309 242 331 267 140 230 359 314 286 185 281 229 325 249 259 221 250 263 218 295 293 314 286 358 250 269 306 206 366 295 239 260 180 206 225 271 260 165 229 294 163 220 259 241 238 250 207 261 223 268 248 265 216 258 174 300 224 278 232 209 241 140 296 228 232 251 201 290 234 307 245 274 269 175 131 336 236 226 176 184 213 360 231 324 323 267 213 208 287 183 244 278 309 260 88 267 382 213 201 193 304 183 326 247 338 215 257 223 291 275 420 261 280 228 243 281 165 260 264 276 197 286 219 206 202 187 303 230 286 289 327 240 266 310 254 199 371 255 311 389 248 230 203 258 240 355 292 307 345 267 226 278 191 262 254 266 292 226 267 224 324 250 296 151 238 204 328 239 178 206 222 223 197 180 310 360 217 256 310 284 230 295 258 229 244 187 228 221 239 189 250 273 274 279 291 242 254 215 309 320 268 249 269 250 259 249 262 235 290 233 282 200 211 194 220 236 256 285 246 140 288 318 156 253 243 330 207 196 271 214 244 275 219 177 218 223 209 252 335 352 270 314 226 227 361 202 168 249 268 226 335 288 323 308 228 293 329 337 218 352 171 270 222 207 284 292 325 218 275 278 218 260 203 231 195 247 214 222 232 420 339 237 214 181 204 223 237 248 185 202 214 248 289 268 277 236 339 280 169 285 221 303 276 283 270 209 296 207 283 284 151 196 287 301 231 324 228 157 255 265 276 224 247 218 207 263 283 256 202 266 359 277 260 203 213 215 219 200 251 255 278 201 241 187 217 245 264 334 256 278 248 214 146 220 287 246 210 228 236 197 198 324 324 208 224 272 246 175 257 229 213 193 282 233 299 246 226 233 252 156 199 311 261 269 255 292 179 303 219 256 259 290 270 253 308 266 221 167 345 343 342 276 217 180 333 292 300 246 264 272 239 257 226 209 190 186 360 193 348 219 281 240 245 186 190 241 135 270 272 325 246 299 238 182 333 226 323 211 282 178 283 238 193 235 227 297 301 142 222 270 185 177 240 304 320 244 309 288 279 274 306 286 346 261 253 191 365 239 282 189 240 228 205 262 236 359 261 226 176 263 310 187 293 258 243 304 249 291 289 264 244 303 214 160 177 239 184 182 213 211 235 401 220 235 247 288 237 315 231 268 264 183 220 323 271 234 251 192 250 259 196 186 213 326 379 236 239 189 302 191 214 309 191 242 186 268 213 216 194 252 217 222 264 295 248 273 277 290 258 262 242 205 281 255 237 236 343 258 261 228 188 240 275 280 279 236 262 337 256 177 199 280 232 201 301 195 287 371 242 296 245 262 167 221 196 205 199 329 218 219 213 195 228 304 288 226 183 295 216 281 172 209 185 168 275 247 245 349 205 239 248 264 208 262 234 300 258 234 242 181 204 329 340 224 325 125 196 287 256 288 218 365 262 283 219 237 242 324 260 226 388 269 274 241 236 179 185 201 210 219 305 300 175 205 258 238 263 259 283 246 234 257 239 171 207 332 174 217 293 264 288 259 161 370 267 221 225 248 206 169 304 296 193 221 225 240 293 342 280 244 198 248 270 213 196 190 277 193 254 285 264 320 238 194 161 236 207 201 241 231 127 240 266 291 318 306 229 216 268 281 166 274 197 243 245 293 246 192 329 303 247 225 269 238 188 363 235 293 151 205 213 309 226 274 262 391 184 329 197 323 201 239 268 299 238 206 188 236 262 157 263 209 220 193 232 274 161 232 252 236 328 146 204 324 224 352 220 289 229 192 214 270 252 264 371 260 260 197 284 250 218 271 257 296 230 325 226 289 295 364 247 237 305 281 173 257 258 226 178 264 321 152 244 196 258 320 173 309 378 216 322 273 155 290 180 171 207 144 228 214 186 289 320 230 264 276 243 235 132 272 289 286 270 337 289 200 281 294 285 236 323 216 304 239 289 234 170 216 217 239 263 242 292 198 309 257 332 293 224 231 232 180 204 155 275 162 273 172 201 224 246 272 329 346 259 326 258 242 178 300 312 176 256 283 290 271 288 299 396 351 227 366 312 291 361 279 246 169 253 155 229 218 278 257 299 374 194 358 236 243 216 194 192 174 196 241 264 341 222 183 297 255 204 221 323 217 308 298 315 319 239 236 295 263 268 246 229 245 347 298 326 301 313 153 242 263 225 292 246 227 168 300 293 322 331 330 340 203 187 281 215 384 247 239 277 225 250 175 172 171 202 277 300 264 224 162 271 322 234 156 319 199 246 141 199 295 218 294 195 196 232 213 262 171 242 144 206 205 251 193 220 164 313 268 196 186 311 323 265 253 234 224 272 207 245 260 306 166 189 241 249 267 239 248 359 394 257 194 246 279 261 312 370 215 340 209 268 304 241 234 302 238 180 187 262 235 186 260 238 287 207 309 244 196 283 316 238 301 304 308 269 196 122 261 172 266 340 210 269 257 215 295 269 278 292 141 139 217 153 198 247 285 178 266 414 263 253 181 337 227 247 306 340 216 243 212 246 380 261 272 265 246 283 295 284 278 232 258 195 208 248 159 259 216 220 207 265 287 337 261 227 240 214 175 355 227 256 375 203 270 282 335 310 310 269 214 287 224 248 172 274 287 156 248 216 226 285 192 256 212 244 270 157 285 249 290 230 216 296 261 209 305 272 260 290 262 330 305 277 137 226 249 227 232 176 242 191 244 181 261 215 236 246 262 256 235 199 266 176 254 257 265 342 243 297 179 271 395 288 256 258 275 249 133 297 345 240 327 299 220 215 144 250 244 323 285 212 289 328 248 228 237 290 181 300 242 313 325 234 276 208 279 267 242 195 170 245 237 208 279 185 234 316 334 284 251 325 228 233 271 291 308 215 259 288 227 263 236 261 182 273 208 310 261 233 278 265 279 227 316 374 237 270 318 219 296 129 238 255 201 194 285 311 302 291 342 273 169 300 246 261 335 218 244 215 364 188 168 282 207 246 185 257 226 181 230 185 186 250 295 223 263 304 244 273 239 201 318 204 239 286 289 259 264 278 290 208 334 241 284 207 303 233 228 181 243 217 266 376 345 254 216 284 265 260 202 235 255 277 268 205 223 286 181 202 228 256 307 248 213 226 169 201 297 193 197 306 298 289 182 197 276 236 303 211 198 257 271 213 176 342 258 177 275 223 266 269 198 261 342 187 373 361 318 231 222 298 258 221 258 275 200 324 296 240 234 259 255 322 330 313 241 173 198 256 223 195 318 414 203 199 301 260 248 318 289 202 318 265 270 223 234 257 206 277 140 204 253 209 267 264 258 294 255 260 241 269 314 302 335 188 301 192 166 415 270 316 209 260 216 253 254 242 255 193 206 206 249 258 222 253 222 218 251 220 207 343 170 226 191 197 246 281 289 288 239 250 196 231 263 259 323 289 254 323 351 345 253 293 276 242 287 163 292 164 244 230 294 267 181 230 220 299 285 254 249 254 125 208 204 194 297 233 204 267 207 230 268 197 263 280 211 297 215 238 294 186 318 225 313 186 221 110 276 207 207 241 214 229 211 371 242 169 190 187 307 286 274 274 238 340 226 251 207 236 147 226 293 234 223 358 188 157 257 160 250 294 225 327 289 239 195 260 229 254 292 173 281 271 253 238 247 227 224 334 198 302 232 315 223 231 170 151 285 195 216 218 265 209 249 282 259 296 218 229 230 341 252 212 257 226 281 238 225 254 272 208 247 161 251 275 180 168 228 266 227 294 316 242 342 214 372 184 300 221 260 217 176 264 289 292 252 256 242 305 390 275 214 253 222 262 209 263 254 301 331 274 220 207 123 304 287 228 319 101 228 275 221 316 223 233 304 183 369 229 232 378 355 251 256 206 311 246 204 244 230 269 272 252 202 255 383 210 380 138 336 243 298 279 161 320 271 213 234 220 193 309 215 338 294 239 230 276 295 326 206 240 415 200 293 160 199 342 378 261 315 243 188 281 232 255 220 121 234 266 149 269 215 220 261 343 305 269 294 289 217 237 209 202 179 260 287 260 240 238 229 233 282 159 236 213 204 251 283 256 238 200 248 238 361 245 267 210 214 217 222 171 264 251 222 255 222 241 314 282 293 279 394 293 196 297 313 342 183 272 222 245 226 209 318 259 302 207 253 240 341 272 203 356 242 237 288 320 231 164 173 236 220 253 215 300 213 261 142 291 185 240 203 396 242 263 183 279 228 296 182 309 185 241 166 268 336 257 222 328 259 281 290 252 222 232 268 239 191 283 199 257 166 151 273 289 183 205 265 299 276 268 297 323 285 211 292 330 336 236 343 244 184 253 339 213 273 237 226 191 223 359 270 259 204 261 231 300 252 268 182 219 320 220 204 246 299 196 280 251 191 211 301 322 260 310 154 264 249 217 235 251 239 239 245 282 310 218 365 243 232 218 212 224 253 203 193 278 284 293 222 306 207 225 231 282 234 260 256 269 271 251 192 206 178 181 304 227 277 224 242 327 314 221 323 334 217 294 335 273 213 245 244 232 193 284 189 254 282 262 245 228 288 158 262 322 243 263 174 229 192 308 317 300 285 132 236 208 333 199 319 275 297 314 227 246 242 278 256 268 366 198 184 234 288 307 252 279 205 269 221 192 269 209 281 196 287 242 175 204 230 199 209 169 261 246 201 351 261 301 235 311 179 285 203 213 273 210 286 278 187 291 254 308 265 297 339 175 274 203 258 328 229 277 240 219 173 325 223 323 255 253 207 367 230 251 229 249 246 391 278 266 271 268 247 317 270 339 258 169 381 364 247 221 320 382 379 191 241 227 201 296 260 286 232 294 277 217 251 235 155 251 235 305 291 242 270 273 287 195 287 338 255 291 259 200 258 233 329 272 162 206 213 331 240 278 295 261 208 219 269 244 303 232 266 283 259 180 227 271 174 199 189 292 270 206 247 220 128 252 233 268 292 138 234 239 236 193 242 278 254 147 260 240 272 195 224 241 273 208 222 210 242 229 173 302 235 344 255 306 345 216 237 280 193 234 215 242 281 372 395 202 223 277 312 246 207 215 295 253 234 236 222 228 202 288 230 225 207 309 248 301 248 154 171 136 219 225 222 146 204 298 239 262 201 289 284 254 215 299 237 195 261 212 259 261 243 339 241 270 291 252 249 220 245 229 283 182 225 216 203 349 202 238 144 317 270 230 219 365 254 316 226 264 273 340 268 278 336 262 230 271 301 359 259 213 278 257 281 265 222 286 268 234 322 268 260 167 233 180 238 258 359 226 220 180 200 179 82 269 268 266 318 210 246 242 238 295 289 273 242 345 165 254 325 217 206 259 200 212 259 227 216 250 243 274 189 150 284 273 329 205 281 246 220 242 313 292 267 227 250 240 262 337 225 277 280 279 293 195 286 214 206 296 230 203 279 244 286 156 286 192 290 323 262 272 309 155 229 232 187 197 294 278 317 271 308 213 308 264 200 305 273 237 140 291 234 301 180 124 255 133 269 265 248 304 232 222 243 266 238 215 294 279 311 222 235 278 219 288 261 292 159 200 282 284 332 179 302 215 174 180 237 245 221 256 210 148 255 333 274 240 244 244 206 338 165 168 279 239 303 194 230 366 330 344 275 228 331 291 204 305 349 229 223 237 278 263 190 211 312 267 204 256 216 235 319 252 254 283 294 260 293 216 296 326 238 241 314 218 222 292 233 193 313 204 239 272 262 261 261 261 270 291 211 256 307 297 286 271 192 267 240 209 288 215 269 189 194 277 166 261 289 293 286 347 394 224 228 322 261 228 223 284 213 250 166 279 204 176 299 138 163 332 198 218 196 267 237 198 220 281 196 257 264 183 292 291 300 255 279 304 305 289 264 339 295 292 291 296 351 235 194 214 378 307 204 175 275 274 251 282 202 178 180 313 208 268 295 228 231 223 362 313 269 334 216 229 211 213 273 288 241 251 233 310 232 216 309 267 223 214 309 218 261 267 142 227 294 204 317 231 228 232 279 214 204 229 225 291 358 214 225 216 238 266 249 247 307 255 256 300 288 361 161 276 243 318 280 252 170 185 258 383 244 378 238 301 257 251 316 261 310 226 389 245 283 212 205 169 262 287 247 174 288 259 246 185 327 221 279 252 299 323 129 202 283 125 322 229 275 229 257 244 277 293 229 278 206 247 258 234 236 321 269 252 256 197 292 207 252 250 193 223 250 185 234 109 278 258 327 267 246 281 230 255 298 253 280 191 309 205 298 228 324 326 274 264 235 232 324 317 188 148 218 238 263 240 181 268 296 267 363 256 253 257 215 312 266 276 236 240 252 253 226 293 261 195 192 294 264 181 317 266 278 208 289 221 246 256 291 193 176 252 160 270 293 190 267 232 227 254 233 225 187 330 144 262 302 211 249 243 339 200 366 283 264 262 249 208 207 207 263 212 230 243 278 332 267 252 238 190 320 239 240 208 286 245 297 225 265 261 289 250 211 205 319 318 263 349 326 267 280 274 326 216 321 247 256 239 286 205 242 314 289 217 289 307 222 302 207 216 322 262 343 263 254 333 228 304 221 169 238 293 281 247 223 269 324 150 226 276 243 325 260 141 206 203 202 203 174 293 242 173 244 199 236 259 277 287 140 243 305 315 208 229 216 283 284 276 332 254 234 348 300 235 194 250 275 235 299 281 251 243 245 199 225 273 161 262 270 225 176 237 234 322 272 249 307 302 334 216 203 248 313 317 204 240 251 241 234 231 328 273 255 186 229 280 222 292 247 335 185 256 242 186 207 161 241 199 155 238 296 214 292 145 332 237 312 252 275 295 233 232 343 371 310 313 265 239 164 292 257 305 178 226 191 270 291 286 312 237 210 261 224 342 215 288 231 288 238 218 173 385 200 248 362 232 228 231 162 269 352 291 325 212 197 191 261 253 249 348 208 260 239 239 321 293 250 218 228 208 256 238 248 242 279 234 281 249 306 255 313 224 267 272 219 319 269 260 265 275 222 298 197 200 244 194 222 252 251 215 217 238 217 302 261 264 385 238 265 248 262 238 219 213 293 222 173 251 182 216 227 391 183 237 281 309 372 279 237 331 201 185 176 176 301 291 265 163 316 201 332 185 281 250 276 357 227 373 212 162 256 265 262 200 252 292 258 160 291 215 213 255 185 293 290 300 319 261 250 283 290 299 263 246 204 237 273 205 270 295 311 219 284 171 280 325 201 244 349 221 286 332 252 237 343 239 237 337 223 286 164 250 209 249 178 317 243 259 157 163 338 322 210 271 219 174 226 285 294 268 219 289 287 236 294 239 166 252 212 257 324 261 280 234 223 250 233 287 199 222 202 237 266 264 172 231 248 234 263 288 231 235 276 227 301 232 372 229 307 184 284 267 220 208 208 284 223 202 273 302 255 203 323 207 221 186 272 331 258 260 168 268 196 229 223 189 261 202 376 154 180 276 212 139 244 220 242 280 198 184 284 255 301 342 293 267 197 252 369 246 189 201 281 201 226 294 315 338 247 139 295 143 262 281 203 216 261 367 155 251 299 277 215 288 162 273 222 274 193 291 237 205 227 223 246 230 225 318 239 204 298 260 290 255 305 207 250 247 256 228 229 303 161 328 273 167 359 202 208 285 326 320 300 239 344 209 287 334 180 266 271 227 240 201 248 314 259 228 256 228 197 206 220 256 147 357 172 165 333 267 223 184 207 215 317 273 390 241 268 347 313 281 287 329 261 272 247 216 334 253 152 310 285 309 363 167 267 258 255 255 239 247 147 237 184 293 293 237 223 215 333 332 303 226 178 267 257 268 264 277 304 242 251 306 192 132 124 297 305 269 330 301 299 346 343 238 221 296 192 240 330 254 265 260 215 209 215 306 257 288 181 176 175 275 380 270 276 144 229 319 214 249 249 214 276 219 194 265 344 247 250 249 251 218 201 352 278 239 279 124 346 182 215 199 235 288 176 244 294 210 205 306 177 237 138 186 259 191 241 146 279 208 286 221 390 232 311 269 222 259 162 241 146 352 318 266 290 267 302 355 268 300 177 294 291 213 238 296 272 210 283 232 218 215 243 322 228 406 308 207 250 264 179 207 287 369 259 239 309 223 223 196 264 246 262 259 262 278 124 284 189 249 256 309 236 238 225 311 207 322 195 202 184 259 158 264 229 311 201 279 218 270 171 265 306 167 225 203 229 216 243 268 190 235 148 260 177 357 296 234 230 324 170 236 258 281 263 335 244 283 285 277 235 263 239 303 338 285 197 229 314 338 237 266 241 242 211 282 250 279 281 217 265 212 223 206 229 332 245 302 252 243 279 270 196 245 331 230 200 279 332 322 189 245 279 236 216 270 269 273 289 315 240 247 283 283 305 227 278 245 325 308 265 280 215 235 231 179 294 280 148 195 279 215 260 266 164 300 174 304 240 242 287 312 206 265 274 274 320 276 134 280 204 276 223 244 259 199 198 246 235 238 245 316 240 135 138 273 229 243 202 249 233 128 248 324 271 302 256 188 299 195 259 263 240 193 253 254 178 282 187 303 205 375 347 233 193 242 178 272 271 268 391 265 332 224 150 316 243 253 298 293 258 290 281 266 334 267 300 128 174 253 335 226 298 223 139 210 314 162 246 243 291 278 156 236 220 323 208 203 328 266 184 227 223 453 112 246 266 400 246 255 164 197 258 232 316 240 252 125 265 250 296 270 198 331 242 168 179 159 160 325 260 324 319 225 281 337 259 248 115 278 130 330 292 245 242 263 306 245 233 290 224 356 280 211 208 186 199 219 331 236 206 290 207 204 226 233 283 331 224 293 312 214 181 361 204 231 229 294 297 198 226 265 252 342 262 312 186 259 281 246 316 261 203 154 241 206 227 218 242 276 250 230 305 318 149 276 264 265 285 309 273 214 286 307 253 275 204 275 229 151 183 235 289 184 213 262 160 297 247 237 299 120 343 257 255 263 244 234 327 245 291 272 256 225 319 248 254 255 253 192 276 294 186 241 195 217 294 193 234 256 287 260 331 199 220 349 193 151 266 243 287 269 188 272 237 257 238 196 241 234 179 211 255 314 240 260 309 261 237 207 254 234 206 217 284 194 224 279 276 228 334 240 189 241 297 227 262 278 258 276 197 193 251 196 283 271 209 232 288 312 229 341 213 238 234 247 244 309 286 240 251 255 287 234 269 267 220 253 256 304 148 374 256 201 283 213 190 371 317 211 240 164 223 310 205 364 355 174 280 242 308 225 182 238 303 287 225 260 289 209 230 315 322 230 261 280 221 262 271 250 184 294 225 208 326 256 252 205 261 243 180 277 250 260 181 283 179 190 272 236 199 284 204 309 270 256 124 351 261 360 235 231 295 232 269 196 286 234 237 270 180 234 226 271 246 279 185 223 190 277 240 285 313 232 195 225 216 200 238 161 219 346 248 216 265 253 196 369 226 278 271 323 210 213 222 238 271 208 269 236 202 245 327 267 194 197 313 360 235 239 234 233 230 305 193 296 230 205 168 226 280 222 164 207 302 267 219 209 215 184 342 258 182 258 250 229 338 214 347 282 226 237 219 276 239 223 277 242 163 263 287 206 265 132 307 294 222 200 205 153 237 149 245 328 269 216 304 308 292 175 270 260 222 285 300 327 258 336 215 187 265 183 244 203 188 355 199 326 151 386 231 222 254 266 285 281 271 192 215 282 271 288 251 310 222 168 218 251 249 311 217 131 266 370 199 346 254 303 306 271 213 278 285 185 302 235 270 252 235 188 202 328 254 268 227 210 273 282 275 203 304 231 323 341 133 295 297 279 281 245 305 337 289 285 229 292 209 200 319 176 174 259 308 284 218 279 235 247 170 252 228 199 227 174 234 282 246 215 243 212 270 200 308 199 264 218 290 257 261 219 183 242 174 186 244 232 249 212 246 254 198 228 218 357 262 221 232 183 313 287 277 293 284 381 262 237 214 287 273 252 242 291 240 249 217 294 212 266 225 304 249 232 239 267 265 281 226 317 400 267 266 224 229 178 206 252 247 290 212 232 91 251 192 210 240 229 246 262 268 237 322 197 302 294 152 251 268 250 249 204 202 157 270 311 184 272 281 244 300 278 217 341 270 250 199 366 244 271 269 287 262 267 203 312 247 272 338 249 254 239 251 182 236 297 266 199 233 243 205 285 272 247 90 302 270 281 193 257 269 231 197 251 269 154 221 331 234 248 179 284 214 274 264 319 236 229 286 228 180 142 219 338 285 281 327 147 207 303 352 191 245 230 340 284 252 384 267 287 327 227 268 253 328 269 284 236 254 315 201 260 239 263 299 204 276 248 228 260 280 275 223 238 327 219 270 258 306 229 252 256 272 200 264 270 281 216 260 261 195 293 211 212 299 283 348 280 175 201 317 332 163 141 249 249 154 247 231 222 216 223 187 282 275 267 255 262 301 231 235 282 279 159 268 261 223 216 194 210 220 225 268 </t>
-  </si>
-  <si>
-    <t>JSB(0.5290414930351675, 0.11841266639189614, -4.628886711542026e-24, 5.510016580470303)</t>
-  </si>
-  <si>
-    <t>0 1 1 2 1 2 2 1 2 1 2 0 0 1 0 3 2 1 1 0 2 2 0 3 1 2 1 3 3 0 0 2 1 1 0 0 1 1 2 3 1 1 1 1 2 0 3 1 1 0 2 1 1 1 1 1 0 2 0 2 1 2 1 2 2 1 1 2 1 0 1 2 3 1 1 2 1 4 1 1 2 1 1 1 1 1 2 0 2 3 1 0 1 2 1 1 4 1 0 0 2 2 1 2 1 1 1 0 0 3 3 1 2 1 0 2 0 1 2 1 0 1 2 2 2 2 2 1 3 1 3 1 2 2 0 3 0 3 1 2 2 1 2 2 0 0 1 1 0 2 0 4 0 4 0 2 2 2 1 0 1 1 1 1 1 5 1 0 0 2 1 2 3 2 1 0 3 3 1 1 0 0 1 0 1 1 2 1 4 0 1 1 2 1 2 1 1 2 2 1 1 0 0 2 2 3 0 2 1 1 2 0 1 1 1 1 2 1 0 1 0 1 2 1 1 0 1 2 0 2 0 0 1 0 1 2 4 2 4 3 3 2 1 4 3 1 0 1 0 1 2 1 1 1 0 1 0 3 0 1 1 2 1 3 1 1 1 1 1 0 1 2 0 2 0 2 3 2 1 1 0 1 2 1 1 0 0 1 2 3 2 2 1 0 0 0 2 1 0 2 2 2 1 2 0 1 4 0 0 2 1 1 1 1 2 2 3 1 2 2 1 1 3 1 0 3 3 2 2 2 1 3 2 3 0 2 1 2 2 3 0 1 1 0 0 0 2 1 1 2 2 2 0 1 1 1 1 4 1 0 0 2 2 2 1 1 2 3 1 2 0 1 1 2 0 2 1 2 0 0 1 2 4 2 1 2 2 0 2 0 3 2 1 0 3 1 0 2 1 0 3 1 3 2 2 3 1 2 1 2 1 2 2 2 1 1 1 2 1 2 1 2 1 0 2 1 0 1 4 2 2 0 0 0 2 1 1 2 1 2 1 1 1 2 1 0 0 1 2 2 1 1 1 2 1 1 0 2 0 1 3 1 0 1 1 2 2 1 3 0 0 1 1 1 3 2 1 1 2 2 0 0 2 1 2 0 3 3 2 1 1 1 0 2 1 1 1 0 3 2 0 4 2 1 1 3 1 2 1 2 0 2 2 0 2 3 2 1 0 2 1 1 3 2 3 0 1 0 3 1 1 1 2 3 1 0 2 0 2 1 1 1 1 1 1 1 1 2 1 1 1 0 0 1 5 1 2 1 0 1 1 2 1 1 0 3 2 0 2 1 0 1 0 2 2 1 2 1 0 1 1 2 1 1 0 1 0 2 1 1 1 2 1 1 3 4 1 2 2 1 0 1 1 2 2 0 1 1 1 2 1 2 1 1 0 1 2 1 1 0 1 1 2 1 0 2 0 2 1 0 1 3 1 1 4 1 1 0 2 1 1 0 3 1 1 0 3 4 1 0 0 1 2 0 2 0 0 1 1 1 1 1 1 1 1 1 2 1 0 1 2 2 1 1 3 1 2 2 1 1 2 1 2 1 0 1 0 1 1 0 1 1 1 2 3 2 1 2 1 1 1 3 0 2 1 1 1 1 3 2 1 1 1 1 1 1 3 0 2 1 0 3 2 0 5 4 1 0 0 0 2 0 1 1 1 1 2 3 1 1 1 1 0 0 4 2 1 2 3 1 0 0 2 2 0 0 0 0 2 1 1 2 1 1 2 1 3 3 1 1 1 3 1 2 1 0 3 0 1 1 1 2 1 0 2 0 0 1 0 1 1 2 1 1 2 2 0 1 1 0 2 1 2 0 3 2 1 1 1 2 1 0 1 1 2 0 0 0 1 3 2 2 4 0 1 0 1 3 2 0 2 2 1 1 2 1 2 3 0 1 2 2 2 1 2 2 0 1 2 1 1 1 1 2 0 2 1 1 2 0 1 1 0 2 1 2 0 0 3 1 2 0 1 2 1 1 1 0 2 1 2 1 1 1 2 1 2 1 2 1 2 1 1 2 0 2 0 1 2 0 1 1 3 0 2 2 1 2 1 1 2 0 1 1 3 2 0 1 0 1 1 0 1 2 3 1 2 2 3 1 3 2 2 2 0 1 1 2 3 0 2 1 1 1 3 1 2 3 2 0 1 1 1 1 3 2 1 3 1 0 2 2 2 1 1 3 0 3 2 2 0 2 1 0 2 1 1 1 2 1 2 0 2 2 1 0 1 1 1 2 0 1 1 2 1 2 3 0 2 1 2 3 3 3 2 1 0 1 3 2 2 0 2 2 2 1 1 1 2 2 1 1 0 2 1 2 1 1 0 0 3 1 1 3 1 1 3 1 1 1 1 1 2 2 2 1 1 2 4 2 2 0 1 2 4 0 2 1 2 1 1 1 2 2 1 0 0 3 1 4 1 1 0 0 2 1 0 1 0 1 0 1 0 3 1 2 2 3 2 1 1 1 1 1 0 3 0 2 2 2 1 0 1 0 3 0 3 2 0 0 3 2 2 0 0 1 2 2 2 0 2 0 3 3 1 2 1 1 2 1 1 0 2 0 2 2 1 1 2 2 0 1 1 2 2 2 2 2 1 0 3 0 1 1 2 1 2 2 2 0 1 4 2 1 3 1 5 1 1 1 1 2 3 2 3 1 1 0 1 3 2 1 2 0 0 1 3 2 2 1 3 2 1 2 2 1 0 1 1 2 1 1 2 1 0 2 1 2 3 1 1 2 3 2 0 1 1 1 0 1 1 1 4 1 3 0 1 1 1 0 2 0 1 3 1 2 0 3 1 1 1 2 1 1 0 2 1 0 0 2 0 1 4 1 2 0 4 0 0 1 0 2 2 0 1 1 3 0 1 0 0 2 1 1 1 3 1 2 1 2 1 1 1 1 1 2 2 2 0 1 1 1 0 2 0 1 1 1 0 0 1 2 1 2 2 3 1 1 2 1 0 1 2 2 1 4 2 0 1 1 2 2 2 2 2 1 3 0 2 1 1 2 0 1 0 2 1 0 2 2 2 2 2 1 1 1 0 1 3 1 1 2 1 1 3 1 0 0 0 0 1 1 2 1 3 1 2 2 2 1 0 1 1 2 1 1 0 0 1 1 0 1 0 1 2 2 1 2 3 1 2 2 1 1 0 2 1 0 2 1 1 0 2 1 0 3 1 0 3 2 2 2 1 1 0 1 2 2 1 2 0 3 2 2 2 1 3 4 2 2 2 3 1 2 1 2 1 1 1 1 2 0 1 1 1 2 0 1 1 0 1 2 1 3 0 1 1 1 2 2 1 1 2 1 2 2 1 3 2 1 0 2 0 0 2 1 0 1 2 1 0 1 2 3 0 1 1 0 0 1 1 1 3 2 1 1 2 1 2 3 1 1 2 0 0 0 1 1 1 1 2 2 2 1 1 3 2 0 2 3 2 2 3 0 3 2 2 1 1 1 0 2 3 1 0 1 1 1 2 2 0 2 0 1 2 1 2 1 2 0 1 0 0 0 3 0 1 2 0 1 0 1 0 2 1 1 0 0 1 2 2 1 0 1 0 0 0 2 0 2 3 3 1 2 0 1 2 0 0 0 2 0 0 1 2 0 0 0 1 2 0 0 0 1 1 2 1 0 3 0 0 2 2 2 2 1 0 1 1 2 0 1 0 1 0 0 0 1 2 2 1 2 2 2 1 1 1 1 1 2 3 2 0 0 3 2 1 1 3 2 3 1 2 1 1 1 3 1 1 1 3 1 3 0 3 2 2 1 1 1 0 0 1 1 1 0 1 2 2 0 2 1 2 0 2 1 1 3 1 0 4 2 2 1 1 0 2 0 1 1 3 1 1 0 4 3 1 1 3 2 3 1 2 1 2 1 3 2 2 1 1 1 0 0 1 1 3 2 2 1 0 0 2 1 3 2 2 1 1 2 1 2 0 1 1 1 1 1 0 1 2 0 1 1 0 1 1 0 1 3 1 1 1 1 1 0 0 0 1 0 2 1 1 1 1 2 1 0 1 1 2 2 1 3 0 1 3 1 2 1 2 2 1 1 1 0 0 0 1 2 2 1 0 1 0 1 1 0 2 0 2 0 1 1 2 2 1 1 0 1 2 1 0 0 2 2 1 2 1 0 1 0 0 0 1 1 3 2 1 3 1 2 1 2 1 1 2 2 3 4 1 2 2 1 1 0 0 0 2 1 1 1 2 2 2 0 1 2 2 0 2 2 2 1 1 1 1 2 1 1 1 0 0 2 0 1 0 3 1 5 0 0 2 1 2 2 1 1 1 2 1 2 0 1 2 0 0 4 0 1 1 2 0 1 1 1 2 1 0 0 1 1 2 0 0 2 2 2 1 0 0 1 2 1 3 1 1 0 0 2 1 1 1 4 1 2 1 1 1 0 1 1 0 0 1 1 1 1 1 1 3 1 3 2 1 0 0 2 1 2 1 1 2 4 1 1 0 1 1 1 2 1 2 1 0 1 2 2 0 0 2 0 3 0 1 1 2 1 0 1 1 3 2 3 2 2 2 0 2 0 3 1 0 3 1 2 2 2 3 2 2 1 1 0 1 3 1 3 3 1 0 3 2 3 0 0 2 0 0 1 3 2 1 1 2 2 2 1 1 2 2 0 2 1 0 4 1 2 0 0 1 2 1 0 1 1 3 1 3 0 0 2 1 1 1 1 1 1 1 1 1 1 1 1 1 3 0 1 0 1 2 2 1 1 1 2 0 1 1 0 2 0 2 1 1 0 2 2 3 1 1 2 1 2 0 3 2 0 0 1 1 1 1 2 2 4 1 2 1 2 2 0 1 0 1 3 2 2 1 1 1 1 1 0 0 1 3 0 2 1 0 1 1 1 1 1 0 1 1 0 1 2 0 2 3 1 2 2 1 2 1 1 1 2 2 3 1 1 2 1 1 1 1 1 1 3 0 3 3 0 1 0 0 1 2 1 0 2 2 0 0 1 1 1 1 2 2 0 1 0 2 1 1 1 0 2 2 1 0 1 1 1 1 0 2 1 2 1 1 1 0 2 1 1 1 1 2 1 2 2 4 0 1 3 0 1 1 2 0 0 3 3 1 1 0 2 3 3 2 2 1 1 2 2 0 1 0 2 1 1 1 2 1 3 0 1 1 0 1 2 2 1 1 2 2 2 3 1 1 1 0 1 1 3 2 0 4 2 1 1 1 1 3 1 3 1 3 2 0 0 2 0 1 0 1 4 1 1 2 0 0 3 1 1 1 0 1 2 4 1 1 0 0 2 1 2 3 1 2 1 2 0 0 1 0 2 1 0 1 1 1 2 1 0 1 1 3 2 1 1 0 1 2 1 2 3 2 2 3 0 1 1 0 0 1 0 2 4 1 2 2 1 2 1 2 3 2 2 2 2 1 2 2 2 3 2 1 1 1 3 1 2 0 1 0 1 0 2 1 1 2 2 3 1 0 0 1 2 2 2 0 2 2 1 0 2 0 2 0 1 0 0 3 0 3 0 1 3 1 0 1 1 1 1 1 1 0 1 0 1 1 0 1 2 0 2 1 2 1 0 2 1 3 1 2 0 1 0 2 0 1 2 2 1 0 0 4 1 4 1 1 1 0 2 1 1 1 1 0 1 1 1 3 2 3 0 3 1 2 0 0 1 2 2 2 3 0 2 3 2 2 2 1 1 1 0 0 1 2 3 3 3 2 0 1 1 0 2 4 1 0 1 1 2 0 0 1 0 1 2 1 2 3 0 1 1 0 0 1 3 1 1 1 2 0 2 1 3 1 2 3 4 3 0 1 0 1 1 1 1 0 3 3 2 0 2 2 1 2 4 0 0 2 1 1 0 2 1 1 2 0 1 1 2 1 2 2 1 2 0 0 2 2 0 2 2 2 2 2 3 1 0 4 0 2 1 0 0 2 1 2 2 2 0 2 2 2 1 0 1 1 1 1 2 2 2 1 1 2 2 1 2 3 2 0 1 0 0 2 0 1 2 1 1 0 1 4 3 1 0 2 2 1 1 1 0 1 0 3 1 0 2 1 2 1 1 2 3 2 1 0 0 2 2 4 0 1 1 4 0 2 3 1 3 0 1 2 2 0 0 2 0 1 3 2 1 2 0 0 1 1 2 1 4 0 3 2 1 0 0 3 3 2 0 1 0 0 1 1 1 2 1 2 1 2 1 1 2 1 2 1 1 2 1 3 0 2 0 1 1 0 0 0 1 1 2 2 2 0 1 1 1 1 2 2 1 1 1 1 1 3 2 3 1 1 2 1 2 2 0 1 2 2 1 1 2 2 3 2 2 3 2 1 0 2 0 0 3 1 1 2 1 1 2 1 0 2 2 2 2 0 0 3 3 0 3 3 0 0 1 1 0 0 2 1 5 0 2 2 2 1 1 2 2 2 4 2 1 0 3 1 0 0 3 1 1 0 3 2 2 0 2 1 2 2 0 0 1 1 1 2 3 2 1 2 1 2 2 2 1 2 3 2 3 1 2 1 1 0 1 0 1 0 2 1 1 0 2 1 1 1 1 0 0 0 0 1 3 1 1 0 1 1 4 3 1 1 1 0 2 2 3 1 1 2 0 3 2 2 3 2 0 1 1 2 1 0 1 1 1 1 4 1 1 2 3 5 2 2 1 2 1 2 1 1 2 1 2 2 1 0 1 2 0 1 2 1 1 0 4 0 1 1 2 0 0 2 1 2 1 0 1 1 1 1 1 1 0 1 1 1 2 0 2 1 2 1 1 1 1 1 1 2 2 0 0 3 1 0 1 0 0 2 1 0 1 3 1 2 1 2 1 1 1 1 0 2 3 0 1 1 1 1 3 0 2 3 1 2 0 2 2 3 3 2 0 3 2 1 0 2 1 0 1 3 2 1 0 1 1 1 1 1 0 1 2 1 1 0 0 2 0 2 1 2 2 1 2 2 4 1 2 2 0 0 1 1 1 1 0 0 1 2 2 0 1 2 1 0 1 2 0 1 1 2 3 1 0 2 1 4 1 0 2 1 2 2 1 2 2 1 2 0 2 0 2 1 1 0 3 2 0 3 1 0 1 2 2 0 2 3 2 3 2 1 3 1 3 1 1 2 0 2 1 2 2 2 1 3 2 0 4 0 0 2 2 1 2 1 2 2 1 2 1 2 1 2 2 3 1 1 0 2 2 1 1 2 2 2 0 2 0 0 2 0 0 2 0 0 1 1 1 1 0 2 1 2 3 2 1 2 0 2 1 0 0 1 1 2 0 1 1 1 1 1 0 1 1 2 1 0 3 3 1 3 0 1 2 2 3 2 3 1 0 1 3 1 1 1 1 3 0 1 3 1 2 1 1 1 1 0 2 1 1 2 0 1 2 1 2 2 1 3 1 2 2 2 1 4 0 1 1 1 1 1 2 5 1 2 1 1 2 3 1 2 3 3 3 1 0 2 1 1 0 1 0 1 1 4 1 1 2 1 0 0 3 0 1 0 0 1 0 1 1 1 2 2 2 2 1 1 1 0 1 3 0 0 2 2 0 2 1 0 1 1 2 1 1 3 2 0 1 0 2 1 3 2 1 1 0 2 2 0 3 1 0 0 2 1 1 2 2 1 1 1 1 1 0 1 0 1 2 4 1 0 2 1 1 3 3 0 2 1 0 1 1 0 1 2 2 0 1 2 2 2 2 1 2 1 1 2 2 1 0 1 0 2 2 2 1 0 2 0 1 2 0 4 2 2 1 0 0 0 3 1 1 1 1 3 1 2 0 1 2 0 1 1 3 0 1 1 0 1 1 0 0 1 1 0 3 1 0 1 2 2 1 0 0 1 1 1 1 1 2 3 0 2 1 1 2 0 1 1 1 1 2 1 1 1 0 3 1 1 2 2 2 0 3 0 3 0 1 2 0 3 0 3 1 1 1 1 2 0 1 1 2 1 1 1 0 1 2 0 2 2 1 0 2 3 3 3 2 3 1 1 3 1 0 1 1 1 1 2 3 1 1 2 1 0 1 1 0 1 2 1 2 1 2 2 2 1 0 1 1 0 2 0 0 3 1 1 3 1 1 0 1 2 1 2 1 3 1 3 2 0 1 3 2 2 1 3 2 1 1 1 1 2 1 2 1 1 3 3 2 1 1 2 1 2 1 1 0 2 0 2 0 3 1 2 1 0 3 2 2 1 1 0 1 1 1 0 1 2 0 1 3 1 1 0 2 0 1 1 0 1 1 1 1 2 0 1 1 2 1 0 2 1 0 3 1 1 0 2 3 3 3 2 2 3 1 2 0 0 1 2 1 2 4 0 1 1 1 0 1 0 2 1 0 2 3 1 1 0 2 1 3 1 2 0 1 1 0 3 4 3 3 2 0 1 1 1 0 1 0 1 2 0 1 2 2 1 2 3 1 1 3 2 2 0 1 1 1 2 1 0 3 2 1 2 1 4 2 3 1 2 2 0 3 1 3 3 1 1 0 0 2 0 2 0 1 1 1 2 0 3 1 3 2 3 1 2 1 2 1 2 1 0 2 0 0 0 1 1 0 0 1 2 2 1 1 2 0 3 2 2 2 2 2 2 2 0 3 1 0 1 1 2 1 1 1 1 1 2 0 5 0 1 0 1 1 2 1 1 2 1 1 1 2 0 1 0 2 2 3 1 1 2 1 2 0 2 1 0 3 1 2 3 2 1 2 1 1 1 0 1 2 1 1 3 1 3 1 1 0 1 1 0 2 3 2 2 1 2 1 1 1 0 3 0 1 2 0 1 1 2 3 3 0 2 1 1 1 0 2 1 3 2 1 1 1 2 0 1 1 2 1 0 2 3 0 1 2 1 2 0 2 0 1 1 4 1 1 0 4 3 1 1 0 1 1 1 1 1 2 3 2 1 1 2 2 1 0 0 0 1 0 2 1 2 0 2 1 2 2 3 1 1 2 2 1 1 0 0 1 0 2 2 1 1 1 2 1 0 0 2 1 1 2 2 2 0 3 0 2 2 3 0 3 2 1 2 1 2 2 1 0 0 3 3 2 1 2 1 1 1 3 1 1 0 1 1 1 2 2 2 2 2 1 1 0 3 1 2 0 1 1 0 3 1 2 0 0 0 0 2 2 2 2 2 0 0 1 1 0 1 2 4 1 2 2 2 1 0 3 0 2 0 1 0 2 1 2 0 0 0 1 2 2 2 1 1 1 1 1 1 1 1 0 1 3 1 3 2 2 1 2 1 1 0 0 0 0 0 1 3 1 1 0 2 2 2 2 1 0 2 0 1 1 3 0 1 1 2 0 1 1 0 1 0 2 0 1 0 2 2 1 2 0 2 1 1 0 1 0 1 1 1 1 0 1 3 0 1 1 1 2 2 1 1 1 3 1 1 0 0 1 1 0 1 2 1 1 0 0 1 1 0 1 1 2 2 2 3 3 1 0 1 1 1 3 0 0 1 1 0 2 2 2 1 2 2 2 1 3 1 1 2 2 1 2 0 0 1 1 1 0 1 2 1 2 1 0 1 1 3 2 1 1 0 1 0 0 1 2 3 0 1 1 1 1 3 0 2 3 1 2 1 0 0 2 1 1 0 0 2 1 0 1 1 1 2 1 0 1 1 1 1 0 2 1 2 1 2 2 1 0 4 1 2 1 2 0 0 1 1 3 2 3 2 3 2 2 1 1 2 2 0 0 0 3 0 2 1 2 3 1 1 0 0 0 0 2 2 1 2 0 2 2 1 1 0 1 1 0 0 0 0 2 1 0 1 2 1 0 1 2 2 3 2 0 1 0 1 1 0 0 3 2 2 1 2 1 0 3 1 2 2 1 1 2 1 3 0 3 1 1 2 1 2 0 3 2 0 0 1 2 1 2 1 0 3 1 2 1 2 2 2 2 1 1 1 1 2 1 1 1 1 1 1 1 2 1 4 1 1 3 1 0 1 1 0 0 1 2 1 2 2 1 0 1 1 1 1 3 2 1 0 0 1 0 1 1 0 1 2 5 2 1 2 1 1 0 1 2 1 1 2 1 0 2 1 2 1 3 3 1 0 3 2 0 0 0 0 1 1 2 0 1 1 3 2 0 1 1 1 2 0 1 2 1 1 0 0 2 2 1 2 1 4 0 1 3 1 2 0 2 2 1 2 2 2 1 3 1 0 2 2 1 2 3 0 2 1 1 0 2 0 2 2 2 3 2 0 0 2 2 0 0 2 1 0 2 2 2 2 0 1 2 2 2 2 2 2 1 0 1 2 0 2 2 1 1 1 3 3 1 1 2 1 0 0 2 2 0 1 1 2 1 1 2 0 0 1 0 2 1 2 1 0 2 2 2 0 1 2 1 3 2 0 0 4 2 0 2 2 2 0 3 3 0 0 0 1 0 1 1 0 1 1 2 0 0 0 1 1 1 1 1 1 1 3 1 1 2 0 4 1 3 2 3 2 0 2 2 1 2 2 1 0 1 1 1 2 1 2 1 1 3 1 1 3 0 1 2 2 0 1 1 0 1 1 1 1 2 1 1 0 1 0 1 3 3 3 0 2 0 2 0 1 2 2 2 1 1 1 1 1 1 1 1 3 0 1 2 1 2 1 2 3 2 0 0 1 0 3 2 2 0 1 1 2 1 1 0 2 2 1 2 2 2 2 0 0 1 1 2 3 1 1 2 3 3 2 2 0 1 1 2 0 3 4 1 1 2 2 3 4 2 1 3 2 0 2 1 2 1 2 1 1 2 1 2 0 1 2 0 0 1 0 1 1 1 1 2 4 0 3 0 1 2 2 2 0 2 2 2 1 2 1 1 1 1 1 1 1 0 2 1 1 1 3 2 1 2 0 2 2 0 0 2 3 1 3 3 4 1 1 2 1 2 1 2 1 1 1 1 1 1 1 1 1 0 4 2 0 2 2 2 0 2 2 1 1 0 1 0 1 1 0 1 0 1 2 2 2 2 2 2 1 3 0 2 1 1 2 2 1 0 1 0 1 1 2 0 1 2 2 2 3 2 2 0 1 3 3 1 1 2 2 1 0 2 0 1 1 3 3 1 1 0 1 2 3 1 3 1 2 0 3 2 3 1 1 2 2 1 2 1 1 0 1 0 1 0 3 1 2 2 1 2 1 2 1 0 2 0 1 1 3 2 0 2 2 1 2 2 1 2 1 1 1 3 2 2 1 3 1 0 0 0 1 1 3 1 1 1 0 1 1 1 3 1 0 0 0 0 1 0 1 2 3 2 1 1 2 0 2 1 2 2 1 1 1 3 1 0 1 1 0 1 0 2 1 1 2 1 2 1 0 1 1 3 1 0 1 2 0 1 0 0 3 1 1 3 0 2 2 2 1 1 2 2 1 0 3 3 2 1 1 2 1 3 2 2 2 2 1 2 1 1 1 1 1 1 4 2 0 1 2 2 0 2 2 2 1 2 0 3 2 2 1 2 1 1 3 1 1 1 2 3 1 2 1 3 2 1 3 1 1 2 0 1 2 2 1 2 1 2 2 1 3 2 1 0 1 2 1 1 2 0 0 2 1 1 1 0 0 0 1 1 3 1 0 0 1 0 1 1 0 1 0 0 0 1 2 1 0 0 0 2 0 1 0 2 1 2 2 1 3 1 3 2 1 1 0 2 3 2 0 2 1 1 0 1 1 1 0 1 3 0 1 1 3 1 0 1 0 2 0 1 1 1 2 2 0 1 0 0 3 2 1 3 2 2 0 0 1 3 3 2 1 1 0 2 0 1 3 2 2 1 1 1 1 0 1 0 2 1 0 2 1 2 2 3 3 0 0 1 0 3 0 1 1 3 1 2 2 2 2 0 3 1 1 2 2 0 1 1 1 0 1 1 3 0 2 1 3 2 2 2 0 2 1 1 0 2 0 2 1 2 3 1 1 1 1 1 2 3 2 2 0 1 0 4 3 2 4 0 1 1 1 1 0 0 1 0 2 1 0 3 0 2 0 2 3 0 2 2 1 3 1 0 1 1 3 2 3 0 2 1 1 3 1 3 0 3 2 1 0 3 1 3 2 0 2 1 2 1 1 0 1 0 2 0 0 3 1 2 4 1 1 2 0 2 0 1 2 1 0 0 1 1 1 3 3 1 2 2 2 1 0 1 0 2 4 1 0 1 2 0 0 1 2 0 1 3 1 2 1 0 2 2 3 2 0 1 1 0 1 1 2 1 0 3 1 0 3 3 4 2 2 4 1 3 2 2 1 2 1 2 2 0 1 3 1 1 2 0 2 1 1 1 0 1 1 2 2 1 1 2 1 1 2 1 1 1 1 2 2 2 3 1 1 2 1 2 2 1 1 2 0 2 1 2 2 2 0 2 0 0 2 1 0 2 1 2 3 1 1 0 1 1 1 1 3 1 0 2 3 0 1 3 1 2 2 2 1 2 2 0 1 2 2 0 3 2 0 0 2 0 1 1 2 0 1 2 3 2 0 1 2 0 0 1 2 1 2 1 1 0 2 2 0 2 0 2 1 2 1 0 2 1 1 0 4 2 2 2 1 1 0 0 1 1 2 1 0 2 0 3 0 0 0 2 3 1 2 0 2 0 0 2 0 2 0 1 2 1 0 3 2 1 1 2 2 0 1 2 1 1 2 0 3 3 1 1 3 1 2 0 1 1 1 1 1 1 1 0 1 1 3 1 2 0 0 0 2 0 0 1 0 3 2 2 2 0 1 1 1 1 1 2 2 1 3 1 1 3 0 1 2 0 2 0 2 1 1 1 1 1 1 0 2 2 1 1 3 1 1 2 1 2 1 1 2 1 3 1 1 1 0 1 2 4 3 1 2 2 2 0 0 3 1 1 1 2 1 3 1 0 0 1 1 1 1 3 0 2 4 1 3 3 2 1 3 1 0 1 1 3 1 2 2 1 1 0 0 2 1 1 2 0 0 1 2 0 1 0 1 1 2 1 2 2 1 0 2 1 2 1 2 0 1 2 0 0 2 2 0 2 1 1 0 1 1 2 0 0 1 0 2 0 4 0 2 1 2 1 2 1 0 1 0 2 0 1 0 2 3 1 0 2 0 1 2 1 0 1 0 1 1 1 2 0 1 0 0 1 3 0 2 3 1 1 0 0 2 1 2 1 1 1 3 1 0 0 2 1 2 2 0 2 3 1 0 3 2 1 1 1 1 0 1 0 1 2 2 1 0 3 2 0 2 0 1 1 0 1 0 3 1 1 0 1 2 0 0 0 2 2 2 1 2 1 2 2 1 2 2 1 0 1 1 3 1 1 1 0 2 3 1 1 1 1 0 1 2 2 1 3 1 1 1 2 1 2 1 0 3 3 1 2 0 1 2 1 0 1 0 1 1 1 2 1 2 1 0 1 2 1 1 0 1 0 0 0 0 2 2 2 1 0 2 3 1 0 0 1 1 1 0 1 1 0 0 0 2 1 2 1 2 0 2 0 1 0 1 0 2 0 0 2 0 2 1 2 2 0 0 2 3 1 2 3 1 3 2 1 2 1 2 2 2 0 2 1 0 0 0 2 2 1 2 2 0 1 2 1 2 0 3 1 1 3 2 2 2 0 2 1 2 0 0 1 1 1 2 0 3 0 2 1 1 1 1 1 2 1 0 1 1 5 3 3 1 2 2 2 3 3 1 1 3 1 2 0 2 2 0 2 1 1 0 2 1 0 0 2 2 1 1 1 0 2 0 0 1 1 2 0 2 2 2 3 2 1 3 0 1 1 3 0 1 2 1 0 0 0 3 1 0 2 0 2 3 2 1 2 1 2 1 2 2 4 1 1 4 0 1 0 0 2 1 0 1 3 2 2 1 0 1 4 1 1 2 3 2 1 1 2 1 1 1 2 1 1 2 3 1 2 0 2 3 3 1 0 0 2 1 2 1 0 0 0 1 1 1 1 1 0 2 2 2 1 2 1 1 0 0 1 2 3 2 0 1 3 2 0 1 1 0 2 1 2 0 1 1 2 2 0 1 1 1 3 0 2 0 1 2 0 0 2 1 2 0 1 4 1 1 1 4 3 2 2 2 0 2 2 3 3 1 1 1 1 2 1 1 1 2 0 2 1 2 2 0 1 2 0 2 0 3 2 0 1 2 1 2 3 2 3 1 1 1 1 1 0 1 3 1 3 2 3 1 1 3 0 1 1 0 0 1 2 0 1 0 2 0 1 0 1 2 1 2 0 1 2 2 0 0 2 1 0 1 2 1 2 2 0 3 0 1 1 0 1 1 0 3 0 3 1 0 2 1 0 1 1 0 1 2 1 4 1 2 0 0 0 1 0 3 1 2 2 0 1 1 0 1 2 1 1 1 1 1 2 1 1 3 1 3 1 1 2 3 4 2 1 1 1 1 0 0 2 2 1 2 1 1 2 2 0 2 0 1 0 1 1 1 1 1 1 0 0 0 3 3 1 0 3 0 2 2 1 2 0 1 0 0 0 1 0 2 1 0 0 5 1 0 1 1 2 3 1 2 2 2 2 3 0 0 1 3 2 5 0 0 2 0 1 0 0 2 2 1 1 0 2 1 0 1 0 2 1 2 1 3 3 2 0 0 0 0 3 2 2 1 1 2 2 1 1 2 2 3 0 1 0 1 1 1 1 2 3 1 2 1 2 2 3 1 3 2 1 1 2 1 2 3 3 2 1 2 1 3 1 2 2 1 1 0 2 2 2 2 1 1 1 0 2 1 1 1 1 2 1 2 3 1 2 1 1 2 1 0 1 1 2 2 0 1 1 0 2 1 0 0 1 1 0 3 2 3 3 1 1 0 1 1 2 1 0 1 1 0 1 2 2 0 4 3 3 1 0 2 2 1 1 2 2 1 2 2 2 1 1 1 1 0 3 5 2 2 2 3 2 1 1 1 0 1 1 3 1 3 1 2 1 2 2 0 3 1 0 1 2 2 4 0 0 0 3 0 1 0 1 1 2 3 2 1 1 1 1 0 3 1 2 2 1 3 1 0 1 2 1 1 1 2 1 0 2 2 3 2 0 2 3 1 3 1 4 0 2 1 2 4 3 2 1 1 1 0 1 4 1 2 0 1 2 1 0 2 1 5 1 2 2 0 1 2 1 0 1 2 0 1 0 0 0 1 1 0 1 2 1 2 2 3 1 2 2 1 1 1 2 2 0 1 2 1 1 0 1 0 2 1 1 4 4 2 0 0 1 2 2 1 1 0 0 1 1 1 2 2 2 1 2 2 2 0 0 2 1 1 2 2 2 1 0 3 0 2 2 1 1 1 2 2 3 2 1 0 3 1 1 1 1 1 0 1 1 2 3 2 0 1 2 2 0 2 1 1 2 0 0 1 2 2 3 1 1 1 1 2 0 1 1 0 1 0 0 3 3 2 2 1 0 1 1 1 1 2 4 3 1 2 1 0 0 1 3 1 1 1 0 0 1 0 1 1 1 2 1 2 1 3 0 2 1 1 0 1 3 1 1 2 1 3 0 2 1 3 0 2 1 4 1 0 2 3 1 1 1 3 2 2 0 2 1 0 2 1 2 2 2 3 2 0 2 3 0 0 1 0 0 0 1 1 4 1 1 2 3 2 2 2 2 1 1 5 1 0 1 3 1 1 2 1 2 1 0 1 0 1 2 1 1 1 1 1 0 3 3 0 2 0 2 1 0 1 0 2 1 2 0 1 2 1 0 1 0 2 3 1 2 3 1 2 1 2 1 1 0 0 1 1 1 2 0 0 1 3 1 2 1 1 0 1 4 2 3 3 2 4 1 0 1 1 2 3 0 2 0 1 1 1 2 2 1 4 0 0 1 0 1 2 1 3 2 2 4 3 2 3 0 0 0 1 2 2 4 0 2 1 2 2 1 0 3 3 2 2 1 1 2 1 2 1 3 2 0 1 1 1 3 1 1 2 1 2 0 2 3 0 2 2 0 1 2 1 2 2 2 2 4 3 1 1 2 2 1 2 3 3 2 1 1 1 1 3 1 0 2 1 1 3 2 2 0 1 1 1 2 1 2 3 1 2 2 2 1 2 2 3 2 1 1 1 1 2 2 3 1 1 0 2 1 0 1 2 1 1 2 0 2 0 1 0 2 0 0 0 0 1 1 2 2 3 2 0 0 1 2 0 2 1 1 0 0 3 3 1 1 2 1 2 1 0 3 1 1 3 2 1 2 2 1 2 4 2 2 1 1 1 1 2 2 3 2 0 2 1 1 1 1 2 1 3 2 0 4 0 2 2 4 1 2 1 2 0 0 1 0 1 1 0 2 0 2 2 4 0 0 0 1 2 1 1 1 1 0 0 2 1 0 0 1 2 2 0 1 2 3 1 1 1 2 1 3 1 1 1 2 1 3 0 1 3 4 0 2 1 2 1 2 1 2 0 2 1 3 2 1 2 1 1 1 3 2 3 1 1 0 1 1 2 0 2 1 1 1 2 2 1 0 2 1 0 1 1 2 2 1 1 1 2 1 0 2 1 0 1 1 1 2 1 0 1 0 3 2 0 0 0 2 1 2 0 0 1 4 0 1 3 0 1 0 2 1 1 1 1 1 1 2 3 2 1 0 1 1 1 1 0 1 0 1 2 2 2 1 1 0 2 0 2 2 2 0 1 2 2 1 3 2 1 1 1 1 1 0 1 0 1 2 3 2 1 1 4 1 1 1 4 2 1 1 0 5 2 2 1 1 2 2 1 2 2 1 1 1 1 1 2 0 1 1 0 2 1 1 1 1 2 1 0 1 1 2 1 1 0 1 2 2 2 3 0 2 2 2 2 0 1 2 1 2 2 0 2 1 2 3 1 1 1 3 1 0 2 1 2 3 1 1 2 2 0 1 1 0 1 3 0 1 0 1 1 1 2 2 3 0 3 0 1 1 1 2 1 1 2 2 3 2 1 1 2 3 2 2 1 1 1 2 1 0 0 1 0 1 1 1 0 2 0 3 1 3 1 1 1 1 2 0 3 0 2 0 4 3 2 1 4 0 2 2 0 1 1 1 0 2 2 1 2 3 2 1 0 0 1 1 0 1 2 0 3 1 0 0 2 2 2 0 1 2 2 1 2 1 2 0 3 3 1 1 2 0 2 2 0 2 0 2 1 2 2 1 1 1 1 1 1 1 1 1 0 2 1 0 3 2 1 1 1 1 3 1 2 1 0 3 2 1 1 1 0 2 2 0 1 2 0 3 1 1 1 1 1 0 1 0 2 1 1 2 0 2 1 1 2 2 0 2 0 0 1 1 1 0 3 4 2 2 1 2 0 2 1 1 3 1 1 1 3 1 1 2 2 1 1 4 2 2 2 1 2 1 1 1 2 0 1 1 1 2 0 5 1 0 1 1 3 0 1 1 3 2 2 1 1 1 2 1 0 2 0 2 2 1 3 0 0 1 0 0 1 2 0 1 1 0 1 1 1 0 1 2 0 2 0 1 0 2 0 1 1 2 1 1 1 2 1 0 2 5 1 2 2 3 3 1 2 2 2 0 1 2 0 2 2 0 0 1 1 3 2 1 1 0 2 0 0 3 0 1 1 1 1 1 2 1 3 1 2 2 1 0 1 1 2 2 2 0 0 2 2 1 2 2 2 1 1 1 0 2 2 3 1 1 0 0 3 0 0 1 3 1 1 0 1 0 2 0 1 1 2 1 1 1 1 2 1 1 2 2 2 1 2 0 0 1 1 0 1 0 1 2 0 0 1 1 1 1 2 2 2 1 1 2 2 0 0 2 2 1 2 0 1 0 1 1 2 2 0 1 1 2 1 0 1 2 0 2 2 2 2 3 1 3 0 1 4 2 2 1 1 0 1 3 2 1 3 1 2 1 1 2 1 1 1 3 2 2 2 2 2 1 2 2 1 1 0 2 3 0 1 3 0 1 2 2 2 2 2 2 1 3 2 1 2 2 2 2 1 2 0 1 1 1 1 1 1 1 3 2 1 2 1 0 0 1 1 2 1 0 1 3 2 1 1 3 2 2 2 2 1 1 0 0 2 3 2 1 0 0 2 1 1 3 2 0 1 3 1 2 1 1 1 2 2 2 1 2 2 3 1 2 3 1 1 1 0 2 3 1 0 0 0 2 1 2 3 0 0 4 2 1 0 1 3 1 2 2 0 2 1 1 1 0 0 1 0 1 1 2 0 1 1 2 1 1 2 0 2 1 0 2 2 1 2 1 1 2 2 1 0 0 1 2 0 3 0 0 1 2 2 2 0 3 1 2 2 0 1 1 1 2 2 1 1 2 3 1 1 1 1 0 0 0 0 3 3 0 0 1 2 1 1 2 3 3 0 0 3 1 1 2 0 0 2 2 2 1 3 2 2 0 0 1 1 0 1 1 1 1 2 1 1 2 3 0 1 1 1 0 1 2 1 3 2 3 2 0 4 2 1 1 2 1 1 1 0 1 2 0 0 1 0 1 2 1 1 2 1 0 1 2 1 0 2 1 1 1 0 4 1 2 2 1 1 1 2 1 1 1 2 1 2 0 2 2 1 1 1 3 0 1 2 1 2 1 0 1 1 1 1 1 3 1 2 1 2 0 1 0 1 1 0 1 1 1 2 0 0 3 1 2 1 4 0 2 2 2 3 2 0 2 2 2 2 2 0 1 1 1 1 0 1 1 2 0 2 2 1 1 2 4 0 0 1 1 0 1 1 2 0 1 2 1 3 1 2 0 4 2 2 1 1 0 1 3 2 1 2 0 1 1 1 1 1 4 0 1 1 3 3 0 1 1 1 2 2 0 1 3 1 0 0 3 2 2 1 0 1 1 1 1 0 0 2 2 1 1 3 2 1 1 1 1 3 2 2 1 2 0 0 2 1 1 0 1 2 3 2 1 2 2 3 3 1 1 1 2 1 1 2 1 1 1 1 2 2 3 3 1 1 1 0 0 1 0 2 2 0 2 0 2 3 1 2 1 1 3 1 2 0 0 2 0 1 1 2 0 1 0 1 0 0 1 1 1 1 1 3 1 2 1 1 2 0 2 1 1 2 1 1 1 0 1 0 1 1 2 0 2 3 1 1 0 1 0 0 2 2 1 1 1 1 3 1 1 1 1 4 3 1 1 3 2 0 0 1 2 2 1 2 1 2 0 2 2 0 1 2 0 3 1 1 3 0 0 0 1 0 2 2 2 0 0 3 2 1 3 1 2 0 2 1 0 3 0 0 1 1 1 1 1 0 2 1 0 1 1 1 0 0 1 1 1 2 0 1 1 2 2 2 2 3 2 3 3 0 1 0 1 0 2 4 0 1 1 3 0 1 1 2 1 0 0 1 2 1 1 2 3 1 2 1 1 2 2 1 3 1 1 1 5 0 1 0 1 3 1 2 1 1 1 1 1 1 1 1 0 0 1 1 0 2 2 2 1 2 2 3 2 0 3 1 2 3 1 2 2 3 1 0 1 0 1 2 2 2 1 3 1 0 2 2 2 0 2 0 1 2 2 2 1 1 0 0 1 1 2 2 0 0 0 2 1 1 2 1 2 1 1 2 0 2 1 2 2 1 1 2 2 4 1 3 0 0 0 1 3 3 1 1 2 3 1 2 1 1 0 0 1 0 1 1 2 2 2 1 0 2 1 1 1 3 1 0 1 1 2 0 0 2 0 4 2 1 3 0 3 1 1 0 1 1 1 1 0 1 1 2 1 2 1 2 2 3 2 1 1 1 1 0 2 1 1 3 1 1 0 2 0 1 1 0 2 3 1 1 2 1 1 0 1 2 3 1 1 1 0 0 1 2 1 1 3 1 4 1 3 0 2 2 0 1 1 2 1 1 3 1 1 3 2 2 1 1 1 3 2 1 1 2 2 3 1 1 0 1 2 1 0 0 0 3 1 0 1 1 2 1 2 0 0 0 0 1 2 2 1 3 1 0 0 3 1 1 1 2 0 0 1 1 1 1 3 3 1 1 1 0 1 2 3 0 1 1 1 4 1 2 2 1 2 1 1 2 1 0 1 0 1 2 1 0 1 0 1 1 2 1 0 2 0 4 1 2 1 2 2 1 2 0 2 2 2 1 0 2 0 1 1 0 1 2 1 1 4 1 0 2 0 2 0 3 0 1 2 3 1 3 2 1 1 1 1 2 1 1 3 1 1 1 1 1 2 3 3 2 1 0 2 1 4 2 2 2 0 0 2 1 0 1 2 0 1 2 0 0 3 2 1 0 0 2 4 2 2 1 1 2 2 1 1 1 2 2 2 0 4 2 0 0 2 1 1 0 0 2 2 2 1 0 0 1 1 1 0 2 2 1 0 1 1 4 1 1 2 2 1 1 2 3 2 2 0 2 2 0 1 0 1 2 0 1 1 3 1 2 1 0 1 0 1 1 0 2 1 2 0 1 2 1 1 4 1 1 0 0 2 1 1 2 0 1 2 2 0 0 0 1 1 0 1 0 0 2 0 0 0 1 1 1 2 0 0 0 1 2 2 2 3 2 2 2 1 4 1 2 1 1 0 0 1 2 1 3 1 0 1 3 1 2 1 2 0 0 1 1 0 0 0 1 1 3 2 1 0 3 1 2 2 2 1 2 2 1 2 3 1 0 3 2 1 1 2 0 2 1 1 1 0 1 1 1 1 0 2 3 1 3 2 2 1 0 1 2 1 1 1 1 2 3 1 1 2 1 0 1 1 2 1 0 1 1 0 1 2 1 0 0 2 0 4 1 2 2 1 2 0 3 0 1 2 3 1 1 2 1 1 1 2 1 2 0 3 1 1 1 2 1 1 2 0 2 3 0 2 2 2 1 1 2 2 0 2 1 3 4 1 1 0 0 1 1 0 0 3 2 1 2 2 0 0 1 2 2 2 0 2 2 1 1 0 2 1 2 2 1 3 3 3 0 1 2 0 1 0 1 0 1 1 1 4 3 1 0 2 2 1 2 2 0 1 3 1 2 1 2 3 0 1 1 1 1 0 2 2 1 2 1 2 1 0 0 2 2 3 1 1 1 2 3 2 2 2 0 3 1 0 0 0 2 0 2 2 2 3 1 1 1 1 2 1 2 3 1 2 1 2 2 1 2 2 3 0 1 2 3 0 1 2 2 2 1 3 1 0 0 2 2 2 1 1 4 1 1 2 1 1 1 2 0 0 0 2 1 4 1 0 2 1 0 1 1 1 1 1 3 0 0 2 1 2 2 1 3 2 2 2 2 3 0 3 1 1 2 1 0 0 0 3 1 1 1 2 2 1 2 1 2 3 3 0 2 0 1 1 2 3 0 1 0 0 1 1 1 1 0 2 4 1 2 0 1 1 2 1 4 0 2 2 3 1 0 3 1 1 3 2 1 2 1 1 1 2 0 2 1 2 1 1 2 2 2 0 1 0 2 2 1 0 2 1 2 3 1 0 3 0 3 1 2 1 1 1 1 0 1 4 2 2 0 2 1 3 1 2 1 1 0 1 1 1 1 2 0 1 1 3 2 1 0 2 0 2 0 0 1 2 0 1 1 3 1 2 2 0 2 5 2 0 2 0 1 2 2 0 3 1 2 0 1 1 0 0 3 2 5 0 1 3 1 2 1 0 1 2 1 1 1 0 1 0 0 3 1 2 1 2 2 1 0 0 3 1 2 2 0 1 3 1 1 1 0 2 2 1 1 2 0 3 1 1 1 0 1 1 1 1 0 3 1 0 0 2 0 1 1 1 1 1 2 2 2 2 1 1 1 1 1 1 2 1 1 4 2 2 2 2 1 5 1 1 1 1 2 1 1 2 2 2 1 2 3 2 1 3 3 1 2 2 1 2 0 3 1 3 1 1 2 0 2 0 2 1 2 1 2 1 2 2 1 0 2 1 0 1 1 0 0 1 2 1 2 1 0 0 2 1 3 1 1 1 3 0 1 2 3 2 2 1 2 1 2 0 1 0 0 1 0 2 1 1 3 2 0 2 3 0 0 2 3 2 0 2 2 2 4 2 2 3 0 2 2 2 0 0 0 1 1 3 1 1 2 2 3 2 3 2 2 1 1 2 1 0 1 2 2 1 1 0 0 1 1 3 2 2 0 1 2 0 0 1 2 1 1 0 0 0 3 2 2 0 1 1 1 3 1 1 0 2 2 1 0 0 1 0 3 1 2 2 2 2 2 2 2 1 3 2 1 0 2 0 3 2 1 2 1 1 2 2 2 1 1 0 1 1 1 1 2 1 1 4 1 0 3 2 1 0 3 1 1 2 1 0 1 1 0 0 2 2 0 4 2 1 0 0 1 3 2 2 0 0 0 1 4 0 2 1 1 1 1 1 1 1 0 2 3 1 2 0 1 1 2 1 2 1 2 1 2 2 1 1 0 4 1 3 3 4 2 0 2 2 1 1 1 2 1 0 1 1 1 2 3 1 1 2 3 0 1 2 1 1 2 0 1 1 1 0 2 2 2 0 2 1 0 1 0 0 2 0 3 1 0 2 3 1 0 3 1 0 2 3 0 3 1 2 2 0 0 1 1 3 0 0 2 2 2 1 2 2 0 1 0 2 2 2 1 1 0 1 1 1 2 1 1 0 1 1 1 2 1 1 2 0 2 1 1 1 2 1 2 2 1 0 2 0 1 1 1 2 1 0 1 1 0 2 3 1 1 1 1 2 0 1 0 1 1 1 2 2 2 1 1 2 1 4 2 0 1 2 2 3 1 1</t>
-  </si>
-  <si>
-    <t>GAM(0.09827809304936802, -3.3017693413365157e-28, 0.6722316469246972)</t>
-  </si>
-  <si>
-    <t>0 1 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 0 0 1 2 0 1 0 0 0 1 1 2 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 2 2 0 0 0 1 1 0 0 0 2 0 1 0 0 1 5 0 0 1 0 1 0 1 1 1 1 0 1 0 3 0 0 0 0 1 0 0 1 1 3 2 0 0 1 0 0 1 0 3 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 3 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 0 1 2 1 2 0 0 0 1 0 2 0 0 0 0 1 0 0 2 0 1 2 0 0 0 0 1 0 0 0 1 1 0 0 1 1 0 2 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 0 1 1 1 1 0 0 0 0 1 1 2 3 0 2 0 1 0 0 0 0 3 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 1 2 1 0 0 2 1 2 0 0 1 0 0 0 0 1 0 1 1 0 0 2 2 1 0 1 1 1 0 2 1 1 1 0 2 0 0 2 1 1 0 1 0 2 0 0 1 0 5 2 0 2 2 0 0 0 0 0 0 0 1 0 1 0 2 0 1 0 1 1 0 0 0 0 2 0 0 0 0 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 1 0 0 1 0 1 0 1 0 0 0 0 2 0 0 1 1 1 1 0 1 0 2 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 3 0 1 0 1 1 1 1 0 0 1 1 0 2 1 1 0 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 2 0 0 0 2 1 1 0 1 1 1 2 1 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 0 2 2 3 0 1 0 0 1 1 1 1 1 2 0 1 0 1 1 1 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 3 1 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 1 1 0 0 0 0 1 1 0 2 0 1 2 0 1 2 0 0 0 1 0 0 1 0 0 2 1 1 2 1 1 0 0 1 0 0 1 0 0 1 0 1 4 0 1 1 1 1 0 1 0 0 0 2 0 2 0 1 0 0 0 0 1 0 1 0 1 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 2 1 1 0 1 1 1 0 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 1 0 1 2 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 2 1 1 1 0 2 1 1 1 0 1 0 2 3 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 0 0 2 0 0 2 0 2 1 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 2 2 1 1 0 1 1 1 0 0 0 2 1 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 1 0 1 1 0 0 1 0 2 1 0 0 0 0 0 2 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 2 2 0 1 0 0 1 0 1 0 1 0 1 0 0 2 2 0 0 1 0 1 0 0 0 0 1 0 2 1 1 0 3 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 2 2 0 0 0 1 2 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 2 0 0 0 1 1 1 0 1 2 0 1 0 1 1 0 0 1 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 2 1 0 1 0 1 0 0 0 0 0 1 2 1 1 0 0 1 0 3 1 1 2 2 1 0 2 0 1 0 2 1 1 1 1 0 0 1 0 0 1 0 1 0 1 0 0 1 1 3 1 0 1 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 1 2 1 1 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 3 2 0 2 1 0 0 1 1 2 0 0 1 0 0 0 1 0 0 1 0 1 3 0 0 0 0 2 1 0 1 0 0 0 0 1 0 2 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 1 0 2 0 0 0 0 1 4 0 1 0 0 0 0 2 1 1 0 2 0 2 0 2 2 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 1 0 2 0 0 1 0 0 0 1 0 0 0 1 1 0 1 1 0 0 2 0 2 0 1 3 0 0 1 0 1 1 1 0 1 1 1 0 0 3 1 1 0 1 1 0 0 3 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 2 0 0 2 1 1 0 1 1 0 0 0 1 1 0 0 0 0 3 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 2 1 0 0 1 0 1 1 1 1 0 0 0 0 1 1 1 0 1 1 0 0 1 3 1 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 4 1 0 2 1 0 0 1 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 1 1 0 1 0 1 1 0 1 1 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 2 0 0 0 0 2 0 1 0 0 2 0 1 1 1 1 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 0 1 2 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 3 0 1 0 0 0 1 1 0 0 2 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 2 0 2 1 0 1 1 2 0 2 0 1 1 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 3 1 0 0 0 0 0 1 0 1 0 2 0 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 1 0 2 1 2 0 0 1 1 1 1 1 0 0 2 2 0 0 0 0 3 1 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 3 0 3 0 3 1 1 1 0 0 0 0 1 1 0 2 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 2 0 0 1 1 2 2 1 1 1 1 0 1 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 1 1 1 1 0 3 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 2 0 1 0 0 0 1 1 1 0 0 2 1 0 0 0 1 1 1 1 0 0 0 2 0 0 0 0 0 0 1 2 1 1 0 0 0 1 0 1 1 2 1 0 0 1 1 1 1 0 1 2 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 3 0 0 1 0 0 0 0 2 0 0 2 1 2 0 0 1 1 0 1 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 2 2 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 2 0 0 0 1 0 0 2 1 0 0 0 2 1 1 0 0 0 1 0 1 1 0 0 1 2 1 0 0 1 0 1 0 1 2 0 0 1 0 0 0 1 2 1 1 0 0 0 1 1 1 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 1 2 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 1 1 2 0 0 0 1 0 0 0 0 0 2 1 0 1 1 2 0 0 0 1 1 0 0 0 0 0 2 1 2 0 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0 1 2 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 1 0 1 2 1 0 0 0 1 0 0 0 1 1 1 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 3 0 1 1 1 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 2 0 0 0 0 0 0 1 0 0 0 0 2 0 1 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 1 0 2 0 1 0 2 0 0 1 0 0 0 0 0 1 1 0 1 0 2 0 1 2 1 0 0 1 0 2 0 0 0 0 0 0 2 0 1 1 0 2 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 1 2 0 0 1 1 2 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 2 3 0 0 0 1 1 0 1 1 0 1 1 0 0 1 1 0 2 1 0 2 2 1 0 0 0 0 5 3 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 1 0 0 0 1 2 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 0 0 2 1 0 0 1 1 0 0 1 0 0 2 0 0 1 0 1 0 0 0 2 0 0 0 1 0 1 0 0 0 1 2 0 0 1 1 0 1 1 1 0 1 0 0 1 0 1 1 0 0 1 1 1 0 1 2 0 0 0 3 1 0 0 0 0 2 0 0 0 3 0 0 1 1 0 1 0 0 1 2 0 1 1 0 1 1 0 0 0 2 0 0 0 2 1 2 1 0 2 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 1 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 2 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 4 0 1 3 0 0 0 1 0 1 1 0 0 1 1 2 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 1 0 2 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 1 2 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 2 0 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 3 0 0 2 0 0 1 3 1 1 1 0 0 0 0 0 0 2 1 1 2 1 3 2 0 1 1 1 0 0 0 1 0 0 0 0 2 0 2 0 2 0 0 0 1 1 0 1 0 1 1 0 0 1 3 0 1 0 1 0 2 0 0 0 0 1 0 0 0 0 2 0 0 0 2 0 0 0 0 1 0 1 2 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 1 1 0 1 2 0 0 1 2 1 2 1 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 0 1 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 2 0 0 1 0 0 1 0 0 0 2 0 0 2 1 2 1 0 1 0 0 2 1 0 0 2 1 0 1 1 0 1 1 2 0 1 1 0 1 0 1 1 0 0 2 0 0 2 0 2 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 0 3 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 2 0 0 0 1 0 0 2 2 0 1 0 0 1 1 0 1 1 0 2 2 0 0 1 0 3 0 0 0 0 0 0 1 0 4 0 0 2 0 0 1 0 1 1 0 0 0 0 1 0 0 1 2 1 1 2 1 0 1 0 0 0 1 1 1 0 0 1 2 3 0 1 1 1 2 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 1 1 0 0 1 1 0 2 1 1 0 0 0 2 0 1 0 0 0 0 1 0 1 3 0 0 0 3 0 2 2 1 0 0 1 1 0 0 0 0 2 1 0 1 0 2 1 0 1 1 1 0 0 0 1 2 0 2 2 1 1 1 1 0 1 0 3 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 0 1 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 2 1 0 0 0 1 0 1 3 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 1 0 0 1 4 1 0 1 2 2 0 1 2 1 2 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 1 1 2 1 0 0 0 2 1 0 0 0 0 1 1 1 0 0 2 1 1 1 0 1 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 2 0 1 0 0 2 0 1 0 2 0 0 1 1 0 1 0 2 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 2 2 2 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 2 2 1 0 1 0 0 0 1 1 0 1 2 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 1 2 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 1 1 0 0 1 1 0 0 0 0 0 4 0 1 2 0 0 1 1 1 1 2 1 1 0 1 2 0 2 0 0 1 0 1 1 0 0 1 1 0 0 2 0 0 1 1 0 0 0 0 0 0 2 0 0 2 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 1 1 0 0 2 1 0 1 0 1 1 0 1 0 1 0 0 0 1 2 0 0 0 1 0 1 2 0 0 1 0 0 3 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 2 0 0 3 1 2 0 0 0 1 0 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 2 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 3 0 0 0 2 0 0 0 2 1 1 0 1 0 0 2 0 0 0 1 0 0 1 1 1 0 1 0 1 0 1 0 1 0 0 0 3 0 0 1 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 0 3 1 1 1 1 0 0 0 0 0 1 0 0 1 2 0 1 1 0 2 1 2 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 1 0 1 2 0 0 0 2 1 0 1 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 1 1 0 0 0 1 1 0 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 2 1 0 1 1 0 0 1 3 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 1 1 2 0 0 4 0 0 0 0 0 2 1 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 3 0 2 1 0 0 0 1 0 1 0 1 1 0 1 0 3 1 1 0 0 0 0 0 1 0 0 2 1 0 1 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 1 1 0 2 1 1 1 0 1 0 1 2 1 1 0 0 2 0 1 1 1 0 1 1 1 1 1 0 1 0 2 0 0 0 0 0 2 0 0 0 4 0 0 3 0 1 2 1 0 0 1 0 2 2 1 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 1 0 2 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 3 1 0 0 0 0 2 0 1 0 0 1 2 1 0 0 1 0 0 0 2 0 0 2 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 1 1 2 0 2 0 0 0 1 1 0 2 2 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 1 0 1 0 1 1 1 0 0 1 0 4 1 0 2 0 0 1 1 0 0 1 0 1 1 1 1 0 2 0 1 1 1 0 0 0 0 0 2 1 2 0 0 0 1 0 0 0 0 0 1 2 1 0 0 0 1 0 0 2 0 0 3 0 0 1 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 0 3 2 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 1 0 1 2 0 1 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 1 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 1 1 1 0 2 3 1 0 0 1 0 0 1 1 1 2 2 0 1 0 1 0 0 0 0 2 1 2 0 0 1 1 1 0 0 1 2 0 0 0 2 0 0 2 0 0 1 2 1 1 0 0 1 2 0 1 0 1 1 0 0 1 1 1 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 2 4 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 4 0 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 1 0 1 2 1 1 0 0 1 0 0 2 0 3 0 0 0 0 1 2 0 0 0 1 0 0 0 3 1 0 0 1 3 1 0 0 0 1 1 0 0 1 1 0 1 1 1 0 1 0 0 1 0 0 2 0 1 1 1 0 0 2 0 0 0 1 1 3 0 3 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 3 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 1 0 0 0 1 0 0 1 0 1 2 0 2 0 1 2 1 1 1 0 2 0 0 1 3 0 2 1 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 2 0 0 0 1 0 1 1 0 0 2 1 1 0 0 0 1 0 2 0 0 2 0 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 1 1 1 2 2 0 0 2 1 0 0 2 1 2 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 1 0 0 1 1 0 0 1 0 0 0 0 0 2 1 1 3 0 0 0 2 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 2 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 2 1 1 0 1 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 2 0 2 1 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 4 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 1 0 0 1 0 0 1 0 2 2 2 1 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 1 0 0 0 1 0 1 1 0 0 0 1 1 0 3 1 0 1 0 0 0 0 1 1 0 1 0 1 0 1 2 1 1 1 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 0 1 0 1 0 0 0 1 0 1 1 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 1 0 2 1 0 0 1 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 0 2 1 0 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 1 0 1 2 0 0 0 1 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 2 0 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 1 0 1 0 0 1 0 3 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 3 0 0 1 0 0 1 1 1 0 0 2 0 1 2 1 0 0 1 0 0 1 0 1 2 1 3 1 2 0 2 0 2 1 2 1 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 2 0 2 2 2 0 0 1 0 2 0 2 0 2 0 1 1 1 0 1 1 0 1 0 0 1 1 1 2 0 0 0 1 0 0 1 0 1 0 1 2 0 0 0 1 0 0 2 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1 1 0 1 2 1 2 1 1 1 0 1 1 1 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 2 0 0 0 0 2 0 0 1 0 0 0 1 1 3 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 2 0 2 1 0 0 1 1 0 1 0 2 1 2 0 0 0 1 0 1 1 0 0 1 1 0 1 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 2 2 0 1 0 0 0 1 1 0 0 1 0 1 1 1 2 0 2 0 0 1 1 0 0 0 0 3 0 0 1 0 1 3 2 0 2 1 0 1 0 1 0 2 0 1 1 3 0 1 0 0 0 0 0 1 1 1 1 2 1 0 1 0 0 2 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 1 0 0 2 0 1 1 1 0 1 0 2 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 2 1 2 1 0 0 2 1 0 1 1 0 0 1 1 1 3 1 0 3 1 0 1 0 0 1 0 1 1 0 0 0 1 1 2 0 0 1 0 0 2 0 3 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 2 1 0 0 0 1 1 0 0 0 0 2 1 0 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 1 0 2 1 2 1 1 1 0 0 0 2 0 0 0 1 1 1 0 1 1 0 0 1 2 0 0 0 2 0 0 0 0 1 0 1 2 0 0 1 1 0 0 0 1 0 0 0 0 1 1 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 2 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 0 3 1 0 0 2 0 1 0 0 0 0 0 1 0 0 1 1 3 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 2 1 0 0 0 2 0 0 0 0 2 2 0 1 0 0 0 1 1 1 1 0 1 0 0 2 1 0 0 0 0 0 0 1 0 0 1 1 2 1 1 1 1 3 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 2 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 2 2 0 0 0 1 0 0 0 0 1 1 0 1 0 3 0 0 0 0 1 1 1 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 3 1 0 0 0 1 1 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 0 1 1 0 1 1 0 1 0 0 0 2 1 0 1 0 1 1 0 2 0 2 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 2 3 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 0 1 2 1 0 1 1 1 2 0 0 0 0 1 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 3 0 0 0 0 3 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 2 0 0 1 1 1 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 1 1 0 0 2 0 0 0 0 1 0 1 0 0 0 1 0 1 1 0 1 0 0 1 1 1 1 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 2 1 1 1 0 0 0 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 1 0 2 0 0 1 1 0 1 1 0 1 0 1 1 0 0 1 1 0 0 1 0 1 1 2 1 0 0 1 1 1 1 1 0 2 0 2 2 0 0 0 0 0 0 0 1 0 1 3 0 0 0 0 0 1 2 0 0 1 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 1 0 1 2 0 0 2 1 1 0 1 1 1 0 2 2 0 0 2 0 3 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 0 0 1 2 0 0 0 0 0 2 1 1 3 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 3 2 1 1 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 1 0 0 0 1 2 1 0 0 1 0 1 2 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 2 0 0 1 0 2 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 2 3 1 0 0 0 1 1 1 0 1 0 1 0 2 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 1 2 0 0 0 0 1 0 1 0 0 1 1 0 0 0 2 0 0 2 0 0 1 0 0 0 1 0 0 0 1 0 0 2 1 0 0 1 2 1 1 0 0 0 0 1 2 1 0 1 0 1 0 2 1 0 2 0 0 1 2 2 0 1 2 1 0 0 0 0 0 1 0 2 1 0 0 0 2 0 1 1 0 0 1 0 2 0 0 2 0 0 0 0 2 1 1 0 1 1 1 0 1 2 0 1 2 1 0 0 1 0 0 1 1 1 0 0 1 0 1 1 2 0 0 0 0 1 0 0 1 0 2 0 1 1 0 0 0 1 0 0 3 2 1 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 2 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 2 0 1 0 1 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 3 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 1 1 1 0 1 1 1 1 0 0 0 0 1 0 0 0 2 0 1 3 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 1 1 2 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 2 0 0 0 0 2 1 0 1 1 1 1 1 0 1 1 0 2 0 0 0 0 0 0 0 2 0 0 1 2 0 1 1 0 0 1 1 2 0 0 3 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 3 0 0 0 0 0 2 0 2 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 2 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 2 0 1 0 1 1 1 0 1 1 0 2 2 0 0 0 2 0 0 1 1 2 2 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 1 0 2 2 1 1 0 0 0 0 0 0 0 0 2 1 0 1 0 2 0 1 0 0 0 0 1 2 0 1 1 0 1 1 1 2 0 1 3 1 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 0 1 1 0 0 0 0 3 0 0 0 0 0 1 1 0 0 0 0 0 2 0 0 2 1 1 1 0 1 0 1 0 0 0 0 1 2 0 0 1 0 0 0 0 1 1 1 0 0 2 1 2 1 2 1 0 0 0 1 0 0 0 0 4 0 2 0 3 1 1 1 0 0 1 1 1 0 0 2 1 0 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 0 0 0 1 0 1 2 1 0 1 0 0 0 0 0 1 1 1 1 0 0 1 1 2 0 0 2 0 0 0 1 1 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 2 1 2 0 1 0 0 1 0 1 0 0 0 0 1 1 1 1 1 0 0 0 2 0 0 1 0 0 0 2 1 1 1 0 1 2 2 1 0 0 1 1 1 0 0 0 0 1 2 1 0 1 0 1 2 0 0 0 1 0 1 2 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 0 0 1 2 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 3 0 0 1 0 2 0 2 0 0 1 1 0 1 0 1 0 1 1 2 2 1 1 0 1 1 0 0 1 0 2 1 1 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 1 1 1 0 0 1 0 1 1 1 1 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 2 1 0 2 0 0 0 3 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 2 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 2 0 2 1 0 2 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 2 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 3 0 0 2 1 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 0 0 1 0 2 1 0 1 1 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 1 0 1 0 2 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 3 0 1 0 1 0 2 0 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 2 2 0 0 1 1 1 0 0 0 1 1 1 1 1 1 0 1 0 1 0 1 1 1 1 0 2 0 0 0 1 0 0 1 0 0 1 0 1 1 2 0 2 1 1 1 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 2 1 1 1 0 0 0 1 1 2 1 1 0 0 0 0 0 1 0 0 2 1 1 0 1 0 0 0 0 1 0 1 0 0 2 1 1 1 0 1 0 0 0 1 3 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 3 0 0 0 2 0 2 0 2 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 1 1 0 1 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 2 2 3 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 1 1 1 1 0 0 0 2 0 0 1 0 0 0 2 1 0 0 1 0 0 1 0 3 0 0 2 0 0 1 1 0 1 0 1 0 0 0 2 1 1 1 0 0 0 1 0 0 0 2 0 0 0 1 1 3 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 0 1 2 1 0 1 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 1 2 0 0 0 0 1 0 1 0 0 1 1 0 1 1 0 0 0 1 0 3 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 1 1 0 1 0 1 0 0 0 0 0 1 2 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 3 1 0 2 0 0 0 0 0 1 2 0 2 0 0 0 0 0 0 2 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 2 2 0 1 2 1 2 0 1 1 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 2 1 1 0 1 2 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 2 0 0 0 0 0 2 1 0 1 1 3 0 0 0 0 0 0 1 1 1 1 1 0 2 1 3 0 1 0 0 1 0 1 1 0 0 0 1 2 1 1 0 1 0 0 0 1 1 0 2 1 0 2 1 0 0 1 3 0 1 1 1 1 1 0 0 0 0 1 2 2 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 0 1 2 2 2 2 0 2 0 1 0 1 0 0 0 2 0 2 1 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 1 1 0 1 1 1 0 0 1 1 2 0 2 0 0 1 1 1 0 1 0 0 1 0 0 1 2 1 1 1 0 3 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 1 0 1 1 0 0 1 0 1 2 1 0 0 1 0 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 1 0 1 0 0 2 0 1 1 0 0 2 0 0 1 0 0 3 2 0 1 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 1 0 1 1 0 1 1 0 3 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 2 0 1 1 1 2 1 0 1 1 0 1 0 0 0 1 0 0 2 1 1 2 1 0 0 1 0 0 0 1 1 1 2 0 0 0 2 0 0 1 1 2 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 1 1 0 0 1 1 0 1 0 0 0 0 2 0 1 1 1 0 2 1 0 0 0 0 0 1 1 1 2 0 0 1 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 0 0 0 1 1 1 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 3 0 0 2 0 4 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 1 1 0 1 0 1 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 1 1 0 1 0 0 3 0 0 0 0 0 1 2 1 0 0 1 0 0 0 1 0 0 2 0 1 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 0 1 0 0 1 0 0 0 1 1 0 1 2 0 0 1 0 0 0 1 2 0 1 2 0 1 0 0 1 2 1 0 0 0 1 0 1 0 0 2 1 1 2 0 0 0 0 0 0 2 0 0 1 0 0 2 1 1 1 0 1 0 2 0 1 2 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 1 1 0 0 0 0 1 1 0 1 0 0 0 1 1 2 0 0 1 0 0 0 2 2 0 0 1 0 0 0 2 0 1 0 0 1 0 0 1 0 0 0 2 1 1 0 0 1 1 1 0 0 0 3 1 0 0 0 1 1 0 2 0 1 0 2 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 2 0 0 0 1 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>GAM(27.20490462099896, -94.84760781500103, 7.287366431064344)</t>
-  </si>
-  <si>
-    <t>117 82 47 155 133 112 93 49 104 111 87 96 118 129 110 74 140 121 165 74 97 141 167 86 116 68 64 146 146 234 87 91 183 57 107 103 106 117 76 83 138 206 49 81 100 162 83 116 159 74 83 122 110 146 160 81 91 109 130 109 158 144 67 170 61 89 60 182 91 127 142 67 106 73 73 139 115 156 148 111 166 87 120 122 85 101 76 73 166 75 35 69 52 100 94 174 121 37 106 239 54 176 82 84 113 67 54 49 31 87 130 161 119 101 128 56 57 92 86 99 73 61 65 106 85 152 136 98 183 77 88 55 93 115 118 76 97 111 91 94 171 29 159 114 65 106 230 101 72 114 92 74 95 110 63 158 180 101 51 53 44 131 60 39 143 164 112 60 135 99 124 38 111 134 123 85 76 89 70 110 62 57 92 117 89 43 160 80 93 178 67 122 83 75 53 157 93 168 117 105 118 129 116 107 83 48 156 195 0 85 84 73 65 118 108 45 49 123 146 168 78 154 91 94 152 65 46 79 24 182 109 111 96 149 89 87 64 52 53 116 133 31 103 117 97 85 95 76 105 90 136 92 121 98 79 69 127 132 62 69 160 85 92 138 78 146 88 95 123 100 73 99 127 77 148 84 99 128 72 81 81 104 75 22 148 155 100 84 132 108 142 159 92 124 44 132 136 50 61 80 62 140 152 129 89 161 78 92 91 198 146 105 118 60 116 94 72 111 126 227 66 169 112 84 133 167 123 103 121 167 82 118 174 101 82 162 67 43 174 122 50 9 112 79 80 102 78 98 158 103 192 133 58 95 108 176 99 185 58 72 238 116 125 85 113 96 124 90 104 101 164 48 91 118 83 147 116 97 50 85 80 112 95 64 125 123 46 58 101 135 56 111 141 119 96 59 31 148 156 82 77 164 129 137 126 102 131 133 139 83 68 179 75 149 86 62 68 134 153 85 116 99 103 97 158 156 101 178 116 161 58 101 98 101 79 21 52 58 107 85 158 78 115 105 118 109 109 65 94 40 85 119 120 153 86 105 82 141 45 110 91 66 168 106 73 39 89 97 109 105 130 94 129 54 119 95 120 82 108 121 78 103 140 116 103 87 69 161 144 16 78 73 133 104 60 134 161 56 210 74 137 202 70 141 43 96 41 157 83 94 58 58 58 96 77 126 129 96 94 109 63 48 119 80 92 114 109 67 129 69 88 66 107 80 126 144 147 37 71 107 111 111 209 152 98 119 154 102 141 78 126 193 62 130 173 82 64 26 141 116 86 60 86 120 105 112 81 45 147 41 118 97 181 73 93 144 97 88 84 89 118 78 50 104 152 92 49 110 92 117 92 69 66 77 47 87 117 88 41 43 55 133 145 126 162 52 79 89 96 64 35 128 90 98 127 56 106 98 117 106 145 27 143 41 107 98 171 116 92 78 96 131 144 115 144 145 77 64 54 145 99 26 75 59 65 154 179 72 80 73 125 119 73 89 48 172 107 136 115 115 79 119 72 136 123 130 33 98 121 119 58 122 101 123 136 88 164 72 93 106 170 52 134 78 129 82 98 44 174 99 112 134 136 91 121 97 160 143 110 76 75 140 99 139 68 73 135 96 89 46 155 3 109 48 122 81 33 160 180 80 130 118 151 91 175 50 80 26 115 51 118 95 91 110 30 134 136 77 77 107 99 81 121 113 123 122 117 151 102 26 106 100 119 135 62 57 104 44 174 153 114 59 69 83 38 146 140 123 127 141 102 121 149 113 37 70 120 126 102 120 98 84 112 63 165 101 83 134 77 67 98 177 81 176 149 109 156 155 119 106 59 38 74 115 80 77 85 105 112 130 84 91 73 78 156 105 112 122 103 123 104 195 28 82 90 215 167 76 52 148 71 94 124 85 158 56 129 119 33 74 83 91 127 213 108 77 165 102 159 82 61 96 66 37 86 103 89 48 74 55 132 114 151 177 85 65 127 100 161 158 84 134 68 112 65 96 39 123 98 102 73 88 59 80 43 205 93 114 76 15 84 97 185 114 117 98 102 146 47 147 32 115 152 93 72 155 123 45 112 100 107 156 91 35 80 131 117 137 135 176 128 144 68 103 136 115 69 87 77 109 131 180 93 225 159 51 116 40 175 126 101 158 176 135 137 77 60 68 165 136 60 101 125 41 160 107 95 133 96 155 143 117 124 91 96 66 65 133 43 79 111 54 102 126 111 143 118 118 56 160 84 72 130 114 135 127 110 166 45 105 86 33 118 42 55 80 117 148 61 52 124 133 113 116 92 112 98 62 203 65 107 143 86 119 104 120 57 140 123 84 87 50 48 54 127 55 122 65 141 120 80 54 111 92 78 75 118 115 92 53 46 226 97 146 148 61 89 102 133 120 110 86 92 48 174 96 205 96 140 18 102 95 87 76 197 46 122 121 117 106 111 41 63 112 141 120 72 100 99 112 105 86 88 82 43 107 63 111 88 113 153 84 66 92 142 86 30 77 123 125 159 124 95 145 55 113 94 228 138 65 74 122 79 126 172 77 137 137 153 109 75 67 125 60 115 124 111 134 81 124 104 79 117 45 182 58 117 79 91 53 98 174 105 96 131 77 72 93 152 153 68 92 91 81 100 94 69 135 101 65 182 35 114 96 70 45 58 48 136 61 69 83 160 50 55 106 80 72 1 144 73 116 25 75 97 85 119 111 128 85 70 125 172 123 90 84 66 216 129 84 52 180 133 134 79 90 62 106 44 119 76 139 142 123 76 143 110 82 31 150 103 40 133 169 158 88 117 128 59 76 69 131 144 87 71 72 101 131 78 117 140 110 123 97 83 79 126 69 140 116 95 92 119 135 110 88 117 125 74 128 47 166 47 132 53 102 184 166 113 93 58 148 113 78 92 76 69 95 111 174 121 57 82 76 150 186 96 49 103 129 179 104 168 187 94 51 76 110 46 152 117 45 87 145 203 141 89 85 81 101 133 145 112 93 95 170 160 121 84 139 100 95 148 90 167 121 86 70 52 72 88 202 79 139 78 98 120 53 137 45 176 159 63 127 94 73 122 137 104 125 80 78 106 72 91 109 116 47 118 81 116 209 134 70 79 101 143 82 103 62 206 152 111 89 150 130 107 137 99 64 96 93 57 83 70 132 170 69 119 147 73 204 65 69 126 121 213 60 160 144 148 89 63 114 171 59 134 25 195 113 113 222 75 114 77 81 68 143 117 52 79 39 98 113 80 87 146 164 110 95 88 110 87 36 68 51 154 130 87 46 108 67 81 50 85 96 99 66 103 123 151 56 92 54 80 47 71 129 103 106 109 139 45 82 86 117 104 120 202 139 39 163 89 38 101 69 106 84 134 109 77 82 168 79 52 104 120 29 97 141 195 160 109 159 37 102 108 45 156 84 81 98 47 47 66 120 81 107 139 33 72 25 117 114 148 109 171 116 32 54 111 65 134 95 188 99 107 98 98 136 87 200 140 87 82 120 79 95 76 140 88 105 52 68 88 110 106 49 156 124 133 106 157 135 106 79 58 108 99 78 67 144 102 137 100 49 88 108 102 109 132 148 125 149 100 82 82 172 112 128 91 103 116 97 27 135 86 156 80 92 92 37 80 74 111 140 86 174 103 85 83 44 82 118 170 125 93 84 88 35 76 109 77 101 122 107 87 29 104 48 46 125 110 126 106 56 130 158 85 104 90 69 111 84 89 125 109 126 79 151 89 87 123 119 86 148 156 144 123 81 174 129 103 93 74 107 81 36 160 98 128 116 153 130 184 180 73 130 175 84 32 126 88 108 192 102 49 81 125 45 123 180 62 112 55 100 51 54 65 64 115 99 121 96 54 69 159 70 88 138 194 144 143 64 71 67 105 61 80 60 188 125 135 74 134 163 71 93 156 83 61 109 49 99 115 133 66 171 52 100 82 88 69 146 96 180 124 112 129 104 101 152 107 68 189 155 15 127 124 90 129 60 73 153 112 129 68 100 123 128 72 90 73 118 130 107 56 79 102 86 144 101 175 64 96 132 51 106 87 81 123 95 88 171 12 92 127 69 121 142 123 71 69 106 93 119 135 117 151 133 156 108 86 128 68 126 132 135 108 84 109 122 161 132 125 121 72 60 156 162 152 144 81 96 119 45 122 69 93 56 102 142 53 78 89 53 121 83 101 155 116 150 184 96 195 123 133 69 169 88 101 115 112 131 129 60 101 135 128 91 91 158 38 98 78 130 34 103 126 140 128 150 103 44 44 87 49 48 131 164 89 138 100 146 87 102 75 134 138 125 138 113 95 70 35 87 163 80 69 133 119 98 106 95 63 30 108 199 160 142 112 145 75 111 59 95 65 154 84 104 139 63 47 109 91 84 62 105 149 100 121 59 79 65 187 97 78 122 72 108 107 156 182 130 87 94 117 101 93 63 112 126 206 180 80 133 159 200 85 111 212 32 48 116 98 77 82 105 94 166 60 121 72 112 61 36 48 92 45 138 97 64 122 43 103 156 95 124 103 69 74 59 134 127 141 36 117 89 109 90 69 31 199 93 125 177 87 59 94 108 152 95 80 85 121 61 84 95 103 77 104 77 188 50 99 123 123 149 162 103 68 134 186 101 116 144 54 178 104 75 209 102 151 99 194 168 119 125 105 127 31 194 137 174 104 146 146 106 176 117 134 101 111 152 112 156 106 209 86 45 131 145 115 95 158 124 94 111 125 51 127 47 104 123 146 125 103 90 82 92 140 131 35 98 139 106 64 63 150 80 153 88 103 120 72 94 92 156 62 120 99 124 56 75 51 99 60 185 69 53 59 136 116 91 181 115 81 89 133 124 148 127 103 84 76 96 137 79 47 128 124 74 117 50 125 63 87 133 155 95 160 155 114 161 87 142 72 138 21 145 122 163 110 97 194 84 60 53 101 124 113 122 118 93 103 90 158 141 118 129 125 54 34 57 46 122 110 136 120 101 37 77 78 135 59 158 111 126 105 148 146 133 88 72 47 104 34 144 42 106 150 169 121 77 130 153 136 93 187 165 48 98 100 52 78 155 110 68 83 153 59 113 95 185 56 100 127 69 118 115 130 118 160 156 79 48 139 87 103 60 128 107 84 116 160 82 103 101 157 66 108 102 161 105 289 133 91 114 156 39 71 87 56 116 188 120 122 123 89 118 79 125 55 112 146 71 156 139 102 84 126 108 108 109 61 111 26 79 126 131 141 93 157 50 96 158 164 80 193 151 99 136 26 62 99 94 89 92 109 125 158 63 192 83 150 89 122 124 72 55 42 122 182 88 57 102 87 217 174 125 99 131 117 114 68 111 96 85 94 222 116 164 120 149 90 131 102 147 112 77 80 55 103 114 119 138 77 51 110 145 117 81 59 92 101 44 99 161 89 129 143 130 160 133 102 71 156 110 55 144 91 114 118 84 130 102 99 43 175 127 145 83 68 31 96 124 61 26 125 79 122 56 125 157 75 118 118 41 84 120 118 81 78 89 32 164 77 131 113 108 98 76 121 67 128 80 115 83 94 81 56 109 71 123 144 69 63 113 130 145 68 74 136 163 89 154 104 142 63 96 89 155 106 58 166 103 116 108 91 135 90 175 81 159 89 15 77 74 85 44 101 133 96 136 75 102 96 95 72 83 78 56 88 84 91 82 145 87 156 76 51 66 100 158 152 93 91 183 62 91 44 46 55 69 58 48 64 204 202 168 96 130 140 51 115 66 59 217 133 106 152 150 104 67 120 110 119 154 94 28 61 111 115 74 129 88 73 80 58 50 174 113 112 83 121 75 94 106 120 105 88 241 70 71 64 80 101 89 95 85 84 97 88 146 92 138 112 69 147 95 102 140 90 103 76 91 113 61 96 115 122 74 148 178 134 54 153 101 99 98 103 131 90 86 92 94 124 70 163 93 25 160 175 116 89 116 150 102 52 138 60 104 106 123 51 106 40 44 164 120 92 195 124 85 94 78 67 92 157 88 127 81 122 61 102 70 83 152 121 50 87 81 51 108 117 125 104 89 91 87 88 117 82 103 111 117 59 112 146 157 92 74 112 134 119 124 107 133 123 157 81 29 134 64 111 64 102 35 36 22 83 83 102 68 117 152 88 31 106 115 84 35 136 96 63 118 113 112 63 106 83 61 160 97 149 155 47 72 64 114 146 172 52 65 93 74 95 90 88 166 111 75 93 127 12 120 163 147 160 102 91 94 110 82 124 124 150 85 152 92 89 134 119 116 78 80 116 78 63 134 127 134 70 46 122 80 76 63 56 89 156 84 88 155 38 69 86 179 152 53 90 48 133 129 104 128 91 150 73 130 146 107 111 187 179 139 113 173 107 97 160 74 38 80 104 81 34 105 141 65 131 101 87 137 114 144 108 48 65 122 95 139 61 71 54 86 66 168 160 135 105 71 156 90 140 121 72 135 53 157 89 170 92 98 152 51 42 151 92 106 159 99 65 178 103 137 57 131 49 122 46 124 67 121 151 36 82 146 96 48 96 83 111 106 150 101 150 210 112 121 67 107 60 128 74 93 130 92 201 12 102 120 81 125 70 97 109 166 112 133 112 92 74 171 94 128 65 61 82 94 93 54 66 45 87 139 224 56 160 157 67 59 162 165 102 142 122 138 62 182 96 86 99 95 142 119 173 153 98 99 110 113 111 190 106 94 108 134 53 61 154 144 113 48 148 97 89 12 57 136 33 139 108 111 47 97 164 89 94 103 91 163 64 152 36 99 72 72 55 78 108 88 98 114 70 143 93 54 63 193 47 97 128 146 82 91 88 50 73 73 68 112 92 111 109 142 100 97 150 107 49 105 99 133 64 147 91 139 96 109 142 73 124 87 158 96 174 116 126 123 81 130 107 115 106 50 94 72 133 115 92 104 125 106 113 91 114 153 55 113 105 69 62 101 59 33 38 85 123 118 75 115 121 45 106 134 125 95 107 108 71 110 132 87 79 51 141 138 86 63 151 77 94 129 107 107 18 82 59 126 58 135 69 47 147 51 25 161 76 44 183 78 83 22 127 58 154 120 118 159 72 76 126 103 93 63 145 38 148 105 149 78 125 102 111 79 99 159 112 121 62 91 82 90 53 154 142 96 106 91 118 145 143 64 122 129 114 126 14 94 65 107 47 101 119 158 98 71 122 125 97 100 145 86 117 109 106 154 72 134 89 125 68 65 74 49 73 72 135 118 149 65 57 137 77 91 84 66 130 86 109 78 92 82 168 58 63 89 145 81 125 53 70 66 93 113 93 99 193 76 123 122 113 132 82 76 37 21 101 142 70 79 183 43 120 81 73 108 84 87 87 127 85 139 61 91 48 37 73 90 154 138 96 89 134 191 80 112 88 123 114 96 155 111 72 26 41 146 100 111 113 98 106 75 150 94 112 71 119 103 122 56 134 153 77 137 108 131 34 157 76 107 120 95 54 238 123 114 101 49 92 32 50 114 135 96 95 86 92 93 138 110 121 118 36 102 82 88 67 117 108 96 51 62 78 184 141 106 95 85 157 98 212 98 102 135 138 149 200 70 144 130 121 85 113 82 62 66 122 75 53 110 119 162 105 126 65 95 114 37 187 119 98 101 20 69 127 138 87 133 115 94 49 154 68 57 101 123 77 161 75 91 90 90 107 92 141 72 120 193 49 92 61 203 69 168 81 61 151 132 46 88 208 72 126 102 138 93 120 122 102 107 76 140 136 76 73 62 108 99 107 142 70 55 89 78 116 144 148 102 103 101 105 66 82 40 54 97 88 170 88 48 165 85 63 120 74 60 136 35 128 59 68 92 146 110 68 105 79 113 108 103 115 65 113 187 54 57 92 74 25 157 158 128 108 113 125 119 91 198 125 64 126 67 70 161 168 38 79 96 166 69 132 149 93 105 60 151 158 109 207 200 71 119 105 43 130 129 60 106 61 109 98 109 78 112 89 125 106 59 80 172 73 98 107 62 62 127 109 96 74 122 111 83 199 138 164 186 61 107 103 92 123 67 76 131 65 47 117 151 154 54 161 139 75 66 124 47 121 135 140 60 143 39 101 133 103 153 88 74 107 130 45 44 77 96 111 113 83 91 163 160 110 97 61 90 111 129 104 82 134 92 51 46 141 79 57 79 115 97 60 111 83 92 47 99 155 78 147 187 82 78 171 105 161 108 140 56 88 91 91 34 38 106 59 86 95 55 136 100 49 82 30 142 100 96 84 145 144 102 120 121 151 112 150 80 77 169 87 83 109 121 133 113 111 84 163 76 58 138 124 89 35 81 47 196 150 94 82 49 166 43 101 100 157 126 150 116 146 134 99 120 122 75 84 28 64 46 12 88 92 164 94 93 104 149 133 74 72 43 120 76 122 149 180 88 80 173 124 172 31 103 90 105 151 105 161 63 72 101 126 41 134 20 95 152 120 98 76 149 54 122 121 138 44 147 125 84 129 102 126 139 139 40 145 130 136 171 103 138 91 115 93 76 165 114 74 97 133 101 53 124 110 143 166 145 175 88 160 75 83 111 108 45 95 84 158 95 76 169 95 72 28 59 89 66 145 67 52 109 104 78 128 98 154 137 106 38 144 94 93 114 91 65 98 140 173 83 98 154 207 102 124 82 121 196 22 107 11 99 91 67 124 125 131 114 134 122 70 112 129 89 80 86 99 189 140 97 116 75 131 33 39 118 56 94 56 108 110 118 154 112 67 121 76 134 114 70 94 78 77 83 76 110 149 77 82 57 128 97 95 50 128 86 96 114 100 123 77 109 154 84 23 164 121 101 102 105 98 35 97 101 110 104 79 97 115 111 72 65 100 123 140 169 213 136 70 95 89 104 119 132 138 108 117 90 91 160 67 98 82 73 87 70 164 81 116 104 92 57 127 82 157 85 117 149 69 115 68 91 29 92 93 88 138 107 138 95 88 26 64 113 93 166 123 80 66 185 128 115 91 83 122 176 120 181 140 104 112 70 163 89 93 110 81 20 122 130 139 85 126 115 53 110 57 63 41 140 124 132 85 71 103 103 105 133 54 71 98 97 143 113 82 147 100 162 130 26 94 62 90 45 75 113 63 83 117 96 75 105 74 128 100 112 80 72 92 81 100 118 53 102 103 76 192 109 62 107 113 111 171 67 71 61 130 108 138 141 65 109 130 98 138 146 33 124 101 64 106 78 77 104 110 100 86 171 55 121 118 117 134 154 98 18 117 84 162 84 32 90 67 145 78 112 72 29 129 59 36 30 88 136 106 213 103 99 128 84 129 120 158 219 135 53 172 102 191 24 95 92 148 64 138 60 87 70 75 60 101 99 53 124 144 57 144 114 125 107 87 69 81 112 55 94 98 67 106 121 147 174 94 152 48 111 94 129 127 83 55 133 154 85 93 126 55 82 80 93 114 102 87 168 102 99 80 100 74 160 150 67 87 124 79 119 98 106 67 107 84 174 42 79 94 134 96 76 101 150 98 151 63 115 141 140 127 109 77 113 52 129 77 133 104 94 78 128 72 201 80 109 91 100 69 93 122 114 119 128 125 60 58 166 80 79 33 52 81 101 137 81 142 142 107 155 95 125 130 137 103 166 98 92 144 85 124 101 73 106 51 110 115 48 60 93 76 174 116 11 87 99 102 33 79 108 122 33 95 138 76 49 61 33 65 81 46 124 113 165 145 105 157 78 73 90 101 173 111 87 44 168 108 115 117 126 127 117 40 82 112 115 96 152 115 99 99 28 56 97 121 48 61 98 155 28 78 102 119 163 54 106 133 99 123 81 57 169 127 106 108 73 80 87 63 51 49 23 67 60 72 55 167 146 140 49 106 115 27 128 84 76 67 59 164 76 70 77 73 61 126 52 129 147 150 106 118 121 120 206 107 115 101 80 186 41 138 109 90 105 188 119 142 48 240 96 108 67 136 57 120 83 73 135 92 85 89 131 121 113 67 95 140 72 172 99 115 103 112 118 118 100 117 125 104 157 145 171 76 95 66 82 118 185 96 65 145 157 130 138 48 117 72 100 70 86 141 25 151 141 48 75 80 91 62 148 102 83 132 155 125 127 138 65 6 115 206 129 94 93 70 61 97 42 68 89 91 120 18 118 92 90 68 98 140 123 130 45 108 80 166 79 101 158 136 90 75 129 73 104 102 160 53 86 128 102 41 74 39 107 50 194 42 100 74 140 124 164 83 61 98 178 72 85 157 67 132 208 128 50 131 92 74 95 66 94 54 60 45 46 109 177 144 80 86 84 141 144 143 84 78 118 70 122 101 41 179 53 120 69 179 153 166 62 130 178 78 58 100 118 75 89 139 107 190 86 99 89 91 96 37 122 135 86 78 178 83 134 102 89 35 54 163 92 146 47 149 119 223 163 75 133 55 53 49 111 25 73 74 85 163 139 75 83 112 53 123 119 132 97 181 72 176 103 268 162 91 127 81 123 78 97 122 39 154 134 129 79 142 61 88 75 126 75 170 42 189 141 58 86 233 71 142 55 109 114 100 60 119 145 85 122 155 129 108 99 88 109 108 47 141 91 92 134 57 127 160 25 84 88 94 97 147 166 57 181 50 72 83 147 135 104 167 135 200 61 99 119 146 82 158 31 165 65 123 81 82 119 93 75 94 148 113 141 51 62 108 17 102 132 140 99 108 89 109 91 55 95 129 114 133 125 140 74 79 151 100 114 54 173 87 130 60 41 197 65 127 117 98 65 114 144 126 106 166 66 105 118 75 155 127 97 128 117 83 155 106 70 118 54 56 79 135 127 94 115 110 92 100 87 124 63 105 100 61 89 118 111 16 119 78 74 78 157 112 130 51 82 143 111 188 69 82 130 117 50 132 117 145 82 152 96 66 31 95 122 156 95 97 100 82 114 69 53 76 82 178 45 83 106 105 128 95 74 157 56 83 103 126 204 89 78 82 160 117 111 133 18 173 127 138 90 45 145 41 120 122 65 113 90 66 57 106 96 77 95 98 155 97 169 78 95 120 129 231 87 122 83 72 72 102 126 155 112 102 89 53 219 40 57 98 84 66 85 74 183 80 50 89 132 72 124 77 122 110 104 38 154 79 102 50 65 144 44 105 132 111 117 71 151 26 93 15 184 91 88 84 178 127 79 88 132 4 152 158 114 118 119 50 123 100 154 133 89 116 158 49 180 87 55 39 98 90 59 51 76 214 184 156 151 69 48 114 126 98 77 117 142 181 124 63 94 142 122 141 68 133 126 78 151 170 54 61 78 141 202 123 92 60 90 102 96 75 125 84 93 94 73 124 84 106 172 66 102 81 44 79 29 73 71 88 47 84 162 107 190 120 47 45 56 53 74 122 141 94 86 62 100 82 97 166 111 61 103 83 96 219 134 33 48 87 110 157 128 79 97 48 161 189 138 68 60 41 180 115 120 151 81 51 117 165 115 106 161 26 140 126 82 136 93 103 92 118 63 101 93 65 131 137 64 88 182 135 94 113 82 102 92 93 66 115 120 90 128 148 109 117 94 93 96 101 116 135 119 106 95 36 132 70 26 136 115 160 80 129 89 61 71 70 91 140 48 170 26 131 63 78 137 78 132 99 98 149 188 83 99 114 119 83 96 114 226 62 49 95 59 204 79 41 46 162 185 116 90 111 97 48 166 112 107 94 154 62 171 91 103 160 99 70 72 136 141 107 92 107 130 86 78 126 105 27 153 117 141 109 53 84 22 162 117 129 61 95 164 93 124 72 114 106 132 82 103 86 115 132 198 66 87 124 99 114 78 117 67 99 100 73 98 95 130 189 116 116 108 146 120 112 20 112 119 104 165 93 115 128 125 65 183 139 84 74 80 103 131 203 87 110 142 61 72 90 38 25 130 105 98 89 86 70 72 59 165 73 136 143 56 26 93 137 109 87 60 168 73 128 164 132 138 112 84 132 97 64 218 38 69 54 76 110 66 142 107 123 106 28 133 163 64 54 124 63 78 87 119 79 139 105 127 91 158 107 95 35 128 144 114 138 77 146 92 12 123 122 118 114 69 129 99 158 13 96 82 144 140 136 133 92 127 117 87 107 141 94 141 150 57 105 59 114 99 184 93 55 67 114 78 20 165 112 103 92 45 129 115 120 213 134 147 149 96 79 135 134 86 156 139 169 92 96 104 127 117 46 45 96 57 138 68 148 115 140 126 99 92 90 169 117 85 75 130 116 58 42 113 98 136 113 143 58 122 91 169 72 153 101 86 40 128 145 174 100 157 95 115 200 204 129 55 65 86 94 61 85 118 110 42 85 87 114 119 71 178 105 62 123 1 136 102 103 36 119 51 252 78 153 110 126 102 80 87 104 205 194 133 36 64 65 125 117 110 82 67 146 148 88 95 94 83 74 77 78 135 87 131 151 107 114 147 105 83 55 112 120 84 158 79 184 148 63 109 94 129 61 117 81 37 123 74 137 56 32 25 75 63 104 65 99 44 139 144 59 41 80 108 89 131 98 181 102 102 98 89 96 93 94 92 74 47 65 37 83 127 48 63 105 80 171 132 68 74 57 144 110 119 82 73 152 54 54 73 87 114 129 129 62 158 89 127 177 73 42 134 71 128 110 114 72 123 104 66 117 172 90 105 82 99 169 78 46 103 104 62 106 59 138 74 90 74 115 90 56 122 88 162 104 100 94 68 140 67 128 91 59 118 67 53 85 102 143 119 105 95 67 77 131 126 75 71 106 109 128 70 75 175 24 128 123 151 211 104 99 127 174 141 99 95 72 18 96 161 129 136 129 56 112 141 95 45 83 55 164 61 75 72 61 134 58 124 96 63 81 122 149 95 167 111 40 60 58 162 64 160 43 94 117 45 118 103 66 138 58 56 89 69 122 94 72 80 117 43 106 194 126 90 132 101 110 25 67 143 87 152 100 155 111 118 15 116 63 98 127 105 116 101 70 65 159 113 76 39 172 89 114 87 62 100 62 32 133 93 107 32 52 132 108 156 82 48 62 93 133 27 47 55 113 162 102 100 40 70 106 72 142 132 157 88 108 93 130 199 174 121 104 48 136 132 149 46 47 103 101 171 99 92 123 93 73 149 125 74 82 62 51 128 51 86 116 114 136 38 115 82 78 141 80 105 131 106 56 98 71 119 41 151 128 85 79 64 75 114 74 111 128 145 141 64 41 182 119 198 124 221 65 67 79 109 130 105 84 54 114 193 134 97 149 100 101 143 153 91 66 87 114 145 86 110 130 130 109 73 195 98 82 89 86 54 163 47 61 129 108 143 77 159 130 118 105 67 133 103 102 108 132 109 44 134 129 116 101 77 81 40 90 121 177 44 142 117 106 129 113 99 133 97 49 103 125 148 76 156 92 50 95 57 85 76 96 109 164 78 96 125 152 51 45 132 68 113 82 124 110 58 126 101 89 91 79 72 65 151 137 110 62 62 115 111 91 123 107 83 111 51 102 83 94 104 73 56 126 83 86 89 156 133 38 89 66 43 142 43 74 83 140 48 60 210 137 72 95 121 161 99 105 110 170 78 121 73 56 82 82 90 146 109 102 69 111 73 112 121 102 80 84 128 69 105 108 100 106 76 156 108 134 138 113 53 135 61 159 83 192 77 100 149 114 85 154 98 119 144 127 129 115 107 166 95 107 84 44 88 103 134 137 134 136 63 62 79 154 163 128 93 189 93 191 120 111 62 92 69 77 66 74 127 112 108 89 103 119 74 100 74 65 93 80 160 115 111 107 115 139 92 116 92 111 51 127 80 111 122 155 140 59 183 85 85 76 173 86 180 83 48 125 178 106 130 129 94 140 114 109 69 111 105 98 93 181 63 107 128 49 104 76 188 94 98 125 67 62 101 98 96 118 97 89 145 49 95 139 94 112 132 51 109 155 65 117 43 25 150 50 81 67 76 174 88 56 43 132 155 64 44 103 94 70 107 128 167 153 90 37 65 108 138 105 120 114 103 120 109 51 131 62 74 58 66 94 75 83 97 85 124 29 135 34 115 115 179 119 102 148 111 105 107 52 94 121 150 92 113 76 157 101 138 148 95 85 100 78 82 145 96 76 178 80 110 125 103 75 147 81 83 50 62 78 58 67 116 87 100 123 68 106 129 135 183 112 89 116 136 113 176 159 105 167 92 88 35 56 89 75 86 118 42 64 181 166 112 120 117 102 140 76 9 173 59 97 163 94 129 48 123 96 87 125 123 80 125 106 130 64 120 93 189 150 47 78 102 134 77 70 153 168 68 143 117 108 123 43 132 50 69 70 93 59 101 65 106 125 50 69 98 109 60 125 148 87 115 74 133 100 44 46 106 63 122 101 70 193 94 122 100 109 114 145 114 50 88 96 110 148 47 75 101 106 140 145 60 52 169 71 49 41 127 95 64 201 129 102 106 113 65 93 83 159 177 230 77 133 52 84 101 90 60 78 122 132 147 131 111 78 133 129 92 184 93 79 94 55 97 102 105 95 149 145 102 117 95 125 110 116 94 108 157 119 101 114 106 84 49 86 114 145 53 154 69 118 154 147 64 91 153 48 83 61 120 125 201 33 65 180 77 79 139 87 115 170 73 76 154 107 99 70 78 146 125 119 76 138 61 174 109 128 123 103 91 45 99 110 119 88 93 100 31 100 193 75 110 135 66 103 217 128 48 66 77 114 156 112 39 103 31 129 71 60 139 176 66 60 161 92 126 87 51 70 78 119 119 44 34 96 77 145 71 102 86 158 156 65 113 49 80 128 105 101 54 119 66 89 70 84 138 96 67 68 111 95 42 126 88 155 107 88 43 114 67 124 76 83 135 83 160 84 5 93 74 138 90 121 111 99 144 129 117 82 106 153 119 58 90 70 85 50 52 131 159 81 104 98 74 188 111 68 84 143 163 51 67 60 125 133 155 136 100 118 95 81 42 67 85 75 134 55 50 12 33 90 114 108 126 86 57 94 74 83 88 143 153 197 67 88 138 143 59 91 98 92 29 134 105 167 134 97 71 143 97 88 89 122 74 83 205 123 152 132 52 90 146 91 181 76 117 66 149 72 98 100 104 106 74 140 128 126 85 141 109 115 147 69 97 90 110 155 60 186 131 92 15 79 79 91 69 72 71 133 77 142 116 101 71 72 43 95 51 148 85 133 78 27 30 69 55 35 94 112 67 133 101 85 101 66 110 56 101 41 51 61 82 102 84 40 51 63 113 132 201 32 107 94 105 64 98 103 143 163 69 99 90 154 78 90 33 114 101 96 143 137 81 38 143 77 42 118 153 94 130 75 128 112 108 110 110 74 35 96 111 89 110 196 127 184 81 79 125 26 70 61 194 89 158 81 59 37 121 118 110 112 74 170 76 141 125 102 104 65 86 77 77 87 70 78 133 101 106 116 80 86 79 82 71 36 136 158 95 146 158 100 95 127 109 86 81 63 97 67 126 127 83 54 56 140 56 141 141 60 133 120 97 49 139 52 57 43 128 147 70 66 124 71 136 50 95 155 63 150 80 54 166 103 183 67 60 86 30 113 125 131 58 74 80 90 140 97 130 171 162 112 112 59 150 120 131 43 132 47 140 91 86 82 73 118 126 107 48 79 94 97 83 127 127 153 59 98 121 160 127 187 151 137 110 91 150 163 100 106 130 32 108 81 76 107 162 142 89 116 102 111 181 120 77 75 74 126 179 96 78 76 44 176 142 56 42 62 99 52 84 74 82 76 68 164 128 110 89 108 72 47 77 182 131 136 112 120 41 76 95 95 123 76 70 179 165 104 114 128 132 187 84 98 136 111 78 78 103 108 138 87 66 47 149 139 28 171 60 139 191 84 64 71 147 68 107 89 181 133 2 80 93 48 81 41 200 89 75 125 54 33 106 80 90 107 60 67 85 119 123 80 110 122 134 115 86 49 113 77 90 61 187 81 144 78 95 56 158 130 81 130 70 182 101 19 151 88 123 81 82 114 93 147 86 154 95 122 154 144 90 159 109 122 19 57 54 119 62 114 109 83 73 86 81 108 93 118 128 73 88 130 146 93 98 86 90 73 205 23 153 126 111 87 85 98 167 98 174 126 182 100 34 115 51 80 96 93 63 82 84 84 86 107 72 83 147 88 184 128 108 111 160 121 66 96 63 143 112 51 136 121 179 150 99 66 78 67 34 79 177 70 61 95 83 41 178 67 175 144 99 63 87 127 116 99 101 106 78 143 56 113 120 124 99 61 181 44 96 79 87 74 58 117 156 123 79 106 62 105 108 110 159 89 134 139 138 163 79 79 99 103 96 104 182 103 115 100 80 172 72 108 105 67 118 89 84 153 128 129 57 129 120 104 73 123 127 180 106 134 130 92 122 93 96 67 64 127 64 153 98 22 56 107 131 167 59 82 74 66 134 127 98 66 69 73 142 73 49 119 128 77 125 64 110 115 75 137 89 110 100 141 118 32 140 155 107 138 61 182 45 62 102 112 101 50 87 107 73 101 39 69 88 85 78 94 132 48 91 111 88 140 104 137 70 132 167 60 72 53 125 164 151 159 119 165 127 85 93 51 81 106 126 91 43 90 71 68 67 99 141 187 109 87 48 106 86 90 108 54 81 104 66 221 94 129 178 117 59 83 94 173 70 106 78 91 171 44 118 148 98 141 131 119 91 213 158 185 63 100 73 106 52 69 63 207 137 56 106 180 97 133 84 47 93 41 56 88 105 149 42 60 59 61 105 114 128 151 92 80 50 75 57 127 135 104 115 115 55 46 120 85 77 80 82 67 101 39 111 123 105 126 55 89 121 165 87 153 27 99 101 105 153 74 39 111 184 120 54 110 37 99 109 91 171 137 98 168 73 138 80 70 105 110 100 123 97 120 95 132 113 87 92 150 136 136 126 134 87 78 129 79 161 48 110 67 59 93 99 93 74 137 104 100 134 66 52 33 110 151 68 93 173 90 83 54 44 106 119 147 94 84 77 102 75 132 156 67 97 134 100 245 109 143 167 98 107 94 160 80 118 189 142 133 30 74 57 122 46 108 60 47 185 117 82 124 95 103 99 75 107 77 85 141 125 56 133 97 83 149 179 52 114 40 22 137 112 169 56 85 134 96 74 62 76 42 111 92 74 17 65 147 94 59 77 62 140 79 145 140 103 72 161 95 126 109 96 144 104 97 87 97 94 162 112 91 26 126 173 154 114 106 50 91 128 80 133 35 82 125 193 82 92 126 53 120 15 63 76 37 63 130 116 63 112 81 68 114 135 52 160 132 38 52 20 71 73 182 148 94 69 95 167 105 65 79 62 105 53 106 126 171 107 86 56 137 26 147 114 159 78 109 70 103 46 103 78 100 77 67 90 145 60 151 128 28 119 98 148 51 120 68 150 128 120 129 83 152 73 144 58 109 99 117 36 62 120 106 86 97 139 100 134 95 133 163 79 129 69 144 133 120 129 178 124 133 62 124 91 134 49 103 83 142 85 102 191 118 170 95 136 116 121 181 113 108 141 75 72 30 162 107 70 134 155 104 147 104 121 91 100 96 45 130 137 127 83 117 144 132 122 74 144 103 87 100 49 50 159 126 167 105 184 74 95 122 11 80 75 87 89 44 127 128 71 115 194 97 83 105 84 97 123 83 109 89 81 30 102 94 112 212 186 207 104 150 100 109 90 74 91 80 72 121 148 93 113 100 12 88 86 132 121 118 84 148 82 61 171 94 78 92 116 17 152 125 84 164 120 108 125 60 146 102 42 95 79 179 148 119 138 121 68 77 110 121 101 117 65 115 138 87 101 67 50 70 118 137 93 125 68 61 86 128 56 169 90 109 139 104 84 141 107 117 110 110 69 175 77 87 56 98 89 80 213 110 73 120 132 104 140 192 84 114 27 86 126 80 45 114 66 83 163 133 115 98 117 111 37 127 143 117 76 163 138 38 83 137 106 55 139 51 105 53 108 101 133 91 65 101 78 40 71 144 98 133 40 83 91 153 86 70 85 135 42 65 90 94 96 142 123 93 93 161 67 122 100 104 133 86 100 121 138 116 98 83 69 43 35 200 100 142 97 79 65 137 131 101 160 80 133 107 91 116 157 87 77 82 163 133 93 108 32 72 145 70 134 111 179 119 84 128 56 103 109 108 109 124 22 121 149 96 111 85 70 102 118 138 110 93 88 126 58 85 105 105 122 86 49 117 76 54 54 88 96 120 149 42 84 73 87 79 143 26 137 135 142 21 86 86 77 146 153 104 116 89 156 20 120 100 165 85 124 55 97 69 55 81 122 61 179 113 82 53 58 181 40 149 176 138 90 102 68 175 94 169 119 131 115 86 161 98 86 121 84 59 94 140 87 86 147 105 94 94 45 102 176 143 107 163 85 41 48 89 113 91 108 71 121 234 145 74 91 60 103 156 74 114 117 118 76 82 135 63 99 147 56 90 61 83 51 120 87 50 140 121 90 142 64 57 79 107 108 131 46 86 104 130 131 147 134 82 179 74 141 111 119 122 134 130 139 95 143 127 77 170 89 49 10 232 79 16 146 121 89 116 170 55 134 61 79 70 114 150 93 97 111 172 35 71 101 156 87 26 100 99 81 79 77 80 148 45 188 66 136 70 162 48 117 98 170 111 185 89 93 89 101 70 87 93 177 110 122 89 80 89 126 44 156 209 76 109 98 120 76 74 89 106 144 103 108 168 111 108 76 83 129 187 86 98 127 156 112 96 72 59 136 78 63 83 109 122 71 127 127 93 117 167 125 25 51 77 118 54 114 41 79 107 126 122 144 191 171 39 98 165 95 81 152 99 118 145 146 80 96 121 89 59 81 43 34 80 125 77 54 127 141 112 130 153 103 99 69 70 112 66 105 149 145 175 123 138 57 95 114 102 140 54 112 175 115 82 57 97 43 55 96 90 80 136 74 148 24 54 91 132 76 58 126 153 84 60 128 159 90 65 91 132 35 87 172 124 83 45 132 122 86 83 114 132 159 122 81 69 108 150 105 94 92 111 101 133 176 120 90 171 131 84 105 52 72 83 47 120 71 79 74 44 78 48 123 78 50 156 116 198 65 151 93 81 173 103 103 96 131 116 174 100 149 89 107 132 89 64 68 142 109 130 54 75 150 29 137 133 96 68 93 107 76 112 112 127 45 117 134 79 133 85 122 87 158 133 97 97 87 58 82 148 117 186 27 154 93 82 143 84 90 111 44 73 77 65 82 100 152 165 141 102 135 113 170 83 120 113 62 130 130 113 47 81 66 92 81 57 119 121 108 70 126 66 114 77 115 88 77 134 175 77 113 151 54 68 96 105 116 104 105 65 98 59 64 66 206 167 150 54 72 150 115 113 103 141 99 117 85 213 88 60 101 127 133 54 174 68 124 131 202 32 69 131 117 109 91 61 128 138 78 72 81 85 61 114 39 110 80 85 147 123 73 169 89 141 78 129 158 39 97 188 124 128 105 150 127 118 87 141 36 71 108 29 109 103 63 76 69 129 75 128 63 131 41 119 143 109 108 60 55 87 108 66 183 96 128 100 53 106 80 93 147 121 77 160 102 127 90 104 142 95 139 52 72 120 171 115 109 133 122 148 122 102 133 177 102 96 93 92 41 42 111 101 52 192 78 110 152 96 132 71 108 41 149 41 70 86 129 129 55 95 117 92 106 142 156 30 145 148 67 124 159 84 60 62 48 87 97 137 104 130 70 111 96 82 172 112 41 73 149 70 166 96 98 99 64 81 124 39 143 118 55 53 69 67 105 125 202 73 86 94 91 116 88 94 83 77 159 80 91 32 154 72 105 127 86 113 67 105 68 44 114 83 96 61 145 189 129 95 125 108 53 134 52 88 132 124 65 152 104 110 91 105 79 101 107 97 73 70 119 47 160 103 117 27 159 122 100 81 116 102 154 130 160 92 69 35 63 136 57 93 97 107 78 139 122 88 117 94 133 114 108 80 54 42 84 62 67 150 104 50 128 76 106 73 165 91 66 98 94 95 110 179 83 130 104 118 128 147 130 87 64 88 110 133 100 101 122 95 97 69 92 72 78 140 36 71 79 164 44 48 95 121 108 24 85 99 123 214 152 81 94 65 36 110 113 126 75 104 171 111 99 132 96 104 123 158 66 93 71 105 151 70 79 138 55 89 90 140 128 112 66 127 45 99 74 53 85 92 163 167 120 97 77 122 111 106 86 85 94 132 114 163 126 113 77 70 74 94 111 78 43 155 77 85 100 67 140 60 177 168 132 90 133 79 67 91 73 87 71 71 58 200 90 91 79 155 201 45 96 114 65 78 146 137 78 133 125 137 66 31 53 41 128 115 68 64 105 84 91 74 100 91 55 152 85 154 55 77 204 103 78 109 42 99 146 135 75 73 101 152 84 41 90 167 72 100 80 124 83 76 63 79 46 106 106 167 71 84 75 168 109 189 51 82 151 176 67 140 102 149 193 82 123 76 51 92 26 115 117 175 77 128 122 160 123 137 101 68 47 109 100 119 118 208 62 58 117 125 101 121 103 76 84 81 141 75 69 113 72 91 36 138 51 69 100 38 192 177 37 197 102 141 186 67 86 45 147 125 73 97 48 52 148 129 105 79 90 77 37 104 87 39 106 47 97 68 181 78 177 67 83 40 55 64 140 104 106 109 74 131 78 177 101 67 106 87 83 95 25 70 120 115 74 36 125 99 114 106 88 69 140 134 62 51 170 142 217 159 142 89 180 113 42 81 97 140 123 156 90 39 79 88 113 79 172 80 129 113 77 66 138 51 126 136 125 97 54 102 141 93 91 89 100 82 96 94 52 94 91 80 106 95 89 70 172 81 68 104 74 61 143 56 158 62 87 103 69 57 148 112 133 148 150 51 49 100 90 116 79 137 173 123 69 96 35 82 112 90 116 67 154 81 143 174 135 91 178 134 64 73 140 167 91 94 73 107 78 96 126 89 97 99 115 106 107 118 135 143 86 88 98 180 110 83 102 92 138 182 136 165 67 119 104 105 61 129 84 75 123 121 118 143 55 109 13 143 137 70 125 88 71 125 92 118 104 67 79 125 140 68 95 158 129 32 83 43 203 158 134 147 93 159 102 96 147 136 97 92 139 71 57 79 93 72 94 130 141 102 148 117 164 113 93 84 98 116 48 95 92 100 116 63 105 98 86 111 68 15</t>
-  </si>
-  <si>
-    <t>GAM(0.3303205980891326, -2.447943707177017e-28, 0.6187788378736456)</t>
-  </si>
-  <si>
-    <t>1 0 0 2 2 2 0 0 0 0 0 2 0 2 0 0 0 2 2 1 1 0 2 0 0 1 1 1 1 3 1 0 1 1 1 1 1 2 0 0 3 1 0 0 0 1 0 1 2 1 0 2 1 1 2 1 1 0 2 0 2 3 1 2 0 0 1 1 1 1 2 0 0 1 0 0 1 0 2 2 2 2 1 0 1 1 0 1 2 0 0 1 0 1 1 2 0 1 1 1 0 1 1 1 1 0 0 1 0 0 0 1 0 1 1 0 2 0 0 0 1 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 1 2 0 1 0 0 0 0 1 2 2 1 0 2 1 0 1 2 1 1 1 1 0 1 0 0 1 0 1 0 1 2 4 1 1 0 1 0 1 2 0 0 0 0 0 0 0 2 1 0 1 0 0 2 0 0 1 1 0 0 1 1 1 0 2 2 1 1 1 1 1 3 0 1 0 0 0 1 1 0 0 2 1 2 2 2 1 1 1 1 0 0 0 1 2 1 0 3 0 1 0 0 0 2 2 0 1 0 0 1 1 2 2 0 2 1 2 0 1 0 3 2 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 1 0 1 1 2 0 0 0 1 0 0 1 2 2 1 1 1 1 1 1 2 0 0 0 1 0 0 0 2 0 0 1 0 0 2 0 1 1 0 3 1 1 0 1 0 1 1 0 0 0 1 0 0 3 0 1 0 0 2 3 0 1 1 0 0 3 0 0 0 0 1 2 1 1 3 0 1 1 2 1 1 0 0 0 1 0 1 1 2 1 0 0 1 0 1 0 0 2 0 1 0 2 1 0 1 1 1 0 0 2 0 1 0 1 1 1 1 0 2 1 1 0 0 0 0 2 1 0 1 0 0 0 0 1 2 1 0 0 1 0 0 2 0 0 1 0 0 2 2 1 0 1 2 1 2 0 0 0 0 3 2 0 0 0 0 0 0 2 1 2 0 1 2 1 1 0 0 1 0 1 1 0 2 0 0 0 0 1 1 2 0 0 0 0 1 0 1 2 1 2 0 0 2 0 0 1 0 0 1 1 1 0 2 0 0 1 0 0 0 1 0 0 1 0 0 1 1 1 2 1 1 1 0 0 0 2 1 0 0 1 0 1 0 1 1 2 0 0 1 1 1 1 0 1 1 0 1 2 0 0 1 1 2 1 0 0 1 1 1 3 2 1 1 0 1 2 1 0 3 0 0 0 1 1 0 3 0 0 0 1 2 1 1 0 0 1 0 1 0 2 0 1 1 1 2 0 1 1 0 0 2 1 1 0 0 0 3 0 1 0 0 0 2 2 1 0 0 0 1 2 2 1 1 1 3 1 0 0 1 1 1 2 1 1 0 2 0 2 0 1 0 2 1 1 0 1 2 2 1 2 1 0 0 1 0 0 0 0 0 1 0 1 3 1 0 3 0 1 1 0 0 0 1 1 2 1 0 1 1 1 0 2 2 0 0 3 2 0 2 1 2 0 0 1 0 1 2 2 0 1 1 1 0 1 1 1 1 0 0 2 0 0 0 1 0 2 1 0 1 0 0 0 0 1 2 0 0 1 0 2 1 2 1 0 1 1 2 2 1 0 0 1 0 1 0 0 0 0 2 1 1 0 2 1 1 0 2 1 0 3 1 2 0 0 2 0 0 0 1 0 0 0 0 1 0 0 1 2 1 1 1 0 3 0 0 1 0 1 0 1 1 0 1 2 1 1 1 1 0 1 0 3 0 1 1 1 0 1 3 1 1 1 0 1 0 0 1 0 0 2 1 0 1 1 1 0 1 1 2 0 1 1 1 0 1 2 1 1 2 0 2 0 1 2 0 0 1 0 0 1 1 2 1 0 0 0 0 0 1 1 2 1 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 2 2 0 0 0 1 1 1 0 4 0 0 0 1 1 2 1 0 0 0 1 0 0 4 0 1 1 0 1 1 2 0 1 0 1 1 1 1 0 2 0 0 1 1 2 0 0 1 1 1 0 0 0 1 0 1 1 1 1 2 0 1 1 0 1 0 0 1 1 2 0 1 0 1 2 1 1 2 0 1 3 1 1 2 0 0 2 3 0 0 2 0 1 1 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 0 0 3 1 2 0 1 1 2 0 1 1 1 1 0 1 2 0 1 0 0 0 0 0 1 2 2 0 0 1 0 0 0 0 0 1 0 2 1 2 1 2 1 0 2 0 3 0 1 0 0 1 0 1 0 0 0 2 1 1 0 1 0 0 1 2 1 1 1 0 2 0 1 2 0 1 0 1 2 1 1 1 0 1 1 1 1 0 0 0 1 0 0 2 0 3 1 1 1 0 0 0 2 1 1 0 1 2 2 2 0 1 2 0 0 1 0 1 1 2 0 2 1 1 0 2 0 0 1 1 3 0 1 0 3 0 0 0 0 0 1 0 2 3 0 1 0 1 0 0 0 1 0 2 1 1 1 0 1 0 0 1 1 2 0 0 0 0 0 1 1 0 2 1 0 1 0 0 2 1 1 1 0 1 2 0 1 1 2 2 0 1 0 0 1 0 0 5 0 2 0 0 1 0 1 0 0 0 0 0 2 0 2 1 0 0 2 1 0 0 0 2 1 1 1 1 2 1 1 0 1 0 1 1 0 0 1 1 4 0 2 0 2 1 1 1 0 1 0 0 0 2 0 1 1 2 1 0 2 0 2 2 1 1 1 1 0 1 2 2 0 1 2 1 0 1 0 1 1 3 0 0 3 0 1 1 2 1 5 0 1 0 1 1 0 1 2 1 1 0 1 0 1 1 1 0 0 0 1 1 0 3 0 2 2 0 0 1 1 2 1 1 1 1 1 2 1 0 0 1 0 1 1 1 1 0 1 1 0 1 3 2 1 0 1 0 0 0 1 0 1 0 0 1 0 1 3 0 0 1 3 1 1 2 1 0 1 1 0 1 0 0 0 0 0 3 2 1 1 2 0 0 0 0 1 2 0 1 0 0 1 1 1 0 1 1 1 1 1 3 1 1 0 1 1 2 1 1 1 0 0 1 0 0 0 1 0 0 4 0 0 2 1 2 1 2 1 1 2 2 1 0 1 2 0 2 0 2 1 1 2 0 1 1 0 0 2 0 1 0 0 1 0 0 1 2 0 0 1 1 1 0 0 0 0 1 2 0 1 2 1 0 1 2 3 2 0 0 1 2 1 1 2 1 1 0 1 1 1 1 1 0 0 1 1 0 0 1 2 0 1 2 0 0 1 1 1 1 0 1 0 1 0 1 0 2 0 3 2 2 2 1 1 0 1 0 0 2 0 1 1 0 0 0 3 0 0 1 1 0 0 0 0 1 0 1 2 0 0 2 2 0 2 1 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 0 1 2 1 2 0 1 1 0 2 2 2 0 1 1 1 2 0 1 1 1 0 2 3 2 0 2 1 1 2 1 0 0 0 0 1 0 2 1 3 0 0 1 0 0 0 1 3 0 3 2 1 0 0 1 1 0 1 2 1 1 0 0 0 0 1 0 0 2 0 1 0 1 1 1 1 1 0 2 0 2 0 1 1 0 1 0 0 1 2 1 0 0 0 1 2 0 0 1 0 0 0 1 1 0 0 1 1 1 0 2 1 0 1 0 2 0 0 0 2 3 1 0 1 1 1 0 1 0 0 1 0 0 2 1 0 0 1 0 0 1 1 1 0 1 1 0 0 3 0 0 1 2 1 1 1 0 0 0 1 0 1 2 2 2 0 2 2 0 0 2 0 2 0 1 0 2 0 0 1 0 1 1 1 0 0 1 2 1 2 1 0 1 1 1 0 4 3 0 2 2 1 0 0 1 3 2 1 1 2 2 0 2 0 1 1 0 2 0 1 2 0 0 1 2 1 0 0 0 0 0 1 2 0 1 1 0 0 1 0 0 2 0 0 1 1 1 2 1 2 1 1 2 1 0 0 1 0 0 0 1 1 1 1 3 1 1 1 0 1 1 0 2 1 0 1 0 0 1 0 1 0 1 1 0 0 1 1 0 2 1 1 3 1 0 1 1 0 1 0 2 0 1 0 0 1 2 1 1 3 2 1 0 1 0 0 0 1 0 1 0 0 0 1 1 1 1 0 0 0 2 2 1 0 0 1 0 0 1 0 0 0 1 1 1 0 0 0 2 1 1 1 1 3 3 1 2 0 1 1 1 1 1 1 0 1 1 1 0 2 0 2 1 0 0 1 0 1 0 1 1 1 1 0 0 0 3 0 1 0 2 0 2 2 2 1 2 0 1 2 0 1 0 0 2 2 2 1 1 1 0 0 1 0 0 1 1 1 1 0 0 2 0 0 2 1 0 1 1 0 0 0 2 2 2 0 3 3 1 0 1 2 0 2 1 2 1 0 0 2 3 0 0 0 1 1 0 1 0 2 0 2 3 0 1 0 3 0 0 0 0 1 0 0 1 0 0 0 0 2 2 0 0 0 2 1 2 1 0 3 0 1 0 0 0 2 2 1 0 2 1 0 0 2 1 3 2 2 0 2 3 2 3 2 2 2 1 4 0 4 0 0 0 0 1 1 3 1 2 1 1 0 1 0 2 1 2 1 1 2 1 0 3 1 0 0 0 2 1 0 1 2 2 1 0 1 0 1 0 2 0 1 1 1 0 0 1 1 0 3 0 1 0 1 0 0 1 0 1 1 2 0 2 3 1 0 1 0 0 0 0 0 2 0 2 0 3 0 0 2 0 2 1 0 0 3 1 1 0 2 0 3 0 1 1 0 2 0 1 1 3 2 1 0 0 1 1 0 0 2 0 0 0 0 2 1 1 1 3 1 0 0 0 0 1 1 0 1 1 0 1 2 2 1 1 2 0 0 1 4 0 2 2 1 1 0 1 2 0 1 1 1 0 1 0 0 0 0 0 0 0 1 2 1 1 0 1 2 0 1 1 3 1 1 3 1 2 0 1 0 2 0 1 2 0 2 2 0 0 1 3 0 1 1 1 1 3 2 2 1 2 0 0 1 1 0 2 1 0 2 0 0 2 0 0 0 2 0 0 1 1 1 1 0 0 0 0 0 0 0 3 2 2 0 2 1 0 1 2 1 2 2 1 1 0 0 0 0 0 2 0 1 1 0 0 0 2 0 1 3 0 0 0 2 5 0 0 1 0 1 2 1 1 2 0 1 2 1 1 1 2 3 2 0 0 2 1 1 2 0 2 2 1 0 0 1 0 0 0 1 1 1 3 0 0 1 0 0 0 0 1 1 1 2 1 1 0 0 1 0 1 2 0 1 2 1 1 0 1 0 1 1 1 1 1 0 1 1 1 0 1 0 0 0 1 2 1 0 1 0 0 0 1 0 1 1 2 1 0 0 2 1 2 0 0 0 1 0 0 0 1 2 0 1 1 1 1 2 1 1 3 1 1 0 2 0 0 1 1 0 0 1 1 1 0 1 2 1 0 1 0 1 1 1 0 2 1 1 0 2 0 0 2 1 2 0 1 1 2 0 1 3 0 0 0 1 0 2 1 0 1 1 0 0 1 2 0 0 1 0 2 0 0 1 1 0 1 1 0 2 0 0 0 2 1 0 2 1 0 2 1 0 0 2 1 0 0 1 0 1 0 0 1 2 0 1 1 1 2 0 0 0 3 1 1 1 3 1 0 1 0 1 0 1 0 1 0 1 1 2 3 3 1 0 1 0 2 1 2 1 1 0 2 1 0 1 0 0 0 1 2 1 3 0 0 1 1 0 0 1 1 0 0 3 1 4 0 1 1 0 0 0 0 3 2 0 2 2 1 1 0 2 0 1 0 0 0 0 1 0 3 1 0 3 2 2 2 0 0 1 1 0 0 1 0 0 1 0 0 2 0 1 1 0 0 0 1 2 1 0 3 1 1 1 0 0 0 1 0 2 1 2 2 0 1 1 3 1 0 0 2 1 2 0 1 1 1 1 0 0 0 0 2 0 1 0 2 3 0 1 1 0 0 1 1 0 0 1 0 2 1 0 0 0 1 0 1 0 0 2 0 3 1 1 0 1 3 0 2 1 2 1 1 2 1 0 0 0 2 0 0 1 3 1 0 0 0 1 0 1 0 0 1 1 1 0 0 2 0 0 0 1 0 1 0 0 0 2 0 1 1 0 0 1 0 1 0 0 0 1 2 0 1 0 0 1 2 1 0 0 0 1 2 1 1 2 2 2 3 0 0 3 2 2 0 0 0 3 0 0 2 0 1 0 0 2 3 1 0 2 0 1 0 1 0 1 0 0 0 1 0 3 0 0 0 0 1 0 0 2 1 1 0 1 1 0 1 0 0 1 0 0 1 1 0 2 1 1 0 1 3 0 0 1 0 1 2 0 1 0 1 1 0 1 1 1 2 0 0 2 1 2 1 1 0 0 2 0 0 0 2 0 1 1 0 1 0 1 1 2 0 1 0 0 0 1 0 2 1 0 1 0 0 0 0 2 0 1 1 1 1 1 0 0 0 1 1 3 1 2 0 1 0 1 1 2 1 0 1 1 1 0 0 1 1 2 0 0 0 1 0 0 1 0 1 1 1 1 2 0 0 1 0 2 1 0 1 0 2 1 2 1 1 2 1 0 1 0 0 0 1 0 0 0 1 2 1 3 0 0 0 3 1 1 1 2 0 1 0 0 1 0 0 2 0 2 2 1 0 1 1 1 0 0 1 0 1 2 0 0 2 1 1 0 1 0 1 0 0 0 0 2 1 1 0 1 0 1 0 0 2 0 0 1 2 0 0 0 1 2 0 0 2 1 1 2 2 0 0 1 1 2 2 2 1 0 1 1 2 0 1 0 0 1 2 1 3 2 2 0 0 0 1 2 0 0 1 1 0 3 1 2 0 2 0 0 0 0 0 2 0 1 1 0 1 0 0 1 2 2 1 1 1 2 0 1 0 0 2 1 2 0 0 0 0 2 1 0 1 0 1 2 0 0 0 1 0 0 1 1 1 1 1 0 2 0 1 1 0 1 0 0 0 0 1 1 0 2 0 0 1 0 0 1 0 0 0 0 0 0 0 1 3 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 4 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 2 2 1 0 4 1 1 2 0 0 0 1 0 0 1 0 1 0 0 1 0 2 0 2 2 1 0 0 1 2 0 1 0 0 0 0 0 2 1 0 2 1 1 1 1 0 1 0 1 1 1 1 0 1 1 1 1 3 0 1 2 0 1 1 1 1 1 0 1 1 0 1 1 1 0 4 0 0 0 1 0 1 2 1 0 1 0 0 0 1 2 1 0 0 0 0 2 0 1 3 1 1 1 0 2 0 0 3 0 0 0 0 1 1 0 1 0 1 2 1 0 3 1 1 1 0 0 0 1 0 1 1 0 0 0 0 0 2 1 0 1 0 0 0 3 0 2 1 1 0 0 1 3 1 0 2 1 1 0 2 1 0 1 2 0 3 1 0 0 2 2 0 2 0 0 1 0 1 2 3 0 1 1 0 0 1 0 0 4 0 0 0 2 1 1 1 0 1 2 2 1 2 0 1 0 1 1 0 0 1 0 1 1 1 0 0 0 2 1 1 1 0 0 0 1 1 0 0 0 2 1 0 0 0 1 0 1 0 0 3 3 2 0 0 0 1 1 2 2 0 0 1 1 1 1 0 0 2 1 0 1 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 2 0 0 2 1 3 0 2 1 0 1 1 0 1 1 0 1 0 2 0 0 2 0 2 1 0 1 2 2 1 0 0 1 1 1 0 0 0 0 1 1 2 1 1 1 1 2 1 1 1 0 0 1 0 0 1 1 2 1 1 2 2 0 1 0 1 1 1 0 0 1 1 1 1 3 0 1 1 1 0 0 1 1 1 1 0 1 0 2 1 1 1 0 0 0 0 0 2 0 0 0 2 1 1 0 0 3 0 0 1 1 1 1 1 0 1 0 0 1 3 2 2 1 2 0 0 0 1 0 0 2 0 0 1 0 1 1 0 1 2 1 1 1 0 1 1 0 2 1 2 2 1 0 0 2 1 0 0 1 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 2 1 2 0 2 1 1 1 1 1 1 0 0 0 0 1 0 2 2 1 0 2 1 0 1 1 0 1 0 1 3 0 1 1 1 1 0 1 1 2 2 1 3 0 0 1 2 0 2 0 0 1 0 0 2 2 1 1 2 2 0 1 1 0 3 0 1 1 0 0 0 0 3 1 2 1 0 1 1 1 2 1 0 0 2 0 0 0 0 2 0 0 1 0 2 1 0 2 1 0 0 2 1 1 0 2 0 1 0 0 1 0 1 0 2 0 0 0 0 1 1 1 0 0 0 0 2 1 0 3 0 1 1 1 1 1 1 1 1 0 1 3 0 1 0 0 1 0 1 2 1 1 0 1 3 0 3 2 0 0 2 2 2 3 0 0 0 0 0 1 1 0 0 0 3 1 1 1 1 2 1 1 1 1 1 2 0 1 1 1 2 1 1 0 0 1 0 0 1 1 1 1 0 0 0 2 0 0 0 1 1 0 0 2 1 0 0 2 2 0 1 1 1 3 1 1 0 2 0 0 1 1 1 0 0 2 0 1 2 1 1 0 1 1 0 0 1 0 2 0 0 1 2 0 1 0 0 1 0 0 0 1 1 1 0 0 0 2 2 1 2 1 0 1 0 0 0 1 0 1 1 0 1 2 0 2 1 0 2 1 0 2 1 0 0 1 0 0 1 1 0 0 1 1 2 0 2 0 0 0 1 0 0 0 0 1 1 1 0 1 0 1 0 1 1 1 1 1 1 2 1 0 0 0 2 0 1 1 0 1 0 1 0 0 0 2 0 0 0 1 1 1 1 1 0 1 0 1 0 0 2 0 0 1 1 1 2 0 0 0 1 0 0 4 0 1 1 1 2 0 0 3 0 1 1 1 0 1 1 0 0 1 0 0 1 2 1 1 1 1 1 1 2 0 1 0 1 1 0 1 2 0 1 0 0 0 0 3 0 2 1 2 2 1 2 0 1 1 1 1 1 0 2 0 0 0 1 0 2 0 0 1 2 0 0 1 0 1 0 0 2 0 0 1 1 1 1 1 0 2 0 0 1 2 2 2 0 1 0 3 0 0 0 1 1 1 2 2 1 2 1 0 1 1 3 1 3 0 0 0 1 0 0 2 1 0 1 2 0 0 3 1 1 1 0 1 1 1 1 1 1 0 2 1 1 0 0 0 0 1 1 0 0 0 2 1 0 1 0 0 0 2 0 1 2 2 0 0 0 1 0 2 2 0 1 0 1 3 1 0 0 2 0 0 2 1 0 1 1 1 0 2 0 2 2 0 1 0 3 1 1 1 0 1 0 1 1 2 0 0 0 1 1 0 0 0 0 1 1 1 1 0 0 2 1 0 0 0 0 1 0 0 1 1 0 1 4 0 1 1 1 3 1 1 0 2 2 2 2 3 2 1 0 3 2 0 1 1 1 0 0 0 1 1 1 0 0 1 1 0 2 2 1 0 0 1 1 1 2 2 0 1 0 0 0 2 0 1 0 1 0 0 1 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 2 1 2 1 0 1 1 1 1 0 1 1 0 1 1 1 1 2 1 0 1 2 0 1 0 2 0 2 1 1 3 1 1 2 1 0 2 0 2 2 0 2 1 1 0 0 1 4 0 1 2 1 1 2 1 0 2 0 3 1 1 1 0 1 0 1 3 0 1 0 1 1 0 1 1 0 2 0 1 2 0 0 2 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 1 0 1 0 1 1 1 0 0 1 0 1 0 1 0 3 1 0 1 0 2 2 1 1 2 0 0 1 1 0 2 0 1 1 1 0 1 2 2 0 0 0 1 0 0 1 0 0 0 1 1 0 2 1 0 0 0 0 2 0 1 0 2 2 1 0 1 2 0 1 0 0 0 0 2 3 0 2 0 0 2 2 3 1 0 0 0 0 0 2 2 1 0 1 1 1 1 1 0 0 1 0 0 1 1 0 1 0 2 2 0 0 1 1 0 1 1 0 0 2 0 0 1 1 0 1 2 0 2 1 0 1 1 0 0 1 0 1 3 1 2 1 2 0 1 4 2 3 0 0 0 1 2 0 0 0 0 2 1 0 2 0 1 0 1 1 1 1 3 0 1 3 0 1 0 1 1 0 0 1 1 1 0 2 1 1 1 2 1 1 0 0 1 0 3 0 1 0 0 1 0 0 1 1 1 2 3 0 0 1 0 1 1 1 2 2 0 1 0 1 0 1 0 0 2 0 2 0 1 2 0 1 1 2 0 1 1 0 0 1 1 0 1 0 2 2 2 0 0 0 1 0 0 1 0 1 1 2 0 0 2 1 0 0 0 2 0 2 1 0 1 1 0 0 2 2 0 2 0 2 0 2 1 0 0 0 2 1 0 2 1 2 1 2 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 2 0 0 2 1 1 1 2 1 1 1 0 0 0 0 0 0 1 0 0 1 2 1 0 1 0 0 0 0 3 1 1 2 0 0 0 1 2 1 3 1 1 1 2 2 2 1 1 1 1 1 1 1 1 0 2 1 0 1 0 0 0 0 0 2 0 1 1 0 3 0 2 1 2 1 2 1 1 1 1 0 0 0 1 1 1 0 1 1 0 1 0 1 1 1 1 0 0 0 1 1 3 0 0 1 0 1 2 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 2 0 0 1 2 0 1 0 3 1 0 0 1 0 0 2 1 1 2 0 2 1 0 0 0 2 1 0 0 2 1 2 2 0 0 1 1 0 0 1 2 1 0 1 0 1 1 3 2 2 0 0 1 2 0 0 0 1 1 0 1 1 1 1 1 0 3 0 0 0 0 2 0 0 3 1 0 0 0 2 1 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 4 1 1 1 0 0 1 1 1 0 2 0 0 3 1 0 1 2 0 2 0 0 2 0 2 1 1 0 0 0 0 0 2 0 2 1 1 1 1 2 0 0 0 2 0 1 2 1 2 1 0 0 2 0 3 3 1 0 1 1 0 0 1 0 1 1 0 1 2 0 0 0 1 0 0 1 0 0 2 0 0 1 1 0 2 0 0 2 3 2 1 2 0 1 1 0 3 2 0 2 0 0 0 0 1 3 2 0 0 2 3 0 1 0 1 2 1 0 2 0 0 1 1 1 0 0 0 2 0 1 0 2 0 0 0 1 0 0 1 1 2 1 0 1 0 0 1 0 1 1 0 0 3 0 0 1 1 0 2 0 1 0 0 0 0 2 0 2 0 0 2 1 0 0 1 0 0 1 1 1 1 3 1 1 1 1 1 1 0 1 0 1 2 0 1 1 0 2 0 0 0 1 1 1 0 0 1 1 2 1 0 3 0 2 2 0 0 1 0 0 1 4 0 0 3 0 1 1 0 0 0 0 3 2 0 1 0 1 1 1 1 0 1 1 0 4 1 1 0 2 1 0 2 0 2 0 0 4 2 0 4 0 0 0 0 1 0 1 1 2 1 1 0 2 1 0 1 1 0 1 0 0 0 1 2 0 2 0 0 0 1 1 2 2 1 2 1 0 2 0 0 0 0 1 0 0 0 1 0 1 2 3 2 0 2 1 3 1 1 3 1 2 1 2 0 3 0 1 1 0 0 1 0 0 0 1 1 0 2 2 2 1 3 0 0 2 0 0 1 0 1 2 1 1 0 1 2 1 2 1 1 0 1 1 0 1 1 2 3 0 0 0 2 1 1 0 1 2 0 0 2 2 0 0 3 0 1 0 1 1 1 1 1 0 1 3 1 1 0 0 2 3 1 0 1 1 1 0 0 1 0 3 0 0 1 0 0 0 0 1 1 0 0 2 0 1 0 1 0 2 2 4 0 0 1 0 1 1 2 2 1 0 1 0 0 2 1 2 1 1 1 0 0 1 0 0 2 0 2 0 0 1 1 0 1 2 1 0 3 2 0 0 1 0 1 2 0 2 2 1 1 1 1 1 0 3 0 0 0 0 1 0 2 1 0 0 0 1 0 2 1 0 2 0 1 0 0 0 1 0 3 1 0 1 0 1 1 1 4 0 1 0 1 1 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 1 1 1 2 0 0 1 0 1 3 1 1 0 0 0 0 2 0 3 1 1 1 1 1 2 0 1 1 0 0 1 1 0 0 0 2 0 1 1 1 1 1 1 1 1 0 3 0 0 0 0 2 0 0 1 2 1 1 1 0 2 1 1 0 0 1 1 1 1 0 0 2 0 2 0 3 1 1 0 1 1 2 1 2 0 0 0 0 1 1 1 1 2 1 0 1 1 2 3 0 0 1 0 1 0 2 0 0 0 2 1 3 2 0 0 1 1 1 0 4 0 0 1 0 0 0 0 1 2 2 2 0 1 1 1 0 1 0 0 2 1 1 0 3 1 0 0 1 2 3 0 2 1 3 0 3 0 1 0 1 0 0 1 0 3 2 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 2 2 0 2 1 3 2 0 0 0 0 4 0 2 0 0 2 1 2 1 1 0 1 0 1 1 1 1 0 0 1 0 0 2 0 0 0 0 1 1 1 2 0 0 0 0 1 2 1 1 0 1 2 0 1 4 0 0 1 1 1 0 0 0 2 0 1 0 1 0 1 0 0 2 0 0 2 1 0 2 2 1 1 1 0 1 1 2 3 0 0 0 2 0 1 1 1 1 1 1 1 1 0 0 1 1 1 0 0 2 2 0 2 0 3 1 1 0 0 1 0 0 0 1 0 0 1 0 1 2 1 1 0 0 0 1 0 0 1 2 1 0 0 4 0 0 1 1 0 0 2 1 0 0 3 0 1 0 2 1 0 2 1 3 0 1 2 0 1 0 1 0 1 0 0 1 1 1 1 2 0 0 3 2 0 0 2 0 0 2 2 0 0 0 2 1 0 1 3 0 0 2 1 2 2 0 0 1 0 1 0 0 1 1 0 1 1 0 1 2 2 1 0 1 2 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 2 0 1 0 0 0 0 3 0 0 3 0 2 2 0 0 1 0 1 0 2 2 0 1 0 1 2 0 2 2 2 0 1 3 1 1 0 0 0 1 2 0 1 0 1 1 2 0 1 2 0 1 0 1 0 0 0 0 0 2 0 0 1 1 1 0 0 1 1 1 0 1 1 2 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 1 0 1 1 1 2 2 2 2 2 1 2 0 1 0 1 0 1 1 1 2 2 1 1 1 1 0 1 0 0 1 1 2 3 1 0 0 1 0 1 1 2 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 0 4 2 0 1 0 0 1 1 2 2 1 1 1 0 0 1 1 0 1 2 2 1 1 0 0 2 1 0 0 1 0 0 1 1 0 2 0 1 0 0 0 3 2 1 1 0 0 1 0 0 1 0 1 0 1 1 0 3 0 1 0 0 3 0 0 1 1 1 0 1 0 2 0 2 0 0 1 1 1 2 1 0 0 2 1 0 2 0 0 1 0 0 2 1 1 2 0 1 1 0 0 0 0 0 1 1 1 2 0 1 3 2 1 2 1 1 2 1 2 1 2 0 2 1 0 0 2 0 1 0 0 1 0 2 1 1 1 1 0 0 3 1 1 0 0 2 2 0 1 0 3 0 1 1 0 0 0 2 1 3 2 0 1 0 1 2 0 2 4 2 0 1 1 0 0 1 1 0 1 0 3 3 1 0 1 0 0 0 0 1 2 2 1 3 2 2 0 0 0 1 0 1 2 0 3 0 3 2 1 2 1 0 0 1 0 0 0 0 3 1 1 1 0 0 0 1 2 2 2 0 1 0 1 1 0 1 0 1 1 1 0 2 2 0 1 0 1 2 0 1 2 0 0 1 1 0 3 1 3 2 2 1 2 1 1 2 0 1 0 3 1 1 0 1 1 1 2 0 1 1 0 0 0 0 1 1 3 0 0 0 1 1 0 2 4 0 1 2 0 1 0 1 2 3 0 2 0 1 0 0 0 1 2 0 0 1 3 1 0 0 1 0 1 0 0 1 2 1 1 1 1 1 1 1 2 2 2 1 0 0 2 2 1 1 2 0 1 2 1 0 1 0 0 3 0 0 0 0 0 2 0 2 2 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 1 1 0 0 1 1 1 0 1 0 0 1 1 1 2 0 0 2 1 0 1 1 1 1 0 0 2 1 1 1 0 3 3 0 1 0 2 1 1 1 1 2 0 0 2 0 0 1 2 1 0 1 2 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 0 1 0 1 1 2 1 0 1 0 1 0 1 1 1 0 1 0 0 0 0 1 3 1 1 0 1 1 1 0 2 3 0 1 2 1 2 0 0 1 0 0 1 1 1 1 0 3 0 1 0 1 1 0 2 0 1 0 2 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 2 3 2 1 1 0 1 2 1 1 1 1 0 0 1 2 0 0 1 1 0 1 0 1 0 1 2 0 2 1 1 0 0 0 0 1 2 2 0 0 0 0 1 0 1 0 2 1 0 0 0 1 2 1 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 2 1 1 0 0 0 2 1 1 1 0 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 2 0 1 0 1 0 1 0 0 2 2 1 1 0 1 0 0 1 0 3 0 2 2 0 0 1 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 1 0 2 1 2 1 1 0 0 0 0 0 0 1 2 1 2 2 0 1 0 0 0 1 2 0 1 0 2 0 1 1 2 0 1 0 0 0 0 1 1 0 0 0 1 2 0 0 0 3 2 0 0 0 0 0 0 2 0 0 1 1 2 1 0 0 2 0 1 0 0 2 1 0 1 0 2 0 1 1 0 0 1 1 0 0 1 2 0 0 2 0 0 0 0 0 1 0 1 2 1 1 1 2 0 0 1 0 0 3 0 0 2 2 1 2 1 1 0 0 1 0 0 0 0 0 3 1 0 2 3 1 1 0 0 1 1 0 1 0 0 2 2 1 1 1 0 1 0 5 2 1 1 1 0 1 0 2 1 0 0 2 1 0 2 0 0 5 0 1 0 0 0 0 1 1 2 0 1 0 0 2 0 1 0 2 2 0 0 2 2 1 1 1 1 1 0 1 1 0 1 0 0 0 0 2 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 1 0 1 1 0 1 0 3 0 1 1 2 1 1 1 1 1 0 0 0 0 2 0 0 1 0 1 2 1 1 0 0 0 0 2 0 2 0 1 0 1 2 2 0 0 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 0 1 0 2 0 1 1 1 0 0 1 0 1 3 1 2 0 0 2 0 0 1 1 1 1 1 0 0 2 1 2 0 0 3 1 1 2 1 2 0 1 0 2 3 0 0 2 2 2 2 0 0 1 0 0 1 0 0 3 1 0 2 0 1 1 1 0 1 1 0 0 0 1 0 2 0 0 0 0 0 1 2 1 0 1 0 0 0 1 2 1 0 1 0 0 2 1 1 1 2 2 2 1 0 0 1 1 1 2 2 0 1 0 0 2 1 0 0 0 1 2 0 2 1 2 0 1 1 0 1 4 1 1 1 2 2 0 2 2 1 0 0 2 0 1 0 0 0 0 0 2 1 0 1 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 2 0 1 1 1 1 1 2 2 0 1 0 2 1 1 0 2 0 1 2 2 1 1 1 1 2 0 1 0 3 0 1 1 0 0 2 1 2 2 1 0 0 1 1 1 0 0 1 2 1 3 1 1 0 1 0 2 1 2 0 0 0 0 0 0 0 1 1 0 1 1 0 0 2 1 2 1 2 0 1 1 0 0 1 0 0 0 1 0 0 2 0 0 0 1 0 1 1 2 0 2 1 1 0 1 0 0 2 0 0 0 0 1 0 1 1 1 3 0 0 0 0 0 1 0 2 0 0 1 1 2 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 3 2 0 1 0 1 1 3 2 0 1 0 1 0 0 2 2 1 1 0 1 0 0 0 1 1 2 1 0 0 0 0 1 1 1 0 0 2 1 1 2 1 1 1 1 0 1 1 0 1 0 2 0 1 1 2 0 0 0 0 3 1 0 0 1 0 1 3 2 0 0 0 0 0 1 1 0 1 1 2 0 0 2 0 1 1 0 2 0 1 0 0 0 1 1 1 1 1 0 0 2 1 0 1 3 0 0 1 1 0 2 2 2 1 0 0 0 2 0 0 0 0 2 1 3 0 2 2 0 0 0 0 2 1 2 0 2 2 1 0 2 0 1 0 0 1 0 0 1 0 2 1 1 0 2 1 2 0 0 0 0 0 0 0 0 0 1 1 1 1 1 1 0 0 2 1 3 0 0 1 0 0 1 1 0 0 1 1 0 2 0 1 1 0 2 0 3 0 0 0 1 0 0 0 0 2 0 0 1 1 0 1 1 0 0 2 0 2 0 2 1 1 0 0 0 0 2 2 0 0 1 1 1 2 1 1 0 1 1 1 2 1 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 2 0 0 0 0 1 0 4 0 2 1 0 0 0 0 1 0 1 1 0 1 2 1 1 1 1 1 1 1 2 2 0 0 3 1 1 0 2 1 0 0 0 1 0 3 0 3 1 0 2 0 2 2 0 0 0 2 0 1 0 1 0 0 0 3 1 4 0 0 0 1 2 0 1 1 2 1 0 0 1 0 2 0 0 1 0 3 0 1 1 0 2 0 1 1 0 0 1 2 0 2 0 2 0 2 1 1 1 2 0 1 1 0 0 3 0 0 3 1 0 1 0 0 1 0 1 1 0 2 2 1 0 1 0 0 1 2 0 0 0 1 0 1 0 1 2 1 1 1 1 1 1 1 2 2 0 0 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 1 3 1 1 0 0 2 0 0 0 0 1 2 1 0 3 1 0 0 0 1 0 3 1 1 3 1 1 1 3 0 1 0 0 0 2 0 1 0 1 3 1 0 2 1 1 0 0 0 0 0 1 1 0 1 1 1 1 2 1 1 0 2 0 0 1 0 0 1 0 0 0 1 3 0 0 1 1 1 0 3 2 0 0 0 0 0 2 0 0 0 0 0 3 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 2 1 2 1 1 0 2 0 0 0 3 2 3 0 0 1 1 2 0 0 0 0 0 0 1 1 0 1 2 1 3 0 1 0 0 0 1 0 0 0 1 0 1 1 2 3 1 1 0 0 1 0 2 0 0 0 0 0 3 0 1 0 1 0 0 1 0 0 1 0 0 2 0 4 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 3 0 0 0 1 1 0 0 0 0 0 0 1 1 1 4 1 2 1 0 2 0 2 3 0 1 0 0 1 0 1 0 0 2 1 0 1 2 0 1 1 0 0 0 1 0 0 2 2 1 1 0 1 0 0 0 1 0 1 0 2 0 1 0 1 3 1 1 0 0 1 0 1 1 0 2 1 1 1 2 1 1 0 1 2 3 2 0 1 0 1 2 3 1 0 0 2 1 2 0 0 3 0 1 1 0 2 0 0 1 3 1 1 2 0 1 0 0 0 2 0 0 1 0 2 0 1 0 2 1 1 1 0 1 1 1 0 1 0 1 0 3 0 0 0 0 1 1 1 0 2 1 0 2 1 0 1 2 1 2 0 1 2 2 2 0 1 0 0 1 2 1 1 0 0 1 3 0 1 3 1 0 0 0 0 2 1 0 0 1 1 0 1 1 1 0 3 1 0 0 1 1 0 0 2 0 1 1 0 0 1 0 0 0 0 0 3 2 2 0 0 0 0 0 0 0 1 1 0 1 2 0 0 0 0 2 0 1 4 0 0 1 1 1 1 1 1 0 0 0 0 2 0 2 0 2 2 0 1 1 0 1 0 1 0 1 1 1 1 1 0 1 0 1 0 0 1 0 1 2 1 0 0 0 0 0 0 2 0 1 0 0 0 0 0 4 2 0 2 1 2 0 1 1 1 0 2 3 0 1 0 0 0 1 1 2 1 0 1 1 1 1 1 1 1 1 2 1 3 1 0 1 0 0 1 1 1 1 2 0 0 0 0 2 0 1 0 1 1 0 1 0 0 0 0 4 0 1 1 0 0 1 1 0 2 2 1 1 0 1 1 0 0 0 0 2 1 2 0 1 1 0 1 0 1 0 1 0 0 1 0 2 1 0 0 1 2 0 4 2 2 0 1 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 1 2 1 3 1 2 2 1 1 3 0 1 0 1 0 0 1 1 1 1 0 0 0 0 2 1 2 2 1 0 0 0 1 0 0 0 0 0 1 0 1 2 1 0 1 0 0 0 0 0 1 0 1 2 1 1 2 1 0 2 0 3 0 1 1 0 1 1 2 2 0 2 2 1 0 0 1 0 0 0 2 2 1 0 1 0 0 2 1 2 0 1 1 1 2 2 1 0 0 1 1 1 1 1 1 1 2 1 0 0 1 2 0 0 1 0 0 1 0 0 0 1 1 1 0 2 1 1 0 2 1 0 1 2 0 1 0 2 1 0 0 0 1 0 1 4 1 1 1 1 2 1 1 1 1 0 0 2 2 2 0 1 1 2 3 0 2 3 2 1 0 2 1 0 1 1 0 2 1 1 1 0 1 0 1 1 1 0 0 0 2 0 0 1 0 2 0 2 1 0 0 1 0 2 1 0 0 0 0 0 0 1 1 2 0 1 1 0 4 1 0 0 2 0 1 0 1 0 0 2 1 0 1 0 0 1 1 1 0 2 2 0 0 1 2 1 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 0 2 0 1 0 3 1 0 2 2 1 0 0 2 0 0 0 0 1 0 0 0 0 2 1 0 2 1 1 2 1 0 0 0 0 0 1 0 2 1 0 1 0 1 1 1 1 1 0 0 0 0 2 0 1 0 1 2 3 2 1 0 0 1 2 1 1 3 0 2 0 0 0 0 1 1 1 0 3 1 0 2 0 1 0 2 0 1 2 1 0 1 0 0 2 1 3 1 0 3 2 0 0 2 1 0 1 0 1 1 1 1 0 0 0 2 1 1 0 2 1 0 1 0 2 1 1 0 0 1 1 4 2 0 1 2 1 0 0 0 1 1 3 0 0 1 0 0 0 0 2 0 0 0 2 0 1 2 0 1 4 1 1 0 0 1 2 0 0 0 1 1 0 0 0 0 3 2 0 1 2 1 0 1 2 1 1 1 0 1 0 0 0 1 1 0 0 1 0 1 1 1 1 0 0 1 1 1 0 1 0 0 1 0 2 2 1 0 1 0 2 0 0 1 1 0 1 0 1 2 0 1 0 0 1 1 1 0 0 3 2 2 2 0 0 2 3 0 3 1 0 1 1 0 2 1 2 0 2 0 3 0 0 0 2 0 1 0 0 0 1 1 0 1 2 2 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 1 1 1 0 0 0 0 2 0 1 1 1 0 0 1 1 1 0 2 0 2 3 0 0 0 0 0 2 0 0 0 0 2 1 3 1 1 1 0 0 0 0 1 1 2 0 1 2 1 0 2 2 1 0 1 0 0 1 1 1 1 0 2 3 1 1 0 0 0 2 0 0 0 2 2 4 0 1 1 0 1 0 1 1 1 1 0 1 0 2 1 0 1 0 1 1 0 0 1 0 1 0 2 2 2 1 0 0 0 0 1 2 1 1 0 0 1 0 1 0 1 2 1 1 0 1 0 0 0 0 2 0 0 2 1 1 1 0 0 1 0 0 0 1 1 1 0 1 2 1 0 0 0 0 2 0 1 1 1 0 3 0 0 1 0 0 1 1 1 1 0 0 0 1 2 0 3 0 0 1 0 1 1 0 1 1 2 1 0 2 0 2 1 0 2 1 0 1 0 1 0 0 0 1 0 0 1 1 0 1 1 1 0 1 1 0 0 1 2 0 1 0 0 1 0 2 2 0 1 1 1 0 1 1 1 0 2 2 1 1 1 1 1 2 0 0 0 0 1 1 0 1 0 3 2 0 3 2 1 0 0 0 0 1 1 1 1 2 0 0 1 0 0 0 1 2 0 0 1 0 1 2 1 0 1 2 0 0 0 0 3 1 2 0 0 0 0 2 1 4 1 0 0 1 0 3 1 0 2 1 2 0 1 0 2 0 1 2 1 1 0 0 4 1 2 1 0 0 2 2 0 0 0 2 2 2 0 0 0 1 1 0 1 0 1 1 0 0 1 0 0 0 0 2 1 2 0 0 0 0 0 0 1 1 1 3 1 0 0 0 0 1 1 1 2 0 2 1 2 0 1 1 2 2 0 0 3 1 0 0 1 1 2 2 0 1 0 0 0 0 1 1 1 2 1 1 0 1 2 1 0 2 1 0 0 1 1 1 2 2 1 1 1 0 0 0 0 2 2 1 0 1 1 2 0 1 0 0 0 1 0 0 0 2 1 1 3 0 2 1 2 0 0 2 0 0 2 1 0 0 1 1 0 0 2 0 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 0 0 1 2 1 0 0 0 3 1 1 0 3 0 4 1 1 0 0 3 2 1 1 1 1 2 0 0 3 1 0 0 0 1 1 0 2 1 0 0 1 1 0 1 1 0 0 0 2 1 0 3 1 0 1 1 0 2 1 2 1 0 1 1 0 0 1 1 1 0 2 1 1 2 1 1 1 0 0 1 1 3 1 2 1 0 0 0 2 0 3 1 0 3 0 0 1 3 1 0 1 0 1 0 1 0 1 0 0 0 0 0 2 2 0 0 2 0 1 1 0 0 0 0 1 2 2 1 1 0 1 0 1 0 1 3 1 1 2 2 0 0 0 2 1 0 1 0 0 0 2 0 0 1 1 1 0 1 0 0 0 3 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 2 0 0 0 1 1 0 0 1 0 1 1 2 1 1 1 1 1 0 3 0 0 1 1 2 1 3 0 0 0 1 2 0 0 0 0 1 2 0 2 1 2 1 1 1 0 1 2 1 2 1 2 1 0 0 2 2 1 1 0 0 1 1 1 1 0 0 0 1 0 1 0 1 0 1 3 1 0 2 1 2 0 1 1 0 0 3 0 2 0 1 2 1 1 0 1 1 0 2 0 1 2 0 0 1 2 1 0 1 1 1 1 2 0 2 0 0 0 1 1 1 0 0 0 1 2 0 1 2 0 0 2 1 0 1 3 1 0 0 1 1 0 0 2 1 0 1 0 0 0 0 1 1 1 0 0 1 2 0 1 0 0 1 2 0 1 1 0 2 2 1 0 0 0 1 3 1 3 1 3 1 1 1 0 1 0 1 0 1 0 1 2 1 0 1 1 0 0 1 3 1 1 1 1 0 0 0 2 1 0 0 0 2 0 0 1 0 2 3 1 0 2 0 0 0 0 1 2 0 0 2 1 1 2 0 1 3 0 2 1 1 0 0 0 1 1 0 1 2 0 1 0 0 0 1 5 0 1 1 0 2 1 0 0 0 1 1 1 3 2 0 0 1 0 1 0 0 1 0 0 1 0 1 1 1 2 0 2 1</t>
+    <t>JSU(-14.159798992829707, 8.201030356057093, -42.00307269136254, 22.331602259783697)</t>
+  </si>
+  <si>
+    <t>23 10 37 21 16 15 21 20 13 10 27 17 36 27 21 13 24 22 24 23 38 31 17 15 23 10 20 33 24 27 9 21 9 17 20 13 23 23 12 26 14 17 24 14 17 20 27 16 10 7 17 41 10 30 24 38 6 9 16 22 26 6 24 30 29 10 6 10 24 31 45 14 7 10 14 7 11 20 20 20 23 10 10 28 31 17 19 20 20 19 30 24 9 12 10 21 10 24 23 13 10 21 28 31 27 23 23 21 30 10 14 20 16 16 24 7 31 18 27 13 34 29 22 17 28 19 15 22 19 17 7 24 24 28 14 28 13 21 30 20 14 7 31 13 32 21 10 20 19 23 21 27 10 7 41 33 10 17 10 20 26 17 8 22 22 13 13 26 23 23 21 37 30 20 16 17 10 7 35 6 13 31 27 25 7 16 18 19 14 24 17 17 26 21 31 13 20 10 22 17 20 23 13 17 17 7 26 6 21 19 18 23 20 21 27 17 21 21 20 0 21 20 12 24 37 18 13 10 14 20 20 23 24 14 16 20 10 17 45 20 7 16 6 31 17 20 23 21 14 31 17 28 16 19 13 24 10 24 7 17 14 22 20 13 21 16 7 16 42 17 19 7 15 34 24 17 23 20 38 24 9 13 24 23 27 33 24 17 15 10 6 31 17 31 14 13 14 22 13 28 22 13 15 14 18 24 13 28 24 16 16 10 10 27 30 42 6 28 20 21 30 31 24 18 23 17 23 23 20 21 13 24 17 31 20 41 7 32 10 21 14 17 16 9 13 10 21 10 11 20 12 17 20 9 26 20 24 13 6 26 16 20 12 24 32 23 27 24 26 9 33 20 14 24 10 10 30 24 28 7 19 13 13 21 11 17 36 17 22 21 13 20 23 14 28 21 23 30 21 28 37 6 7 17 20 20 13 9 19 20 17 24 31 13 27 21 31 24 13 27 9 37 14 10 15 19 24 23 30 12 24 17 31 14 21 20 20 20 24 30 23 10 10 28 31 19 24 24 36 20 21 24 9 20 13 17 30 3 16 23 16 10 17 30 9 21 20 13 17 30 9 7 10 34 17 13 21 30 17 17 13 31 6 41 17 5 23 23 3 27 22 24 24 21 20 12 33 20 17 26 13 17 40 16 16 17 10 37 17 24 13 10 17 17 26 16 15 3 17 17 21 27 6 20 33 34 21 13 24 21 20 10 30 16 31 14 17 37 14 17 24 27 6 26 15 20 19 17 27 11 30 17 13 27 24 26 17 7 27 20 6 19 13 41 12 7 24 13 10 10 28 10 14 10 12 28 7 27 10 23 9 24 24 30 10 24 12 12 31 27 15 20 17 14 24 13 17 0 27 21 27 28 29 34 22 20 14 18 16 23 13 15 37 7 31 17 6 12 17 20 15 17 20 9 31 23 9 29 20 19 17 13 34 22 21 21 16 16 17 20 20 11 24 33 23 28 33 17 16 19 17 20 22 20 27 14 24 16 21 16 3 42 17 26 14 15 19 21 10 24 20 23 11 9 17 22 23 27 9 30 10 12 28 17 21 14 7 16 23 21 7 16 23 21 17 13 27 20 18 22 20 9 13 24 10 0 31 9 25 9 27 23 31 27 21 17 10 17 26 16 29 33 27 16 35 25 26 42 13 22 26 17 30 21 17 19 23 19 21 12 10 27 3 19 15 27 26 16 20 13 14 19 27 14 13 16 6 17 7 10 30 16 21 17 21 10 21 23 13 27 20 30 12 7 22 20 21 33 18 27 20 21 17 13 40 14 31 27 27 16 31 11 7 11 17 6 16 14 21 10 38 10 24 33 17 24 14 14 13 20 8 16 27 28 31 17 22 14 17 9 17 19 24 16 9 20 20 20 16 28 13 17 12 6 10 23 16 20 15 6 27 40 15 13 23 13 13 9 15 17 23 14 13 13 19 17 10 16 34 17 23 19 27 15 14 27 17 20 27 23 14 30 22 30 14 19 13 19 17 31 17 10 6 14 17 25 24 31 16 28 16 16 21 13 21 28 20 17 17 9 20 10 14 28 30 31 16 10 17 18 28 20 19 13 27 35 13 13 7 17 26 20 20 30 15 21 14 30 17 20 7 14 20 28 19 17 24 41 27 20 31 24 12 19 31 13 24 17 27 17 16 30 21 13 22 13 19 10 23 10 7 27 24 24 19 21 21 24 16 13 13 6 23 21 28 23 24 41 17 16 20 14 20 17 24 27 26 28 21 17 16 33 13 16 22 21 34 20 14 14 22 20 10 20 30 17 6 20 27 17 30 17 16 12 7 27 21 13 20 27 17 21 14 28 13 23 3 21 13 15 13 26 27 9 10 30 20 24 28 23 24 21 23 6 46 17 9 20 27 20 31 23 21 17 14 19 24 27 24 10 13 22 20 24 9 24 10 14 27 23 14 20 10 10 31 10 12 13 27 11 24 19 13 16 26 23 20 27 29 17 31 21 27 23 24 24 6 21 40 16 7 27 28 24 17 10 3 24 17 30 28 20 27 23 27 14 21 23 0 44 28 11 13 13 22 31 31 10 14 31 17 3 23 16 23 20 7 17 13 22 26 30 17 31 20 10 20 20 11 15 18 31 34 26 21 9 10 14 17 17 19 13 24 27 24 17 23 7 16 16 38 6 5 14 38 11 27 37 12 35 31 34 22 17 29 10 21 15 21 17 28 19 26 0 17 14 10 16 13 16 14 16 20 17 16 31 31 23 27 10 30 17 23 23 36 17 39 31 0 17 6 34 17 7 17 23 31 28 11 20 17 10 13 6 17 9 0 21 30 11 27 16 17 17 40 24 10 10 17 37 23 20 31 17 21 24 17 14 17 9 6 20 14 22 24 9 20 14 13 24 19 6 10 10 13 24 7 17 10 14 23 10 13 24 21 35 14 40 13 16 10 31 19 13 34 17 18 33 10 14 7 20 27 3 28 23 16 26 29 12 13 31 20 21 0 24 38 20 27 3 32 17 20 12 21 14 11 34 16 18 21 21 21 30 30 27 28 23 24 13 7 22 24 27 3 17 10 26 17 21 17 10 10 3 13 34 17 20 17 16 10 17 14 17 17 15 24 27 30 16 20 30 14 14 17 20 21 9 26 31 7 34 16 17 10 19 20 24 0 15 17 26 14 15 13 19 29 21 13 17 34 14 15 19 28 20 19 12 13 41 3 19 34 27 11 3 18 28 17 52 14 15 17 17 21 17 21 17 27 24 16 27 6 17 29 13 24 6 10 16 14 17 19 0 24 17 30 10 24 14 17 24 26 10 16 9 17 11 26 20 17 41 17 10 0 19 20 22 10 21 12 21 31 20 27 6 20 17 23 24 20 28 5 7 10 10 31 27 11 21 31 27 31 28 38 27 22 21 20 20 7 14 21 26 16 30 12 24 16 36 20 23 24 20 13 30 30 14 16 10 10 28 24 28 12 17 18 23 20 9 38 17 28 17 7 20 27 20 17 25 28 21 30 19 9 21 17 13 24 13 14 24 24 21 22 10 30 23 17 15 24 27 28 20 17 15 13 27 34 17 30 27 27 20 7 27 31 3 17 13 14 23 6 33 26 14 13 14 34 18 23 29 30 24 19 32 9 18 13 21 24 17 27 14 10 17 8 17 15 34 10 26 20 26 17 33 17 12 18 16 13 27 20 6 10 22 16 27 10 17 19 20 12 20 24 16 24 24 16 17 20 14 17 20 19 21 20 13 27 3 27 14 37 21 21 21 30 6 20 27 24 17 27 23 10 16 13 19 21 20 25 13 27 28 17 17 17 9 9 34 23 13 18 24 19 9 27 13 13 28 17 30 20 27 23 17 3 27 28 27 10 31 3 32 27 21 13 10 13 24 20 28 13 10 27 14 36 17 24 20 26 29 33 7 20 17 16 6 34 3 27 21 24 31 23 17 31 20 10 20 7 38 30 18 20 42 13 13 24 6 20 23 24 13 17 14 31 24 22 34 10 20 31 34 10 32 27 14 21 7 23 24 17 19 17 15 10 28 19 29 21 27 31 13 20 3 23 28 20 21 11 13 28 22 26 17 27 17 14 7 17 23 20 42 16 20 15 13 10 17 27 16 20 20 33 28 28 24 23 34 24 19 41 19 13 13 6 10 23 16 3 13 24 20 24 24 13 16 20 20 13 14 31 20 27 23 17 13 19 9 28 26 34 24 27 16 23 15 37 20 24 16 34 6 13 28 20 21 19 30 9 13 7 10 21 33 16 27 30 13 10 23 15 10 16 24 10 24 20 31 38 6 13 30 12 31 24 21 35 0 10 10 17 7 21 13 13 30 17 9 16 31 27 17 23 22 14 13 28 20 14 21 28 17 18 17 17 26 14 24 31 17 20 38 31 26 13 6 13 20 14 22 22 10 25 27 22 31 21 24 10 16 29 24 10 27 23 10 0 10 14 28 9 17 20 27 27 13 20 38 7 19 12 24 19 8 20 13 24 10 13 20 27 10 29 30 7 31 31 21 23 13 16 23 16 20 9 9 18 16 29 17 10 19 20 20 14 19 3 17 31 6 20 21 13 20 23 33 12 23 20 24 20 33 21 20 21 22 13 14 19 23 19 14 13 16 17 21 16 14 21 23 24 17 13 17 20 20 7 17 16 26 28 24 28 27 14 27 19 8 28 20 27 24 14 23 44 20 24 17 20 24 38 21 20 37 7 21 30 15 24 31 10 16 16 10 13 28 24 21 6 17 30 26 34 13 13 23 34 9 6 10 23 13 7 34 10 24 22 23 30 24 19 23 20 15 14 17 17 17 20 16 21 31 20 34 30 27 10 31 20 24 10 31 20 31 27 6 17 36 21 20 26 10 23 20 20 24 17 25 9 16 17 16 31 13 20 17 36 30 17 6 16 27 19 10 10 18 23 14 27 20 30 17 19 17 21 27 28 27 19 14 20 17 20 21 24 16 31 24 6 24 14 20 19 15 20 16 13 17 49 6 21 31 6 27 19 3 16 24 24 14 31 28 28 23 3 21 23 10 28 41 23 15 37 28 24 22 13 27 3 10 12 21 13 15 27 14 19 34 21 9 20 20 33 20 17 27 21 21 7 23 16 14 13 17 16 13 20 20 7 17 3 6 16 8 16 20 24 10 30 28 21 24 26 13 40 26 27 27 20 17 12 28 23 21 17 12 30 20 20 12 13 10 17 14 16 24 17 6 9 31 19 17 3 10 29 17 31 12 13 16 40 21 16 24 23 18 41 27 17 3 28 6 13 34 14 24 7 25 20 3 13 27 6 14 18 8 6 14 24 31 24 27 20 27 3 20 24 10 10 27 0 29 10 27 28 27 20 17 13 41 9 16 14 20 23 20 21 17 16 13 13 10 3 24 20 6 24 23 17 21 33 17 13 27 10 10 21 12 20 13 16 19 24 10 9 13 35 21 3 27 23 27 19 15 0 24 38 3 10 14 17 21 17 16 11 7 25 13 16 27 10 16 20 17 16 26 13 17 21 6 28 24 16 7 20 13 10 27 23 16 24 13 31 13 9 19 27 31 21 21 20 26 21 27 17 14 17 41 16 16 27 20 10 20 19 13 21 13 24 7 45 19 6 10 10 21 27 9 20 10 24 24 17 24 30 21 20 24 34 10 23 27 17 13 30 14 20 37 23 9 27 19 22 20 21 16 24 12 21 17 17 10 6 17 11 34 20 13 21 16 20 20 24 24 7 16 13 24 8 22 18 38 18 19 3 17 13 29 7 23 10 24 13 13 42 13 14 9 33 7 19 26 10 13 17 16 16 20 10 20 27 7 3 9 10 10 23 15 34 27 34 24 27 21 17 10 17 10 16 17 28 17 19 27 3 19 17 27 21 14 20 24 30 6 21 20 21 16 10 17 16 7 13 20 16 28 17 31 17 3 20 14 17 31 21 14 20 24 28 24 21 30 16 12 13 0 15 27 23 15 21 12 23 3 20 6 24 20 24 23 21 24 37 20 20 13 31 14 30 14 20 17 3 27 16 15 13 17 19 24 17 19 30 17 23 7 10 11 14 17 19 24 14 13 17 17 6 9 24 14 10 19 17 8 27 32 21 14 12 30 23 27 21 16 35 23 14 17 9 20 19 14 34 31 6 13 28 14 28 35 20 37 21 10 6 19 24 17 22 28 10 20 8 9 48 24 20 10 13 20 6 6 9 13 24 17 12 21 24 19 20 10 13 27 24 24 21 27 17 28 14 10 13 42 31 25 18 23 27 20 23 13 24 24 22 22 24 3 17 16 9 17 41 14 14 24 15 27 17 19 11 13 13 27 20 15 8 30 20 23 29 17 26 13 16 22 13 10 24 37 20 13 20 21 24 17 20 15 13 3 11 17 13 12 18 17 20 20 14 19 13 24 28 6 24 17 28 23 6 28 28 6 21 30 13 22 27 20 17 20 24 20 13 20 31 23 12 21 21 10 7 13 16 24 17 14 31 7 17 16 26 34 17 27 10 13 31 24 20 34 3 22 24 9 17 13 20 6 20 16 34 21 28 10 7 13 20 17 13 20 13 26 13 17 28 10 31 11 14 28 13 27 31 20 16 19 20 9 17 23 9 24 10 21 29 10 14 10 10 15 7 20 17 19 31 24 13 23 12 7 19 21 7 20 34 15 15 23 20 17 9 17 33 14 25 9 38 35 17 24 16 15 15 15 16 13 24 13 24 23 26 25 12 20 21 16 20 30 38 19 17 35 17 38 20 20 21 29 16 6 17 9 50 20 24 17 14 27 17 20 16 28 15 16 6 22 13 7 38 19 23 20 27 13 27 24 20 28 11 14 23 3 13 24 3 3 17 17 21 30 23 11 17 13 13 13 7 23 21 17 14 13 21 23 9 20 27 17 17 6 13 3 20 20 20 17 23 13 17 7 17 6 15 3 13 28 7 35 21 12 40 17 24 9 14 15 10 24 20 17 17 21 22 20 24 42 20 33 7 24 37 23 30 14 26 17 20 20 6 12 14 34 7 21 22 19 28 10 10 13 24 24 31 28 20 14 17 24 28 13 0 19 17 20 20 16 24 24 17 16 34 27 20 20 27 20 20 24 17 13 34 13 23 17 9 27 20 25 14 20 20 19 21 16 16 23 6 24 31 14 21 17 19 27 9 31 34 20 20 13 19 9 10 3 32 20 14 7 16 15 17 30 13 29 23 23 16 13 17 13 16 24 10 24 23 17 38 35 37 9 14 30 20 7 27 0 24 16 9 34 14 10 10 17 24 10 20 14 10 20 24 20 24 23 17 24 25 27 19 11 3 13 15 17 24 12 27 27 24 19 22 27 8 13 18 24 13 3 14 31 7 13 0 14 16 20 14 37 17 13 20 22 17 23 16 13 35 20 13 23 24 16 7 13 28 38 35 17 12 20 10 21 25 31 27 38 16 18 17 34 23 22 25 16 10 24 21 31 23 17 21 17 12 28 14 10 14 31 21 20 3 10 9 26 16 21 26 6 21 42 10 14 20 6 28 30 24 13 20 17 38 20 38 34 17 38 15 6 10 14 29 30 16 28 7 31 21 31 10 17 23 24 23 20 13 19 23 24 27 7 17 34 24 20 17 10 27 17 25 13 23 23 24 23 17 27 27 15 33 27 27 17 6 3 24 12 10 19 23 17 6 14 31 23 18 23 24 10 33 17 17 20 14 10 17 12 21 23 34 18 24 31 19 20 21 13 17 26 28 8 17 24 24 7 13 34 27 27 8 10 33 34 3 18 10 24 17 31 26 18 21 24 24 25 22 39 20 15 23 16 7 17 10 31 17 15 23 24 20 21 16 20 21 31 10 17 27 15 20 19 14 17 34 21 28 13 17 28 3 15 24 17 38 27 6 10 31 24 14 17 28 0 20 17 22 24 13 23 19 23 9 14 20 14 20 12 17 31 13 34 19 10 15 10 24 7 23 27 19 19 7 11 17 17 36 7 24 10 9 9 35 27 14 16 13 16 23 27 18 24 16 28 14 14 16 21 27 3 9 21 21 14 14 23 34 29 23 17 29 17 16 30 24 6 14 20 27 21 20 3 42 9 27 14 19 27 28 24 22 19 28 28 31 20 24 13 36 31 6 24 24 13 20 31 3 27 14 20 20 17 25 17 14 20 17 38 17 10 37 20 9 28 23 23 30 17 18 24 17 13 0 27 16 23 13 24 6 24 12 13 6 34 13 25 20 9 34 17 20 21 11 19 14 14 9 28 17 20 18 26 17 28 20 9 17 20 20 13 26 13 3 13 20 20 8 22 24 10 30 21 38 37 35 9 16 20 3 23 6 3 17 20 17 13 31 24 13 30 12 16 20 20 5 13 10 10 28 10 17 24 24 12 26 20 14 17 13 10 35 24 21 20 21 24 10 17 17 27 9 23 24 20 39 17 10 14 10 14 16 16 30 17 17 13 17 10 35 21 10 19 17 28 18 24 20 17 24 21 31 13 30 17 14 6 31 17 9 20 7 12 20 20 15 19 20 20 17 28 24 16 16 10 16 20 10 7 29 27 24 17 21 24 20 20 24 17 17 21 28 21 20 17 16 13 13 23 26 41 17 27 24 16 14 16 24 21 28 37 23 18 16 13 24 17 14 27 13 22 10 6 14 21 10 12 28 0 35 19 19 31 26 3 17 17 20 31 23 31 10 17 6 20 27 23 29 11 16 10 24 27 14 14 17 12 20 20 14 20 23 10 19 3 7 24 17 37 24 20 21 24 27 18 13 27 10 7 14 13 34 33 0 20 37 38 23 14 31 24 14 10 17 16 25 20 21 15 22 31 28 10 10 19 40 0 10 22 12 16 28 17 3 19 9 23 27 24 28 17 34 20 16 20 13 30 19 6 0 9 21 7 17 31 24 20 16 25 16 24 13 20 10 21 24 14 23 9 22 20 26 24 24 16 21 24 31 13 10 15 12 24 8 31 27 15 21 7 28 23 14 24 17 7 10 24 25 13 19 20 31 20 23 23 11 10 35 10 24 17 27 21 10 22 19 21 20 15 24 23 10 23 16 26 31 7 16 3 10 24 14 22 20 3 21 19 3 15 10 7 30 31 10 30 10 30 13 16 31 21 20 17 22 23 27 23 30 19 21 25 20 27 31 24 33 9 10 7 24 16 0 35 37 17 14 14 31 9 17 21 31 24 16 20 17 24 17 30 13 33 6 20 17 17 9 24 17 23 14 17 28 20 20 17 11 27 27 9 7 7 21 23 27 17 16 37 20 16 27 19 24 26 30 21 16 27 42 23 19 14 19 7 10 10 23 27 24 23 24 29 20 3 13 24 22 16 13 16 6 16 26 20 14 17 21 21 19 20 15 17 17 14 17 31 31 17 35 17 3 10 40 27 20 16 35 38 17 19 3 24 27 20 13 24 20 24 23 19 20 31 14 21 20 17 30 14 31 7 14 21 20 24 34 12 10 0 20 10 31 20 13 17 10 21 21 23 10 13 18 27 30 14 13 6 17 9 24 0 11 13 10 24 27 20 18 23 17 10 13 24 14 13 21 14 14 16 24 30 15 24 45 14 14 26 21 17 17 19 19 20 21 0 14 20 13 30 17 20 23 31 21 28 38 16 17 21 6 20 3 17 10 17 31 21 17 10 10 40 24 16 24 21 17 16 10 14 9 20 28 9 17 15 31 10 16 12 18 20 27 16 27 13 14 10 22 31 17 13 13 13 14 3 19 13 31 27 27 13 19 28 17 14 9 44 35 27 7 20 26 10 16 20 21 12 20 20 9 6 20 16 13 14 28 21 20 13 24 29 16 23 3 21 17 14 10 27 7 17 29 16 7 12 23 3 24 20 24 20 24 34 20 26 17 10 13 10 20 17 7 13 21 23 30 21 9 20 24 14 27 13 23 23 21 17 14 17 20 28 31 22 7 24 23 6 27 35 17 17 17 37 23 21 7 14 24 13 23 30 6 7 19 9 20 14 27 14 23 20 3 24 6 13 23 10 14 9 17 34 17 3 10 17 17 22 16 27 13 3 24 19 17 17 16 16 10 41 24 16 3 33 17 10 13 13 19 22 24 20 21 23 24 21 35 24 10 20 14 21 24 10 9 13 21 21 20 13 14 16 28 23 23 19 20 20 9 23 10 24 27 17 20 0 17 14 23 14 31 14 13 14 14 12 10 31 22 3 20 30 17 21 14 10 31 17 21 10 22 7 17 27 3 3 20 6 6 17 30 20 14 27 12 30 27 22 10 9 20 9 17 21 17 32 14 28 10 15 23 15 28 22 16 28 19 17 14 31 24 17 10 3 28 21 10 14 26 27 9 33 28 20 27 12 21 8 20 27 24 33 14 10 16 28 17 13 12 33 19 27 24 28 34 19 20 14 21 23 28 13 10 10 24 13 13 23 6 12 18 16 19 17 20 14 17 15 24 13 14 20 36 24 3 10 24 28 21 14 24 23 24 16 3 6 21 31 15 19 34 27 23 6 6 31 21 14 20 26 14 35 20 29 29 24 6 19 24 17 10 11 10 15 14 9 14 10 20 17 16 20 21 20 17 21 31 17 30 15 16 45 20 34 35 10 20 3 14 38 7 16 20 34 26 13 27 24 17 17 21 6 17 17 16 23 37 15 13 23 35 7 28 20 5 24 6 20 19 12 24 35 31 6 17 24 34 10 29 10 13 17 17 24 15 18 17 24 21 26 24 9 13 31 9 23 17 17 17 3 16 6 24 20 13 26 13 14 16 10 16 16 31 20 0 10 3 31 13 15 29 24 12 20 10 14 10 13 16 21 20 27 31 19 20 20 34 31 17 17 13 24 10 10 17 21 20 21 17 30 13 24 10 13 21 30 27 26 23 13 13 10 17 20 7 24 27 15 20 23 17 3 20 16 20 9 31 20 11 21 24 20 13 17 13 24 16 18 10 17 12 16 13 14 20 41 10 20 9 20 13 23 17 26 31 9 26 24 25 27 28 23 24 21 10 17 19 14 21 21 24 23 10 15 25 20 24 21 20 18 20 14 11 23 34 34 14 13 24 26 13 14 18 23 14 0 23 14 17 9 24 13 6 24 13 29 34 6 19 38 28 10 26 3 16 10 19 22 15 24 12 20 10 27 20 34 20 13 20 21 26 10 30 15 24 20 20 3 21 20 21 16 35 35 13 20 22 11 42 17 20 24 18 3 3 3 3 24 6 20 23 32 24 7 20 31 24 24 19 23 3 17 23 24 23 35 21 24 20 21 14 13 31 20 9 9 24 34 17 20 9 38 6 21 20 10 10 35 17 6 6 13 17 23 27 15 16 19 27 26 17 0 12 25 10 38 14 25 20 28 6 34 23 20 23 16 10 6 23 20 31 13 24 10 10 20 28 23 13 24 21 17 18 27 17 26 17 7 16 22 21 26 33 20 44 19 20 24 10 13 17 10 30 23 21 20 16 20 15 9 21 21 24 26 41 10 36 25 14 17 20 20 27 13 30 16 14 24 30 10 28 17 9 31 7 20 13 20 28 23 40 13 10 23 16 21 19 10 17 9 16 11 19 26 14 12 24 10 13 13 17 38 32 16 24 13 20 7 20 17 27 13 21 17 6 45 27 20 16 17 19 13 24 27 26 28 10 17 10 14 31 12 37 3 10 14 7 15 23 13 14 20 15 20 26 13 9 24 13 30 23 6 27 21 17 30 30 33 20 13 16 20 17 13 34 20 14 20 21 35 24 13 21 10 21 21 20 20 34 26 10 19 21 20 21 16 17 27 9 23 6 23 21 26 24 17 18 10 23 23 20 20 16 27 16 26 22 37 25 14 17 17 26 24 27 22 13 38 13 20 14 16 24 20 13 30 14 13 23 19 18 16 21 17 16 13 20 29 10 21 13 8 14 20 20 13 3 24 16 38 21 21 13 6 24 7 19 10 14 13 3 17 19 16 21 24 28 19 27 24 11 17 3 16 27 24 30 16 17 9 33 21 14 6 14 21 13 20 36 14 20 21 21 23 21 20 15 13 7 29 17 24 17 12 14 17 4 21 30 16 31 16 17 13 21 21 14 31 24 23 29 14 26 28 17 16 9 34 15 26 17 13 10 19 13 13 10 14 13 17 18 10 20 20 35 16 9 30 22 28 34 21 14 23 17 18 17 27 34 15 19 7 13 24 26 24 0 16 17 8 14 6 34 24 23 17 21 22 10 37 16 10 33 31 16 19 15 16 13 20 10 20 27 17 15 9 12 17 28 27 17 28 10 21 28 9 23 17 12 20 13 13 14 22 24 45 10 21 21 44 16 14 9 30 17 20 10 17 7 23 41 27 13 17 26 7 17 17 31 17 34 14 11 17 17 13 14 6 31 24 27 24 21 23 30 21 23 7 37 17 27 7 18 31 23 14 20 6 20 24 20 24 21 17 34 21 17 28 7 13 14 16 23 13 17 16 21 24 20 20 16 20 7 13 21 24 21 22 27 20 31 30 17 23 12 18 28 17 17 17 6 16 28 30 31 14 13 10 30 11 15 17 12 10 3 20 13 21 20 16 20 30 17 17 13 34 10 17 20 19 24 13 9 16 16 10 26 20 10 23 29 38 20 25 7 7 13 28 35 14 20 24 38 9 13 13 21 24 28 17 20 28 21 17 21 47 16 24 13 25 27 7 21 14 23 31 20 30 10 27 27 38 14 13 10 40 14 24 24 14 20 3 30 25 22 20 14 20 28 15 17 13 17 25 20 28 15 27 23 9 35 10 3 21 17 6 14 16 20 14 17 17 34 17 24 17 20 21 9 24 24 27 22 6 23 17 26 40 15 21 20 17 19 37 30 24 10 3 15 10 20 24 20 7 27 16 20 17 27 26 28 6 17 22 30 23 17 7 10 10 20 21 12 17 3 17 13 26 20 10 23 24 13 24 25 24 13 17 16 9 26 54 6 21 5 20 20 16 26 27 22 3 12 21 10 13 28 27 35 13 31 37 11 6 23 13 20 31 31 10 27 14 3 14 21 35 27 17 27 27 16 23 21 28 6 24 27 21 6 15 17 17 17 10 30 20 19 20 10 6 27 21 20 17 3 31 34 12 6 17 35 20 24 15 24 14 16 23 29 23 35 23 21 24 22 17 10 27 29 14 16 23 17 20 15 20 17 20 23 20 20 10 24 20 44 22 20 17 22 20 7 16 20 24 30 17 13 23 15 6 23 27 3 26 31 22 19 10 20 17 10 13 14 13 10 27 21 41 14 23 15 10 17 10 34 23 15 13 10 20 10 27 13 21 30 9 22 17 17 17 23 26 41 17 23 24 30 28 21 20 17 19 10 3 24 17 10 9 10 9 35 12 20 27 7 31 17 19 17 23 10 19 24 7 13 13 23 20 20 12 19 13 18 12 24 15 10 23 18 22 35 6 20 19 17 24 23 20 24 33 17 17 3 20 21 13 38 26 13 10 24 34 13 21 19 24 37 16 24 17 31 16 16 14 13 10 6 21 22 31 24 26 11 13 17 42 7 10 19 18 14 25 24 13 13 7 13 23 17 13 30 20 6 13 27 28 20 28 20 3 10 18 21 28 27 17 20 7 27 21 17 21 17 23 26 27 21 31 27 24 18 13 17 28 28 20 31 21 24 17 20 10 16 3 27 3 27 16 24 17 35 13 14 9 37 10 29 30 31 20 24 17 10 19 13 14 15 19 37 12 10 13 10 24 24 28 3 10 10 16 13 20 3 10 27 40 20 15 31 16 23 20 14 29 23 10 23 13 31 17 31 21 16 13 20 24 31 23 20 9 23 10 29 27 17 21 9 27 26 7 24 30 23 18 12 13 21 20 20 24 31 20 20 21 24 3 43 12 20 31 3 3 17 27 14 20 14 30 17 30 28 20 17 10 17 16 6 30 34 8 28 12 24 14 29 34 17 16 17 29 13 6 7 28 8 13 24 14 17 13 10 16 10 12 44 16 28 23 27 34 24 15 9 15 14 17 17 12 7 22 14 17 11 41 26 22 26 16 17 23 14 8 35 20 30 13 34 20 13 34 16 20 35 20 17 34 17 14 23 20 20 18 15 24 29 7 30 23 20 23 42 13 20 37 10 18 31 21 14 14 21 29 26 23 20 21 10 20 6 10 21 23 26 24 17 20 17 33 13 13 17 11 14 24 30 17 16 31 10 14 16 22 10 16 13 19 27 16 13 23 14 21 14 7 28 7 23 27 17 24 24 27 13 21 21 38 16 23 37 17 13 10 30 9 13 26 16 27 16 6 13 21 23 24 14 24 24 17 31 7 24 23 17 3 16 26 15 38 21 22 14 29 14 20 10 13 18 16 23 17 27 19 23 28 6 27 21 20 27 24 24 20 13 26 11 16 16 29 14 10 21 13 17 34 12 0 27 24 34 14 3 20 17 20 27 10 34 16 26 9 9 20 17 16 33 26 17 10 27 12 20 10 17 24 16 27 25 10 38 10 20 24 14 13 21 27 21 17 23 28 13 38 20 27 24 16 17 13 27 30 17 24 21 6 22 12 31 10 14 27 12 20 13 26 18 31 14 8 28 30 22 13 9 13 24 28 29 16 14 31 20 23 23 35 24 6 19 22 9 14 27 24 10 38 17 21 29 24 26 17 17 22 6 23 22 24 7 27 34 3 16 37 29 25 14 24 24 30 17 20 15 22 23 6 17 10 17 14 28 13 26 24 25 31 12 16 13 13 13 19 24 10 10 31 20 7 13 37 23 20 17 13 16 20 10 20 14 21 14 31 16 28 17 16 28 17 21 29 23 17 29 10 3 38 7 7 20 13 31 10 17 24 23 38 21 17 38 24 24 31 0 20 20 13 20 26 42 21 16 14 16 21 16 17 24 13 25 23 16 14 14 26 20 32 31 6 17 17 13 13 24 10 31 13 23 31 17 3 14 29 13 24 19 26 27 29 11 24 6 13 14 13 10 17 18 10 38 10 20 33 21 29 9 17 16 27 21 13 21 17 15 10 20 17 16 13 27 20 10 15 24 14 24 20 16 20 20 22 10 25 31 19 6 16 15 24 16 20 16 17 16 14 28 16 28 20 10 13 24 13 13 28 13 7 6 24 9 13 17 19 34 31 28 19 21 16 20 11 21 17 23 10 23 17 27 16 24 28 9 21 23 27 27 24 27 20 14 20 24 17 10 26 27 20 37 10 24 24 13 20 16 21 24 23 7 23 16 31 24 30 13 7 19 3 20 13 25 6 24 17 20 13 26 10 10 21 14 20 17 30 20 26 17 16 7 24 10 14 10 10 30 20 21 22 17 24 27 30 20 27 31 28 23 13 17 19 31 24 6 35 24 19 10 13 7 13 29 21 13 14 21 9 24 18 14 23 14 26 7 14 16 10 11 11 22 23 22 13 24 21 20 34 31 24 17 21 17 31 13 3 22 18 27 28 17 21 7 20 21 17 0 19 31 17 20 21 6 10 14 9 7 14 10 15 33 33 31 17 14 13 21 12 24 13 10 21 21 24 22 24 21 26 33 23 14 30 33 23 10 20 34 10 31 38 20 21 23 9 35 21 12 17 23 10 27 17 24 17 27 17 14 14 16 27 10 24 32 20 31 7 21 17 17 16 22 24 23 24 36 21 38 17 27 20 17 28 10 26 27 24 13 21 9 19 14 23 20 26 20 14 16 0 28 19 14 35 14 20 24 20 10 23 17 34 18 22 21 17 27 14 16 17 14 17 6 26 17 26 23 21 14 23 24 24 28 27 13 14 28 14 37 34 10 41 30 9 10 21 10 17 14 17 20 21 21 13 14 19 20 16 28 19 24 17 21 42 21 24 12 10 34 20 21 13 14 14 14 41 13 27 6 10 30 17 9 28 18 26 24 21 6 10 27 24 21 27 20 28 20 6 7 14 34 20 28 26 14 27 26 27 31 9 16 17 17 24 37 10 31 20 27 13 19 17 17 13 13 14 24 7 14 18 17 17 21 3 20 21 14 31 10 17 22 27 17 23 7 18 24 30 6 15 13 9 22 10 7 11 19 7 23 17 17 6 17 45 20 24 12 7 14 24 19 17 24 17 9 19 6 13 20 27 21 13 21 14 23 16 17 13 7 17 16 31 17 23 35 30 25 24 10 13 9 16 12 24 27 31 24 14 27 23 21 7 37 24 15 20 29 34 19 17 10 10 7 7 16 3 14 28 34 23 22 14 20 21 0 18 11 17 14 20 23 14 17 17 20 17 11 21 13 23 19 7 17 9 20 13 37 28 27 23 17 24 10 31 10 22 15 20 20 21 6 27 17 27 9 23 20 40 13 27 26 31 24 15 10 26 20 10 21 10 7 19 13 38 12 17 26 13 23 23 14 21 16 10 20 15 19 9 19 14 20 30 19 6 10 10 23 13 16 24 16 37 23 21 26 20 20 23 11 14 20 17 13 10 28 10 15 20 13 14 20 21 27 24 17 24 22 24 23 18 14 17 24 18 10 31 17 31 38 29 27 12 23 3 19 22 38 17 10 17 12 21 18 24 26 20 19 16 13 24 14 17 10 20 28 15 21 20 41 20 13 16 19 20 21 27 16 7 17 34 48 10 9 20 10 24 19 19 28 10 7 20 23 0 20 27 21 27 31 21 18 26 14 16 34 14 22 17 24 19 21 17 17 7 0 24 9 19 14 3 10 20 40 24 16 24 24 31 22 16 20 20 23 27 17 10 31 3 9 22 17 17 23 17 31 27 3 7 14 19 15 16 23 20 26 9 7 16 20 28 13 27 31 21 13 10 34 14 20 16 25 24 17 17 0 33 16 10 10 19 27 13 7 20 27 20 7 20 34 27 24 14 31 10 3 34 20 30 7 20 20 16 17 10 17 20 21 33 24 13 20 27 24 14 21 16 14 15 34 24 10 26 23 30 30 10 21 12 17 20 18 28 17 28 22 20 20 11 17 24 6 10 27 21 0 22 37 20 20 19 30 20 31 24 34 27 24 10 16 30 48 21 16 8 13 14 16 27 28 8 17 22 35 23 24 13 38 19 7 22 13 27 17 20 14 14 10 31 31 17 23 17 6 16 20 26 20 14 10 13 20 23 13 20 20 27 20 7 9 20 6 13 17 16 17 3 21 23 35 10 13 13 17 21 19 10 17 21 20 30 37 14 24 17 28 28 30 24 15 24 14 7 19 34 20 20 15 13 26 24 23 14 16 31 31 24 24 24 24 37 17 35 17 20 15 13 19 14 17 10 13 14 27 27 7 31 16 10 17 10 13 17 21 17 20 16 12 30 10 6 24 24 14 13 41 17 20 24 10 31 21 15 24 29 14 14 24 27 10 10 23 41 13 20 3 13 23 17 10 14 7 6 10 27 17 17 6 23 16 10 22 10 6 20 10 9 24 27 27 10 3 17 31 37 19 30 16 15 16 28 19 15 3 20 33 10 9 30 31 17 14 3 14 27 24 19 24 24 26 14 14 20 6 13 43 38 13 10 31 11 20 11 13 24 29 17 51 31 18 6 14 19 20 27 27 48 16 24 13 18 13 17 10 15 17 26 14 10 35 14 27 14 13 14 10 9 27 23 20 14 14 17 23 14 3 7 13 16 27 10 14 20 14 33 19 31 49 17 13 24 17 32 24 13 16 11 27 16 22 35 13 10 9 31 21 21 16 28 10 20 30 14 20 7 20 13 14 30 10 27 19 27 28 24 15 7 21 9 24 21 30 14 13 20 17 20 10 34 14 27 10 17 18 13 11 16 13 14 26 20 16 10 17 13 27 23 24 23 14 10 35 24 24 19 6 20 16 27 16 22 16 23 31 20 19 28 20 14 0 20 14 31 19 10 23 0 20 6 19 17 11 3 23 10 27 15 21 38 13 10 12 21 13 17 22 17 24 17 3 24 15 22 13 27 16 30 13 20 17 26 20 26 10 28 21 22 41 29 7 17 27 17 16 24 20 3 10 27 17 12 13 24 32 16 19 35 20 14 27 20 24 9 24 10 24 3 16 20 13 15 23 24 30 24 20 6 9 14 17 25 24 24 20 31 9 16 10 10 6 13 24 17 37 26 13 20 13 14 20 22 7 26 24 26 14 16 17 21 27 9 17 31 10 14 10 21 7 17 13 14 34 21 42 10 14 27 29 21 13 6 13 20 22 25 28 23 14 23 25 3 21 19 27 21 14 24 24 17 10 14 10 19 3 13 23 17 10 31 16 23 21 14 7 13 10 20 10 22 21 17 21 20 21 40 22 10 10 17 20 12 10 9 13 13 18 16 29 23 13 26 38 26 23 42 9 27 28 10 31 24 20 26 6 17 28 27 23 13 21 6 10 31 13 14 14 12 24 30 17 9 28 17 23 15 31 20 13 24 38 26 17 20 9 20 17 27 31 20 17 16 17 20 40 24 24 17 10 24 27 17 20 31 27 16 17 19 17 20 24 22 7 23 13 21 17 22 17 18 18 27 27 17 14 24 16 24 26 14 16 22 20 27 30 10 48 9 28 22 16 24 26 24 30 16 15 27 41 14 17 24 17 19 27 21 10 10 6 6 13 13 21 27 16 26 14 23 10 7 13 27 17 24 27 17 13 23 17 34 38 24 10 10 24 17 33 21 28 20 17 24 10 6 23 52 16 20 17 16 14 16 16 24 10 28 20 12 10 9 21 16 10 25 23 17 13 21 7 24 34 29 14 10 14 24 14 20 13 19 38 10 19 10 33 31 28 34 6 28 24 17 23 21 20 23 14 35 14 19 24 24 19 10 31 14 31 10 17 14 10 24 6 6 20 17 16 7 21 10 28 6 28 10 12 30 34 38 16 33 17 20 11 13 12 24 17 12 16 13 9 10 20 23 23 14 13 24 30 31 17 23 17 28 21 24 10 38 21 24 13 30 21 22 12 27 17 19 7 6 16 17 48 17 26 17 10 9 27 9 15 21 10 30 13 17 19 27 27 24 24 10 13 35 24 17 22 23 22 31 23 14 20 17 17 14 14 13 17 20 9 17 17 29 17 38 10 18 31 16 24 7 30 15 21 10 34 13 10 9 27 13 9 16 17 19 7 16 30 16 21 30 10 13 13 21 26 17 17 16 27 19 31 17 13 20 14 23 10 23 24 17 14 13 10 34 10 10 21 21 27 20 31 17 8 30 13 16 35 14 6 34 24 34 9 22 24 35 23 14 20 20 15 16 20 24 14 21 16 24 14 9 20 20 7 16 27 12 15 17 13 17 17 20 6 14 7 14 24 21 33 13 24 16 17 27 27 27 24 6 21 13 15 24 30 15 23 20 7 13 28 9 20 17 17 19 27 17 23 20 27 22 10 35 24 13 27 17 8 3 14 13 7 30 13 31 22 10 10 17 12 19 13 13 20 20 34 9 12 7 10 21 28 14 13 10 19 13 6 10 27 24 27 34 6 24 16 23 21 20 20 19 27 34 17 14 10 24 23 10 13 9 28 6 14 19 34 10 16 17 27 21 21 10 7 27 16 20 24 17 25 13 12 20 21 24 28 13 24 23 31 14 6 13 21 17 13 14 17 27 6 28 24 14 23 17 20 14 3 13 30 14 20 31 20 23 21 23 26 6 21 7 10 25 17 10 20 27 7 18 19 13 6 17 24 10 17 24 18 20 10 14 14 3 9 17 10 13 22 17 17 28 18 13 17 27 20 19 13 10 22 24 7 12 16 27 30 18 27 16 3 22 20 18 30 17 23 23 11 10 31 3 16 10 19 17 7 13 21 24 27 19 13 23 7 35 17 15 24 14 31 21 21 26 23 14 13 23 20 16 14 16 13 23 14 14 17 21 28 15 20 20 10 31 42 9 30 21 24 10 30 21 23 20 13 10 24 30 24 17 6 17 29 17 27 45 35 27 17 13 30 28 21 8 12 17 6 23 10 28 13 17 15 24 10 24 12 10 6 34 16 16 27 16 24 13 18 20 38 26 13 31 7 17 24 23 7 13 24 40 34 20 19 14 7 3 17 19 38 27 19 28 14 10 24 23 17 35 28 31 23 27 31 24 14 21 10 13 20 20 31 18 20 21 19 15 9 13 14 21 17 20 13 8 15 26 24 13 9 21 29 7 19 13 16 16 10 27 17 9 23 27 27 3 24 27 23 24 3 17 17 28 14 15 27 21 20 20 15 16 23 24 16 13 24 14 19 13 3 13 13 17 22 24 35 30 23 9 20 17 0 27 7 20 44 16 9 26 20 8 10 24 13 7 34 9 37 26 15 27 16 25 24 21 34 34 17 17 9 19 33 10 20 10 31 14 3 21 13 10 24 34 17 10 10 31 0 9 14 10 34 10 24 30 17 17 9 20 15 14 19 17 31 3 17 20 30 20 16 18 21 28 6 19 17 18 27 17 28 17 23 24 20 17 27 14 17 14 21 19 13 24 23 21 10 16 31 7 19 19 19 17 17 15 21 3 16 34 13 27 12 20 30 24 27 24 23 3 7 15 28 27 17 24 14 28 30 6 19 13 13 26 24 13 29 17 21 20 7 10 16 16 21 28 10 13 13 31 12 7 17 30 16 14 13 20 13 18 20 25 21 14 27 22 10 14 13 23 12 14 17 23 13 21 33 17 23 17 21 13 17 3 31 17 27 24 0 17 16 24 12 10 9 10 10 21 31 13 21 20 24 20 14 14 6 16 27 20 22 17 21 27 13 23 7 13 30 3 16 23 27 23 21 18 27 17 12 26 9 17 17 9 29 23 14 35 21 23 28 17 24 13 28 13 20 20 13 17 18 21 7 20 17 17 24 10 20 20 23 26 7 27 16 24 13 20 31 27 27 24 24 6 16 16 24 15 31 7 17 14 22 9 20 6 16 20 17 15 13 9 31 27 23 18 28 11 17 26 3 19 14 13 7 24 16 13 38 17 20 16 31 17 12 15 17 20 15 14 10 20 17 15 33 7 30 20 10 18 32 24 13 13 27 17 24 23 23 29 28 19 17 40 24 14 24 10 27 24 17 20 18 27 10 7 20 30 27 20 3 17 21 14 6 26 17 6 3 24 35 31 17 9 27 13 17 16 27 27 20 26 17 6 22 19 31 7 37 30 7 20 17 16 10 35 33 28 28 10 21 6 28 23 24 31 7 9 30 20 17 0 19 25 27 31 13 16 45 20 20 14 31 20 6 38 7 20 17 31 24 26 18 17 3 27 17 20 20 17 0 14 9 24 34 21 21 17 33 20 19 13 31 21 23 31 31 23 28 20 17 13 7 14 23 6 30 16 9 23 30 28 16 15 18 21 27 23 20 38 16 31 27 13 24 7 27 19 35 19 17 20 17 30 27 17 16 17 21 17 23 17 10 13 24 23 9 24 27 21 38 16 18 41 14 38 28 13 27 30 17 21 14 19 17 3 27 26 20 20 23 13 14 27 19 18 17 24 20 20 21 20 21 16 23 17 15 23 23 19 34 6 28 20 17 28 14 19 30 30 17 16 23 24 24 13 13 17 10 10 17 33 13 19 26 11 19 17 21 14 29 29 14 19 37 21 41 14 24 23 17 30 24 14 14 3 16 30 19 10 10 13 20 17 10 13 20 31 29 33 27 24 10 20 27 10 16 7 14 16 38 51 14 24 13 10 27 28 28 31 14 6 23 10 17 17 17 17 24 28 3 28 17 31 20 17 13 19 23 21 16 14 23 14 10 35 10 20 17 17 13 27 24 10 26 17 14 27 28 10 21 6 19 10 21 16 20 28 10 21 14 30 10 13 23 12 3 10 27 17 26 7 31 6 6 24 19 23 24 28 25 9 8 6 31 27 28 28 14 23 14 12 23 21 16 10 19 34 27 30 20 21 20 19 38 11 28 23 24 24 30 24 14 6 20 14 21 10 20 17 13 20 24 26 3 13 13 20 23 23 30 20 17 21 9 31 17 10 30 17 30 14 17 14 8 27 3 9 18 0 17 10 20 34 10 24 20 24 18 23 27 27 20 10 13 17 20 16 10 24 27 31 35 20 24 17 24 10 23 17 27 30 19 23 34 27 21 21 13 22 13 24 7 17 17 14 15 6 21 17 41 24 14 21 35 14 20 21 20 13 36 0 16 21 17 13 7 14 20 21 23 7 20 20 20 10 26 24 27 11 17 9 7 20 18 14 17 31 9 10 31 14 13 38 17 27 16 21 14 21 17 22 22 13 13 7 13 21 6 10 10 21 14 22 30 17 13 21 10 10 9 10 15 17 37 17 23 10 20 12 14 23 10 14 15 16 3 30 30 14 31 6 24 36 12 30 31 17 13 10 3 14 21 16 41 17 14 16 27 17 20 18 23 6 21 3 26 13 9 10 14 17 29 21 34 10 16 13 14 23 10 14 24 26 20 16 35 31 19 24 17 24 21 12 20 17 23 21 27 19 20 3 17 24 20 16 16 28 17 10 20 24 17 17 21 35 20 10 15 21 20 10 23 9 41 29 17 17 21 16 14 31 24 24 18 16 9 10 23 31 16 12 23 21 19 20 13 17 13 3 24 24 24 13 3 19 28 16 23 7 12 29 13 17 27 7 9 42 20 11 24 16 10 3 31 29 7 24 18 31 26 17 6 16 13 20 10 24 17 14 13 7 14 23 17 10 51 3 27 10 13 41 21 41 34 23 18 21 14 17 16 20 34 34 30 16</t>
+  </si>
+  <si>
+    <t>JSB(2.307429455567536, 5.005277069527994, -13.322028914362221, 94.09095462030604)</t>
+  </si>
+  <si>
+    <t>30 21 27 23 27 22 22 17 16 22 24 20 20 24 17 22 29 24 27 23 35 17 28 29 26 15 22 24 25 24 20 23 25 22 21 23 26 21 13 23 27 33 25 20 15 21 26 22 23 24 28 22 17 26 23 31 23 19 24 20 24 16 26 25 19 12 17 16 16 24 31 20 24 18 17 26 28 18 23 17 23 21 16 22 22 23 21 23 18 23 28 23 14 18 22 18 21 24 24 26 26 18 25 28 24 17 24 17 37 27 23 17 24 26 20 20 25 14 23 27 22 23 27 20 21 25 16 22 23 23 22 21 23 20 22 33 18 16 28 24 17 21 17 19 24 20 20 26 14 25 25 23 28 18 25 20 20 26 15 25 18 21 21 24 28 32 16 22 26 23 25 24 35 20 17 19 18 20 27 25 20 36 11 33 19 24 20 21 24 22 19 22 30 24 25 22 24 25 20 20 25 21 18 26 22 27 22 20 25 21 25 27 28 22 25 19 32 21 27 21 32 27 18 22 29 30 21 17 22 21 25 24 20 27 24 24 16 29 24 27 20 23 17 20 18 17 27 31 20 23 25 19 19 24 18 25 23 25 26 25 29 22 13 24 20 25 16 24 31 21 22 14 21 32 21 29 24 13 27 24 19 25 24 22 25 26 24 16 16 23 16 27 24 23 18 15 19 25 25 29 23 22 13 18 23 28 11 21 27 29 26 15 15 28 28 30 23 28 24 29 19 23 35 27 29 16 20 18 19 20 20 22 24 30 24 30 11 23 25 26 20 19 25 17 20 30 18 17 21 16 21 29 28 18 28 26 25 25 20 21 22 28 22 22 33 22 23 29 28 15 27 25 16 27 27 20 24 23 22 24 26 21 25 23 18 19 30 20 25 22 20 20 21 18 23 26 22 30 17 14 32 21 17 23 29 29 23 22 18 22 34 25 27 24 27 22 25 24 17 25 16 31 30 22 20 18 26 27 27 20 24 14 25 18 24 21 22 21 17 27 23 20 26 31 25 27 32 32 24 25 32 24 21 23 26 20 27 11 28 33 21 23 28 22 26 23 24 25 23 32 16 17 26 25 23 24 18 24 20 18 17 21 14 34 24 27 31 21 18 25 23 27 22 20 25 14 30 23 20 30 22 23 29 24 21 26 15 20 20 25 25 21 19 24 24 28 20 20 26 20 27 29 18 16 27 25 18 20 21 19 23 34 30 20 25 25 22 24 30 26 27 16 23 23 15 26 25 27 24 26 17 27 21 17 23 27 18 22 24 24 30 19 22 31 25 20 25 17 22 26 17 21 23 16 17 33 17 22 22 21 12 24 28 24 19 35 18 27 25 22 23 20 14 13 29 26 17 13 26 31 23 27 25 28 24 28 21 28 26 22 30 23 24 19 24 20 19 24 27 19 19 27 21 28 26 25 26 23 20 20 30 20 22 21 20 21 25 16 23 22 21 19 21 29 24 31 30 18 17 22 21 25 23 17 30 22 24 21 18 19 27 28 19 28 25 27 23 26 17 22 22 18 20 25 25 20 20 19 19 23 25 23 30 24 18 21 24 18 24 24 21 34 23 20 19 19 25 33 19 31 21 19 30 20 22 19 21 25 21 19 28 28 27 28 28 21 21 24 27 16 21 25 20 22 22 21 23 30 27 29 22 17 22 25 17 27 25 23 12 21 22 29 22 12 28 31 21 17 19 24 22 27 26 22 20 24 24 24 22 28 28 27 26 25 25 17 18 22 24 17 23 25 18 26 20 32 14 29 27 28 21 24 25 30 19 17 22 30 19 21 24 15 23 23 17 20 19 29 23 20 23 17 19 23 26 24 20 21 21 19 20 19 26 31 25 23 18 22 16 18 23 17 19 22 20 21 18 26 16 35 19 26 27 22 18 25 24 28 36 16 20 35 19 25 21 24 20 30 27 19 33 33 21 27 20 18 17 17 21 21 27 18 24 17 27 23 26 27 22 24 19 29 25 33 19 16 23 26 29 26 19 29 25 19 20 25 27 27 21 25 22 16 28 16 33 22 16 22 18 22 23 23 24 32 31 24 29 26 16 21 20 34 16 27 30 33 18 21 21 24 20 26 17 25 26 27 18 27 16 19 24 20 24 27 27 14 18 29 18 17 25 26 19 19 27 17 31 31 27 18 23 30 21 16 27 22 25 27 29 23 26 18 30 28 22 23 18 26 28 27 19 20 27 16 24 26 26 30 23 19 24 25 23 18 27 17 22 27 19 27 26 24 19 19 28 20 28 19 22 24 31 20 15 23 23 23 18 25 31 31 24 25 28 36 29 19 25 31 30 29 22 22 24 27 24 17 19 25 17 26 17 25 25 23 27 19 24 26 24 22 23 20 20 21 31 20 30 24 19 22 25 28 20 14 19 23 19 23 34 20 17 25 21 15 19 31 18 23 24 19 15 19 22 19 27 23 22 11 17 25 24 17 28 21 29 23 21 26 18 17 26 28 19 26 24 23 16 23 33 18 22 23 25 22 16 23 16 17 23 22 21 25 20 34 29 25 21 25 16 24 27 23 21 16 22 29 21 23 19 25 18 18 28 19 25 20 23 16 20 23 24 26 17 36 26 21 19 27 20 20 22 24 30 21 22 22 23 27 25 22 24 21 37 31 30 16 26 16 26 21 28 23 14 27 33 21 28 32 23 27 31 28 27 16 29 18 20 21 20 17 20 19 29 20 25 24 28 23 18 27 23 30 20 15 26 29 24 26 18 15 26 22 24 29 25 15 28 24 18 22 27 31 22 16 29 27 26 22 18 23 23 30 16 19 24 17 15 20 28 20 25 24 21 21 30 20 29 25 17 31 29 18 25 24 20 18 20 15 19 28 20 23 20 18 30 23 28 17 13 20 24 17 17 22 27 24 18 24 17 21 21 23 27 27 14 18 21 32 25 26 19 25 19 18 24 19 24 27 20 24 34 24 28 15 24 20 23 25 22 25 24 26 24 24 16 24 28 20 33 26 31 11 24 19 28 24 24 23 22 31 25 27 25 29 31 28 22 19 30 16 30 29 26 30 28 26 12 22 19 20 27 20 20 11 24 26 15 24 25 26 17 30 22 19 23 23 24 31 34 21 29 32 17 19 27 16 24 13 28 27 23 25 26 32 25 18 26 25 20 23 26 32 24 26 20 20 28 22 19 20 34 16 17 25 29 28 20 25 15 33 17 21 32 25 18 19 29 25 26 23 20 19 20 23 23 21 18 18 23 32 26 25 21 16 26 24 26 23 21 21 24 31 22 13 30 21 23 22 23 21 19 23 23 23 24 33 22 28 25 23 20 25 27 23 13 25 18 26 20 20 21 26 28 29 25 18 19 23 24 18 19 23 25 24 22 23 22 20 32 29 22 28 23 28 32 27 26 17 30 23 23 29 21 24 26 25 24 24 20 27 23 26 31 26 23 23 28 27 24 25 14 17 25 26 20 21 26 19 21 20 19 20 30 18 15 19 21 29 26 34 23 23 30 19 22 22 21 17 30 20 23 29 16 19 24 23 26 23 24 23 30 26 32 29 20 25 25 23 26 20 22 25 28 23 19 29 26 23 22 26 28 24 22 30 18 24 18 17 25 20 25 27 30 18 23 24 19 23 23 15 29 24 26 29 27 21 18 15 29 23 23 21 17 26 26 30 19 22 20 25 30 22 22 16 27 25 16 30 22 27 26 24 27 28 25 22 30 24 19 16 22 21 26 28 26 21 27 21 20 16 17 22 28 27 24 25 22 25 26 23 24 25 24 28 30 26 19 29 20 29 22 22 22 27 23 26 23 19 18 27 21 20 17 16 22 17 27 22 21 25 21 24 38 30 25 20 19 22 23 23 17 32 15 25 26 30 19 25 19 24 20 25 25 17 24 25 29 21 21 22 29 18 27 16 14 28 20 22 23 20 22 25 24 31 29 28 26 18 18 25 25 25 28 18 25 29 17 18 25 20 24 17 34 22 14 18 28 24 23 27 19 27 24 25 17 30 30 19 24 15 18 30 18 23 20 29 19 22 16 24 27 27 28 17 26 12 19 23 17 28 24 26 22 20 28 25 19 21 16 27 19 22 26 37 20 19 17 20 26 22 26 19 29 29 20 26 22 23 30 22 22 25 34 21 26 25 23 14 29 27 23 31 27 27 16 28 19 23 22 24 20 18 31 20 27 24 18 24 17 20 26 33 34 28 20 30 17 21 25 18 25 23 26 29 25 29 25 22 13 21 24 21 21 24 24 26 24 22 30 23 21 27 26 34 21 21 22 26 17 23 26 18 15 32 19 19 23 17 33 19 19 21 22 23 22 23 19 29 26 18 31 23 23 14 32 28 21 25 26 24 23 24 25 22 30 24 22 28 27 25 28 16 22 33 30 22 20 16 20 21 18 22 23 21 24 22 22 29 19 28 23 25 26 28 18 22 29 25 18 17 23 23 21 21 21 19 27 19 16 33 23 23 25 20 26 17 22 18 21 19 22 26 29 23 26 22 17 30 20 23 23 22 27 18 19 15 26 21 24 22 27 22 23 27 17 28 21 20 14 26 26 16 21 20 21 22 32 28 17 25 24 23 26 27 23 24 14 18 22 22 27 23 14 18 21 21 21 25 31 23 24 25 22 17 15 21 19 24 15 19 17 23 28 17 28 20 27 21 19 26 23 20 25 26 22 25 32 20 23 22 23 25 36 27 25 34 12 24 26 17 27 31 17 22 26 22 18 28 31 21 19 21 28 25 24 15 19 21 28 24 18 16 24 27 21 29 22 23 22 22 30 19 15 21 27 28 27 29 25 25 29 27 28 24 26 23 15 29 18 25 32 19 23 22 20 27 24 20 14 23 24 18 25 28 27 29 23 22 21 17 24 19 27 14 18 17 18 20 29 17 26 19 17 30 19 16 20 25 23 22 27 23 24 17 27 26 26 28 18 25 22 25 21 32 26 29 21 24 21 23 20 14 26 25 32 17 20 25 33 23 36 25 17 24 20 24 20 30 26 19 31 23 31 18 25 17 22 28 33 16 27 25 25 24 26 28 26 30 24 27 20 15 22 22 23 23 19 23 20 27 22 21 31 24 23 20 20 28 26 25 29 26 23 19 28 23 26 21 20 21 20 24 27 18 19 19 23 26 27 19 29 29 24 25 25 21 27 31 29 21 23 15 18 21 25 21 13 18 30 22 19 28 22 27 23 25 25 27 26 20 25 27 27 17 17 19 23 24 29 21 21 20 25 20 20 27 22 22 28 25 19 28 27 24 20 26 23 20 23 19 29 20 24 28 20 22 27 11 22 19 24 26 21 17 27 22 22 21 18 18 31 28 20 25 19 27 30 34 28 23 17 35 24 26 29 15 26 30 23 23 26 14 27 23 20 22 22 19 28 25 22 30 26 22 13 21 15 28 19 18 19 34 24 14 32 23 15 20 33 30 22 22 28 25 19 18 27 26 22 19 21 19 26 17 22 19 24 17 17 23 19 23 25 24 24 12 28 22 24 22 23 17 24 25 25 20 21 19 20 18 29 25 24 27 26 28 21 28 27 33 32 25 24 23 29 27 21 17 21 35 22 24 25 25 23 19 23 14 28 28 24 18 24 26 17 14 20 25 28 19 18 14 25 22 17 27 29 26 28 28 23 31 26 21 21 18 31 21 19 16 24 19 22 17 18 23 22 26 31 25 27 23 21 26 17 20 19 25 21 18 24 22 21 21 26 23 19 28 29 24 22 24 18 29 19 17 19 31 26 24 20 25 23 35 18 19 26 23 16 15 23 18 19 19 21 18 20 31 24 25 24 22 28 17 27 17 21 23 22 18 28 22 25 21 23 29 19 22 23 24 28 24 26 18 25 33 15 21 22 27 25 21 34 22 19 20 17 27 25 22 23 26 21 24 16 26 21 19 26 27 18 16 23 26 18 23 22 22 25 26 26 22 26 21 16 35 21 23 19 23 23 20 17 29 22 25 21 25 28 21 17 20 25 27 31 29 24 24 26 24 25 24 33 21 12 30 17 25 19 22 24 21 21 27 28 30 26 22 25 29 31 26 24 27 17 22 19 25 19 23 25 24 29 32 21 15 30 27 26 23 27 21 27 20 23 24 19 19 21 23 21 17 25 22 23 25 16 23 24 23 22 31 25 19 23 28 19 22 20 24 27 27 22 17 19 16 29 23 28 20 17 23 27 16 14 12 26 20 28 20 24 17 16 26 19 27 25 18 24 17 20 22 31 28 20 30 31 30 23 19 26 34 28 23 29 26 23 26 18 20 28 27 24 24 19 16 24 25 23 16 25 14 24 20 24 25 19 23 24 27 16 30 32 27 26 19 19 22 26 23 29 23 29 21 19 32 24 25 25 27 20 25 19 17 20 26 24 20 23 22 15 23 13 22 21 17 29 27 23 27 22 24 30 18 24 34 17 20 19 14 19 19 27 19 20 22 30 23 23 22 18 30 22 24 25 27 26 21 22 22 40 23 26 29 19 22 20 26 20 17 26 27 23 29 24 17 19 16 32 20 29 30 25 27 27 22 22 22 20 16 32 17 19 20 20 19 23 28 26 21 27 27 15 26 20 22 21 18 23 20 26 29 22 24 20 21 28 23 18 18 25 19 22 27 24 15 22 18 25 24 20 23 19 26 23 24 25 19 20 23 20 16 19 23 30 24 17 22 22 29 25 21 25 27 19 28 29 19 18 23 24 25 19 30 22 24 27 24 22 23 32 25 15 20 23 26 20 25 28 26 24 22 21 18 25 26 27 19 18 27 15 26 20 35 18 21 17 25 24 22 22 24 18 18 27 20 25 31 21 26 18 29 25 14 14 23 24 16 25 17 34 24 24 26 18 27 20 17 25 22 26 26 26 18 23 21 32 23 23 16 21 26 20 19 26 29 25 21 22 26 19 19 23 23 28 26 20 24 23 22 23 24 29 27 23 27 22 30 23 23 20 19 25 19 32 22 15 29 24 27 16 21 38 25 25 20 27 15 22 25 25 23 22 28 21 27 23 23 24 27 19 22 23 23 22 26 21 21 29 32 20 25 19 18 20 25 17 23 24 22 18 24 32 26 20 26 28 27 22 25 20 19 27 21 25 32 30 18 24 26 22 18 21 24 24 30 23 34 29 33 26 15 22 28 20 30 25 27 29 22 25 17 28 25 21 13 35 22 23 24 22 25 22 24 23 24 29 23 22 14 22 25 28 21 16 20 29 19 24 24 25 26 25 19 25 21 25 22 31 14 17 25 25 22 19 15 32 19 19 23 16 20 21 23 23 22 26 26 21 30 26 21 15 24 20 32 20 25 18 22 22 20 30 27 27 25 30 28 25 20 20 24 31 15 14 22 22 24 18 26 25 23 22 20 26 30 20 24 34 33 20 25 28 18 18 17 24 26 24 22 24 25 22 22 24 18 24 27 19 30 28 23 28 23 24 25 27 23 26 26 19 18 23 18 19 18 27 25 22 29 26 23 19 24 23 28 19 22 21 13 25 39 21 16 19 26 23 19 23 19 23 11 32 26 30 29 26 30 21 27 22 18 25 21 20 23 23 24 21 27 26 23 23 24 23 28 18 36 23 23 28 22 22 26 23 23 24 23 28 26 29 29 26 20 25 21 24 28 25 23 26 22 25 18 26 17 25 24 22 24 24 17 27 21 24 19 24 26 27 17 31 34 23 17 23 27 21 20 20 24 25 31 21 22 23 26 26 18 21 29 23 21 23 19 20 24 20 32 21 36 27 23 35 27 18 20 23 27 20 24 39 26 27 21 22 19 25 25 21 25 30 24 18 20 23 26 20 15 24 21 25 22 28 25 20 29 14 18 31 17 25 24 22 19 21 26 21 27 35 19 21 28 17 22 26 26 22 15 29 25 31 26 25 9 28 19 23 27 25 28 23 29 34 26 24 19 28 22 22 31 24 31 21 25 21 25 25 22 23 29 20 31 26 26 24 23 28 20 19 22 19 9 28 26 26 23 21 27 14 34 26 24 25 24 24 21 31 20 28 27 23 28 19 22 26 27 28 23 23 25 23 23 16 24 18 21 18 24 26 25 26 23 28 17 22 26 26 26 17 22 29 26 26 24 24 25 22 28 28 21 16 27 29 19 25 26 29 28 25 26 21 23 27 28 23 21 19 32 20 13 27 27 22 28 25 26 26 28 21 31 21 23 31 25 17 27 23 24 20 21 24 19 20 21 20 26 23 18 28 13 31 16 21 26 19 30 19 22 20 28 23 21 23 21 20 26 23 20 29 25 27 19 15 25 21 26 24 24 20 21 27 21 27 30 26 22 18 16 20 19 21 20 27 31 18 26 24 21 21 28 28 22 23 22 23 25 17 23 28 27 25 20 27 24 20 21 25 23 21 23 26 25 23 20 28 23 23 21 18 24 21 24 23 27 29 22 16 29 16 20 20 18 23 25 20 27 17 26 28 23 20 25 23 25 21 25 24 33 22 17 25 25 23 23 19 21 25 27 17 23 23 20 21 17 24 25 23 24 25 20 19 18 16 25 21 22 23 19 21 25 24 18 17 29 24 17 21 22 22 24 17 27 24 30 27 15 22 25 21 34 22 25 23 24 28 20 27 23 20 26 26 26 21 23 25 24 29 24 17 27 23 24 23 19 23 25 22 23 30 29 20 24 30 22 24 21 26 20 21 23 17 17 23 23 24 23 24 33 20 20 20 27 20 14 24 25 22 22 18 22 21 29 21 17 28 26 23 26 21 28 23 19 24 24 23 27 18 20 18 13 24 25 20 19 33 27 21 28 17 26 19 22 14 25 24 24 23 23 28 25 31 16 25 20 26 22 21 27 23 31 26 34 18 21 25 20 25 27 30 16 22 25 29 29 24 24 22 19 21 25 27 11 15 23 24 27 23 20 23 24 25 19 28 22 19 25 21 24 19 15 27 27 27 18 19 23 27 20 25 29 13 30 26 20 29 25 17 21 27 23 30 23 18 27 20 21 22 24 17 20 27 23 27 23 20 17 20 24 30 15 27 27 21 22 24 21 23 27 21 27 22 29 23 25 27 21 26 28 21 20 28 31 22 17 25 20 18 23 21 14 19 30 25 35 22 19 22 21 18 18 24 27 20 18 26 21 22 23 25 23 18 16 27 32 28 22 20 17 19 17 20 27 27 20 24 16 30 18 22 25 23 26 21 23 17 20 27 17 24 23 17 28 25 17 25 22 17 29 23 22 25 26 27 24 21 23 17 20 30 25 28 22 26 21 30 33 18 25 26 27 23 23 30 23 23 23 27 22 18 22 14 17 15 20 25 21 28 26 24 26 21 13 22 27 24 21 24 11 23 18 22 24 25 23 23 21 27 22 24 27 24 24 23 25 36 21 26 24 25 15 26 24 20 17 30 25 21 21 19 20 23 22 21 17 21 17 23 29 25 24 23 23 23 25 24 24 28 22 19 19 26 31 27 19 21 18 22 20 24 30 23 24 18 23 25 25 20 21 28 26 31 22 19 17 26 22 33 19 27 24 23 23 24 21 23 23 19 27 22 19 24 24 19 27 22 24 32 24 19 30 27 30 27 19 24 22 18 18 28 23 24 25 12 24 25 24 18 20 22 31 25 22 33 21 23 21 19 23 14 27 22 23 21 23 23 21 21 28 24 28 20 22 21 23 23 25 19 20 27 32 24 22 22 23 25 15 23 25 28 21 26 32 18 24 24 30 18 19 22 19 16 20 30 27 22 24 24 25 21 18 22 13 22 31 31 26 21 19 26 15 17 22 22 24 23 19 19 18 20 25 23 22 30 20 27 21 16 23 29 14 21 22 21 22 27 22 27 30 19 25 14 19 24 17 25 20 17 22 25 29 26 23 25 14 19 19 24 19 18 20 18 30 24 21 16 24 22 25 23 23 19 27 17 26 19 24 25 18 25 35 26 24 17 18 24 27 20 17 20 28 19 20 14 19 24 24 24 28 18 25 23 26 21 17 34 18 18 22 23 17 22 27 24 11 20 17 21 15 22 23 14 26 25 24 22 33 26 18 30 20 23 30 18 20 25 23 18 20 16 33 20 18 19 24 25 22 27 22 22 29 20 19 32 21 17 23 32 21 22 20 21 26 20 16 17 21 29 26 21 30 22 26 23 26 19 17 25 27 23 26 19 23 24 26 23 19 25 14 16 24 18 25 22 19 22 23 29 21 25 19 17 14 23 21 26 25 17 18 16 21 20 21 22 24 23 24 24 27 22 29 18 29 25 20 20 19 27 19 26 23 20 28 27 23 22 17 23 30 26 14 19 22 23 21 22 30 26 25 18 23 27 27 25 21 29 27 23 31 26 13 24 19 24 17 24 30 25 17 26 21 23 21 22 23 32 29 25 22 30 25 35 30 29 17 24 26 30 20 15 14 25 22 22 21 21 26 32 21 20 27 19 20 23 21 28 15 19 22 24 23 15 25 28 24 26 18 23 22 24 17 17 25 20 23 26 27 26 31 25 21 17 31 22 23 18 21 17 23 21 30 23 20 24 23 24 19 20 23 18 17 23 22 24 27 15 22 20 23 24 27 26 18 18 19 26 16 15 29 19 29 25 25 24 14 26 26 17 26 24 37 26 23 32 24 21 21 24 25 24 18 22 25 30 19 23 17 23 16 28 14 18 26 22 22 16 15 27 22 30 20 26 24 28 22 25 23 21 20 20 24 22 23 21 21 21 21 24 13 28 24 15 27 19 16 22 18 26 18 22 22 25 23 28 20 32 15 22 30 33 21 17 28 20 24 21 25 23 25 22 28 19 25 17 13 24 32 24 23 27 19 27 22 25 30 21 28 26 24 18 29 21 21 22 29 31 29 25 20 17 22 22 30 23 22 23 30 23 27 20 23 19 25 22 19 18 26 21 12 20 25 29 22 26 32 31 18 27 26 21 18 24 27 27 26 18 25 19 19 27 23 22 27 16 19 23 18 24 23 25 24 23 21 23 22 27 23 25 28 25 22 24 26 26 16 25 27 17 22 19 26 20 28 23 17 25 16 14 22 24 17 29 29 23 31 23 24 21 23 27 18 29 21 21 23 23 22 20 23 14 27 22 24 32 20 26 29 27 29 26 20 19 18 26 24 20 26 27 22 17 23 18 27 23 18 21 19 27 21 27 34 18 26 28 24 23 25 31 21 27 30 20 20 18 24 26 22 20 24 19 24 20 18 18 33 29 19 23 32 26 16 23 34 23 26 22 16 20 21 26 26 22 25 27 30 29 27 16 23 24 28 21 26 26 23 19 24 22 31 17 18 24 21 20 27 19 23 19 21 23 20 25 20 18 29 24 25 22 29 21 22 20 27 24 26 27 24 19 33 29 15 19 20 24 30 24 18 30 22 26 22 23 19 31 25 19 27 17 14 26 27 24 26 23 24 20 20 24 18 23 19 26 30 25 22 21 29 21 26 25 24 23 27 24 22 18 20 23 17 24 26 23 28 33 22 32 23 24 18 21 22 29 33 20 24 26 25 27 20 22 30 13 20 33 27 30 19 29 18 25 24 16 11 24 24 15 20 23 22 25 29 27 22 23 18 21 18 24 32 32 16 22 21 23 21 24 25 27 18 21 24 20 36 29 19 17 22 33 19 26 27 28 29 21 24 14 22 29 25 31 21 22 22 29 17 30 24 17 22 22 25 28 20 23 26 25 22 26 21 25 18 23 22 27 28 26 21 28 18 27 21 25 27 24 21 25 30 26 23 25 25 30 26 22 20 32 28 21 25 29 21 26 23 18 24 18 27 21 22 28 19 19 22 25 20 25 19 25 22 19 28 24 26 27 35 21 24 28 22 26 25 27 23 18 20 15 23 24 22 38 24 22 29 31 28 14 20 18 30 30 31 18 19 23 18 16 16 18 22 24 24 27 21 26 28 18 24 22 23 21 19 26 25 24 12 20 23 19 20 22 28 26 27 25 16 24 21 29 21 23 27 25 30 29 21 25 24 29 31 19 21 18 25 18 23 31 24 23 22 21 21 30 26 25 22 18 34 22 25 24 23 16 23 10 21 18 17 31 20 20 26 20 25 22 27 30 23 31 22 20 22 24 21 25 25 30 26 23 23 14 31 19 18 19 22 18 24 25 12 20 21 30 13 20 28 24 35 31 24 23 24 17 21 15 21 31 28 25 17 18 25 21 24 18 16 30 29 21 22 26 23 23 22 23 29 16 24 30 24 25 22 24 23 29 21 19 25 23 26 30 21 29 25 22 24 24 21 20 24 16 20 31 27 25 26 29 19 20 23 22 21 22 27 23 24 24 26 21 18 16 22 18 18 18 25 24 28 27 25 20 22 23 21 17 29 24 23 27 26 18 26 20 14 20 21 27 27 22 31 16 24 25 24 26 18 26 17 28 22 25 24 30 17 19 19 22 26 27 20 21 18 30 16 23 27 28 22 21 21 21 27 19 23 29 22 23 19 17 17 28 31 19 20 25 32 26 25 27 14 19 21 23 26 21 25 21 19 16 24 19 26 28 24 16 23 25 21 17 20 22 26 21 18 30 22 24 31 25 29 24 24 22 27 21 24 23 19 21 26 28 25 18 22 22 28 24 18 22 29 23 22 15 20 22 28 21 17 25 27 25 20 15 26 23 23 21 19 27 26 21 21 26 30 34 18 24 27 25 24 27 17 22 25 29 27 27 30 24 32 28 14 23 22 28 20 28 17 28 14 23 20 22 27 24 19 24 25 26 20 17 23 31 22 16 22 21 26 30 23 20 26 26 25 26 21 21 24 15 24 27 20 31 25 22 24 22 27 18 26 29 25 24 21 22 33 21 16 28 18 19 27 27 20 23 36 28 23 25 27 24 21 28 25 30 29 28 30 26 17 25 24 28 17 18 26 17 26 24 20 24 19 19 25 20 21 28 20 15 31 21 22 26 23 21 29 21 18 19 36 17 31 20 23 17 20 23 26 22 25 25 24 19 14 22 31 25 24 21 26 18 22 25 19 24 19 34 20 21 18 27 20 25 24 21 30 22 24 25 23 21 27 21 21 28 25 18 22 19 16 26 22 25 30 28 28 19 18 28 23 22 17 26 27 24 23 21 23 28 15 28 29 30 20 22 17 23 24 30 32 25 26 30 28 16 28 25 23 16 25 20 27 19 22 20 18 31 17 21 22 20 20 23 22 24 24 27 30 18 19 23 23 26 27 19 26 24 21 28 31 19 23 26 26 19 23 26 30 17 26 12 18 27 30 17 31 15 19 25 23 20 23 24 22 19 23 20 18 21 28 20 29 20 20 25 24 24 23 24 27 24 27 27 27 22 19 29 26 18 25 17 19 18 25 21 25 24 19 23 15 28 31 23 18 17 26 22 34 18 26 20 19 24 20 34 19 28 19 24 30 23 21 20 30 22 23 23 27 28 19 27 17 21 21 22 22 21 26 21 21 14 21 18 12 22 25 21 20 25 24 21 27 18 23 31 26 25 27 29 23 18 19 23 33 15 26 27 24 23 30 32 19 20 31 22 26 24 21 24 18 27 18 25 30 22 30 29 12 33 22 22 23 27 20 28 23 25 14 20 29 19 21 18 19 19 25 28 27 29 25 21 25 23 19 20 27 25 28 22 23 24 21 20 24 18 21 21 20 27 19 27 22 21 15 20 26 30 24 24 30 24 12 28 23 35 29 25 24 26 24 20 24 22 22 21 18 26 16 19 22 26 24 31 27 16 19 27 21 18 22 23 16 20 33 22 21 26 23 22 23 24 30 27 15 26 14 21 24 21 30 19 16 21 22 26 22 28 27 29 22 30 27 16 17 19 18 20 21 24 29 26 21 21 22 14 19 24 21 29 26 25 25 22 18 23 26 25 29 24 17 19 29 23 15 19 31 26 24 28 23 15 28 27 24 18 29 29 19 22 28 27 34 27 26 25 29 21 32 19 16 21 29 25 20 18 20 26 17 24 17 20 20 32 21 27 33 28 29 26 22 17 23 22 24 19 29 18 33 26 20 17 28 24 22 22 18 23 17 28 25 32 22 33 24 23 25 23 33 22 22 21 21 22 30 21 21 19 28 28 28 21 25 31 27 20 22 16 30 28 21 24 32 18 30 28 26 21 21 25 20 30 23 27 21 17 27 28 17 28 25 26 26 19 20 25 22 18 23 20 21 16 24 26 19 27 22 23 12 24 27 14 22 30 24 28 26 18 23 23 22 25 23 31 20 19 24 28 24 22 25 25 26 25 34 28 23 29 23 23 11 23 27 24 24 21 21 16 21 25 24 22 26 25 31 17 28 27 16 27 20 19 15 23 23 26 23 20 19 19 25 25 19 17 24 22 17 28 24 24 15 22 27 26 20 30 30 22 27 27 32 27 18 23 21 24 21 23 21 25 24 28 23 22 15 24 23 32 25 23 22 19 32 28 25 31 16 20 22 24 14 30 20 28 27 22 25 20 30 26 14 25 22 20 31 26 18 25 20 23 18 25 25 19 25 28 30 32 24 22 23 18 21 23 18 28 27 23 21 21 22 24 26 28 15 25 15 21 24 18 29 21 23 22 28 25 9 34 21 22 21 22 19 25 23 23 27 21 19 20 27 23 25 18 17 18 32 22 18 29 31 26 29 20 28 23 26 22 16 19 23 14 22 24 27 19 22 25 17 30 31 24 26 20 24 24 28 25 26 25 22 26 22 27 21 28 17 20 16 30 23 21 27 21 25 20 21 18 28 17 17 23 31 29 20 29 33 22 26 20 18 23 25 18 24 20 23 25 26 23 28 31 30 18 31 21 25 24 22 31 29 29 29 21 20 23 28 23 19 18 23 23 33 26 21 22 26 17 22 19 24 19 25 20 24 28 27 28 19 28 21 19 26 26 22 25 28 17 26 17 22 25 20 33 21 24 17 23 21 17 23 27 20 24 22 25 24 19 24 25 27 20 25 27 28 19 22 22 23 13 30 12 28 25 25 26 17 25 25 15 24 24 21 19 19 22 15 22 19 30 27 28 16 25 16 32 20 17 33 21 17 26 18 21 22 20 28 20 26 33 19 19 26 19 23 22 23 19 24 22 18 26 15 22 18 17 29 23 28 18 27 27 15 22 19 20 24 23 30 22 27 22 19 23 21 23 24 17 18 35 24 25 21 22 22 25 24 26 19 23 30 25 26 29 23 19 19 21 20 16 24 27 27 27 15 28 17 14 25 28 19 19 22 20 25 29 23 28 30 21 15 23 24 18 19 22 18 27 21 20 21 27 25 27 24 22 25 23 26 21 23 11 25 19 18 13 19 18 25 24 23 24 18 23 26 28 25 23 22 20 26 16 26 17 21 25 21 24 28 23 22 14 24 19 20 25 24 21 19 27 19 26 24 23 21 17 39 26 19 26 13 24 30 23 25 22 19 20 21 22 32 29 19 23 16 22 23 23 22 22 21 25 23 25 24 16 24 23 26 16 27 23 25 24 21 20 18 15 24 22 19 22 24 29 28 27 24 29 25 17 23 24 19 20 23 25 24 28 21 20 20 32 23 31 21 26 24 22 28 28 19 30 31 23 21 20 19 24 20 20 24 27 21 19 25 23 18 30 18 22 17 22 26 21 28 25 20 29 16 24 17 13 30 23 25 28 24 27 22 27 22 26 24 21 24 18 25 30 30 20 25 22 28 15 28 27 18 17 28 21 18 20 23 20 31 23 22 22 27 30 24 25 31 21 19 22 24 19 18 23 21 25 23 27 23 18 19 32 24 25 24 20 26 26 31 25 16 23 29 21 33 16 29 26 20 21 26 25 19 22 25 21 24 19 28 28 22 36 24 27 28 31 20 22 29 18 22 12 27 27 19 17 21 16 22 25 31 24 18 9 17 20 14 21 20 26 31 29 24 21 19 28 23 27 27 21 32 29 23 23 21 22 22 29 25 20 28 24 29 25 15 20 20 28 15 27 12 21 25 22 17 27 22 20 24 23 19 26 15 27 21 28 26 27 16 24 22 27 26 16 22 26 28 30 26 24 36 30 31 34 22 21 24 25 20 20 21 23 20 21 21 26 19 26 29 20 22 26 22 19 24 31 25 19 23 26 20 21 21 28 22 29 23 26 15 21 17 24 26 18 26 28 31 18 22 30 36 22 24 18 17 17 19 20 29 27 19 25 22 20 18 32 21 24 26 23 22 23 32 17 21 28 12 23 20 20 22 24 28 25 20 24 22 29 26 20 27 24 27 21 23 26 20 23 17 22 24 24 24 24 20 32 16 22 20 26 20 25 21 34 25 15 28 20 29 22 17 26 21 24 21 22 26 22 27 20 22 22 32 25 23 23 30 27 24 15 26 22 27 19 25 18 17 24 26 23 18 24 14 20 28 28 21 24 24 22 23 21 17 19 25 29 23 19 21 21 21 23 26 26 28 23 25 21 25 30 20 17 25 19 21 22 21 19 23 26 13 12 23 19 19 24 21 27 23 21 23 25 19 22 28 22 21 33 26 11 26 28 22 25 32 24 16 24 30 13 28 31 28 26 20 22 21 24 22 22 28 27 19 14 24 17 25 18 24 19 28 16 26 28 24 17 21 24 26 24 22 17 18 27 28 30 19 24 21 21 22 19 32 29 17 17 25 24 18 21 24 25 27 22 25 20 29 20 28 29 12 31 26 25 24 24 35 19 19 23 24 19 22 17 18 15 16 31 29 24 27 21 26 21 28 19 16 23 27 21 17 27 19 22 25 18 19 28 25 25 25 17 19 19 29 19 27 24 16 26 15 21 13 31 25 23 24 20 23 29 16 22 27 24 24 24 24 23 20 18 26 27 17 18 18 27 25 20 26 26 28 21 23 25 32 24 17 20 24 16 34 19 27 19 22 24 18 22 24 28 24 27 30 20 25 19 20 25 22 20 24 20 23 28 25 23 25 15 24 17 29 20 16 24 25 19 21 22 20 19 32 21 19 17 26 25 22 26 30 22 17 33 23 29 22 26 19 29 28 27 23 26 23 24 30 28 23 22 20 23 24 15 27 25 26 16 26 30 24 22 30 34 20 19 28 18 22 21 22 21 23 25 30 29 25 22 20 16 17 23 17 23 18 25 33 25 22 30 21 15 27 21 18 22 24 19 20 24 18 26 24 26 24 28 28 27 22 24 30 30 25 24 27 24 25 34 27 23 30 28 22 27 24 30 24 21 18 29 23 26 27 27 22 22 23 27 19 28 26 26 27 18 26 18 32 20 28 24 22 24 18 24 25 12 19 24 17 19 19 18 29 28 21 27 14 18 21 15 27 26 32 18 23 26 19 34 26 23 25 26 17 26 21 19 23 26 28 29 21 26 20 29 32 23 26 23 32 30 27 19 21 29 24 17 20 26 31 20 19 30 23 20 15 24 27 22 19 17 21 22 19 20 22 27 12 18 23 30 26 23 31 21 19 22 35 24 22 18 22 26 15 23 24 27 17 23 15 21 25 27 22 25 23 26 24 19 25 21 26 37 28 23 22 27 17 18 28 34 19 25 16 34 20 28 16 26 19 25 19 25 36 25 28 16 29 27 16 24 25 22 23 22 16 26 23 24 19 24 22 20 33 20 30 23 23 27 25 21 23 16 21 20 21 23 26 12 20 25 28 27 24 27 23 16 25 23 37 20 15 21 29 27 17 29 35 23 23 20 26 26 20 28 18 16 22 27 21 25 21 24 19 22 27 21 29 21 35 24 21 20 17 23 23 22 24 20 17 19 18 20 19 23 34 12 18 21 22 21 15 29 19 21 26 23 18 18 27 22 25 20 18 20 25 30 20 30 27 17 23 27 25 20 24 21 24 18 29 21 26 24 26 25 21 17 23 28 21 27 22 24 18 24 25 25 17 26 17 26 22 30 21 28 30 15 19 24 24 22 31 19 22 24 27 24 19 22 27 23 26 18 28 25 23 26 25 19 24 17 24 19 36 25 27 28 26 21 15 26 24 22 24 23 25 20 17 20 29 27 22 23 32 27 20 17 19 22 21 21 20 32 16 26 27 25 24 26 21 28 19 26 21 29 19 29 30 29 21 29 30 12 16 20 19 16 22 26 24 35 31 13 17 22 19 26 21 18 27 21 25 21 25 25 27 24 31 20 24 26 24 17 28 18 21 19 22 26 16 24 19 23 25 29 31 16 23 18 18 22 27 19 21 27 20 27 22 25 23 25 25 19 22 21 25 26 25 20 27 23 22 21 25 18 25 24 20 24 26 18 24 25 23 26 23 22 25 26 19 27 33 28 26 13 16 18 27 23 20 16 17 23 23 25 25 21 29 31 25 24 32 18 26 31 26 30 21 28 32 21 17 17 20 25 20 15 24 23 26 18 18 23 21 24 26 27 21 28 27 29 20 28 26 23 25 27 31 27 26 24 18 23 19 24 23 16 21 19 24 25 23 25 17 21 28 31 26 23 27 19 25 30 30 24 18 30 27 18 25 29 17 26 21 20 23 24 25 23 25 31 24 29 27 24 18 20 25 18 15 28 23 26 26 25 23 20 26 19 23 32 23 27 33 28 23 24 19 21 25 26 31 19 21 20 20 18 25 19 30 23 26 18 26 26 18 19 25 19 27 25 24 24 19 25 23 31 25 22 18 22 20 19 20 23 22 19 22 14 21 25 32 18 20 26 23 15 20 21 23 20 26 28 19 24 27 17 22 31 27 26 20 18 23 27 29 30 25 23 17 21 23 15 18 27 16 38 32 20 17 30 20 28 31 16 20 23 26 22 23 26 23 16 27 10 23 30 26 26 23 26 24 28 23 22 19 26 22 25 22 26 20 25 18 24 26 21 17 23 23 18 28 25 29 32 30 28 19 18 25 15 27 11 28 32 31 28 19 19 20 25 17 19 18 24 29 17 21 16 25 13 26 23 28 29 22 25 29 23 27 19 31 27 15 18 19 20 22 32 23 23 25 24 19 30 19 25 24 18 28 22 21 20 29 13 27 23 18 27 20 22 17 20 23 25 28 25 20 25 24 16 23 18 27 17 25 17 18 25 20 22 30 23 20 26 20 29 22 27 23 25 23 28 24 20 21 25 27 21 23 27 27 20 27 16 20 22 23 23 25 26 23 25 20 24 20 27 34 16 22 21 26 21 31 27 26 23 15 25 15 15 25 20 27 18 20 17 29 25 23 15 24 19 24 26 23 14 30 33 30 29 19 26 16 21 19 30 27 29 21 20 20 23 23 22 21 18 22 13 25 18 18 24 19 19 24 26 28 22 21 20 22 19 19 30 21 30 21 24 27 25 24 24 23 26 20 21 25 22 18 28 16 28 27 16 19 29 22 20 23 20 20 24 26 26 28 24 30 17 29 24 16 19 23 20 20 18 21 18 35 20 20 26 23 28 17 15 26 26 19 22 16 32 20 15 28 21 23 22 29 14 23 28 19 19 17 23 28 23 27 17 19 19 26 22 22 30 28 30 33 25 26 16 24 19 13 23 23 29 23 28 16 30 23 27 20 31 27 22 31 16 27 34 20 22 23 21 24 23 20 16 26 22 20 33 21 23 24 18 21 28 20 26 22 24 25 20 22 23 24 32 21 22 24 11 23 22 25 33 24 22 28 24 22 26 22 19 19 24 26 23 26 28 24 28 31 24 34 19 17 27 21 20 21 19 20 21 24 24 17 26 22 20 16 23 32 22 21 23 16 23 28 21 20 16 19 13 22 26 28 22 30 25 32 25 21 22 13 29 21 28 17 18 27 27 22 26 18 24 27 19 25 27 26 20 26 20 21 20 26 21 27 19 20 24 25 33 20 18 24 25 24 20 24 15 21 25 31 25 22 20 20 22 24 28 19 23 19 17 31 27 18 29 21 25 21 25 22 22 22 20 18 23 22 21 24 19 22 27 24 30 28 27 27 16 26 25 17 18 14 20 24 15 21 18 25 22 20 17 26 27 23 24 28 21 18 32 20 36 27 26 19 21 28 23 24 22 28 15 22 25 22 29 28 21 29 31 21 19 21 13 18 28 34 28 26 19 27 21 22 26 25 24 32 25 27 27 22 22 32 17 22 23 24 22 33 31 26 23 20 28 29 19 16 26 24 22 25 20 19 15 26 31 32 28 29 22 18 30 21 24 30 24 20 32 22 25 22 28 22 21 21 27 27 22 20 22 23 25 19 23 20 23 29 22 25 20 22 18 23 26 29 19 21 17 17 22 20 22 28 27 25 19 20 28 15 15 26 33 25 25 18 20 21 21 19 21 27 17 21 28 22 26 23 21 24 20 23 15 23 31 20 22 20 18 24 27 20 18 12 40 21 22 19 23 23 21 25 21 18 22 24 15 21 15 23 28 30 17 23 24 20 25 28 21 31 21 20 28 20 27 34 20 23 20 20 26 25 19 23 17 20 23 24 17 17 26 20 20 24 20 29 26 21 26 16 25 26 22 22 21 23 26 21 29 23 23 25 15 28 24 28 27 27 23 23 18 25 30 28 27 17 32 21 19 16 26 19 16 27 26 21 25 19 23 24 22 29 29 22 25 16 21 19 27 22 21 21 20 29 19 24 23 26 28 25 28 29 18 19 25 23 27 26 16 23 25 10 30 21 19 20 18 31 24 23 18 26 33 25 26 21 23 27 22 22 21 16 27 23 24 32 22 27 23 28 26 18 20 23 26 23 26 22 14 24 20 23 23 25 18 16 29 24 23 17 24 27 29 24 25 19 25 19 18 20 24 26 20 19 24 28 16 24 17 19 21 19 23 19 19 23 24 21 22 21 37 15 15 24 25 26 19 12 22 25 29 26 18 26 22 22 23 20 20 26 25 27 13 26 31 28 27 30 24 20 25 23 24 22 27 23 26 25 26 18 29 21 27 16 29 18 27 22 20 15 24 26 24 24 22 24 22 27 24 23 25 19 24 26 24 29 29 21 19 28 30 20 15 19 20 27 26 19 17 25 30 23 23 22 23 22 28 24 22 23 24 33 26 14 18 22 20 25 26 20 28 32 23 30 19 30 24 17 20 32 18 25 20 19 26 32 23 24 17 18 19 19 14 25 20 22 15 29 26 32 23 27 25 21 17 18 17 22 29 33 18 25 19 28 26 21 21 24 27 20 24 24 28 27 27 24 20 19 25 18 21 26 29 19 23 19 32 26 21 14 22 29 20 36 32 24 34 22 20 24 30 26 17 33 33 25 23 24 15 22 24 23 25 35 24 22 22 25 24 27 24 20 20 18 21 29 24 17 25 25 21 27 29 29 24 27 27 22 19 21 16 23 29 20 22 16 17 26 22 28 16 24 26 29 23 29 22 23 24 26 20 22 22 29 36 20 32 26 26 25 16 18 29 24 23 29 23 24 21 20 25 22 20 21 23 24 25 19 27 18 17 28 26 29 24 23 22 22 23 24 21 27 24 18 18 34 24 28 16 24 28 26 30 19 21 22 19 16 26 27 20 22 17 27 27 31 18 22 24 20 34 21 27 22 21 22 27 31 30 15 19 22 28 22 24 27 26 23 23 29 22 19 18 25 26 24 28 18 28 31 23 27 31 20 28 26 18 31 21 21 22 25 14 22 23 27 21 28 18 17 26 21 25 23 17 22 22 23 21 24 23 21 26 24 22 18 24 31 31 31 28 23 21 14 25 23 31 21 13 21 32 18 26 22 30 19 19 29 20 23 21 24 26 25 22 30 24 29 20 23 22 19 28 25 15 24 26 23 20 20 17 27 27 19 15 24 28 15 17 19 17 17 24 23 31 26 15 24 19 26 20 17 29 22 13 30 29 23 23 25 25 28 19 29 24 19 30 26 27 21 29 20 25 24 20 33 22 29 24 20 19 27 28 30 24 29 19 23 18 29 26 25 24 21 25 31 22 33 28 23 26 21 30 17 30 24 23 21 21 22 15 29 21 25 24 19 21 30 21 22 21 28 20 26 21 27 24 24 25 20 22 23 23 25 17 19 24 13 18 23 23 27 20 20 25 25 23 27 31 14 23 15 22 18 32 23 16 25 22 17 28 27 19 20 24 18 24 21 23 25 22 12 23 21 15 27 22 27 24 25 13 24 15 22 26 23 29 25 30 23 23 28 23 28 30 27 22 19 21 17 33 22 20 24 18 24 26 25 24 20 27 23 24 19 19 29 26 18 24 24 21 22 20 21 17 20 24 25 30 22 23 33 21 31 24 23 21 26 24 21 25 25 21 19 17 31 21 30 22 24 16 20 17 24 20 24 23 25 33 26 21 25 27 19 25 20 18 25 17 22 23 14 38 22 15 24 29 22 26 14 16 22 22 28 21 27 21 31 13 22 27 24 30 24 23 18 22 25 23 19 22 24 22 22 20 18 22 19 27 22 21 27 30 19 22 20 33 28 24 23 23 31 21 25 27 22 21 20 21 17 24 23 21 19 20 24 27 27 31 25 23 25 21 20 19 30 20 21 23 19 27 25 29 26 22 27 26 20 19 19 23 20 29 28 28 14 16 19 30 26 22 26 27 21 25 15 28 27 23 20 19 17 31 30 32 24 22 19 23 18 18 14 13 23 28 20 18 21 20 28 18 22 28 20 20 30 19 21 29 25 29 21 25 27 22 21 32 24 25 24 25 21 20 17 17 25 26 18 26 23 20 23 26 21 30 22 33 18 21 30 24 27 26 32 27 27 24 24 16 16 32 25 26 24</t>
+  </si>
+  <si>
+    <t>EXN(0.5375899499528634, 30.57590956655511, 4.969181783365137)</t>
+  </si>
+  <si>
+    <t>45 39 35 32 39 36 37 27 26 40 32 31 26 36 32 33 35 29 33 33 44 25 40 39 36 29 31 34 29 27 36 33 33 31 28 33 35 29 23 33 42 46 30 34 22 35 35 34 37 40 39 26 30 38 32 43 35 29 32 28 40 27 32 33 28 24 26 34 23 29 38 30 39 29 28 39 37 29 32 26 31 34 23 31 31 30 34 33 30 39 42 33 23 27 29 30 26 35 31 35 37 25 36 33 32 21 32 29 49 36 37 25 33 33 32 29 31 20 31 34 33 30 36 29 29 31 27 31 33 40 30 32 36 30 34 42 28 23 37 30 21 36 24 29 31 31 30 37 21 34 38 33 50 26 36 28 30 33 27 36 25 35 42 30 41 47 28 24 36 31 31 37 49 32 24 27 29 28 30 37 34 51 19 46 25 32 28 28 31 30 32 33 40 37 32 35 37 35 32 33 35 26 25 31 34 38 32 35 35 29 41 42 42 26 35 31 41 25 39 29 44 34 32 31 35 34 30 25 30 30 35 37 27 35 36 36 27 43 30 41 29 35 36 28 29 24 34 37 35 27 35 35 33 29 25 37 32 36 47 35 40 29 18 34 32 33 27 38 41 29 31 26 33 43 26 37 33 18 36 34 37 32 36 36 36 30 34 28 24 32 31 38 32 33 31 29 33 37 31 38 34 38 21 29 37 41 18 30 34 38 40 29 34 35 39 38 39 37 33 41 29 35 45 40 39 21 32 35 30 25 29 30 34 38 34 38 22 36 38 39 36 29 35 28 25 49 27 24 34 23 28 39 34 28 34 39 31 33 32 30 32 39 44 30 48 32 35 36 40 27 34 35 26 39 33 39 28 30 30 32 36 32 37 30 34 32 41 26 40 28 25 34 31 29 34 39 32 40 23 24 45 30 23 32 41 40 35 36 31 29 52 29 31 36 38 35 32 32 32 33 27 40 39 34 33 32 34 36 36 30 36 23 30 21 35 27 33 31 22 33 28 32 37 39 34 37 41 42 29 31 44 37 36 29 37 32 39 24 40 42 38 31 44 33 43 31 29 33 31 37 30 27 42 28 38 31 24 31 29 24 30 31 23 39 32 40 46 27 31 34 38 33 30 28 40 28 39 29 31 40 32 29 35 37 32 41 29 33 27 32 36 31 33 30 36 36 32 30 35 33 40 39 30 28 32 33 24 26 31 26 32 47 37 29 34 29 31 33 44 43 35 27 35 35 20 37 37 35 32 47 28 40 28 24 27 35 25 40 39 37 44 32 33 41 36 32 28 29 34 41 25 23 30 23 30 40 24 27 40 35 24 29 38 32 30 49 26 36 30 27 31 32 24 26 41 36 23 24 37 38 29 38 32 35 31 44 32 38 33 29 40 34 34 32 30 30 31 36 38 30 27 38 37 42 30 38 40 33 27 27 39 34 30 31 27 24 42 21 35 31 32 37 27 39 33 38 40 27 33 34 27 35 32 29 39 33 27 26 26 27 36 37 35 38 44 32 34 34 28 29 36 28 37 40 36 28 30 31 31 31 35 31 41 38 24 31 36 30 34 31 33 44 37 26 27 27 34 47 27 43 35 32 43 30 30 28 29 43 34 26 36 39 36 39 37 28 30 34 36 25 34 32 26 36 29 28 33 34 43 35 32 28 32 34 25 34 37 31 19 32 27 39 35 22 39 43 27 30 30 32 34 38 36 33 33 31 36 33 37 40 37 41 35 36 29 27 27 32 36 22 34 33 28 39 33 47 23 44 38 34 35 31 34 39 23 27 28 43 29 31 41 26 34 36 29 31 25 44 32 31 35 32 32 29 28 31 32 27 31 33 31 34 38 42 33 33 27 32 27 32 35 25 25 35 36 33 35 34 27 48 36 33 40 40 25 32 29 43 54 29 31 41 31 36 31 41 29 35 36 35 42 46 29 38 32 32 26 23 27 29 34 25 31 28 39 34 33 35 28 33 29 37 45 39 22 29 33 34 46 32 26 34 34 27 25 32 37 33 32 33 32 29 47 26 46 31 22 28 35 41 34 41 38 39 42 32 41 33 26 31 24 49 26 38 37 43 28 29 31 34 29 37 25 33 39 37 24 38 27 28 36 27 30 33 34 20 22 35 32 26 28 34 28 32 36 22 43 43 37 31 29 47 28 24 36 28 35 42 43 35 43 28 37 36 38 36 27 36 40 37 29 33 33 23 38 35 38 36 32 35 36 43 34 27 38 22 32 33 29 35 41 37 29 26 36 29 37 30 36 36 42 27 22 36 31 38 27 37 36 43 33 29 35 49 44 24 29 43 35 37 27 31 36 37 33 28 32 39 25 38 24 39 33 30 34 32 35 32 32 30 33 27 36 30 36 29 48 37 28 39 33 36 33 20 36 35 34 29 44 29 34 30 28 25 30 42 28 30 34 29 24 30 30 30 33 37 33 19 28 33 36 24 35 33 36 37 33 40 27 27 33 37 32 40 36 33 23 36 47 24 29 35 28 35 25 32 26 23 37 31 31 36 26 42 34 37 30 34 23 35 34 32 39 26 31 44 29 32 31 31 26 36 38 27 30 25 35 29 24 29 34 33 30 44 36 30 27 37 29 33 36 32 40 34 34 40 31 37 36 33 28 26 48 46 34 26 29 27 37 29 35 36 24 32 42 36 36 47 33 34 38 35 45 30 40 27 25 33 32 27 30 25 43 31 33 34 35 31 30 38 33 38 32 25 32 39 34 35 27 32 34 38 37 38 38 25 34 35 36 30 36 43 38 22 38 40 37 30 27 38 32 40 27 29 32 24 23 27 41 30 40 33 32 35 38 25 41 36 27 40 37 28 33 32 31 22 30 24 28 38 30 31 29 27 40 41 36 32 23 27 32 24 31 33 40 33 33 34 23 32 32 34 34 33 25 28 32 46 34 42 37 33 31 33 29 25 32 37 29 38 46 32 32 31 32 32 30 32 39 41 33 34 30 34 28 30 36 26 42 44 47 16 31 30 46 35 35 32 34 44 37 36 44 40 42 35 25 29 40 29 48 40 37 47 38 41 23 35 32 26 33 34 33 31 40 39 27 38 31 38 22 45 35 25 32 32 30 39 46 29 41 40 24 23 40 30 29 27 37 41 35 35 39 41 39 31 30 29 27 30 37 41 35 34 32 31 42 32 26 30 43 32 31 34 41 38 30 32 23 47 33 29 40 32 25 37 39 37 38 25 32 27 31 36 35 35 26 28 32 46 34 30 35 29 36 34 32 37 33 33 33 41 31 26 38 32 32 37 37 30 27 32 37 32 37 40 28 37 43 33 29 31 37 33 25 38 28 37 42 27 30 30 37 40 32 23 36 39 34 25 31 32 38 36 38 31 29 27 46 40 34 37 30 33 39 35 32 28 47 34 36 35 29 34 38 33 40 27 25 36 35 40 44 39 33 35 34 40 33 38 22 22 31 32 34 29 37 34 31 36 25 32 39 24 23 31 30 38 38 41 27 32 42 35 30 28 35 23 38 29 34 41 18 25 31 32 39 31 38 40 44 35 43 37 29 35 32 35 33 30 30 42 41 28 30 39 33 41 30 35 37 31 44 41 27 32 29 27 31 26 38 33 43 25 34 33 25 38 31 23 34 36 32 49 35 34 31 26 39 33 33 29 28 33 34 36 24 38 34 36 43 29 29 36 40 35 28 38 35 36 34 33 41 48 29 35 41 33 28 31 27 32 36 35 33 28 34 30 25 29 25 33 44 33 28 37 30 40 36 30 29 32 28 39 39 33 27 40 28 37 33 31 29 30 29 38 32 29 29 34 26 26 27 21 38 29 40 30 43 31 41 33 46 41 39 27 27 39 35 37 28 43 21 29 36 44 33 33 29 32 34 32 41 21 32 33 38 33 24 29 43 29 35 26 28 39 30 34 33 30 26 34 29 37 38 38 32 30 33 38 35 32 46 29 32 38 24 22 31 27 36 22 42 40 23 36 36 28 35 34 30 34 38 34 35 39 42 31 34 24 26 37 31 29 29 38 30 30 26 34 38 38 35 31 33 25 27 29 25 37 34 38 29 27 41 35 34 30 21 37 29 30 33 45 37 28 29 30 34 32 37 36 40 45 29 34 34 30 44 30 36 35 43 32 33 36 38 19 38 37 33 41 34 41 18 36 29 33 34 37 31 28 41 28 31 31 26 32 25 32 31 45 37 38 28 35 26 35 35 23 32 33 34 42 39 38 30 33 27 29 36 34 27 38 26 37 39 29 45 31 27 39 31 44 35 32 37 33 34 33 27 32 27 41 31 30 28 25 42 29 30 37 35 40 30 33 29 36 40 33 41 30 28 20 46 35 31 44 29 30 36 30 33 40 42 33 30 38 38 42 35 24 32 42 40 33 28 24 33 31 30 34 32 30 36 35 30 42 35 44 36 39 35 38 31 31 38 37 33 34 34 31 40 31 33 28 39 30 25 40 30 31 43 28 35 28 30 32 32 24 31 36 44 36 33 33 32 37 27 32 31 32 38 27 25 21 46 29 32 34 39 30 34 34 24 40 34 35 24 39 28 25 35 27 31 31 42 40 31 33 32 33 38 36 36 32 28 27 27 33 36 33 22 31 31 30 30 32 42 34 29 36 31 26 28 35 28 33 23 34 31 37 36 22 38 28 39 28 29 39 32 25 34 32 35 32 44 30 39 34 30 32 41 34 33 43 20 25 36 22 37 41 32 36 34 28 28 37 39 33 25 32 37 36 31 24 31 32 34 35 25 28 31 35 35 42 35 36 28 34 38 30 26 31 35 40 36 41 36 33 36 39 34 35 39 30 27 35 32 33 40 22 40 27 25 36 33 34 20 32 32 27 35 46 39 41 36 28 39 25 32 28 37 21 24 24 28 30 37 24 34 33 26 37 25 26 32 37 31 34 37 39 34 26 34 36 36 41 28 37 31 32 27 45 45 38 34 38 31 32 32 20 37 42 44 24 29 36 46 35 43 38 24 33 34 37 25 35 40 24 47 42 44 26 32 30 42 39 39 27 29 29 31 39 31 36 41 46 36 37 38 26 38 32 31 34 30 29 25 32 31 31 38 34 33 30 38 35 31 34 44 40 33 27 34 32 40 34 34 34 33 32 45 27 34 29 37 33 37 34 42 38 32 34 36 28 38 42 40 25 36 22 25 34 35 27 20 32 41 29 32 44 37 37 33 34 38 34 33 30 35 41 37 26 25 27 33 33 36 33 37 29 36 31 27 39 31 32 38 33 30 43 32 34 29 36 38 31 37 34 39 29 37 33 29 27 40 21 35 28 34 31 29 21 36 29 32 27 25 28 46 33 29 36 34 33 36 44 35 35 30 44 38 33 40 32 35 46 32 33 40 24 36 36 32 27 31 32 35 38 30 40 38 30 19 27 24 34 28 26 34 44 36 25 48 34 21 29 45 43 30 31 36 37 32 29 38 40 29 29 33 30 32 23 30 27 43 27 26 35 23 34 38 34 33 21 36 30 35 30 36 31 29 41 39 34 25 28 29 31 48 38 32 40 32 36 34 40 32 44 45 37 36 29 38 38 38 20 30 44 29 35 37 39 36 25 30 28 37 37 37 26 31 33 32 35 35 39 40 32 29 22 36 28 26 37 43 35 39 39 34 46 41 28 36 27 38 28 28 23 37 33 33 22 28 34 32 40 46 38 36 30 28 42 31 32 29 31 27 27 31 37 38 36 30 26 29 38 45 38 30 37 33 46 27 25 31 39 37 30 28 33 31 40 32 32 30 31 28 29 31 28 29 24 31 28 33 43 33 38 28 40 37 27 42 33 32 33 30 32 38 26 28 26 31 36 29 33 35 37 41 38 32 26 40 46 21 29 30 34 32 30 43 30 24 31 24 37 38 33 31 41 28 34 28 40 31 29 39 36 29 25 33 38 26 33 27 33 31 30 38 35 35 30 33 46 36 34 37 31 30 34 27 42 33 39 31 41 36 32 29 37 35 34 44 45 36 31 36 39 36 38 46 35 23 42 24 29 29 35 29 28 33 43 41 42 38 36 35 44 43 37 36 32 28 28 28 30 32 33 39 41 37 38 24 27 38 33 34 46 41 35 35 26 30 36 27 26 34 32 32 27 27 34 31 28 30 33 29 39 30 40 34 30 28 37 32 32 27 37 44 41 39 29 30 26 36 34 43 37 20 31 38 29 23 22 34 32 41 34 37 26 22 39 26 34 31 33 33 23 36 34 47 43 30 36 38 42 34 26 38 46 38 31 40 36 34 38 25 35 38 41 36 28 28 23 38 37 30 32 35 24 32 34 41 32 27 31 35 30 22 39 38 37 32 26 28 34 35 31 40 34 40 34 30 38 30 33 35 34 33 35 35 25 29 36 37 22 30 31 22 33 25 31 28 33 38 31 29 41 36 34 36 27 35 46 24 33 22 24 31 32 37 28 29 35 38 39 35 32 28 42 36 38 35 39 37 43 28 33 55 34 34 37 29 27 28 47 32 26 36 32 42 40 27 25 33 21 45 34 41 41 37 33 33 30 37 36 33 25 47 24 32 29 37 31 29 39 37 26 37 30 25 33 27 32 31 28 35 32 40 40 34 32 33 28 37 32 23 26 41 30 29 39 34 24 30 27 33 32 31 36 25 41 39 36 35 27 31 29 35 25 29 39 43 36 23 35 32 35 38 32 37 41 35 37 39 30 26 33 33 37 33 41 33 35 40 36 34 37 46 39 26 26 36 36 27 34 38 39 29 36 30 24 34 39 38 26 26 33 20 36 30 45 32 29 27 33 32 35 36 39 31 27 36 28 34 35 29 29 24 45 34 22 24 33 38 32 40 23 40 31 32 34 29 46 31 30 38 34 30 39 36 29 30 28 40 31 33 30 28 40 30 26 34 43 30 30 31 35 25 31 33 39 41 38 28 30 31 32 32 32 39 35 28 38 27 48 36 34 32 26 34 27 48 29 26 40 39 38 27 25 48 39 32 30 42 26 32 33 34 36 33 37 28 38 34 29 30 45 26 28 30 30 30 36 32 29 39 42 26 35 36 25 26 35 25 36 38 31 29 32 43 35 34 35 41 33 30 38 29 34 37 33 29 42 46 24 35 33 32 22 33 35 35 45 34 38 49 49 33 22 34 39 30 40 36 34 36 31 38 31 39 36 39 29 42 33 32 37 34 33 36 35 34 29 35 32 34 29 36 29 39 31 27 23 42 33 28 34 35 36 34 27 30 33 37 33 43 22 26 29 37 40 34 35 39 29 27 32 26 35 33 37 31 32 34 34 30 37 37 36 35 41 33 39 27 35 27 32 32 31 47 36 40 41 38 34 36 36 28 34 53 27 29 34 31 26 23 41 37 32 34 26 37 36 32 39 41 46 31 37 35 27 28 28 27 36 34 33 38 36 36 35 43 23 32 31 22 44 40 30 33 34 34 37 39 33 34 34 23 28 41 28 39 25 37 37 32 36 31 31 34 33 40 38 31 36 32 26 35 45 31 26 33 41 33 25 37 24 36 16 45 37 37 37 33 36 31 40 37 27 35 34 27 29 32 35 27 37 39 28 34 31 32 47 30 54 33 38 41 33 31 35 33 33 33 38 32 36 36 40 40 27 33 32 33 34 34 33 38 29 34 27 33 32 37 29 42 49 28 24 36 25 33 25 36 31 35 32 44 40 34 28 39 33 29 29 29 36 37 48 39 28 37 48 34 35 27 37 36 32 33 31 28 33 29 46 29 43 38 31 44 34 29 33 34 37 35 31 54 37 30 35 28 24 32 42 29 37 40 31 33 23 34 34 30 23 35 29 33 29 35 34 26 37 30 23 39 28 32 27 32 21 27 36 32 39 50 23 38 33 23 34 33 33 32 31 36 32 37 32 26 25 38 33 33 41 35 38 32 44 56 49 32 31 45 31 37 40 39 42 33 36 29 36 35 31 31 36 28 42 36 37 30 33 40 31 25 28 35 20 33 33 43 37 34 40 24 49 38 30 36 36 33 29 43 32 40 45 40 41 31 29 41 41 34 29 31 30 28 32 27 31 26 35 26 29 38 39 34 37 38 33 26 36 42 36 20 33 36 37 33 34 31 33 30 37 41 30 25 31 42 26 37 42 49 37 31 38 31 29 41 37 28 32 28 41 28 16 38 44 34 46 34 35 32 38 33 42 28 39 48 34 36 38 29 34 33 26 34 26 29 27 33 32 34 29 35 22 43 24 35 42 28 41 24 27 26 43 38 29 28 25 29 48 31 30 39 35 46 38 25 37 29 33 35 41 23 30 39 35 33 34 30 33 30 31 34 31 26 25 38 41 27 39 27 28 36 39 44 31 31 36 37 40 25 35 36 43 38 31 39 34 27 35 37 33 40 35 33 37 32 33 39 31 36 31 26 35 30 35 33 32 37 34 28 32 24 24 30 25 30 34 31 36 24 39 37 35 30 33 36 34 32 39 30 46 34 27 33 33 30 36 28 28 27 34 25 34 35 27 30 25 36 38 42 33 37 31 28 30 23 35 33 34 31 36 27 31 37 29 25 41 33 26 25 36 33 27 23 40 35 43 39 22 35 34 34 44 30 35 32 40 41 30 38 34 24 36 38 39 31 31 32 33 39 33 27 36 30 41 34 25 34 37 32 32 36 41 33 29 42 35 33 29 35 35 29 36 24 29 42 33 33 36 37 42 32 34 30 33 28 24 31 39 32 34 31 34 33 44 32 24 41 44 35 39 31 39 34 28 35 37 35 35 29 37 25 25 31 33 33 34 46 37 33 48 24 33 27 29 23 37 31 32 30 36 41 31 42 27 37 32 36 35 37 38 35 40 33 43 42 31 35 27 29 34 40 21 29 42 39 45 35 32 33 32 39 33 35 18 26 31 33 36 32 28 32 31 36 29 40 34 25 37 33 35 30 19 38 39 37 31 24 33 36 31 38 35 24 41 32 28 32 34 23 28 33 31 34 30 26 35 27 26 34 41 28 26 34 34 37 28 37 25 26 39 42 22 33 41 37 26 30 25 30 38 27 32 32 48 31 33 32 29 35 42 30 24 36 42 31 29 31 29 30 31 29 26 22 39 35 46 34 25 30 36 27 30 33 40 31 28 36 34 29 31 39 38 26 22 34 38 40 31 29 26 32 26 34 33 34 28 30 27 40 30 31 35 33 33 29 34 24 27 35 24 36 30 34 40 34 23 32 33 23 46 32 36 36 35 40 37 29 36 26 27 44 38 34 34 41 31 42 44 27 37 35 38 27 31 43 28 34 33 36 30 31 29 24 30 30 27 35 27 38 34 34 35 32 28 30 32 39 30 35 22 33 28 29 33 39 34 34 32 38 31 32 35 34 33 34 33 48 28 33 38 40 25 37 36 28 23 41 37 29 35 29 34 31 39 27 29 29 27 31 39 38 32 32 30 35 36 34 37 37 35 31 26 36 42 38 32 32 25 28 29 34 44 34 38 25 32 39 38 27 27 39 45 39 30 25 29 30 34 38 24 42 36 32 36 30 32 34 32 30 38 39 29 38 40 33 40 27 33 49 32 28 40 36 44 36 28 36 30 29 27 47 33 32 34 25 31 35 34 28 30 30 36 36 32 40 27 33 29 28 33 24 33 36 27 25 35 31 32 36 43 35 34 27 27 29 35 34 38 33 28 30 44 34 33 29 36 35 24 33 33 33 31 37 48 25 37 30 39 30 33 37 31 25 36 40 45 27 33 32 35 28 24 31 20 35 38 35 34 33 30 36 23 25 33 30 33 34 29 26 31 30 37 37 35 41 27 34 34 27 31 43 18 34 28 27 28 43 32 46 34 32 34 23 28 37 30 31 25 24 28 38 38 38 30 39 23 27 35 36 28 26 30 28 41 34 37 28 41 28 37 28 31 24 39 24 39 29 34 34 21 33 48 39 38 28 33 34 31 30 26 29 35 26 30 23 26 32 29 33 36 30 36 27 38 26 27 46 25 28 31 32 24 36 37 38 23 27 24 35 25 29 38 28 32 38 33 34 41 36 31 40 27 32 47 27 29 35 31 28 26 25 47 27 29 26 31 38 35 32 30 31 39 37 28 38 30 30 33 43 33 35 33 30 36 25 30 26 40 41 38 33 40 37 37 28 36 29 24 35 34 32 39 25 36 40 35 36 33 35 23 34 30 22 36 34 24 34 36 44 32 29 29 21 26 29 33 40 40 27 29 23 33 33 43 34 35 31 31 34 38 36 38 33 36 35 31 31 29 40 30 32 37 27 33 37 31 35 23 35 38 31 17 32 29 32 26 29 46 43 32 33 40 40 35 34 30 41 37 34 44 36 23 33 30 31 23 33 42 34 28 34 34 38 26 32 34 45 36 35 32 38 35 51 35 44 31 27 35 36 34 23 24 35 35 33 28 30 34 37 32 29 40 25 26 37 32 44 26 29 27 30 28 27 35 35 34 35 30 30 30 29 34 29 36 26 31 34 37 33 42 36 34 24 46 29 32 23 32 22 29 30 36 30 29 30 32 35 31 30 36 28 25 34 37 35 41 27 35 31 34 33 38 32 23 27 29 33 26 24 39 25 40 31 41 31 27 41 38 33 39 33 46 35 35 45 33 27 32 40 43 30 32 36 34 37 27 35 29 32 25 32 21 33 31 37 37 26 30 31 33 39 29 40 37 35 32 33 33 33 32 27 35 35 36 34 36 33 29 36 29 40 35 32 35 27 27 32 31 37 32 31 32 34 30 37 29 51 28 34 37 38 33 27 41 29 35 32 38 31 33 27 39 29 35 28 22 33 48 34 30 34 27 35 34 32 40 34 37 40 37 27 38 28 31 30 39 38 40 33 31 27 34 36 38 34 27 31 42 35 35 29 36 35 36 30 28 27 37 33 22 41 40 37 35 40 43 46 27 40 34 36 23 35 40 40 46 24 32 31 29 36 37 32 38 21 28 33 25 35 32 34 34 28 32 34 31 37 29 38 41 36 30 32 35 35 26 34 46 23 31 26 41 32 37 35 27 30 35 24 28 38 29 41 36 30 45 30 28 35 32 32 26 39 37 31 30 40 35 27 34 20 36 34 33 41 29 37 39 31 42 31 29 30 24 44 31 33 40 45 33 30 30 24 32 29 29 27 30 34 31 35 49 23 35 33 38 30 34 43 31 34 34 34 28 27 36 39 28 36 30 32 36 34 42 38 38 45 29 38 43 38 27 32 44 33 40 36 24 31 33 36 31 40 34 37 40 42 37 22 33 30 39 30 33 34 31 35 34 34 41 33 29 37 32 29 33 26 38 30 34 33 27 30 30 25 41 32 36 31 45 30 31 35 39 33 29 38 34 35 41 36 24 30 29 38 38 37 27 38 35 33 37 42 25 45 36 29 33 27 23 32 42 38 34 28 31 34 26 33 27 31 34 37 40 29 25 32 42 27 40 31 32 29 37 38 40 30 30 31 26 36 30 32 36 44 32 47 33 31 26 34 35 41 42 30 28 41 37 31 31 32 40 23 23 49 32 38 31 37 32 32 39 24 18 36 34 27 29 35 35 36 40 34 34 31 32 30 24 30 39 41 26 26 32 35 36 34 36 38 29 36 35 28 41 36 30 22 34 44 25 31 32 32 38 33 33 22 30 38 34 34 35 35 27 39 31 43 41 28 38 31 40 32 32 37 33 36 30 33 29 33 26 34 32 36 35 35 27 40 25 30 28 34 39 30 24 32 35 39 36 38 45 42 33 29 31 43 35 28 35 47 32 32 35 30 31 29 33 31 35 39 29 32 38 35 36 33 27 36 33 27 41 34 36 38 42 37 35 40 36 35 32 34 30 27 21 22 33 33 35 52 39 25 34 41 38 25 24 21 42 42 46 23 33 30 29 28 25 29 30 30 35 34 39 36 34 31 27 32 29 30 29 35 38 39 16 29 31 32 32 35 35 36 37 32 22 37 28 40 30 37 38 37 46 41 28 33 35 34 41 25 37 27 41 28 33 37 31 31 29 28 30 37 35 37 36 28 45 31 33 38 32 28 38 19 28 29 26 43 35 26 38 33 32 32 36 38 27 38 29 29 28 31 29 36 34 41 38 31 33 25 45 28 29 24 35 33 35 38 15 32 34 38 25 35 39 36 42 40 30 41 33 26 30 23 25 41 32 36 28 21 29 27 34 34 28 36 48 33 39 34 31 32 32 35 35 24 33 42 40 36 34 35 36 40 32 27 41 33 33 35 27 37 39 32 30 35 29 30 35 27 25 43 39 37 38 44 30 37 34 34 30 28 35 38 32 34 32 31 28 28 33 31 29 24 33 39 37 39 34 29 28 34 32 27 41 28 29 35 34 25 38 32 27 29 39 35 29 31 45 23 31 36 37 34 28 33 25 43 27 37 37 40 33 28 30 33 36 35 27 25 29 41 26 31 47 37 30 31 37 32 47 30 29 40 34 33 28 27 24 43 39 26 27 31 42 32 38 31 25 37 30 33 33 24 31 31 27 29 34 23 40 36 31 25 38 38 28 29 30 34 40 29 24 44 26 38 37 38 38 32 36 27 33 32 36 33 31 32 34 44 33 36 42 33 36 40 24 29 38 40 33 30 32 31 40 27 23 37 41 31 28 25 34 32 33 28 33 32 35 32 29 35 39 46 26 36 36 32 34 33 27 30 35 36 37 42 40 35 40 35 29 33 30 35 33 33 29 37 37 36 31 27 41 30 29 32 33 32 29 30 34 39 32 25 31 28 44 38 35 39 41 38 36 35 27 33 33 24 36 33 28 38 37 32 36 38 36 28 36 38 38 32 34 33 44 28 22 48 30 26 35 36 27 36 54 34 37 38 37 31 31 38 38 45 35 41 38 35 25 38 31 42 31 27 35 26 40 34 29 33 27 31 34 28 31 46 32 20 39 34 26 38 30 36 41 29 33 31 40 30 40 32 32 24 25 34 34 34 41 35 36 34 22 27 35 31 31 25 33 25 30 37 31 45 31 46 33 27 26 45 30 33 34 38 43 34 33 34 33 29 33 31 26 40 35 29 39 24 26 36 28 37 45 38 41 28 28 40 28 28 37 41 36 41 37 33 33 37 20 31 37 38 33 28 28 36 29 37 42 26 30 37 36 24 38 35 34 28 33 26 36 31 27 29 34 37 28 31 36 27 28 36 33 37 40 35 40 27 31 36 29 31 39 26 34 34 28 42 44 32 40 31 44 33 42 36 40 21 39 24 33 43 37 24 48 26 30 38 32 30 32 31 32 30 31 35 30 30 41 37 40 27 29 31 36 37 37 32 45 36 33 37 40 33 20 45 34 34 36 30 31 26 41 28 39 41 33 33 21 43 46 33 26 25 37 30 44 27 41 32 28 35 29 47 26 43 31 37 38 34 34 36 55 37 34 37 36 33 30 44 26 27 29 39 32 32 35 33 34 18 28 28 22 29 34 33 33 31 32 34 37 32 32 43 39 36 38 42 30 30 29 38 45 27 37 37 33 34 40 45 33 32 43 35 45 39 35 39 28 37 24 39 43 32 42 40 21 43 32 33 41 37 29 41 32 29 28 34 41 25 33 26 30 30 36 35 36 43 33 28 30 29 27 28 36 33 34 35 38 25 24 26 34 22 28 26 28 32 23 44 34 30 27 29 44 35 41 31 41 29 23 44 33 41 41 34 33 40 34 25 41 32 32 35 29 35 29 33 31 38 30 42 37 25 32 44 30 31 38 33 33 25 45 34 30 38 40 35 35 33 37 33 27 33 27 31 33 29 46 29 29 24 32 29 31 33 42 30 36 41 31 31 31 28 28 30 28 34 39 34 27 31 31 18 27 39 27 31 40 33 36 29 28 37 38 35 38 33 26 28 43 32 25 28 42 37 30 36 32 20 39 34 38 37 38 38 34 32 38 39 49 37 31 39 41 30 42 31 25 29 39 38 35 30 33 33 28 39 27 32 32 41 32 33 45 31 32 39 27 26 42 31 34 31 41 26 43 36 27 25 33 34 37 28 30 34 29 43 34 37 30 42 41 33 29 30 40 30 31 34 27 35 42 31 29 28 34 38 41 32 33 41 33 25 31 24 38 35 28 32 41 33 41 34 33 34 30 39 33 38 30 34 31 28 41 36 25 34 39 39 34 29 23 36 33 28 33 31 33 26 35 35 24 35 31 38 20 34 34 23 37 48 34 38 36 24 33 37 29 35 31 46 34 31 36 43 35 28 37 41 38 34 42 39 28 41 33 34 27 27 37 40 31 30 31 29 30 41 32 28 36 35 36 23 41 38 23 40 25 27 24 34 31 34 29 25 30 28 29 35 32 28 39 29 36 40 31 31 24 32 34 35 32 42 37 33 37 36 42 39 24 45 29 39 27 33 33 34 38 50 35 37 33 29 31 41 35 34 33 28 42 39 41 38 21 29 36 33 24 42 29 36 40 30 37 26 47 33 31 38 27 25 43 36 29 29 31 31 25 32 35 24 37 41 41 45 27 30 34 30 29 30 30 34 39 26 27 31 36 32 38 37 24 35 22 29 29 28 36 27 29 31 40 33 26 43 28 24 28 33 28 32 28 30 34 28 31 29 34 35 30 24 35 32 44 25 26 38 40 37 37 32 35 33 32 29 26 26 36 25 31 35 36 27 30 35 22 38 37 32 39 32 35 32 36 30 40 31 33 36 30 34 33 41 26 25 33 37 33 29 41 29 38 32 43 27 35 22 24 31 41 42 38 39 40 33 37 27 27 45 41 31 44 31 30 43 31 37 39 46 35 28 43 29 35 35 31 47 39 47 37 28 39 31 43 31 28 25 32 34 39 33 33 30 35 26 34 33 29 24 39 27 29 32 38 40 31 39 31 32 33 32 35 35 42 25 46 29 30 35 31 43 37 36 26 30 32 26 31 36 35 36 28 34 35 28 29 35 35 33 41 41 34 28 29 35 34 17 43 21 40 34 34 33 28 38 28 25 37 40 31 28 30 28 34 29 25 39 35 32 27 40 26 41 25 23 43 27 24 35 30 45 36 32 40 31 33 41 24 32 40 32 31 34 29 31 34 33 30 31 26 32 24 26 39 36 38 28 37 35 24 36 29 29 43 36 40 30 43 27 28 34 28 32 32 27 27 46 33 33 30 29 33 33 37 34 29 29 43 31 31 43 31 29 31 30 30 24 32 35 37 41 28 32 25 23 35 39 28 29 35 38 35 34 32 35 37 33 27 36 42 24 30 29 25 38 30 30 30 38 33 47 32 30 37 36 35 34 33 24 38 33 29 25 28 27 35 32 33 35 32 33 38 36 32 39 30 32 36 25 36 25 32 35 30 36 38 34 33 25 32 29 40 38 33 28 27 32 31 34 34 33 27 25 48 32 30 34 21 34 41 26 35 32 29 30 30 34 40 34 29 36 24 32 25 36 38 34 28 34 29 38 33 30 25 33 31 32 40 29 36 35 28 31 28 28 37 32 34 30 39 38 34 37 30 35 36 26 37 30 37 27 29 29 38 38 28 27 34 41 32 43 31 38 37 31 35 43 30 34 36 34 30 32 27 37 28 29 39 34 32 28 35 28 27 37 29 31 26 34 36 38 40 35 32 36 25 32 27 27 42 31 33 41 34 38 32 33 28 35 37 30 36 27 38 38 41 33 35 29 47 28 38 35 28 28 35 29 28 26 37 30 39 36 35 27 37 42 31 34 41 31 34 30 30 26 26 36 31 42 33 38 34 25 31 43 35 36 33 35 38 39 39 34 29 24 41 28 48 41 36 31 33 26 39 35 26 32 37 33 34 27 37 39 34 46 33 37 40 42 29 28 37 22 33 22 45 31 29 26 34 23 29 38 40 36 24 20 22 29 20 36 37 37 40 41 31 34 33 38 30 43 36 30 40 41 35 34 32 32 33 35 32 34 35 31 43 40 26 32 27 39 24 39 26 27 36 31 26 39 28 30 35 33 28 38 23 41 36 35 37 35 24 34 38 35 38 29 32 38 33 37 36 40 55 41 42 47 32 32 41 37 22 31 33 29 35 23 34 35 34 31 39 30 30 39 31 28 35 45 34 27 34 48 32 29 32 40 28 39 37 34 26 34 26 32 39 24 32 34 37 31 34 38 48 31 26 29 24 30 29 29 41 32 23 35 30 32 31 42 33 33 32 27 31 35 38 25 27 42 25 37 31 30 34 44 37 35 29 40 31 43 36 32 35 39 35 29 35 36 31 31 32 28 45 40 31 39 29 47 24 32 32 32 34 37 28 43 35 22 37 30 35 29 29 31 30 31 34 32 37 32 34 27 31 27 45 34 35 34 36 37 34 24 39 40 38 32 31 27 32 34 38 36 27 33 26 26 37 43 29 40 36 28 39 29 29 29 35 37 35 28 31 30 29 40 40 38 31 39 33 33 38 38 35 31 31 40 30 27 31 30 33 32 23 19 33 31 28 36 32 37 28 34 32 35 28 31 35 33 23 40 44 25 33 38 26 31 39 36 25 36 52 19 40 40 39 39 32 33 28 40 34 32 37 35 35 29 30 24 31 23 33 24 38 25 39 38 31 29 30 35 32 35 29 33 25 32 38 37 35 33 32 39 34 29 47 34 25 28 37 30 31 34 33 33 33 30 36 27 44 27 44 33 17 42 32 34 34 34 45 26 30 38 33 26 32 23 35 25 24 40 37 35 34 31 36 29 42 25 22 34 38 32 23 34 32 30 34 25 34 36 31 29 31 26 29 20 37 33 35 31 24 34 29 28 24 48 32 34 34 25 32 48 33 33 39 40 34 29 29 33 28 28 32 39 22 35 29 35 44 33 32 35 38 36 36 36 44 31 24 32 33 33 44 32 36 36 30 37 26 28 35 35 29 36 43 26 41 28 36 30 29 27 32 30 36 34 33 31 37 22 37 27 37 28 29 37 37 27 26 28 27 28 40 29 28 31 35 41 40 37 39 33 25 47 36 34 31 31 26 43 43 36 30 40 36 43 39 43 32 25 39 37 32 23 34 30 41 25 35 37 32 33 44 39 29 27 33 23 34 31 32 32 35 35 40 35 31 27 30 27 24 34 29 36 29 38 46 34 32 40 29 31 34 41 23 30 39 28 29 35 28 38 42 35 30 42 39 42 30 38 37 42 38 34 35 31 33 52 41 30 42 37 31 32 33 45 33 29 30 45 32 36 33 44 30 37 30 38 26 42 34 39 44 26 31 29 42 34 36 33 29 37 27 37 39 15 37 30 28 26 23 29 37 38 28 40 21 31 31 20 36 40 41 30 27 45 34 40 43 36 33 32 29 32 32 30 32 39 37 35 29 35 28 36 41 31 41 30 42 42 37 29 27 43 35 25 29 34 48 26 27 39 34 42 20 38 46 30 29 29 30 36 25 27 28 37 18 25 32 40 29 31 41 28 26 32 48 31 30 26 34 40 30 33 32 36 26 33 22 30 32 33 35 34 38 34 37 28 37 36 42 48 33 28 34 37 23 29 39 48 28 39 23 44 29 44 27 39 25 41 28 35 46 39 37 24 39 33 25 34 37 32 35 25 26 32 32 36 26 31 30 26 47 25 37 29 35 34 36 26 36 31 33 25 36 28 35 24 27 43 38 37 35 33 37 22 37 31 50 25 31 25 42 39 25 41 45 36 32 31 37 37 27 39 32 26 31 33 41 32 26 31 29 32 35 34 34 31 48 29 27 25 34 29 30 30 30 28 27 23 30 34 26 34 42 21 23 35 35 32 27 46 24 28 32 31 25 25 35 32 37 29 28 24 38 44 37 37 39 26 38 34 33 32 33 37 33 25 37 32 38 35 32 35 35 29 28 35 29 38 36 28 28 36 38 38 25 31 24 36 35 38 28 42 34 22 35 33 40 31 47 28 31 33 34 33 27 33 38 38 31 28 35 33 34 41 32 25 33 27 34 27 53 33 31 43 33 28 21 32 30 36 40 35 34 28 33 32 39 29 32 33 39 35 32 19 31 31 37 34 32 38 25 43 35 36 37 32 30 38 28 33 29 45 30 40 38 36 29 38 41 18 23 32 31 34 35 38 38 44 39 24 33 33 27 41 29 28 43 32 34 43 34 38 40 27 50 25 27 35 31 29 37 24 31 34 29 33 35 33 35 35 34 34 40 33 35 30 29 35 43 25 31 38 26 37 42 30 35 37 36 33 31 28 38 42 38 26 47 34 38 32 34 31 31 30 34 35 39 35 38 36 24 34 35 30 39 40 26 36 49 37 35 22 24 26 34 38 38 29 29 30 30 45 30 34 41 41 37 36 37 25 34 36 38 38 26 33 42 29 23 20 28 31 29 24 37 26 34 33 28 36 33 29 35 37 29 35 35 41 30 39 35 31 34 36 49 36 37 35 26 31 30 30 28 25 29 23 33 34 34 33 25 35 38 38 38 41 33 27 41 46 40 34 29 40 39 31 32 39 27 35 30 29 37 38 36 30 35 48 35 43 32 30 24 30 35 35 25 43 36 34 36 34 35 31 35 28 31 40 34 39 41 38 27 30 29 30 40 40 51 26 28 32 33 36 36 29 37 30 35 27 48 43 31 28 29 27 34 37 38 38 29 42 37 37 36 38 29 35 30 34 28 35 34 24 33 23 37 33 38 31 31 37 34 24 34 34 31 36 32 39 30 31 37 22 33 46 41 34 28 31 28 42 38 45 40 32 27 32 32 26 25 43 21 44 43 33 32 44 25 36 39 33 30 31 34 32 33 38 32 24 38 19 39 46 34 33 33 35 31 34 36 35 25 37 29 43 38 32 26 37 24 33 39 26 27 34 29 27 38 37 41 41 39 41 33 28 33 29 37 17 39 38 39 40 28 33 32 30 33 29 27 32 37 25 32 26 38 23 33 35 37 35 33 35 40 27 32 29 44 36 27 34 34 27 29 38 41 35 35 35 30 39 35 34 39 32 41 30 30 31 34 19 36 43 23 43 27 32 25 30 31 40 33 29 28 30 33 22 34 23 42 25 34 32 25 34 32 29 41 36 31 30 27 37 38 31 35 35 30 36 43 38 27 32 41 28 35 33 35 33 37 24 31 36 34 34 39 38 31 28 34 31 31 39 45 25 29 30 37 27 44 44 34 31 23 35 26 30 34 29 38 25 33 23 38 37 30 26 29 31 40 31 33 29 37 40 35 42 28 40 21 34 27 43 37 39 32 27 29 34 32 37 31 28 34 20 33 33 31 40 32 28 29 32 44 36 30 28 38 28 32 38 26 38 27 31 42 35 29 32 38 35 32 29 40 32 26 39 29 44 41 29 25 45 31 25 35 32 29 34 32 39 38 33 43 27 39 36 28 26 32 30 34 30 35 28 47 36 32 34 33 41 24 24 38 35 36 29 24 40 37 27 43 39 32 29 34 22 37 41 26 34 34 35 37 27 34 35 24 31 30 29 32 33 38 40 43 39 32 20 34 34 24 37 32 36 33 48 19 40 35 39 24 39 39 26 42 31 32 44 29 26 29 28 31 28 27 28 36 30 29 48 28 30 33 30 32 39 31 37 34 27 31 35 29 34 33 41 33 29 35 36 44 27 34 41 32 31 41 28 34 33 33 27 31 40 34 28 38 43 31 36 43 35 42 30 25 36 36 33 29 35 31 36 38 32 27 38 32 28 27 35 39 30 28 35 27 31 40 31 31 31 28 22 31 38 50 35 39 28 41 33 22 41 25 42 40 32 21 32 39 35 31 30 31 38 42 26 39 34 37 38 37 30 37 27 37 30 32 31 34 39 46 40 25 28 40 33 32 30 31 21 31 41 44 35 29 25 28 35 33 34 25 34 29 30 43 37 28 37 29 33 37 33 27 35 29 28 31 34 31 30 31 31 33 36 36 35 36 35 34 25 40 37 28 28 23 28 32 33 30 34 36 38 28 31 40 34 29 38 39 29 26 46 28 42 39 38 27 36 39 32 30 35 34 23 32 37 34 43 42 30 40 39 34 26 30 29 34 34 42 39 38 27 30 27 28 36 33 39 40 32 33 35 28 33 47 26 30 41 39 32 40 35 37 33 28 32 36 32 21 36 40 35 37 34 28 25 33 38 46 38 44 30 29 41 31 35 46 37 27 43 29 33 29 34 36 29 32 36 42 35 29 31 31 32 23 28 25 30 36 32 37 29 30 24 34 38 36 33 27 31 31 29 30 28 34 36 34 26 31 33 20 20 33 44 28 37 27 29 25 38 33 31 40 29 34 36 35 37 37 36 35 26 29 26 33 40 28 28 27 37 42 34 31 29 17 47 35 37 31 30 33 30 35 29 29 35 29 27 32 27 35 35 46 23 32 32 30 54 41 36 39 26 32 42 40 30 47 27 29 31 28 37 34 33 36 29 31 30 36 27 25 35 32 24 34 30 41 35 26 34 25 44 37 30 27 36 34 37 32 41 37 30 33 24 51 32 44 40 36 38 34 26 39 42 36 33 30 42 28 32 25 35 28 25 36 36 28 33 28 29 33 31 39 36 33 36 28 27 25 39 32 30 30 29 46 31 35 39 40 40 36 37 39 27 28 39 30 37 35 25 32 38 16 42 31 34 23 29 43 38 34 26 38 36 31 32 27 35 37 31 32 28 23 39 34 37 37 36 40 28 36 35 29 36 32 33 36 32 38 19 34 30 33 35 32 32 26 37 29 34 21 26 36 41 31 39 30 32 32 29 27 32 36 28 34 30 40 28 34 24 26 32 29 36 28 28 30 33 29 30 36 48 28 25 31 31 31 28 21 30 33 38 33 31 37 27 37 38 25 30 34 37 36 21 35 42 41 36 35 26 29 32 42 40 31 32 35 32 35 35 21 47 39 35 23 43 31 37 37 34 27 28 38 33 36 28 38 28 34 30 34 38 27 33 38 37 42 39 28 32 39 40 27 26 31 31 36 39 22 22 33 37 31 38 34 25 30 39 32 29 35 40 49 31 21 30 26 31 38 32 28 35 41 32 43 26 39 33 24 29 43 25 32 31 27 37 39 31 30 33 28 29 25 26 32 32 34 29 45 31 36 27 35 38 31 23 28 24 27 40 42 29 37 25 40 35 33 32 35 37 27 29 31 39 33 37 30 27 27 33 34 26 36 36 29 38 33 42 42 29 23 32 37 32 48 43 35 38 31 25 37 39 42 28 43 44 33 37 34 18 30 31 31 37 43 32 27 28 32 40 41 36 29 25 30 38 39 33 24 32 36 30 41 44 39 36 34 33 29 25 31 28 34 35 29 28 23 29 35 36 36 24 32 37 38 35 36 27 29 32 35 31 28 28 40 46 34 40 32 40 34 22 28 39 35 31 36 27 31 33 26 33 36 29 34 38 39 34 25 37 29 26 34 35 36 35 43 31 33 29 32 38 34 36 32 33 46 33 36 28 45 38 34 37 28 33 27 31 26 37 31 28 29 24 35 32 41 30 32 35 29 45 31 33 30 33 30 42 42 44 27 29 30 35 35 33 35 41 34 38 48 38 34 29 36 37 40 42 24 44 40 36 37 39 28 36 35 29 38 28 27 32 34 19 33 32 37 27 46 28 29 37 30 34 32 23 33 28 30 30 36 31 39 32 28 31 30 31 38 39 41 47 40 30 20 33 34 47 27 23 34 43 33 36 34 44 31 31 34 28 33 31 32 41 42 37 38 37 40 30 34 31 31 37 28 25 35 33 35 29 27 32 41 35 26 19 33 44 22 26 28 27 25 30 35 39 32 24 37 29 36 29 27 39 29 25 48 39 32 32 40 28 41 30 41 30 27 42 28 38 26 35 36 34 36 28 39 27 39 33 34 31 34 45 35 34 39 26 28 26 38 33 38 32 31 31 45 30 49 36 30 35 31 45 21 34 34 30 33 29 35 24 35 32 34 40 27 30 39 31 34 34 37 29 30 31 39 34 36 31 30 36 36 40 32 27 30 38 24 38 47 30 32 28 30 34 34 32 37 45 31 33 23 34 30 50 33 32 36 28 20 38 39 28 24 32 27 31 29 32 36 35 22 29 31 23 31 35 34 33 31 26 31 19 28 44 37 41 37 35 27 33 41 35 40 44 31 30 28 32 28 39 33 31 34 27 36 40 38 35 25 37 28 30 30 30 33 38 28 34 36 31 33 34 30 22 29 33 39 38 29 32 45 30 42 40 35 35 38 32 26 43 43 33 31 25 42 34 45 34 30 29 31 28 34 31 48 30 36 44 42 33 33 39 30 33 36 28 35 23 29 39 24 48 31 29 27 43 33 31 25 22 37 31 45 30 35 32 46 27 27 35 35 38 38 27 31 29 32 31 29 32 36 33 41 37 34 36 38 40 32 35 35 38 31 36 31 43 39 33 30 31 39 28 34 30 33 31 28 27 27 36 38 26 29 29 32 31 30 41 38 30 31 27 29 26 36 30 39 34 25 37 34 38 36 32 41 35 28 26 33 41 33 37 34 35 20 25 31 43 28 33 31 39 28 33 30 37 33 30 24 24 24 42 44 41 35 38 38 34 26 27 28 27 38 36 31 33 36 25 37 31 32 40 30 26 37 32 35 36 32 42 34 31 35 32 31 42 36 30 37 36 33 35 27 26 31 38 22 44 39 32 30 34 32 40 32 40 28 26 40 38 34 30 46 46 36 32 36 25 28 37 32 35 35</t>
+  </si>
+  <si>
+    <t>JSB(3.6174278316656827, 6.363280134090099, -253.4630781358385, 1395.2141604978724)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336 275 302 266 275 227 230 231 144 245 297 229 231 279 217 212 301 262 307 233 396 237 305 302 299 185 239 269 336 268 232 226 267 255 259 233 302 237 139 260 287 278 277 253 192 263 277 241 245 298 293 214 146 298 234 361 274 242 244 223 279 199 261 267 226 115 187 175 146 270 418 199 278 205 177 228 319 241 287 195 276 207 154 245 235 243 238 249 157 260 303 241 131 207 222 165 233 257 270 259 280 178 315 293 278 202 276 179 407 293 243 219 266 299 277 197 255 154 248 275 262 216 317 225 247 281 166 245 232 273 230 241 248 234 248 396 199 170 343 271 172 229 193 183 240 215 257 326 194 302 253 232 297 210 284 212 215 290 149 236 197 235 237 248 317 332 177 236 287 255 275 256 371 235 182 176 204 222 284 245 200 400 113 338 220 235 211 262 210 254 224 230 371 248 291 235 259 233 217 239 272 225 192 312 248 288 275 228 307 222 262 325 358 255 261 193 303 231 293 224 348 306 197 239 333 297 254 164 238 246 276 273 179 306 282 275 183 306 288 311 245 229 208 227 192 157 250 315 207 253 258 207 232 248 184 249 236 279 242 294 323 259 179 236 243 250 198 292 337 251 211 167 246 377 254 320 222 151 346 241 203 239 261 257 318 319 246 197 184 224 178 278 255 282 219 160 241 238 270 308 245 236 207 229 213 333 119 233 292 297 278 177 160 295 349 354 265 344 277 332 207 248 340 323 266 158 236 199 216 232 191 230 287 340 280 336 113 256 306 302 218 263 251 182 195 302 188 179 220 148 221 304 300 175 336 300 237 238 209 242 221 298 285 217 345 243 275 326 305 174 302 252 220 306 303 197 254 292 216 224 307 232 254 269 192 236 286 205 281 235 217 196 268 213 246 310 246 309 197 162 384 245 192 257 295 305 267 249 241 233 362 335 289 223 296 254 331 297 195 250 178 316 321 224 212 205 254 270 330 250 231 174 304 209 318 226 249 215 188 270 266 189 279 310 257 285 382 354 266 238 325 249 212 252 288 215 304 101 282 363 196 217 306 207 282 243 238 248 230 357 191 169 310 284 241 261 156 276 183 200 167 269 131 395 289 293 343 270 201 329 234 279 295 258 283 137 335 227 245 329 252 229 337 267 220 261 182 274 250 278 251 277 214 306 275 320 218 216 280 205 272 287 184 183 282 289 167 189 249 216 221 372 301 193 320 281 215 261 317 264 265 195 276 248 181 254 308 309 309 239 203 295 224 212 279 270 207 273 292 286 307 203 258 334 262 180 275 190 198 270 172 210 256 167 189 431 195 248 231 229 132 270 302 235 200 368 193 257 284 262 200 240 166 161 300 269 169 164 276 344 265 295 298 335 224 324 199 298 273 228 309 250 290 216 242 235 204 242 294 201 246 284 255 211 264 270 276 265 218 246 334 227 267 233 229 230 265 160 241 254 286 223 212 340 295 338 332 197 209 221 236 325 227 192 300 266 253 222 205 180 296 327 208 325 265 264 298 231 158 222 268 202 224 273 278 175 198 232 187 305 253 209 306 298 214 223 252 205 242 250 206 346 251 201 219 222 298 348 200 310 228 193 348 222 217 202 276 247 207 199 288 280 316 299 315 248 237 282 293 205 255 263 248 226 282 278 262 277 278 287 263 151 214 244 180 282 279 233 135 248 194 298 275 131 297 364 213 220 183 274 256 296 294 250 227 281 249 238 234 272 249 295 284 287 272 160 170 234 283 229 283 313 216 262 222 350 174 334 313 328 212 271 288 275 231 193 209 321 180 241 240 151 226 243 178 242 224 277 244 191 196 183 211 279 243 226 209 209 223 201 230 192 256 326 265 251 215 204 180 253 215 159 200 264 217 247 185 280 140 371 199 292 310 268 204 313 254 284 366 174 211 382 206 265 246 248 213 347 299 184 322 327 224 274 227 180 182 204 233 199 273 207 288 199 286 247 309 275 243 284 198 322 310 375 220 171 266 295 315 287 214 290 254 194 234 261 286 314 206 252 246 179 295 185 365 213 196 268 213 194 205 227 251 321 328 233 277 317 164 227 232 361 185 266 284 334 187 191 214 237 250 295 182 255 263 327 226 287 196 202 241 184 272 307 269 150 215 340 197 226 285 284 214 203 332 217 311 317 272 214 271 341 234 195 297 213 308 320 291 227 301 206 359 286 233 250 168 261 297 282 206 223 272 180 282 280 319 355 256 230 238 283 230 174 292 178 277 271 226 268 267 294 208 195 301 241 294 208 203 290 323 195 143 250 266 234 195 264 342 353 271 260 318 366 306 178 261 347 287 327 265 258 248 295 258 178 230 254 152 298 185 270 296 242 289 196 255 289 230 277 247 207 244 224 332 201 316 233 227 282 262 287 220 153 218 244 238 241 337 202 150 273 229 150 197 347 182 272 283 192 157 232 256 226 299 221 214 127 194 259 246 216 282 219 314 266 242 302 202 198 299 304 216 322 295 255 196 241 362 204 226 256 301 234 178 220 170 231 208 232 172 269 238 345 326 250 254 233 164 290 254 247 186 196 217 309 226 265 211 234 168 173 352 198 260 199 232 139 227 255 246 249 141 412 268 244 231 269 190 248 234 270 335 246 234 233 246 329 289 233 249 226 383 355 314 199 283 190 285 200 300 263 126 311 318 217 301 291 252 309 314 292 324 166 283 167 230 230 199 151 257 215 312 198 278 260 286 232 204 292 266 271 244 171 265 328 284 316 213 156 323 232 265 289 312 158 303 279 206 256 277 371 221 186 313 308 276 270 200 292 219 295 182 209 280 166 136 244 327 238 280 258 221 194 380 215 291 267 211 355 279 201 277 217 239 197 191 174 230 302 215 237 198 174 319 250 263 218 136 244 285 188 200 205 267 261 203 258 181 266 247 234 317 292 149 235 222 346 213 235 232 271 183 218 280 236 244 326 250 280 365 254 298 180 278 196 223 313 251 255 260 300 254 283 193 242 277 230 356 287 316 96 318 193 292 295 227 257 269 313 290 301 320 301 352 336 255 201 324 171 287 318 253 336 315 300 119 258 191 225 279 219 246 133 259 307 162 279 267 275 187 318 252 214 264 228 252 279 345 218 270 376 196 183 261 172 251 150 316 348 238 287 247 338 263 222 266 258 229 233 245 323 282 312 214 235 282 252 220 187 388 181 190 310 310 312 204 244 192 363 164 272 366 307 215 203 310 305 295 334 240 200 241 261 260 227 180 202 235 378 270 313 205 171 299 276 281 276 231 220 275 340 235 117 333 250 271 210 300 246 199 261 255 225 272 354 210 250 234 286 205 265 320 228 145 270 194 271 211 240 195 283 289 237 267 201 212 257 270 238 209 233 254 217 214 237 235 245 308 346 248 304 273 287 346 301 297 209 316 247 247 334 248 299 247 300 261 253 183 268 256 298 330 269 279 223 328 327 261 270 153 193 315 266 233 254 297 225 199 201 210 201 339 222 160 209 273 359 292 400 254 221 326 235 257 238 260 175 368 214 239 290 165 207 225 238 290 227 278 251 345 272 316 312 210 254 273 258 275 213 307 270 271 236 180 303 282 260 239 251 299 249 257 317 225 254 240 202 239 211 308 312 344 170 269 254 203 275 249 165 298 279 291 310 310 236 188 168 297 259 275 229 194 269 253 322 219 259 199 276 326 231 239 160 258 290 169 334 232 297 238 306 308 301 236 219 361 308 188 156 237 253 285 286 287 222 275 217 219 146 174 245 296 273 209 285 254 243 288 253 292 243 251 304 286 266 220 314 209 311 256 229 241 304 237 265 240 175 209 320 262 295 184 173 219 183 258 224 272 243 256 243 430 336 307 190 204 294 282 269 155 358 180 250 292 323 197 287 215 248 227 261 281 165 230 263 314 201 197 242 294 190 294 172 176 287 211 240 252 190 233 250 292 334 296 274 326 230 209 274 226 279 282 178 270 347 239 205 278 184 248 158 337 213 164 175 307 241 253 302 199 278 275 277 208 342 339 201 274 163 213 263 222 256 190 313 201 275 158 261 301 321 269 175 299 136 243 236 209 283 239 248 229 213 319 259 219 255 180 279 222 247 296 403 217 194 144 218 261 235 300 222 348 309 228 288 221 236 308 245 233 268 368 209 272 242 234 169 305 263 232 350 302 295 202 298 180 247 219 268 225 192 341 194 316 263 184 249 216 199 261 336 432 284 257 319 189 220 285 217 291 290 293 303 326 338 289 241 149 241 230 219 188 256 213 320 243 237 327 280 229 272 268 355 246 211 227 249 199 255 293 200 164 319 206 190 242 159 347 209 179 219 288 249 259 261 194 365 271 205 312 234 241 140 340 295 221 271 277 264 239 248 239 280 306 255 265 315 280 271 271 168 235 360 350 252 209 206 238 232 154 268 285 254 269 247 241 321 233 297 250 262 273 312 178 267 297 236 177 174 253 305 264 223 260 194 252 218 176 362 233 262 241 210 284 187 217 210 261 201 261 263 309 216 275 223 193 362 232 242 245 228 293 178 220 171 242 221 264 246 260 243 227 323 199 343 206 228 150 293 286 188 181 210 226 279 356 312 176 307 259 250 251 307 260 228 149 180 215 207 250 267 193 176 230 236 241 283 332 232 282 258 255 177 158 216 203 275 186 204 171 221 357 207 258 238 323 249 202 284 273 245 306 268 258 258 359 226 246 222 232 236 392 311 247 368 154 283 291 187 256 359 175 242 298 242 202 313 332 297 177 239 310 267 248 154 225 249 327 227 202 195 273 291 233 303 269 285 194 258 360 236 215 187 295 260 283 291 292 303 272 286 283 303 317 275 155 270 205 252 345 176 281 244 271 328 287 227 133 253 286 172 266 257 266 297 256 237 267 185 257 194 261 154 234 179 190 200 317 210 291 247 197 299 211 173 240 271 276 251 290 253 280 192 266 302 327 284 222 259 224 245 205 348 275 313 254 261 218 264 237 151 277 272 310 169 204 275 325 254 369 257 205 268 209 270 209 313 311 230 320 260 301 209 270 221 252 297 344 169 262 304 322 285 295 317 278 298 275 276 224 143 233 247 258 253 194 239 237 274 262 283 323 277 269 250 228 286 275 304 317 314 221 214 287 266 254 245 214 208 211 267 249 183 223 196 250 245 267 196 281 317 270 306 232 243 364 351 320 234 256 141 189 239 269 228 152 174 334 250 236 320 208 280 244 241 282 247 293 224 225 319 309 198 176 195 230 250 365 228 226 238 318 220 207 278 205 233 329 288 180 306 315 231 209 305 246 210 257 212 299 222 250 309 235 254 282 122 236 187 264 304 273 190 322 266 221 205 203 187 321 294 230 258 193 282 305 345 304 239 179 377 273 294 276 196 277 360 231 221 306 155 245 267 192 228 229 233 279 270 221 303 280 253 171 247 144 290 224 186 205 351 229 138 355 247 155 231 335 303 196 266 312 269 215 214 260 295 248 206 195 196 308 189 204 199 281 159 283 240 194 276 278 235 255 125 302 224 251 209 266 178 303 309 304 183 226 219 252 200 302 321 277 310 259 268 224 324 304 316 299 277 264 290 314 288 228 170 235 378 237 295 275 259 273 227 289 164 291 284 259 189 320 262 193 180 229 287 291 184 181 180 297 250 170 287 304 306 320 355 253 353 268 215 229 199 365 234 179 185 262 180 246 197 211 269 226 275 352 264 272 264 244 311 159 235 207 300 238 154 222 249 236 180 263 280 184 283 354 254 278 250 209 334 178 201 190 326 282 292 198 292 224 381 181 188 297 211 173 158 290 207 179 224 191 195 240 293 253 282 257 231 285 215 319 192 239 234 284 190 274 260 276 269 265 308 240 236 240 273 359 248 293 177 250 377 154 241 228 328 306 222 411 231 211 191 164 270 283 235 264 311 246 290 186 323 249 219 271 311 196 154 265 279 187 272 208 224 284 277 315 231 299 267 208 342 251 238 194 262 223 247 192 326 218 221 211 246 318 247 188 244 259 322 327 313 280 265 248 245 273 240 353 216 100 308 191 312 236 262 251 223 248 273 324 316 277 231 258 330 333 266 239 299 176 247 211 279 204 260 267 274 311 300 253 182 288 279 294 232 306 259 259 210 241 250 195 190 219 231 209 205 288 232 266 275 161 233 288 254 213 334 280 252 258 312 202 224 227 274 295 273 230 223 233 136 296 261 336 219 201 262 295 169 154 150 303 226 292 244 234 192 188 264 209 263 258 205 281 183 216 221 303 306 201 383 351 304 235 194 282 345 345 265 300 307 246 275 224 190 290 263 316 250 214 173 255 267 244 197 254 158 261 222 292 335 225 216 262 299 201 350 320 311 315 201 232 242 254 235 291 246 277 259 180 297 236 274 235 300 223 217 236 160 208 313 251 222 273 222 180 241 125 245 246 174 302 275 265 313 239 241 323 197 239 376 162 219 238 153 183 219 347 225 210 206 341 316 257 243 177 294 239 244 303 275 291 224 243 225 445 217 250 288 247 232 248 288 230 234 260 316 252 320 228 186 205 167 359 210 288 324 306 270 287 223 263 232 217 166 361 206 225 235 199 220 302 342 283 202 260 298 159 310 220 254 231 235 235 208 344 299 217 280 237 207 275 257 231 195 222 228 238 297 280 185 242 231 236 256 240 244 203 343 261 256 257 195 211 241 219 163 207 241 315 266 190 237 248 334 280 237 263 242 194 297 319 209 209 269 269 309 226 342 208 232 276 223 267 244 343 289 172 259 257 301 225 260 283 277 252 263 233 207 269 257 291 210 229 284 165 273 249 371 196 234 144 291 306 201 283 254 210 218 325 234 303 332 231 232 181 316 292 148 176 275 261 238 287 196 348 267 274 291 162 299 230 207 285 230 237 294 284 174 239 232 306 244 298 181 240 294 242 216 290 287 307 208 279 283 189 200 207 228 264 252 220 305 233 240 212 260 301 297 244 273 213 266 227 237 214 199 261 249 307 217 171 339 281 271 177 213 386 245 252 212 287 200 260 255 249 251 255 319 235 324 264 235 255 254 215 270 239 236 243 258 233 229 322 343 226 268 191 210 252 291 201 272 239 245 170 236 365 337 206 300 321 253 277 260 208 211 310 232 304 330 319 231 229 313 232 198 229 250 273 331 251 337 291 326 314 167 223 284 232 344 255 289 307 232 289 186 271 260 242 142 387 218 262 281 211 280 249 262 234 267 293 292 284 167 246 271 258 243 196 210 298 198 265 237 294 250 263 200 290 222 314 228 309 153 166 272 274 224 212 162 364 168 215 188 178 216 272 271 267 258 289 251 220 307 254 239 177 227 240 329 192 273 195 250 267 217 270 305 267 281 311 273 261 235 225 312 380 159 132 198 253 251 153 282 267 246 266 245 283 294 223 245 394 349 237 301 255 187 166 198 281 280 266 234 274 276 210 275 308 199 256 306 208 320 288 251 319 247 254 267 278 258 286 293 208 242 254 204 213 203 276 225 238 317 234 270 211 249 233 268 210 252 233 150 271 438 230 182 211 265 259 208 249 204 229 140 358 287 312 318 307 331 252 297 245 184 274 238 200 236 272 227 195 339 278 225 259 279 221 280 194 430 260 314 342 215 239 292 266 208 284 232 301 268 287 302 295 239 275 239 248 290 270 278 314 239 273 224 299 178 275 222 199 274 263 211 295 193 266 231 249 273 275 187 334 321 255 198 243 261 223 237 214 249 313 310 249 244 244 317 287 209 205 347 243 239 248 199 228 242 252 361 245 418 270 270 356 288 199 240 233 287 246 258 448 258 333 233 261 193 296 281 251 304 300 253 184 196 269 232 195 182 233 226 277 210 304 294 248 300 173 176 307 199 242 265 203 181 269 228 236 288 428 229 221 310 183 238 322 278 221 150 317 300 319 254 284 94 344 195 253 296 304 303 264 322 332 297 274 221 271 266 260 308 230 335 189 268 222 262 265 254 292 287 222 346 278 281 246 245 320 204 239 258 216 92 332 285 272 240 294 273 172 348 279 250 274 253 271 207 349 243 292 295 251 263 225 224 274 275 344 266 256 265 244 237 174 246 188 210 218 250 282 286 296 249 330 193 269 291 267 268 208 273 330 263 290 291 253 278 243 314 304 189 166 299 330 192 264 314 279 301 273 280 205 229 268 279 237 230 204 344 221 137 355 323 226 321 252 297 278 265 219 310 252 261 300 331 194 306 223 265 224 234 217 231 220 230 190 325 206 172 292 143 354 169 228 256 200 320 200 250 214 313 276 223 235 241 192 300 227 209 273 266 320 204 158 260 245 310 237 264 207 204 263 229 274 338 299 260 211 174 258 222 219 183 276 313 221 289 262 210 216 327 275 221 222 233 226 269 165 287 328 300 251 235 312 267 217 242 288 264 209 253 259 264 217 210 307 280 249 237 201 291 223 247 250 289 337 261 188 302 170 235 241 207 269 247 251 284 198 278 306 235 228 276 262 290 226 242 265 317 275 172 275 259 310 238 184 212 257 323 202 268 197 205 225 198 266 266 251 230 247 198 209 228 165 308 244 251 234 186 217 287 246 150 171 309 259 189 259 249 220 280 165 273 252 294 262 130 219 279 244 375 232 315 262 260 268 214 256 239 245 271 256 290 221 269 277 244 291 272 207 269 235 292 231 216 234 277 245 235 349 290 225 263 377 230 228 220 261 224 263 258 198 195 263 237 254 244 295 338 226 251 229 304 247 148 307 257 206 216 212 244 225 308 198 177 300 313 273 287 228 307 236 186 244 238 213 272 193 240 220 138 255 276 169 196 381 335 234 261 224 273 206 247 146 243 260 264 292 240 271 262 310 185 259 209 265 229 242 309 245 297 285 316 203 235 288 248 271 310 301 161 264 259 317 331 260 242 220 165 254 274 283 134 152 224 217 271 275 196 251 262 296 225 274 259 200 307 242 246 213 184 298 300 261 199 205 236 263 215 255 315 154 315 281 241 303 270 198 226 272 276 308 238 241 283 228 248 234 267 175 212 259 297 294 242 198 154 245 279 342 156 337 269 237 229 277 188 209 243 252 322 224 291 244 310 303 245 257 290 258 265 301 348 239 154 241 215 231 246 231 174 248 320 263 344 241 205 254 216 188 229 288 298 243 189 316 255 275 227 248 264 197 165 267 344 324 240 201 214 212 179 187 307 310 262 251 168 297 199 223 284 292 292 212 238 212 190 261 211 252 270 181 286 242 179 261 279 184 317 233 245 259 277 254 278 228 249 198 215 339 278 332 216 280 242 320 377 216 285 294 278 300 219 309 222 244 271 271 245 197 246 177 201 177 194 264 258 314 292 278 275 213 150 248 282 254 226 249 106 224 195 251 257 259 220 266 232 268 258 259 300 278 248 251 243 391 213 286 230 280 165 274 309 206 201 363 255 223 259 193 228 278 218 198 171 214 197 305 364 280 278 243 250 288 306 299 260 301 241 239 190 252 325 333 214 234 190 226 252 258 349 248 279 179 251 268 266 214 218 278 303 309 227 216 170 264 227 356 223 255 233 242 253 262 228 221 271 197 310 241 211 255 292 227 257 236 257 335 292 219 326 327 344 248 211 213 242 173 182 289 260 246 298 139 276 266 281 203 213 220 328 266 252 313 241 267 217 221 232 164 281 228 259 254 255 216 249 193 293 249 269 272 269 214 245 245 297 212 238 339 337 240 215 253 260 269 165 204 268 302 210 297 331 206 302 275 304 214 216 255 173 162 218 339 303 208 236 263 247 254 209 240 159 284 317 341 298 230 228 296 149 156 245 230 275 288 190 226 179 205 261 206 223 340 213 323 217 190 213 314 164 242 234 237 266 265 229 259 307 235 249 138 211 286 159 269 213 179 213 233 276 303 246 267 144 214 194 321 180 173 205 182 311 272 221 161 249 219 276 273 226 219 287 201 249 221 254 228 186 272 392 256 269 196 203 251 261 212 189 211 307 184 194 158 207 274 241 264 302 200 275 267 280 240 197 388 167 187 253 241 196 248 294 256 145 228 226 205 183 260 228 144 281 334 282 207 334 285 207 335 206 236 310 187 225 244 258 192 196 150 356 198 176 242 284 269 243 274 219 248 356 212 198 391 275 228 225 351 254 232 177 232 232 193 153 161 233 274 284 205 298 249 257 251 231 217 181 288 300 247 249 230 207 287 317 225 220 280 150 164 266 178 274 268 198 249 265 351 208 261 196 195 132 270 238 283 308 215 178 201 226 209 216 268 239 223 266 267 285 225 330 181 318 292 205 200 198 317 208 270 258 209 321 303 251 237 150 262 314 261 173 219 202 236 236 230 312 315 272 202 261 274 274 250 219 319 257 239 314 285 131 264 213 248 158 255 323 278 203 296 196 237 235 250 283 306 336 263 257 342 292 386 287 341 196 273 266 316 204 197 179 254 237 234 227 227 269 351 218 228 271 201 207 254 226 305 177 248 265 289 223 141 264 296 273 294 201 295 217 238 179 236 244 239 239 262 308 277 296 301 220 214 335 250 219 208 258 162 269 208 302 262 225 246 272 250 215 212 247 161 178 280 275 244 278 155 238 204 272 251 304 286 170 223 229 294 182 136 312 207 337 271 275 247 135 270 281 183 293 299 429 308 252 320 271 217 244 274 264 253 196 287 240 312 203 228 176 261 154 298 138 207 282 249 248 172 202 303 258 321 215 277 252 310 225 267 224 219 231 200 263 225 246 231 242 254 228 271 137 373 269 154 310 224 177 242 169 299 176 232 263 265 229 298 180 345 168 259 342 354 245 182 295 199 278 209 319 272 277 246 303 188 262 183 156 246 369 273 252 297 223 254 203 268 323 257 276 306 235 188 280 237 212 259 311 339 319 265 199 178 230 238 325 258 235 238 325 252 262 225 257 183 318 244 193 197 258 213 135 191 305 337 214 270 288 346 221 308 255 237 214 272 261 269 293 154 275 205 202 302 279 244 316 180 196 258 207 260 281 235 257 243 214 251 247 347 267 267 323 288 252 218 293 288 160 296 367 177 228 212 274 234 286 231 172 256 189 167 232 225 188 316 275 259 355 236 266 259 239 328 155 298 205 259 255 278 222 226 254 144 280 257 285 332 192 314 315 338 318 270 199 206 215 296 256 219 300 290 243 204 238 184 327 239 243 248 235 293 209 302 344 205 309 317 247 256 254 311 207 259 355 251 222 211 233 290 234 168 247 246 262 201 221 179 344 265 180 219 342 309 208 253 352 222 290 239 175 209 221 336 260 229 245 275 304 309 322 173 244 259 329 213 285 299 230 205 259 300 349 182 232 290 212 212 304 229 289 228 235 221 255 297 207 188 303 240 275 211 289 245 272 256 282 204 303 252 273 195 323 308 157 212 222 268 295 253 194 347 200 304 257 232 213 339 279 194 315 176 137 303 278 250 278 266 259 207 211 254 243 288 207 296 338 256 277 246 268 198 283 278 247 248 301 250 266 187 228 224 193 238 282 256 304 370 256 331 262 250 197 247 235 325 339 195 212 256 260 274 219 258 327 133 214 323 297 358 201 353 185 240 227 185 135 274 237 158 205 238 239 252 305 294 214 227 216 271 178 251 323 329 191 243 215 253 232 253 318 302 200 185 252 242 398 329 190 160 238 324 206 273 306 303 313 249 248 158 231 343 265 369 219 216 220 356 214 290 259 193 277 256 302 314 203 250 322 301 240 301 218 267 229 224 292 307 318 292 196 304 190 286 215 295 285 282 215 255 309 250 238 244 253 316 317 253 242 402 274 223 256 327 199 306 273 152 276 192 273 231 249 277 196 248 235 287 228 301 204 284 260 199 289 283 288 287 393 247 253 295 243 265 234 295 242 181 207 189 265 247 256 398 236 193 301 312 309 188 193 170 332 314 335 210 229 253 162 186 175 180 226 265 252 282 236 254 328 210 269 253 243 231 188 280 263 208 154 233 276 201 200 248 327 241 277 263 174 262 237 311 232 244 284 290 339 311 218 238 234 322 345 232 229 188 237 233 227 320 231 290 247 222 205 294 283 288 248 173 355 263 279 263 246 204 290 135 239 235 206 371 226 188 300 216 252 248 288 265 265 317 231 242 244 242 223 301 244 291 283 237 232 141 332 204 206 222 270 198 285 259 133 216 200 334 149 251 271 280 367 332 256 259 253 187 221 157 258 348 285 304 221 193 303 235 279 188 161 321 281 231 274 286 244 257 233 270 331 165 268 312 264 288 261 231 251 312 196 212 292 230 329 314 274 301 267 216 221 244 279 210 294 196 193 346 267 256 310 321 209 249 262 244 246 242 322 234 272 223 320 196 176 165 260 220 211 202 273 270 261 299 266 201 241 238 217 202 352 287 252 279 295 183 324 208 181 217 207 285 304 233 342 164 246 271 289 311 191 313 177 299 244 273 260 351 175 267 226 229 284 298 235 212 211 349 154 280 271 276 253 239 221 259 292 213 256 324 283 215 211 194 182 294 337 179 254 274 339 296 260 277 166 213 238 249 261 222 281 253 219 166 262 187 316 306 279 180 264 277 229 186 204 279 254 199 183 295 236 250 312 316 346 267 251 230 293 227 248 294 242 261 275 328 300 163 223 278 299 253 194 250 354 241 218 167 184 248 334 205 193 250 302 251 204 155 261 274 227 228 187 285 281 212 201 266 342 346 204 267 313 282 271 266 169 247 294 321 280 324 312 255 358 299 152 261 245 284 207 292 202 317 153 308 200 255 295 266 184 273 261 301 243 181 254 317 202 154 277 224 298 345 225 199 293 282 266 269 245 234 251 169 244 295 250 307 285 288 270 281 332 219 262 322 261 263 223 253 343 229 168 304 220 185 337 299 212 276 343 304 229 274 281 249 207 323 295 297 273 321 332 322 171 309 263 320 184 206 299 176 294 260 189 221 196 234 306 213 246 306 236 205 306 269 247 267 246 228 299 220 216 260 389 190 295 194 271 189 203 249 301 273 254 286 250 203 141 291 369 284 275 224 284 174 225 260 216 235 287 388 230 222 201 320 222 273 263 258 297 265 269 289 249 210 286 242 218 323 245 202 243 176 170 259 242 290 303 297 299 222 205 314 232 231 199 289 295 284 243 222 267 286 172 328 289 321 206 251 164 255 264 284 323 306 241 338 281 177 314 334 253 172 261 211 288 234 254 208 186 365 184 256 208 185 184 250 231 248 286 275 290 194 194 229 282 301 283 228 293 241 224 313 294 198 265 267 325 193 260 267 334 184 259 136 195 279 286 181 327 171 218 268 254 220 247 337 231 207 223 226 178 216 296 182 300 257 237 277 267 258 251 258 310 286 307 267 314 250 226 309 293 207 241 164 200 211 271 210 251 274 197 244 201 290 350 250 216 128 282 248 340 202 253 253 197 276 217 315 235 312 191 262 274 195 202 234 303 250 248 243 277 304 211 309 182 225 250 236 234 260 305 232 219 159 218 196 135 265 262 237 200 253 304 237 275 190 235 336 315 278 304 335 219 202 191 276 354 146 295 311 282 258 354 310 230 197 391 213 232 276 233 248 170 274 204 280 298 225 301 307 122 341 229 244 232 300 222 308 267 244 106 222 295 176 225 195 230 206 286 313 271 300 235 243 238 264 215 208 319 314 306 286 258 244 209 208 259 213 196 216 227 303 197 301 208 218 159 215 265 324 275 287 310 283 159 323 272 348 297 279 240 259 231 192 280 258 231 233 204 235 171 172 266 282 258 359 268 190 223 299 231 233 254 259 153 211 406 222 220 306 249 205 251 253 308 310 151 279 151 212 260 220 318 202 159 232 215 277 207 356 282 268 254 318 289 187 175 203 185 236 188 271 327 259 265 219 259 159 205 247 233 284 292 253 298 287 221 251 267 273 351 272 214 180 340 260 178 179 314 295 254 275 232 133 284 307 217 203 328 330 177 235 335 302 328 315 290 257 319 246 316 186 179 218 323 271 195 185 223 309 202 268 183 184 215 332 223 288 307 306 327 280 228 160 248 246 205 193 328 199 321 252 203 199 320 266 246 239 201 261 195 317 282 370 253 340 271 260 240 217 333 215 232 236 226 257 336 202 235 221 307 307 274 205 247 318 285 227 221 163 315 314 210 247 397 197 281 330 247 270 264 286 241 384 289 300 267 196 299 301 168 326 239 291 275 205 228 303 271 175 227 213 223 157 259 282 198 251 240 251 161 253 305 157 235 349 295 344 273 207 258 212 259 300 247 328 199 226 290 350 256 245 286 288 310 261 345 284 235 316 245 258 131 232 293 247 280 208 257 157 235 261 246 249 276 259 350 205 297 310 171 314 207 198 177 246 248 265 260 219 194 184 276 251 200 189 264 229 202 284 284 241 146 243 294 291 208 330 345 236 310 262 344 268 206 236 255 273 219 259 206 303 269 299 285 207 160 301 267 350 252 225 228 194 323 292 286 337 162 205 256 255 132 305 216 291 346 210 245 224 362 294 129 276 293 188 315 252 212 267 250 243 241 271 234 211 286 306 324 363 227 329 265 164 201 271 176 286 298 259 238 240 224 252 281 332 163 281 158 228 288 194 322 226 255 230 326 283 86 368 208 279 208 230 198 271 253 240 275 226 192 249 304 217 284 213 151 201 364 230 188 276 340 257 327 234 294 311 298 249 175 193 233 187 251 278 290 191 236 325 192 352 340 247 294 233 277 233 314 277 293 318 210 306 211 301 224 306 183 216 190 343 289 259 289 198 258 244 276 201 307 165 160 264 319 344 243 257 326 276 291 220 209 259 243 196 232 205 243 255 288 257 267 353 277 179 350 218 265 284 233 338 304 295 335 211 192 216 298 269 234 184 269 287 310 275 277 275 282 188 278 214 246 177 242 260 247 340 302 296 177 301 227 187 272 265 230 275 309 208 262 165 218 288 252 344 229 272 214 291 228 154 208 288 221 255 276 279 277 205 239 273 283 245 333 278 301 206 264 273 260 145 327 128 284 260 313 289 169 258 298 159 240 251 215 179 212 223 182 237 205 305 261 311 180 277 184 352 193 185 333 234 169 285 180 251 241 229 344 220 329 379 230 200 288 218 237 231 251 181 241 250 178 335 166 226 190 197 293 253 278 214 259 278 164 252 196 222 262 261 284 256 294 240 191 245 197 217 205 162 207 384 259 274 207 225 228 238 248 233 247 269 333 267 282 300 249 225 186 237 224 153 272 312 290 260 192 310 187 146 242 317 172 216 243 249 307 307 275 298 325 243 145 261 286 183 271 273 217 283 224 212 241 292 238 268 230 250 302 238 293 222 240 110 255 216 212 155 208 194 255 306 273 300 207 246 273 301 283 215 229 195 261 159 256 199 235 293 226 256 332 252 236 152 231 187 237 260 239 228 178 299 250 282 230 224 233 177 407 254 216 255 131 228 285 269 279 281 210 205 243 227 314 261 211 281 166 239 264 234 239 254 238 308 233 273 227 184 230 308 268 157 273 265 286 274 247 198 212 157 253 191 206 215 228 345 298 352 258 296 256 186 248 270 224 233 252 271 324 327 227 223 220 373 234 331 217 283 221 239 328 319 207 331 376 269 258 221 197 274 255 197 286 311 227 216 240 306 195 312 228 253 196 243 264 252 297 267 207 310 173 278 210 186 258 283 283 318 273 289 257 247 263 265 285 243 252 201 296 302 345 204 274 246 283 186 299 259 215 178 312 250 194 213 222 238 346 254 273 237 306 317 301 297 322 254 220 256 268 227 207 280 229 286 242 270 249 237 208 337 261 267 244 200 228 300 341 292 143 238 296 210 344 167 285 302 224 258 272 249 204 231 280 227 272 197 307 279 252 398 278 319 333 323 210 267 305 190 236 161 278 249 221 194 253 171 239 245 348 256 185 99 139 184 160 205 214 256 337 299 292 194 193 292 254 289 289 263 349 330 226 250 221 259 248 334 317 222 295 267 309 323 176 204 199 287 193 320 123 227 276 195 177 294 263 193 261 261 239 264 136 255 218 296 264 289 146 227 298 260 263 177 246 312 308 348 271 233 366 338 323 392 268 218 227 304 216 199 242 240 202 231 234 281 210 261 307 207 246 239 218 216 245 347 296 225 256 303 222 251 262 318 269 341 242 304 176 260 195 255 276 202 289 292 336 221 232 321 382 251 250 191 200 210 245 225 288 289 219 268 239 214 195 346 231 246 292 209 265 234 329 182 253 272 119 268 211 205 239 236 260 289 235 257 255 303 236 240 264 257 283 232 270 249 221 244 185 256 253 239 272 255 177 359 166 230 225 295 219 257 260 354 242 186 345 222 316 270 194 270 239 245 218 233 300 232 269 245 251 232 363 263 249 220 287 316 277 169 285 238 293 249 269 171 192 212 268 248 194 260 138 240 336 369 227 281 283 251 271 219 160 207 207 329 251 230 240 223 222 293 298 277 298 220 278 210 265 313 224 185 264 203 227 238 209 246 304 280 113 117 264 185 193 258 239 276 266 239 272 276 191 216 302 222 211 376 244 111 292 316 255 314 321 267 159 259 316 157 333 391 331 278 224 230 231 252 270 238 289 290 213 184 276 188 257 169 263 206 280 179 273 348 264 168 251 312 247 274 268 170 172 344 326 334 227 273 238 230 283 195 346 324 163 172 293 269 164 235 254 270 291 252 257 242 347 178 315 340 119 328 258 260 265 257 363 198 223 243 280 242 276 205 182 144 190 336 327 252 302 227 282 248 276 230 168 236 314 243 187 269 219 225 318 214 239 241 274 325 249 138 182 202 374 170 274 305 205 314 146 230 144 326 273 219 236 220 230 277 177 234 296 254 249 237 331 265 163 248 327 340 155 184 197 296 307 215 269 279 286 240 261 268 374 254 186 190 240 164 395 172 296 216 206 268 191 265 258 303 286 252 346 226 312 231 233 287 258 250 237 245 250 305 307 215 297 130 252 180 332 204 166 251 245 174 253 229 220 202 382 223 200 185 279 243 219 308 337 225 209 376 262 276 255 316 232 320 326 342 254 267 271 278 300 302 261 244 212 264 243 175 322 260 247 213 263 325 259 245 307 355 227 196 281 179 238 225 237 232 263 255 329 339 287 235 220 190 193 284 201 269 208 238 369 322 252 335 228 176 275 233 170 244 260 234 206 245 180 254 285 282 253 311 308 264 257 264 313 287 256 280 293 270 229 362 298 242 353 286 222 238 223 320 247 248 186 288 265 260 268 288 231 239 249 275 237 324 295 271 230 224 293 190 345 205 310 253 223 283 219 272 249 137 189 268 187 218 224 214 312 250 179 312 139 216 249 183 260 273 307 196 271 269 208 336 273 237 303 293 184 334 235 178 314 268 276 297 233 300 210 332 355 215 326 256 359 331 294 204 235 296 257 140 210 276 309 223 250 280 261 209 148 255 296 252 192 154 224 203 205 226 260 258 108 202 217 319 271 250 307 216 211 225 404 285 189 192 221 304 181 211 258 283 166 243 150 225 252 271 251 270 241 240 248 216 303 252 309 413 303 267 218 248 169 220 319 310 212 256 161 351 222 302 158 262 192 291 176 326 386 281 335 185 282 270 182 252 278 197 234 272 175 318 224 280 203 231 215 210 299 250 306 246 271 290 252 223 274 178 229 195 209 299 307 156 197 275 318 321 237 310 242 179 294 234 341 241 166 196 287 284 211 305 369 227 255 228 262 283 208 288 221 177 267 287 256 279 214 236 225 265 287 231 291 256 374 256 236 214 185 249 231 240 251 216 149 245 188 228 187 237 397 115 206 217 239 235 164 289 205 230 302 269 197 187 331 231 264 210 239 237 265 326 222 322 259 173 257 308 262 255 260 240 247 209 317 263 311 244 274 261 237 186 265 282 286 301 223 259 199 248 216 287 218 259 158 305 261 331 190 266 316 172 198 264 255 238 300 182 233 263 271 283 200 234 277 207 271 203 335 257 271 282 260 195 239 157 298 212 359 272 259 317 256 236 166 232 250 281 231 254 274 223 172 213 277 306 188 247 320 292 186 166 255 233 231 203 210 336 167 266 284 260 259 271 215 283 207 264 244 276 243 347 305 287 241 323 304 116 179 240 208 205 230 270 242 359 348 136 207 217 214 274 235 177 300 222 283 223 289 258 262 253 343 192 250 243 267 215 269 235 228 220 283 314 176 234 228 246 256 372 357 176 251 238 197 256 303 192 220 289 233 323 249 296 231 260 303 255 232 206 270 250 230 249 296 267 258 220 244 239 288 243 230 287 286 197 244 246 257 257 255 257 279 273 211 282 334 327 273 147 166 179 305 238 219 187 196 238 236 295 273 204 333 332 302 261 354 212 286 300 278 335 202 271 358 263 206 200 184 265 230 177 256 254 274 184 195 247 205 260 263 247 169 341 287 346 196 299 277 230 283 296 290 315 270 261 201 259 198 269 234 178 229 239 283 253 264 257 208 222 277 331 288 273 275 216 319 357 347 294 222 286 335 220 318 274 167 318 245 227 232 257 298 256 275 316 275 278 314 266 211 233 224 213 166 328 239 327 273 295 223 205 298 211 252 349 264 249 359 315 236 256 205 193 260 284 308 226 210 242 195 175 252 234 338 229 279 209 </t>
+  </si>
+  <si>
+    <t>MIE(0.38294077049606234, 2.2030558781119254, -2.3334142685071255e-31, 1.327442020561428)</t>
+  </si>
+  <si>
+    <t>3 0 3 1 2 1 3 1 0 1 1 0 3 3 2 1 2 3 2 2 4 2 2 0 1 0 1 2 3 1 0 3 1 1 1 1 0 1 0 0 1 2 3 0 1 1 2 1 1 1 2 3 1 3 3 2 1 0 0 2 1 0 1 1 2 0 0 0 2 2 3 2 1 0 2 0 1 2 1 1 1 0 0 3 2 1 1 2 0 1 1 2 0 0 1 2 0 2 0 1 0 2 4 2 2 2 2 2 3 1 1 1 1 1 3 1 2 2 3 0 1 3 2 1 3 0 1 2 2 1 0 2 1 2 2 2 1 2 0 1 1 1 2 1 0 2 0 0 0 3 2 3 1 1 2 2 1 0 1 1 0 1 0 2 1 1 1 1 1 2 2 2 3 2 1 2 0 0 3 0 0 3 1 3 0 1 2 1 2 1 1 2 2 1 3 0 1 0 1 1 1 2 1 2 0 1 2 0 1 1 2 1 1 2 3 0 2 1 2 0 3 1 1 1 2 2 0 1 2 1 1 1 1 0 2 1 1 1 4 1 0 0 0 1 2 1 1 3 1 1 0 2 0 1 0 1 0 1 1 0 1 2 0 1 3 2 0 1 4 0 2 1 0 3 2 2 2 2 3 3 1 1 1 2 1 0 2 0 1 1 0 2 2 0 0 1 0 1 1 2 3 0 0 1 1 1 0 0 3 1 2 1 1 2 2 3 0 3 2 2 2 3 3 1 2 2 2 0 0 2 1 2 2 3 1 4 0 2 1 2 2 1 1 0 0 1 0 0 0 2 0 2 1 0 1 2 2 1 0 2 1 1 0 2 2 1 1 3 2 1 3 2 1 2 1 1 2 2 2 1 1 1 1 2 0 1 2 1 1 1 0 2 1 1 3 2 0 2 2 2 1 0 0 1 1 1 0 0 1 1 1 2 3 1 2 1 1 2 0 1 0 3 1 0 0 0 3 3 3 0 2 1 1 0 2 0 1 1 1 3 2 1 1 3 3 2 2 3 2 0 3 2 0 1 1 1 3 0 2 2 0 0 1 2 1 2 1 0 2 1 1 1 1 2 1 1 3 1 0 1 1 1 0 4 2 0 1 1 0 1 1 3 2 2 2 1 3 1 1 2 0 1 2 1 1 1 1 2 1 2 0 1 1 2 1 1 1 0 1 2 1 2 0 0 2 2 1 1 2 1 3 1 2 1 2 0 2 3 1 2 2 0 0 1 1 1 1 1 3 1 2 2 0 2 3 3 1 1 3 2 0 2 1 4 1 1 2 0 1 0 2 1 2 1 0 2 1 1 1 0 0 3 0 2 0 3 0 1 1 1 1 2 1 1 2 1 1 0 1 3 1 3 2 3 2 2 1 2 1 2 1 1 2 1 3 1 0 1 1 2 1 0 0 0 3 1 1 2 2 1 1 0 2 2 1 3 0 0 1 1 1 0 2 2 2 3 2 2 2 1 2 2 1 2 3 1 2 0 2 2 0 4 1 2 2 2 1 2 1 0 2 1 1 0 2 1 2 0 0 3 1 0 4 1 1 2 0 1 2 1 0 2 1 2 1 1 3 1 1 1 1 0 1 0 1 0 2 0 0 1 2 1 3 1 3 1 0 1 1 0 1 2 2 0 2 1 2 4 0 0 2 2 2 3 1 2 2 0 0 0 0 3 0 0 2 3 1 0 1 1 0 1 1 2 1 1 1 1 0 1 2 2 1 1 1 0 2 1 1 1 2 1 0 0 2 2 1 1 2 1 1 3 2 1 4 1 2 2 3 0 0 1 0 1 0 1 0 1 3 1 2 0 1 3 2 2 2 2 1 1 0 1 3 3 3 2 1 2 2 0 1 0 1 1 0 2 1 0 0 4 0 2 0 0 1 1 1 0 2 0 2 4 1 1 2 1 1 1 0 2 2 2 1 1 1 2 1 1 1 2 2 1 2 0 1 3 2 1 2 0 1 1 1 2 2 1 0 1 2 3 1 1 0 1 2 2 2 2 1 2 1 1 3 0 2 3 1 1 1 1 1 0 2 4 1 2 2 1 2 1 1 2 1 1 2 3 1 0 1 1 0 2 2 1 2 2 1 2 1 1 0 1 2 2 0 2 2 3 1 1 3 3 1 1 1 0 2 1 2 2 1 2 1 1 2 1 1 1 2 1 1 0 3 1 0 1 2 2 0 0 1 0 1 3 1 0 2 1 2 1 2 1 1 0 2 1 1 1 1 1 1 2 1 2 1 2 3 2 2 1 3 0 1 2 1 2 1 0 3 2 1 2 2 1 1 2 3 2 1 3 2 2 1 2 0 1 0 1 1 0 0 1 2 0 1 1 2 2 4 1 2 2 2 0 6 1 0 3 2 1 2 1 3 1 2 1 1 1 1 1 1 0 1 1 1 1 1 2 2 3 1 2 0 1 3 1 0 1 1 1 1 1 2 1 2 2 1 3 2 0 1 3 1 3 2 2 0 2 3 1 1 1 1 2 0 0 0 2 0 2 3 2 1 1 2 1 0 2 0 3 3 0 0 0 0 2 1 1 2 4 0 0 1 1 2 1 0 0 1 2 2 3 0 3 2 1 0 1 1 1 1 2 2 2 2 0 1 2 2 2 2 1 2 1 3 1 2 1 1 1 3 0 0 1 3 1 3 4 0 4 3 2 2 1 3 1 1 0 1 1 4 1 3 0 1 2 0 0 0 1 2 2 1 1 1 4 3 2 0 1 2 2 1 1 2 1 3 3 0 1 0 3 2 0 2 1 3 2 1 1 2 0 0 0 2 0 0 1 1 1 1 1 1 2 3 1 1 1 2 3 2 0 3 2 2 2 1 1 1 0 0 0 2 2 1 1 3 1 1 3 1 0 1 1 1 2 1 2 1 1 2 1 1 1 1 1 1 3 1 1 0 2 1 1 2 2 1 2 1 2 1 1 0 0 3 1 1 1 2 1 0 1 0 1 0 2 3 0 3 0 2 0 1 0 2 1 1 3 1 1 1 1 1 3 2 2 2 1 0 1 1 1 3 3 0 2 0 0 2 1 2 1 0 0 0 4 1 2 1 0 1 2 2 2 0 2 3 2 3 1 1 1 1 2 1 0 2 0 0 2 1 3 1 2 1 0 2 3 0 1 2 2 2 0 0 0 2 3 1 2 2 2 0 1 1 2 1 2 1 3 0 2 2 2 1 0 2 1 2 3 1 0 1 2 1 1 0 0 2 1 1 2 1 0 1 0 1 0 1 1 1 1 1 0 2 1 2 1 3 0 2 0 1 0 0 1 2 1 1 1 1 5 1 1 0 2 2 1 0 3 0 3 4 2 1 0 2 0 1 1 0 3 0 0 0 1 1 1 1 3 2 0 1 4 4 2 2 0 1 2 1 2 2 2 1 2 0 2 1 2 2 1 1 1 1 2 3 1 1 1 0 2 0 2 1 1 1 1 1 0 3 1 3 2 0 1 1 1 2 3 4 2 4 1 0 2 1 1 2 1 2 2 1 2 3 1 2 2 1 1 1 2 3 1 1 2 0 2 3 2 2 2 1 1 0 3 3 0 2 1 2 2 0 0 0 1 0 1 1 2 0 2 2 3 2 2 1 1 0 1 2 2 1 1 1 1 1 1 2 1 1 2 1 2 1 4 0 1 2 1 1 3 0 0 1 1 1 2 1 2 0 0 0 2 3 1 3 3 2 1 1 2 2 2 1 1 1 0 2 0 2 1 3 3 3 2 2 0 1 1 1 1 1 0 1 0 0 2 1 0 1 1 2 3 0 2 2 1 1 4 0 1 1 1 0 0 2 1 1 2 2 1 1 1 2 1 0 1 2 1 1 3 0 3 2 2 1 1 2 2 1 4 1 1 2 1 3 1 1 2 2 3 1 1 1 1 0 0 3 0 1 2 2 4 0 2 4 0 0 2 0 2 3 1 1 3 2 0 3 0 2 1 2 0 1 1 2 2 1 3 0 2 2 4 1 2 3 1 3 1 1 2 0 2 2 2 0 1 1 2 2 1 1 2 2 0 1 2 1 2 1 2 3 2 1 1 2 0 0 0 2 2 1 4 1 1 0 1 1 1 3 1 1 1 1 2 3 2 1 3 1 1 4 1 1 1 1 0 2 2 0 1 1 2 2 3 1 1 2 0 0 1 1 0 2 2 2 1 2 0 3 1 3 1 2 1 1 1 1 2 1 1 3 0 2 2 2 1 2 3 0 0 1 0 2 3 1 0 1 1 0 1 2 1 0 2 1 1 1 3 3 0 0 2 1 2 1 1 4 0 0 1 0 1 2 1 0 1 2 1 1 3 2 0 2 1 1 1 2 0 1 1 2 1 2 1 1 2 1 2 4 1 1 3 4 1 1 0 1 1 1 3 2 0 3 1 0 3 2 3 0 2 3 2 1 1 2 1 0 0 1 4 0 2 1 2 3 0 0 3 1 1 0 1 1 0 2 0 2 0 1 0 3 1 1 0 1 4 2 1 2 0 0 1 1 1 0 1 0 1 1 1 1 0 2 1 1 1 0 2 2 0 1 1 1 1 1 2 1 2 0 1 2 2 2 2 2 3 0 1 0 1 1 1 1 1 1 3 1 2 1 1 1 0 1 2 1 1 0 2 1 1 2 2 3 3 0 2 0 1 2 0 1 2 2 2 3 1 1 1 2 1 4 3 1 4 0 2 2 0 2 2 0 1 1 0 0 4 3 3 0 0 3 1 2 1 0 2 3 1 0 0 2 1 0 4 1 1 1 1 3 3 0 2 2 1 1 2 2 2 2 1 3 2 1 3 1 2 0 1 3 2 1 3 1 4 3 0 2 3 2 0 2 1 3 1 1 2 2 2 0 0 1 0 2 1 0 1 3 2 0 0 0 1 1 1 0 1 3 1 1 2 2 1 0 2 3 3 2 0 0 2 1 2 1 1 1 0 3 0 0 2 1 1 2 0 2 1 1 2 5 0 2 3 0 2 0 0 0 1 3 2 4 2 2 0 0 2 2 0 4 4 2 0 4 4 1 3 1 0 0 0 2 1 0 0 2 2 0 3 1 1 2 1 3 1 1 3 2 1 1 1 1 2 1 2 1 1 2 1 0 2 0 0 2 0 1 1 3 1 2 2 3 2 2 1 3 2 2 3 2 2 0 3 1 3 2 0 3 1 2 1 1 0 2 1 0 2 2 0 1 2 1 1 0 1 1 2 2 1 0 0 0 3 1 3 3 1 2 2 1 0 1 0 1 3 0 1 1 2 2 0 2 1 0 2 1 0 0 1 0 1 2 2 1 0 0 1 1 1 1 2 0 0 0 0 3 3 1 1 1 4 0 1 1 1 3 2 2 2 1 0 1 0 0 2 1 1 2 1 0 3 2 0 0 3 1 1 2 1 2 2 1 1 3 0 0 1 2 0 0 2 1 1 1 0 0 1 4 0 0 2 2 1 2 0 1 1 2 0 0 1 1 0 2 1 1 2 1 2 1 0 3 2 0 0 1 0 1 0 3 0 3 1 2 0 0 1 3 2 1 2 1 0 2 2 2 2 0 3 1 1 2 0 1 2 2 1 3 1 3 1 2 1 1 0 1 2 2 0 1 1 3 2 1 2 2 2 2 1 2 1 0 1 1 1 3 1 1 0 1 0 1 1 0 2 3 0 2 0 1 2 1 1 0 1 1 2 1 0 2 0 1 1 2 1 1 1 1 2 1 2 0 4 1 1 0 2 0 3 1 0 0 2 1 0 4 0 1 0 2 1 1 0 0 1 0 1 0 2 1 2 2 0 0 0 1 1 2 1 3 2 3 1 2 2 1 0 1 0 2 1 2 0 1 3 0 0 1 0 2 2 1 1 0 0 1 0 3 0 0 1 1 0 1 3 0 3 1 2 2 0 2 1 2 2 2 1 2 1 1 2 2 3 2 2 2 0 0 0 1 0 2 0 2 0 0 0 3 0 1 1 2 1 2 2 2 0 2 1 3 2 2 1 0 2 1 1 0 0 1 3 1 1 2 1 1 0 0 1 2 2 2 3 1 1 1 2 1 0 1 2 1 1 1 1 2 4 2 1 1 1 0 1 0 0 3 3 2 1 1 1 1 1 3 1 0 0 4 2 3 3 1 1 2 1 0 1 2 1 1 3 0 0 1 0 4 0 1 1 0 1 0 0 0 1 2 2 0 2 3 0 1 0 1 2 1 0 2 2 1 2 2 1 0 4 2 3 1 1 2 2 1 1 3 1 2 1 1 0 1 0 0 1 2 1 1 1 2 1 2 0 1 0 1 3 1 0 1 2 2 1 2 2 1 1 0 2 1 1 2 2 1 1 1 2 2 0 1 1 1 0 0 2 1 0 1 1 2 2 0 1 0 0 2 0 2 1 0 1 0 3 4 0 1 3 0 1 1 2 0 0 2 2 0 1 3 2 0 2 3 0 1 0 0 3 2 1 2 1 2 1 3 4 1 2 0 1 3 2 1 2 0 1 2 0 1 0 2 0 1 2 2 1 4 0 0 1 2 1 2 1 0 1 0 1 3 1 3 1 2 2 1 2 2 0 0 1 1 0 2 2 1 1 1 2 2 1 0 0 1 1 1 0 1 1 3 2 2 2 0 0 0 2 1 1 3 0 1 0 1 0 0 2 2 0 0 1 2 3 2 2 1 2 1 2 1 1 1 0 3 1 2 2 0 2 1 0 2 2 4 0 1 3 2 5 1 1 2 1 2 0 1 0 1 1 3 1 2 2 2 2 0 4 1 1 0 2 1 1 1 1 0 2 2 1 3 3 2 2 1 1 2 0 1 2 0 0 1 0 3 2 2 1 2 1 0 0 0 1 2 2 0 1 2 2 0 0 2 1 1 0 1 0 2 2 2 2 0 1 0 1 2 0 2 0 0 4 1 0 2 1 4 2 0 0 1 1 1 2 1 1 1 1 2 2 1 3 1 2 0 2 3 1 2 2 3 1 1 1 0 0 2 3 1 1 0 1 4 0 1 1 3 3 1 2 1 1 2 2 2 0 0 0 1 1 1 1 3 2 2 1 4 2 1 2 3 2 2 3 1 0 2 1 1 2 1 1 1 1 2 1 2 1 1 2 1 2 0 2 1 2 2 1 1 3 0 3 1 1 1 1 1 0 1 0 4 1 2 0 1 1 2 4 1 1 2 1 1 1 1 1 2 2 0 3 2 2 3 3 2 0 2 3 1 1 2 0 2 0 0 2 2 1 0 2 2 0 1 2 1 1 2 2 2 2 1 3 1 3 0 1 0 0 0 2 2 1 2 2 0 1 3 1 1 1 2 3 1 0 2 3 1 0 0 1 1 2 2 1 2 1 1 1 2 2 0 1 3 1 1 1 2 1 1 0 2 3 2 0 0 2 1 1 3 1 2 3 1 1 1 3 2 1 2 1 1 2 2 0 1 2 2 2 1 2 1 1 2 3 2 2 0 1 1 2 0 2 1 0 2 3 1 1 1 0 2 1 1 0 1 0 3 2 4 2 2 1 1 0 1 2 2 1 1 3 1 4 0 2 0 2 0 1 2 0 0 2 0 3 3 1 1 2 1 3 1 1 3 1 3 1 1 1 3 2 0 1 2 2 2 1 2 1 0 0 1 1 1 1 3 1 0 2 2 1 0 1 1 1 3 2 2 0 1 1 1 0 2 2 3 2 1 2 1 2 1 1 2 3 3 0 2 1 2 0 1 2 2 2 1 0 1 0 0 0 1 1 2 3 3 1 2 2 1 2 2 3 2 0 1 1 1 2 1 3 2 1 2 2 1 2 2 2 2 2 1 1 1 0 1 0 1 1 2 2 4 0 1 2 0 2 2 1 2 3 0 0 3 0 2 0 3 0 1 0 1 2 1 1 1 1 1 2 0 2 2 0 2 4 0 3 1 1 1 1 1 1 2 3 1 1 1 1 2 2 1 1 1 1 0 0 2 2 1 2 0 1 0 3 1 0 1 2 1 1 0 2 2 0 0 2 1 2 2 1 3 2 1 1 2 2 0 2 2 0 1 1 2 0 2 0 4 0 3 0 1 2 1 3 2 1 4 3 3 0 2 1 3 4 0 3 1 1 2 2 0 2 1 1 2 1 1 1 1 2 1 3 1 1 1 0 0 2 3 1 2 2 1 2 1 1 0 3 1 2 1 3 0 2 0 1 0 2 1 1 2 0 3 1 2 0 1 1 0 2 0 2 2 2 2 2 1 3 2 1 1 1 1 2 2 1 0 1 1 1 0 2 0 1 2 0 1 4 2 0 2 1 0 1 0 0 2 2 1 0 2 2 0 2 1 1 1 0 0 2 1 1 3 1 2 1 2 1 3 1 2 2 0 1 3 3 0 0 0 2 1 0 1 1 0 2 2 1 4 1 0 2 0 1 2 1 2 1 1 0 1 0 3 2 1 2 1 3 1 3 2 1 1 2 3 1 3 2 2 0 1 1 0 3 1 0 0 2 1 1 1 1 2 4 1 1 1 1 1 0 1 1 1 2 1 2 0 3 1 2 1 1 2 3 2 1 1 1 1 0 0 1 0 3 2 3 3 1 2 1 1 3 0 3 2 2 1 0 3 1 0 2 1 2 0 0 1 3 1 1 4 0 4 2 0 3 0 0 0 2 1 3 2 2 0 0 0 2 2 1 1 1 0 1 2 3 0 1 1 0 2 2 0 1 1 1 0 0 1 2 1 1 2 2 2 1 2 1 1 0 1 0 1 1 1 3 0 2 3 3 1 2 2 3 0 0 1 1 2 3 3 2 2 4 4 1 1 1 3 0 1 0 0 0 2 2 0 0 0 3 1 1 3 1 1 2 0 2 2 3 2 0 0 0 1 1 2 2 2 1 0 3 0 2 1 1 1 3 2 2 0 0 2 0 1 2 2 0 1 2 4 1 1 0 1 3 1 1 1 1 1 1 2 1 2 0 2 0 0 2 2 1 1 1 2 2 1 2 1 1 3 1 1 1 2 2 1 3 1 2 2 2 1 2 0 2 1 1 2 1 1 0 1 2 2 1 2 0 0 1 0 1 1 0 2 4 0 3 0 2 1 2 3 1 2 2 2 1 2 1 3 2 2 2 1 2 2 3 1 0 1 0 1 0 0 2 4 2 2 0 2 0 2 0 2 2 1 0 1 2 2 2 0 2 0 2 2 1 0 1 2 1 1 1 2 2 1 0 1 1 1 1 1 1 1 2 1 2 2 3 1 1 3 1 1 0 3 1 2 2 4 1 1 2 1 1 1 1 0 1 3 1 1 1 1 0 1 1 1 0 1 0 0 0 2 1 1 2 1 3 1 1 1 2 2 2 2 4 3 2 3 2 0 0 3 2 1 0 4 2 1 1 0 1 2 1 0 0 1 0 2 1 2 2 2 2 1 0 2 2 4 1 1 3 1 1 3 1 1 0 2 0 2 2 1 1 0 1 3 1 1 0 2 2 2 1 0 0 2 0 2 0 1 0 1 1 1 1 1 2 0 0 1 2 1 1 3 2 2 1 3 3 0 3 5 2 1 1 2 2 0 0 0 1 3 0 1 2 0 3 1 1 2 4 3 2 4 0 0 2 0 1 0 2 0 2 3 3 1 0 1 2 3 1 2 1 0 0 1 1 0 1 2 1 0 0 2 1 1 1 2 2 3 1 0 1 1 0 2 4 1 1 1 1 2 0 1 0 3 3 2 1 1 2 2 0 0 2 4 3 0 1 1 0 1 0 2 0 1 0 0 0 1 2 1 2 2 3 0 0 0 2 0 1 0 3 1 1 1 0 1 1 1 0 0 0 1 0 3 1 2 1 2 3 2 1 2 0 1 1 2 2 1 0 2 2 2 1 0 2 2 2 2 0 1 1 0 0 0 1 0 3 3 3 1 3 2 0 2 3 0 2 1 2 2 2 1 1 1 2 1 2 0 1 1 1 0 1 1 1 1 1 0 2 0 1 1 0 0 1 1 1 0 0 1 2 0 1 0 1 1 0 1 1 1 1 1 1 1 0 1 2 0 2 1 1 0 1 0 3 2 0 2 3 1 2 1 1 1 2 2 2 0 1 0 1 3 2 1 0 1 1 2 1 1 1 2 3 0 0 0 2 0 1 1 0 2 1 2 1 3 1 0 1 2 1 0 2 1 0 2 2 1 2 1 1 2 0 2 1 2 1 1 1 0 0 2 0 0 1 2 2 2 3 0 2 2 0 1 0 3 0 1 2 1 1 1 1 0 0 0 1 3 0 1 1 0 2 1 2 1 2 1 0 3 1 1 2 1 4 1 3 2 1 2 0 2 1 2 1 0 1 1 1 1 1 0 0 1 2 1 1 2 1 2 0 2 1 2 2 3 1 1 1 3 1 0 1 0 0 2 1 0 1 2 0 1 2 2 1 1 2 2 2 0 1 3 3 2 1 1 2 3 1 0 0 2 2 0 1 4 2 1 0 0 3 1 1 1 1 2 3 1 2 0 1 0 2 2 2 1 0 1 2 0 0 1 0 1 2 1 2 2 2 2 2 3 0 2 0 1 4 1 3 3 1 2 0 1 2 0 1 2 4 2 1 3 1 2 2 2 0 2 0 1 2 4 0 0 1 1 1 1 0 0 2 0 0 1 0 2 4 2 0 2 2 3 1 2 1 2 1 0 1 1 2 2 3 2 2 1 0 1 2 0 2 1 2 1 0 1 0 2 2 1 2 1 1 0 0 1 2 3 2 0 0 0 2 0 0 3 2 0 2 1 1 1 0 2 1 1 2 2 1 2 2 1 3 1 2 1 2 0 1 1 2 1 1 1 2 1 2 0 1 1 2 2 1 1 1 2 1 2 1 1 1 3 1 2 3 1 0 1 0 1 1 2 3 0 2 1 1 1 0 0 3 2 1 1 0 0 2 0 2 1 3 1 2 0 0 0 1 1 3 1 0 1 2 1 2 2 1 2 2 1 0 2 2 2 1 3 2 0 2 1 1 2 2 2 0 1 1 1 0 3 3 1 1 0 2 1 0 2 3 2 0 1 2 1 1 3 2 0 2 1 1 3 0 2 3 3 1 2 0 1 1 1 1 1 2 0 2 1 3 1 2 1 0 1 3 2 1 0 2 1 2 1 0 1 1 3 0 2 3 1 2 0 1 3 1 1 2 0 0 0 0 0 3 1 1 2 3 1 1 0 2 3 1 1 1 0 1 2 0 2 3 3 2 1 2 2 0 3 2 0 0 3 1 2 2 0 4 0 1 1 1 1 1 2 0 0 0 2 2 1 0 1 2 3 1 1 0 0 3 1 3 2 1 1 2 0 2 2 0 2 2 1 0 2 2 3 1 3 1 0 2 2 1 1 2 2 1 0 1 2 1 0 0 1 1 2 1 1 1 4 1 2 1 0 0 2 1 3 2 2 2 0 1 0 0 3 2 2 1 3 1 3 1 2 0 2 2 2 1 2 1 1 3 1 0 2 2 1 2 1 1 1 2 4 3 3 1 0 2 1 2 0 1 1 0 2 1 0 3 0 0 2 1 0 0 2 4 3 1 2 1 0 1 3 2 2 1 1 2 0 2 2 1 1 1 1 1 2 2 2 3 1 1 0 1 1 1 4 0 1 1 1 2 2 0 2 2 2 1 3 0 0 2 2 1 2 0 3 2 2 1 2 2 0 2 1 1 1 0 2 2 1 1 1 5 3 0 2 1 1 3 1 2 3 2 0 1 3 1 2 0 1 2 1 2 0 1 1 0 0 2 0 1 2 1 2 2 1 2 1 2 2 4 1 1 1 2 2 1 2 0 0 1 0 0 2 1 2 2 0 3 1 1 1 1 1 0 2 2 0 1 2 1 0 0 0 1 1 2 1 1 0 2 1 2 1 3 1 0 2 0 3 0 1 0 0 2 2 1 2 3 3 1 3 2 1 1 0 0 3 1 2 0 1 0 4 2 2 0 1 3 0 1 2 1 1 2 2 0 2 1 1 0 1 2 2 3 1 0 0 2 0 2 2 1 1 1 1 1 0 3 1 4 3 3 1 1 1 3 1 1 0 3 1 2 2 1 0 2 0 0 1 0 0 1 2 0 1 0 3 1 0 2 0 2 2 1 2 1 1 1 1 1 3 0 1 1 1 1 3 2 0 0 1 1 2 1 3 1 1 2 3 3 1 4 1 1 3 1 2 0 2 1 1 1 1 1 3 2 1 0 1 2 2 2 1 1 0 1 2 1 1 1 0 1 1 0 1 1 1 4 0 3 1 2 1 2 0 4 2 1 0 1 1 2 1 1 1 1 2 1 1 0 2 0 4 2 1 2 2 0 0 0 3 3 2 1 1 1 1 3 2 1 3 2 0 1 0 3 2 1 1 0 1 1 1 0 1 1 3 1 1 2 1 0 2 1 1 1 2 2 1 2 1 1 1 1 1 1 2 3 3 3 2 1 3 1 1 2 0 1 0 1 2 1 0 1 1 2 1 2 1 0 2 1 0 2 1 1 0 0 1 3 1 1 1 3 1 1 1 3 0 1 1 1 3 1 0 1 0 0 1 1 1 3 3 4 1 1 1 0 1 3 1 2 2 1 2 0 0 1 1 2 2 1 2 3 2 1 3 5 0 1 1 3 1 1 3 2 1 2 1 1 1 2 1 3 2 1 1 1 1 0 2 2 1 0 1 1 1 2 2 2 3 2 2 0 1 3 2 2 1 1 1 0 5 1 0 2 1 0 2 0 2 2 1 1 3 1 0 0 2 3 0 1 1 0 2 0 2 1 1 4 2 3 3 1 1 0 2 3 1 0 1 1 2 2 1 1 2 1 2 1 3 1 2 0 1 0 3 1 0 0 0 1 2 2 0 2 0 2 1 2 1 1 1 2 0 2 2 2 1 1 0 0 2 5 0 3 0 1 0 0 1 2 1 0 0 3 1 0 1 3 2 1 1 3 1 0 1 1 2 2 4 1 3 1 0 1 1 2 1 2 0 3 1 1 1 2 0 3 1 0 0 2 2 1 1 1 2 1 1 0 1 0 1 2 2 1 0 4 0 1 0 1 4 1 2 2 3 0 2 1 1 2 2 2 3 2 0 1 1 3 1 1 1 2 1 1 1 0 2 0 1 1 2 1 3 2 2 2 1 2 1 2 0 1 0 2 1 2 0 2 1 0 2 2 0 2 3 2 1 1 2 2 0 0 1 1 1 2 2 3 2 0 2 0 1 1 2 2 0 1 1 2 0 2 0 3 2 1 3 1 2 1 2 1 4 0 2 0 1 2 2 1 1 0 1 0 1 2 1 0 0 1 2 0 2 2 0 3 2 2 1 2 0 0 2 1 1 1 1 0 1 1 0 0 1 0 3 2 1 0 1 0 3 0 2 0 2 2 2 0 2 0 1 2 0 0 0 1 4 2 1 0 2 3 0 0 1 2 3 1 2 0 4 2 0 2 0 0 0 1 2 2 2 3 1 1 1 5 1 1 1 0 0 2 2 1 1 0 1 2 1 0 2 1 0 1 1 1 1 1 0 0 1 2 1 4 2 1 2 0 3 2 2 2 0 1 1 2 1 1 3 0 1 1 1 2 3 2 2 2 2 1 1 0 0 0 1 0 1 1 1 1 5 0 1 0 4 0 3 1 3 2 3 1 1 2 0 2 0 1 2 0 0 0 1 3 1 3 0 1 1 0 0 2 0 0 0 4 1 0 3 0 1 2 1 2 2 1 2 1 2 2 2 2 1 1 2 2 1 2 2 0 2 1 3 1 1 3 1 0 1 1 1 3 1 1 0 1 3 1 1 2 2 2 2 2 1 0 3 1 2 2 0 0 1 1 0 0 1 3 1 3 4 1 1 0 1 0 0 3 2 1 1 0 1 2 1 2 2 0 1 2 1 0 1 3 1 0 2 0 2 0 1 1 1 0 3 1 1 3 3 2 3 0 0 1 1 2 1 0 1 2 2 2 0 3 2 1 1 0 1 1 1 0 3 1 1 0 1 0 1 3 1 1 2 0 0 2 2 1 1 2 1 2 2 1 2 1 2 1 1 2 6 1 1 3 1 2 3 2 1 0 3 2 1 3 1 1 1 2 0 0 3 2 1 3 2 1 2 3 1 0 1 1 2 3 3 1 2 3 0 2 1 1 0 1 1 0 2 0 1 1 1 0 2 1 4 1 1 3 1 2 2 2 1 3 3 4 1 2 0 0 0 0 2 0 1 3 1 0 0 0 1 1 2 2 1 2 0 1 4 1 2 1 0 0 1 1 1 3 2 2 0 2 2 1 0 1 2 0 2 1 3 0 1 4 0 2 2 2 3 3 3 0 1 3 1 1 2 1 1 1 2 0 2 1 1 0 1 2 4 2 0 2 0 3 0 1 3 1 1 0 0 1 1 0 3 0 1 1 2 1 2 1 2 2 0 2 0 0 4 0 2 2 2 1 0 2 2 1 1 4 1 3 1 1 1 0 1 0 1 2 1 1 3 1 3 0 2 0 1 2 1 2 0 3 1 2 1 0 1 3 0 1 1 1 1 2 1 1 1 2 2 2 1 3 2 0 0 2 0 1 3 1 0 3 2 1 1 2 2 0 1 2 0 1 2 1 1 2 2 0 0 2 1 1 2 2 1 3 1 1 0 1 2 0 1 1 2 1 4 1 2 1 1 3 1 1 1 1 0 0 3 1 1 2 2 0 1 3 1 2 1 1 1 2 1 1 2 2 1 4 1 3 1 1 2 2 2 2 1 0 1 0 0 4 1 0 2 1 3 0 1 3 0 4 2 1 4 3 2 2 0 1 2 1 0 1 4 3 1 1 1 2 1 1 2 0 1 1 1 2 1 2 1 3 4 0 1 1 1 1 3 1 2 0 2 3 2 0 1 3 0 2 1 2 2 1 0 0 0 1 1 1 0 2 2 0 1 1 2 0 2 0 0 2 1 2 3 2 2 1 2 1 2 2 1 0 2 2 1 2 1 2 2 2 1 1 1 2 1 1 3 1 0 1 2 1 0 3 1 2 0 2 0 0 3 1 1 1 3 0 0 3 1 0 0 0 0 1 2 1 1 1 3 0 2 1 3 1 1 1 1 0 2 1 1 1 1 3 0 3 1 1 2 1 3 2 1 2 1 0 1 1 2 2 4 0 3 2 0 1 0 2 0 0 1 2 1 3 2 2 1 1 1 0 0 1 0 0 2 2 2 0 1 1 0 3 1 1 2 2 2 1 1 1 1 2 0 2 0 1 1 1 0 3 2 2 2 1 1 2 4 2 2 1 2 2 3 3 0 4 3 1 0 0 0 0 2 2 1 2 1 0 0 1 2 0 1 4 1 2 1 0 1 1 1 1 3 1 2 2 1 1 2 2 2 2 2 1 1 0 2 0 2 2 1 1 1 2 3 1 0 2 2 1 1 1 0 1 1 0 0 2 1 2 3 3 2 2 1 0 1 0 2 1 0 2 2 0 2 1 3 1 3 1 1 2 4 0 0 1 4 1 4 2 1 2 3 1 3 1 0 0 1 0 1 1 2 1 3 1 2 1 1 1 1 2 1 1 2 0 2 0 0 1 1 2 2 2 0 2 3 1 3 0 2 2 0 3 2 2 1 1 0 2 0 2 2 2 1 2 1 0 2 2 1 2 2 2 1 1 1 0 1 3 2 2 2 1 2 2 1 1 0 2 0 2 1 1 2 2 0 0 1 1 3 2 1 1 4 0 2 3 1 3 2 0 1 2 1 1 2 2 2 1 1 1 2 0 2 0 3 2 2 1 1 4 1 1 1 1 1 0 1 1 1 1 2 4 1 1 0 1 2 1 1 2 1 2 2 2 0 1 2 2 2 2 1 1 1 0 1 1 1 2 3 3 2 2 2 3 1 1 0 1 0 2 2 0 3 1 2 1 1 2 2 1 1 0 2 1 2 2 1 1 1 0 1 1 2 4 1 0 0 1 2 2 0 2 2 2 0 0 1 0 2 1 1 1 1 1 2 1 2 0 1 5 2 1 1 1 2 2 1 1 0 1 0 1 1 1 2 1 1 1 2 1 1 0 0 2 0 1 1 3 1 0 2 2 2 2 0 0 0 0 0 2 1 2 3 2 1 0 2 0 3 1 2 1 2 1 1 1 1 0 1 1 0 0 2 2 3 1 0 2 2 2 0 2 1 2 1 1 1 2 0 1 0 1 1 3 1 0 2 0 2 0 2 1 1 1 2 1 0 2 1 3 1 1 2 1 1 2 0 3 1 1 0 0 1 4 1 3 1 4 1 1 1 3 2 1 1 1 1 1 1 2 1 2 1 1 2 2 2 2 1 1 2 0 1 0 1 1 1 3 0 0 0 1 1 1 1 2 1 3 0 3 3 1 1 1 1 2 1 0 0 0 2 1 1 1 0 1 1 2 2 0 1 2 1 1 2 1 1 0 3 2 1 2 2 2 4 3 1 0 0 0 1 1 3 1 0 1 0 2 2 2 2 2 1 1 1 3 0 1 1 2 1 2 1 0 3 2 0 0 0 1 2 2 0 1 0 3 5 1 1 1 0 2 0 2 1 0 1 1 1 0 0 3 1 1 3 3 1 1 1 0 2 2 2 2 2 2 2 1 1 1 0 0 0 1 1 0 0 1 2 1 0 1 2 1 0 1 0 2 1 2 1 0 3 0 0 2 1 2 3 1 1 2 0 0 2 1 0 1 1 2 2 0 1 1 1 2 1 0 2 3 1 1 1 2 1 0 2 3 2 2 0 2 1 0 1 0 2 0 1 1 1 2 1 1 2 2 3 1 2 1 0 2 1 2 1 1 0 0 0 1 2 2 2 3 1 1 1 2 2 1 2 0 2 1 0 3 1 2 1 1 2 1 3 0 2 1 1 2 2 1 0 1 2 1 1 3 1 0 2 2 0 0 4 1 2 1 1 1 2 2 3 3 3 0 0 3 6 0 1 1 1 2 1 1 3 0 0 2 4 1 2 2 3 0 1 2 1 1 1 2 2 0 1 2 1 1 1 2 0 0 1 1 1 1 1 1 2 1 0 1 0 3 1 0 1 1 0 1 2 1 1 0 1 1 3 1 1 0 2 1 1 1 1 2 2 2 5 1 1 1 2 2 3 1 0 3 1 1 2 1 2 0 1 1 1 2 2 2 1 2 2 3 2 1 2 3 1 5 1 1 1 0 1 1 0 0 1 1 1 1 1 3 1 0 1 1 0 1 0 1 2 1 0 3 0 0 2 3 2 1 4 1 1 1 1 3 2 2 3 1 0 2 1 3 1 0 1 3 0 1 0 0 0 1 1 1 1 1 1 3 2 1 1 1 1 1 0 1 0 2 1 1 2 0 2 1 0 1 1 3 0 1 0 2 1 3 1 1 0 1 3 1 1 3 4 2 1 0 2 1 2 0 3 2 1 2 2 1 0 1 4 4 0 1 2 1 1 1 2 0 0 1 4 2 0 0 2 1 2 1 1 3 2 0 1 2 1 0 0 1 1 0 0 0 3 2 1 1 1 1 0 0 2 0 0 2 2 2 1 2 0 1 1 0 2 1 1 1 2 3 0 3 4 2 0 1 2 4 2 1 0 1 1 0 0 3 0 1 0 3 2 3 0 1 0 2 1 1 1 1 3 0 1 1 1 3 0 2 2 0 1 1 2 0 0 2 1 1 0 1 1 2 0 1 2 3 0 0 1 1 1 1 0 2 1 2 0 1 0 2 0 2 2 2 2 0 3 1 2 1 0 2 1 3 2 1 1 1 3 1 0 2 1 2 0 1 1 1 0 1 3 0 0 0 2 1 0 0 1 1 1 1 2 5 1 1 1 1 1 2 1 2 1 2 0 2 0 2 1 2 0 2 1 1 2 0 2 1 1 3 3 1 2 2 1 2 2 1 0 1 0 0 0 2 2 0 0 2 2 2 0 4 1 2 3 1 1 0 1 0 3 0 0 1 0 2 1 0 2 2 2 0 0 0 2 2 2 1 0 2 0 1 1 1 0 1 2 2 2 3 0 1 1 1 1 1 1 1 1 2 1 1 0 3 1 1 1 2 1 1 1 3 0 0 0 2 2 0 4 1 2 1 3 2 1 0 1 0 1 3 3 0 0 2 2 0 3 1 3 2 1 1 1 2 1 2 1 1 0 0 1 1 1 1 0 1 2 2 0 1 1 1 0 0 2 1 3 0 0 1 1 1 0 2 0 0 1 0 0 0 2 1 4 1 1 1 2 2 1 4 1 1 4 0 2 1 1 1 0 1 2 2 2 1 1 0 1 3 1 0 1 0 1 2 0 0 3 2 0 1 2 2 1 2 4 2 1 2 1 1 1 1 4 2 0 0 2 2 3 1 2 2 1 3 2 1 1 2 0 1 0 1 2 2 3 0 0 1 1 1 0 1 0 1 2 1 1 1 2 2 2 1 1 1 1 2 0 2 0 0 5 0 3 1 1 2 2 1 2 0 1 4 2 1 2 1 1 2 2 2 1 0 0 0 1 0 2 1 1 1 1 2 1 1 0 1 0 2 2 0 0 1 2 4 2 1 1 0 2 1 2 3 1 0 2 1 0 0 0 5 1 0 1 2 1 0 0 2 0 4 1 0 0 0 1 1 1 3 2 1 1 2 1 3 2 1 2 1 2 2 1 1 1 0 4 1 1 0 3 2 2 2 0 1 1 1 2 1 1 2 1 4 2 2 3 1 2 1 2 1 1 1 2 1 0 2 0 0 0 0 1 0 1 1 3 0 0 1 0 2 3 5 1 3 1 1 1 1 0 1 1 0 0 1 1 0 2 1 2 2 0 2 3 4 2 0 1 3 0 2 1 3 2 2 1 3 3 2 0 1 1 1 0 0 0 2 3 1 0 2 1 1 1 0 1 3 1 0 1 2 0 1 1 1 3 1 0 2 1 1 1 1 2 4 1 1 1 0 2 1 2 2 0 2 0 1 2 3 0 4 0 1 4 1 2 0 1 1 2 1 2 2 1 1 1 1 0 0 2 1 1 2 2 1 3 1 0 1 1 1 3 0 1 0 1 2 2 1 1 1 0 2 1 1 2 1 2 0 1 2 0 0 2 1 1 1 1 2 0 0 0 1 4 1 0 1 3 4 0 1 3 2 2 2 1 1 0 0 2 2 2 1 0 2 0 0 0 1 0 1 2 0 0 1 1 2 0 1 1 2 1 2 2 2 4 0 3 1 2 3 2 2 2 1 3 1 0 0 2 1 1 2 1 0 2 1 1 1 1 1 3 1 1 0 1 3 0 1 2 1 2 1 0 0 1 1 0 3 1 4 1 1 1 2 0 0 1 1 0 0 4 1 0 0 1 2 1 1 0 1 1 0 0 0 3 0 1 4 1 2 1 1 0 2 0 1 2 3 2 2 0 1 1 0 2 0 3 0 2 2 3 0 1 2 1 2 1 1 0 1 1 1 2 2 0 2 1 2 3 1 3 1 2 2 1 2 0 0 2 1 0 1 1 2 0 1 3 2 2 2 2 1 0 1 2 1 2 1 2 1 1 0 3 0 0 1 0 2 1 1 1 1 1 2 1 1 0 2 1 0 1 1 1 1 1 0 0 0 0 1 0 1 2 1 1 4 0 1 1 2 1 2 1 0 2 0 1 1 1 2 0 0 0 1 0 1 2 0 1 0 1 1 1 0 1 0 0 0 1 1 1 1 2 3 3 1 0 1 0 3 2 1 2 2 4 2 2 1 2 1 0 2 0 1 1 1 1 2 2 1 1 2 3 1 2 1 1 2 3 0 2 1 2 1 1 2 1 1 1 1 3 3 1 2 0 1 1 1 3 4 3 2 2 1 2 1 2 1 0 1 0 1 0 3 1 2 0 2 0 2 0 0 0 3 1 1 2 0 3 0 1 2 2 2 1 1 1 1 2 1 1 1 2 2 3 1 0 0 0 0 1 1 3 2 1 2 1 1 2 0 2 3 1 2 2 1 3 3 1 0 1 1 1 1 2 1 2 1 2 2 0 1 1 0 2 2 1 1 2 3 3 1 1 2 3 1 1 1 0 1 0 1 2 0 1 1 3 0 3 2 2 2 0 2 2 3 2 2 1 1 1 2 1 0 0 1 0 1 3 2 1 1 0 1 1 1 1 2 3 2 1 0 1 1 0 3 1 2 3 1 1 3 2 0 1 2 1 0 1 0 2 2 0 0 1 1 1 0 2 2 1 1 0 1 1 0 1 0 2 1 0 2 1 1 2 3 2 1 1 3 0 0 1 0 4 1 0 1 1 1 1 2 2 2 0 2 4 0 1 2 3 0 1 0 2 3 0 1 1 1 1 1 2 0 1 1 2 2 0 2 1 1 1 2 0 1 2 1 0 1 3 0 0 1 1 1 2 2 2 0 0 2 1 1 0 0 3 2 1 1 1 0 1 1 2 0 1 2 1 0 2 0 0 1 1 2 2 0 1 0 3 2 1 1 1 1 3 3 0 1 0 1 0 0 2 3 2 1 1 2 0 1 1 1 3 1 1 0 1 2 1 2 0 0 2 0 1 1 2 0 2 1 1 0 0 0 3 1 1 0 0 2 1 0 0 0 1 1 1 1 3 1 2 1 2 1 1 1 0 1 2 2 1 1 2 3 1 1 1 0 2 0 1 3 2 2 1 1 2 2 0 3 0 1 0 0 1 2 1 4 3 0 0 0 2 0 3 1 1 2 1 0 2 2 1 1 0 2 2 0 1 2 1 1 0 2 1 2 1 1 2 3 2 2 3 0 0 0 3 0 1 0 1 1 2 0 1 1 1 2 1 2 1 0 2 3 2 2 4 0 2 2 0 1 2 0 1 1 2 1 4 1 1 1 2 2 0 1 2 2 1 1 1 2 1 0 2 1 3 2 1 2 3 1 0 1 4 0 1 3 0 3 2 1 1 4 2 2 0 1 0 0 0 1 2 3 0 1 2 3 3 2 0 1 3 2 0 3 1 0 0 1 1 2 2 1 3 0 0 0 0 0 1 2 2 0 0 1 3 1 3 1 1 2 0 1 0 4 2 1 2 0 2 0 2 2 3 2 1 0 2 2 2 0 1 1 1 3 1 1 6 1 1 0 2 2 1 3 1 1 0 2 1 1 2 2 0 3 2 1 1 2 0 1 0 0 2 2 0 1 2 0 1 1 1 3 1 3 2 1 4 2 1 1 0 2 1 0 2 1 0 2 3 2 1 1 2 3 3 2 1 2 1 4 3 1 2 1 1 0 4 0 1 2 1 1 2 1 0 1 2 0 2 0 1 1 2 2 0 2 2 1 4 0 2 3 2 4 2 0 0 1 1 1 1 0 2 0 1 3 1 1 1 1 2 3 1 2 1 1 0 2 2 2 1 0 1 2 1 2 1 1 2 0 3 2 2 2 1 1 2 2 1 1 0 1 2 1 1 2 1 0 2 3 1 2 0 1 2 1 3 1 0 2 1 2 4 1 3 1 2 0 0 1 3 2 0 0 1 2 2 1 0 0 2 1 1 1 1 4 1 1 1 3 1 1 1 1 1 0 2 2 4 4 2 2 1 1 2 3 0 2 1 0 1 0 2 2 1 0 3 3 0 2 2 2 2 2 0 2 1 2 0 1 0 0 0 2 1 1 1 1 1 3 1 0 1 1 2 1 3 1 2 0 1 0 2 1 2 3 0 0 2 3 0 0 1 1 0 1 3 1 2 0 3 1 1 3 0 0 1 4 2 0 1 0 2 3 1 1 1 1 2 0 1 1 0 0 1 2 2 3 1 2 1 2 0 1 4 1 3 3 2 1 1 0 0 2 2 1 2 2 0 1 0 2 0 1 1 2 0 2 1 1 1 2 0 2 1 0 2 2 2 2 2 1 1 1 0 1 1 0 1 1 2 3 1 2 2 3 1 1 1 1 2 1 0 2 1 1 0 2 1 1 2 2 2 2 3 1 2 2 2 3 1 1 0 0 0 0 1 2 1 3 1 1 2 1 0 0 2 1 2 3 1 0 4 1 2 3 1 2 3 0 2 2 2 1 0 2 0 1 1 1 2 1 1 0 2 3 2 1 1 0 1 1 0 1 1 3 1 1 2 1 1 5 2 3 1 2 2 0 1 2 3 1 0 1 1 2 0 1 1 3 1 2 1 1 1 2 1 1 1 1 1 2 2 2 2 1 0 1 1 2 1 0 2 1 0 3 2 0 3 1 1 0 0 4 1 0 1 1 0 1 1 1 3 1 2 1 1 2 1 0 1 0 1 0 1 1 1 1 2 2 2 3 3 1 1 1 2 2 0 1 3 2 2 1 1 1 1 2 1 0 2 1 2 2 1 2 2 1 3 0 1 2 1 0 0 4 1 1 1 1 1 1 1 3 2 1 1 1 2 1 1 0 4 2 2 0 2 1 2 4 3 2 2 1 0 1 0 3 1 0 1 1 1 2 2 2 0 0 3 0 3 1 0 2 1 1 2 0 0 1 1 2 2 0 0 1 0 1 3 0 1 0 2 4 0 2 2 2 2 1 0 0 0 2 1 2 1 1 0 1 0 0 2 1 5 0 3 0 1 1 0 2 2 2 1 1 2 1 1 1 3 3 2 1</t>
+  </si>
+  <si>
+    <t>GAM(0.4903001630123752, -5.271420728693179e-29, 0.5215687940580275)</t>
+  </si>
+  <si>
+    <t>0 1 0 0 1 0 1 0 2 1 0 0 0 1 1 0 0 1 0 1 0 0 1 1 0 0 1 0 0 0 1 2 0 0 1 0 1 2 0 0 1 0 0 1 1 0 0 1 0 4 1 0 0 0 1 0 1 1 2 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 0 1 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 3 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 1 2 0 1 2 1 1 0 0 0 0 0 1 0 0 2 0 0 2 1 0 2 0 0 1 0 1 0 0 0 0 0 1 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 2 0 2 0 2 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 2 1 2 0 0 1 0 0 1 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 3 1 0 1 2 1 0 1 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 2 0 0 0 1 0 0 1 1 1 0 1 3 0 0 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 2 0 1 0 0 0 0 1 1 2 0 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 2 0 1 0 1 0 1 3 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 2 0 0 0 0 0 1 0 1 0 2 1 0 0 0 1 1 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 1 1 0 2 0 1 1 0 0 0 0 2 0 0 0 0 3 1 0 2 0 1 1 1 0 0 0 0 0 0 0 0 1 3 1 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 2 1 0 1 0 2 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 2 1 2 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 1 2 3 1 0 3 1 0 0 2 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 3 0 0 0 0 0 1 2 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 1 1 1 0 0 1 3 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 2 1 2 0 0 0 0 0 1 0 2 2 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 1 1 0 0 0 0 2 1 1 0 0 0 0 1 0 1 0 0 0 1 1 1 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 2 0 0 1 1 2 0 0 4 0 0 0 0 0 2 0 0 2 0 0 2 0 0 2 0 1 0 2 0 1 0 0 0 1 0 0 0 0 1 0 2 0 1 0 1 0 3 0 0 1 0 0 0 1 0 0 1 0 2 0 0 1 0 0 1 1 2 1 0 0 2 3 1 2 0 0 1 0 0 1 0 0 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 2 0 1 2 2 2 0 0 1 0 0 0 1 1 1 0 1 1 2 2 1 0 0 1 0 0 1 2 0 1 1 0 1 1 0 1 0 0 0 2 1 0 0 1 0 1 2 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 3 1 1 2 0 0 0 0 3 0 1 0 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 0 0 0 2 0 1 1 1 1 1 0 2 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 1 1 0 1 0 2 0 2 0 1 0 2 1 2 1 0 1 1 0 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 2 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 0 2 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 2 1 0 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 3 0 0 0 0 2 0 1 0 0 1 0 4 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 3 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 3 0 2 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 1 2 0 0 1 1 0 2 0 0 1 2 0 1 1 0 0 0 1 1 0 1 1 1 0 1 0 2 0 0 1 0 0 2 0 2 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 2 0 0 0 0 1 1 0 1 0 2 0 1 2 0 0 0 0 0 1 1 1 1 2 1 1 1 0 0 0 1 1 0 1 0 0 0 0 0 3 2 0 0 1 1 0 3 0 0 2 1 0 1 1 0 0 1 0 2 0 0 3 0 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 1 0 2 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 2 2 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 2 0 1 1 1 0 1 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 0 0 0 0 2 0 0 1 2 0 0 0 0 0 0 0 2 1 0 1 0 2 1 1 1 0 1 0 1 0 1 0 2 1 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 3 2 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 1 2 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 2 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 2 2 0 0 0 0 0 2 1 1 0 0 1 2 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 3 0 1 0 1 0 0 0 4 0 0 0 1 0 0 1 2 0 2 0 0 0 0 2 6 0 1 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 2 2 1 0 0 0 1 0 2 0 1 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 2 0 0 0 1 1 0 2 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 3 0 1 1 0 1 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 2 0 0 0 2 1 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 2 0 1 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 2 0 2 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 0 0 1 1 0 1 3 0 0 0 0 1 0 0 0 0 0 1 2 0 1 0 1 0 1 0 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 0 1 3 0 0 1 2 2 1 1 0 0 1 1 1 0 0 0 1 1 1 0 2 0 0 0 0 2 1 2 0 1 0 2 0 1 2 0 0 1 0 0 0 0 0 1 0 3 1 0 0 0 0 0 3 0 0 1 0 1 0 0 2 0 1 0 0 0 0 2 0 1 2 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 2 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 2 1 0 0 2 0 0 1 1 0 1 2 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 3 1 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 2 0 0 0 1 1 0 2 1 0 0 0 1 1 0 1 0 2 2 0 1 0 0 1 0 3 0 1 1 0 1 0 2 0 0 0 0 0 0 2 1 0 0 0 1 2 1 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 3 0 2 0 0 0 0 0 1 0 1 1 4 2 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 3 3 0 1 1 2 0 1 0 1 1 0 0 0 1 1 1 1 1 0 0 1 0 1 0 2 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 2 0 2 0 0 2 0 0 0 1 0 2 1 0 1 2 1 1 1 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 3 1 0 0 0 0 1 0 1 1 1 0 1 1 3 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 2 1 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 0 0 0 0 1 1 2 0 1 0 1 0 1 1 0 1 1 0 1 0 0 1 1 0 0 2 1 1 0 1 1 0 0 2 0 0 0 4 2 0 0 1 0 0 2 0 0 1 2 0 0 0 0 1 1 1 1 3 0 0 1 0 0 0 0 0 0 1 0 1 0 2 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 2 1 3 2 1 1 0 0 1 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 2 0 0 2 0 1 2 1 1 0 1 1 0 1 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 0 0 0 1 0 0 0 3 1 0 0 0 1 0 1 0 0 0 0 3 0 0 1 0 0 1 2 1 0 0 1 1 0 1 1 2 1 1 0 2 0 0 0 0 0 1 1 0 1 0 1 0 0 2 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 3 1 1 0 0 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 0 2 0 0 1 2 0 0 0 1 1 2 0 0 2 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 0 1 0 0 0 1 2 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 2 0 0 1 2 0 0 0 0 0 0 0 0 1 1 3 0 0 1 0 1 1 1 0 0 1 0 0 3 1 1 1 0 0 0 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 2 1 1 0 0 2 0 2 0 2 1 1 0 1 0 0 1 0 1 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 2 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 1 0 1 1 0 0 1 1 1 2 1 0 0 2 1 1 0 1 0 2 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 1 0 1 0 2 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 2 1 0 0 0 0 2 0 2 1 0 0 0 1 0 0 0 2 0 0 1 0 0 1 1 1 1 1 2 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 2 1 1 0 0 0 0 2 0 0 0 0 0 2 0 1 0 2 2 0 1 0 0 1 1 1 0 0 1 0 2 1 1 1 0 3 1 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 3 0 1 0 0 0 0 2 1 0 0 0 1 1 3 1 2 1 2 1 1 0 0 0 0 1 0 0 2 0 2 2 2 0 0 2 1 0 1 1 0 2 0 0 1 0 0 2 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 2 0 1 1 0 1 1 0 0 3 0 2 1 0 0 0 1 2 0 0 0 1 0 0 0 0 1 0 2 0 0 1 0 1 1 0 1 0 0 1 2 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 1 0 0 2 1 0 0 0 1 2 1 0 0 0 0 1 0 0 0 1 0 0 0 2 1 1 1 2 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 1 2 0 2 0 1 1 1 1 1 0 0 0 0 0 1 2 0 2 1 0 0 0 0 1 0 1 0 0 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 2 2 0 0 1 0 0 3 0 0 1 1 0 1 0 1 0 1 0 0 0 1 1 2 2 2 0 1 2 1 0 0 0 0 2 1 0 1 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 2 0 2 1 0 0 0 0 2 0 1 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 2 0 1 0 0 0 1 0 0 0 0 0 0 2 2 1 0 1 0 2 0 2 0 1 0 1 0 0 2 0 0 2 1 3 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 2 1 1 0 2 0 2 1 0 0 1 1 1 0 1 1 1 3 1 1 1 1 0 1 0 1 0 3 0 1 2 1 0 2 0 0 0 1 1 0 1 1 2 0 0 0 1 1 0 0 0 0 2 0 0 1 1 1 1 0 2 0 1 1 1 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 0 1 2 1 1 0 3 0 2 0 0 1 1 0 1 1 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 2 0 2 1 0 1 0 3 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 1 2 0 0 1 2 1 2 0 1 0 1 0 0 0 0 0 0 2 1 0 0 1 0 1 1 1 1 0 0 0 0 1 0 2 1 2 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 2 0 1 0 0 1 0 0 0 0 0 0 3 1 0 1 0 0 1 0 0 1 0 1 1 0 0 3 0 1 0 1 1 1 3 0 0 0 0 1 0 1 0 0 1 0 0 1 1 0 1 0 1 1 2 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 1 0 1 2 0 2 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 1 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 2 0 0 2 0 0 0 1 2 0 0 0 0 0 1 0 2 1 1 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 1 1 1 0 1 1 1 0 1 1 1 0 0 0 0 1 2 2 0 0 0 0 0 1 1 2 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 1 1 0 2 0 1 0 1 1 1 2 1 1 1 1 1 1 0 0 2 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 3 1 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 2 1 1 0 2 1 1 0 2 0 0 0 0 1 0 1 0 0 1 0 1 0 0 1 3 0 1 0 0 1 0 1 1 0 1 1 0 0 0 1 2 0 0 0 0 0 1 1 0 1 0 1 1 0 0 0 3 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 1 1 0 1 0 0 2 0 1 0 0 1 0 1 2 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 2 0 1 1 0 0 1 0 0 0 0 0 0 1 1 3 0 1 1 1 1 0 0 1 0 1 3 0 1 1 1 0 1 0 0 1 2 1 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 2 0 1 0 1 2 0 2 1 0 0 1 1 0 0 0 0 0 2 1 3 1 2 0 0 0 0 0 0 1 1 0 0 0 1 1 2 2 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 1 0 2 0 1 0 1 1 0 0 0 0 2 0 1 1 0 1 0 2 0 0 0 0 0 1 0 1 1 1 0 0 0 2 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 2 0 0 2 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 1 3 2 0 1 1 0 0 0 0 1 1 0 0 0 2 1 2 0 0 0 0 1 1 1 3 0 1 2 0 3 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 2 1 0 0 3 1 3 0 1 0 0 0 0 1 0 1 1 1 0 1 1 1 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 1 1 0 0 4 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 2 1 1 0 1 0 0 1 1 0 0 0 0 0 0 1 0 1 1 1 1 0 2 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 2 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 2 1 3 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 3 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 2 0 0 1 0 0 0 0 2 1 0 0 1 4 1 1 0 1 0 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 3 0 2 1 0 2 1 0 0 1 1 0 0 1 0 0 3 0 0 1 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 3 0 1 2 0 0 0 1 1 0 2 0 0 0 0 0 1 0 1 0 1 0 0 0 1 0 1 1 1 2 2 0 1 2 0 2 0 0 0 1 3 0 1 0 1 0 0 2 1 1 0 0 0 0 1 0 1 1 1 0 1 1 0 0 2 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 2 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 2 0 2 0 2 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 2 0 2 0 1 1 0 0 0 0 0 1 0 3 0 0 1 0 0 1 0 0 1 0 0 2 0 0 1 0 2 1 1 0 2 1 0 1 0 0 1 0 0 1 1 1 0 2 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 0 2 0 0 1 0 0 0 2 1 1 1 0 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 2 0 2 2 0 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 0 1 1 0 1 0 2 1 0 1 0 0 0 0 0 1 1 3 0 0 0 0 0 1 3 1 0 0 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 1 1 0 0 1 3 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 1 0 1 1 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 1 2 0 1 0 1 0 0 1 1 0 0 1 1 1 1 1 1 1 0 2 0 1 0 1 2 0 1 0 0 1 0 0 1 1 1 1 1 2 0 1 0 1 0 1 0 0 0 2 1 0 2 0 1 0 0 0 1 0 2 1 1 0 2 0 0 3 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 1 1 1 0 0 1 1 1 0 0 0 2 1 1 0 0 0 0 0 1 0 0 3 1 2 1 1 1 0 0 0 1 0 2 1 1 2 0 1 2 1 0 1 0 1 0 2 1 0 2 1 1 2 0 1 1 1 0 1 0 2 0 1 0 1 1 0 2 0 0 0 1 0 0 2 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 2 0 1 1 1 2 1 2 0 0 1 0 1 0 1 0 1 2 0 0 1 2 3 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 1 0 1 1 1 3 1 0 2 0 1 1 1 0 2 0 1 1 0 0 0 0 1 2 0 1 0 1 0 2 0 0 1 1 0 2 2 0 0 1 0 0 0 0 1 1 1 0 1 1 0 2 1 0 0 2 1 0 0 0 0 1 2 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 0 3 0 0 0 2 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 2 0 1 0 1 0 1 0 1 1 0 0 1 1 1 2 0 0 1 1 0 1 0 2 0 0 1 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 3 0 1 0 0 0 0 0 0 0 0 2 0 0 1 1 1 1 0 2 0 1 1 0 0 0 1 0 0 1 0 2 1 1 2 0 1 0 2 1 1 0 1 0 0 0 0 2 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 2 0 1 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 1 1 2 2 0 1 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 1 0 1 0 2 1 1 2 0 0 1 0 1 0 1 0 0 1 2 0 0 1 1 0 0 0 1 0 1 0 0 0 2 0 0 1 2 1 0 0 0 0 1 1 0 0 0 1 0 0 0 2 1 0 0 0 1 1 0 1 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 3 0 2 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 1 0 2 0 1 0 1 0 1 1 1 1 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 1 0 0 1 1 0 1 0 0 2 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 2 1 3 2 0 1 0 1 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 2 1 0 1 0 0 0 0 0 0 0 1 1 0 1 0 2 2 0 0 0 1 0 1 0 1 0 2 0 0 0 0 0 1 0 0 2 0 0 2 0 0 1 0 3 1 0 1 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 1 2 1 0 0 0 1 2 0 1 1 1 1 1 0 1 0 0 0 0 1 0 4 0 0 0 1 0 0 0 0 0 1 3 0 1 1 1 0 1 1 0 0 0 0 1 2 0 1 0 1 2 0 0 1 1 0 1 0 2 0 2 0 1 2 0 0 0 2 3 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 2 1 1 0 0 1 1 2 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 1 1 0 2 1 0 1 0 2 4 0 1 0 0 0 1 0 0 0 0 0 0 2 1 1 0 0 2 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 1 0 1 1 0 0 2 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 2 1 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 3 0 0 1 0 2 2 0 0 0 1 1 1 1 1 1 1 0 0 0 1 1 0 0 0 2 2 1 2 2 0 0 0 0 2 0 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 1 2 0 0 0 1 2 0 1 0 0 0 1 0 1 2 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 1 0 0 0 2 2 1 0 1 0 0 0 1 1 0 1 2 0 1 0 1 0 2 0 0 1 0 0 2 0 0 1 0 1 1 1 0 0 0 2 2 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 2 1 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 2 0 0 0 0 1 1 0 0 0 1 1 1 1 0 1 1 0 0 2 1 0 0 0 0 1 0 1 0 1 2 0 1 0 1 1 0 0 1 1 2 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 3 0 1 1 1 1 2 1 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 2 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 2 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 2 0 0 1 0 0 1 0 0 1 2 1 0 1 1 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 1 0 1 1 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 1 0 0 0 1 1 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 1 2 2 0 0 0 1 0 0 0 1 0 0 0 1 1 1 2 1 1 0 0 1 1 2 0 1 0 0 2 1 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 2 0 1 1 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 1 1 2 1 1 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 2 0 2 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 0 0 0 2 1 0 0 0 0 1 0 2 0 0 0 0 1 0 2 0 2 0 0 0 0 0 0 1 0 1 0 1 1 0 3 1 0 0 1 1 0 0 0 2 1 1 0 1 1 0 0 0 0 0 1 2 1 0 1 0 1 0 1 1 0 1 1 0 0 0 0 0 1 0 1 1 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 3 0 0 0 4 1 1 0 1 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 1 0 1 0 2 0 1 0 1 0 1 0 0 1 0 0 1 1 1 0 2 0 0 0 0 1 0 0 1 0 2 0 1 1 1 0 0 1 0 4 1 0 0 1 0 2 2 0 2 1 0 0 1 1 0 0 0 0 2 0 2 1 0 0 0 0 1 0 0 1 0 0 0 2 0 0 1 1 0 1 1 0 3 1 0 0 0 1 0 1 1 1 0 0 0 0 1 0 0 1 1 1 0 1 2 2 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 2 1 0 1 0 0 0 1 0 3 0 1 0 0 1 2 0 0 0 1 1 0 1 2 0 0 0 1 0 3 0 0 1 1 1 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 1 1 0 3 0 0 2 0 2 1 1 0 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 1 0 0 3 0 0 0 1 0 2 1 0 1 0 2 0 0 3 1 1 0 2 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 3 0 0 1 0 1 0 0 1 0 2 0 1 2 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 2 0 0 0 1 1 2 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 2 0 0 1 0 0 1 0 2 0 2 0 1 1 0 0 1 2 0 0 0 1 1 0 1 1 1 1 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 0 2 0 1 0 0 1 3 0 0 0 0 0 1 0 2 1 2 2 1 0 2 0 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 1 0 2 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 2 0 0 1 0 1 1 1 0 1 0 1 1 0 0 0 2 0 1 1 1 1 0 1 0 1 3 0 1 0 1 1 0 1 1 1 1 0 0 1 0 1 0 1 0 0 0 1 0 1 0 3 0 0 1 0 0 0 2 0 0 1 2 0 1 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 1 3 0 0 1 1 0 0 0 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 1 0 0 1 0 1 2 1 1 1 0 0 2 0 0 0 0 0 0 1 3 1 1 0 0 1 0 0 1 1 1 0 0 1 3 2 0 1 0 0 3 0 0 0 1 2 0 0 2 1 1 1 1 1 1 3 0 1 0 0 1 0 0 2 0 0 0 1 1 0 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 2 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 2 0 0 1 0 0 0 1 0 0 1 0 0 0 1 2 0 0 0 0 1 0 2 0 1 1 0 1 0 0 1 0 2 0 0 0 1 1 0 1 1 1 0 0 1 0 0 0 0 4 0 0 0 0 0 2 0 0 2 1 0 3 3 2 0 0 0 2 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 0 0 3 1 1 0 1 0 1 0 1 0 1 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 1 1 1 1 0 1 0 0 1 3 0 0 1 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 1 1 1 0 1 1 2 0 0 1 0 1 1 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 1 0 0 1 0 1 1 0 2 0 1 1 1 0 1 0 1 1 1 0 1 0 1 1 1 1 0 0 1 1 0 1 0 2 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 2 2 0 0 1 0 0 0 0 0 0 0 1 0 0 2 2 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 1 1 1 1 0 2 1 1 2 0 0 1 0 1 0 0 1 0 2 0 1 1 0 1 0 1 0 1 1 1 1 0 0 1 1 1 0 1 1 2 2 0 0 0 0 3 0 1 1 1 1 0 1 2 0 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 1 1 0 1 0 1 0 3 1 0 0 0 1 0 0 3 2 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 2 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 2 2 0 0 1 1 0 0 0 0 1 0 0 2 0 0 0 0 1 0 2 2 0 0 1 1 0 1 1 0 0 0 3 1 0 0 1 0 0 2 0 0 0 0 0 1 2 1 0 1 3 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 2 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 2 0 0 1 0 0 1 0 1 0 0 1 0 1 0 0 1 1 0 0 1 1 2 0 0 0 1 0 1 0 1 3 1 1 1 1 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 4 0 0 0 1 0 0 0 0 0 0 0 2 0 2 0 1 0 3 0 2 0 0 0 0 1 1 1 0 1 0 1 0 1 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 1 0 1 0 2 0 0 0 1 0 1 1 0 0 0 0 1 0 2 1 1 0 1 1 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 4 3 0 1 0 1 0 0 0 2 0 0 0 0 2 0 1 1 0 0 0 0 2 0 0 1 1 0 0 1 1 0 2 1 1 2 0 1 1 1 2 1 0 1 1 0 0 1 2 0 2 1 1 0 1 0 0 0 3 1 0 1 0 0 0 0 1 2 0 0 0 0 0 0 1 2 0 1 0 1 1 1 1 0 0 1 1 0 0 1 1 0 0 3 0 0 0 0 1 0 0 1 1 0 1 0 3 1 1 1 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 2 2 0 0 1 1 0 0 0 0 0 0 2 0 0 1 1 0 1 1 1 1 0 1 0 1 0 2 1 0 1 1 1 1 0 0 1 1 0 1 1 0 1 2 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 1 1 0 3 0 1 0 0 1 1 0 0 1 2 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 1 0 1 0 1 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 1 2 1 2 1 1 1 0 0 1 0 1 0 0 0 1 2 1 0 1 1 1 1 0 1 1 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 1 1 2 2 1 0 0 2 0 0 0 0 0 0 1 2 0 2 0 0 0 2 0 0 0 0 0 0 3 0 0 2 0 0 0 0 1 2 0 0 0 0 0 1 0 1 2 0 0 0 1 0 2 0 1 2 1 1 0 1 0 0 1 3 1 1 0 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 2 1 0 0 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 1 0 0 0 2 0 3 1 0 0 0 1 1 1 0 0 0 2 0 1 0 0 0 0 1 0 0 1 1 3 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 1 3 2 1 0 0 0 0 1 0 0 0 1 0 0 2 0 2 0 1 0 2 0 0 1 0 1 1 0 2 0 2 1 1 0 1 2 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 1 1 1 0 2 0 2 1 0 1 2 1 0 0 1 0 2 0 1 1 0 1 0 0 1 1 1 1 1 0 0 0 0 2 0 1 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 1 0 2 0 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0 1 0 2 2 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 1 0 2 2 1 0 0 0 0 0 1 1 1 1 0 0 1 2 2 1 0 0 1 2 3 0 1 0 0 1 0 0 0 2 1 0 0 0 1 0 0 0 2 0 0 1 0 0 1 0 1 1 0 2 1 1 0 1 0 0 1 1 0 0 0 1 1 2 1 0 2 0 1 2 1 0 1 3 0 2 2 0 0 1 0 0 0 0 0 2 0 0 0 0 1 2 1 1 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 1 0 1 1 1 0 0 1 2 1 2 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 2 1 1 0 1 1 1 1 1 0 0 0 0 2 0 0 2 0 1 0 2 3 0 3 1 1 0 1 0 1 1 0 0 0 0 1 1 2 0 0 0 0 0 2 0 0 0 2 0 0 1 1 1 0 1 0 1 0 0 2 1 0 0 0 0 2 0 1 0 0 0 1 0 2 1 0 1 0 2 1 1 1 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 0 2 0 1 0 1 0 1 0 3 0 1 1 0 0 0 1 2 0 1 2 1 2 0 1 2 0 1 0 0 1 1 0 2 1 0 1 1 0 0 0 1 0 1 0 0 0 1 0 1 1 1 2 0 0 1 1 0 0 0 0 3 2 0 0 0 0 0 2 0 0 0 0 1 0 0 1 2 1 1 1 0 0 0 0 1 0</t>
+  </si>
+  <si>
+    <t>FTL(0.13988255902295457, -166.7206128717845, 266.60565232249525)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">105 113 86 107 93 68 31 98 147 89 106 97 168 121 111 121 103 125 122 51 91 154 63 81 97 127 105 112 49 152 101 159 134 87 119 89 106 81 181 132 49 47 88 53 86 49 115 121 50 52 45 297 93 165 133 110 53 91 114 132 92 58 119 172 94 185 39 96 142 188 86 104 80 51 114 80 48 136 108 62 87 44 165 135 173 121 123 107 147 70 129 120 46 113 46 162 92 151 108 76 69 118 96 134 122 125 105 139 106 121 66 122 113 117 137 91 83 43 124 93 154 91 124 120 149 107 162 102 60 65 69 161 78 124 79 97 85 192 160 59 127 39 155 95 109 161 81 104 103 114 85 86 53 75 159 114 171 81 69 89 127 76 104 90 103 84 128 107 131 132 151 113 96 72 141 128 127 59 142 78 114 78 190 102 56 54 100 108 78 128 91 75 47 118 112 91 128 94 141 83 116 165 47 183 88 22 110 110 74 104 69 193 81 120 109 59 94 162 100 68 99 92 112 143 134 101 75 126 88 83 88 113 147 88 80 67 66 87 164 134 102 88 113 249 111 121 80 127 123 178 82 98 95 104 110 86 163 96 88 86 82 159 160 67 63 65 86 66 130 99 161 57 60 125 91 89 127 163 96 65 60 58 102 115 137 121 86 98 68 51 69 77 50 140 106 142 83 100 90 97 145 75 134 49 55 86 105 135 135 108 72 125 82 123 78 143 39 131 72 158 199 98 46 40 62 88 101 117 110 97 92 96 93 118 71 165 129 142 34 78 75 53 141 73 186 31 92 62 136 124 120 74 106 39 65 71 93 107 62 150 104 96 69 106 100 104 167 89 86 120 157 77 75 68 129 96 133 38 148 15 107 149 44 108 100 138 158 158 168 70 142 100 134 112 112 88 189 156 81 112 108 99 133 111 112 151 74 96 127 126 42 72 98 78 112 58 122 78 72 126 39 146 53 85 130 204 134 74 90 79 75 76 146 209 63 111 110 165 184 80 130 86 32 81 111 57 93 151 149 84 119 112 90 89 43 119 84 49 43 114 98 68 59 200 75 75 105 81 131 180 75 80 56 142 107 95 98 154 167 111 105 132 124 122 50 60 111 125 87 134 149 151 87 97 128 79 177 113 122 101 84 124 154 89 138 120 45 212 93 121 99 79 116 90 103 130 98 56 90 148 95 128 121 140 191 168 137 92 96 89 97 78 83 97 112 67 44 146 19 84 108 167 56 118 125 81 83 27 52 61 166 115 103 131 75 99 69 70 92 126 119 87 66 138 102 64 122 104 84 46 147 82 75 69 92 88 18 150 100 118 84 103 146 124 80 13 186 39 151 140 135 194 144 47 114 62 85 67 86 81 86 95 110 87 159 163 114 81 79 170 57 99 136 102 132 118 107 73 120 64 99 103 72 102 92 117 78 109 93 89 81 107 107 159 89 136 115 154 86 104 74 29 123 113 104 97 102 97 72 77 173 70 67 169 61 79 126 79 115 157 87 84 104 120 53 60 115 104 72 76 173 154 70 79 57 115 242 117 43 91 19 124 116 65 169 133 98 73 94 121 95 46 99 83 113 66 163 97 125 41 141 130 62 118 78 49 117 170 141 134 119 63 118 133 71 103 85 69 111 95 134 185 121 115 112 113 164 138 33 83 127 85 117 144 77 54 137 131 103 120 101 35 80 89 80 81 92 138 113 37 72 143 123 137 63 128 100 134 48 110 157 63 85 93 47 121 108 137 93 135 50 141 94 33 96 53 129 117 76 139 125 90 129 58 118 45 168 53 197 148 176 147 58 80 83 34 159 44 95 55 117 99 130 118 48 141 90 132 109 151 28 135 105 107 103 61 85 105 102 69 149 127 205 85 109 130 111 91 122 46 118 94 106 25 67 103 97 145 24 40 146 220 146 51 74 77 73 45 34 124 112 67 54 84 142 110 58 148 166 70 49 93 70 113 81 116 58 121 66 121 75 107 141 95 111 121 98 84 54 105 109 71 78 82 93 149 128 186 120 113 129 108 56 115 24 138 124 134 52 100 134 135 88 107 123 128 45 71 87 90 184 25 119 59 190 157 51 146 39 115 95 115 94 114 38 64 77 169 110 60 76 76 112 118 114 105 143 101 142 100 144 98 75 109 153 127 133 73 99 168 88 129 97 112 81 96 110 40 62 49 95 184 65 177 155 113 198 132 117 42 125 40 147 166 124 103 62 155 79 130 56 82 148 77 111 153 119 139 131 121 56 78 89 113 115 112 93 118 61 84 59 159 98 99 102 163 71 131 157 61 197 84 83 64 18 139 163 42 74 168 91 78 45 100 132 133 68 101 121 216 117 103 88 55 70 153 125 102 111 183 115 134 123 84 197 80 49 147 108 130 135 135 88 98 82 108 185 137 90 57 88 76 53 199 13 171 59 56 97 96 89 106 69 119 114 157 64 50 188 59 89 59 42 119 52 90 141 161 129 69 102 161 162 77 116 110 69 59 130 105 73 146 149 127 121 106 120 140 108 91 172 111 122 153 86 74 90 163 38 113 123 74 108 98 141 153 142 79 66 121 137 114 106 70 125 175 91 135 141 65 135 173 110 144 73 127 66 65 58 145 140 177 143 79 71 27 59 86 65 76 80 83 76 106 48 62 55 58 141 91 187 20 83 78 170 46 102 97 100 124 99 137 76 103 71 83 119 101 135 152 86 83 92 81 117 166 100 123 83 80 56 51 97 98 75 120 55 70 223 105 137 64 79 105 94 122 103 106 53 75 61 107 58 49 89 93 130 154 57 91 66 102 85 68 63 83 63 97 83 54 112 163 115 103 107 104 104 103 139 116 100 177 124 94 118 67 123 106 90 108 117 140 81 100 170 76 55 132 133 128 73 78 60 90 44 104 35 40 120 78 185 43 80 99 137 171 47 140 53 146 94 78 111 48 121 87 125 91 45 46 40 136 111 29 133 147 72 100 176 58 93 120 104 140 32 158 120 73 69 55 178 182 104 82 68 66 95 218 88 58 43 128 74 77 79 119 149 129 77 76 44 120 68 102 72 48 87 229 105 91 81 54 46 80 66 101 81 74 136 70 141 144 91 114 105 115 70 88 105 119 88 71 124 85 126 137 88 84 133 42 54 127 118 83 56 117 103 85 81 72 94 91 62 102 100 96 145 127 130 164 126 87 140 58 104 143 139 16 80 134 29 178 58 125 39 75 66 120 56 163 110 87 46 63 91 68 93 142 123 87 90 123 48 90 154 138 64 40 118 156 69 67 118 24 115 41 110 105 113 96 100 137 57 41 113 91 112 57 182 33 132 186 144 70 41 133 108 125 101 51 50 93 156 84 114 93 91 70 89 110 181 114 121 66 87 83 82 153 56 46 91 103 106 63 130 103 155 115 60 132 43 60 103 132 108 178 78 145 103 188 64 160 122 127 49 169 108 76 52 81 113 144 66 95 126 82 95 123 101 41 177 125 107 141 104 166 148 95 36 65 149 176 37 59 23 134 58 124 39 111 114 120 192 80 147 38 114 110 66 70 166 133 83 105 87 115 87 75 137 114 93 122 133 145 71 152 164 53 128 29 36 93 84 116 123 132 111 123 208 73 147 141 125 110 54 60 131 115 91 106 159 92 138 105 78 115 80 122 94 166 101 92 155 174 88 109 85 41 92 67 151 151 113 87 56 133 168 120 86 28 152 190 95 77 130 66 170 71 39 132 70 51 66 138 128 112 77 86 102 24 138 94 157 178 163 91 128 84 173 96 81 123 156 62 137 100 125 113 126 91 51 80 161 91 89 126 81 59 107 128 124 113 128 115 140 104 181 135 43 153 98 153 117 68 83 134 74 98 131 89 64 89 53 142 138 88 119 52 66 124 108 106 81 103 128 53 134 119 145 127 89 123 137 98 126 90 180 43 146 76 126 91 71 121 71 83 130 106 80 105 125 215 104 220 137 117 119 33 134 99 131 138 59 86 147 89 96 99 104 147 92 100 140 199 61 135 116 73 76 35 84 184 123 87 124 52 78 162 112 171 55 93 121 110 66 82 74 83 168 59 83 22 149 100 80 149 86 117 149 73 91 93 72 81 155 111 92 115 85 77 106 87 87 94 173 199 93 111 151 115 102 73 117 114 86 42 60 62 88 47 60 86 65 105 85 88 102 82 76 50 122 109 158 135 54 96 79 80 87 71 81 149 81 99 149 71 116 64 180 203 126 76 126 39 34 87 96 119 118 152 105 90 72 142 99 107 83 158 153 63 94 93 46 49 110 141 124 103 88 112 160 90 147 130 119 266 133 155 55 71 79 50 68 113 127 114 118 98 76 86 123 147 109 98 69 98 83 18 133 117 86 133 153 77 98 48 76 117 109 102 132 102 126 133 116 142 151 59 68 58 88 48 90 46 81 135 95 128 81 80 82 114 91 106 87 103 116 50 32 104 99 79 57 141 88 170 84 67 151 110 44 169 29 149 83 87 58 173 165 63 148 84 139 143 69 120 43 51 103 153 111 115 117 135 113 116 91 80 123 134 187 71 83 110 110 153 45 111 59 149 119 47 38 90 84 158 49 157 72 89 102 101 61 101 142 129 148 151 141 117 171 102 149 91 122 112 60 73 75 64 103 115 109 64 124 84 131 61 87 97 134 137 108 158 154 138 106 121 84 27 122 97 137 96 105 99 142 164 125 100 116 76 143 44 173 206 126 93 101 98 100 148 71 73 102 81 109 120 66 109 75 126 81 129 117 114 72 111 117 65 111 105 82 78 106 109 101 182 106 107 68 89 104 166 66 73 97 78 91 64 94 115 105 109 109 130 110 172 62 160 107 107 74 78 83 103 90 80 140 152 88 140 146 61 89 68 146 85 51 122 109 109 99 145 134 90 189 90 138 155 75 76 146 88 113 139 82 113 99 86 180 130 100 103 125 73 78 107 127 168 146 16 75 44 77 73 116 119 113 88 17 111 60 101 68 128 137 102 71 109 89 51 85 130 122 143 180 111 103 108 87 58 121 239 129 152 42 106 111 86 158 212 107 30 98 101 104 47 114 76 86 91 41 108 57 86 193 82 225 127 78 46 70 102 153 84 49 104 128 83 57 78 130 153 71 67 67 107 96 146 76 82 80 32 167 58 126 69 103 54 124 79 100 111 152 41 125 105 117 95 59 119 112 243 109 100 105 134 86 144 92 62 102 116 83 61 171 119 67 138 106 129 58 98 84 132 152 90 110 121 123 77 176 157 128 84 85 110 154 131 104 90 143 64 70 171 128 144 67 118 97 91 47 102 108 46 47 87 69 70 110 117 100 185 90 136 61 133 85 116 12 149 27 160 34 159 101 122 166 170 144 111 104 104 91 121 130 73 102 99 105 74 61 85 93 79 116 56 99 140 127 106 115 79 81 123 112 59 96 83 109 44 136 50 32 91 121 85 114 125 133 131 103 123 128 107 49 132 141 86 136 152 79 149 88 134 69 61 34 55 69 79 89 112 65 186 108 121 50 122 142 92 93 87 134 121 114 183 76 148 52 81 116 61 170 57 80 99 84 96 47 68 123 172 69 111 67 141 121 107 142 126 105 95 79 131 82 93 76 84 97 75 166 75 96 92 55 112 112 24 145 112 70 135 153 126 58 77 115 57 170 51 124 177 97 85 112 101 129 222 69 90 124 137 114 148 158 82 38 58 53 80 78 57 114 104 70 144 105 142 125 71 139 131 190 160 48 64 85 108 72 98 69 85 214 85 46 81 112 106 51 211 57 94 138 151 117 122 119 90 175 55 146 153 32 76 111 141 102 126 79 176 75 122 41 74 121 95 154 120 109 135 145 93 109 81 85 52 113 45 38 131 51 66 111 107 84 130 86 119 88 55 53 123 175 61 148 89 100 145 66 96 68 135 120 48 94 106 110 137 95 92 124 47 67 181 80 85 92 139 97 91 66 92 62 81 55 70 91 123 83 99 212 104 98 29 164 54 163 128 160 192 58 141 94 87 122 91 114 41 136 26 64 165 73 94 106 122 49 80 96 178 103 63 39 94 140 125 99 38 43 130 95 128 124 69 77 91 53 94 126 37 102 74 115 51 122 164 77 67 27 194 131 119 130 84 184 186 79 108 26 164 95 82 172 96 43 46 142 30 167 97 88 104 94 35 53 117 79 79 81 128 114 99 62 123 230 131 109 135 105 75 52 128 96 62 56 80 90 113 115 126 158 60 156 136 99 197 160 184 60 139 4 90 94 69 137 53 106 127 160 91 103 59 104 98 120 82 156 65 126 105 46 85 168 64 72 177 103 186 147 111 70 100 78 81 66 62 8 149 127 71 142 95 131 90 150 98 80 53 127 156 60 74 105 35 91 74 80 57 117 65 88 163 49 86 50 98 99 101 152 141 92 146 119 133 102 125 158 122 41 147 81 62 62 91 162 118 153 156 118 98 30 109 109 111 121 79 106 101 183 59 94 88 145 57 91 38 109 54 51 63 179 138 103 189 191 60 105 105 91 116 76 89 85 63 86 168 40 34 125 62 154 130 146 48 50 60 174 167 53 154 124 69 92 144 67 45 144 91 82 141 112 110 123 129 108 125 116 83 72 99 18 62 121 57 122 37 97 47 163 72 68 91 103 81 135 77 94 134 150 83 91 79 73 94 130 114 102 178 122 115 73 121 136 111 167 43 84 120 65 116 59 62 68 72 58 78 129 108 96 34 103 130 132 115 105 79 92 181 112 95 119 149 61 97 114 84 54 127 31 59 94 96 164 112 82 110 90 113 140 136 85 103 99 98 65 108 71 40 123 81 124 61 106 97 173 105 89 121 57 30 111 73 103 106 47 32 141 120 46 134 71 76 116 45 131 119 44 100 74 53 152 133 129 122 68 87 113 143 118 63 68 115 95 41 119 101 138 44 117 49 104 44 47 26 131 93 40 173 129 83 104 131 150 102 60 54 140 101 115 121 97 111 74 140 184 157 137 188 64 177 75 122 114 116 66 78 140 77 102 72 103 171 58 50 88 125 82 89 55 112 106 103 124 178 90 155 93 90 120 163 27 95 114 118 125 86 106 141 152 110 71 61 102 113 156 141 139 133 75 220 155 99 148 78 89 108 124 137 126 141 144 90 150 86 105 110 71 110 119 122 87 114 103 109 80 50 205 65 116 163 81 84 69 121 63 119 105 103 110 135 83 88 57 99 96 100 56 120 106 155 92 109 68 149 131 88 120 91 172 104 98 166 29 51 78 54 50 113 95 163 88 45 51 100 96 115 82 89 85 106 89 100 96 110 95 110 142 98 108 50 81 89 91 35 155 62 153 119 171 97 57 90 33 90 41 120 95 127 132 126 38 56 59 134 129 107 128 116 93 134 85 202 94 91 46 141 136 70 101 131 61 127 72 94 99 138 173 96 74 107 52 156 87 133 126 177 70 67 52 115 124 88 97 71 46 103 123 154 201 96 147 115 51 166 103 31 110 112 132 84 28 44 67 138 147 86 183 59 107 93 91 178 83 67 137 196 116 138 147 115 162 92 120 134 92 156 105 90 79 90 111 161 97 138 76 83 164 97 73 95 116 92 126 52 174 35 90 147 139 88 123 138 104 99 90 62 104 118 84 69 85 142 146 109 100 95 58 77 188 74 130 82 60 60 154 65 106 78 108 57 49 94 118 152 81 143 156 131 172 54 78 117 76 61 95 104 117 89 114 61 85 122 91 44 42 88 91 118 78 96 94 133 99 96 84 118 149 114 123 50 91 174 47 82 63 87 123 155 114 76 62 109 170 151 91 120 91 72 85 138 78 72 31 132 69 85 86 176 117 120 71 121 120 118 38 96 111 144 112 79 160 63 125 118 78 99 52 171 92 106 124 132 193 95 49 101 112 105 92 164 193 31 80 67 150 112 89 95 104 103 55 31 76 65 98 128 106 92 77 138 123 73 126 117 111 77 53 145 80 125 43 38 84 69 192 145 107 119 78 62 151 134 52 48 88 38 177 75 70 120 98 91 75 70 115 66 97 46 56 90 147 74 48 135 109 133 114 93 160 92 106 146 185 41 70 47 124 143 109 18 241 69 81 116 96 104 146 61 69 135 59 92 111 124 193 56 142 138 70 88 94 106 141 123 49 164 83 53 141 77 101 36 92 214 117 132 155 95 86 97 84 74 128 132 92 78 71 109 117 31 69 110 55 87 53 61 88 96 41 88 113 144 106 101 180 80 117 77 51 125 38 105 116 66 79 155 112 86 117 178 95 113 102 52 38 76 131 49 74 56 60 83 126 48 46 90 108 70 117 134 164 129 134 71 42 146 40 140 45 30 65 152 149 100 133 129 82 110 83 86 91 127 61 101 122 66 78 91 55 50 107 38 182 80 120 62 83 42 225 75 98 134 112 57 37 69 106 112 77 60 128 134 116 92 98 73 73 66 59 99 198 77 122 123 127 108 115 150 48 73 49 74 124 102 111 56 99 173 149 159 113 68 140 90 218 79 133 83 105 89 152 99 46 83 90 118 107 103 169 124 177 115 98 84 115 70 214 140 116 135 168 148 136 85 155 112 140 62 257 100 149 108 121 123 94 81 139 95 47 113 139 130 81 106 74 87 145 201 89 89 128 136 89 117 120 100 98 88 32 50 108 91 42 34 136 65 108 131 141 131 53 28 100 80 146 130 76 100 67 44 62 119 140 85 165 51 82 51 136 42 104 164 82 130 118 102 95 154 64 75 155 143 61 81 76 191 136 79 94 133 82 80 98 86 124 92 72 149 205 153 48 138 90 118 140 87 163 62 121 65 80 140 145 63 101 23 57 123 81 99 81 114 141 96 58 81 97 135 132 98 39 131 92 79 82 73 122 102 101 86 83 71 94 156 107 39 67 100 58 95 165 137 69 100 105 101 117 140 82 91 52 85 67 92 99 124 146 136 92 66 115 133 118 72 87 109 95 54 115 136 51 189 48 91 147 96 165 126 35 105 100 77 73 118 118 94 144 97 178 124 117 91 23 133 165 40 149 170 86 82 16 142 134 100 56 106 143 80 57 153 147 88 136 83 28 38 90 70 86 124 175 70 79 99 119 120 145 103 184 121 91 74 84 161 71 44 211 71 108 57 125 131 39 119 94 57 84 102 115 203 120 48 107 104 133 87 152 124 24 102 137 89 80 109 127 103 112 110 124 90 40 76 71 95 53 120 115 109 87 84 110 127 43 164 83 67 89 179 68 95 88 65 99 72 149 105 87 97 123 185 179 51 40 102 108 130 90 59 73 175 59 165 131 120 213 103 165 91 158 62 116 73 79 96 81 91 134 103 160 67 83 119 69 108 137 142 67 151 97 115 77 117 75 65 89 128 103 121 60 75 109 152 114 97 115 53 28 85 153 77 134 131 111 140 105 107 108 126 109 138 76 100 96 129 119 87 90 139 81 111 67 116 98 60 104 128 101 110 109 158 142 29 22 130 59 93 131 97 107 88 142 90 79 156 96 39 59 120 113 65 142 68 107 84 96 72 21 153 43 78 139 122 65 75 115 93 74 143 58 131 151 93 98 166 75 198 66 85 93 59 72 152 127 41 87 167 83 98 158 55 80 52 127 154 95 113 117 101 70 168 191 93 78 124 169 113 56 76 63 80 121 78 67 114 91 124 107 64 142 74 103 117 82 108 68 120 49 50 136 108 123 40 68 110 142 66 46 128 119 52 121 82 79 111 106 90 48 86 93 74 122 76 123 136 112 107 152 114 87 109 144 198 99 112 88 106 103 99 71 151 99 106 113 89 54 85 65 84 51 123 103 133 75 138 180 108 58 134 60 96 74 32 58 150 25 89 125 119 104 40 113 91 45 110 175 111 181 99 76 111 94 78 124 40 102 59 103 105 150 85 109 147 109 81 93 65 63 153 111 91 141 51 101 114 132 188 119 94 76 90 114 55 149 213 133 89 127 145 159 132 53 117 71 41 120 59 94 84 136 56 156 101 104 127 136 99 56 122 66 88 140 145 61 15 123 166 115 90 113 89 77 81 133 96 75 55 128 144 91 107 97 138 73 193 113 87 70 54 85 106 92 71 131 80 107 134 100 80 88 56 62 176 104 180 61 87 136 81 61 61 90 85 102 180 43 103 88 89 100 97 103 102 120 142 38 134 110 122 50 87 116 54 131 103 120 111 90 67 80 53 60 230 131 31 83 199 173 135 127 97 114 129 114 74 91 34 137 150 117 82 92 113 80 90 159 89 119 120 69 123 120 153 90 120 82 46 92 70 118 90 84 111 63 96 76 41 117 100 119 107 129 140 134 106 92 62 56 60 124 97 91 103 156 66 110 129 58 169 135 132 114 76 76 104 143 168 72 55 82 176 120 84 65 165 81 132 109 99 151 80 75 119 76 150 87 116 124 73 135 129 73 64 89 93 187 143 192 76 92 90 104 76 130 51 59 101 169 115 50 114 77 150 130 165 118 131 87 129 86 56 94 140 134 86 87 119 107 70 71 147 92 151 133 99 31 160 95 117 192 127 57 113 98 83 89 58 102 76 100 58 81 92 100 46 125 113 103 99 73 170 111 78 170 147 194 164 78 98 127 70 113 38 90 214 33 156 46 49 84 73 88 116 121 105 69 77 68 182 104 113 186 108 130 112 110 39 117 180 50 111 36 110 107 94 95 124 132 79 86 115 106 72 136 86 99 116 149 96 93 56 110 145 154 124 95 86 85 124 125 75 109 147 120 43 79 122 93 55 104 112 63 68 94 57 124 85 82 137 79 79 13 106 72 41 138 70 137 46 80 126 175 104 60 70 104 94 133 104 94 81 114 176 99 117 28 82 105 61 58 75 98 89 78 145 109 111 142 122 95 112 104 109 79 63 134 79 88 136 79 127 127 88 156 96 117 55 89 65 94 54 103 110 100 66 84 136 31 117 101 81 81 26 105 128 97 116 54 71 156 134 126 118 76 151 168 89 71 101 176 51 191 96 129 151 164 49 83 81 110 138 79 86 83 65 116 98 89 43 181 82 78 66 138 127 166 80 25 142 123 182 72 13 211 161 81 89 91 168 101 48 104 92 82 62 109 41 55 176 164 95 197 86 63 101 94 28 107 83 188 132 76 137 118 65 37 78 64 152 164 81 67 97 127 99 109 139 163 35 136 94 75 49 98 117 47 144 165 118 122 119 98 68 101 106 118 118 92 43 68 41 39 101 33 85 150 73 99 24 101 99 77 73 154 131 78 63 100 138 152 110 52 159 80 87 91 88 153 14 115 75 48 183 42 106 82 135 83 140 53 63 79 197 90 69 73 116 136 221 86 95 157 84 147 151 60 46 72 66 112 128 105 129 163 170 31 164 101 122 133 40 153 26 134 160 86 94 102 44 86 79 107 35 78 127 120 133 69 125 53 125 62 50 46 111 101 181 139 111 196 78 142 134 127 52 80 100 129 99 87 51 77 114 91 115 125 58 93 140 155 38 101 89 63 97 124 121 114 98 74 96 122 115 163 82 154 84 73 51 70 114 111 131 93 78 182 84 62 122 94 120 105 83 141 118 89 38 132 86 70 191 138 59 94 100 79 137 125 113 102 77 112 116 130 54 119 151 120 93 89 143 100 88 174 97 49 83 90 106 102 89 59 104 73 107 135 119 94 58 60 82 20 72 95 57 71 77 67 110 115 196 88 69 98 140 102 79 124 156 135 112 148 116 96 102 74 179 83 93 112 116 76 123 121 130 110 88 85 64 42 122 91 117 70 79 90 148 100 106 61 55 144 100 96 92 106 123 250 163 112 58 148 95 89 166 104 100 119 156 59 96 105 88 103 158 77 81 122 151 80 164 113 199 118 120 104 142 28 152 64 82 100 132 126 171 143 80 38 46 84 68 49 191 48 145 145 20 73 109 58 88 44 71 92 81 88 96 86 43 234 76 96 134 37 98 75 111 48 150 143 88 116 119 105 95 46 69 140 96 134 90 153 119 103 83 98 122 66 111 80 140 93 121 142 75 96 112 139 104 80 122 40 86 44 81 106 88 38 101 110 50 73 99 152 115 100 153 110 62 134 98 47 94 89 70 107 57 86 173 67 125 137 106 57 149 57 48 106 146 135 86 75 41 100 83 48 129 79 135 129 57 135 65 81 94 145 135 57 164 154 64 96 120 143 82 133 64 74 117 79 124 63 119 88 17 75 33 183 126 106 66 43 91 105 142 118 54 181 121 52 128 42 112 65 67 75 93 92 23 130 100 80 67 79 120 155 222 100 120 96 44 72 68 82 162 70 161 95 108 126 148 89 105 135 190 106 117 115 85 130 83 68 82 90 105 177 85 46 100 156 47 180 35 143 105 124 11 151 53 83 107 72 157 52 100 146 36 151 108 119 79 85 71 146 111 149 69 127 136 76 149 81 103 163 71 69 197 92 53 72 200 67 183 107 103 69 141 92 10 120 109 139 120 121 86 64 172 27 46 126 114 96 71 108 138 105 157 116 58 118 22 195 78 49 103 84 111 132 79 144 42 102 106 87 49 130 111 86 102 58 84 28 128 109 93 128 36 118 124 87 149 86 73 137 82 130 99 91 86 70 63 101 134 93 128 114 115 118 73 47 135 119 40 181 75 52 95 184 167 125 76 62 84 159 97 135 102 102 103 94 110 94 144 113 54 134 37 115 104 105 86 98 111 65 88 94 180 125 179 45 140 85 110 97 100 38 55 137 99 199 130 107 112 89 50 61 83 102 62 32 127 180 67 143 97 39 73 55 76 72 25 90 84 111 53 95 182 87 106 80 68 168 39 89 97 73 117 65 104 170 136 172 137 77 99 109 70 160 117 110 158 53 56 150 75 74 102 153 33 103 90 106 74 77 64 107 80 76 104 144 126 123 127 105 47 143 118 53 103 59 116 138 159 118 70 185 73 62 109 58 106 76 37 120 88 126 185 41 52 141 130 106 113 170 143 132 34 60 116 91 88 106 67 104 147 138 138 60 26 101 132 28 97 56 58 136 143 102 117 97 114 171 86 105 142 106 59 96 120 95 106 71 153 61 74 90 168 57 94 110 66 99 81 116 78 102 73 99 90 39 110 134 63 62 83 139 158 56 34 182 99 10 147 139 109 198 112 151 134 97 115 55 100 117 66 123 52 83 136 65 49 98 103 116 186 98 56 128 61 216 138 107 47 89 134 54 86 129 93 112 77 92 158 72 98 110 121 38 124 139 91 98 103 115 106 113 131 112 111 67 112 148 155 61 160 26 69 159 16 157 168 115 101 64 156 114 98 56 123 112 36 97 109 41 131 137 109 196 58 117 102 72 189 92 77 129 135 93 52 183 70 81 51 57 72 227 108 114 114 106 143 113 68 89 69 152 86 113 31 85 113 115 71 108 110 84 123 170 53 76 28 57 77 120 89 169 68 62 116 70 70 173 114 107 152 91 46 110 102 130 82 115 164 61 124 125 185 121 155 114 103 148 66 118 45 59 132 78 112 145 44 56 112 106 93 94 114 68 103 94 144 88 53 136 113 119 189 169 79 81 98 85 160 67 90 128 103 69 75 117 172 127 127 117 94 56 34 118 166 129 124 100 56 87 50 61 86 120 157 107 192 123 53 158 122 56 54 111 146 170 87 216 92 107 127 109 52 111 117 141 27 129 120 82 38 115 102 125 72 136 139 100 120 150 104 107 149 100 68 74 64 90 81 150 95 95 95 61 59 88 83 40 79 57 143 41 82 87 132 169 59 121 69 139 63 72 103 102 124 151 99 117 125 140 134 99 79 117 105 177 127 117 150 64 59 162 121 142 81 106 116 66 182 118 57 102 100 92 131 64 76 102 95 70 145 103 85 119 60 105 47 143 66 93 127 51 97 93 124 69 163 64 74 64 161 111 143 133 122 132 135 54 111 75 68 110 23 98 60 189 145 69 78 118 96 67 133 129 144 20 116 152 140 103 151 53 68 81 71 116 88 145 62 66 195 111 54 97 165 111 110 131 90 38 58 118 90 103 209 74 91 147 36 93 90 74 100 84 126 140 84 127 130 188 81 159 109 214 172 100 156 99 118 169 107 88 71 79 76 97 52 173 139 110 152 98 90 90 69 87 50 72 75 49 99 132 172 89 66 60 33 137 68 25 99 48 96 177 134 75 163 80 130 97 96 134 86 127 89 89 106 105 112 72 92 76 97 68 110 99 115 108 113 68 154 91 136 45 50 98 49 87 116 95 133 133 55 36 71 91 173 67 73 147 107 92 204 92 128 86 137 149 98 102 44 55 111 133 100 70 134 212 98 86 117 100 122 52 70 116 111 114 221 97 183 159 152 91 140 75 28 86 64 103 141 156 89 129 64 67 146 61 113 172 83 91 158 40 70 33 88 75 97 164 135 96 42 67 131 108 79 141 139 92 50 54 62 111 49 101 59 86 123 84 65 35 189 62 89 77 123 98 92 151 86 86 63 88 97 50 100 149 63 140 111 121 146 101 89 134 138 126 67 50 94 33 169 96 156 125 115 62 101 111 156 68 131 92 44 61 40 142 111 101 84 98 108 133 113 136 132 84 92 89 191 120 65 38 93 94 96 68 104 100 162 123 78 140 78 191 55 78 12 93 80 94 91 74 117 184 73 122 75 64 100 134 94 58 99 35 139 68 111 80 79 94 141 152 125 130 67 147 132 113 83 107 81 99 76 149 40 33 165 67 70 49 96 36 116 45 91 106 130 132 83 146 73 53 61 72 82 118 125 49 109 99 85 87 107 80 144 104 133 22 137 127 119 73 83 178 87 116 91 93 96 107 60 27 129 89 45 141 84 113 94 84 144 129 110 92 157 129 72 76 98 85 136 145 108 130 161 86 97 146 64 19 131 95 110 155 135 82 69 103 77 56 170 88 99 141 123 125 45 151 80 167 192 113 86 105 91 91 71 118 120 154 125 121 90 111 144 82 119 47 72 147 68 115 90 72 85 104 30 92 120 86 149 113 148 87 100 96 22 114 159 102 165 82 117 148 90 82 113 89 41 149 113 102 138 34 120 99 76 87 157 154 82 124 66 60 67 111 101 118 85 57 140 49 113 145 122 82 93 109 63 176 72 63 36 53 182 71 75 129 102 170 104 93 156 128 117 107 85 148 113 171 113 95 97 124 88 145 105 47 118 118 53 152 108 86 69 50 129 160 112 110 112 92 108 121 124 70 137 76 112 76 119 143 106 38 57 32 97 70 80 83 98 132 32 171 70 115 60 141 91 98 105 140 96 113 84 113 116 74 145 123 76 201 88 98 136 77 160 141 74 101 109 123 89 64 146 148 128 96 92 97 115 156 57 96 80 94 92 69 67 46 81 130 153 123 86 108 91 91 94 77 103 138 83 123 87 85 31 64 68 107 117 134 64 174 65 81 77 146 144 88 111 80 192 66 150 108 179 101 20 76 122 147 142 75 133 55 109 67 116 61 69 91 109 122 86 76 96 108 87 43 73 59 25 92 114 197 60 67 104 169 80 90 82 104 52 133 109 119 126 35 130 152 54 84 192 112 147 82 63 126 74 116 125 69 60 187 51 99 78 133 65 139 61 91 72 81 138 133 101 81 68 151 95 57 54 164 146 160 69 87 122 70 43 102 81 60 143 198 102 165 76 139 143 72 96 138 102 188 78 42 105 60 139 97 67 78 110 101 105 103 29 110 159 78 164 42 37 113 90 34 125 93 131 80 86 119 93 192 52 106 65 97 108 57 86 75 87 76 172 48 111 161 155 71 97 107 128 204 94 126 141 106 118 137 56 95 102 125 117 42 42 94 88 106 71 125 113 97 135 104 70 108 167 71 153 118 152 63 31 191 91 153 138 155 95 75 98 71 153 59 142 176 117 69 156 93 85 71 78 94 58 203 164 65 66 67 114 60 82 34 110 207 83 101 74 137 87 204 129 60 45 159 71 40 158 145 92 204 115 98 83 105 88 145 78 54 158 85 78 33 131 182 93 121 99 93 114 60 116 104 141 60 101 54 104 102 20 82 109 34 126 166 99 85 90 112 91 40 62 129 118 106 55 82 190 113 116 86 111 157 197 98 133 108 75 83 68 74 100 142 124 98 107 95 68 132 172 115 87 50 94 94 133 60 183 93 51 135 106 46 114 61 92 86 156 110 183 78 119 123 149 118 79 183 101 50 74 131 100 103 140 55 106 67 115 67 78 63 116 130 123 115 136 105 88 80 47 62 87 111 125 137 89 111 110 170 90 65 96 111 96 84 58 113 97 126 82 201 126 89 76 151 79 70 98 48 116 47 138 98 113 49 100 97 87 123 122 167 83 96 142 154 156 169 94 103 73 96 102 49 82 115 103 72 123 53 109 122 97 144 84 63 123 85 77 102 67 102 71 152 82 132 85 100 73 51 85 99 76 105 116 123 121 113 60 113 135 77 142 40 93 104 179 100 46 84 116 127 51 119 105 83 110 142 99 48 107 67 175 130 88 131 87 65 87 83 224 62 85 142 108 128 84 133 59 126 95 160 68 66 99 92 115 56 126 127 114 49 98 102 83 86 64 159 114 144 31 152 152 133 80 96 117 60 144 81 162 121 136 71 106 138 46 35 126 82 137 108 74 129 88 79 105 124 6 66 120 107 128 147 102 103 138 131 94 107 106 103 72 115 91 50 44 151 16 59 111 142 127 140 49 75 80 95 77 111 91 82 107 102 84 90 83 190 39 135 80 129 118 58 81 176 61 78 79 129 185 122 88 121 105 171 83 105 104 138 96 79 151 158 49 122 138 188 100 75 56 256 106 67 102 74 88 108 73 47 91 107 79 62 116 100 96 83 132 111 166 63 79 125 60 122 89 180 81 75 162 132 144 60 173 133 134 94 93 101 123 73 116 128 93 154 84 61 99 81 126 47 76 119 69 106 79 168 117 181 22 107 142 71 76 109 128 102 120 97 105 126 65 77 64 100 103 72 37 126 117 132 110 114 84 158 134 124 77 132 112 109 98 68 111 220 69 113 42 93 138 159 86 97 73 117 127 148 132 102 49 195 121 156 108 117 133 102 152 55 104 53 146 113 87 81 71 54 88 83 133 101 50 35 40 82 126 101 113 79 157 124 148 47 101 52 96 81 114 97 37 97 128 86 106 101 84 51 75 77 60 114 124 119 156 119 43 158 84 144 122 185 134 94 124 66 30 82 176 153 151 65 80 145 70 111 93 49 130 119 77 160 121 128 112 121 153 75 106 107 89 108 87 134 39 99 108 135 154 64 98 71 109 69 63 163 109 159 94 104 83 128 112 47 27 87 70 88 59 131 192 94 139 138 142 79 77 92 192 49 87 111 125 91 95 86 93 105 91 75 112 99 117 58 137 35 43 128 138 42 121 55 161 39 61 204 116 92 122 63 101 115 123 122 121 83 80 92 144 190 163 191 51 82 66 121 141 64 71 93 90 89 141 131 69 98 44 108 128 76 132 127 112 116 36 111 82 48 91 102 108 92 83 142 112 149 17 52 192 107 97 169 151 113 87 57 89 92 211 102 111 55 91 167 70 102 84 72 101 76 198 67 129 103 67 81 130 98 128 93 82 115 89 191 76 41 66 121 46 76 55 82 117 90 70 62 105 65 97 132 195 192 72 157 112 87 63 83 84 87 110 92 162 62 115 92 71 87 110 90 110 117 129 82 117 118 46 35 67 106 108 102 145 35 167 82 82 102 148 110 50 107 72 55 112 159 118 120 80 107 95 57 112 79 98 124 145 80 86 30 145 136 48 142 70 120 86 109 58 192 67 113 146 62 66 81 103 122 116 47 105 49 98 113 94 136 120 166 91 62 116 92 111 102 105 107 139 89 61 76 55 126 57 68 96 135 85 104 126 116 90 111 149 93 97 92 85 156 74 133 124 130 99 65 225 107 167 43 80 169 99 103 122 89 103 183 161 100 107 100 108 191 128 186 85 94 130 95 145 118 42 52 77 69 144 93 83 109 63 123 137 90 130 218 89 130 20 146 73 122 69 175 78 80 63 57 138 145 152 105 63 60 75 82 28 100 80 86 161 109 148 48 55 52 83 107 99 95 76 108 151 101 130 52 81 98 122 63 75 75 57 50 78 74 83 109 148 107 85 85 117 72 179 78 27 65 110 129 79 106 147 100 122 69 51 104 166 83 108 141 134 53 145 78 25 72 71 93 137 50 112 193 89 104 100 93 98 75 73 104 58 114 126 81 139 61 87 44 111 41 192 66 172 117 113 87 118 122 112 87 35 128 86 154 75 25 138 63 108 54 151 56 137 90 61 114 136 78 159 127 115 98 94 66 149 157 128 65 76 190 138 81 78 129 89 145 127 70 89 66 64 57 109 72 103 63 85 98 126 92 70 72 108 164 21 118 81 109 132 121 103 127 129 155 94 125 96 256 140 107 80 51 91 113 148 88 96 199 103 66 61 78 72 107 74 66 107 74 234 96 159 121 57 63 133 152 92 30 136 97 32 131 119 86 112 82 228 124 102 125 105 126 184 101 108 127 122 101 92 61 59 181 53 91 91 63 147 131 55 103 101 117 74 96 137 81 24 103 89 134 102 89 98 112 86 52 124 108 62 84 122 89 143 184 92 78 83 149 132 199 148 63 86 82 138 120 80 165 218 82 129 203 37 78 88 84 168 132 149 80 85 71 128 103 109 41 114 110 116 90 108 42 89 123 65 79 35 155 118 98 250 112 113 153 118 83 130 91 192 179 144 73 136 139 118 132 64 153 127 78 91 125 124 57 131 107 80 92 69 79 47 119 100 62 58 89 41 62 127 123 201 125 64 63 61 72 59 82 52 167 76 59 116 60 144 35 53 158 118 131 146 63 76 27 60 118 114 41 99 133 97 116 98 147 104 73 93 157 72 96 139 84 98 65 106 87 84 123 112 119 121 77 94 108 137 142 107 146 82 95 102 121 134 63 140 98 121 109 76 115 66 199 102 113 75 71 200 112 74 110 120 87 79 123 58 122 145 142 52 51 34 117 80 115 213 86 52 76 186 91 160 180 51 125 63 116 100 86 46 127 53 90 55 104 84 73 120 98 73 71 55 161 62 101 82 42 56 48 152 116 107 148 49 116 57 141 69 36 145 91 90 67 109 95 72 46 117 106 113 102 83 155 103 138 113 165 84 90 129 88 75 128 28 108 90 67 113 90 100 85 206 151 111 135 79 56 141 126 135 118 122 130 140 163 102 132 71 83 109 112 70 120 192 131 14 160 116 86 78 77 17 104 181 92 93 147 50 47 98 119 85 179 75 102 149 122 165 71 156 85 106 107 105 72 29 172 82 173 69 112 100 155 56 187 47 133 125 199 79 232 118 84 64 79 89 73 116 104 128 71 97 42 99 140 115 53 133 60 94 131 8 139 81 92 140 147 67 136 55 56 88 146 87 129 62 126 126 32 101 85 124 150 127 89 78 116 119 90 80 135 159 134 75 50 59 116 77 86 193 154 126 56 150 116 146 148 38 52 184 134 67 112 64 159 78 41 129 68 71 95 129 127 116 122 78 48 111 102 102 91 114 122 135 54 48 92 22 156 109 90 25 76 34 152 47 91 140 68 142 86 101 49 84 189 100 63 125 96 28 99 105 82 31 94 69 86 91 75 136 73 82 151 152 136 98 104 104 54 118 69 127 103 140 60 71 132 91 112 106 92 88 53 92 124 101 77 63 101 88 174 79 138 154 68 112 59 135 95 148 130 131 25 73 139 42 83 68 141 131 58 138 128 88 130 115 75 122 117 122 129 73 89 28 99 107 83 168 28 85 86 86 155 108 89 97 127 175 89 62 39 71 152 98 110 150 119 74 140 150 173 101 109 64 88 108 162 105 53 108 117 178 96 87 68 76 86 95 108 162 122 90 71 89 84 162 113 112 85 62 92 114 86 109 118 115 70 77 111 75 99 53 71 190 112 130 61 124 87 69 128 108 69 94 134 150 97 112 131 166 105 31 100 93 85 188 147 77 66 32 132 67 122 142 133 173 71 47 141 112 70 79 125 218 154 155 133 108 64 146 41 67 102 93 144 104 43 85 114 36 109 86 81 87 118 87 24 55 99 118 107 54 24 43 106 73 62 49 132 86 121 236 64 109 140 130 76 83 111 150 75 129 37 146 64 120 97 88 119 127 98 149 144 75 118 95 130 105 105 50 109 100 55 113 71 87 102 84 156 141 85 96 99 150 46 97 56 114 171 90 67 160 130 135 82 53 76 96 172 119 179 160 71 87 120 87 155 174 122 126 116 110 69 111 139 84 78 53 134 82 53 93 139 66 109 165 135 121 29 110 72 69 123 84 112 46 131 118 134 56 54 124 33 58 185 157 128 35 75 47 123 100 161 146 85 104 48 76 101 142 111 101 182 83 76 100 90 52 142 70 117 125 91 129 109 89 63 130 55 99 64 107 97 89 121 99 101 20 62 42 83 147 67 118 106 114 139 106 79 167 73 57 109 102 104 145 87 103 76 139 134 50 152 41 65 120 106 92 95 96 94 193 58 25 106 158 99 104 93 59 92 156 122 53 53 77 132 64 85 115 24 101 112 168 36 126 127 85 88 98 68 100 80 100 109 144 74 114 165 75 111 66 106 95 79 67 117 101 93 94 40 95 114 109 50 143 49 102 70 112 143 62 116 95 172 73 78 94 66 141 88 79 103 79 116 48 27 172 103 63 137 55 152 95 149 170 166 174 135 103 88 151 159 87 100 69 142 172 75 101 128 186 160 56 132 91 185 126 81 138 121 142 154 91 61 101 124 15 88 81 66 113 162 133 32 149 94 159 53 169 106 94 92 126 101 89 86 117 91 75 168 108 69 76 85 72 99 26 72 114 143 39 103 134 152 128 129 104 130 79 84 53 71 162 89 74 83 50 50 47 144 97 100 57 174 126 124 84 127 101 119 92 129 131 81 91 79 45 131 90 48 56 144 120 69 56 149 148 130 123 151 206 167 112 97 184 115 90 139 89 142 141 146 112 41 85 122 50 59 81 99 143 84 64 63 82 69 61 87 59 117 108 219 121 68 40 98 42 125 100 137 93 106 78 85 23 180 76 83 59 103 127 69 64 129 104 88 142 153 151 144 149 95 135 183 142 104 185 32 92 80 86 126 47 76 110 199 97 109 108 89 120 93 77 111 64 51 116 73 57 </t>
+  </si>
+  <si>
+    <t>GAM(0.30470778013086175, -1.9361326540967074e-29, 0.6263682921557312)</t>
+  </si>
+  <si>
+    <t>0 1 1 2 0 1 0 1 1 0 2 2 1 0 1 0 1 0 1 0 1 2 0 0 1 1 1 2 0 2 0 0 0 1 1 0 1 2 0 2 1 0 0 2 1 2 1 0 0 0 0 3 0 1 0 3 0 0 1 0 1 0 2 2 1 1 0 1 1 2 3 0 0 1 0 1 0 0 1 1 1 1 1 1 2 1 0 0 2 1 2 1 0 0 0 1 1 1 2 1 1 1 0 2 1 1 0 1 0 0 0 1 0 0 0 0 2 0 0 1 3 1 0 1 1 1 1 0 0 0 1 1 2 2 0 2 0 1 3 1 1 0 2 1 3 1 1 2 1 0 1 0 0 0 3 2 0 2 0 1 2 1 0 0 0 0 0 2 1 1 1 2 1 0 1 0 1 1 2 0 1 1 2 0 1 0 0 1 0 2 1 0 1 1 1 1 1 1 1 1 1 0 0 0 2 0 0 0 2 1 0 2 1 1 0 2 1 2 0 0 0 1 0 2 2 0 2 0 0 1 1 1 2 2 0 1 0 1 2 1 1 1 0 3 0 1 1 0 1 3 2 1 1 0 1 2 1 2 0 2 0 0 2 0 0 0 1 0 2 2 0 0 1 1 1 0 0 0 2 0 0 0 2 0 2 3 1 1 0 0 0 2 0 4 2 0 2 1 0 2 0 1 1 1 1 2 1 4 0 0 0 0 0 1 1 3 0 1 0 1 2 1 0 1 0 0 0 2 2 1 0 1 0 1 2 1 1 1 0 1 0 1 1 0 1 0 3 1 1 1 1 0 1 0 1 0 1 1 0 0 0 1 1 1 2 1 2 0 1 0 1 0 1 1 0 0 2 1 2 0 0 0 0 1 1 1 2 1 1 2 1 0 1 1 1 1 2 1 1 1 3 0 1 1 1 1 1 0 0 1 0 1 1 1 1 0 3 1 1 2 1 1 1 1 0 1 0 0 1 0 1 1 3 2 1 2 1 1 2 0 0 0 0 1 1 1 1 0 3 2 0 1 0 1 0 1 0 0 0 0 1 1 1 1 0 1 1 1 0 2 0 0 0 2 1 0 0 2 2 1 0 3 0 1 0 0 1 1 0 2 1 0 1 1 0 0 1 2 1 1 1 1 3 1 0 1 0 2 1 1 1 0 1 0 1 0 0 0 1 0 1 1 0 2 1 2 2 0 1 2 0 0 1 0 2 2 0 1 0 0 1 3 0 2 1 1 0 1 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 2 0 2 0 2 0 0 3 1 1 0 0 0 3 2 0 1 1 1 1 0 1 0 2 0 2 1 1 1 0 0 0 0 0 0 0 1 2 0 1 1 0 0 1 0 0 2 2 0 1 1 0 2 0 0 0 1 2 0 2 0 1 1 1 1 1 1 1 2 0 1 2 0 0 0 0 0 2 0 0 1 1 1 1 0 0 2 1 1 0 0 0 1 0 3 0 1 0 0 0 1 0 3 0 0 0 0 0 1 2 0 1 1 0 2 1 0 1 1 1 1 0 1 0 0 1 0 0 3 0 0 2 0 2 0 1 1 1 2 0 1 1 1 2 1 2 2 1 1 2 2 0 2 1 2 1 0 2 0 1 0 0 1 3 1 1 0 0 1 0 0 2 1 1 0 2 0 2 0 0 1 0 1 1 0 1 0 1 1 1 1 1 1 0 2 0 2 0 1 1 0 2 3 0 2 1 0 0 0 1 0 2 1 0 1 3 0 1 0 2 0 2 1 0 0 3 1 2 1 0 1 0 0 0 1 1 0 0 1 1 0 2 0 0 0 1 1 2 1 0 0 1 2 1 0 1 0 0 0 0 2 0 2 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 1 0 1 0 0 1 1 2 1 2 0 1 0 1 1 1 0 1 1 0 0 1 0 1 1 2 0 2 1 0 0 1 0 1 1 1 1 0 1 1 0 0 2 2 0 0 0 1 2 0 0 0 1 2 0 1 0 1 3 0 0 2 0 1 1 2 1 1 1 1 0 2 1 0 1 2 2 1 1 0 0 0 3 1 1 1 1 0 1 1 2 0 1 0 0 0 1 0 0 3 0 2 1 2 1 1 1 1 0 0 1 0 1 2 1 4 0 0 0 1 0 2 1 2 2 3 2 1 0 1 0 0 0 1 2 0 0 1 0 2 0 0 3 0 0 2 0 0 2 0 0 0 0 1 0 0 1 0 0 1 1 2 1 2 0 1 0 2 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 1 1 2 1 0 1 0 1 2 2 2 0 0 1 1 2 0 2 0 0 1 0 1 0 1 0 1 0 0 1 2 0 2 1 0 0 1 0 1 0 2 2 3 0 2 0 1 1 0 1 1 0 0 2 3 1 2 1 0 1 2 1 1 0 2 1 1 1 2 0 0 3 1 1 1 1 1 2 3 0 0 0 2 0 1 0 1 1 1 2 0 1 0 1 1 1 0 0 2 1 0 0 0 2 3 1 1 0 0 0 0 0 0 0 1 2 0 1 0 0 0 1 2 0 0 1 2 0 0 0 1 1 1 2 0 1 1 0 2 1 2 1 0 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 1 0 3 0 1 0 2 1 2 1 2 1 0 0 0 2 0 1 0 1 1 2 0 2 0 1 1 0 0 0 0 2 2 0 2 1 1 0 2 2 0 0 0 1 0 2 1 0 1 1 1 1 1 0 0 2 0 1 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 2 2 4 1 1 0 0 1 2 0 0 2 0 1 2 0 0 0 1 3 0 1 1 0 2 1 0 1 3 2 2 0 1 2 2 0 0 1 2 1 0 0 1 0 1 1 1 1 2 2 0 1 1 2 1 2 0 0 2 0 0 0 0 1 3 0 2 0 0 1 0 1 0 1 0 1 1 0 0 0 0 2 0 0 1 0 1 1 2 1 0 1 2 1 0 3 2 0 1 0 0 0 2 0 0 0 0 0 1 0 1 1 1 1 0 0 0 2 0 1 1 2 0 0 0 0 2 0 0 2 1 0 0 0 3 0 4 1 0 1 0 2 1 2 2 1 2 0 1 0 0 2 1 2 0 0 0 1 1 0 0 1 1 1 0 0 1 0 2 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 2 0 0 2 1 2 2 1 0 1 1 0 3 2 0 0 2 2 3 0 1 1 0 3 1 0 0 0 1 1 0 1 1 1 1 1 0 1 2 1 0 1 0 1 0 0 1 2 3 2 0 1 1 1 1 0 2 1 1 0 1 1 2 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 2 0 0 0 1 1 1 1 2 1 1 1 1 0 1 1 1 0 2 1 2 1 1 0 1 0 0 0 0 1 0 3 2 1 1 1 3 0 3 1 1 0 0 2 0 1 1 2 1 0 2 1 0 1 0 1 0 3 0 1 1 1 1 0 2 0 0 1 0 0 2 0 0 0 0 1 0 0 2 2 0 0 0 0 0 0 0 1 1 0 0 0 0 2 1 1 1 0 1 1 1 0 0 0 1 0 1 2 2 1 3 2 0 1 1 0 1 2 0 0 1 1 2 0 0 0 0 0 2 0 1 2 1 0 1 0 0 2 0 2 1 3 1 1 0 2 1 2 0 1 0 1 1 1 0 0 0 1 1 0 0 0 1 0 1 1 2 0 1 0 2 0 1 1 1 0 1 0 3 1 1 0 2 0 0 2 1 0 1 3 0 1 1 3 0 1 0 0 0 1 1 1 1 0 2 1 1 2 1 0 2 0 0 1 0 1 0 0 1 1 2 0 0 0 1 1 0 1 1 2 3 0 0 0 1 2 1 1 0 0 1 0 1 1 1 2 2 1 0 0 1 2 0 1 0 0 0 1 0 0 1 1 3 2 1 1 1 1 2 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 2 1 1 3 2 2 0 0 0 0 1 1 1 1 2 1 1 1 0 3 0 2 0 1 0 0 2 0 2 0 0 0 1 0 1 0 0 0 3 2 0 1 1 0 0 1 1 0 2 0 1 2 0 1 1 0 2 2 2 1 0 1 0 2 0 1 0 1 2 0 0 0 1 1 2 0 1 1 0 2 2 1 2 2 1 0 1 1 1 1 1 0 1 1 2 0 1 0 0 0 1 1 0 0 1 0 2 1 1 1 0 1 0 0 1 0 2 1 0 0 1 1 0 0 0 1 2 0 1 2 1 0 1 1 2 0 0 0 1 1 1 0 2 0 0 3 3 0 0 2 2 0 1 1 1 0 1 0 0 1 0 2 1 0 1 0 1 1 1 0 0 2 0 1 2 0 1 1 1 0 0 2 1 1 1 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 2 1 2 2 0 0 1 1 1 0 0 1 1 1 1 0 2 2 1 0 1 2 2 1 0 0 3 1 2 1 0 2 1 0 1 0 1 1 1 0 1 2 1 1 0 1 1 0 0 0 0 2 0 1 2 0 1 0 1 0 0 1 1 0 1 0 0 2 2 1 0 0 2 0 0 0 1 0 0 0 0 0 0 2 1 1 2 1 1 3 0 1 0 1 1 0 0 0 0 0 1 2 0 0 0 1 1 1 0 1 0 2 1 2 2 1 2 1 1 1 2 0 1 2 1 0 1 0 0 1 2 0 1 1 1 0 0 0 2 3 1 0 1 0 1 1 2 1 1 3 0 1 1 1 0 0 0 0 0 0 2 0 1 1 0 1 2 0 1 2 0 0 0 2 2 2 0 1 0 1 0 1 1 0 1 0 2 0 0 3 0 1 0 0 1 0 1 0 1 2 2 0 0 1 0 1 1 1 1 2 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 2 0 0 1 2 0 1 0 0 1 0 2 1 0 0 1 1 1 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 0 2 1 1 0 0 2 0 2 0 1 1 4 0 1 0 0 1 4 1 1 0 3 0 0 1 2 2 0 0 0 0 0 1 0 0 1 0 0 1 3 2 1 1 1 3 0 1 0 0 0 1 0 2 1 3 1 0 1 1 0 1 0 0 1 1 0 0 1 0 0 1 0 1 0 1 1 0 1 1 2 0 2 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 3 1 0 1 1 2 0 0 0 2 1 0 1 0 0 2 0 1 0 0 0 1 1 2 0 1 0 1 0 0 0 0 0 0 1 1 1 1 1 1 0 3 0 1 0 0 2 1 0 0 1 2 2 1 1 2 1 1 0 0 2 2 0 1 1 2 0 0 0 0 0 0 0 0 4 1 0 1 0 1 1 0 1 0 0 1 1 1 1 1 0 2 2 0 2 2 1 0 0 1 1 5 0 0 2 0 1 0 0 1 1 1 1 0 1 0 0 1 0 2 1 1 1 1 1 1 1 2 0 0 0 0 0 1 1 1 1 1 0 0 2 0 0 2 1 1 0 1 2 1 1 0 2 0 1 2 1 0 2 0 1 0 0 0 1 1 0 0 0 0 0 1 1 2 1 2 1 1 1 1 1 1 0 1 2 2 0 1 0 1 1 3 1 0 1 2 4 0 2 2 0 1 1 1 1 1 0 0 1 1 1 2 0 0 0 1 0 2 1 1 0 2 3 1 1 0 0 0 0 0 0 3 1 1 1 0 0 0 2 0 0 2 2 1 1 2 2 0 0 1 1 0 0 0 0 1 0 1 0 0 1 2 0 0 1 0 1 1 1 1 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 0 1 0 1 0 1 0 0 2 2 3 3 1 2 0 0 1 0 1 1 1 1 3 0 1 0 0 1 2 1 3 1 0 0 0 1 1 1 1 1 2 0 0 2 3 1 0 1 1 0 0 0 0 1 0 0 1 0 1 1 1 0 1 2 3 1 1 1 2 0 0 1 2 2 0 0 1 1 0 1 0 0 2 1 1 2 0 1 1 0 1 3 0 1 2 0 2 0 1 0 1 0 0 1 0 0 1 1 1 2 0 2 0 1 1 0 0 1 3 1 0 1 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 2 0 1 3 2 0 1 1 4 1 0 1 0 0 2 1 1 1 2 0 2 2 1 0 1 1 1 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 1 0 1 0 1 1 1 2 0 1 1 0 1 1 1 0 1 0 2 2 0 1 1 0 0 1 0 1 1 1 1 1 1 0 1 0 0 2 0 1 2 2 1 1 1 0 0 0 0 2 0 1 2 0 1 1 0 0 0 1 1 1 1 1 0 1 1 1 1 0 0 1 1 1 1 2 1 2 0 0 1 2 2 0 3 2 0 1 1 0 1 0 0 1 2 1 0 1 0 1 0 1 2 1 0 1 1 1 1 2 0 0 1 1 1 2 0 0 1 0 4 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 4 0 2 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 2 0 1 1 0 0 0 1 1 1 1 1 0 2 0 1 0 0 2 2 1 1 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 1 0 0 4 1 0 1 0 2 0 1 1 0 1 1 1 1 2 0 0 2 3 1 2 1 1 1 1 1 0 0 1 1 1 0 0 0 1 0 2 2 0 0 1 0 1 0 0 3 2 1 1 0 1 1 1 0 1 1 1 1 0 0 1 0 0 0 1 2 1 0 0 1 0 1 1 2 0 1 0 0 2 1 2 0 1 0 0 2 0 0 0 0 1 3 0 1 1 1 0 0 1 3 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 3 0 1 0 0 1 0 0 1 1 0 0 0 2 2 2 0 0 1 1 0 1 0 1 1 0 2 0 0 1 0 1 1 1 0 0 1 1 0 1 0 1 0 2 0 2 0 0 1 1 0 1 0 1 1 3 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 3 0 0 1 1 0 0 2 0 2 1 0 1 0 0 0 1 2 2 3 2 1 0 0 0 0 3 1 2 0 1 1 1 0 1 1 0 0 1 1 4 1 0 1 0 0 2 1 0 0 1 1 0 0 0 0 0 2 1 1 0 1 3 0 1 0 0 2 2 2 1 1 2 2 0 1 2 0 4 0 0 0 0 1 2 0 1 0 0 3 2 1 0 2 2 0 1 1 0 2 0 0 0 1 2 2 0 1 0 1 1 0 0 1 1 0 0 2 2 1 0 2 3 1 1 0 0 2 0 0 0 0 1 0 0 2 1 1 2 2 0 1 0 0 2 1 0 0 0 1 0 1 0 2 2 0 0 2 0 0 0 1 1 0 2 1 1 0 2 1 1 0 1 2 4 0 1 0 2 0 1 0 1 1 1 2 1 0 1 1 0 2 1 0 0 0 1 0 0 0 1 1 0 0 0 1 2 0 1 2 0 1 1 1 1 2 1 0 1 1 2 0 0 1 1 3 0 0 1 1 3 0 2 1 0 1 2 1 1 0 1 0 1 0 0 2 0 0 1 0 0 1 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 3 0 1 0 0 1 3 1 0 0 1 1 3 0 1 3 0 2 0 1 1 1 1 0 0 0 2 0 0 1 1 1 1 1 2 0 1 2 1 0 1 1 1 1 0 0 2 1 0 2 0 1 3 0 1 0 0 1 1 2 1 0 2 0 0 0 2 0 0 2 0 1 1 2 0 1 2 1 1 0 1 2 1 0 3 2 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 0 0 1 1 0 0 2 0 2 0 0 1 1 0 3 0 1 2 0 0 2 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 0 1 1 1 1 3 0 2 2 4 0 3 0 0 1 0 2 0 0 0 0 1 1 2 1 1 2 0 0 1 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 1 0 2 0 3 2 2 1 0 2 1 2 0 0 1 1 0 1 1 0 1 1 0 1 1 1 1 1 1 1 2 0 0 0 1 1 0 0 0 1 2 1 1 0 0 0 0 0 3 1 0 0 0 0 2 1 1 0 0 1 0 0 2 0 1 0 0 2 0 0 2 1 2 0 3 0 1 0 2 1 0 0 2 1 1 1 0 1 1 2 3 2 0 0 0 1 0 0 1 0 4 1 0 0 0 1 0 1 2 1 0 1 1 0 0 0 0 0 0 0 1 0 2 1 2 0 2 0 1 1 0 2 1 2 0 0 1 1 1 0 1 0 1 0 2 1 1 0 0 0 2 1 1 0 2 0 0 1 1 3 1 0 1 2 1 1 0 3 0 1 1 0 3 1 0 0 1 2 1 0 2 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 2 0 0 2 0 0 2 2 1 1 3 1 1 1 0 1 0 0 0 0 2 0 0 2 1 1 1 0 1 1 0 2 0 0 1 0 2 0 0 2 1 1 1 1 2 1 0 1 0 1 0 0 0 3 2 0 2 0 2 1 0 3 0 1 1 1 0 0 0 2 2 0 1 0 0 0 1 0 2 1 1 1 0 0 1 1 0 0 2 0 1 0 0 2 2 0 0 0 0 1 0 1 0 0 3 1 0 0 0 1 2 0 1 0 1 2 0 0 1 2 0 0 0 2 1 1 0 0 1 1 1 1 2 0 2 0 0 1 2 2 0 3 0 0 0 2 2 0 0 3 2 1 0 2 1 1 0 2 1 2 0 0 0 1 1 2 0 1 1 1 2 0 1 2 0 2 2 0 0 0 2 0 2 0 0 1 1 1 0 0 2 2 1 2 0 1 2 1 0 0 1 0 0 0 2 2 0 1 2 1 1 0 0 2 0 1 1 1 0 1 1 1 1 0 2 0 1 1 0 0 0 0 0 0 1 0 2 0 0 1 2 1 1 1 1 3 1 1 0 2 1 1 1 3 1 3 0 0 0 2 0 1 1 2 1 0 0 0 1 0 1 2 1 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 1 2 1 1 0 0 0 1 0 0 1 0 2 2 1 1 1 2 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 2 1 1 1 0 0 1 0 1 0 1 1 1 0 0 2 1 1 2 1 0 1 0 0 1 0 1 0 1 1 0 2 0 1 1 2 2 2 0 1 0 1 2 0 2 1 2 0 0 0 0 0 0 0 3 0 0 1 1 0 1 0 1 0 0 0 1 1 1 0 1 0 0 1 0 2 0 3 1 1 1 1 1 1 0 2 1 0 1 2 0 0 1 0 0 0 1 0 2 1 3 1 1 1 0 0 0 1 0 3 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 1 0 0 0 0 0 1 1 0 1 1 0 0 1 0 1 1 2 1 3 2 2 1 1 1 1 0 0 0 0 0 1 2 2 0 1 2 1 1 0 1 2 0 1 1 0 0 2 0 2 1 2 1 1 1 0 1 0 0 1 1 2 0 1 3 2 0 0 0 2 1 1 2 0 0 1 0 1 1 1 0 0 5 2 0 0 2 1 0 1 0 1 0 1 2 1 0 1 1 4 2 0 0 0 0 3 0 0 0 0 0 1 1 1 0 2 1 1 1 1 0 1 2 1 1 3 1 1 0 0 1 0 1 1 1 1 1 0 0 1 2 1 0 0 1 1 1 1 0 2 2 1 0 0 0 1 2 0 0 0 0 0 1 1 0 0 0 1 2 1 2 0 1 0 0 1 1 1 2 1 3 1 0 2 0 1 2 0 3 1 0 1 2 2 0 0 0 1 2 0 0 1 0 0 0 2 1 1 0 1 0 1 2 3 2 0 0 0 3 2 1 0 2 1 2 1 3 2 1 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 1 0 2 1 0 1 0 1 0 1 1 0 0 0 1 1 1 2 0 0 0 0 0 1 2 1 0 0 1 1 0 0 1 1 1 1 2 0 2 1 1 3 2 0 0 0 0 0 1 0 0 2 0 1 1 1 0 0 0 1 0 0 1 1 2 1 1 0 2 1 1 2 0 0 0 0 3 1 0 0 0 0 0 0 2 0 0 1 0 0 2 0 0 0 0 1 1 4 0 3 2 0 1 0 2 0 0 1 1 2 0 0 1 2 0 1 0 0 1 2 2 0 0 0 0 1 1 2 0 0 2 0 0 1 0 0 0 1 0 1 0 0 1 1 1 1 1 0 0 1 0 0 1 0 2 1 0 1 1 0 0 0 0 0 1 0 2 1 1 2 0 0 0 3 1 1 0 0 1 1 0 1 1 1 1 1 2 0 0 1 0 0 1 1 1 1 0 0 0 0 1 0 2 0 0 1 0 1 0 1 1 1 0 1 0 0 1 2 1 0 2 1 0 0 0 0 2 0 0 1 0 1 2 0 0 0 2 1 1 1 0 3 0 1 1 1 1 1 1 1 1 0 2 0 0 1 1 0 0 1 0 1 1 1 1 0 0 1 1 0 2 1 1 1 0 3 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 1 1 0 0 2 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 2 1 1 1 0 1 0 4 0 1 0 1 0 2 1 0 1 3 2 0 0 2 0 3 1 1 1 1 0 0 0 0 0 0 1 0 0 2 0 2 1 0 2 1 1 0 1 0 3 1 2 0 1 1 1 0 1 1 0 0 0 0 3 0 0 0 1 0 2 1 0 0 3 0 0 0 1 0 0 2 1 0 0 0 1 1 0 1 0 0 2 0 2 1 2 0 2 1 2 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 1 1 1 2 2 0 1 2 1 0 1 0 1 2 1 1 0 0 2 1 1 0 0 0 1 0 0 1 1 0 0 0 1 1 2 2 0 1 2 0 2 0 0 0 0 1 0 1 0 2 1 2 0 0 2 0 1 0 1 0 0 2 0 1 1 0 1 1 0 1 0 0 0 1 0 1 0 1 0 1 1 0 1 0 0 1 0 2 0 0 0 1 0 1 0 0 4 1 1 0 1 1 0 1 1 1 1 0 1 1 1 3 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 0 2 0 0 1 1 0 2 2 1 2 0 0 1 1 1 2 0 0 1 2 0 0 1 1 0 2 0 1 0 1 0 1 1 0 1 0 1 1 1 0 0 0 1 2 3 3 0 0 0 0 1 0 1 1 1 0 0 0 0 2 1 0 0 1 2 1 2 1 4 1 2 0 0 1 0 1 0 0 0 2 0 0 1 0 0 1 0 0 1 1 3 1 0 1 0 1 0 0 1 0 3 2 0 0 0 1 1 0 1 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 2 1 1 1 0 0 1 0 0 1 0 1 0 2 1 1 1 1 2 1 1 0 1 0 1 0 0 1 0 2 0 0 0 1 1 3 0 1 0 3 0 1 0 0 0 2 1 1 1 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 1 0 1 1 2 2 0 0 1 2 2 2 1 0 2 1 1 1 3 1 0 0 0 0 2 0 1 0 1 1 0 0 0 1 2 1 0 0 0 0 1 0 0 1 3 0 2 0 0 0 1 0 1 0 0 0 0 0 0 2 1 1 3 1 2 1 0 1 0 0 1 0 1 0 2 2 2 1 0 2 4 0 0 0 0 0 1 1 1 0 0 4 2 0 1 0 0 1 2 2 2 0 0 0 0 0 1 2 0 1 0 1 1 2 1 2 0 0 0 2 0 3 0 2 1 1 1 1 0 1 2 1 3 2 1 1 2 1 2 0 1 0 0 1 0 0 0 2 0 1 1 0 1 0 0 1 0 0 0 1 1 1 2 0 1 0 1 4 1 0 1 0 0 3 1 3 0 0 1 1 0 1 0 0 0 0 2 0 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 0 0 1 1 2 1 0 0 0 1 1 2 0 1 0 1 4 0 0 2 3 0 1 0 2 1 2 1 0 1 1 1 0 0 1 2 0 0 2 0 0 0 1 2 1 2 0 1 2 2 0 0 0 4 1 3 1 0 1 0 2 2 2 0 0 0 1 0 0 1 1 0 0 2 0 2 1 0 0 0 0 1 1 0 0 1 0 0 1 1 1 1 3 2 0 0 0 2 2 3 0 0 0 1 2 1 0 0 0 1 0 4 1 0 0 0 0 0 0 1 1 0 2 0 0 1 0 1 2 0 1 2 0 1 2 1 1 0 0 1 1 0 0 0 1 0 1 0 2 1 1 1 0 1 1 1 1 0 0 2 0 0 0 1 2 1 2 1 1 0 0 0 0 1 2 0 2 0 3 1 0 0 1 0 0 2 0 0 1 1 0 1 1 3 2 0 2 0 0 1 2 2 0 0 2 2 0 0 0 1 1 0 1 1 0 2 0 0 2 1 0 1 0 0 4 0 0 1 1 1 1 0 0 2 0 1 1 0 3 0 0 1 3 1 0 0 1 1 0 0 1 1 0 2 0 2 1 1 0 0 0 0 3 1 1 0 1 0 1 0 2 1 2 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0 0 1 1 2 0 2 0 1 1 0 2 0 1 0 0 0 1 1 1 0 2 0 0 1 0 1 0 1 1 2 0 3 2 2 1 1 1 2 0 0 2 0 0 0 1 0 3 1 0 1 1 1 0 0 1 0 1 1 1 0 0 0 1 2 1 0 1 1 1 0 0 0 0 2 1 1 2 0 0 2 0 1 1 2 1 4 1 0 0 2 3 0 1 1 0 1 1 1 1 1 0 1 2 0 1 2 0 0 1 0 1 1 0 2 0 2 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 1 0 0 1 1 1 1 0 1 2 2 1 3 2 0 0 0 2 0 1 1 0 1 1 0 0 1 2 1 2 1 2 3 0 3 1 0 1 2 1 0 2 1 1 1 1 1 1 0 2 0 2 1 2 1 0 1 1 0 0 1 0 3 1 0 0 1 0 0 1 0 1 0 3 0 1 1 0 0 2 1 0 0 0 1 1 0 0 1 3 2 1 1 1 1 1 0 1 2 0 0 1 0 1 0 2 1 0 0 0 1 3 0 1 0 0 0 0 2 1 0 0 3 1 0 2 1 1 1 0 0 0 1 1 1 2 0 0 1 2 0 2 0 0 2 0 0 1 2 2 2 1 0 1 0 0 1 1 1 1 1 0 0 2 0 3 0 2 0 1 2 0 1 1 1 0 0 0 1 0 1 1 2 0 1 0 0 0 0 2 0 3 0 0 3 0 1 0 0 1 0 1 0 0 0 0 0 1 2 0 1 1 2 1 1 1 1 2 1 2 1 3 2 0 1 0 1 2 2 2 2 0 1 2 0 1 0 0 2 2 0 1 1 1 0 0 0 1 1 0 0 0 1 1 2 0 1 1 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 1 1 0 1 1 3 0 0 0 0 1 0 1 1 1 1 0 0 0 1 1 0 4 2 1 1 1 0 0 0 0 3 1 0 0 2 0 1 1 1 3 1 0 0 1 1 2 0 0 1 0 2 1 0 1 1 0 1 1 0 0 1 0 1 0 1 1 0 0 1 1 0 1 0 0 2 0 0 0 0 0 1 1 0 1 1 0 3 0 0 2 1 0 0 0 0 2 0 3 0 1 0 2 0 1 1 1 1 0 3 1 0 1 0 0 0 0 1 1 1 3 1 1 1 0 1 0 0 3 1 1 1 1 0 0 2 1 2 2 1 1 1 2 1 1 2 0 0 0 1 2 1 1 1 0 0 1 0 1 2 1 0 2 1 2 0 0 0 2 2 3 0 1 2 0 1 1 2 1 0 2 0 0 1 0 2 1 2 0 2 1 1 1 2 1 1 0 1 0 2 0 1 2 0 1 2 1 2 0 1 2 0 1 1 1 2 0 0 1 0 0 1 0 0 1 2 2 1 0 0 0 0 1 1 0 0 0 2 0 1 0 1 2 0 1 0 0 0 0 1 0 1 0 0 0 1 1 1 2 0 1 2 1 2 1 1 0 1 0 1 1 0 1 1 1 0 2 1 1 1 1 0 1 2 0 1 1 0 2 2 2 0 0 1 0 1 0 1 1 1 1 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 1 1 1 1 1 1 1 2 1 3 0 0 1 0 1 0 0 1 4 0 0 3 1 2 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 1 0 0 2 0 1 0 0 1 1 1 0 2 1 1 0 1 0 2 1 0 0 0 1 0 4 1 1 1 0 0 0 1 1 1 0 0 0 3 0 0 0 0 3 3 1 2 1 0 0 0 2 1 1 1 0 1 2 0 2 1 1 0 1 2 1 2 0 0 0 0 2 2 0 1 1 0 0 1 0 1 1 2 1 1 3 2 0 0 0 1 1 1 0 0 1 0 2 0 2 0 1 0 0 1 1 0 1 0 1 1 0 1 0 1 1 1 0 1 1 0 1 0 2 1 3 0 0 0 1 3 1 1 0 2 0 0 0 1 1 0 0 1 0 1 1 1 1 1 1 1 0 0 1 0 3 1 0 2 1 0 0 0 0 1 0 0 1 1 0 0 1 1 1 3 2 1 0 1 0 3 0 0 0 2 1 2 1 1 0 0 0 1 0 1 2 1 1 2 0 0 1 0 1 0 0 0 0 1 2 0 1 1 2 0 1 0 1 1 1 3 0 2 0 1 1 1 1 1 0 2 1 1 0 0 0 3 1 1 0 0 2 2 0 2 1 1 2 1 1 1 0 1 0 0 1 2 0 1 2 1 2 1 1 2 2 1 1 1 0 1 4 1 2 1 0 2 0 2 1 0 1 1 0 2 0 0 2 0 0 1 1 0 0 0 2 1 1 3 0 0 2 1 0 2 1 2 0 0 1 1 1 0 0 1 0 0 0 0 1 3 0 1 2 3 2 2 1 1 0 1 0 2 2 1 0 2 1 0 0 1 0 1 0 0 0 2 1 0 0 1 0 1 1 0 1 1 2 2 2 2 0 0 3 2 2 0 1 1 0 1 0 2 0 0 1 1 0 2 0 0 1 1 0 0 1 1 1 1 1 3 1 0 0 1 3 0 1 0 0 1 1 0 3 0 1 1 2 1 2 1 1 1 1 0 1 0 0 0 0 2 1 0 0 0 1 0 2 0 1 2 0 0 0 2 1 2 0 0 1 0 1 2 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 1 1 1 3 1 0 0 0 0 0 2 2 0 0 1 1 1 2 0 1 1 0 1 1 2 3 1 1 1 1 1 0 1 1 1 2 2 0 0 2 2 0 1 1 2 0 1 0 3 1 1 0 1 0 0 1 0 0 2 1 1 1 0 0 1 0 0 0 0 1 0 1 0 2 1 2 1 0 0 0 2 0 1 0 0 0 1 3 2 1 1 2 1 0 1 0 2 0 1 1 1 1 0 1 2 0 3 1 1 0 0 1 0 2 0 0 0 0 0 2 0 0 0 0 3 0 0 2 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 2 0 0 1 1 1 0 0 1 2 1 1 2 0 0 1 1 1 1 1 1 3 1 1 1 2 1 1 1 2 0 0 0 2 0 2 1 0 3 0 3 0 1 1 2 0 1 1 0 1 0 1 1 0 0 0 0 0 2 1 0 0 3 0 2 2 2 0 1 1 1 1 1 1 1 0 2 2 1 0 0 1 1 1 1 0 3 1 0 1 1 0 2 0 2 2 1 0 0 1 1 1 3 0 1 0 1 0 1 1 1 0 0 3 0 1 1 0 1 1 2 2 1 2 1 2 2 0 2 0 1 1 1 1 1 0 0 0 1 0 0 1 3 1 0 1 0 0 1 0 1 0 1 0 0 0 1 2 0 3 2 0 0 0 3 0 1 1 1 0 0 0 0 1 0 1 0 2 1 1 0 1 2 0 0 1 2 1 0 1 2 0 0 3 1 1 0 1 2 1 2 0 0 0 1 1 2 0 1 1 0 1 1 1 0 1 4 0 0 1 1 2 1 0 0 0 0 1 1 2 0 2 1 1 0 0 1 0 0 1 1 1 0 2 0 1 1 0 2 1 2 1 1 1 0 1 1 0 0 3 0 0 0 0 1 3 1 0 1 1 1 1 1 0 2 1 0 0 0 2 1 0 0 2 0 2 3 1 1 0 0 1 1 2 1 1 0 1 0 1 1 1 2 1 1 1 0 1 0 0 0 1 1 0 2 2 2 0 0 1 0 2 0 0 1 1 0 1 0 1 2 1 2 2 0 2 1 0 1 0 0 3 0 2 0 0 1 1 0 0 0 2 2 0 0 2 1 1 1 0 0 2 0 1 0 1 2 1 0 1 2 2 0 1 0 1 1 0 1 1 3 1 0 1 1 0 1 0 1 0 0 1 1 1 1 2 0 1 1 0 0 1 2 0 2 0 0 1 1 2 1 1 0 1 2 1 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 0 0 0 1 3 1 0 0 1 3 2 1 3 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 1 1 0 1 2 0 0 1 0 0 1 1 1 0 2 0 1 0 0 3 3 1 3 2 1 0 0 1 0 2 2 3 0 3 0 0 0 2 1 0 1 3 2 1 2 0 2 1 0 1 1 0 1 2 2 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 2 1 3 0 1 1 0 0 1 0 2 0 2 2 1 2 1 0 0 1 1 0 1 3 1 0 2 1 1 0 0 1 1 2 0 0 1 1 2 3 1 0 1 1 3 1 3 1 1 1 1 0 1 3 0 1 1 2 0 0 0 0 1 0 2 0 1 0 2 0 3 0 1 0 0 1 2 0 1 0 0 0 0 0 0 1 0 2 1 1 2 1 1 0 0 1 1 2 1 0 0 0 2 0 0 1 1 0 1 0 2 0 1 0 0 0 0 1 0 0 2 0 2 0 0 1 2 0 0 1 1 1 0 1 0 2 0 2 0 1 0 1 3 1 0 0 1 1 1 2 2 0 1 1 0 1 1 1 2 0 1 1 1 0 1 1 2 0 2 1 0 0 1 1 1 0 1 3 1 1 0 0 0 2 0 1 1 2 2 2 0 0 0 0 1 0 1 0 2 0 1 1 0 1 0 0 0 2 2 2 1 0 2 0 2 0 1 2 0 0 0 0 1 2 1 0 2 2 2 0 0 2 1 1 0 0 0 2 1 0 1 2 2 1 1 0 0 0 0 1 1 2 2 0 0 0 0 0 0 1 1 1 0 3 1 1 1 0 1 0 0 1 1 3 1 0 0 2 3 3 1 0 1 0 2 1 0 0 1 1 0 0 0 1 0 1 3 1 1 2 0 2 0 1 2 1 1 2 0 1 2 2 1 0 2 0 0 1 0 2 0 0 2 1 2 0 1 0 2 0 2 1 0 1 1 1 1 0 0 1 1 2 0 0 2 1 0 0 2 2 1 0 0 0 1 1 0 2 3 0 2 0 0 0 0 1 1 0 0 2 2 2 2 1 0 2 2 1 0 1 0 2 2 1 0 1 2 1 3 1 1 0 1 0 0 1 1 2 2 1 0 0 3 1 0 2 1 0 1 0 0 1 0 0 0 1 0 2 0 2 1 0 0 0 1 2 2 1 1 2 1 1 0 0 3 2 0 1 1 1 2 0 2 2 0 2 1 0 2 2 1 2 1 0 1 1 1 0 1 0 1 0 1 0 2 0 0 0 1 1 0 0 0 0 2 1 0 0 0 1 1 1 0 1 1 0 1 1 1 2 2 2 0 3 2 1 1 2 1 0 1 1 0 0 0 2 0 0 2 1 3 0 0 1 1 1 0 0 2 2 0 1 2 0 1 0 4 0 0 1 2 0 0 1 1 1 0 0 0 2 1 0 2 0 0 1 1 1 0 0 1 1 0 0 0 2 1 1 2 1 0 2 1 1 0 1 0 0 0 2 1 0 1 0 1 0 3 1 2 0 0 0 2 1 1 0 0 3 0 0 1 2 2 2 0 0 1 3 2 1 1 1 1 0 1 0 1 2 0 0 0 0 2 0 0 1 0 1 2 1 1 1 0 0 1 1 2 0 1 0 2 0 0 0 2 0 0 1 0 0 0 0 1 1 0 3 1 0 0 2 0 2 1 1 2 0 2 1 0 1 2 1 0 1 1 1 0 1 0 2 1 1 1 2 2 1 3 0 0 3 1 0 1 1 0 3 0 0 0 1 0 3 0 0 1 1 1 1 0 1 0 2 1 1 2 0 2 1 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 0 0 1 1 1 0 0 0 0 2 2 0 1 0 0 1 2 0 1 1 1 0 0 1 1 2 2 0 1 4 1 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 2 2 0 0 0 1 0 0 3 1 1 0 1 1 0 1 0 3 2 0 0 1 0 1 2 0 2 1 2 1 0 0 1 2 1 1 0 0 1 0 0 0 1 1 1 0 3 1 2 0 1 2 0 1 1 0 2 0 0 1 0 2 1 0 0 0 3 0 0 1 1 1 1 1 1 1 0 3 0 0 1 0 0 1 0 0 2 1 0 3 1 1 2 2 0 0 3 0 1 0 1 0 1 2 0 0 1 0 0 0 2 1 1 2 1 1 0 2 2 0 0 0 1 0 1 1 1 0 0 0 1 1 1 0 0 1 1 3 0 0 1 1 4 2 3 0 0 0 0 0 2 2 0 1 0 1 3 0 1 1 1 1 0 0 1 0 0 0 1 1 1 2 0 0 1 0 0 1 1 1 0 1 1 0 2 0 1 0 1 0 0 1 1 1 1 0 0 1 0 2 3 0 0 1 1 0 3 1 1 2 0 0 0 0 2 0 0 1 2 1 0 2 2 1 0 0 1 3 1 0 0 1 0 1 1 1 0 0 1 1 1 1 1 1 0 2 0 0 1 1 0 1 1 0 3 1 0 3 0 1 1 1 0 0 1 2 1 1 2 1 1 0 0 1 2 2 1 2 1 0 1 2 0 2 3 2 1 2 1 0 1 2 0 0 2 1 2 0 0 2 1 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 2 0 0 1 2 1 0 0 1 0 1 0 0 0 1 0 0 2 2 1 1 0 1 2 2 1 0 0 0 0 0 0 0 0 1 2 1 2 1 1 0 1 1 0 0 0 0 2 1 0 0 0 0 0 1 0 1 3 0 3 1 1 3 0 1 2 3 2 2 1 1 0 0 2 1 1 1 2 0 0 1 0 0 1 1 0 0 0 1 0 0 1 1 0 0 3 2 1 1 0 0 0 0 1 0 0 0 1 0 1 2 1 2 1 1 0 0 1 1 2 1 2 2 1 2 0 0 3 0 1 1 2 0 1 2 0 2 1 0 1 1 1 1 0 1 0 0 1 0 1 2 1 2 1 2 0 1 2 2 1 0 0 0 2 3 1 1 1 4 1 0 1 1 0 1 1 1 2 2 0 0 0 0 0 0 0 1 1 0 1 3 1 1 0 0 0 1 0 0 1 1 1 0 0 1 2 2 0 0 0 1 0 1 0 2 0 2 1 2 0 1 2 1 2 0 1 1 2 3 0 0 0 2 0 1 0 0 0 1 1 0 1 1 1 1 1 1 0 0 1 0 2 1 1 0 0 1 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 1 2 0 1 1 1 1 0 2 3 1 1 1 1 0 2 0 1 2 0 1 0 1 2 0 1 1 1 1 1 2 1 1 0 1 0 1 2 0 1 1 0 0 1 1 0 0 3 1 1 1 0 0 1 0 1 0 1 0 0 0 2 1 1 0 0 1 0 0 0 0 0 1 0 2 0 0 1 1 1 0 2 0 1 0 0 0 1 1 0 0 0 1 2 0 0 1 0 0 1 2 1 0 0 2 2 0 2 0 2 1 1 1 1 0 3 0 3 3 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 4 2 0 0 0 1 2 1 3 3 1 0 0 0 2 1 1 0 1 2 0 0 2 0 1 1 1 3 2 1 0 0 2 1 0 2 0 0 1 0 0 0 1 0 2 1 0 0 0 1 1 2 2 0 0 2 0 1 2 2 2 2 0 0 0 0 0 1 1 0 0 1 0 3 2 1 0 1 2 2 0 0 3 0 1 1 2 1 0 0 1 0 1 0 1 0 2 0 0 0 0 2 0 0 0 0 0 1 1 3 0 0 0 0 1 0 2 1 1 2 1 0 1 2 2 1 1 1 0 2 1 2 0 0 1 0 0 0 1 2 1 2 0 2 0 1 2 1 3 2 1 2 1 1 0 0 2 1 1 2 1 0 0 0 1 0 1 2 2 0 1 0 2 1 2 0 0 0 1 1 2 0 1 0 0 2 0 0 1 1 1 0 2 2 1 0 0 0 0 1 0 0 0 0 2 0 0 1 0 1 2 2 1 0 1 2 2 1 1 3 2 2 0 0 1 0 0 1 0 0 1 1 0 1 0 0 1 0 1 2 2 0 0 1 2 0 0 1 0 0 1 2 0 1 0 0 1 1 2 2 1 0 1 1 0 0 1 1 0 1 0 2 0 2 0 0 1 0 1 1 1 1 2 1 1 3 0 1 1 1 0 0 2 1 1 1 0 2 1 0 1 0 0 1 1 0 0 1 1 3 0 0 1 1 1 0 0 0 0 1 1 1 1 0 0 0 1 2 2 0 1 0 0 0 2 0 3 3 1 1 0 1 1 2 1 1 1 2 1 1 1 1 1 0 5 0 0 1 0 0 1 2 1 0 2 0 1 0 0 0 1 1 3 0 0 0 0 0 2 0 2 1 1 1 0 2 1 1 1 0 1 0 0 0 0 2 0 0 1 0 1 0 0 1 0 1 0 0 1 1 2 2 0 0 2 0 1 0 1 1 2 3 3 1 1 0 0 0 0 0 1 1 0 1 5 3 3 3 0 0 0 0 0 1 0 1 1 0 1 1 3 0 1 0 1 1 0 0 1 0 1 0 0 1 0 0 1 0 2 1 1 0 0 1 1 1 0 0 1 0 1 0 0 1 0 1 1 1 0 0 2 1 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 1 0 1 0 0 0 0 1 0 2 0 0 0 2 0 1 1 0 2 0 0 0 0 1 2 1 0 2 4 0 0 3 2 0 0 0 1 1 0 2 1 0 0 2 0 1 1 1 0 2 0 1 0 0 0 0 0 2 0 1 0 0 0 0 0 1 1 0 1 1 0 2 2 1 1 1 3 1 0 0 0 1 1 1 1 0 0 1 1 1 1 1 0 1 0 1 2 1 1 1 2 0 0 0 2 0 0 1 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 3 1 0 1 1 2 0 0 0 0 1 0 0 3 0 0 0 0 3 0 1 1 1 2 0 0 1 1 1 5 2 0 0 1 0 0 2 0 1 1 0 2 0 1 0 1 1 1 0 1 1 1 1 0 2 2 0 0 1 0 0 1 0 4 3 3 2 0 1 2 0 1 1 1 1 1 1 0</t>
   </si>
   <si>
     <t>K.Murray</t>
@@ -773,16 +773,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>47.6</v>
+        <v>47.5</v>
       </c>
       <c r="C2">
-        <v>51.4</v>
+        <v>51.5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -800,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>5.41</v>
+        <v>5.44</v>
       </c>
       <c r="L2">
         <v>5.16</v>
@@ -859,16 +859,16 @@
         <v>32.8</v>
       </c>
       <c r="E2">
-        <v>230.06</v>
+        <v>229.49</v>
       </c>
       <c r="F2">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G2">
         <v>0.41</v>
       </c>
       <c r="H2">
-        <v>112.88</v>
+        <v>113.01</v>
       </c>
       <c r="I2">
         <v>0.8</v>
@@ -997,10 +997,10 @@
         <v>32.8</v>
       </c>
       <c r="E2">
-        <v>230.06</v>
+        <v>229.49</v>
       </c>
       <c r="F2">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G2">
         <v>0.41</v>
@@ -1009,19 +1009,19 @@
         <v>0.06</v>
       </c>
       <c r="I2">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J2">
-        <v>8.550000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="K2">
         <v>0.07000000000000001</v>
       </c>
       <c r="L2">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="M2">
-        <v>14.49</v>
+        <v>14.53</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1053,7 +1053,7 @@
         <v>0.1</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1162,13 +1162,13 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>2.47</v>
+        <v>2.44</v>
       </c>
       <c r="D2">
-        <v>25.61</v>
+        <v>25.15</v>
       </c>
       <c r="E2">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="F2">
         <v>0.27</v>
@@ -1177,19 +1177,19 @@
         <v>17.1</v>
       </c>
       <c r="H2">
-        <v>76.86</v>
+        <v>77.27</v>
       </c>
       <c r="I2">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="J2">
         <v>0.02</v>
       </c>
       <c r="K2">
-        <v>16.23</v>
+        <v>16.17</v>
       </c>
       <c r="L2">
-        <v>13.76</v>
+        <v>13.73</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1200,13 +1200,13 @@
         <v>56</v>
       </c>
       <c r="C3">
-        <v>4.96</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>52.82</v>
+        <v>53.22</v>
       </c>
       <c r="E3">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="F3">
         <v>0.07000000000000001</v>
@@ -1215,7 +1215,7 @@
         <v>0.3</v>
       </c>
       <c r="H3">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -1224,10 +1224,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>11.92</v>
+        <v>12.08</v>
       </c>
       <c r="L3">
-        <v>6.96</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1238,10 +1238,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="D4">
-        <v>26.72</v>
+        <v>26.29</v>
       </c>
       <c r="E4">
         <v>0.14</v>
@@ -1253,19 +1253,19 @@
         <v>3.2</v>
       </c>
       <c r="H4">
-        <v>14.54</v>
+        <v>14.39</v>
       </c>
       <c r="I4">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="J4">
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>8.06</v>
+        <v>7.96</v>
       </c>
       <c r="L4">
-        <v>5.47</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1279,10 +1279,10 @@
         <v>3.16</v>
       </c>
       <c r="D5">
-        <v>33.35</v>
+        <v>33.28</v>
       </c>
       <c r="E5">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F5">
         <v>0.04</v>
@@ -1291,19 +1291,19 @@
         <v>0.1</v>
       </c>
       <c r="H5">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>7.58</v>
+        <v>7.53</v>
       </c>
       <c r="L5">
-        <v>4.41</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1317,10 +1317,10 @@
         <v>2.22</v>
       </c>
       <c r="D6">
-        <v>23.03</v>
+        <v>23.13</v>
       </c>
       <c r="E6">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F6">
         <v>0.03</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.23</v>
+        <v>5.21</v>
       </c>
       <c r="L6">
-        <v>3.01</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1352,16 +1352,16 @@
         <v>60</v>
       </c>
       <c r="C7">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="D7">
-        <v>20.49</v>
+        <v>20.54</v>
       </c>
       <c r="E7">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1373,13 +1373,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="L7">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1390,10 +1390,10 @@
         <v>61</v>
       </c>
       <c r="C8">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="D8">
-        <v>16.56</v>
+        <v>16.62</v>
       </c>
       <c r="E8">
         <v>0.09</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="L8">
         <v>2.17</v>
@@ -1431,19 +1431,19 @@
         <v>0.88</v>
       </c>
       <c r="D9">
-        <v>9.390000000000001</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="E9">
         <v>0.05</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9">
         <v>0.2</v>
       </c>
       <c r="H9">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="I9">
         <v>0.01</v>
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="L9">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1466,10 +1466,10 @@
         <v>63</v>
       </c>
       <c r="C10">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="D10">
-        <v>8.210000000000001</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="E10">
         <v>0.04</v>
@@ -1490,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="L10">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1504,10 +1504,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="D11">
-        <v>3.03</v>
+        <v>2.86</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -1519,19 +1519,19 @@
         <v>1.8</v>
       </c>
       <c r="H11">
-        <v>8.109999999999999</v>
+        <v>8.08</v>
       </c>
       <c r="I11">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="L11">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1542,10 +1542,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="D12">
-        <v>7.59</v>
+        <v>7.52</v>
       </c>
       <c r="E12">
         <v>0.04</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="L12">
         <v>0.99</v>
@@ -1583,7 +1583,7 @@
         <v>0.13</v>
       </c>
       <c r="D13">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -1604,10 +1604,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="L13">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1665,13 +1665,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G15">
         <v>0.4</v>
       </c>
       <c r="H15">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="I15">
         <v>0.01</v>
@@ -1697,7 +1697,7 @@
         <v>0.06</v>
       </c>
       <c r="D16">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1718,10 +1718,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="L16">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1926,22 +1926,22 @@
         <v>1.79</v>
       </c>
       <c r="D2">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="E2">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="F2">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
         <v>0.4</v>
       </c>
       <c r="H2">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>7.2</v>
+        <v>7.18</v>
       </c>
     </row>
   </sheetData>
@@ -1991,25 +1991,25 @@
         <v>19.2</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E2">
-        <v>250.5</v>
+        <v>252.12</v>
       </c>
       <c r="F2">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H2">
-        <v>103.4</v>
+        <v>102.49</v>
       </c>
       <c r="I2">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2129,19 +2129,19 @@
         <v>97</v>
       </c>
       <c r="C2">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="D2">
-        <v>33.1</v>
+        <v>33.2</v>
       </c>
       <c r="E2">
-        <v>250.49</v>
+        <v>252.11</v>
       </c>
       <c r="F2">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H2">
         <v>0.12</v>
@@ -2150,16 +2150,16 @@
         <v>4.5</v>
       </c>
       <c r="J2">
-        <v>16.9</v>
+        <v>17.13</v>
       </c>
       <c r="K2">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="L2">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="M2">
-        <v>16.61</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2185,13 +2185,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0.3</v>
       </c>
       <c r="J3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="K3">
         <v>0.01</v>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>
@@ -2300,10 +2300,10 @@
         <v>100</v>
       </c>
       <c r="C2">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="D2">
-        <v>21.34</v>
+        <v>21.72</v>
       </c>
       <c r="E2">
         <v>0.11</v>
@@ -2315,7 +2315,7 @@
         <v>10.6</v>
       </c>
       <c r="H2">
-        <v>45.48</v>
+        <v>44.74</v>
       </c>
       <c r="I2">
         <v>0.35</v>
@@ -2324,10 +2324,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>10.98</v>
+        <v>11.02</v>
       </c>
       <c r="L2">
-        <v>8.960000000000001</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2338,13 +2338,13 @@
         <v>101</v>
       </c>
       <c r="C3">
-        <v>4.46</v>
+        <v>4.5</v>
       </c>
       <c r="D3">
-        <v>49.66</v>
+        <v>50.04</v>
       </c>
       <c r="E3">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F3">
         <v>0.08</v>
@@ -2362,10 +2362,10 @@
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>10.85</v>
+        <v>10.97</v>
       </c>
       <c r="L3">
-        <v>6.4</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2379,7 +2379,7 @@
         <v>4.24</v>
       </c>
       <c r="D4">
-        <v>47.99</v>
+        <v>47.79</v>
       </c>
       <c r="E4">
         <v>0.26</v>
@@ -2391,7 +2391,7 @@
         <v>0.6</v>
       </c>
       <c r="H4">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="I4">
         <v>0.02</v>
@@ -2400,10 +2400,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.82</v>
+        <v>10.77</v>
       </c>
       <c r="L4">
-        <v>6.58</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2414,10 +2414,10 @@
         <v>103</v>
       </c>
       <c r="C5">
-        <v>4.17</v>
+        <v>4.18</v>
       </c>
       <c r="D5">
-        <v>43.93</v>
+        <v>44.32</v>
       </c>
       <c r="E5">
         <v>0.23</v>
@@ -2429,7 +2429,7 @@
         <v>1.2</v>
       </c>
       <c r="H5">
-        <v>5.01</v>
+        <v>4.99</v>
       </c>
       <c r="I5">
         <v>0.04</v>
@@ -2438,10 +2438,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>10.5</v>
+        <v>10.55</v>
       </c>
       <c r="L5">
-        <v>6.33</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2452,13 +2452,13 @@
         <v>104</v>
       </c>
       <c r="C6">
-        <v>3.99</v>
+        <v>4.04</v>
       </c>
       <c r="D6">
-        <v>42.59</v>
+        <v>43.31</v>
       </c>
       <c r="E6">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="F6">
         <v>0.07000000000000001</v>
@@ -2467,7 +2467,7 @@
         <v>0.1</v>
       </c>
       <c r="H6">
-        <v>0.34</v>
+        <v>0.27</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0.01</v>
       </c>
       <c r="K6">
-        <v>9.51</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L6">
         <v>5.51</v>
@@ -2490,13 +2490,13 @@
         <v>105</v>
       </c>
       <c r="C7">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="D7">
-        <v>16.28</v>
+        <v>16.12</v>
       </c>
       <c r="E7">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="F7">
         <v>0.14</v>
@@ -2505,19 +2505,19 @@
         <v>6.4</v>
       </c>
       <c r="H7">
-        <v>27.31</v>
+        <v>27.17</v>
       </c>
       <c r="I7">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="J7">
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>7.42</v>
+        <v>7.39</v>
       </c>
       <c r="L7">
-        <v>5.88</v>
+        <v>5.87</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2528,10 +2528,10 @@
         <v>106</v>
       </c>
       <c r="C8">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="D8">
-        <v>11.31</v>
+        <v>11.54</v>
       </c>
       <c r="E8">
         <v>0.06</v>
@@ -2552,10 +2552,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="L8">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2566,16 +2566,16 @@
         <v>107</v>
       </c>
       <c r="C9">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="D9">
-        <v>9.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E9">
         <v>0.05</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2590,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="L9">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2607,7 +2607,7 @@
         <v>0.23</v>
       </c>
       <c r="D10">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="E10">
         <v>0.01</v>
@@ -2628,10 +2628,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2645,7 +2645,7 @@
         <v>0.32</v>
       </c>
       <c r="D11">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -2666,10 +2666,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="L11">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2683,7 +2683,7 @@
         <v>0.15</v>
       </c>
       <c r="D12">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -2704,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="L12">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2730,10 +2730,10 @@
         <v>0.01</v>
       </c>
       <c r="G13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H13">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -2742,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="L13">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2909,13 +2909,13 @@
         <v>115</v>
       </c>
       <c r="C2">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="D2">
         <v>1.98</v>
       </c>
       <c r="E2">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="F2">
         <v>1.21</v>
@@ -2924,10 +2924,10 @@
         <v>0.47</v>
       </c>
       <c r="H2">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="I2">
-        <v>7.35</v>
+        <v>7.33</v>
       </c>
     </row>
   </sheetData>
